--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,33 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>England EFL League Two</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Swindon Town</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['64']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +809,212 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7476541</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45513.66666666666</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2">
+        <v>2.2</v>
+      </c>
+      <c r="R2">
+        <v>2.5</v>
+      </c>
+      <c r="S2">
+        <v>4.5</v>
+      </c>
+      <c r="T2">
+        <v>1.29</v>
+      </c>
+      <c r="U2">
+        <v>3.5</v>
+      </c>
+      <c r="V2">
+        <v>2.25</v>
+      </c>
+      <c r="W2">
+        <v>1.57</v>
+      </c>
+      <c r="X2">
+        <v>5.5</v>
+      </c>
+      <c r="Y2">
+        <v>1.14</v>
+      </c>
+      <c r="Z2">
+        <v>1.68</v>
+      </c>
+      <c r="AA2">
+        <v>4.11</v>
+      </c>
+      <c r="AB2">
+        <v>4.24</v>
+      </c>
+      <c r="AC2">
+        <v>1.02</v>
+      </c>
+      <c r="AD2">
+        <v>10</v>
+      </c>
+      <c r="AE2">
+        <v>1.16</v>
+      </c>
+      <c r="AF2">
+        <v>5</v>
+      </c>
+      <c r="AG2">
+        <v>1.43</v>
+      </c>
+      <c r="AH2">
+        <v>2.33</v>
+      </c>
+      <c r="AI2">
+        <v>1.53</v>
+      </c>
+      <c r="AJ2">
+        <v>2.38</v>
+      </c>
+      <c r="AK2">
+        <v>1.22</v>
+      </c>
+      <c r="AL2">
+        <v>1.18</v>
+      </c>
+      <c r="AM2">
+        <v>2.1</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>5</v>
+      </c>
+      <c r="AV2">
+        <v>2</v>
+      </c>
+      <c r="AW2">
+        <v>3</v>
+      </c>
+      <c r="AX2">
+        <v>4</v>
+      </c>
+      <c r="AY2">
+        <v>8</v>
+      </c>
+      <c r="AZ2">
+        <v>6</v>
+      </c>
+      <c r="BA2">
+        <v>5</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>5</v>
+      </c>
+      <c r="BD2">
+        <v>1.41</v>
+      </c>
+      <c r="BE2">
+        <v>9</v>
+      </c>
+      <c r="BF2">
+        <v>3.49</v>
+      </c>
+      <c r="BG2">
+        <v>1.21</v>
+      </c>
+      <c r="BH2">
+        <v>3.9</v>
+      </c>
+      <c r="BI2">
+        <v>1.36</v>
+      </c>
+      <c r="BJ2">
+        <v>2.78</v>
+      </c>
+      <c r="BK2">
+        <v>1.7</v>
+      </c>
+      <c r="BL2">
+        <v>2.05</v>
+      </c>
+      <c r="BM2">
+        <v>2.09</v>
+      </c>
+      <c r="BN2">
+        <v>1.66</v>
+      </c>
+      <c r="BO2">
+        <v>2.71</v>
+      </c>
+      <c r="BP2">
+        <v>1.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,13 +229,124 @@
     <t>Chesterfield</t>
   </si>
   <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Cheltenham Town</t>
+  </si>
+  <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Harrogate Town</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Salford City</t>
+  </si>
+  <si>
+    <t>Tranmere Rovers</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
     <t>Swindon Town</t>
   </si>
   <si>
+    <t>Colchester United</t>
+  </si>
+  <si>
+    <t>Crewe Alexandra</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Accrington Stanley</t>
+  </si>
+  <si>
+    <t>Grimsby Town</t>
+  </si>
+  <si>
+    <t>Carlisle United</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
     <t>['15']</t>
   </si>
   <si>
+    <t>['13', '30', '38', '54']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['22', '27', '90+6']</t>
+  </si>
+  <si>
+    <t>['43', '62', '68', '87']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['2', '48', '77', '87']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['1', '9']</t>
+  </si>
+  <si>
+    <t>['31', '43']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['62', '71']</t>
+  </si>
+  <si>
+    <t>['3', '5']</t>
+  </si>
+  <si>
+    <t>['45+3', '69']</t>
   </si>
 </sst>
 </file>
@@ -597,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP2"/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +943,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -853,10 +964,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1013,6 +1124,2272 @@
       </c>
       <c r="BP2">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7476542</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3">
+        <v>2.5</v>
+      </c>
+      <c r="R3">
+        <v>2.2</v>
+      </c>
+      <c r="S3">
+        <v>4.33</v>
+      </c>
+      <c r="T3">
+        <v>1.36</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>2.75</v>
+      </c>
+      <c r="W3">
+        <v>1.4</v>
+      </c>
+      <c r="X3">
+        <v>7</v>
+      </c>
+      <c r="Y3">
+        <v>1.1</v>
+      </c>
+      <c r="Z3">
+        <v>1.95</v>
+      </c>
+      <c r="AA3">
+        <v>3.5</v>
+      </c>
+      <c r="AB3">
+        <v>3.7</v>
+      </c>
+      <c r="AC3">
+        <v>1.01</v>
+      </c>
+      <c r="AD3">
+        <v>9.6</v>
+      </c>
+      <c r="AE3">
+        <v>1.25</v>
+      </c>
+      <c r="AF3">
+        <v>3.42</v>
+      </c>
+      <c r="AG3">
+        <v>1.86</v>
+      </c>
+      <c r="AH3">
+        <v>1.93</v>
+      </c>
+      <c r="AI3">
+        <v>1.73</v>
+      </c>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>1.25</v>
+      </c>
+      <c r="AL3">
+        <v>1.25</v>
+      </c>
+      <c r="AM3">
+        <v>1.9</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>3</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>7</v>
+      </c>
+      <c r="AV3">
+        <v>4</v>
+      </c>
+      <c r="AW3">
+        <v>3</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>10</v>
+      </c>
+      <c r="AZ3">
+        <v>5</v>
+      </c>
+      <c r="BA3">
+        <v>5</v>
+      </c>
+      <c r="BB3">
+        <v>2</v>
+      </c>
+      <c r="BC3">
+        <v>7</v>
+      </c>
+      <c r="BD3">
+        <v>1.51</v>
+      </c>
+      <c r="BE3">
+        <v>8.5</v>
+      </c>
+      <c r="BF3">
+        <v>3.07</v>
+      </c>
+      <c r="BG3">
+        <v>1.22</v>
+      </c>
+      <c r="BH3">
+        <v>3.8</v>
+      </c>
+      <c r="BI3">
+        <v>1.33</v>
+      </c>
+      <c r="BJ3">
+        <v>2.93</v>
+      </c>
+      <c r="BK3">
+        <v>1.7</v>
+      </c>
+      <c r="BL3">
+        <v>2.05</v>
+      </c>
+      <c r="BM3">
+        <v>2.05</v>
+      </c>
+      <c r="BN3">
+        <v>1.7</v>
+      </c>
+      <c r="BO3">
+        <v>2.57</v>
+      </c>
+      <c r="BP3">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7476543</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4">
+        <v>2.6</v>
+      </c>
+      <c r="R4">
+        <v>2.2</v>
+      </c>
+      <c r="S4">
+        <v>4.33</v>
+      </c>
+      <c r="T4">
+        <v>1.4</v>
+      </c>
+      <c r="U4">
+        <v>2.75</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>1.36</v>
+      </c>
+      <c r="X4">
+        <v>8</v>
+      </c>
+      <c r="Y4">
+        <v>1.08</v>
+      </c>
+      <c r="Z4">
+        <v>1.9</v>
+      </c>
+      <c r="AA4">
+        <v>3.48</v>
+      </c>
+      <c r="AB4">
+        <v>3.91</v>
+      </c>
+      <c r="AC4">
+        <v>1.02</v>
+      </c>
+      <c r="AD4">
+        <v>8.9</v>
+      </c>
+      <c r="AE4">
+        <v>1.28</v>
+      </c>
+      <c r="AF4">
+        <v>3.2</v>
+      </c>
+      <c r="AG4">
+        <v>1.96</v>
+      </c>
+      <c r="AH4">
+        <v>1.83</v>
+      </c>
+      <c r="AI4">
+        <v>1.8</v>
+      </c>
+      <c r="AJ4">
+        <v>1.91</v>
+      </c>
+      <c r="AK4">
+        <v>1.25</v>
+      </c>
+      <c r="AL4">
+        <v>1.25</v>
+      </c>
+      <c r="AM4">
+        <v>1.87</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>5</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>2</v>
+      </c>
+      <c r="AX4">
+        <v>5</v>
+      </c>
+      <c r="AY4">
+        <v>7</v>
+      </c>
+      <c r="AZ4">
+        <v>5</v>
+      </c>
+      <c r="BA4">
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <v>4</v>
+      </c>
+      <c r="BC4">
+        <v>7</v>
+      </c>
+      <c r="BD4">
+        <v>1.69</v>
+      </c>
+      <c r="BE4">
+        <v>8</v>
+      </c>
+      <c r="BF4">
+        <v>2.54</v>
+      </c>
+      <c r="BG4">
+        <v>1.25</v>
+      </c>
+      <c r="BH4">
+        <v>3.6</v>
+      </c>
+      <c r="BI4">
+        <v>1.37</v>
+      </c>
+      <c r="BJ4">
+        <v>2.75</v>
+      </c>
+      <c r="BK4">
+        <v>1.82</v>
+      </c>
+      <c r="BL4">
+        <v>1.98</v>
+      </c>
+      <c r="BM4">
+        <v>2.11</v>
+      </c>
+      <c r="BN4">
+        <v>1.65</v>
+      </c>
+      <c r="BO4">
+        <v>2.75</v>
+      </c>
+      <c r="BP4">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7476544</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5">
+        <v>2.4</v>
+      </c>
+      <c r="R5">
+        <v>2.2</v>
+      </c>
+      <c r="S5">
+        <v>4.75</v>
+      </c>
+      <c r="T5">
+        <v>1.36</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>2.75</v>
+      </c>
+      <c r="W5">
+        <v>1.4</v>
+      </c>
+      <c r="X5">
+        <v>7</v>
+      </c>
+      <c r="Y5">
+        <v>1.1</v>
+      </c>
+      <c r="Z5">
+        <v>1.74</v>
+      </c>
+      <c r="AA5">
+        <v>3.7</v>
+      </c>
+      <c r="AB5">
+        <v>4.42</v>
+      </c>
+      <c r="AC5">
+        <v>1.04</v>
+      </c>
+      <c r="AD5">
+        <v>12</v>
+      </c>
+      <c r="AE5">
+        <v>1.28</v>
+      </c>
+      <c r="AF5">
+        <v>3.75</v>
+      </c>
+      <c r="AG5">
+        <v>1.87</v>
+      </c>
+      <c r="AH5">
+        <v>1.92</v>
+      </c>
+      <c r="AI5">
+        <v>1.8</v>
+      </c>
+      <c r="AJ5">
+        <v>1.91</v>
+      </c>
+      <c r="AK5">
+        <v>1.2</v>
+      </c>
+      <c r="AL5">
+        <v>1.22</v>
+      </c>
+      <c r="AM5">
+        <v>2.05</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>6</v>
+      </c>
+      <c r="AV5">
+        <v>7</v>
+      </c>
+      <c r="AW5">
+        <v>6</v>
+      </c>
+      <c r="AX5">
+        <v>4</v>
+      </c>
+      <c r="AY5">
+        <v>12</v>
+      </c>
+      <c r="AZ5">
+        <v>11</v>
+      </c>
+      <c r="BA5">
+        <v>4</v>
+      </c>
+      <c r="BB5">
+        <v>6</v>
+      </c>
+      <c r="BC5">
+        <v>10</v>
+      </c>
+      <c r="BD5">
+        <v>1.55</v>
+      </c>
+      <c r="BE5">
+        <v>8.5</v>
+      </c>
+      <c r="BF5">
+        <v>2.91</v>
+      </c>
+      <c r="BG5">
+        <v>1.29</v>
+      </c>
+      <c r="BH5">
+        <v>3.3</v>
+      </c>
+      <c r="BI5">
+        <v>1.45</v>
+      </c>
+      <c r="BJ5">
+        <v>2.55</v>
+      </c>
+      <c r="BK5">
+        <v>1.8</v>
+      </c>
+      <c r="BL5">
+        <v>1.91</v>
+      </c>
+      <c r="BM5">
+        <v>2.32</v>
+      </c>
+      <c r="BN5">
+        <v>1.54</v>
+      </c>
+      <c r="BO5">
+        <v>3.1</v>
+      </c>
+      <c r="BP5">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7476545</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6">
+        <v>2.1</v>
+      </c>
+      <c r="R6">
+        <v>2.38</v>
+      </c>
+      <c r="S6">
+        <v>5.5</v>
+      </c>
+      <c r="T6">
+        <v>1.33</v>
+      </c>
+      <c r="U6">
+        <v>3.25</v>
+      </c>
+      <c r="V6">
+        <v>2.5</v>
+      </c>
+      <c r="W6">
+        <v>1.5</v>
+      </c>
+      <c r="X6">
+        <v>6.5</v>
+      </c>
+      <c r="Y6">
+        <v>1.11</v>
+      </c>
+      <c r="Z6">
+        <v>1.58</v>
+      </c>
+      <c r="AA6">
+        <v>4.09</v>
+      </c>
+      <c r="AB6">
+        <v>5.08</v>
+      </c>
+      <c r="AC6">
+        <v>1.02</v>
+      </c>
+      <c r="AD6">
+        <v>15</v>
+      </c>
+      <c r="AE6">
+        <v>1.22</v>
+      </c>
+      <c r="AF6">
+        <v>4.2</v>
+      </c>
+      <c r="AG6">
+        <v>1.7</v>
+      </c>
+      <c r="AH6">
+        <v>2.05</v>
+      </c>
+      <c r="AI6">
+        <v>1.73</v>
+      </c>
+      <c r="AJ6">
+        <v>2</v>
+      </c>
+      <c r="AK6">
+        <v>1.15</v>
+      </c>
+      <c r="AL6">
+        <v>1.18</v>
+      </c>
+      <c r="AM6">
+        <v>2.35</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>3</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>5</v>
+      </c>
+      <c r="AV6">
+        <v>3</v>
+      </c>
+      <c r="AW6">
+        <v>7</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>12</v>
+      </c>
+      <c r="AZ6">
+        <v>3</v>
+      </c>
+      <c r="BA6">
+        <v>5</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>6</v>
+      </c>
+      <c r="BD6">
+        <v>1.45</v>
+      </c>
+      <c r="BE6">
+        <v>8.5</v>
+      </c>
+      <c r="BF6">
+        <v>3.29</v>
+      </c>
+      <c r="BG6">
+        <v>1.22</v>
+      </c>
+      <c r="BH6">
+        <v>3.8</v>
+      </c>
+      <c r="BI6">
+        <v>1.33</v>
+      </c>
+      <c r="BJ6">
+        <v>2.93</v>
+      </c>
+      <c r="BK6">
+        <v>1.85</v>
+      </c>
+      <c r="BL6">
+        <v>1.85</v>
+      </c>
+      <c r="BM6">
+        <v>2.05</v>
+      </c>
+      <c r="BN6">
+        <v>1.7</v>
+      </c>
+      <c r="BO6">
+        <v>2.57</v>
+      </c>
+      <c r="BP6">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7476546</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7">
+        <v>2.5</v>
+      </c>
+      <c r="R7">
+        <v>2.2</v>
+      </c>
+      <c r="S7">
+        <v>4.33</v>
+      </c>
+      <c r="T7">
+        <v>1.36</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>2.75</v>
+      </c>
+      <c r="W7">
+        <v>1.4</v>
+      </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
+        <v>1.1</v>
+      </c>
+      <c r="Z7">
+        <v>1.85</v>
+      </c>
+      <c r="AA7">
+        <v>3.58</v>
+      </c>
+      <c r="AB7">
+        <v>4.03</v>
+      </c>
+      <c r="AC7">
+        <v>1.01</v>
+      </c>
+      <c r="AD7">
+        <v>9.4</v>
+      </c>
+      <c r="AE7">
+        <v>1.25</v>
+      </c>
+      <c r="AF7">
+        <v>3.42</v>
+      </c>
+      <c r="AG7">
+        <v>1.88</v>
+      </c>
+      <c r="AH7">
+        <v>1.91</v>
+      </c>
+      <c r="AI7">
+        <v>1.73</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7">
+        <v>1.25</v>
+      </c>
+      <c r="AL7">
+        <v>1.25</v>
+      </c>
+      <c r="AM7">
+        <v>1.9</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>2</v>
+      </c>
+      <c r="AW7">
+        <v>2</v>
+      </c>
+      <c r="AX7">
+        <v>2</v>
+      </c>
+      <c r="AY7">
+        <v>7</v>
+      </c>
+      <c r="AZ7">
+        <v>4</v>
+      </c>
+      <c r="BA7">
+        <v>10</v>
+      </c>
+      <c r="BB7">
+        <v>3</v>
+      </c>
+      <c r="BC7">
+        <v>13</v>
+      </c>
+      <c r="BD7">
+        <v>1.59</v>
+      </c>
+      <c r="BE7">
+        <v>8.5</v>
+      </c>
+      <c r="BF7">
+        <v>2.78</v>
+      </c>
+      <c r="BG7">
+        <v>1.18</v>
+      </c>
+      <c r="BH7">
+        <v>4.33</v>
+      </c>
+      <c r="BI7">
+        <v>1.33</v>
+      </c>
+      <c r="BJ7">
+        <v>3</v>
+      </c>
+      <c r="BK7">
+        <v>1.54</v>
+      </c>
+      <c r="BL7">
+        <v>2.4</v>
+      </c>
+      <c r="BM7">
+        <v>1.8</v>
+      </c>
+      <c r="BN7">
+        <v>1.91</v>
+      </c>
+      <c r="BO7">
+        <v>2.38</v>
+      </c>
+      <c r="BP7">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7476547</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8">
+        <v>2.6</v>
+      </c>
+      <c r="R8">
+        <v>2.1</v>
+      </c>
+      <c r="S8">
+        <v>4.33</v>
+      </c>
+      <c r="T8">
+        <v>1.4</v>
+      </c>
+      <c r="U8">
+        <v>2.75</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>1.36</v>
+      </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
+      <c r="Y8">
+        <v>1.08</v>
+      </c>
+      <c r="Z8">
+        <v>1.77</v>
+      </c>
+      <c r="AA8">
+        <v>3.68</v>
+      </c>
+      <c r="AB8">
+        <v>4.26</v>
+      </c>
+      <c r="AC8">
+        <v>1.05</v>
+      </c>
+      <c r="AD8">
+        <v>10</v>
+      </c>
+      <c r="AE8">
+        <v>1.33</v>
+      </c>
+      <c r="AF8">
+        <v>3.25</v>
+      </c>
+      <c r="AG8">
+        <v>1.91</v>
+      </c>
+      <c r="AH8">
+        <v>1.88</v>
+      </c>
+      <c r="AI8">
+        <v>1.83</v>
+      </c>
+      <c r="AJ8">
+        <v>1.83</v>
+      </c>
+      <c r="AK8">
+        <v>1.28</v>
+      </c>
+      <c r="AL8">
+        <v>1.25</v>
+      </c>
+      <c r="AM8">
+        <v>1.85</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>9</v>
+      </c>
+      <c r="AV8">
+        <v>6</v>
+      </c>
+      <c r="AW8">
+        <v>2</v>
+      </c>
+      <c r="AX8">
+        <v>10</v>
+      </c>
+      <c r="AY8">
+        <v>11</v>
+      </c>
+      <c r="AZ8">
+        <v>16</v>
+      </c>
+      <c r="BA8">
+        <v>6</v>
+      </c>
+      <c r="BB8">
+        <v>8</v>
+      </c>
+      <c r="BC8">
+        <v>14</v>
+      </c>
+      <c r="BD8">
+        <v>1.64</v>
+      </c>
+      <c r="BE8">
+        <v>8</v>
+      </c>
+      <c r="BF8">
+        <v>2.67</v>
+      </c>
+      <c r="BG8">
+        <v>1.3</v>
+      </c>
+      <c r="BH8">
+        <v>3.2</v>
+      </c>
+      <c r="BI8">
+        <v>1.48</v>
+      </c>
+      <c r="BJ8">
+        <v>2.47</v>
+      </c>
+      <c r="BK8">
+        <v>1.85</v>
+      </c>
+      <c r="BL8">
+        <v>1.85</v>
+      </c>
+      <c r="BM8">
+        <v>2.4</v>
+      </c>
+      <c r="BN8">
+        <v>1.5</v>
+      </c>
+      <c r="BO8">
+        <v>3.2</v>
+      </c>
+      <c r="BP8">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7476548</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9">
+        <v>2.75</v>
+      </c>
+      <c r="R9">
+        <v>2.2</v>
+      </c>
+      <c r="S9">
+        <v>3.75</v>
+      </c>
+      <c r="T9">
+        <v>1.36</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2.75</v>
+      </c>
+      <c r="W9">
+        <v>1.4</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9">
+        <v>1.1</v>
+      </c>
+      <c r="Z9">
+        <v>1.92</v>
+      </c>
+      <c r="AA9">
+        <v>3.57</v>
+      </c>
+      <c r="AB9">
+        <v>3.75</v>
+      </c>
+      <c r="AC9">
+        <v>1.04</v>
+      </c>
+      <c r="AD9">
+        <v>13</v>
+      </c>
+      <c r="AE9">
+        <v>1.25</v>
+      </c>
+      <c r="AF9">
+        <v>3.6</v>
+      </c>
+      <c r="AG9">
+        <v>1.86</v>
+      </c>
+      <c r="AH9">
+        <v>1.93</v>
+      </c>
+      <c r="AI9">
+        <v>1.73</v>
+      </c>
+      <c r="AJ9">
+        <v>2</v>
+      </c>
+      <c r="AK9">
+        <v>1.32</v>
+      </c>
+      <c r="AL9">
+        <v>1.25</v>
+      </c>
+      <c r="AM9">
+        <v>1.68</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>3</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>3</v>
+      </c>
+      <c r="AV9">
+        <v>6</v>
+      </c>
+      <c r="AW9">
+        <v>6</v>
+      </c>
+      <c r="AX9">
+        <v>5</v>
+      </c>
+      <c r="AY9">
+        <v>9</v>
+      </c>
+      <c r="AZ9">
+        <v>11</v>
+      </c>
+      <c r="BA9">
+        <v>5</v>
+      </c>
+      <c r="BB9">
+        <v>7</v>
+      </c>
+      <c r="BC9">
+        <v>12</v>
+      </c>
+      <c r="BD9">
+        <v>1.75</v>
+      </c>
+      <c r="BE9">
+        <v>8.5</v>
+      </c>
+      <c r="BF9">
+        <v>2.43</v>
+      </c>
+      <c r="BG9">
+        <v>1.2</v>
+      </c>
+      <c r="BH9">
+        <v>4</v>
+      </c>
+      <c r="BI9">
+        <v>1.29</v>
+      </c>
+      <c r="BJ9">
+        <v>2.9</v>
+      </c>
+      <c r="BK9">
+        <v>1.6</v>
+      </c>
+      <c r="BL9">
+        <v>2.27</v>
+      </c>
+      <c r="BM9">
+        <v>1.91</v>
+      </c>
+      <c r="BN9">
+        <v>1.8</v>
+      </c>
+      <c r="BO9">
+        <v>2.49</v>
+      </c>
+      <c r="BP9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7476549</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10">
+        <v>2.63</v>
+      </c>
+      <c r="R10">
+        <v>2.3</v>
+      </c>
+      <c r="S10">
+        <v>3.75</v>
+      </c>
+      <c r="T10">
+        <v>1.33</v>
+      </c>
+      <c r="U10">
+        <v>3.25</v>
+      </c>
+      <c r="V10">
+        <v>2.5</v>
+      </c>
+      <c r="W10">
+        <v>1.5</v>
+      </c>
+      <c r="X10">
+        <v>6.5</v>
+      </c>
+      <c r="Y10">
+        <v>1.11</v>
+      </c>
+      <c r="Z10">
+        <v>2.06</v>
+      </c>
+      <c r="AA10">
+        <v>3.56</v>
+      </c>
+      <c r="AB10">
+        <v>3.33</v>
+      </c>
+      <c r="AC10">
+        <v>1.03</v>
+      </c>
+      <c r="AD10">
+        <v>13</v>
+      </c>
+      <c r="AE10">
+        <v>1.22</v>
+      </c>
+      <c r="AF10">
+        <v>4.2</v>
+      </c>
+      <c r="AG10">
+        <v>1.7</v>
+      </c>
+      <c r="AH10">
+        <v>2.05</v>
+      </c>
+      <c r="AI10">
+        <v>1.57</v>
+      </c>
+      <c r="AJ10">
+        <v>2.25</v>
+      </c>
+      <c r="AK10">
+        <v>1.33</v>
+      </c>
+      <c r="AL10">
+        <v>1.25</v>
+      </c>
+      <c r="AM10">
+        <v>1.78</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>3</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>6</v>
+      </c>
+      <c r="AV10">
+        <v>3</v>
+      </c>
+      <c r="AW10">
+        <v>4</v>
+      </c>
+      <c r="AX10">
+        <v>3</v>
+      </c>
+      <c r="AY10">
+        <v>10</v>
+      </c>
+      <c r="AZ10">
+        <v>6</v>
+      </c>
+      <c r="BA10">
+        <v>4</v>
+      </c>
+      <c r="BB10">
+        <v>2</v>
+      </c>
+      <c r="BC10">
+        <v>6</v>
+      </c>
+      <c r="BD10">
+        <v>1.64</v>
+      </c>
+      <c r="BE10">
+        <v>8</v>
+      </c>
+      <c r="BF10">
+        <v>2.67</v>
+      </c>
+      <c r="BG10">
+        <v>1.21</v>
+      </c>
+      <c r="BH10">
+        <v>3.74</v>
+      </c>
+      <c r="BI10">
+        <v>1.41</v>
+      </c>
+      <c r="BJ10">
+        <v>2.6</v>
+      </c>
+      <c r="BK10">
+        <v>1.8</v>
+      </c>
+      <c r="BL10">
+        <v>1.91</v>
+      </c>
+      <c r="BM10">
+        <v>2.19</v>
+      </c>
+      <c r="BN10">
+        <v>1.57</v>
+      </c>
+      <c r="BO10">
+        <v>2.93</v>
+      </c>
+      <c r="BP10">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7476550</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11">
+        <v>2.88</v>
+      </c>
+      <c r="R11">
+        <v>2.2</v>
+      </c>
+      <c r="S11">
+        <v>3.6</v>
+      </c>
+      <c r="T11">
+        <v>1.36</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>2.75</v>
+      </c>
+      <c r="W11">
+        <v>1.4</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>1.1</v>
+      </c>
+      <c r="Z11">
+        <v>2.1</v>
+      </c>
+      <c r="AA11">
+        <v>3.43</v>
+      </c>
+      <c r="AB11">
+        <v>3.33</v>
+      </c>
+      <c r="AC11">
+        <v>1.04</v>
+      </c>
+      <c r="AD11">
+        <v>12</v>
+      </c>
+      <c r="AE11">
+        <v>1.28</v>
+      </c>
+      <c r="AF11">
+        <v>3.75</v>
+      </c>
+      <c r="AG11">
+        <v>1.84</v>
+      </c>
+      <c r="AH11">
+        <v>1.95</v>
+      </c>
+      <c r="AI11">
+        <v>1.67</v>
+      </c>
+      <c r="AJ11">
+        <v>2.1</v>
+      </c>
+      <c r="AK11">
+        <v>1.38</v>
+      </c>
+      <c r="AL11">
+        <v>1.25</v>
+      </c>
+      <c r="AM11">
+        <v>1.66</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>3</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>4</v>
+      </c>
+      <c r="AV11">
+        <v>6</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>5</v>
+      </c>
+      <c r="AZ11">
+        <v>7</v>
+      </c>
+      <c r="BA11">
+        <v>3</v>
+      </c>
+      <c r="BB11">
+        <v>7</v>
+      </c>
+      <c r="BC11">
+        <v>10</v>
+      </c>
+      <c r="BD11">
+        <v>1.95</v>
+      </c>
+      <c r="BE11">
+        <v>8</v>
+      </c>
+      <c r="BF11">
+        <v>2.05</v>
+      </c>
+      <c r="BG11">
+        <v>1.29</v>
+      </c>
+      <c r="BH11">
+        <v>3.4</v>
+      </c>
+      <c r="BI11">
+        <v>1.48</v>
+      </c>
+      <c r="BJ11">
+        <v>2.5</v>
+      </c>
+      <c r="BK11">
+        <v>1.77</v>
+      </c>
+      <c r="BL11">
+        <v>1.95</v>
+      </c>
+      <c r="BM11">
+        <v>2.2</v>
+      </c>
+      <c r="BN11">
+        <v>1.6</v>
+      </c>
+      <c r="BO11">
+        <v>2.8</v>
+      </c>
+      <c r="BP11">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7476551</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>2.3</v>
+      </c>
+      <c r="S12">
+        <v>3.2</v>
+      </c>
+      <c r="T12">
+        <v>1.33</v>
+      </c>
+      <c r="U12">
+        <v>3.25</v>
+      </c>
+      <c r="V12">
+        <v>2.5</v>
+      </c>
+      <c r="W12">
+        <v>1.5</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>1.13</v>
+      </c>
+      <c r="Z12">
+        <v>2.33</v>
+      </c>
+      <c r="AA12">
+        <v>3.47</v>
+      </c>
+      <c r="AB12">
+        <v>2.87</v>
+      </c>
+      <c r="AC12">
+        <v>1.01</v>
+      </c>
+      <c r="AD12">
+        <v>12</v>
+      </c>
+      <c r="AE12">
+        <v>1.16</v>
+      </c>
+      <c r="AF12">
+        <v>4.4</v>
+      </c>
+      <c r="AG12">
+        <v>1.6</v>
+      </c>
+      <c r="AH12">
+        <v>2.2</v>
+      </c>
+      <c r="AI12">
+        <v>1.57</v>
+      </c>
+      <c r="AJ12">
+        <v>2.25</v>
+      </c>
+      <c r="AK12">
+        <v>1.47</v>
+      </c>
+      <c r="AL12">
+        <v>1.22</v>
+      </c>
+      <c r="AM12">
+        <v>1.57</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>3</v>
+      </c>
+      <c r="AV12">
+        <v>2</v>
+      </c>
+      <c r="AW12">
+        <v>2</v>
+      </c>
+      <c r="AX12">
+        <v>5</v>
+      </c>
+      <c r="AY12">
+        <v>5</v>
+      </c>
+      <c r="AZ12">
+        <v>7</v>
+      </c>
+      <c r="BA12">
+        <v>4</v>
+      </c>
+      <c r="BB12">
+        <v>8</v>
+      </c>
+      <c r="BC12">
+        <v>12</v>
+      </c>
+      <c r="BD12">
+        <v>1.91</v>
+      </c>
+      <c r="BE12">
+        <v>8.5</v>
+      </c>
+      <c r="BF12">
+        <v>2.1</v>
+      </c>
+      <c r="BG12">
+        <v>1.13</v>
+      </c>
+      <c r="BH12">
+        <v>5</v>
+      </c>
+      <c r="BI12">
+        <v>1.22</v>
+      </c>
+      <c r="BJ12">
+        <v>3.65</v>
+      </c>
+      <c r="BK12">
+        <v>1.42</v>
+      </c>
+      <c r="BL12">
+        <v>2.57</v>
+      </c>
+      <c r="BM12">
+        <v>1.85</v>
+      </c>
+      <c r="BN12">
+        <v>1.85</v>
+      </c>
+      <c r="BO12">
+        <v>2.14</v>
+      </c>
+      <c r="BP12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7476552</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13">
+        <v>2.2</v>
+      </c>
+      <c r="R13">
+        <v>2.38</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>1.33</v>
+      </c>
+      <c r="U13">
+        <v>3.25</v>
+      </c>
+      <c r="V13">
+        <v>2.5</v>
+      </c>
+      <c r="W13">
+        <v>1.5</v>
+      </c>
+      <c r="X13">
+        <v>6.5</v>
+      </c>
+      <c r="Y13">
+        <v>1.11</v>
+      </c>
+      <c r="Z13">
+        <v>1.56</v>
+      </c>
+      <c r="AA13">
+        <v>4.13</v>
+      </c>
+      <c r="AB13">
+        <v>5.2</v>
+      </c>
+      <c r="AC13">
+        <v>1.03</v>
+      </c>
+      <c r="AD13">
+        <v>15</v>
+      </c>
+      <c r="AE13">
+        <v>1.22</v>
+      </c>
+      <c r="AF13">
+        <v>4.2</v>
+      </c>
+      <c r="AG13">
+        <v>1.6</v>
+      </c>
+      <c r="AH13">
+        <v>2.25</v>
+      </c>
+      <c r="AI13">
+        <v>1.73</v>
+      </c>
+      <c r="AJ13">
+        <v>2</v>
+      </c>
+      <c r="AK13">
+        <v>1.15</v>
+      </c>
+      <c r="AL13">
+        <v>1.18</v>
+      </c>
+      <c r="AM13">
+        <v>2.35</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>4</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>2</v>
+      </c>
+      <c r="AX13">
+        <v>3</v>
+      </c>
+      <c r="AY13">
+        <v>6</v>
+      </c>
+      <c r="AZ13">
+        <v>3</v>
+      </c>
+      <c r="BA13">
+        <v>6</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>6</v>
+      </c>
+      <c r="BD13">
+        <v>1.45</v>
+      </c>
+      <c r="BE13">
+        <v>9</v>
+      </c>
+      <c r="BF13">
+        <v>3.19</v>
+      </c>
+      <c r="BG13">
+        <v>1.18</v>
+      </c>
+      <c r="BH13">
+        <v>4.33</v>
+      </c>
+      <c r="BI13">
+        <v>1.28</v>
+      </c>
+      <c r="BJ13">
+        <v>3.2</v>
+      </c>
+      <c r="BK13">
+        <v>1.51</v>
+      </c>
+      <c r="BL13">
+        <v>2.32</v>
+      </c>
+      <c r="BM13">
+        <v>2.05</v>
+      </c>
+      <c r="BN13">
+        <v>1.7</v>
+      </c>
+      <c r="BO13">
+        <v>2.38</v>
+      </c>
+      <c r="BP13">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -3138,13 +3138,13 @@
         <v>7</v>
       </c>
       <c r="BA12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB12">
         <v>8</v>
       </c>
       <c r="BC12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD12">
         <v>1.91</v>
@@ -3344,13 +3344,13 @@
         <v>3</v>
       </c>
       <c r="BA13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB13">
         <v>0</v>
       </c>
       <c r="BC13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD13">
         <v>1.45</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="123">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -262,42 +262,42 @@
     <t>Walsall</t>
   </si>
   <si>
+    <t>Carlisle United</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Accrington Stanley</t>
+  </si>
+  <si>
+    <t>Colchester United</t>
+  </si>
+  <si>
+    <t>Crewe Alexandra</t>
+  </si>
+  <si>
+    <t>Grimsby Town</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
     <t>Swindon Town</t>
   </si>
   <si>
-    <t>Colchester United</t>
-  </si>
-  <si>
-    <t>Crewe Alexandra</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Accrington Stanley</t>
-  </si>
-  <si>
-    <t>Grimsby Town</t>
-  </si>
-  <si>
-    <t>Carlisle United</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
     <t>Bradford City</t>
   </si>
   <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
     <t>Notts County</t>
   </si>
   <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
     <t>['15']</t>
   </si>
   <si>
@@ -325,6 +325,24 @@
     <t>['20']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['35', '60']</t>
+  </si>
+  <si>
+    <t>['29', '60', '62']</t>
+  </si>
+  <si>
+    <t>['81', '90+4']</t>
+  </si>
+  <si>
+    <t>['44', '51', '90+3']</t>
+  </si>
+  <si>
+    <t>['47', '66', '69']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -347,6 +365,24 @@
   </si>
   <si>
     <t>['45+3', '69']</t>
+  </si>
+  <si>
+    <t>['16', '33', '90+3']</t>
+  </si>
+  <si>
+    <t>['1', '11', '12', '28', '49']</t>
+  </si>
+  <si>
+    <t>['61', '82']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['33', '41', '49', '64']</t>
   </si>
 </sst>
 </file>
@@ -708,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP13"/>
+  <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,7 +979,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -967,7 +1003,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1149,7 +1185,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -1173,7 +1209,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1355,7 +1391,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1561,7 +1597,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1585,7 +1621,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1767,7 +1803,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1791,7 +1827,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2179,7 +2215,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2203,7 +2239,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2385,7 +2421,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2409,7 +2445,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2591,7 +2627,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2615,7 +2651,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2797,7 +2833,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2821,7 +2857,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3003,7 +3039,7 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3209,7 +3245,7 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3390,6 +3426,2272 @@
       </c>
       <c r="BP13">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7476556</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45521.35416666666</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14">
+        <v>2.63</v>
+      </c>
+      <c r="R14">
+        <v>2.2</v>
+      </c>
+      <c r="S14">
+        <v>4.33</v>
+      </c>
+      <c r="T14">
+        <v>1.4</v>
+      </c>
+      <c r="U14">
+        <v>2.75</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>1.36</v>
+      </c>
+      <c r="X14">
+        <v>8</v>
+      </c>
+      <c r="Y14">
+        <v>1.08</v>
+      </c>
+      <c r="Z14">
+        <v>1.96</v>
+      </c>
+      <c r="AA14">
+        <v>3.04</v>
+      </c>
+      <c r="AB14">
+        <v>3.03</v>
+      </c>
+      <c r="AC14">
+        <v>1.05</v>
+      </c>
+      <c r="AD14">
+        <v>7.8</v>
+      </c>
+      <c r="AE14">
+        <v>1.27</v>
+      </c>
+      <c r="AF14">
+        <v>3.4</v>
+      </c>
+      <c r="AG14">
+        <v>1.93</v>
+      </c>
+      <c r="AH14">
+        <v>1.83</v>
+      </c>
+      <c r="AI14">
+        <v>1.8</v>
+      </c>
+      <c r="AJ14">
+        <v>1.91</v>
+      </c>
+      <c r="AK14">
+        <v>1.25</v>
+      </c>
+      <c r="AL14">
+        <v>1.25</v>
+      </c>
+      <c r="AM14">
+        <v>1.77</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>-1</v>
+      </c>
+      <c r="AV14">
+        <v>-1</v>
+      </c>
+      <c r="AW14">
+        <v>-1</v>
+      </c>
+      <c r="AX14">
+        <v>-1</v>
+      </c>
+      <c r="AY14">
+        <v>-1</v>
+      </c>
+      <c r="AZ14">
+        <v>-1</v>
+      </c>
+      <c r="BA14">
+        <v>-1</v>
+      </c>
+      <c r="BB14">
+        <v>-1</v>
+      </c>
+      <c r="BC14">
+        <v>-1</v>
+      </c>
+      <c r="BD14">
+        <v>1.51</v>
+      </c>
+      <c r="BE14">
+        <v>7.5</v>
+      </c>
+      <c r="BF14">
+        <v>3.18</v>
+      </c>
+      <c r="BG14">
+        <v>1.24</v>
+      </c>
+      <c r="BH14">
+        <v>3.48</v>
+      </c>
+      <c r="BI14">
+        <v>1.45</v>
+      </c>
+      <c r="BJ14">
+        <v>2.48</v>
+      </c>
+      <c r="BK14">
+        <v>1.85</v>
+      </c>
+      <c r="BL14">
+        <v>1.95</v>
+      </c>
+      <c r="BM14">
+        <v>2.3</v>
+      </c>
+      <c r="BN14">
+        <v>1.52</v>
+      </c>
+      <c r="BO14">
+        <v>3.08</v>
+      </c>
+      <c r="BP14">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7476555</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45521.35416666666</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15">
+        <v>3.2</v>
+      </c>
+      <c r="R15">
+        <v>2.1</v>
+      </c>
+      <c r="S15">
+        <v>3.4</v>
+      </c>
+      <c r="T15">
+        <v>1.44</v>
+      </c>
+      <c r="U15">
+        <v>2.63</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>1.36</v>
+      </c>
+      <c r="X15">
+        <v>9</v>
+      </c>
+      <c r="Y15">
+        <v>1.07</v>
+      </c>
+      <c r="Z15">
+        <v>2.3</v>
+      </c>
+      <c r="AA15">
+        <v>3.05</v>
+      </c>
+      <c r="AB15">
+        <v>2.63</v>
+      </c>
+      <c r="AC15">
+        <v>1.04</v>
+      </c>
+      <c r="AD15">
+        <v>7.8</v>
+      </c>
+      <c r="AE15">
+        <v>1.3</v>
+      </c>
+      <c r="AF15">
+        <v>3.2</v>
+      </c>
+      <c r="AG15">
+        <v>1.93</v>
+      </c>
+      <c r="AH15">
+        <v>1.83</v>
+      </c>
+      <c r="AI15">
+        <v>1.8</v>
+      </c>
+      <c r="AJ15">
+        <v>1.91</v>
+      </c>
+      <c r="AK15">
+        <v>1.42</v>
+      </c>
+      <c r="AL15">
+        <v>1.28</v>
+      </c>
+      <c r="AM15">
+        <v>1.47</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>-1</v>
+      </c>
+      <c r="AV15">
+        <v>-1</v>
+      </c>
+      <c r="AW15">
+        <v>-1</v>
+      </c>
+      <c r="AX15">
+        <v>-1</v>
+      </c>
+      <c r="AY15">
+        <v>-1</v>
+      </c>
+      <c r="AZ15">
+        <v>-1</v>
+      </c>
+      <c r="BA15">
+        <v>-1</v>
+      </c>
+      <c r="BB15">
+        <v>-1</v>
+      </c>
+      <c r="BC15">
+        <v>-1</v>
+      </c>
+      <c r="BD15">
+        <v>1.85</v>
+      </c>
+      <c r="BE15">
+        <v>7.5</v>
+      </c>
+      <c r="BF15">
+        <v>2.33</v>
+      </c>
+      <c r="BG15">
+        <v>1.21</v>
+      </c>
+      <c r="BH15">
+        <v>3.74</v>
+      </c>
+      <c r="BI15">
+        <v>1.41</v>
+      </c>
+      <c r="BJ15">
+        <v>2.6</v>
+      </c>
+      <c r="BK15">
+        <v>1.73</v>
+      </c>
+      <c r="BL15">
+        <v>1.99</v>
+      </c>
+      <c r="BM15">
+        <v>2.17</v>
+      </c>
+      <c r="BN15">
+        <v>1.58</v>
+      </c>
+      <c r="BO15">
+        <v>2.91</v>
+      </c>
+      <c r="BP15">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7476553</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q16">
+        <v>2.88</v>
+      </c>
+      <c r="R16">
+        <v>2.3</v>
+      </c>
+      <c r="S16">
+        <v>3.5</v>
+      </c>
+      <c r="T16">
+        <v>1.33</v>
+      </c>
+      <c r="U16">
+        <v>3.25</v>
+      </c>
+      <c r="V16">
+        <v>2.5</v>
+      </c>
+      <c r="W16">
+        <v>1.5</v>
+      </c>
+      <c r="X16">
+        <v>6.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.11</v>
+      </c>
+      <c r="Z16">
+        <v>2.19</v>
+      </c>
+      <c r="AA16">
+        <v>3.18</v>
+      </c>
+      <c r="AB16">
+        <v>2.7</v>
+      </c>
+      <c r="AC16">
+        <v>1.01</v>
+      </c>
+      <c r="AD16">
+        <v>10</v>
+      </c>
+      <c r="AE16">
+        <v>1.19</v>
+      </c>
+      <c r="AF16">
+        <v>3.96</v>
+      </c>
+      <c r="AG16">
+        <v>1.65</v>
+      </c>
+      <c r="AH16">
+        <v>2.11</v>
+      </c>
+      <c r="AI16">
+        <v>1.57</v>
+      </c>
+      <c r="AJ16">
+        <v>2.25</v>
+      </c>
+      <c r="AK16">
+        <v>1.38</v>
+      </c>
+      <c r="AL16">
+        <v>1.27</v>
+      </c>
+      <c r="AM16">
+        <v>1.63</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>10</v>
+      </c>
+      <c r="AV16">
+        <v>5</v>
+      </c>
+      <c r="AW16">
+        <v>11</v>
+      </c>
+      <c r="AX16">
+        <v>3</v>
+      </c>
+      <c r="AY16">
+        <v>21</v>
+      </c>
+      <c r="AZ16">
+        <v>8</v>
+      </c>
+      <c r="BA16">
+        <v>9</v>
+      </c>
+      <c r="BB16">
+        <v>4</v>
+      </c>
+      <c r="BC16">
+        <v>13</v>
+      </c>
+      <c r="BD16">
+        <v>1.69</v>
+      </c>
+      <c r="BE16">
+        <v>7</v>
+      </c>
+      <c r="BF16">
+        <v>2.65</v>
+      </c>
+      <c r="BG16">
+        <v>1.18</v>
+      </c>
+      <c r="BH16">
+        <v>4.3</v>
+      </c>
+      <c r="BI16">
+        <v>1.29</v>
+      </c>
+      <c r="BJ16">
+        <v>3.14</v>
+      </c>
+      <c r="BK16">
+        <v>1.52</v>
+      </c>
+      <c r="BL16">
+        <v>2.3</v>
+      </c>
+      <c r="BM16">
+        <v>1.95</v>
+      </c>
+      <c r="BN16">
+        <v>1.85</v>
+      </c>
+      <c r="BO16">
+        <v>2.42</v>
+      </c>
+      <c r="BP16">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7476557</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17">
+        <v>3.4</v>
+      </c>
+      <c r="R17">
+        <v>2.3</v>
+      </c>
+      <c r="S17">
+        <v>2.88</v>
+      </c>
+      <c r="T17">
+        <v>1.33</v>
+      </c>
+      <c r="U17">
+        <v>3.25</v>
+      </c>
+      <c r="V17">
+        <v>2.63</v>
+      </c>
+      <c r="W17">
+        <v>1.44</v>
+      </c>
+      <c r="X17">
+        <v>6.5</v>
+      </c>
+      <c r="Y17">
+        <v>1.11</v>
+      </c>
+      <c r="Z17">
+        <v>2.68</v>
+      </c>
+      <c r="AA17">
+        <v>3.1</v>
+      </c>
+      <c r="AB17">
+        <v>2.1</v>
+      </c>
+      <c r="AC17">
+        <v>1.03</v>
+      </c>
+      <c r="AD17">
+        <v>10.5</v>
+      </c>
+      <c r="AE17">
+        <v>1.19</v>
+      </c>
+      <c r="AF17">
+        <v>3.94</v>
+      </c>
+      <c r="AG17">
+        <v>1.67</v>
+      </c>
+      <c r="AH17">
+        <v>2.07</v>
+      </c>
+      <c r="AI17">
+        <v>1.57</v>
+      </c>
+      <c r="AJ17">
+        <v>2.25</v>
+      </c>
+      <c r="AK17">
+        <v>1.61</v>
+      </c>
+      <c r="AL17">
+        <v>1.27</v>
+      </c>
+      <c r="AM17">
+        <v>1.38</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>3</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>9</v>
+      </c>
+      <c r="AV17">
+        <v>4</v>
+      </c>
+      <c r="AW17">
+        <v>2</v>
+      </c>
+      <c r="AX17">
+        <v>4</v>
+      </c>
+      <c r="AY17">
+        <v>11</v>
+      </c>
+      <c r="AZ17">
+        <v>8</v>
+      </c>
+      <c r="BA17">
+        <v>4</v>
+      </c>
+      <c r="BB17">
+        <v>4</v>
+      </c>
+      <c r="BC17">
+        <v>8</v>
+      </c>
+      <c r="BD17">
+        <v>2.2</v>
+      </c>
+      <c r="BE17">
+        <v>7</v>
+      </c>
+      <c r="BF17">
+        <v>1.91</v>
+      </c>
+      <c r="BG17">
+        <v>1.22</v>
+      </c>
+      <c r="BH17">
+        <v>3.65</v>
+      </c>
+      <c r="BI17">
+        <v>1.43</v>
+      </c>
+      <c r="BJ17">
+        <v>2.54</v>
+      </c>
+      <c r="BK17">
+        <v>1.8</v>
+      </c>
+      <c r="BL17">
+        <v>2</v>
+      </c>
+      <c r="BM17">
+        <v>2.23</v>
+      </c>
+      <c r="BN17">
+        <v>1.55</v>
+      </c>
+      <c r="BO17">
+        <v>2.98</v>
+      </c>
+      <c r="BP17">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7476558</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18">
+        <v>3.4</v>
+      </c>
+      <c r="R18">
+        <v>2.2</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>1.36</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>2.75</v>
+      </c>
+      <c r="W18">
+        <v>1.4</v>
+      </c>
+      <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <v>1.08</v>
+      </c>
+      <c r="Z18">
+        <v>2.61</v>
+      </c>
+      <c r="AA18">
+        <v>3.05</v>
+      </c>
+      <c r="AB18">
+        <v>2.17</v>
+      </c>
+      <c r="AC18">
+        <v>1.02</v>
+      </c>
+      <c r="AD18">
+        <v>10</v>
+      </c>
+      <c r="AE18">
+        <v>1.29</v>
+      </c>
+      <c r="AF18">
+        <v>3.4</v>
+      </c>
+      <c r="AG18">
+        <v>1.76</v>
+      </c>
+      <c r="AH18">
+        <v>2.04</v>
+      </c>
+      <c r="AI18">
+        <v>1.67</v>
+      </c>
+      <c r="AJ18">
+        <v>2.1</v>
+      </c>
+      <c r="AK18">
+        <v>1.57</v>
+      </c>
+      <c r="AL18">
+        <v>1.33</v>
+      </c>
+      <c r="AM18">
+        <v>1.4</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>5</v>
+      </c>
+      <c r="AV18">
+        <v>12</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AX18">
+        <v>3</v>
+      </c>
+      <c r="AY18">
+        <v>10</v>
+      </c>
+      <c r="AZ18">
+        <v>15</v>
+      </c>
+      <c r="BA18">
+        <v>5</v>
+      </c>
+      <c r="BB18">
+        <v>7</v>
+      </c>
+      <c r="BC18">
+        <v>12</v>
+      </c>
+      <c r="BD18">
+        <v>2</v>
+      </c>
+      <c r="BE18">
+        <v>7</v>
+      </c>
+      <c r="BF18">
+        <v>2</v>
+      </c>
+      <c r="BG18">
+        <v>1.21</v>
+      </c>
+      <c r="BH18">
+        <v>3.9</v>
+      </c>
+      <c r="BI18">
+        <v>1.36</v>
+      </c>
+      <c r="BJ18">
+        <v>2.79</v>
+      </c>
+      <c r="BK18">
+        <v>1.64</v>
+      </c>
+      <c r="BL18">
+        <v>2.07</v>
+      </c>
+      <c r="BM18">
+        <v>2.09</v>
+      </c>
+      <c r="BN18">
+        <v>1.66</v>
+      </c>
+      <c r="BO18">
+        <v>2.71</v>
+      </c>
+      <c r="BP18">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7476559</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>2.1</v>
+      </c>
+      <c r="S19">
+        <v>3.6</v>
+      </c>
+      <c r="T19">
+        <v>1.4</v>
+      </c>
+      <c r="U19">
+        <v>2.75</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>1.36</v>
+      </c>
+      <c r="X19">
+        <v>8</v>
+      </c>
+      <c r="Y19">
+        <v>1.08</v>
+      </c>
+      <c r="Z19">
+        <v>2.23</v>
+      </c>
+      <c r="AA19">
+        <v>2.97</v>
+      </c>
+      <c r="AB19">
+        <v>2.59</v>
+      </c>
+      <c r="AC19">
+        <v>1.03</v>
+      </c>
+      <c r="AD19">
+        <v>9</v>
+      </c>
+      <c r="AE19">
+        <v>1.29</v>
+      </c>
+      <c r="AF19">
+        <v>3.3</v>
+      </c>
+      <c r="AG19">
+        <v>1.94</v>
+      </c>
+      <c r="AH19">
+        <v>1.82</v>
+      </c>
+      <c r="AI19">
+        <v>1.73</v>
+      </c>
+      <c r="AJ19">
+        <v>2</v>
+      </c>
+      <c r="AK19">
+        <v>1.38</v>
+      </c>
+      <c r="AL19">
+        <v>1.33</v>
+      </c>
+      <c r="AM19">
+        <v>1.62</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>7</v>
+      </c>
+      <c r="AV19">
+        <v>3</v>
+      </c>
+      <c r="AW19">
+        <v>3</v>
+      </c>
+      <c r="AX19">
+        <v>4</v>
+      </c>
+      <c r="AY19">
+        <v>10</v>
+      </c>
+      <c r="AZ19">
+        <v>7</v>
+      </c>
+      <c r="BA19">
+        <v>9</v>
+      </c>
+      <c r="BB19">
+        <v>5</v>
+      </c>
+      <c r="BC19">
+        <v>14</v>
+      </c>
+      <c r="BD19">
+        <v>1.75</v>
+      </c>
+      <c r="BE19">
+        <v>7</v>
+      </c>
+      <c r="BF19">
+        <v>2.46</v>
+      </c>
+      <c r="BG19">
+        <v>1.18</v>
+      </c>
+      <c r="BH19">
+        <v>4.3</v>
+      </c>
+      <c r="BI19">
+        <v>1.33</v>
+      </c>
+      <c r="BJ19">
+        <v>2.93</v>
+      </c>
+      <c r="BK19">
+        <v>1.58</v>
+      </c>
+      <c r="BL19">
+        <v>2.17</v>
+      </c>
+      <c r="BM19">
+        <v>1.99</v>
+      </c>
+      <c r="BN19">
+        <v>1.73</v>
+      </c>
+      <c r="BO19">
+        <v>2.57</v>
+      </c>
+      <c r="BP19">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7476560</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>2.2</v>
+      </c>
+      <c r="S20">
+        <v>2.63</v>
+      </c>
+      <c r="T20">
+        <v>1.36</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>2.75</v>
+      </c>
+      <c r="W20">
+        <v>1.4</v>
+      </c>
+      <c r="X20">
+        <v>8</v>
+      </c>
+      <c r="Y20">
+        <v>1.08</v>
+      </c>
+      <c r="Z20">
+        <v>3.12</v>
+      </c>
+      <c r="AA20">
+        <v>3.07</v>
+      </c>
+      <c r="AB20">
+        <v>2.02</v>
+      </c>
+      <c r="AC20">
+        <v>1.04</v>
+      </c>
+      <c r="AD20">
+        <v>12</v>
+      </c>
+      <c r="AE20">
+        <v>1.28</v>
+      </c>
+      <c r="AF20">
+        <v>3.6</v>
+      </c>
+      <c r="AG20">
+        <v>1.87</v>
+      </c>
+      <c r="AH20">
+        <v>1.89</v>
+      </c>
+      <c r="AI20">
+        <v>1.73</v>
+      </c>
+      <c r="AJ20">
+        <v>2</v>
+      </c>
+      <c r="AK20">
+        <v>1.78</v>
+      </c>
+      <c r="AL20">
+        <v>1.25</v>
+      </c>
+      <c r="AM20">
+        <v>1.3</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>4</v>
+      </c>
+      <c r="AV20">
+        <v>5</v>
+      </c>
+      <c r="AW20">
+        <v>4</v>
+      </c>
+      <c r="AX20">
+        <v>3</v>
+      </c>
+      <c r="AY20">
+        <v>8</v>
+      </c>
+      <c r="AZ20">
+        <v>8</v>
+      </c>
+      <c r="BA20">
+        <v>6</v>
+      </c>
+      <c r="BB20">
+        <v>6</v>
+      </c>
+      <c r="BC20">
+        <v>12</v>
+      </c>
+      <c r="BD20">
+        <v>2.53</v>
+      </c>
+      <c r="BE20">
+        <v>7.5</v>
+      </c>
+      <c r="BF20">
+        <v>1.75</v>
+      </c>
+      <c r="BG20">
+        <v>1.19</v>
+      </c>
+      <c r="BH20">
+        <v>4.1</v>
+      </c>
+      <c r="BI20">
+        <v>1.33</v>
+      </c>
+      <c r="BJ20">
+        <v>2.91</v>
+      </c>
+      <c r="BK20">
+        <v>1.6</v>
+      </c>
+      <c r="BL20">
+        <v>2.14</v>
+      </c>
+      <c r="BM20">
+        <v>2.02</v>
+      </c>
+      <c r="BN20">
+        <v>1.71</v>
+      </c>
+      <c r="BO20">
+        <v>2.6</v>
+      </c>
+      <c r="BP20">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7476561</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21">
+        <v>4.33</v>
+      </c>
+      <c r="R21">
+        <v>2.3</v>
+      </c>
+      <c r="S21">
+        <v>2.38</v>
+      </c>
+      <c r="T21">
+        <v>1.33</v>
+      </c>
+      <c r="U21">
+        <v>3.25</v>
+      </c>
+      <c r="V21">
+        <v>2.5</v>
+      </c>
+      <c r="W21">
+        <v>1.5</v>
+      </c>
+      <c r="X21">
+        <v>6.5</v>
+      </c>
+      <c r="Y21">
+        <v>1.11</v>
+      </c>
+      <c r="Z21">
+        <v>3.94</v>
+      </c>
+      <c r="AA21">
+        <v>3.46</v>
+      </c>
+      <c r="AB21">
+        <v>1.67</v>
+      </c>
+      <c r="AC21">
+        <v>1.04</v>
+      </c>
+      <c r="AD21">
+        <v>10</v>
+      </c>
+      <c r="AE21">
+        <v>1.22</v>
+      </c>
+      <c r="AF21">
+        <v>4.2</v>
+      </c>
+      <c r="AG21">
+        <v>1.7</v>
+      </c>
+      <c r="AH21">
+        <v>2.03</v>
+      </c>
+      <c r="AI21">
+        <v>1.67</v>
+      </c>
+      <c r="AJ21">
+        <v>2.1</v>
+      </c>
+      <c r="AK21">
+        <v>1.93</v>
+      </c>
+      <c r="AL21">
+        <v>1.25</v>
+      </c>
+      <c r="AM21">
+        <v>1.23</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>6</v>
+      </c>
+      <c r="AV21">
+        <v>9</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>8</v>
+      </c>
+      <c r="AY21">
+        <v>10</v>
+      </c>
+      <c r="AZ21">
+        <v>17</v>
+      </c>
+      <c r="BA21">
+        <v>4</v>
+      </c>
+      <c r="BB21">
+        <v>6</v>
+      </c>
+      <c r="BC21">
+        <v>10</v>
+      </c>
+      <c r="BD21">
+        <v>2.92</v>
+      </c>
+      <c r="BE21">
+        <v>7.5</v>
+      </c>
+      <c r="BF21">
+        <v>1.59</v>
+      </c>
+      <c r="BG21">
+        <v>1.2</v>
+      </c>
+      <c r="BH21">
+        <v>4</v>
+      </c>
+      <c r="BI21">
+        <v>1.33</v>
+      </c>
+      <c r="BJ21">
+        <v>2.93</v>
+      </c>
+      <c r="BK21">
+        <v>1.58</v>
+      </c>
+      <c r="BL21">
+        <v>2.17</v>
+      </c>
+      <c r="BM21">
+        <v>1.99</v>
+      </c>
+      <c r="BN21">
+        <v>1.73</v>
+      </c>
+      <c r="BO21">
+        <v>2.57</v>
+      </c>
+      <c r="BP21">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7476563</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22">
+        <v>2.38</v>
+      </c>
+      <c r="R22">
+        <v>2.3</v>
+      </c>
+      <c r="S22">
+        <v>4.5</v>
+      </c>
+      <c r="T22">
+        <v>1.33</v>
+      </c>
+      <c r="U22">
+        <v>3.25</v>
+      </c>
+      <c r="V22">
+        <v>2.63</v>
+      </c>
+      <c r="W22">
+        <v>1.44</v>
+      </c>
+      <c r="X22">
+        <v>6.5</v>
+      </c>
+      <c r="Y22">
+        <v>1.11</v>
+      </c>
+      <c r="Z22">
+        <v>1.68</v>
+      </c>
+      <c r="AA22">
+        <v>3.28</v>
+      </c>
+      <c r="AB22">
+        <v>3.7</v>
+      </c>
+      <c r="AC22">
+        <v>1.02</v>
+      </c>
+      <c r="AD22">
+        <v>10.5</v>
+      </c>
+      <c r="AE22">
+        <v>1.2</v>
+      </c>
+      <c r="AF22">
+        <v>3.86</v>
+      </c>
+      <c r="AG22">
+        <v>1.81</v>
+      </c>
+      <c r="AH22">
+        <v>1.89</v>
+      </c>
+      <c r="AI22">
+        <v>1.67</v>
+      </c>
+      <c r="AJ22">
+        <v>2.1</v>
+      </c>
+      <c r="AK22">
+        <v>1.2</v>
+      </c>
+      <c r="AL22">
+        <v>1.24</v>
+      </c>
+      <c r="AM22">
+        <v>2.04</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>4</v>
+      </c>
+      <c r="AV22">
+        <v>2</v>
+      </c>
+      <c r="AW22">
+        <v>3</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22">
+        <v>7</v>
+      </c>
+      <c r="AZ22">
+        <v>3</v>
+      </c>
+      <c r="BA22">
+        <v>2</v>
+      </c>
+      <c r="BB22">
+        <v>5</v>
+      </c>
+      <c r="BC22">
+        <v>7</v>
+      </c>
+      <c r="BD22">
+        <v>1.37</v>
+      </c>
+      <c r="BE22">
+        <v>8</v>
+      </c>
+      <c r="BF22">
+        <v>3.88</v>
+      </c>
+      <c r="BG22">
+        <v>1.17</v>
+      </c>
+      <c r="BH22">
+        <v>4.4</v>
+      </c>
+      <c r="BI22">
+        <v>1.3</v>
+      </c>
+      <c r="BJ22">
+        <v>3.08</v>
+      </c>
+      <c r="BK22">
+        <v>1.54</v>
+      </c>
+      <c r="BL22">
+        <v>2.25</v>
+      </c>
+      <c r="BM22">
+        <v>1.98</v>
+      </c>
+      <c r="BN22">
+        <v>1.82</v>
+      </c>
+      <c r="BO22">
+        <v>2.45</v>
+      </c>
+      <c r="BP22">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7476564</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>2.38</v>
+      </c>
+      <c r="S23">
+        <v>3.1</v>
+      </c>
+      <c r="T23">
+        <v>1.29</v>
+      </c>
+      <c r="U23">
+        <v>3.5</v>
+      </c>
+      <c r="V23">
+        <v>2.38</v>
+      </c>
+      <c r="W23">
+        <v>1.53</v>
+      </c>
+      <c r="X23">
+        <v>5.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.14</v>
+      </c>
+      <c r="Z23">
+        <v>2.22</v>
+      </c>
+      <c r="AA23">
+        <v>3.19</v>
+      </c>
+      <c r="AB23">
+        <v>2.46</v>
+      </c>
+      <c r="AC23">
+        <v>1.02</v>
+      </c>
+      <c r="AD23">
+        <v>17</v>
+      </c>
+      <c r="AE23">
+        <v>1.15</v>
+      </c>
+      <c r="AF23">
+        <v>4.4</v>
+      </c>
+      <c r="AG23">
+        <v>1.57</v>
+      </c>
+      <c r="AH23">
+        <v>2.25</v>
+      </c>
+      <c r="AI23">
+        <v>1.5</v>
+      </c>
+      <c r="AJ23">
+        <v>2.5</v>
+      </c>
+      <c r="AK23">
+        <v>1.46</v>
+      </c>
+      <c r="AL23">
+        <v>1.26</v>
+      </c>
+      <c r="AM23">
+        <v>1.54</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>2</v>
+      </c>
+      <c r="AV23">
+        <v>2</v>
+      </c>
+      <c r="AW23">
+        <v>3</v>
+      </c>
+      <c r="AX23">
+        <v>3</v>
+      </c>
+      <c r="AY23">
+        <v>5</v>
+      </c>
+      <c r="AZ23">
+        <v>5</v>
+      </c>
+      <c r="BA23">
+        <v>2</v>
+      </c>
+      <c r="BB23">
+        <v>6</v>
+      </c>
+      <c r="BC23">
+        <v>8</v>
+      </c>
+      <c r="BD23">
+        <v>1.85</v>
+      </c>
+      <c r="BE23">
+        <v>7</v>
+      </c>
+      <c r="BF23">
+        <v>2.34</v>
+      </c>
+      <c r="BG23">
+        <v>1.19</v>
+      </c>
+      <c r="BH23">
+        <v>3.98</v>
+      </c>
+      <c r="BI23">
+        <v>1.37</v>
+      </c>
+      <c r="BJ23">
+        <v>2.75</v>
+      </c>
+      <c r="BK23">
+        <v>1.68</v>
+      </c>
+      <c r="BL23">
+        <v>2.06</v>
+      </c>
+      <c r="BM23">
+        <v>2.09</v>
+      </c>
+      <c r="BN23">
+        <v>1.63</v>
+      </c>
+      <c r="BO23">
+        <v>2.78</v>
+      </c>
+      <c r="BP23">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7476554</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q24">
+        <v>2.3</v>
+      </c>
+      <c r="R24">
+        <v>2.38</v>
+      </c>
+      <c r="S24">
+        <v>4.33</v>
+      </c>
+      <c r="T24">
+        <v>1.3</v>
+      </c>
+      <c r="U24">
+        <v>3.4</v>
+      </c>
+      <c r="V24">
+        <v>2.5</v>
+      </c>
+      <c r="W24">
+        <v>1.5</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>1.13</v>
+      </c>
+      <c r="Z24">
+        <v>1.68</v>
+      </c>
+      <c r="AA24">
+        <v>3.48</v>
+      </c>
+      <c r="AB24">
+        <v>3.82</v>
+      </c>
+      <c r="AC24">
+        <v>1.02</v>
+      </c>
+      <c r="AD24">
+        <v>10.25</v>
+      </c>
+      <c r="AE24">
+        <v>1.18</v>
+      </c>
+      <c r="AF24">
+        <v>4.15</v>
+      </c>
+      <c r="AG24">
+        <v>1.65</v>
+      </c>
+      <c r="AH24">
+        <v>2.11</v>
+      </c>
+      <c r="AI24">
+        <v>1.62</v>
+      </c>
+      <c r="AJ24">
+        <v>2.2</v>
+      </c>
+      <c r="AK24">
+        <v>1.22</v>
+      </c>
+      <c r="AL24">
+        <v>1.2</v>
+      </c>
+      <c r="AM24">
+        <v>2.05</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>4</v>
+      </c>
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>6</v>
+      </c>
+      <c r="AX24">
+        <v>3</v>
+      </c>
+      <c r="AY24">
+        <v>10</v>
+      </c>
+      <c r="AZ24">
+        <v>6</v>
+      </c>
+      <c r="BA24">
+        <v>5</v>
+      </c>
+      <c r="BB24">
+        <v>1</v>
+      </c>
+      <c r="BC24">
+        <v>6</v>
+      </c>
+      <c r="BD24">
+        <v>1.37</v>
+      </c>
+      <c r="BE24">
+        <v>8.5</v>
+      </c>
+      <c r="BF24">
+        <v>3.86</v>
+      </c>
+      <c r="BG24">
+        <v>1.21</v>
+      </c>
+      <c r="BH24">
+        <v>3.74</v>
+      </c>
+      <c r="BI24">
+        <v>1.41</v>
+      </c>
+      <c r="BJ24">
+        <v>2.6</v>
+      </c>
+      <c r="BK24">
+        <v>1.73</v>
+      </c>
+      <c r="BL24">
+        <v>1.99</v>
+      </c>
+      <c r="BM24">
+        <v>2.17</v>
+      </c>
+      <c r="BN24">
+        <v>1.58</v>
+      </c>
+      <c r="BO24">
+        <v>2.88</v>
+      </c>
+      <c r="BP24">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,9 @@
     <t>['47', '66', '69']</t>
   </si>
   <si>
+    <t>['57', '90+5']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -370,7 +373,7 @@
     <t>['16', '33', '90+3']</t>
   </si>
   <si>
-    <t>['1', '11', '12', '28', '49']</t>
+    <t>['1', '10', '12', '28', '49']</t>
   </si>
   <si>
     <t>['61', '82']</t>
@@ -383,6 +386,9 @@
   </si>
   <si>
     <t>['33', '41', '49', '64']</t>
+  </si>
+  <si>
+    <t>['30', '46']</t>
   </si>
 </sst>
 </file>
@@ -744,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP24"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1003,7 +1009,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1209,7 +1215,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1621,7 +1627,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1827,7 +1833,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2239,7 +2245,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2445,7 +2451,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2651,7 +2657,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2857,7 +2863,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3568,31 +3574,31 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB14">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC14">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD14">
         <v>1.51</v>
@@ -3774,31 +3780,31 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV15">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD15">
         <v>1.85</v>
@@ -3887,7 +3893,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4299,7 +4305,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4505,7 +4511,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4711,7 +4717,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4917,7 +4923,7 @@
         <v>108</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q21">
         <v>4.33</v>
@@ -5329,7 +5335,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5692,6 +5698,212 @@
       </c>
       <c r="BP24">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7476562</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45522.375</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25">
+        <v>2.63</v>
+      </c>
+      <c r="R25">
+        <v>2.38</v>
+      </c>
+      <c r="S25">
+        <v>3.6</v>
+      </c>
+      <c r="T25">
+        <v>1.3</v>
+      </c>
+      <c r="U25">
+        <v>3.4</v>
+      </c>
+      <c r="V25">
+        <v>2.5</v>
+      </c>
+      <c r="W25">
+        <v>1.5</v>
+      </c>
+      <c r="X25">
+        <v>6</v>
+      </c>
+      <c r="Y25">
+        <v>1.13</v>
+      </c>
+      <c r="Z25">
+        <v>2.02</v>
+      </c>
+      <c r="AA25">
+        <v>3.5</v>
+      </c>
+      <c r="AB25">
+        <v>2.95</v>
+      </c>
+      <c r="AC25">
+        <v>1.04</v>
+      </c>
+      <c r="AD25">
+        <v>10</v>
+      </c>
+      <c r="AE25">
+        <v>1.22</v>
+      </c>
+      <c r="AF25">
+        <v>4.2</v>
+      </c>
+      <c r="AG25">
+        <v>1.67</v>
+      </c>
+      <c r="AH25">
+        <v>2.07</v>
+      </c>
+      <c r="AI25">
+        <v>1.53</v>
+      </c>
+      <c r="AJ25">
+        <v>2.38</v>
+      </c>
+      <c r="AK25">
+        <v>1.3</v>
+      </c>
+      <c r="AL25">
+        <v>1.22</v>
+      </c>
+      <c r="AM25">
+        <v>1.77</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>9</v>
+      </c>
+      <c r="AV25">
+        <v>5</v>
+      </c>
+      <c r="AW25">
+        <v>3</v>
+      </c>
+      <c r="AX25">
+        <v>2</v>
+      </c>
+      <c r="AY25">
+        <v>12</v>
+      </c>
+      <c r="AZ25">
+        <v>7</v>
+      </c>
+      <c r="BA25">
+        <v>11</v>
+      </c>
+      <c r="BB25">
+        <v>2</v>
+      </c>
+      <c r="BC25">
+        <v>13</v>
+      </c>
+      <c r="BD25">
+        <v>1.59</v>
+      </c>
+      <c r="BE25">
+        <v>7.5</v>
+      </c>
+      <c r="BF25">
+        <v>2.92</v>
+      </c>
+      <c r="BG25">
+        <v>1.2</v>
+      </c>
+      <c r="BH25">
+        <v>4.1</v>
+      </c>
+      <c r="BI25">
+        <v>1.33</v>
+      </c>
+      <c r="BJ25">
+        <v>2.93</v>
+      </c>
+      <c r="BK25">
+        <v>1.59</v>
+      </c>
+      <c r="BL25">
+        <v>2.16</v>
+      </c>
+      <c r="BM25">
+        <v>1.85</v>
+      </c>
+      <c r="BN25">
+        <v>1.95</v>
+      </c>
+      <c r="BO25">
+        <v>2.57</v>
+      </c>
+      <c r="BP25">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -385,7 +385,7 @@
     <t>['30']</t>
   </si>
   <si>
-    <t>['33', '41', '49', '64']</t>
+    <t>['33', '40', '49', '64']</t>
   </si>
   <si>
     <t>['30', '46']</t>
@@ -4213,10 +4213,10 @@
         <v>4</v>
       </c>
       <c r="BB17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD17">
         <v>2.2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -283,21 +283,21 @@
     <t>Morecambe</t>
   </si>
   <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Swindon Town</t>
+  </si>
+  <si>
     <t>Newport County</t>
   </si>
   <si>
     <t>Port Vale</t>
   </si>
   <si>
-    <t>Swindon Town</t>
-  </si>
-  <si>
-    <t>Bradford City</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
     <t>['15']</t>
   </si>
   <si>
@@ -340,9 +340,6 @@
     <t>['44', '51', '90+3']</t>
   </si>
   <si>
-    <t>['47', '66', '69']</t>
-  </si>
-  <si>
     <t>['57', '90+5']</t>
   </si>
   <si>
@@ -380,12 +377,6 @@
   </si>
   <si>
     <t>['76']</t>
-  </si>
-  <si>
-    <t>['30']</t>
-  </si>
-  <si>
-    <t>['33', '40', '49', '64']</t>
   </si>
   <si>
     <t>['30', '46']</t>
@@ -750,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,7 +1000,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1215,7 +1206,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1603,7 +1594,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1627,7 +1618,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1833,7 +1824,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2245,7 +2236,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2451,7 +2442,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2633,7 +2624,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2657,7 +2648,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2839,7 +2830,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2863,7 +2854,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3045,7 +3036,7 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3893,7 +3884,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4305,7 +4296,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4511,7 +4502,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4717,7 +4708,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4881,7 +4872,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7476561</v>
+        <v>7476554</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -4899,46 +4890,46 @@
         <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="Q21">
+        <v>2.3</v>
+      </c>
+      <c r="R21">
+        <v>2.38</v>
+      </c>
+      <c r="S21">
         <v>4.33</v>
       </c>
-      <c r="R21">
-        <v>2.3</v>
-      </c>
-      <c r="S21">
-        <v>2.38</v>
-      </c>
       <c r="T21">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U21">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V21">
         <v>2.5</v>
@@ -4947,52 +4938,52 @@
         <v>1.5</v>
       </c>
       <c r="X21">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y21">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z21">
-        <v>3.94</v>
+        <v>1.68</v>
       </c>
       <c r="AA21">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="AB21">
-        <v>1.67</v>
+        <v>3.82</v>
       </c>
       <c r="AC21">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE21">
+        <v>1.18</v>
+      </c>
+      <c r="AF21">
+        <v>4.15</v>
+      </c>
+      <c r="AG21">
+        <v>1.65</v>
+      </c>
+      <c r="AH21">
+        <v>2.11</v>
+      </c>
+      <c r="AI21">
+        <v>1.62</v>
+      </c>
+      <c r="AJ21">
+        <v>2.2</v>
+      </c>
+      <c r="AK21">
         <v>1.22</v>
       </c>
-      <c r="AF21">
-        <v>4.2</v>
-      </c>
-      <c r="AG21">
-        <v>1.7</v>
-      </c>
-      <c r="AH21">
-        <v>2.03</v>
-      </c>
-      <c r="AI21">
-        <v>1.67</v>
-      </c>
-      <c r="AJ21">
-        <v>2.1</v>
-      </c>
-      <c r="AK21">
-        <v>1.93</v>
-      </c>
       <c r="AL21">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM21">
-        <v>1.23</v>
+        <v>2.05</v>
       </c>
       <c r="AN21">
         <v>0</v>
@@ -5001,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5016,70 +5007,70 @@
         <v>0</v>
       </c>
       <c r="AU21">
+        <v>4</v>
+      </c>
+      <c r="AV21">
+        <v>3</v>
+      </c>
+      <c r="AW21">
         <v>6</v>
       </c>
-      <c r="AV21">
-        <v>9</v>
-      </c>
-      <c r="AW21">
-        <v>4</v>
-      </c>
       <c r="AX21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY21">
         <v>10</v>
       </c>
       <c r="AZ21">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="BA21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB21">
+        <v>1</v>
+      </c>
+      <c r="BC21">
         <v>6</v>
       </c>
-      <c r="BC21">
-        <v>10</v>
-      </c>
       <c r="BD21">
-        <v>2.92</v>
+        <v>1.37</v>
       </c>
       <c r="BE21">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF21">
-        <v>1.59</v>
+        <v>3.86</v>
       </c>
       <c r="BG21">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BH21">
-        <v>4</v>
+        <v>3.74</v>
       </c>
       <c r="BI21">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="BJ21">
-        <v>2.93</v>
+        <v>2.6</v>
       </c>
       <c r="BK21">
+        <v>1.73</v>
+      </c>
+      <c r="BL21">
+        <v>1.99</v>
+      </c>
+      <c r="BM21">
+        <v>2.17</v>
+      </c>
+      <c r="BN21">
         <v>1.58</v>
       </c>
-      <c r="BL21">
-        <v>2.17</v>
-      </c>
-      <c r="BM21">
-        <v>1.99</v>
-      </c>
-      <c r="BN21">
-        <v>1.73</v>
-      </c>
       <c r="BO21">
-        <v>2.57</v>
+        <v>2.88</v>
       </c>
       <c r="BP21">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5087,7 +5078,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7476563</v>
+        <v>7476562</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5096,7 +5087,7 @@
         <v>69</v>
       </c>
       <c r="E22" s="2">
-        <v>45521.45833333334</v>
+        <v>45522.375</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -5105,804 +5096,186 @@
         <v>90</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="Q22">
+        <v>2.63</v>
+      </c>
+      <c r="R22">
         <v>2.38</v>
       </c>
-      <c r="R22">
-        <v>2.3</v>
-      </c>
       <c r="S22">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="T22">
+        <v>1.3</v>
+      </c>
+      <c r="U22">
+        <v>3.4</v>
+      </c>
+      <c r="V22">
+        <v>2.5</v>
+      </c>
+      <c r="W22">
+        <v>1.5</v>
+      </c>
+      <c r="X22">
+        <v>6</v>
+      </c>
+      <c r="Y22">
+        <v>1.13</v>
+      </c>
+      <c r="Z22">
+        <v>2.02</v>
+      </c>
+      <c r="AA22">
+        <v>3.5</v>
+      </c>
+      <c r="AB22">
+        <v>2.95</v>
+      </c>
+      <c r="AC22">
+        <v>1.04</v>
+      </c>
+      <c r="AD22">
+        <v>10</v>
+      </c>
+      <c r="AE22">
+        <v>1.22</v>
+      </c>
+      <c r="AF22">
+        <v>4.2</v>
+      </c>
+      <c r="AG22">
+        <v>1.67</v>
+      </c>
+      <c r="AH22">
+        <v>2.07</v>
+      </c>
+      <c r="AI22">
+        <v>1.53</v>
+      </c>
+      <c r="AJ22">
+        <v>2.38</v>
+      </c>
+      <c r="AK22">
+        <v>1.3</v>
+      </c>
+      <c r="AL22">
+        <v>1.22</v>
+      </c>
+      <c r="AM22">
+        <v>1.77</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>9</v>
+      </c>
+      <c r="AV22">
+        <v>5</v>
+      </c>
+      <c r="AW22">
+        <v>3</v>
+      </c>
+      <c r="AX22">
+        <v>2</v>
+      </c>
+      <c r="AY22">
+        <v>12</v>
+      </c>
+      <c r="AZ22">
+        <v>7</v>
+      </c>
+      <c r="BA22">
+        <v>11</v>
+      </c>
+      <c r="BB22">
+        <v>2</v>
+      </c>
+      <c r="BC22">
+        <v>13</v>
+      </c>
+      <c r="BD22">
+        <v>1.59</v>
+      </c>
+      <c r="BE22">
+        <v>7.5</v>
+      </c>
+      <c r="BF22">
+        <v>2.92</v>
+      </c>
+      <c r="BG22">
+        <v>1.2</v>
+      </c>
+      <c r="BH22">
+        <v>4.1</v>
+      </c>
+      <c r="BI22">
         <v>1.33</v>
       </c>
-      <c r="U22">
-        <v>3.25</v>
-      </c>
-      <c r="V22">
-        <v>2.63</v>
-      </c>
-      <c r="W22">
-        <v>1.44</v>
-      </c>
-      <c r="X22">
-        <v>6.5</v>
-      </c>
-      <c r="Y22">
-        <v>1.11</v>
-      </c>
-      <c r="Z22">
-        <v>1.68</v>
-      </c>
-      <c r="AA22">
-        <v>3.28</v>
-      </c>
-      <c r="AB22">
-        <v>3.7</v>
-      </c>
-      <c r="AC22">
-        <v>1.02</v>
-      </c>
-      <c r="AD22">
-        <v>10.5</v>
-      </c>
-      <c r="AE22">
-        <v>1.2</v>
-      </c>
-      <c r="AF22">
-        <v>3.86</v>
-      </c>
-      <c r="AG22">
-        <v>1.81</v>
-      </c>
-      <c r="AH22">
-        <v>1.89</v>
-      </c>
-      <c r="AI22">
-        <v>1.67</v>
-      </c>
-      <c r="AJ22">
-        <v>2.1</v>
-      </c>
-      <c r="AK22">
-        <v>1.2</v>
-      </c>
-      <c r="AL22">
-        <v>1.24</v>
-      </c>
-      <c r="AM22">
-        <v>2.04</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>1</v>
-      </c>
-      <c r="AQ22">
-        <v>1</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>4</v>
-      </c>
-      <c r="AV22">
-        <v>2</v>
-      </c>
-      <c r="AW22">
-        <v>3</v>
-      </c>
-      <c r="AX22">
-        <v>1</v>
-      </c>
-      <c r="AY22">
-        <v>7</v>
-      </c>
-      <c r="AZ22">
-        <v>3</v>
-      </c>
-      <c r="BA22">
-        <v>2</v>
-      </c>
-      <c r="BB22">
-        <v>5</v>
-      </c>
-      <c r="BC22">
-        <v>7</v>
-      </c>
-      <c r="BD22">
-        <v>1.37</v>
-      </c>
-      <c r="BE22">
-        <v>8</v>
-      </c>
-      <c r="BF22">
-        <v>3.88</v>
-      </c>
-      <c r="BG22">
-        <v>1.17</v>
-      </c>
-      <c r="BH22">
-        <v>4.4</v>
-      </c>
-      <c r="BI22">
-        <v>1.3</v>
-      </c>
       <c r="BJ22">
-        <v>3.08</v>
+        <v>2.93</v>
       </c>
       <c r="BK22">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="BL22">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="BM22">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BN22">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BO22">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="BP22">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:68">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>7476564</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="2">
-        <v>45521.45833333334</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-      <c r="N23">
-        <v>4</v>
-      </c>
-      <c r="O23" t="s">
-        <v>101</v>
-      </c>
-      <c r="P23" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-      <c r="R23">
-        <v>2.38</v>
-      </c>
-      <c r="S23">
-        <v>3.1</v>
-      </c>
-      <c r="T23">
-        <v>1.29</v>
-      </c>
-      <c r="U23">
-        <v>3.5</v>
-      </c>
-      <c r="V23">
-        <v>2.38</v>
-      </c>
-      <c r="W23">
-        <v>1.53</v>
-      </c>
-      <c r="X23">
-        <v>5.5</v>
-      </c>
-      <c r="Y23">
-        <v>1.14</v>
-      </c>
-      <c r="Z23">
-        <v>2.22</v>
-      </c>
-      <c r="AA23">
-        <v>3.19</v>
-      </c>
-      <c r="AB23">
-        <v>2.46</v>
-      </c>
-      <c r="AC23">
-        <v>1.02</v>
-      </c>
-      <c r="AD23">
-        <v>17</v>
-      </c>
-      <c r="AE23">
-        <v>1.15</v>
-      </c>
-      <c r="AF23">
-        <v>4.4</v>
-      </c>
-      <c r="AG23">
-        <v>1.57</v>
-      </c>
-      <c r="AH23">
-        <v>2.25</v>
-      </c>
-      <c r="AI23">
-        <v>1.5</v>
-      </c>
-      <c r="AJ23">
-        <v>2.5</v>
-      </c>
-      <c r="AK23">
-        <v>1.46</v>
-      </c>
-      <c r="AL23">
-        <v>1.26</v>
-      </c>
-      <c r="AM23">
-        <v>1.54</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>3</v>
-      </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>2</v>
-      </c>
-      <c r="AV23">
-        <v>2</v>
-      </c>
-      <c r="AW23">
-        <v>3</v>
-      </c>
-      <c r="AX23">
-        <v>3</v>
-      </c>
-      <c r="AY23">
-        <v>5</v>
-      </c>
-      <c r="AZ23">
-        <v>5</v>
-      </c>
-      <c r="BA23">
-        <v>2</v>
-      </c>
-      <c r="BB23">
-        <v>6</v>
-      </c>
-      <c r="BC23">
-        <v>8</v>
-      </c>
-      <c r="BD23">
-        <v>1.85</v>
-      </c>
-      <c r="BE23">
-        <v>7</v>
-      </c>
-      <c r="BF23">
-        <v>2.34</v>
-      </c>
-      <c r="BG23">
-        <v>1.19</v>
-      </c>
-      <c r="BH23">
-        <v>3.98</v>
-      </c>
-      <c r="BI23">
-        <v>1.37</v>
-      </c>
-      <c r="BJ23">
-        <v>2.75</v>
-      </c>
-      <c r="BK23">
-        <v>1.68</v>
-      </c>
-      <c r="BL23">
-        <v>2.06</v>
-      </c>
-      <c r="BM23">
-        <v>2.09</v>
-      </c>
-      <c r="BN23">
-        <v>1.63</v>
-      </c>
-      <c r="BO23">
-        <v>2.78</v>
-      </c>
-      <c r="BP23">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:68">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>7476554</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="2">
-        <v>45521.45833333334</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
-        <v>101</v>
-      </c>
-      <c r="P24" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q24">
-        <v>2.3</v>
-      </c>
-      <c r="R24">
-        <v>2.38</v>
-      </c>
-      <c r="S24">
-        <v>4.33</v>
-      </c>
-      <c r="T24">
-        <v>1.3</v>
-      </c>
-      <c r="U24">
-        <v>3.4</v>
-      </c>
-      <c r="V24">
-        <v>2.5</v>
-      </c>
-      <c r="W24">
-        <v>1.5</v>
-      </c>
-      <c r="X24">
-        <v>6</v>
-      </c>
-      <c r="Y24">
-        <v>1.13</v>
-      </c>
-      <c r="Z24">
-        <v>1.68</v>
-      </c>
-      <c r="AA24">
-        <v>3.48</v>
-      </c>
-      <c r="AB24">
-        <v>3.82</v>
-      </c>
-      <c r="AC24">
-        <v>1.02</v>
-      </c>
-      <c r="AD24">
-        <v>10.25</v>
-      </c>
-      <c r="AE24">
-        <v>1.18</v>
-      </c>
-      <c r="AF24">
-        <v>4.15</v>
-      </c>
-      <c r="AG24">
-        <v>1.65</v>
-      </c>
-      <c r="AH24">
-        <v>2.11</v>
-      </c>
-      <c r="AI24">
-        <v>1.62</v>
-      </c>
-      <c r="AJ24">
-        <v>2.2</v>
-      </c>
-      <c r="AK24">
-        <v>1.22</v>
-      </c>
-      <c r="AL24">
-        <v>1.2</v>
-      </c>
-      <c r="AM24">
-        <v>2.05</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>1</v>
-      </c>
-      <c r="AQ24">
-        <v>1</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
-        <v>4</v>
-      </c>
-      <c r="AV24">
-        <v>3</v>
-      </c>
-      <c r="AW24">
-        <v>6</v>
-      </c>
-      <c r="AX24">
-        <v>3</v>
-      </c>
-      <c r="AY24">
-        <v>10</v>
-      </c>
-      <c r="AZ24">
-        <v>6</v>
-      </c>
-      <c r="BA24">
-        <v>5</v>
-      </c>
-      <c r="BB24">
-        <v>1</v>
-      </c>
-      <c r="BC24">
-        <v>6</v>
-      </c>
-      <c r="BD24">
-        <v>1.37</v>
-      </c>
-      <c r="BE24">
-        <v>8.5</v>
-      </c>
-      <c r="BF24">
-        <v>3.86</v>
-      </c>
-      <c r="BG24">
-        <v>1.21</v>
-      </c>
-      <c r="BH24">
-        <v>3.74</v>
-      </c>
-      <c r="BI24">
-        <v>1.41</v>
-      </c>
-      <c r="BJ24">
-        <v>2.6</v>
-      </c>
-      <c r="BK24">
-        <v>1.73</v>
-      </c>
-      <c r="BL24">
-        <v>1.99</v>
-      </c>
-      <c r="BM24">
-        <v>2.17</v>
-      </c>
-      <c r="BN24">
-        <v>1.58</v>
-      </c>
-      <c r="BO24">
-        <v>2.88</v>
-      </c>
-      <c r="BP24">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:68">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>7476562</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="2">
-        <v>45522.375</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25">
-        <v>4</v>
-      </c>
-      <c r="O25" t="s">
-        <v>109</v>
-      </c>
-      <c r="P25" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q25">
-        <v>2.63</v>
-      </c>
-      <c r="R25">
-        <v>2.38</v>
-      </c>
-      <c r="S25">
-        <v>3.6</v>
-      </c>
-      <c r="T25">
-        <v>1.3</v>
-      </c>
-      <c r="U25">
-        <v>3.4</v>
-      </c>
-      <c r="V25">
-        <v>2.5</v>
-      </c>
-      <c r="W25">
-        <v>1.5</v>
-      </c>
-      <c r="X25">
-        <v>6</v>
-      </c>
-      <c r="Y25">
-        <v>1.13</v>
-      </c>
-      <c r="Z25">
-        <v>2.02</v>
-      </c>
-      <c r="AA25">
-        <v>3.5</v>
-      </c>
-      <c r="AB25">
-        <v>2.95</v>
-      </c>
-      <c r="AC25">
-        <v>1.04</v>
-      </c>
-      <c r="AD25">
-        <v>10</v>
-      </c>
-      <c r="AE25">
-        <v>1.22</v>
-      </c>
-      <c r="AF25">
-        <v>4.2</v>
-      </c>
-      <c r="AG25">
-        <v>1.67</v>
-      </c>
-      <c r="AH25">
-        <v>2.07</v>
-      </c>
-      <c r="AI25">
-        <v>1.53</v>
-      </c>
-      <c r="AJ25">
-        <v>2.38</v>
-      </c>
-      <c r="AK25">
-        <v>1.3</v>
-      </c>
-      <c r="AL25">
-        <v>1.22</v>
-      </c>
-      <c r="AM25">
-        <v>1.77</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>1</v>
-      </c>
-      <c r="AQ25">
-        <v>1</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
-        <v>9</v>
-      </c>
-      <c r="AV25">
-        <v>5</v>
-      </c>
-      <c r="AW25">
-        <v>3</v>
-      </c>
-      <c r="AX25">
-        <v>2</v>
-      </c>
-      <c r="AY25">
-        <v>12</v>
-      </c>
-      <c r="AZ25">
-        <v>7</v>
-      </c>
-      <c r="BA25">
-        <v>11</v>
-      </c>
-      <c r="BB25">
-        <v>2</v>
-      </c>
-      <c r="BC25">
-        <v>13</v>
-      </c>
-      <c r="BD25">
-        <v>1.59</v>
-      </c>
-      <c r="BE25">
-        <v>7.5</v>
-      </c>
-      <c r="BF25">
-        <v>2.92</v>
-      </c>
-      <c r="BG25">
-        <v>1.2</v>
-      </c>
-      <c r="BH25">
-        <v>4.1</v>
-      </c>
-      <c r="BI25">
-        <v>1.33</v>
-      </c>
-      <c r="BJ25">
-        <v>2.93</v>
-      </c>
-      <c r="BK25">
-        <v>1.59</v>
-      </c>
-      <c r="BL25">
-        <v>2.16</v>
-      </c>
-      <c r="BM25">
-        <v>1.85</v>
-      </c>
-      <c r="BN25">
-        <v>1.95</v>
-      </c>
-      <c r="BO25">
-        <v>2.57</v>
-      </c>
-      <c r="BP25">
         <v>1.42</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -283,21 +283,21 @@
     <t>Morecambe</t>
   </si>
   <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Swindon Town</t>
+  </si>
+  <si>
     <t>Bradford City</t>
   </si>
   <si>
     <t>Notts County</t>
   </si>
   <si>
-    <t>Swindon Town</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
     <t>['15']</t>
   </si>
   <si>
@@ -340,9 +340,15 @@
     <t>['44', '51', '90+3']</t>
   </si>
   <si>
+    <t>['47', '66', '69']</t>
+  </si>
+  <si>
     <t>['57', '90+5']</t>
   </si>
   <si>
+    <t>['6', '15', '45+1', '57']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -379,7 +385,16 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['33', '40', '49', '64']</t>
+  </si>
+  <si>
     <t>['30', '46']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
   </si>
 </sst>
 </file>
@@ -741,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP22"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,7 +1015,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1206,7 +1221,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1594,7 +1609,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1618,7 +1633,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1824,7 +1839,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2236,7 +2251,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2442,7 +2457,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2624,7 +2639,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2648,7 +2663,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2830,7 +2845,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2854,7 +2869,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3036,7 +3051,7 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3884,7 +3899,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4296,7 +4311,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4502,7 +4517,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4708,7 +4723,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4872,7 +4887,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7476554</v>
+        <v>7476561</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -4890,46 +4905,46 @@
         <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O21" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P21" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="Q21">
+        <v>4.33</v>
+      </c>
+      <c r="R21">
         <v>2.3</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>2.38</v>
       </c>
-      <c r="S21">
-        <v>4.33</v>
-      </c>
       <c r="T21">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U21">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V21">
         <v>2.5</v>
@@ -4938,139 +4953,139 @@
         <v>1.5</v>
       </c>
       <c r="X21">
+        <v>6.5</v>
+      </c>
+      <c r="Y21">
+        <v>1.11</v>
+      </c>
+      <c r="Z21">
+        <v>3.94</v>
+      </c>
+      <c r="AA21">
+        <v>3.46</v>
+      </c>
+      <c r="AB21">
+        <v>1.67</v>
+      </c>
+      <c r="AC21">
+        <v>1.04</v>
+      </c>
+      <c r="AD21">
+        <v>10</v>
+      </c>
+      <c r="AE21">
+        <v>1.22</v>
+      </c>
+      <c r="AF21">
+        <v>4.2</v>
+      </c>
+      <c r="AG21">
+        <v>1.7</v>
+      </c>
+      <c r="AH21">
+        <v>2.03</v>
+      </c>
+      <c r="AI21">
+        <v>1.67</v>
+      </c>
+      <c r="AJ21">
+        <v>2.1</v>
+      </c>
+      <c r="AK21">
+        <v>1.93</v>
+      </c>
+      <c r="AL21">
+        <v>1.25</v>
+      </c>
+      <c r="AM21">
+        <v>1.23</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>-1</v>
+      </c>
+      <c r="AV21">
+        <v>-1</v>
+      </c>
+      <c r="AW21">
+        <v>-1</v>
+      </c>
+      <c r="AX21">
+        <v>-1</v>
+      </c>
+      <c r="AY21">
+        <v>-1</v>
+      </c>
+      <c r="AZ21">
+        <v>-1</v>
+      </c>
+      <c r="BA21">
+        <v>4</v>
+      </c>
+      <c r="BB21">
         <v>6</v>
       </c>
-      <c r="Y21">
-        <v>1.13</v>
-      </c>
-      <c r="Z21">
-        <v>1.68</v>
-      </c>
-      <c r="AA21">
-        <v>3.48</v>
-      </c>
-      <c r="AB21">
-        <v>3.82</v>
-      </c>
-      <c r="AC21">
-        <v>1.02</v>
-      </c>
-      <c r="AD21">
-        <v>10.25</v>
-      </c>
-      <c r="AE21">
-        <v>1.18</v>
-      </c>
-      <c r="AF21">
-        <v>4.15</v>
-      </c>
-      <c r="AG21">
-        <v>1.65</v>
-      </c>
-      <c r="AH21">
-        <v>2.11</v>
-      </c>
-      <c r="AI21">
-        <v>1.62</v>
-      </c>
-      <c r="AJ21">
-        <v>2.2</v>
-      </c>
-      <c r="AK21">
-        <v>1.22</v>
-      </c>
-      <c r="AL21">
+      <c r="BC21">
+        <v>10</v>
+      </c>
+      <c r="BD21">
+        <v>2.92</v>
+      </c>
+      <c r="BE21">
+        <v>7.5</v>
+      </c>
+      <c r="BF21">
+        <v>1.59</v>
+      </c>
+      <c r="BG21">
         <v>1.2</v>
       </c>
-      <c r="AM21">
-        <v>2.05</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>1</v>
-      </c>
-      <c r="AQ21">
-        <v>1</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
+      <c r="BH21">
         <v>4</v>
       </c>
-      <c r="AV21">
-        <v>3</v>
-      </c>
-      <c r="AW21">
-        <v>6</v>
-      </c>
-      <c r="AX21">
-        <v>3</v>
-      </c>
-      <c r="AY21">
-        <v>10</v>
-      </c>
-      <c r="AZ21">
-        <v>6</v>
-      </c>
-      <c r="BA21">
-        <v>5</v>
-      </c>
-      <c r="BB21">
-        <v>1</v>
-      </c>
-      <c r="BC21">
-        <v>6</v>
-      </c>
-      <c r="BD21">
-        <v>1.37</v>
-      </c>
-      <c r="BE21">
-        <v>8.5</v>
-      </c>
-      <c r="BF21">
-        <v>3.86</v>
-      </c>
-      <c r="BG21">
-        <v>1.21</v>
-      </c>
-      <c r="BH21">
-        <v>3.74</v>
-      </c>
       <c r="BI21">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="BJ21">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="BK21">
+        <v>1.58</v>
+      </c>
+      <c r="BL21">
+        <v>2.17</v>
+      </c>
+      <c r="BM21">
+        <v>1.99</v>
+      </c>
+      <c r="BN21">
         <v>1.73</v>
       </c>
-      <c r="BL21">
-        <v>1.99</v>
-      </c>
-      <c r="BM21">
-        <v>2.17</v>
-      </c>
-      <c r="BN21">
-        <v>1.58</v>
-      </c>
       <c r="BO21">
-        <v>2.88</v>
+        <v>2.57</v>
       </c>
       <c r="BP21">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5078,7 +5093,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7476562</v>
+        <v>7476563</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5087,7 +5102,7 @@
         <v>69</v>
       </c>
       <c r="E22" s="2">
-        <v>45522.375</v>
+        <v>45521.45833333334</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -5096,187 +5111,1011 @@
         <v>90</v>
       </c>
       <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22">
+        <v>2.38</v>
+      </c>
+      <c r="R22">
+        <v>2.3</v>
+      </c>
+      <c r="S22">
+        <v>4.5</v>
+      </c>
+      <c r="T22">
+        <v>1.33</v>
+      </c>
+      <c r="U22">
+        <v>3.25</v>
+      </c>
+      <c r="V22">
+        <v>2.63</v>
+      </c>
+      <c r="W22">
+        <v>1.44</v>
+      </c>
+      <c r="X22">
+        <v>6.5</v>
+      </c>
+      <c r="Y22">
+        <v>1.11</v>
+      </c>
+      <c r="Z22">
+        <v>1.68</v>
+      </c>
+      <c r="AA22">
+        <v>3.28</v>
+      </c>
+      <c r="AB22">
+        <v>3.7</v>
+      </c>
+      <c r="AC22">
+        <v>1.02</v>
+      </c>
+      <c r="AD22">
+        <v>10.5</v>
+      </c>
+      <c r="AE22">
+        <v>1.2</v>
+      </c>
+      <c r="AF22">
+        <v>3.86</v>
+      </c>
+      <c r="AG22">
+        <v>1.81</v>
+      </c>
+      <c r="AH22">
+        <v>1.89</v>
+      </c>
+      <c r="AI22">
+        <v>1.67</v>
+      </c>
+      <c r="AJ22">
+        <v>2.1</v>
+      </c>
+      <c r="AK22">
+        <v>1.2</v>
+      </c>
+      <c r="AL22">
+        <v>1.24</v>
+      </c>
+      <c r="AM22">
+        <v>2.04</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>-1</v>
+      </c>
+      <c r="AV22">
+        <v>-1</v>
+      </c>
+      <c r="AW22">
+        <v>-1</v>
+      </c>
+      <c r="AX22">
+        <v>-1</v>
+      </c>
+      <c r="AY22">
+        <v>-1</v>
+      </c>
+      <c r="AZ22">
+        <v>-1</v>
+      </c>
+      <c r="BA22">
+        <v>2</v>
+      </c>
+      <c r="BB22">
+        <v>5</v>
+      </c>
+      <c r="BC22">
+        <v>7</v>
+      </c>
+      <c r="BD22">
+        <v>1.37</v>
+      </c>
+      <c r="BE22">
+        <v>8</v>
+      </c>
+      <c r="BF22">
+        <v>3.88</v>
+      </c>
+      <c r="BG22">
+        <v>1.17</v>
+      </c>
+      <c r="BH22">
+        <v>4.4</v>
+      </c>
+      <c r="BI22">
+        <v>1.3</v>
+      </c>
+      <c r="BJ22">
+        <v>3.08</v>
+      </c>
+      <c r="BK22">
+        <v>1.54</v>
+      </c>
+      <c r="BL22">
+        <v>2.25</v>
+      </c>
+      <c r="BM22">
+        <v>1.98</v>
+      </c>
+      <c r="BN22">
+        <v>1.82</v>
+      </c>
+      <c r="BO22">
+        <v>2.45</v>
+      </c>
+      <c r="BP22">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7476564</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>2.38</v>
+      </c>
+      <c r="S23">
+        <v>3.1</v>
+      </c>
+      <c r="T23">
+        <v>1.29</v>
+      </c>
+      <c r="U23">
+        <v>3.5</v>
+      </c>
+      <c r="V23">
+        <v>2.38</v>
+      </c>
+      <c r="W23">
+        <v>1.53</v>
+      </c>
+      <c r="X23">
+        <v>5.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.14</v>
+      </c>
+      <c r="Z23">
+        <v>2.22</v>
+      </c>
+      <c r="AA23">
+        <v>3.19</v>
+      </c>
+      <c r="AB23">
+        <v>2.46</v>
+      </c>
+      <c r="AC23">
+        <v>1.02</v>
+      </c>
+      <c r="AD23">
+        <v>17</v>
+      </c>
+      <c r="AE23">
+        <v>1.15</v>
+      </c>
+      <c r="AF23">
+        <v>4.4</v>
+      </c>
+      <c r="AG23">
+        <v>1.57</v>
+      </c>
+      <c r="AH23">
+        <v>2.25</v>
+      </c>
+      <c r="AI23">
+        <v>1.5</v>
+      </c>
+      <c r="AJ23">
+        <v>2.5</v>
+      </c>
+      <c r="AK23">
+        <v>1.46</v>
+      </c>
+      <c r="AL23">
+        <v>1.26</v>
+      </c>
+      <c r="AM23">
+        <v>1.54</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>-1</v>
+      </c>
+      <c r="AV23">
+        <v>-1</v>
+      </c>
+      <c r="AW23">
+        <v>-1</v>
+      </c>
+      <c r="AX23">
+        <v>-1</v>
+      </c>
+      <c r="AY23">
+        <v>-1</v>
+      </c>
+      <c r="AZ23">
+        <v>-1</v>
+      </c>
+      <c r="BA23">
+        <v>2</v>
+      </c>
+      <c r="BB23">
+        <v>6</v>
+      </c>
+      <c r="BC23">
+        <v>8</v>
+      </c>
+      <c r="BD23">
+        <v>1.85</v>
+      </c>
+      <c r="BE23">
+        <v>7</v>
+      </c>
+      <c r="BF23">
+        <v>2.34</v>
+      </c>
+      <c r="BG23">
+        <v>1.19</v>
+      </c>
+      <c r="BH23">
+        <v>3.98</v>
+      </c>
+      <c r="BI23">
+        <v>1.37</v>
+      </c>
+      <c r="BJ23">
+        <v>2.75</v>
+      </c>
+      <c r="BK23">
+        <v>1.68</v>
+      </c>
+      <c r="BL23">
+        <v>2.06</v>
+      </c>
+      <c r="BM23">
+        <v>2.09</v>
+      </c>
+      <c r="BN23">
+        <v>1.63</v>
+      </c>
+      <c r="BO23">
+        <v>2.78</v>
+      </c>
+      <c r="BP23">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7476554</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q24">
+        <v>2.3</v>
+      </c>
+      <c r="R24">
+        <v>2.38</v>
+      </c>
+      <c r="S24">
+        <v>4.33</v>
+      </c>
+      <c r="T24">
+        <v>1.3</v>
+      </c>
+      <c r="U24">
+        <v>3.4</v>
+      </c>
+      <c r="V24">
+        <v>2.5</v>
+      </c>
+      <c r="W24">
+        <v>1.5</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>1.13</v>
+      </c>
+      <c r="Z24">
+        <v>1.68</v>
+      </c>
+      <c r="AA24">
+        <v>3.48</v>
+      </c>
+      <c r="AB24">
+        <v>3.82</v>
+      </c>
+      <c r="AC24">
+        <v>1.02</v>
+      </c>
+      <c r="AD24">
+        <v>10.25</v>
+      </c>
+      <c r="AE24">
+        <v>1.18</v>
+      </c>
+      <c r="AF24">
+        <v>4.15</v>
+      </c>
+      <c r="AG24">
+        <v>1.65</v>
+      </c>
+      <c r="AH24">
+        <v>2.11</v>
+      </c>
+      <c r="AI24">
+        <v>1.62</v>
+      </c>
+      <c r="AJ24">
+        <v>2.2</v>
+      </c>
+      <c r="AK24">
+        <v>1.22</v>
+      </c>
+      <c r="AL24">
+        <v>1.2</v>
+      </c>
+      <c r="AM24">
+        <v>2.05</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>4</v>
+      </c>
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>6</v>
+      </c>
+      <c r="AX24">
+        <v>3</v>
+      </c>
+      <c r="AY24">
+        <v>10</v>
+      </c>
+      <c r="AZ24">
+        <v>6</v>
+      </c>
+      <c r="BA24">
+        <v>5</v>
+      </c>
+      <c r="BB24">
+        <v>1</v>
+      </c>
+      <c r="BC24">
+        <v>6</v>
+      </c>
+      <c r="BD24">
+        <v>1.37</v>
+      </c>
+      <c r="BE24">
+        <v>8.5</v>
+      </c>
+      <c r="BF24">
+        <v>3.86</v>
+      </c>
+      <c r="BG24">
+        <v>1.21</v>
+      </c>
+      <c r="BH24">
+        <v>3.74</v>
+      </c>
+      <c r="BI24">
+        <v>1.41</v>
+      </c>
+      <c r="BJ24">
+        <v>2.6</v>
+      </c>
+      <c r="BK24">
+        <v>1.73</v>
+      </c>
+      <c r="BL24">
+        <v>1.99</v>
+      </c>
+      <c r="BM24">
+        <v>2.17</v>
+      </c>
+      <c r="BN24">
+        <v>1.58</v>
+      </c>
+      <c r="BO24">
+        <v>2.88</v>
+      </c>
+      <c r="BP24">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7476562</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45522.375</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" t="s">
         <v>75</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-      <c r="N22">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
         <v>4</v>
       </c>
-      <c r="O22" t="s">
-        <v>108</v>
-      </c>
-      <c r="P22" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22">
+      <c r="O25" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q25">
         <v>2.63</v>
       </c>
-      <c r="R22">
+      <c r="R25">
         <v>2.38</v>
       </c>
-      <c r="S22">
+      <c r="S25">
         <v>3.6</v>
       </c>
-      <c r="T22">
+      <c r="T25">
         <v>1.3</v>
       </c>
-      <c r="U22">
+      <c r="U25">
         <v>3.4</v>
       </c>
-      <c r="V22">
+      <c r="V25">
         <v>2.5</v>
       </c>
-      <c r="W22">
+      <c r="W25">
         <v>1.5</v>
       </c>
-      <c r="X22">
+      <c r="X25">
         <v>6</v>
       </c>
-      <c r="Y22">
+      <c r="Y25">
         <v>1.13</v>
       </c>
-      <c r="Z22">
+      <c r="Z25">
         <v>2.02</v>
       </c>
-      <c r="AA22">
+      <c r="AA25">
         <v>3.5</v>
       </c>
-      <c r="AB22">
+      <c r="AB25">
         <v>2.95</v>
       </c>
-      <c r="AC22">
+      <c r="AC25">
         <v>1.04</v>
       </c>
-      <c r="AD22">
+      <c r="AD25">
         <v>10</v>
       </c>
-      <c r="AE22">
+      <c r="AE25">
         <v>1.22</v>
       </c>
-      <c r="AF22">
+      <c r="AF25">
         <v>4.2</v>
       </c>
-      <c r="AG22">
+      <c r="AG25">
         <v>1.67</v>
       </c>
-      <c r="AH22">
+      <c r="AH25">
         <v>2.07</v>
       </c>
-      <c r="AI22">
+      <c r="AI25">
         <v>1.53</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ25">
         <v>2.38</v>
       </c>
-      <c r="AK22">
+      <c r="AK25">
         <v>1.3</v>
       </c>
-      <c r="AL22">
+      <c r="AL25">
         <v>1.22</v>
       </c>
-      <c r="AM22">
+      <c r="AM25">
         <v>1.77</v>
       </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>1</v>
-      </c>
-      <c r="AQ22">
-        <v>1</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
         <v>9</v>
       </c>
-      <c r="AV22">
+      <c r="AV25">
         <v>5</v>
       </c>
-      <c r="AW22">
-        <v>3</v>
-      </c>
-      <c r="AX22">
-        <v>2</v>
-      </c>
-      <c r="AY22">
+      <c r="AW25">
+        <v>3</v>
+      </c>
+      <c r="AX25">
+        <v>2</v>
+      </c>
+      <c r="AY25">
         <v>12</v>
       </c>
-      <c r="AZ22">
+      <c r="AZ25">
         <v>7</v>
       </c>
-      <c r="BA22">
+      <c r="BA25">
         <v>11</v>
       </c>
-      <c r="BB22">
-        <v>2</v>
-      </c>
-      <c r="BC22">
+      <c r="BB25">
+        <v>2</v>
+      </c>
+      <c r="BC25">
         <v>13</v>
       </c>
-      <c r="BD22">
+      <c r="BD25">
         <v>1.59</v>
       </c>
-      <c r="BE22">
+      <c r="BE25">
         <v>7.5</v>
       </c>
-      <c r="BF22">
+      <c r="BF25">
         <v>2.92</v>
       </c>
-      <c r="BG22">
+      <c r="BG25">
         <v>1.2</v>
       </c>
-      <c r="BH22">
+      <c r="BH25">
         <v>4.1</v>
       </c>
-      <c r="BI22">
+      <c r="BI25">
         <v>1.33</v>
       </c>
-      <c r="BJ22">
+      <c r="BJ25">
         <v>2.93</v>
       </c>
-      <c r="BK22">
+      <c r="BK25">
         <v>1.59</v>
       </c>
-      <c r="BL22">
+      <c r="BL25">
         <v>2.16</v>
       </c>
-      <c r="BM22">
+      <c r="BM25">
         <v>1.85</v>
       </c>
-      <c r="BN22">
+      <c r="BN25">
         <v>1.95</v>
       </c>
-      <c r="BO22">
+      <c r="BO25">
         <v>2.57</v>
       </c>
-      <c r="BP22">
+      <c r="BP25">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7476575</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45526.66666666666</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26">
+        <v>2.38</v>
+      </c>
+      <c r="R26">
+        <v>2.25</v>
+      </c>
+      <c r="S26">
+        <v>4.75</v>
+      </c>
+      <c r="T26">
+        <v>1.33</v>
+      </c>
+      <c r="U26">
+        <v>3.25</v>
+      </c>
+      <c r="V26">
+        <v>2.63</v>
+      </c>
+      <c r="W26">
+        <v>1.44</v>
+      </c>
+      <c r="X26">
+        <v>7</v>
+      </c>
+      <c r="Y26">
+        <v>1.1</v>
+      </c>
+      <c r="Z26">
+        <v>1.85</v>
+      </c>
+      <c r="AA26">
+        <v>3.7</v>
+      </c>
+      <c r="AB26">
+        <v>4</v>
+      </c>
+      <c r="AC26">
+        <v>1.03</v>
+      </c>
+      <c r="AD26">
+        <v>15</v>
+      </c>
+      <c r="AE26">
+        <v>1.2</v>
+      </c>
+      <c r="AF26">
+        <v>4.1</v>
+      </c>
+      <c r="AG26">
+        <v>1.7</v>
+      </c>
+      <c r="AH26">
+        <v>2.1</v>
+      </c>
+      <c r="AI26">
+        <v>1.73</v>
+      </c>
+      <c r="AJ26">
+        <v>2</v>
+      </c>
+      <c r="AK26">
+        <v>1.22</v>
+      </c>
+      <c r="AL26">
+        <v>1.22</v>
+      </c>
+      <c r="AM26">
+        <v>1.93</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>2</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>1.83</v>
+      </c>
+      <c r="AS26">
+        <v>0.64</v>
+      </c>
+      <c r="AT26">
+        <v>2.47</v>
+      </c>
+      <c r="AU26">
+        <v>7</v>
+      </c>
+      <c r="AV26">
+        <v>4</v>
+      </c>
+      <c r="AW26">
+        <v>7</v>
+      </c>
+      <c r="AX26">
+        <v>7</v>
+      </c>
+      <c r="AY26">
+        <v>14</v>
+      </c>
+      <c r="AZ26">
+        <v>11</v>
+      </c>
+      <c r="BA26">
+        <v>6</v>
+      </c>
+      <c r="BB26">
+        <v>4</v>
+      </c>
+      <c r="BC26">
+        <v>10</v>
+      </c>
+      <c r="BD26">
+        <v>1.62</v>
+      </c>
+      <c r="BE26">
+        <v>8.5</v>
+      </c>
+      <c r="BF26">
+        <v>2.6</v>
+      </c>
+      <c r="BG26">
+        <v>1.15</v>
+      </c>
+      <c r="BH26">
+        <v>4.75</v>
+      </c>
+      <c r="BI26">
+        <v>1.29</v>
+      </c>
+      <c r="BJ26">
+        <v>3.3</v>
+      </c>
+      <c r="BK26">
+        <v>1.48</v>
+      </c>
+      <c r="BL26">
+        <v>2.5</v>
+      </c>
+      <c r="BM26">
+        <v>1.77</v>
+      </c>
+      <c r="BN26">
+        <v>2.02</v>
+      </c>
+      <c r="BO26">
+        <v>2.2</v>
+      </c>
+      <c r="BP26">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="137">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,24 @@
     <t>['6', '15', '45+1', '57']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['12', '52', '63']</t>
+  </si>
+  <si>
+    <t>['18', '31', '90+2']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['10', '41', '79']</t>
+  </si>
+  <si>
+    <t>['54', '77', '81', '90+5']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -395,6 +413,18 @@
   </si>
   <si>
     <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1015,7 +1045,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1221,7 +1251,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1633,7 +1663,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1711,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1839,7 +1869,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2123,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2251,7 +2281,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2457,7 +2487,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2538,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2663,7 +2693,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2741,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>3</v>
@@ -2869,7 +2899,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -2950,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3153,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3774,7 +3804,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3899,7 +3929,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -3980,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4183,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4311,7 +4341,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4389,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ18">
         <v>3</v>
@@ -4517,7 +4547,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4723,7 +4753,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4804,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="AQ20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -4929,7 +4959,7 @@
         <v>108</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>4.33</v>
@@ -5341,7 +5371,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5422,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5625,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5753,7 +5783,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5959,7 +5989,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6116,6 +6146,2272 @@
       </c>
       <c r="BP26">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7476576</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45528.35416666666</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q27">
+        <v>3.1</v>
+      </c>
+      <c r="R27">
+        <v>2.2</v>
+      </c>
+      <c r="S27">
+        <v>3.4</v>
+      </c>
+      <c r="T27">
+        <v>1.36</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>2.75</v>
+      </c>
+      <c r="W27">
+        <v>1.4</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>1.1</v>
+      </c>
+      <c r="Z27">
+        <v>2.35</v>
+      </c>
+      <c r="AA27">
+        <v>3.25</v>
+      </c>
+      <c r="AB27">
+        <v>2.8</v>
+      </c>
+      <c r="AC27">
+        <v>1.01</v>
+      </c>
+      <c r="AD27">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE27">
+        <v>1.24</v>
+      </c>
+      <c r="AF27">
+        <v>3.48</v>
+      </c>
+      <c r="AG27">
+        <v>1.8</v>
+      </c>
+      <c r="AH27">
+        <v>1.93</v>
+      </c>
+      <c r="AI27">
+        <v>1.67</v>
+      </c>
+      <c r="AJ27">
+        <v>2.1</v>
+      </c>
+      <c r="AK27">
+        <v>1.44</v>
+      </c>
+      <c r="AL27">
+        <v>1.28</v>
+      </c>
+      <c r="AM27">
+        <v>1.52</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>3</v>
+      </c>
+      <c r="AP27">
+        <v>2</v>
+      </c>
+      <c r="AQ27">
+        <v>1.5</v>
+      </c>
+      <c r="AR27">
+        <v>0.86</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0.86</v>
+      </c>
+      <c r="AU27">
+        <v>-1</v>
+      </c>
+      <c r="AV27">
+        <v>-1</v>
+      </c>
+      <c r="AW27">
+        <v>-1</v>
+      </c>
+      <c r="AX27">
+        <v>-1</v>
+      </c>
+      <c r="AY27">
+        <v>-1</v>
+      </c>
+      <c r="AZ27">
+        <v>-1</v>
+      </c>
+      <c r="BA27">
+        <v>-1</v>
+      </c>
+      <c r="BB27">
+        <v>-1</v>
+      </c>
+      <c r="BC27">
+        <v>-1</v>
+      </c>
+      <c r="BD27">
+        <v>1.85</v>
+      </c>
+      <c r="BE27">
+        <v>7</v>
+      </c>
+      <c r="BF27">
+        <v>2.34</v>
+      </c>
+      <c r="BG27">
+        <v>1.17</v>
+      </c>
+      <c r="BH27">
+        <v>4.5</v>
+      </c>
+      <c r="BI27">
+        <v>1.3</v>
+      </c>
+      <c r="BJ27">
+        <v>3.2</v>
+      </c>
+      <c r="BK27">
+        <v>1.5</v>
+      </c>
+      <c r="BL27">
+        <v>2.4</v>
+      </c>
+      <c r="BM27">
+        <v>1.9</v>
+      </c>
+      <c r="BN27">
+        <v>1.9</v>
+      </c>
+      <c r="BO27">
+        <v>2.25</v>
+      </c>
+      <c r="BP27">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7476570</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45528.35416666666</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q28">
+        <v>2.88</v>
+      </c>
+      <c r="R28">
+        <v>2.2</v>
+      </c>
+      <c r="S28">
+        <v>3.6</v>
+      </c>
+      <c r="T28">
+        <v>1.36</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>2.75</v>
+      </c>
+      <c r="W28">
+        <v>1.4</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>1.08</v>
+      </c>
+      <c r="Z28">
+        <v>2.25</v>
+      </c>
+      <c r="AA28">
+        <v>3.3</v>
+      </c>
+      <c r="AB28">
+        <v>3</v>
+      </c>
+      <c r="AC28">
+        <v>1.02</v>
+      </c>
+      <c r="AD28">
+        <v>10</v>
+      </c>
+      <c r="AE28">
+        <v>1.29</v>
+      </c>
+      <c r="AF28">
+        <v>3.4</v>
+      </c>
+      <c r="AG28">
+        <v>1.85</v>
+      </c>
+      <c r="AH28">
+        <v>1.95</v>
+      </c>
+      <c r="AI28">
+        <v>1.67</v>
+      </c>
+      <c r="AJ28">
+        <v>2.1</v>
+      </c>
+      <c r="AK28">
+        <v>1.38</v>
+      </c>
+      <c r="AL28">
+        <v>1.33</v>
+      </c>
+      <c r="AM28">
+        <v>1.62</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>0.5</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>1.35</v>
+      </c>
+      <c r="AS28">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT28">
+        <v>2.04</v>
+      </c>
+      <c r="AU28">
+        <v>-1</v>
+      </c>
+      <c r="AV28">
+        <v>-1</v>
+      </c>
+      <c r="AW28">
+        <v>-1</v>
+      </c>
+      <c r="AX28">
+        <v>-1</v>
+      </c>
+      <c r="AY28">
+        <v>-1</v>
+      </c>
+      <c r="AZ28">
+        <v>-1</v>
+      </c>
+      <c r="BA28">
+        <v>-1</v>
+      </c>
+      <c r="BB28">
+        <v>-1</v>
+      </c>
+      <c r="BC28">
+        <v>-1</v>
+      </c>
+      <c r="BD28">
+        <v>1.75</v>
+      </c>
+      <c r="BE28">
+        <v>7.5</v>
+      </c>
+      <c r="BF28">
+        <v>2.45</v>
+      </c>
+      <c r="BG28">
+        <v>1.25</v>
+      </c>
+      <c r="BH28">
+        <v>3.6</v>
+      </c>
+      <c r="BI28">
+        <v>1.42</v>
+      </c>
+      <c r="BJ28">
+        <v>2.62</v>
+      </c>
+      <c r="BK28">
+        <v>1.67</v>
+      </c>
+      <c r="BL28">
+        <v>2.1</v>
+      </c>
+      <c r="BM28">
+        <v>2.1</v>
+      </c>
+      <c r="BN28">
+        <v>1.67</v>
+      </c>
+      <c r="BO28">
+        <v>2.62</v>
+      </c>
+      <c r="BP28">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7476571</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q29">
+        <v>2.05</v>
+      </c>
+      <c r="R29">
+        <v>2.38</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>1.33</v>
+      </c>
+      <c r="U29">
+        <v>3.25</v>
+      </c>
+      <c r="V29">
+        <v>2.63</v>
+      </c>
+      <c r="W29">
+        <v>1.44</v>
+      </c>
+      <c r="X29">
+        <v>6.5</v>
+      </c>
+      <c r="Y29">
+        <v>1.11</v>
+      </c>
+      <c r="Z29">
+        <v>1.53</v>
+      </c>
+      <c r="AA29">
+        <v>4.33</v>
+      </c>
+      <c r="AB29">
+        <v>5.75</v>
+      </c>
+      <c r="AC29">
+        <v>1.02</v>
+      </c>
+      <c r="AD29">
+        <v>11</v>
+      </c>
+      <c r="AE29">
+        <v>1.21</v>
+      </c>
+      <c r="AF29">
+        <v>3.74</v>
+      </c>
+      <c r="AG29">
+        <v>1.73</v>
+      </c>
+      <c r="AH29">
+        <v>2.05</v>
+      </c>
+      <c r="AI29">
+        <v>1.83</v>
+      </c>
+      <c r="AJ29">
+        <v>1.83</v>
+      </c>
+      <c r="AK29">
+        <v>1.12</v>
+      </c>
+      <c r="AL29">
+        <v>1.2</v>
+      </c>
+      <c r="AM29">
+        <v>2.46</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>3</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>1.39</v>
+      </c>
+      <c r="AS29">
+        <v>0.33</v>
+      </c>
+      <c r="AT29">
+        <v>1.72</v>
+      </c>
+      <c r="AU29">
+        <v>2</v>
+      </c>
+      <c r="AV29">
+        <v>3</v>
+      </c>
+      <c r="AW29">
+        <v>6</v>
+      </c>
+      <c r="AX29">
+        <v>2</v>
+      </c>
+      <c r="AY29">
+        <v>8</v>
+      </c>
+      <c r="AZ29">
+        <v>5</v>
+      </c>
+      <c r="BA29">
+        <v>6</v>
+      </c>
+      <c r="BB29">
+        <v>7</v>
+      </c>
+      <c r="BC29">
+        <v>13</v>
+      </c>
+      <c r="BD29">
+        <v>1.23</v>
+      </c>
+      <c r="BE29">
+        <v>9.5</v>
+      </c>
+      <c r="BF29">
+        <v>5.18</v>
+      </c>
+      <c r="BG29">
+        <v>1.18</v>
+      </c>
+      <c r="BH29">
+        <v>4.33</v>
+      </c>
+      <c r="BI29">
+        <v>1.3</v>
+      </c>
+      <c r="BJ29">
+        <v>3.2</v>
+      </c>
+      <c r="BK29">
+        <v>1.77</v>
+      </c>
+      <c r="BL29">
+        <v>1.95</v>
+      </c>
+      <c r="BM29">
+        <v>1.85</v>
+      </c>
+      <c r="BN29">
+        <v>1.85</v>
+      </c>
+      <c r="BO29">
+        <v>2.25</v>
+      </c>
+      <c r="BP29">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7476574</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>112</v>
+      </c>
+      <c r="P30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>2.25</v>
+      </c>
+      <c r="S30">
+        <v>3.4</v>
+      </c>
+      <c r="T30">
+        <v>1.33</v>
+      </c>
+      <c r="U30">
+        <v>3.25</v>
+      </c>
+      <c r="V30">
+        <v>2.63</v>
+      </c>
+      <c r="W30">
+        <v>1.44</v>
+      </c>
+      <c r="X30">
+        <v>6.5</v>
+      </c>
+      <c r="Y30">
+        <v>1.11</v>
+      </c>
+      <c r="Z30">
+        <v>2.4</v>
+      </c>
+      <c r="AA30">
+        <v>3.5</v>
+      </c>
+      <c r="AB30">
+        <v>2.75</v>
+      </c>
+      <c r="AC30">
+        <v>1.05</v>
+      </c>
+      <c r="AD30">
+        <v>10.5</v>
+      </c>
+      <c r="AE30">
+        <v>1.21</v>
+      </c>
+      <c r="AF30">
+        <v>3.74</v>
+      </c>
+      <c r="AG30">
+        <v>1.73</v>
+      </c>
+      <c r="AH30">
+        <v>2</v>
+      </c>
+      <c r="AI30">
+        <v>1.62</v>
+      </c>
+      <c r="AJ30">
+        <v>2.2</v>
+      </c>
+      <c r="AK30">
+        <v>1.41</v>
+      </c>
+      <c r="AL30">
+        <v>1.28</v>
+      </c>
+      <c r="AM30">
+        <v>1.57</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>3</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0.65</v>
+      </c>
+      <c r="AT30">
+        <v>0.65</v>
+      </c>
+      <c r="AU30">
+        <v>3</v>
+      </c>
+      <c r="AV30">
+        <v>8</v>
+      </c>
+      <c r="AW30">
+        <v>4</v>
+      </c>
+      <c r="AX30">
+        <v>7</v>
+      </c>
+      <c r="AY30">
+        <v>7</v>
+      </c>
+      <c r="AZ30">
+        <v>15</v>
+      </c>
+      <c r="BA30">
+        <v>2</v>
+      </c>
+      <c r="BB30">
+        <v>7</v>
+      </c>
+      <c r="BC30">
+        <v>9</v>
+      </c>
+      <c r="BD30">
+        <v>1.82</v>
+      </c>
+      <c r="BE30">
+        <v>7</v>
+      </c>
+      <c r="BF30">
+        <v>2.43</v>
+      </c>
+      <c r="BG30">
+        <v>1.25</v>
+      </c>
+      <c r="BH30">
+        <v>3.6</v>
+      </c>
+      <c r="BI30">
+        <v>1.42</v>
+      </c>
+      <c r="BJ30">
+        <v>2.62</v>
+      </c>
+      <c r="BK30">
+        <v>1.67</v>
+      </c>
+      <c r="BL30">
+        <v>2.1</v>
+      </c>
+      <c r="BM30">
+        <v>2.1</v>
+      </c>
+      <c r="BN30">
+        <v>1.67</v>
+      </c>
+      <c r="BO30">
+        <v>2.62</v>
+      </c>
+      <c r="BP30">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7476572</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q31">
+        <v>3.1</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>3.25</v>
+      </c>
+      <c r="T31">
+        <v>1.36</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>2.63</v>
+      </c>
+      <c r="W31">
+        <v>1.44</v>
+      </c>
+      <c r="X31">
+        <v>7</v>
+      </c>
+      <c r="Y31">
+        <v>1.1</v>
+      </c>
+      <c r="Z31">
+        <v>2.5</v>
+      </c>
+      <c r="AA31">
+        <v>3.5</v>
+      </c>
+      <c r="AB31">
+        <v>2.62</v>
+      </c>
+      <c r="AC31">
+        <v>1.05</v>
+      </c>
+      <c r="AD31">
+        <v>9.5</v>
+      </c>
+      <c r="AE31">
+        <v>1.25</v>
+      </c>
+      <c r="AF31">
+        <v>3.8</v>
+      </c>
+      <c r="AG31">
+        <v>1.73</v>
+      </c>
+      <c r="AH31">
+        <v>2</v>
+      </c>
+      <c r="AI31">
+        <v>1.62</v>
+      </c>
+      <c r="AJ31">
+        <v>2.2</v>
+      </c>
+      <c r="AK31">
+        <v>1.47</v>
+      </c>
+      <c r="AL31">
+        <v>1.28</v>
+      </c>
+      <c r="AM31">
+        <v>1.5</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <v>2</v>
+      </c>
+      <c r="AR31">
+        <v>1.04</v>
+      </c>
+      <c r="AS31">
+        <v>1.21</v>
+      </c>
+      <c r="AT31">
+        <v>2.25</v>
+      </c>
+      <c r="AU31">
+        <v>4</v>
+      </c>
+      <c r="AV31">
+        <v>2</v>
+      </c>
+      <c r="AW31">
+        <v>8</v>
+      </c>
+      <c r="AX31">
+        <v>4</v>
+      </c>
+      <c r="AY31">
+        <v>12</v>
+      </c>
+      <c r="AZ31">
+        <v>6</v>
+      </c>
+      <c r="BA31">
+        <v>6</v>
+      </c>
+      <c r="BB31">
+        <v>1</v>
+      </c>
+      <c r="BC31">
+        <v>7</v>
+      </c>
+      <c r="BD31">
+        <v>1.91</v>
+      </c>
+      <c r="BE31">
+        <v>7</v>
+      </c>
+      <c r="BF31">
+        <v>2.2</v>
+      </c>
+      <c r="BG31">
+        <v>1.22</v>
+      </c>
+      <c r="BH31">
+        <v>3.8</v>
+      </c>
+      <c r="BI31">
+        <v>1.32</v>
+      </c>
+      <c r="BJ31">
+        <v>2.98</v>
+      </c>
+      <c r="BK31">
+        <v>1.57</v>
+      </c>
+      <c r="BL31">
+        <v>2.19</v>
+      </c>
+      <c r="BM31">
+        <v>1.95</v>
+      </c>
+      <c r="BN31">
+        <v>1.77</v>
+      </c>
+      <c r="BO31">
+        <v>2.54</v>
+      </c>
+      <c r="BP31">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7476573</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>113</v>
+      </c>
+      <c r="P32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q32">
+        <v>2.4</v>
+      </c>
+      <c r="R32">
+        <v>2.2</v>
+      </c>
+      <c r="S32">
+        <v>4.5</v>
+      </c>
+      <c r="T32">
+        <v>1.4</v>
+      </c>
+      <c r="U32">
+        <v>2.75</v>
+      </c>
+      <c r="V32">
+        <v>2.75</v>
+      </c>
+      <c r="W32">
+        <v>1.4</v>
+      </c>
+      <c r="X32">
+        <v>8</v>
+      </c>
+      <c r="Y32">
+        <v>1.08</v>
+      </c>
+      <c r="Z32">
+        <v>1.73</v>
+      </c>
+      <c r="AA32">
+        <v>3.6</v>
+      </c>
+      <c r="AB32">
+        <v>4.2</v>
+      </c>
+      <c r="AC32">
+        <v>1.05</v>
+      </c>
+      <c r="AD32">
+        <v>9.5</v>
+      </c>
+      <c r="AE32">
+        <v>1.28</v>
+      </c>
+      <c r="AF32">
+        <v>3.5</v>
+      </c>
+      <c r="AG32">
+        <v>1.86</v>
+      </c>
+      <c r="AH32">
+        <v>1.86</v>
+      </c>
+      <c r="AI32">
+        <v>1.8</v>
+      </c>
+      <c r="AJ32">
+        <v>1.91</v>
+      </c>
+      <c r="AK32">
+        <v>1.22</v>
+      </c>
+      <c r="AL32">
+        <v>1.22</v>
+      </c>
+      <c r="AM32">
+        <v>1.95</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>1.5</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>1.62</v>
+      </c>
+      <c r="AS32">
+        <v>1.86</v>
+      </c>
+      <c r="AT32">
+        <v>3.48</v>
+      </c>
+      <c r="AU32">
+        <v>7</v>
+      </c>
+      <c r="AV32">
+        <v>4</v>
+      </c>
+      <c r="AW32">
+        <v>6</v>
+      </c>
+      <c r="AX32">
+        <v>3</v>
+      </c>
+      <c r="AY32">
+        <v>13</v>
+      </c>
+      <c r="AZ32">
+        <v>7</v>
+      </c>
+      <c r="BA32">
+        <v>4</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>4</v>
+      </c>
+      <c r="BD32">
+        <v>1.41</v>
+      </c>
+      <c r="BE32">
+        <v>8</v>
+      </c>
+      <c r="BF32">
+        <v>3.61</v>
+      </c>
+      <c r="BG32">
+        <v>1.3</v>
+      </c>
+      <c r="BH32">
+        <v>3.2</v>
+      </c>
+      <c r="BI32">
+        <v>1.53</v>
+      </c>
+      <c r="BJ32">
+        <v>2.38</v>
+      </c>
+      <c r="BK32">
+        <v>1.85</v>
+      </c>
+      <c r="BL32">
+        <v>1.85</v>
+      </c>
+      <c r="BM32">
+        <v>2.3</v>
+      </c>
+      <c r="BN32">
+        <v>1.55</v>
+      </c>
+      <c r="BO32">
+        <v>3</v>
+      </c>
+      <c r="BP32">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7476568</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>114</v>
+      </c>
+      <c r="P33" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q33">
+        <v>2.38</v>
+      </c>
+      <c r="R33">
+        <v>2.3</v>
+      </c>
+      <c r="S33">
+        <v>4.5</v>
+      </c>
+      <c r="T33">
+        <v>1.33</v>
+      </c>
+      <c r="U33">
+        <v>3.25</v>
+      </c>
+      <c r="V33">
+        <v>2.5</v>
+      </c>
+      <c r="W33">
+        <v>1.5</v>
+      </c>
+      <c r="X33">
+        <v>6.5</v>
+      </c>
+      <c r="Y33">
+        <v>1.11</v>
+      </c>
+      <c r="Z33">
+        <v>1.75</v>
+      </c>
+      <c r="AA33">
+        <v>3.8</v>
+      </c>
+      <c r="AB33">
+        <v>4.33</v>
+      </c>
+      <c r="AC33">
+        <v>1.05</v>
+      </c>
+      <c r="AD33">
+        <v>9.5</v>
+      </c>
+      <c r="AE33">
+        <v>1.22</v>
+      </c>
+      <c r="AF33">
+        <v>4</v>
+      </c>
+      <c r="AG33">
+        <v>1.7</v>
+      </c>
+      <c r="AH33">
+        <v>2.05</v>
+      </c>
+      <c r="AI33">
+        <v>1.67</v>
+      </c>
+      <c r="AJ33">
+        <v>2.1</v>
+      </c>
+      <c r="AK33">
+        <v>1.2</v>
+      </c>
+      <c r="AL33">
+        <v>1.22</v>
+      </c>
+      <c r="AM33">
+        <v>2</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
+        <v>1</v>
+      </c>
+      <c r="AR33">
+        <v>1.27</v>
+      </c>
+      <c r="AS33">
+        <v>1.02</v>
+      </c>
+      <c r="AT33">
+        <v>2.29</v>
+      </c>
+      <c r="AU33">
+        <v>4</v>
+      </c>
+      <c r="AV33">
+        <v>3</v>
+      </c>
+      <c r="AW33">
+        <v>5</v>
+      </c>
+      <c r="AX33">
+        <v>2</v>
+      </c>
+      <c r="AY33">
+        <v>9</v>
+      </c>
+      <c r="AZ33">
+        <v>5</v>
+      </c>
+      <c r="BA33">
+        <v>9</v>
+      </c>
+      <c r="BB33">
+        <v>1</v>
+      </c>
+      <c r="BC33">
+        <v>10</v>
+      </c>
+      <c r="BD33">
+        <v>1.37</v>
+      </c>
+      <c r="BE33">
+        <v>8</v>
+      </c>
+      <c r="BF33">
+        <v>3.88</v>
+      </c>
+      <c r="BG33">
+        <v>1.29</v>
+      </c>
+      <c r="BH33">
+        <v>3.4</v>
+      </c>
+      <c r="BI33">
+        <v>1.48</v>
+      </c>
+      <c r="BJ33">
+        <v>2.5</v>
+      </c>
+      <c r="BK33">
+        <v>1.74</v>
+      </c>
+      <c r="BL33">
+        <v>2</v>
+      </c>
+      <c r="BM33">
+        <v>2.2</v>
+      </c>
+      <c r="BN33">
+        <v>1.62</v>
+      </c>
+      <c r="BO33">
+        <v>2.8</v>
+      </c>
+      <c r="BP33">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7476569</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P34" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q34">
+        <v>2.6</v>
+      </c>
+      <c r="R34">
+        <v>2.2</v>
+      </c>
+      <c r="S34">
+        <v>4.33</v>
+      </c>
+      <c r="T34">
+        <v>1.36</v>
+      </c>
+      <c r="U34">
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <v>2.75</v>
+      </c>
+      <c r="W34">
+        <v>1.4</v>
+      </c>
+      <c r="X34">
+        <v>8</v>
+      </c>
+      <c r="Y34">
+        <v>1.08</v>
+      </c>
+      <c r="Z34">
+        <v>2.05</v>
+      </c>
+      <c r="AA34">
+        <v>3.6</v>
+      </c>
+      <c r="AB34">
+        <v>3.4</v>
+      </c>
+      <c r="AC34">
+        <v>1.05</v>
+      </c>
+      <c r="AD34">
+        <v>9</v>
+      </c>
+      <c r="AE34">
+        <v>1.28</v>
+      </c>
+      <c r="AF34">
+        <v>3.5</v>
+      </c>
+      <c r="AG34">
+        <v>1.8</v>
+      </c>
+      <c r="AH34">
+        <v>1.91</v>
+      </c>
+      <c r="AI34">
+        <v>1.73</v>
+      </c>
+      <c r="AJ34">
+        <v>2</v>
+      </c>
+      <c r="AK34">
+        <v>1.28</v>
+      </c>
+      <c r="AL34">
+        <v>1.25</v>
+      </c>
+      <c r="AM34">
+        <v>1.77</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>1.5</v>
+      </c>
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+      <c r="AR34">
+        <v>1.61</v>
+      </c>
+      <c r="AS34">
+        <v>1.32</v>
+      </c>
+      <c r="AT34">
+        <v>2.93</v>
+      </c>
+      <c r="AU34">
+        <v>9</v>
+      </c>
+      <c r="AV34">
+        <v>4</v>
+      </c>
+      <c r="AW34">
+        <v>12</v>
+      </c>
+      <c r="AX34">
+        <v>5</v>
+      </c>
+      <c r="AY34">
+        <v>21</v>
+      </c>
+      <c r="AZ34">
+        <v>9</v>
+      </c>
+      <c r="BA34">
+        <v>12</v>
+      </c>
+      <c r="BB34">
+        <v>4</v>
+      </c>
+      <c r="BC34">
+        <v>16</v>
+      </c>
+      <c r="BD34">
+        <v>1.64</v>
+      </c>
+      <c r="BE34">
+        <v>7.5</v>
+      </c>
+      <c r="BF34">
+        <v>2.82</v>
+      </c>
+      <c r="BG34">
+        <v>1.2</v>
+      </c>
+      <c r="BH34">
+        <v>4</v>
+      </c>
+      <c r="BI34">
+        <v>1.33</v>
+      </c>
+      <c r="BJ34">
+        <v>3</v>
+      </c>
+      <c r="BK34">
+        <v>1.57</v>
+      </c>
+      <c r="BL34">
+        <v>2.25</v>
+      </c>
+      <c r="BM34">
+        <v>1.95</v>
+      </c>
+      <c r="BN34">
+        <v>1.77</v>
+      </c>
+      <c r="BO34">
+        <v>2.38</v>
+      </c>
+      <c r="BP34">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7476567</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>101</v>
+      </c>
+      <c r="P35" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q35">
+        <v>2.75</v>
+      </c>
+      <c r="R35">
+        <v>2.2</v>
+      </c>
+      <c r="S35">
+        <v>4</v>
+      </c>
+      <c r="T35">
+        <v>1.4</v>
+      </c>
+      <c r="U35">
+        <v>2.75</v>
+      </c>
+      <c r="V35">
+        <v>2.75</v>
+      </c>
+      <c r="W35">
+        <v>1.4</v>
+      </c>
+      <c r="X35">
+        <v>8</v>
+      </c>
+      <c r="Y35">
+        <v>1.08</v>
+      </c>
+      <c r="Z35">
+        <v>2.55</v>
+      </c>
+      <c r="AA35">
+        <v>3.1</v>
+      </c>
+      <c r="AB35">
+        <v>2.65</v>
+      </c>
+      <c r="AC35">
+        <v>1.05</v>
+      </c>
+      <c r="AD35">
+        <v>9</v>
+      </c>
+      <c r="AE35">
+        <v>1.3</v>
+      </c>
+      <c r="AF35">
+        <v>3.4</v>
+      </c>
+      <c r="AG35">
+        <v>1.91</v>
+      </c>
+      <c r="AH35">
+        <v>1.81</v>
+      </c>
+      <c r="AI35">
+        <v>1.8</v>
+      </c>
+      <c r="AJ35">
+        <v>1.91</v>
+      </c>
+      <c r="AK35">
+        <v>1.3</v>
+      </c>
+      <c r="AL35">
+        <v>1.25</v>
+      </c>
+      <c r="AM35">
+        <v>1.73</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>1.5</v>
+      </c>
+      <c r="AQ35">
+        <v>1.5</v>
+      </c>
+      <c r="AR35">
+        <v>1.55</v>
+      </c>
+      <c r="AS35">
+        <v>1.21</v>
+      </c>
+      <c r="AT35">
+        <v>2.76</v>
+      </c>
+      <c r="AU35">
+        <v>4</v>
+      </c>
+      <c r="AV35">
+        <v>5</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <v>2</v>
+      </c>
+      <c r="AY35">
+        <v>5</v>
+      </c>
+      <c r="AZ35">
+        <v>7</v>
+      </c>
+      <c r="BA35">
+        <v>3</v>
+      </c>
+      <c r="BB35">
+        <v>8</v>
+      </c>
+      <c r="BC35">
+        <v>11</v>
+      </c>
+      <c r="BD35">
+        <v>1.64</v>
+      </c>
+      <c r="BE35">
+        <v>7.5</v>
+      </c>
+      <c r="BF35">
+        <v>2.82</v>
+      </c>
+      <c r="BG35">
+        <v>1.3</v>
+      </c>
+      <c r="BH35">
+        <v>3.2</v>
+      </c>
+      <c r="BI35">
+        <v>1.5</v>
+      </c>
+      <c r="BJ35">
+        <v>2.4</v>
+      </c>
+      <c r="BK35">
+        <v>1.88</v>
+      </c>
+      <c r="BL35">
+        <v>1.92</v>
+      </c>
+      <c r="BM35">
+        <v>2.35</v>
+      </c>
+      <c r="BN35">
+        <v>1.56</v>
+      </c>
+      <c r="BO35">
+        <v>3</v>
+      </c>
+      <c r="BP35">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7476566</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36" t="s">
+        <v>115</v>
+      </c>
+      <c r="P36" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36">
+        <v>2.2</v>
+      </c>
+      <c r="R36">
+        <v>2.3</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>1.33</v>
+      </c>
+      <c r="U36">
+        <v>3.25</v>
+      </c>
+      <c r="V36">
+        <v>2.63</v>
+      </c>
+      <c r="W36">
+        <v>1.44</v>
+      </c>
+      <c r="X36">
+        <v>6.5</v>
+      </c>
+      <c r="Y36">
+        <v>1.11</v>
+      </c>
+      <c r="Z36">
+        <v>1.65</v>
+      </c>
+      <c r="AA36">
+        <v>4</v>
+      </c>
+      <c r="AB36">
+        <v>5</v>
+      </c>
+      <c r="AC36">
+        <v>1.05</v>
+      </c>
+      <c r="AD36">
+        <v>9.5</v>
+      </c>
+      <c r="AE36">
+        <v>1.25</v>
+      </c>
+      <c r="AF36">
+        <v>3.85</v>
+      </c>
+      <c r="AG36">
+        <v>1.73</v>
+      </c>
+      <c r="AH36">
+        <v>2</v>
+      </c>
+      <c r="AI36">
+        <v>1.8</v>
+      </c>
+      <c r="AJ36">
+        <v>1.91</v>
+      </c>
+      <c r="AK36">
+        <v>1.15</v>
+      </c>
+      <c r="AL36">
+        <v>1.2</v>
+      </c>
+      <c r="AM36">
+        <v>2.2</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>2</v>
+      </c>
+      <c r="AQ36">
+        <v>1.5</v>
+      </c>
+      <c r="AR36">
+        <v>1.26</v>
+      </c>
+      <c r="AS36">
+        <v>1.54</v>
+      </c>
+      <c r="AT36">
+        <v>2.8</v>
+      </c>
+      <c r="AU36">
+        <v>10</v>
+      </c>
+      <c r="AV36">
+        <v>3</v>
+      </c>
+      <c r="AW36">
+        <v>6</v>
+      </c>
+      <c r="AX36">
+        <v>4</v>
+      </c>
+      <c r="AY36">
+        <v>16</v>
+      </c>
+      <c r="AZ36">
+        <v>7</v>
+      </c>
+      <c r="BA36">
+        <v>10</v>
+      </c>
+      <c r="BB36">
+        <v>4</v>
+      </c>
+      <c r="BC36">
+        <v>14</v>
+      </c>
+      <c r="BD36">
+        <v>1.31</v>
+      </c>
+      <c r="BE36">
+        <v>8.5</v>
+      </c>
+      <c r="BF36">
+        <v>4.34</v>
+      </c>
+      <c r="BG36">
+        <v>1.22</v>
+      </c>
+      <c r="BH36">
+        <v>3.8</v>
+      </c>
+      <c r="BI36">
+        <v>1.36</v>
+      </c>
+      <c r="BJ36">
+        <v>2.88</v>
+      </c>
+      <c r="BK36">
+        <v>1.6</v>
+      </c>
+      <c r="BL36">
+        <v>2.2</v>
+      </c>
+      <c r="BM36">
+        <v>1.95</v>
+      </c>
+      <c r="BN36">
+        <v>1.77</v>
+      </c>
+      <c r="BO36">
+        <v>2.4</v>
+      </c>
+      <c r="BP36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7476565</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>116</v>
+      </c>
+      <c r="P37" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q37">
+        <v>3.2</v>
+      </c>
+      <c r="R37">
+        <v>2.1</v>
+      </c>
+      <c r="S37">
+        <v>3.4</v>
+      </c>
+      <c r="T37">
+        <v>1.4</v>
+      </c>
+      <c r="U37">
+        <v>2.75</v>
+      </c>
+      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>1.36</v>
+      </c>
+      <c r="X37">
+        <v>8</v>
+      </c>
+      <c r="Y37">
+        <v>1.08</v>
+      </c>
+      <c r="Z37">
+        <v>2.5</v>
+      </c>
+      <c r="AA37">
+        <v>3.5</v>
+      </c>
+      <c r="AB37">
+        <v>2.7</v>
+      </c>
+      <c r="AC37">
+        <v>1.05</v>
+      </c>
+      <c r="AD37">
+        <v>9.5</v>
+      </c>
+      <c r="AE37">
+        <v>1.3</v>
+      </c>
+      <c r="AF37">
+        <v>3.35</v>
+      </c>
+      <c r="AG37">
+        <v>1.95</v>
+      </c>
+      <c r="AH37">
+        <v>1.8</v>
+      </c>
+      <c r="AI37">
+        <v>1.8</v>
+      </c>
+      <c r="AJ37">
+        <v>1.91</v>
+      </c>
+      <c r="AK37">
+        <v>1.45</v>
+      </c>
+      <c r="AL37">
+        <v>1.25</v>
+      </c>
+      <c r="AM37">
+        <v>1.53</v>
+      </c>
+      <c r="AN37">
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <v>3</v>
+      </c>
+      <c r="AP37">
+        <v>3</v>
+      </c>
+      <c r="AQ37">
+        <v>1.5</v>
+      </c>
+      <c r="AR37">
+        <v>1.13</v>
+      </c>
+      <c r="AS37">
+        <v>1.08</v>
+      </c>
+      <c r="AT37">
+        <v>2.21</v>
+      </c>
+      <c r="AU37">
+        <v>7</v>
+      </c>
+      <c r="AV37">
+        <v>4</v>
+      </c>
+      <c r="AW37">
+        <v>1</v>
+      </c>
+      <c r="AX37">
+        <v>2</v>
+      </c>
+      <c r="AY37">
+        <v>8</v>
+      </c>
+      <c r="AZ37">
+        <v>6</v>
+      </c>
+      <c r="BA37">
+        <v>8</v>
+      </c>
+      <c r="BB37">
+        <v>6</v>
+      </c>
+      <c r="BC37">
+        <v>14</v>
+      </c>
+      <c r="BD37">
+        <v>1.85</v>
+      </c>
+      <c r="BE37">
+        <v>7.5</v>
+      </c>
+      <c r="BF37">
+        <v>2.33</v>
+      </c>
+      <c r="BG37">
+        <v>1.33</v>
+      </c>
+      <c r="BH37">
+        <v>3</v>
+      </c>
+      <c r="BI37">
+        <v>1.53</v>
+      </c>
+      <c r="BJ37">
+        <v>2.28</v>
+      </c>
+      <c r="BK37">
+        <v>1.91</v>
+      </c>
+      <c r="BL37">
+        <v>1.8</v>
+      </c>
+      <c r="BM37">
+        <v>2.51</v>
+      </c>
+      <c r="BN37">
+        <v>1.44</v>
+      </c>
+      <c r="BO37">
+        <v>3.2</v>
+      </c>
+      <c r="BP37">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -6288,31 +6288,31 @@
         <v>0.86</v>
       </c>
       <c r="AU27">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV27">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW27">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY27">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AZ27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA27">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC27">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD27">
         <v>1.85</v>
@@ -6494,31 +6494,31 @@
         <v>2.04</v>
       </c>
       <c r="AU28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV28">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW28">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX28">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY28">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AZ28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BC28">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD28">
         <v>1.75</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -7748,13 +7748,13 @@
         <v>9</v>
       </c>
       <c r="BA34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC34">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD34">
         <v>1.64</v>
@@ -8163,10 +8163,10 @@
         <v>10</v>
       </c>
       <c r="BB36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD36">
         <v>1.31</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,33 @@
     <t>['54', '77', '81', '90+5']</t>
   </si>
   <si>
+    <t>['30', '87']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['48', '66']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['28', '47']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -425,6 +452,30 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['16', '46', '58']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['30', '80']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['7', '37']</t>
+  </si>
+  <si>
+    <t>['83', '90+1']</t>
+  </si>
+  <si>
+    <t>['78']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1045,7 +1096,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1251,7 +1302,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1332,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1538,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1663,7 +1714,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1744,7 +1795,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1869,7 +1920,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2281,7 +2332,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2487,7 +2538,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2693,7 +2744,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2774,7 +2825,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2899,7 +2950,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3186,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3595,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3801,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -3929,7 +3980,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4341,7 +4392,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4422,7 +4473,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4547,7 +4598,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4753,7 +4804,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4959,7 +5010,7 @@
         <v>108</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>4.33</v>
@@ -5040,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5243,10 +5294,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5371,7 +5422,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5783,7 +5834,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5864,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -5989,7 +6040,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6813,7 +6864,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7431,7 +7482,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7637,7 +7688,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -7843,7 +7894,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8049,7 +8100,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8412,6 +8463,2272 @@
       </c>
       <c r="BP37">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7476585</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45535.35416666666</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38" t="s">
+        <v>117</v>
+      </c>
+      <c r="P38" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q38">
+        <v>2.88</v>
+      </c>
+      <c r="R38">
+        <v>2.25</v>
+      </c>
+      <c r="S38">
+        <v>3.4</v>
+      </c>
+      <c r="T38">
+        <v>1.36</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>2.63</v>
+      </c>
+      <c r="W38">
+        <v>1.44</v>
+      </c>
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Y38">
+        <v>1.1</v>
+      </c>
+      <c r="Z38">
+        <v>2.3</v>
+      </c>
+      <c r="AA38">
+        <v>3.3</v>
+      </c>
+      <c r="AB38">
+        <v>3</v>
+      </c>
+      <c r="AC38">
+        <v>1.05</v>
+      </c>
+      <c r="AD38">
+        <v>9</v>
+      </c>
+      <c r="AE38">
+        <v>1.25</v>
+      </c>
+      <c r="AF38">
+        <v>3.75</v>
+      </c>
+      <c r="AG38">
+        <v>1.77</v>
+      </c>
+      <c r="AH38">
+        <v>1.96</v>
+      </c>
+      <c r="AI38">
+        <v>1.62</v>
+      </c>
+      <c r="AJ38">
+        <v>2.2</v>
+      </c>
+      <c r="AK38">
+        <v>1.36</v>
+      </c>
+      <c r="AL38">
+        <v>1.28</v>
+      </c>
+      <c r="AM38">
+        <v>1.6</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0.5</v>
+      </c>
+      <c r="AQ38">
+        <v>1.5</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>6</v>
+      </c>
+      <c r="AV38">
+        <v>6</v>
+      </c>
+      <c r="AW38">
+        <v>3</v>
+      </c>
+      <c r="AX38">
+        <v>3</v>
+      </c>
+      <c r="AY38">
+        <v>9</v>
+      </c>
+      <c r="AZ38">
+        <v>9</v>
+      </c>
+      <c r="BA38">
+        <v>4</v>
+      </c>
+      <c r="BB38">
+        <v>4</v>
+      </c>
+      <c r="BC38">
+        <v>8</v>
+      </c>
+      <c r="BD38">
+        <v>1.75</v>
+      </c>
+      <c r="BE38">
+        <v>7.5</v>
+      </c>
+      <c r="BF38">
+        <v>2.53</v>
+      </c>
+      <c r="BG38">
+        <v>1.22</v>
+      </c>
+      <c r="BH38">
+        <v>3.8</v>
+      </c>
+      <c r="BI38">
+        <v>1.38</v>
+      </c>
+      <c r="BJ38">
+        <v>2.8</v>
+      </c>
+      <c r="BK38">
+        <v>1.65</v>
+      </c>
+      <c r="BL38">
+        <v>2.1</v>
+      </c>
+      <c r="BM38">
+        <v>1.95</v>
+      </c>
+      <c r="BN38">
+        <v>1.77</v>
+      </c>
+      <c r="BO38">
+        <v>2.5</v>
+      </c>
+      <c r="BP38">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7476581</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45535.35416666666</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>118</v>
+      </c>
+      <c r="P39" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q39">
+        <v>2.88</v>
+      </c>
+      <c r="R39">
+        <v>2.1</v>
+      </c>
+      <c r="S39">
+        <v>3.75</v>
+      </c>
+      <c r="T39">
+        <v>1.4</v>
+      </c>
+      <c r="U39">
+        <v>2.75</v>
+      </c>
+      <c r="V39">
+        <v>3</v>
+      </c>
+      <c r="W39">
+        <v>1.36</v>
+      </c>
+      <c r="X39">
+        <v>8</v>
+      </c>
+      <c r="Y39">
+        <v>1.08</v>
+      </c>
+      <c r="Z39">
+        <v>2.25</v>
+      </c>
+      <c r="AA39">
+        <v>3.25</v>
+      </c>
+      <c r="AB39">
+        <v>3.1</v>
+      </c>
+      <c r="AC39">
+        <v>1.06</v>
+      </c>
+      <c r="AD39">
+        <v>8.5</v>
+      </c>
+      <c r="AE39">
+        <v>1.33</v>
+      </c>
+      <c r="AF39">
+        <v>3.3</v>
+      </c>
+      <c r="AG39">
+        <v>1.91</v>
+      </c>
+      <c r="AH39">
+        <v>1.81</v>
+      </c>
+      <c r="AI39">
+        <v>1.73</v>
+      </c>
+      <c r="AJ39">
+        <v>2</v>
+      </c>
+      <c r="AK39">
+        <v>1.35</v>
+      </c>
+      <c r="AL39">
+        <v>1.28</v>
+      </c>
+      <c r="AM39">
+        <v>1.62</v>
+      </c>
+      <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>3</v>
+      </c>
+      <c r="AP39">
+        <v>3</v>
+      </c>
+      <c r="AQ39">
+        <v>1.5</v>
+      </c>
+      <c r="AR39">
+        <v>1.62</v>
+      </c>
+      <c r="AS39">
+        <v>2.26</v>
+      </c>
+      <c r="AT39">
+        <v>3.88</v>
+      </c>
+      <c r="AU39">
+        <v>4</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>5</v>
+      </c>
+      <c r="AX39">
+        <v>7</v>
+      </c>
+      <c r="AY39">
+        <v>9</v>
+      </c>
+      <c r="AZ39">
+        <v>11</v>
+      </c>
+      <c r="BA39">
+        <v>1</v>
+      </c>
+      <c r="BB39">
+        <v>5</v>
+      </c>
+      <c r="BC39">
+        <v>6</v>
+      </c>
+      <c r="BD39">
+        <v>1.69</v>
+      </c>
+      <c r="BE39">
+        <v>7.5</v>
+      </c>
+      <c r="BF39">
+        <v>2.65</v>
+      </c>
+      <c r="BG39">
+        <v>1.25</v>
+      </c>
+      <c r="BH39">
+        <v>3.6</v>
+      </c>
+      <c r="BI39">
+        <v>1.44</v>
+      </c>
+      <c r="BJ39">
+        <v>2.6</v>
+      </c>
+      <c r="BK39">
+        <v>1.7</v>
+      </c>
+      <c r="BL39">
+        <v>2.05</v>
+      </c>
+      <c r="BM39">
+        <v>2.1</v>
+      </c>
+      <c r="BN39">
+        <v>1.65</v>
+      </c>
+      <c r="BO39">
+        <v>2.7</v>
+      </c>
+      <c r="BP39">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7476588</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P40" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q40">
+        <v>2.4</v>
+      </c>
+      <c r="R40">
+        <v>2.3</v>
+      </c>
+      <c r="S40">
+        <v>4.33</v>
+      </c>
+      <c r="T40">
+        <v>1.33</v>
+      </c>
+      <c r="U40">
+        <v>3.25</v>
+      </c>
+      <c r="V40">
+        <v>2.5</v>
+      </c>
+      <c r="W40">
+        <v>1.5</v>
+      </c>
+      <c r="X40">
+        <v>6.5</v>
+      </c>
+      <c r="Y40">
+        <v>1.11</v>
+      </c>
+      <c r="Z40">
+        <v>1.98</v>
+      </c>
+      <c r="AA40">
+        <v>3.4</v>
+      </c>
+      <c r="AB40">
+        <v>3.6</v>
+      </c>
+      <c r="AC40">
+        <v>1.03</v>
+      </c>
+      <c r="AD40">
+        <v>14</v>
+      </c>
+      <c r="AE40">
+        <v>1.2</v>
+      </c>
+      <c r="AF40">
+        <v>4</v>
+      </c>
+      <c r="AG40">
+        <v>1.68</v>
+      </c>
+      <c r="AH40">
+        <v>2.07</v>
+      </c>
+      <c r="AI40">
+        <v>1.62</v>
+      </c>
+      <c r="AJ40">
+        <v>2.2</v>
+      </c>
+      <c r="AK40">
+        <v>1.22</v>
+      </c>
+      <c r="AL40">
+        <v>1.25</v>
+      </c>
+      <c r="AM40">
+        <v>1.85</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>3</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0.97</v>
+      </c>
+      <c r="AS40">
+        <v>1.03</v>
+      </c>
+      <c r="AT40">
+        <v>2</v>
+      </c>
+      <c r="AU40">
+        <v>7</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>13</v>
+      </c>
+      <c r="AX40">
+        <v>4</v>
+      </c>
+      <c r="AY40">
+        <v>20</v>
+      </c>
+      <c r="AZ40">
+        <v>7</v>
+      </c>
+      <c r="BA40">
+        <v>6</v>
+      </c>
+      <c r="BB40">
+        <v>2</v>
+      </c>
+      <c r="BC40">
+        <v>8</v>
+      </c>
+      <c r="BD40">
+        <v>1.51</v>
+      </c>
+      <c r="BE40">
+        <v>7.5</v>
+      </c>
+      <c r="BF40">
+        <v>3.27</v>
+      </c>
+      <c r="BG40">
+        <v>1.25</v>
+      </c>
+      <c r="BH40">
+        <v>3.6</v>
+      </c>
+      <c r="BI40">
+        <v>1.42</v>
+      </c>
+      <c r="BJ40">
+        <v>2.62</v>
+      </c>
+      <c r="BK40">
+        <v>1.7</v>
+      </c>
+      <c r="BL40">
+        <v>2.05</v>
+      </c>
+      <c r="BM40">
+        <v>2.05</v>
+      </c>
+      <c r="BN40">
+        <v>1.7</v>
+      </c>
+      <c r="BO40">
+        <v>2.62</v>
+      </c>
+      <c r="BP40">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7476587</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>120</v>
+      </c>
+      <c r="P41" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>2.4</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+      <c r="T41">
+        <v>1.25</v>
+      </c>
+      <c r="U41">
+        <v>3.75</v>
+      </c>
+      <c r="V41">
+        <v>2.2</v>
+      </c>
+      <c r="W41">
+        <v>1.62</v>
+      </c>
+      <c r="X41">
+        <v>5</v>
+      </c>
+      <c r="Y41">
+        <v>1.17</v>
+      </c>
+      <c r="Z41">
+        <v>2.37</v>
+      </c>
+      <c r="AA41">
+        <v>3.9</v>
+      </c>
+      <c r="AB41">
+        <v>2.55</v>
+      </c>
+      <c r="AC41">
+        <v>1.02</v>
+      </c>
+      <c r="AD41">
+        <v>20</v>
+      </c>
+      <c r="AE41">
+        <v>1.13</v>
+      </c>
+      <c r="AF41">
+        <v>5</v>
+      </c>
+      <c r="AG41">
+        <v>1.5</v>
+      </c>
+      <c r="AH41">
+        <v>2.4</v>
+      </c>
+      <c r="AI41">
+        <v>1.44</v>
+      </c>
+      <c r="AJ41">
+        <v>2.63</v>
+      </c>
+      <c r="AK41">
+        <v>1.5</v>
+      </c>
+      <c r="AL41">
+        <v>1.29</v>
+      </c>
+      <c r="AM41">
+        <v>1.53</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>2</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0.96</v>
+      </c>
+      <c r="AT41">
+        <v>0.96</v>
+      </c>
+      <c r="AU41">
+        <v>7</v>
+      </c>
+      <c r="AV41">
+        <v>4</v>
+      </c>
+      <c r="AW41">
+        <v>8</v>
+      </c>
+      <c r="AX41">
+        <v>2</v>
+      </c>
+      <c r="AY41">
+        <v>15</v>
+      </c>
+      <c r="AZ41">
+        <v>6</v>
+      </c>
+      <c r="BA41">
+        <v>9</v>
+      </c>
+      <c r="BB41">
+        <v>3</v>
+      </c>
+      <c r="BC41">
+        <v>12</v>
+      </c>
+      <c r="BD41">
+        <v>1.85</v>
+      </c>
+      <c r="BE41">
+        <v>7.5</v>
+      </c>
+      <c r="BF41">
+        <v>2.29</v>
+      </c>
+      <c r="BG41">
+        <v>1.2</v>
+      </c>
+      <c r="BH41">
+        <v>4</v>
+      </c>
+      <c r="BI41">
+        <v>1.33</v>
+      </c>
+      <c r="BJ41">
+        <v>3</v>
+      </c>
+      <c r="BK41">
+        <v>1.7</v>
+      </c>
+      <c r="BL41">
+        <v>2.05</v>
+      </c>
+      <c r="BM41">
+        <v>1.93</v>
+      </c>
+      <c r="BN41">
+        <v>1.86</v>
+      </c>
+      <c r="BO41">
+        <v>2.43</v>
+      </c>
+      <c r="BP41">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7476584</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>101</v>
+      </c>
+      <c r="P42" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q42">
+        <v>2.88</v>
+      </c>
+      <c r="R42">
+        <v>2.2</v>
+      </c>
+      <c r="S42">
+        <v>3.6</v>
+      </c>
+      <c r="T42">
+        <v>1.36</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>2.75</v>
+      </c>
+      <c r="W42">
+        <v>1.4</v>
+      </c>
+      <c r="X42">
+        <v>7</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
+        <v>2.15</v>
+      </c>
+      <c r="AA42">
+        <v>3.5</v>
+      </c>
+      <c r="AB42">
+        <v>3.1</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>9</v>
+      </c>
+      <c r="AE42">
+        <v>1.28</v>
+      </c>
+      <c r="AF42">
+        <v>3.6</v>
+      </c>
+      <c r="AG42">
+        <v>1.81</v>
+      </c>
+      <c r="AH42">
+        <v>1.91</v>
+      </c>
+      <c r="AI42">
+        <v>1.67</v>
+      </c>
+      <c r="AJ42">
+        <v>2.1</v>
+      </c>
+      <c r="AK42">
+        <v>1.33</v>
+      </c>
+      <c r="AL42">
+        <v>1.25</v>
+      </c>
+      <c r="AM42">
+        <v>1.65</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>1.5</v>
+      </c>
+      <c r="AR42">
+        <v>1.1</v>
+      </c>
+      <c r="AS42">
+        <v>1.42</v>
+      </c>
+      <c r="AT42">
+        <v>2.52</v>
+      </c>
+      <c r="AU42">
+        <v>5</v>
+      </c>
+      <c r="AV42">
+        <v>2</v>
+      </c>
+      <c r="AW42">
+        <v>8</v>
+      </c>
+      <c r="AX42">
+        <v>4</v>
+      </c>
+      <c r="AY42">
+        <v>13</v>
+      </c>
+      <c r="AZ42">
+        <v>6</v>
+      </c>
+      <c r="BA42">
+        <v>9</v>
+      </c>
+      <c r="BB42">
+        <v>1</v>
+      </c>
+      <c r="BC42">
+        <v>10</v>
+      </c>
+      <c r="BD42">
+        <v>1.64</v>
+      </c>
+      <c r="BE42">
+        <v>7.5</v>
+      </c>
+      <c r="BF42">
+        <v>2.78</v>
+      </c>
+      <c r="BG42">
+        <v>1.2</v>
+      </c>
+      <c r="BH42">
+        <v>4</v>
+      </c>
+      <c r="BI42">
+        <v>1.36</v>
+      </c>
+      <c r="BJ42">
+        <v>2.9</v>
+      </c>
+      <c r="BK42">
+        <v>1.6</v>
+      </c>
+      <c r="BL42">
+        <v>2.29</v>
+      </c>
+      <c r="BM42">
+        <v>1.95</v>
+      </c>
+      <c r="BN42">
+        <v>1.77</v>
+      </c>
+      <c r="BO42">
+        <v>2.52</v>
+      </c>
+      <c r="BP42">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7476583</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>101</v>
+      </c>
+      <c r="P43" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q43">
+        <v>3.75</v>
+      </c>
+      <c r="R43">
+        <v>2.1</v>
+      </c>
+      <c r="S43">
+        <v>3</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43">
+        <v>2.75</v>
+      </c>
+      <c r="V43">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <v>1.36</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>1.08</v>
+      </c>
+      <c r="Z43">
+        <v>3</v>
+      </c>
+      <c r="AA43">
+        <v>3.4</v>
+      </c>
+      <c r="AB43">
+        <v>2.2</v>
+      </c>
+      <c r="AC43">
+        <v>1.06</v>
+      </c>
+      <c r="AD43">
+        <v>8.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.33</v>
+      </c>
+      <c r="AF43">
+        <v>3.25</v>
+      </c>
+      <c r="AG43">
+        <v>1.93</v>
+      </c>
+      <c r="AH43">
+        <v>1.79</v>
+      </c>
+      <c r="AI43">
+        <v>1.73</v>
+      </c>
+      <c r="AJ43">
+        <v>2</v>
+      </c>
+      <c r="AK43">
+        <v>1.6</v>
+      </c>
+      <c r="AL43">
+        <v>1.28</v>
+      </c>
+      <c r="AM43">
+        <v>1.35</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>1.5</v>
+      </c>
+      <c r="AR43">
+        <v>1.15</v>
+      </c>
+      <c r="AS43">
+        <v>0.77</v>
+      </c>
+      <c r="AT43">
+        <v>1.92</v>
+      </c>
+      <c r="AU43">
+        <v>5</v>
+      </c>
+      <c r="AV43">
+        <v>7</v>
+      </c>
+      <c r="AW43">
+        <v>2</v>
+      </c>
+      <c r="AX43">
+        <v>1</v>
+      </c>
+      <c r="AY43">
+        <v>7</v>
+      </c>
+      <c r="AZ43">
+        <v>8</v>
+      </c>
+      <c r="BA43">
+        <v>8</v>
+      </c>
+      <c r="BB43">
+        <v>6</v>
+      </c>
+      <c r="BC43">
+        <v>14</v>
+      </c>
+      <c r="BD43">
+        <v>2.43</v>
+      </c>
+      <c r="BE43">
+        <v>7</v>
+      </c>
+      <c r="BF43">
+        <v>1.82</v>
+      </c>
+      <c r="BG43">
+        <v>1.25</v>
+      </c>
+      <c r="BH43">
+        <v>3.6</v>
+      </c>
+      <c r="BI43">
+        <v>1.42</v>
+      </c>
+      <c r="BJ43">
+        <v>2.62</v>
+      </c>
+      <c r="BK43">
+        <v>1.77</v>
+      </c>
+      <c r="BL43">
+        <v>1.95</v>
+      </c>
+      <c r="BM43">
+        <v>2.14</v>
+      </c>
+      <c r="BN43">
+        <v>1.68</v>
+      </c>
+      <c r="BO43">
+        <v>2.62</v>
+      </c>
+      <c r="BP43">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7476580</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P44" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q44">
+        <v>2.75</v>
+      </c>
+      <c r="R44">
+        <v>2.2</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
+      <c r="T44">
+        <v>1.4</v>
+      </c>
+      <c r="U44">
+        <v>2.75</v>
+      </c>
+      <c r="V44">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>1.36</v>
+      </c>
+      <c r="X44">
+        <v>8</v>
+      </c>
+      <c r="Y44">
+        <v>1.08</v>
+      </c>
+      <c r="Z44">
+        <v>1.9</v>
+      </c>
+      <c r="AA44">
+        <v>3.4</v>
+      </c>
+      <c r="AB44">
+        <v>3.9</v>
+      </c>
+      <c r="AC44">
+        <v>1.02</v>
+      </c>
+      <c r="AD44">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE44">
+        <v>1.27</v>
+      </c>
+      <c r="AF44">
+        <v>3.28</v>
+      </c>
+      <c r="AG44">
+        <v>2</v>
+      </c>
+      <c r="AH44">
+        <v>1.85</v>
+      </c>
+      <c r="AI44">
+        <v>1.73</v>
+      </c>
+      <c r="AJ44">
+        <v>2</v>
+      </c>
+      <c r="AK44">
+        <v>1.28</v>
+      </c>
+      <c r="AL44">
+        <v>1.3</v>
+      </c>
+      <c r="AM44">
+        <v>1.74</v>
+      </c>
+      <c r="AN44">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>1.5</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <v>1.2</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>1.2</v>
+      </c>
+      <c r="AU44">
+        <v>3</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>10</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>13</v>
+      </c>
+      <c r="AZ44">
+        <v>4</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>6</v>
+      </c>
+      <c r="BC44">
+        <v>9</v>
+      </c>
+      <c r="BD44">
+        <v>1.67</v>
+      </c>
+      <c r="BE44">
+        <v>8.5</v>
+      </c>
+      <c r="BF44">
+        <v>2.45</v>
+      </c>
+      <c r="BG44">
+        <v>1.22</v>
+      </c>
+      <c r="BH44">
+        <v>3.8</v>
+      </c>
+      <c r="BI44">
+        <v>1.38</v>
+      </c>
+      <c r="BJ44">
+        <v>2.8</v>
+      </c>
+      <c r="BK44">
+        <v>1.62</v>
+      </c>
+      <c r="BL44">
+        <v>2.2</v>
+      </c>
+      <c r="BM44">
+        <v>1.95</v>
+      </c>
+      <c r="BN44">
+        <v>1.77</v>
+      </c>
+      <c r="BO44">
+        <v>2.4</v>
+      </c>
+      <c r="BP44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7476579</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>122</v>
+      </c>
+      <c r="P45" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q45">
+        <v>2.63</v>
+      </c>
+      <c r="R45">
+        <v>2.3</v>
+      </c>
+      <c r="S45">
+        <v>3.75</v>
+      </c>
+      <c r="T45">
+        <v>1.33</v>
+      </c>
+      <c r="U45">
+        <v>3.25</v>
+      </c>
+      <c r="V45">
+        <v>2.63</v>
+      </c>
+      <c r="W45">
+        <v>1.44</v>
+      </c>
+      <c r="X45">
+        <v>6.5</v>
+      </c>
+      <c r="Y45">
+        <v>1.11</v>
+      </c>
+      <c r="Z45">
+        <v>2.37</v>
+      </c>
+      <c r="AA45">
+        <v>3.3</v>
+      </c>
+      <c r="AB45">
+        <v>2.85</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>9.9</v>
+      </c>
+      <c r="AE45">
+        <v>1.21</v>
+      </c>
+      <c r="AF45">
+        <v>3.74</v>
+      </c>
+      <c r="AG45">
+        <v>1.73</v>
+      </c>
+      <c r="AH45">
+        <v>2.02</v>
+      </c>
+      <c r="AI45">
+        <v>1.57</v>
+      </c>
+      <c r="AJ45">
+        <v>2.25</v>
+      </c>
+      <c r="AK45">
+        <v>1.4</v>
+      </c>
+      <c r="AL45">
+        <v>1.25</v>
+      </c>
+      <c r="AM45">
+        <v>1.55</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>1.5</v>
+      </c>
+      <c r="AQ45">
+        <v>1.5</v>
+      </c>
+      <c r="AR45">
+        <v>1.02</v>
+      </c>
+      <c r="AS45">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT45">
+        <v>1.58</v>
+      </c>
+      <c r="AU45">
+        <v>3</v>
+      </c>
+      <c r="AV45">
+        <v>6</v>
+      </c>
+      <c r="AW45">
+        <v>4</v>
+      </c>
+      <c r="AX45">
+        <v>7</v>
+      </c>
+      <c r="AY45">
+        <v>7</v>
+      </c>
+      <c r="AZ45">
+        <v>13</v>
+      </c>
+      <c r="BA45">
+        <v>5</v>
+      </c>
+      <c r="BB45">
+        <v>7</v>
+      </c>
+      <c r="BC45">
+        <v>12</v>
+      </c>
+      <c r="BD45">
+        <v>1.85</v>
+      </c>
+      <c r="BE45">
+        <v>7.5</v>
+      </c>
+      <c r="BF45">
+        <v>2.33</v>
+      </c>
+      <c r="BG45">
+        <v>1.22</v>
+      </c>
+      <c r="BH45">
+        <v>3.8</v>
+      </c>
+      <c r="BI45">
+        <v>1.38</v>
+      </c>
+      <c r="BJ45">
+        <v>2.8</v>
+      </c>
+      <c r="BK45">
+        <v>1.65</v>
+      </c>
+      <c r="BL45">
+        <v>2.1</v>
+      </c>
+      <c r="BM45">
+        <v>1.95</v>
+      </c>
+      <c r="BN45">
+        <v>1.77</v>
+      </c>
+      <c r="BO45">
+        <v>2.5</v>
+      </c>
+      <c r="BP45">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7476578</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>123</v>
+      </c>
+      <c r="P46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q46">
+        <v>3.1</v>
+      </c>
+      <c r="R46">
+        <v>2.25</v>
+      </c>
+      <c r="S46">
+        <v>3.1</v>
+      </c>
+      <c r="T46">
+        <v>1.33</v>
+      </c>
+      <c r="U46">
+        <v>3.25</v>
+      </c>
+      <c r="V46">
+        <v>2.63</v>
+      </c>
+      <c r="W46">
+        <v>1.44</v>
+      </c>
+      <c r="X46">
+        <v>6.5</v>
+      </c>
+      <c r="Y46">
+        <v>1.11</v>
+      </c>
+      <c r="Z46">
+        <v>2.55</v>
+      </c>
+      <c r="AA46">
+        <v>3.5</v>
+      </c>
+      <c r="AB46">
+        <v>2.55</v>
+      </c>
+      <c r="AC46">
+        <v>1.02</v>
+      </c>
+      <c r="AD46">
+        <v>10</v>
+      </c>
+      <c r="AE46">
+        <v>1.22</v>
+      </c>
+      <c r="AF46">
+        <v>3.8</v>
+      </c>
+      <c r="AG46">
+        <v>1.72</v>
+      </c>
+      <c r="AH46">
+        <v>2.02</v>
+      </c>
+      <c r="AI46">
+        <v>1.57</v>
+      </c>
+      <c r="AJ46">
+        <v>2.25</v>
+      </c>
+      <c r="AK46">
+        <v>1.45</v>
+      </c>
+      <c r="AL46">
+        <v>1.28</v>
+      </c>
+      <c r="AM46">
+        <v>1.48</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46">
+        <v>0.5</v>
+      </c>
+      <c r="AR46">
+        <v>2.58</v>
+      </c>
+      <c r="AS46">
+        <v>1.11</v>
+      </c>
+      <c r="AT46">
+        <v>3.69</v>
+      </c>
+      <c r="AU46">
+        <v>4</v>
+      </c>
+      <c r="AV46">
+        <v>6</v>
+      </c>
+      <c r="AW46">
+        <v>7</v>
+      </c>
+      <c r="AX46">
+        <v>2</v>
+      </c>
+      <c r="AY46">
+        <v>11</v>
+      </c>
+      <c r="AZ46">
+        <v>8</v>
+      </c>
+      <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>3</v>
+      </c>
+      <c r="BC46">
+        <v>8</v>
+      </c>
+      <c r="BD46">
+        <v>1.91</v>
+      </c>
+      <c r="BE46">
+        <v>7</v>
+      </c>
+      <c r="BF46">
+        <v>2.2</v>
+      </c>
+      <c r="BG46">
+        <v>1.2</v>
+      </c>
+      <c r="BH46">
+        <v>4</v>
+      </c>
+      <c r="BI46">
+        <v>1.36</v>
+      </c>
+      <c r="BJ46">
+        <v>2.9</v>
+      </c>
+      <c r="BK46">
+        <v>1.6</v>
+      </c>
+      <c r="BL46">
+        <v>2.26</v>
+      </c>
+      <c r="BM46">
+        <v>2</v>
+      </c>
+      <c r="BN46">
+        <v>1.8</v>
+      </c>
+      <c r="BO46">
+        <v>2.5</v>
+      </c>
+      <c r="BP46">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7476577</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P47" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q47">
+        <v>2.6</v>
+      </c>
+      <c r="R47">
+        <v>2.2</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <v>1.36</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>2.75</v>
+      </c>
+      <c r="W47">
+        <v>1.4</v>
+      </c>
+      <c r="X47">
+        <v>7</v>
+      </c>
+      <c r="Y47">
+        <v>1.1</v>
+      </c>
+      <c r="Z47">
+        <v>1.98</v>
+      </c>
+      <c r="AA47">
+        <v>3.4</v>
+      </c>
+      <c r="AB47">
+        <v>3.6</v>
+      </c>
+      <c r="AC47">
+        <v>1.01</v>
+      </c>
+      <c r="AD47">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE47">
+        <v>1.24</v>
+      </c>
+      <c r="AF47">
+        <v>3.48</v>
+      </c>
+      <c r="AG47">
+        <v>1.82</v>
+      </c>
+      <c r="AH47">
+        <v>1.91</v>
+      </c>
+      <c r="AI47">
+        <v>1.67</v>
+      </c>
+      <c r="AJ47">
+        <v>2.1</v>
+      </c>
+      <c r="AK47">
+        <v>1.25</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.77</v>
+      </c>
+      <c r="AN47">
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>3</v>
+      </c>
+      <c r="AQ47">
+        <v>0.5</v>
+      </c>
+      <c r="AR47">
+        <v>1.5</v>
+      </c>
+      <c r="AS47">
+        <v>0.92</v>
+      </c>
+      <c r="AT47">
+        <v>2.42</v>
+      </c>
+      <c r="AU47">
+        <v>6</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>6</v>
+      </c>
+      <c r="AX47">
+        <v>4</v>
+      </c>
+      <c r="AY47">
+        <v>12</v>
+      </c>
+      <c r="AZ47">
+        <v>8</v>
+      </c>
+      <c r="BA47">
+        <v>9</v>
+      </c>
+      <c r="BB47">
+        <v>6</v>
+      </c>
+      <c r="BC47">
+        <v>15</v>
+      </c>
+      <c r="BD47">
+        <v>1.64</v>
+      </c>
+      <c r="BE47">
+        <v>7.5</v>
+      </c>
+      <c r="BF47">
+        <v>2.74</v>
+      </c>
+      <c r="BG47">
+        <v>1.22</v>
+      </c>
+      <c r="BH47">
+        <v>3.8</v>
+      </c>
+      <c r="BI47">
+        <v>1.36</v>
+      </c>
+      <c r="BJ47">
+        <v>2.88</v>
+      </c>
+      <c r="BK47">
+        <v>1.62</v>
+      </c>
+      <c r="BL47">
+        <v>2.2</v>
+      </c>
+      <c r="BM47">
+        <v>1.95</v>
+      </c>
+      <c r="BN47">
+        <v>1.77</v>
+      </c>
+      <c r="BO47">
+        <v>2.4</v>
+      </c>
+      <c r="BP47">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7476582</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>125</v>
+      </c>
+      <c r="P48" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q48">
+        <v>3.5</v>
+      </c>
+      <c r="R48">
+        <v>2.2</v>
+      </c>
+      <c r="S48">
+        <v>3</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48">
+        <v>2.75</v>
+      </c>
+      <c r="V48">
+        <v>2.75</v>
+      </c>
+      <c r="W48">
+        <v>1.4</v>
+      </c>
+      <c r="X48">
+        <v>8</v>
+      </c>
+      <c r="Y48">
+        <v>1.08</v>
+      </c>
+      <c r="Z48">
+        <v>2.85</v>
+      </c>
+      <c r="AA48">
+        <v>3.4</v>
+      </c>
+      <c r="AB48">
+        <v>2.35</v>
+      </c>
+      <c r="AC48">
+        <v>1.03</v>
+      </c>
+      <c r="AD48">
+        <v>9</v>
+      </c>
+      <c r="AE48">
+        <v>1.29</v>
+      </c>
+      <c r="AF48">
+        <v>3.3</v>
+      </c>
+      <c r="AG48">
+        <v>1.91</v>
+      </c>
+      <c r="AH48">
+        <v>1.81</v>
+      </c>
+      <c r="AI48">
+        <v>1.73</v>
+      </c>
+      <c r="AJ48">
+        <v>2</v>
+      </c>
+      <c r="AK48">
+        <v>1.57</v>
+      </c>
+      <c r="AL48">
+        <v>1.28</v>
+      </c>
+      <c r="AM48">
+        <v>1.38</v>
+      </c>
+      <c r="AN48">
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <v>3</v>
+      </c>
+      <c r="AP48">
+        <v>3</v>
+      </c>
+      <c r="AQ48">
+        <v>1.5</v>
+      </c>
+      <c r="AR48">
+        <v>1.43</v>
+      </c>
+      <c r="AS48">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT48">
+        <v>2.24</v>
+      </c>
+      <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>7</v>
+      </c>
+      <c r="AZ48">
+        <v>8</v>
+      </c>
+      <c r="BA48">
+        <v>5</v>
+      </c>
+      <c r="BB48">
+        <v>2</v>
+      </c>
+      <c r="BC48">
+        <v>7</v>
+      </c>
+      <c r="BD48">
+        <v>2.1</v>
+      </c>
+      <c r="BE48">
+        <v>7</v>
+      </c>
+      <c r="BF48">
+        <v>2</v>
+      </c>
+      <c r="BG48">
+        <v>1.18</v>
+      </c>
+      <c r="BH48">
+        <v>4.33</v>
+      </c>
+      <c r="BI48">
+        <v>1.33</v>
+      </c>
+      <c r="BJ48">
+        <v>3</v>
+      </c>
+      <c r="BK48">
+        <v>1.56</v>
+      </c>
+      <c r="BL48">
+        <v>2.35</v>
+      </c>
+      <c r="BM48">
+        <v>2.05</v>
+      </c>
+      <c r="BN48">
+        <v>1.7</v>
+      </c>
+      <c r="BO48">
+        <v>2.39</v>
+      </c>
+      <c r="BP48">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -379,7 +379,7 @@
     <t>['21']</t>
   </si>
   <si>
-    <t>['6']</t>
+    <t>['7']</t>
   </si>
   <si>
     <t>['2']</t>
@@ -469,7 +469,7 @@
     <t>['74']</t>
   </si>
   <si>
-    <t>['7', '37']</t>
+    <t>['6', '37']</t>
   </si>
   <si>
     <t>['83', '90+1']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>['28', '47']</t>
+  </si>
+  <si>
+    <t>['42']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -837,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1096,7 +1099,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1302,7 +1305,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1714,7 +1717,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1920,7 +1923,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2332,7 +2335,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2538,7 +2541,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2744,7 +2747,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2950,7 +2953,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3028,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3980,7 +3983,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4392,7 +4395,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4598,7 +4601,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4804,7 +4807,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5010,7 +5013,7 @@
         <v>108</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>4.33</v>
@@ -5422,7 +5425,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5834,7 +5837,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6040,7 +6043,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6864,7 +6867,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7482,7 +7485,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7688,7 +7691,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -7894,7 +7897,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8100,7 +8103,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8512,7 +8515,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8924,7 +8927,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q40">
         <v>2.4</v>
@@ -9130,7 +9133,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9336,7 +9339,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9542,7 +9545,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9748,7 +9751,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9954,7 +9957,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10160,7 +10163,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10572,7 +10575,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -10729,6 +10732,212 @@
       </c>
       <c r="BP48">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7476586</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>126</v>
+      </c>
+      <c r="P49" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q49">
+        <v>3.5</v>
+      </c>
+      <c r="R49">
+        <v>2.3</v>
+      </c>
+      <c r="S49">
+        <v>2.75</v>
+      </c>
+      <c r="T49">
+        <v>1.33</v>
+      </c>
+      <c r="U49">
+        <v>3.25</v>
+      </c>
+      <c r="V49">
+        <v>2.63</v>
+      </c>
+      <c r="W49">
+        <v>1.44</v>
+      </c>
+      <c r="X49">
+        <v>6.5</v>
+      </c>
+      <c r="Y49">
+        <v>1.11</v>
+      </c>
+      <c r="Z49">
+        <v>2.5</v>
+      </c>
+      <c r="AA49">
+        <v>3.3</v>
+      </c>
+      <c r="AB49">
+        <v>2.5</v>
+      </c>
+      <c r="AC49">
+        <v>1.03</v>
+      </c>
+      <c r="AD49">
+        <v>14</v>
+      </c>
+      <c r="AE49">
+        <v>1.19</v>
+      </c>
+      <c r="AF49">
+        <v>3.92</v>
+      </c>
+      <c r="AG49">
+        <v>1.66</v>
+      </c>
+      <c r="AH49">
+        <v>2.05</v>
+      </c>
+      <c r="AI49">
+        <v>1.57</v>
+      </c>
+      <c r="AJ49">
+        <v>2.25</v>
+      </c>
+      <c r="AK49">
+        <v>1.63</v>
+      </c>
+      <c r="AL49">
+        <v>1.27</v>
+      </c>
+      <c r="AM49">
+        <v>1.37</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>1.5</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>1.1</v>
+      </c>
+      <c r="AS49">
+        <v>1.26</v>
+      </c>
+      <c r="AT49">
+        <v>2.36</v>
+      </c>
+      <c r="AU49">
+        <v>7</v>
+      </c>
+      <c r="AV49">
+        <v>6</v>
+      </c>
+      <c r="AW49">
+        <v>5</v>
+      </c>
+      <c r="AX49">
+        <v>6</v>
+      </c>
+      <c r="AY49">
+        <v>12</v>
+      </c>
+      <c r="AZ49">
+        <v>12</v>
+      </c>
+      <c r="BA49">
+        <v>4</v>
+      </c>
+      <c r="BB49">
+        <v>5</v>
+      </c>
+      <c r="BC49">
+        <v>9</v>
+      </c>
+      <c r="BD49">
+        <v>2.39</v>
+      </c>
+      <c r="BE49">
+        <v>8</v>
+      </c>
+      <c r="BF49">
+        <v>1.82</v>
+      </c>
+      <c r="BG49">
+        <v>1.33</v>
+      </c>
+      <c r="BH49">
+        <v>3</v>
+      </c>
+      <c r="BI49">
+        <v>1.57</v>
+      </c>
+      <c r="BJ49">
+        <v>2.25</v>
+      </c>
+      <c r="BK49">
+        <v>1.8</v>
+      </c>
+      <c r="BL49">
+        <v>2</v>
+      </c>
+      <c r="BM49">
+        <v>2.4</v>
+      </c>
+      <c r="BN49">
+        <v>1.5</v>
+      </c>
+      <c r="BO49">
+        <v>3.2</v>
+      </c>
+      <c r="BP49">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,30 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['2', '70']</t>
+  </si>
+  <si>
+    <t>['18', '67']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['27', '45+2']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -433,9 +457,6 @@
     <t>['76']</t>
   </si>
   <si>
-    <t>['30']</t>
-  </si>
-  <si>
     <t>['33', '40', '49', '64']</t>
   </si>
   <si>
@@ -479,6 +500,21 @@
   </si>
   <si>
     <t>['78']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['6', '36', '48', '54']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['50']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,7 +1135,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1177,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1305,7 +1341,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1589,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1717,7 +1753,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1795,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -1923,7 +1959,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2335,7 +2371,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2541,7 +2577,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2622,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2747,7 +2783,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2825,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -2953,7 +2989,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3034,7 +3070,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3983,7 +4019,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4064,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4267,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4395,7 +4431,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4473,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ18">
         <v>1.5</v>
@@ -4601,7 +4637,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4807,7 +4843,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4888,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5013,7 +5049,7 @@
         <v>108</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>4.33</v>
@@ -5091,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5425,7 +5461,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5506,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5709,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5837,7 +5873,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5915,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
@@ -6043,7 +6079,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6121,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -6330,7 +6366,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0.86</v>
@@ -6533,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6867,7 +6903,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6945,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7154,7 +7190,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7357,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -7485,7 +7521,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7563,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7691,7 +7727,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -7769,10 +7805,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.61</v>
@@ -7897,7 +7933,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -7975,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8103,7 +8139,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8181,10 +8217,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.26</v>
@@ -8387,10 +8423,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.13</v>
@@ -8515,7 +8551,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8927,7 +8963,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>2.4</v>
@@ -9133,7 +9169,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9339,7 +9375,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9545,7 +9581,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9751,7 +9787,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9957,7 +9993,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10163,7 +10199,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10575,7 +10611,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -10938,6 +10974,2066 @@
       </c>
       <c r="BP49">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7476596</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45542.45833333334</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>99</v>
+      </c>
+      <c r="P50" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q50">
+        <v>2.75</v>
+      </c>
+      <c r="R50">
+        <v>2.3</v>
+      </c>
+      <c r="S50">
+        <v>3.5</v>
+      </c>
+      <c r="T50">
+        <v>1.3</v>
+      </c>
+      <c r="U50">
+        <v>3.4</v>
+      </c>
+      <c r="V50">
+        <v>2.5</v>
+      </c>
+      <c r="W50">
+        <v>1.5</v>
+      </c>
+      <c r="X50">
+        <v>6</v>
+      </c>
+      <c r="Y50">
+        <v>1.13</v>
+      </c>
+      <c r="Z50">
+        <v>2.15</v>
+      </c>
+      <c r="AA50">
+        <v>3.4</v>
+      </c>
+      <c r="AB50">
+        <v>3</v>
+      </c>
+      <c r="AC50">
+        <v>1.01</v>
+      </c>
+      <c r="AD50">
+        <v>11</v>
+      </c>
+      <c r="AE50">
+        <v>1.17</v>
+      </c>
+      <c r="AF50">
+        <v>4.5</v>
+      </c>
+      <c r="AG50">
+        <v>1.8</v>
+      </c>
+      <c r="AH50">
+        <v>1.91</v>
+      </c>
+      <c r="AI50">
+        <v>1.53</v>
+      </c>
+      <c r="AJ50">
+        <v>2.38</v>
+      </c>
+      <c r="AK50">
+        <v>1.36</v>
+      </c>
+      <c r="AL50">
+        <v>1.25</v>
+      </c>
+      <c r="AM50">
+        <v>1.62</v>
+      </c>
+      <c r="AN50">
+        <v>1.5</v>
+      </c>
+      <c r="AO50">
+        <v>1.5</v>
+      </c>
+      <c r="AP50">
+        <v>2</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <v>1.63</v>
+      </c>
+      <c r="AS50">
+        <v>1.2</v>
+      </c>
+      <c r="AT50">
+        <v>2.83</v>
+      </c>
+      <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>3</v>
+      </c>
+      <c r="AW50">
+        <v>2</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>8</v>
+      </c>
+      <c r="AZ50">
+        <v>6</v>
+      </c>
+      <c r="BA50">
+        <v>3</v>
+      </c>
+      <c r="BB50">
+        <v>3</v>
+      </c>
+      <c r="BC50">
+        <v>6</v>
+      </c>
+      <c r="BD50">
+        <v>1.69</v>
+      </c>
+      <c r="BE50">
+        <v>7</v>
+      </c>
+      <c r="BF50">
+        <v>2.65</v>
+      </c>
+      <c r="BG50">
+        <v>1.29</v>
+      </c>
+      <c r="BH50">
+        <v>3.4</v>
+      </c>
+      <c r="BI50">
+        <v>1.47</v>
+      </c>
+      <c r="BJ50">
+        <v>2.61</v>
+      </c>
+      <c r="BK50">
+        <v>1.8</v>
+      </c>
+      <c r="BL50">
+        <v>2</v>
+      </c>
+      <c r="BM50">
+        <v>2.25</v>
+      </c>
+      <c r="BN50">
+        <v>1.62</v>
+      </c>
+      <c r="BO50">
+        <v>2.8</v>
+      </c>
+      <c r="BP50">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7477095</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45542.45833333334</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>127</v>
+      </c>
+      <c r="P51" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q51">
+        <v>2.3</v>
+      </c>
+      <c r="R51">
+        <v>2.25</v>
+      </c>
+      <c r="S51">
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <v>1.36</v>
+      </c>
+      <c r="U51">
+        <v>3</v>
+      </c>
+      <c r="V51">
+        <v>2.75</v>
+      </c>
+      <c r="W51">
+        <v>1.4</v>
+      </c>
+      <c r="X51">
+        <v>7</v>
+      </c>
+      <c r="Y51">
+        <v>1.1</v>
+      </c>
+      <c r="Z51">
+        <v>1.73</v>
+      </c>
+      <c r="AA51">
+        <v>3.6</v>
+      </c>
+      <c r="AB51">
+        <v>4.33</v>
+      </c>
+      <c r="AC51">
+        <v>1.05</v>
+      </c>
+      <c r="AD51">
+        <v>9.5</v>
+      </c>
+      <c r="AE51">
+        <v>1.28</v>
+      </c>
+      <c r="AF51">
+        <v>3.65</v>
+      </c>
+      <c r="AG51">
+        <v>1.8</v>
+      </c>
+      <c r="AH51">
+        <v>1.91</v>
+      </c>
+      <c r="AI51">
+        <v>1.8</v>
+      </c>
+      <c r="AJ51">
+        <v>1.91</v>
+      </c>
+      <c r="AK51">
+        <v>1.18</v>
+      </c>
+      <c r="AL51">
+        <v>1.22</v>
+      </c>
+      <c r="AM51">
+        <v>2.05</v>
+      </c>
+      <c r="AN51">
+        <v>2</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>2.33</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>1.74</v>
+      </c>
+      <c r="AS51">
+        <v>1.42</v>
+      </c>
+      <c r="AT51">
+        <v>3.16</v>
+      </c>
+      <c r="AU51">
+        <v>5</v>
+      </c>
+      <c r="AV51">
+        <v>7</v>
+      </c>
+      <c r="AW51">
+        <v>5</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>10</v>
+      </c>
+      <c r="AZ51">
+        <v>10</v>
+      </c>
+      <c r="BA51">
+        <v>3</v>
+      </c>
+      <c r="BB51">
+        <v>5</v>
+      </c>
+      <c r="BC51">
+        <v>8</v>
+      </c>
+      <c r="BD51">
+        <v>1.37</v>
+      </c>
+      <c r="BE51">
+        <v>8</v>
+      </c>
+      <c r="BF51">
+        <v>3.88</v>
+      </c>
+      <c r="BG51">
+        <v>1.23</v>
+      </c>
+      <c r="BH51">
+        <v>3.56</v>
+      </c>
+      <c r="BI51">
+        <v>1.44</v>
+      </c>
+      <c r="BJ51">
+        <v>2.51</v>
+      </c>
+      <c r="BK51">
+        <v>1.82</v>
+      </c>
+      <c r="BL51">
+        <v>1.98</v>
+      </c>
+      <c r="BM51">
+        <v>2.27</v>
+      </c>
+      <c r="BN51">
+        <v>1.53</v>
+      </c>
+      <c r="BO51">
+        <v>3.04</v>
+      </c>
+      <c r="BP51">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7476598</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45542.45833333334</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>128</v>
+      </c>
+      <c r="P52" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q52">
+        <v>2.25</v>
+      </c>
+      <c r="R52">
+        <v>2.5</v>
+      </c>
+      <c r="S52">
+        <v>4.33</v>
+      </c>
+      <c r="T52">
+        <v>1.25</v>
+      </c>
+      <c r="U52">
+        <v>3.75</v>
+      </c>
+      <c r="V52">
+        <v>2.1</v>
+      </c>
+      <c r="W52">
+        <v>1.67</v>
+      </c>
+      <c r="X52">
+        <v>5</v>
+      </c>
+      <c r="Y52">
+        <v>1.17</v>
+      </c>
+      <c r="Z52">
+        <v>1.57</v>
+      </c>
+      <c r="AA52">
+        <v>4.33</v>
+      </c>
+      <c r="AB52">
+        <v>4.5</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>17</v>
+      </c>
+      <c r="AE52">
+        <v>1.15</v>
+      </c>
+      <c r="AF52">
+        <v>5.25</v>
+      </c>
+      <c r="AG52">
+        <v>1.45</v>
+      </c>
+      <c r="AH52">
+        <v>2.56</v>
+      </c>
+      <c r="AI52">
+        <v>1.44</v>
+      </c>
+      <c r="AJ52">
+        <v>2.63</v>
+      </c>
+      <c r="AK52">
+        <v>1.2</v>
+      </c>
+      <c r="AL52">
+        <v>1.2</v>
+      </c>
+      <c r="AM52">
+        <v>2.05</v>
+      </c>
+      <c r="AN52">
+        <v>2</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>2.33</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>1.79</v>
+      </c>
+      <c r="AS52">
+        <v>1.31</v>
+      </c>
+      <c r="AT52">
+        <v>3.1</v>
+      </c>
+      <c r="AU52">
+        <v>9</v>
+      </c>
+      <c r="AV52">
+        <v>4</v>
+      </c>
+      <c r="AW52">
+        <v>4</v>
+      </c>
+      <c r="AX52">
+        <v>6</v>
+      </c>
+      <c r="AY52">
+        <v>13</v>
+      </c>
+      <c r="AZ52">
+        <v>10</v>
+      </c>
+      <c r="BA52">
+        <v>9</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>11</v>
+      </c>
+      <c r="BD52">
+        <v>1.41</v>
+      </c>
+      <c r="BE52">
+        <v>8</v>
+      </c>
+      <c r="BF52">
+        <v>3.7</v>
+      </c>
+      <c r="BG52">
+        <v>1.18</v>
+      </c>
+      <c r="BH52">
+        <v>4.33</v>
+      </c>
+      <c r="BI52">
+        <v>1.33</v>
+      </c>
+      <c r="BJ52">
+        <v>3</v>
+      </c>
+      <c r="BK52">
+        <v>1.55</v>
+      </c>
+      <c r="BL52">
+        <v>2.4</v>
+      </c>
+      <c r="BM52">
+        <v>2.05</v>
+      </c>
+      <c r="BN52">
+        <v>1.7</v>
+      </c>
+      <c r="BO52">
+        <v>2.38</v>
+      </c>
+      <c r="BP52">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7476597</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45542.45833333334</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" t="s">
+        <v>90</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>4</v>
+      </c>
+      <c r="N53">
+        <v>5</v>
+      </c>
+      <c r="O53" t="s">
+        <v>129</v>
+      </c>
+      <c r="P53" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q53">
+        <v>3.6</v>
+      </c>
+      <c r="R53">
+        <v>2.2</v>
+      </c>
+      <c r="S53">
+        <v>2.88</v>
+      </c>
+      <c r="T53">
+        <v>1.36</v>
+      </c>
+      <c r="U53">
+        <v>3</v>
+      </c>
+      <c r="V53">
+        <v>2.75</v>
+      </c>
+      <c r="W53">
+        <v>1.4</v>
+      </c>
+      <c r="X53">
+        <v>7</v>
+      </c>
+      <c r="Y53">
+        <v>1.1</v>
+      </c>
+      <c r="Z53">
+        <v>3.2</v>
+      </c>
+      <c r="AA53">
+        <v>3.3</v>
+      </c>
+      <c r="AB53">
+        <v>2.1</v>
+      </c>
+      <c r="AC53">
+        <v>1.02</v>
+      </c>
+      <c r="AD53">
+        <v>10</v>
+      </c>
+      <c r="AE53">
+        <v>1.25</v>
+      </c>
+      <c r="AF53">
+        <v>3.6</v>
+      </c>
+      <c r="AG53">
+        <v>1.8</v>
+      </c>
+      <c r="AH53">
+        <v>1.91</v>
+      </c>
+      <c r="AI53">
+        <v>1.67</v>
+      </c>
+      <c r="AJ53">
+        <v>2.1</v>
+      </c>
+      <c r="AK53">
+        <v>1.66</v>
+      </c>
+      <c r="AL53">
+        <v>1.28</v>
+      </c>
+      <c r="AM53">
+        <v>1.33</v>
+      </c>
+      <c r="AN53">
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <v>1.5</v>
+      </c>
+      <c r="AP53">
+        <v>2</v>
+      </c>
+      <c r="AQ53">
+        <v>2</v>
+      </c>
+      <c r="AR53">
+        <v>0.78</v>
+      </c>
+      <c r="AS53">
+        <v>0.97</v>
+      </c>
+      <c r="AT53">
+        <v>1.75</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>8</v>
+      </c>
+      <c r="AW53">
+        <v>2</v>
+      </c>
+      <c r="AX53">
+        <v>11</v>
+      </c>
+      <c r="AY53">
+        <v>6</v>
+      </c>
+      <c r="AZ53">
+        <v>19</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>7</v>
+      </c>
+      <c r="BC53">
+        <v>7</v>
+      </c>
+      <c r="BD53">
+        <v>2.2</v>
+      </c>
+      <c r="BE53">
+        <v>7</v>
+      </c>
+      <c r="BF53">
+        <v>1.91</v>
+      </c>
+      <c r="BG53">
+        <v>1.21</v>
+      </c>
+      <c r="BH53">
+        <v>3.74</v>
+      </c>
+      <c r="BI53">
+        <v>1.41</v>
+      </c>
+      <c r="BJ53">
+        <v>2.6</v>
+      </c>
+      <c r="BK53">
+        <v>1.73</v>
+      </c>
+      <c r="BL53">
+        <v>2</v>
+      </c>
+      <c r="BM53">
+        <v>2.17</v>
+      </c>
+      <c r="BN53">
+        <v>1.58</v>
+      </c>
+      <c r="BO53">
+        <v>2.91</v>
+      </c>
+      <c r="BP53">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7476589</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45542.45833333334</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>103</v>
+      </c>
+      <c r="P54" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q54">
+        <v>2.5</v>
+      </c>
+      <c r="R54">
+        <v>2.25</v>
+      </c>
+      <c r="S54">
+        <v>4.33</v>
+      </c>
+      <c r="T54">
+        <v>1.36</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <v>2.63</v>
+      </c>
+      <c r="W54">
+        <v>1.44</v>
+      </c>
+      <c r="X54">
+        <v>7</v>
+      </c>
+      <c r="Y54">
+        <v>1.1</v>
+      </c>
+      <c r="Z54">
+        <v>1.78</v>
+      </c>
+      <c r="AA54">
+        <v>3.6</v>
+      </c>
+      <c r="AB54">
+        <v>4</v>
+      </c>
+      <c r="AC54">
+        <v>1.05</v>
+      </c>
+      <c r="AD54">
+        <v>9</v>
+      </c>
+      <c r="AE54">
+        <v>1.28</v>
+      </c>
+      <c r="AF54">
+        <v>3.55</v>
+      </c>
+      <c r="AG54">
+        <v>1.91</v>
+      </c>
+      <c r="AH54">
+        <v>1.8</v>
+      </c>
+      <c r="AI54">
+        <v>1.73</v>
+      </c>
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>1.22</v>
+      </c>
+      <c r="AL54">
+        <v>1.25</v>
+      </c>
+      <c r="AM54">
+        <v>1.91</v>
+      </c>
+      <c r="AN54">
+        <v>3</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>2.33</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AR54">
+        <v>1.28</v>
+      </c>
+      <c r="AS54">
+        <v>0.86</v>
+      </c>
+      <c r="AT54">
+        <v>2.14</v>
+      </c>
+      <c r="AU54">
+        <v>4</v>
+      </c>
+      <c r="AV54">
+        <v>6</v>
+      </c>
+      <c r="AW54">
+        <v>4</v>
+      </c>
+      <c r="AX54">
+        <v>8</v>
+      </c>
+      <c r="AY54">
+        <v>8</v>
+      </c>
+      <c r="AZ54">
+        <v>14</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
+        <v>5</v>
+      </c>
+      <c r="BC54">
+        <v>11</v>
+      </c>
+      <c r="BD54">
+        <v>1.45</v>
+      </c>
+      <c r="BE54">
+        <v>8</v>
+      </c>
+      <c r="BF54">
+        <v>3.48</v>
+      </c>
+      <c r="BG54">
+        <v>1.25</v>
+      </c>
+      <c r="BH54">
+        <v>3.6</v>
+      </c>
+      <c r="BI54">
+        <v>1.42</v>
+      </c>
+      <c r="BJ54">
+        <v>2.62</v>
+      </c>
+      <c r="BK54">
+        <v>1.85</v>
+      </c>
+      <c r="BL54">
+        <v>1.95</v>
+      </c>
+      <c r="BM54">
+        <v>2.12</v>
+      </c>
+      <c r="BN54">
+        <v>1.7</v>
+      </c>
+      <c r="BO54">
+        <v>2.62</v>
+      </c>
+      <c r="BP54">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7476593</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45542.45833333334</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>130</v>
+      </c>
+      <c r="P55" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q55">
+        <v>2.6</v>
+      </c>
+      <c r="R55">
+        <v>2.1</v>
+      </c>
+      <c r="S55">
+        <v>4.33</v>
+      </c>
+      <c r="T55">
+        <v>1.4</v>
+      </c>
+      <c r="U55">
+        <v>2.75</v>
+      </c>
+      <c r="V55">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <v>1.36</v>
+      </c>
+      <c r="X55">
+        <v>9</v>
+      </c>
+      <c r="Y55">
+        <v>1.07</v>
+      </c>
+      <c r="Z55">
+        <v>1.88</v>
+      </c>
+      <c r="AA55">
+        <v>3.4</v>
+      </c>
+      <c r="AB55">
+        <v>3.75</v>
+      </c>
+      <c r="AC55">
+        <v>1.06</v>
+      </c>
+      <c r="AD55">
+        <v>8.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.33</v>
+      </c>
+      <c r="AF55">
+        <v>3.25</v>
+      </c>
+      <c r="AG55">
+        <v>2</v>
+      </c>
+      <c r="AH55">
+        <v>1.73</v>
+      </c>
+      <c r="AI55">
+        <v>1.83</v>
+      </c>
+      <c r="AJ55">
+        <v>1.83</v>
+      </c>
+      <c r="AK55">
+        <v>1.25</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.85</v>
+      </c>
+      <c r="AN55">
+        <v>0.5</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>1.33</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>1</v>
+      </c>
+      <c r="AS55">
+        <v>0.57</v>
+      </c>
+      <c r="AT55">
+        <v>1.57</v>
+      </c>
+      <c r="AU55">
+        <v>3</v>
+      </c>
+      <c r="AV55">
+        <v>4</v>
+      </c>
+      <c r="AW55">
+        <v>3</v>
+      </c>
+      <c r="AX55">
+        <v>3</v>
+      </c>
+      <c r="AY55">
+        <v>6</v>
+      </c>
+      <c r="AZ55">
+        <v>7</v>
+      </c>
+      <c r="BA55">
+        <v>1</v>
+      </c>
+      <c r="BB55">
+        <v>7</v>
+      </c>
+      <c r="BC55">
+        <v>8</v>
+      </c>
+      <c r="BD55">
+        <v>1.53</v>
+      </c>
+      <c r="BE55">
+        <v>9.1</v>
+      </c>
+      <c r="BF55">
+        <v>2.92</v>
+      </c>
+      <c r="BG55">
+        <v>1.18</v>
+      </c>
+      <c r="BH55">
+        <v>4.33</v>
+      </c>
+      <c r="BI55">
+        <v>1.33</v>
+      </c>
+      <c r="BJ55">
+        <v>3</v>
+      </c>
+      <c r="BK55">
+        <v>1.55</v>
+      </c>
+      <c r="BL55">
+        <v>2.41</v>
+      </c>
+      <c r="BM55">
+        <v>2</v>
+      </c>
+      <c r="BN55">
+        <v>1.73</v>
+      </c>
+      <c r="BO55">
+        <v>2.4</v>
+      </c>
+      <c r="BP55">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7476592</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45542.45833333334</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>131</v>
+      </c>
+      <c r="P56" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q56">
+        <v>2.63</v>
+      </c>
+      <c r="R56">
+        <v>2.3</v>
+      </c>
+      <c r="S56">
+        <v>3.75</v>
+      </c>
+      <c r="T56">
+        <v>1.33</v>
+      </c>
+      <c r="U56">
+        <v>3.25</v>
+      </c>
+      <c r="V56">
+        <v>2.63</v>
+      </c>
+      <c r="W56">
+        <v>1.44</v>
+      </c>
+      <c r="X56">
+        <v>6.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.11</v>
+      </c>
+      <c r="Z56">
+        <v>2</v>
+      </c>
+      <c r="AA56">
+        <v>3.5</v>
+      </c>
+      <c r="AB56">
+        <v>3.25</v>
+      </c>
+      <c r="AC56">
+        <v>1.05</v>
+      </c>
+      <c r="AD56">
+        <v>9.5</v>
+      </c>
+      <c r="AE56">
+        <v>1.25</v>
+      </c>
+      <c r="AF56">
+        <v>3.95</v>
+      </c>
+      <c r="AG56">
+        <v>1.8</v>
+      </c>
+      <c r="AH56">
+        <v>1.91</v>
+      </c>
+      <c r="AI56">
+        <v>1.62</v>
+      </c>
+      <c r="AJ56">
+        <v>2.2</v>
+      </c>
+      <c r="AK56">
+        <v>1.38</v>
+      </c>
+      <c r="AL56">
+        <v>1.25</v>
+      </c>
+      <c r="AM56">
+        <v>1.7</v>
+      </c>
+      <c r="AN56">
+        <v>1.5</v>
+      </c>
+      <c r="AO56">
+        <v>1.5</v>
+      </c>
+      <c r="AP56">
+        <v>1.33</v>
+      </c>
+      <c r="AQ56">
+        <v>1.33</v>
+      </c>
+      <c r="AR56">
+        <v>2.03</v>
+      </c>
+      <c r="AS56">
+        <v>1.31</v>
+      </c>
+      <c r="AT56">
+        <v>3.34</v>
+      </c>
+      <c r="AU56">
+        <v>6</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>7</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>13</v>
+      </c>
+      <c r="AZ56">
+        <v>7</v>
+      </c>
+      <c r="BA56">
+        <v>8</v>
+      </c>
+      <c r="BB56">
+        <v>7</v>
+      </c>
+      <c r="BC56">
+        <v>15</v>
+      </c>
+      <c r="BD56">
+        <v>1.69</v>
+      </c>
+      <c r="BE56">
+        <v>7.5</v>
+      </c>
+      <c r="BF56">
+        <v>2.72</v>
+      </c>
+      <c r="BG56">
+        <v>1.18</v>
+      </c>
+      <c r="BH56">
+        <v>4.33</v>
+      </c>
+      <c r="BI56">
+        <v>1.28</v>
+      </c>
+      <c r="BJ56">
+        <v>3.2</v>
+      </c>
+      <c r="BK56">
+        <v>1.51</v>
+      </c>
+      <c r="BL56">
+        <v>2.32</v>
+      </c>
+      <c r="BM56">
+        <v>1.92</v>
+      </c>
+      <c r="BN56">
+        <v>1.88</v>
+      </c>
+      <c r="BO56">
+        <v>2.38</v>
+      </c>
+      <c r="BP56">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7476591</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45542.45833333334</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>132</v>
+      </c>
+      <c r="P57" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q57">
+        <v>2.2</v>
+      </c>
+      <c r="R57">
+        <v>2.4</v>
+      </c>
+      <c r="S57">
+        <v>5</v>
+      </c>
+      <c r="T57">
+        <v>1.3</v>
+      </c>
+      <c r="U57">
+        <v>3.4</v>
+      </c>
+      <c r="V57">
+        <v>2.38</v>
+      </c>
+      <c r="W57">
+        <v>1.53</v>
+      </c>
+      <c r="X57">
+        <v>6</v>
+      </c>
+      <c r="Y57">
+        <v>1.13</v>
+      </c>
+      <c r="Z57">
+        <v>1.65</v>
+      </c>
+      <c r="AA57">
+        <v>3.8</v>
+      </c>
+      <c r="AB57">
+        <v>4.5</v>
+      </c>
+      <c r="AC57">
+        <v>1.04</v>
+      </c>
+      <c r="AD57">
+        <v>10</v>
+      </c>
+      <c r="AE57">
+        <v>1.2</v>
+      </c>
+      <c r="AF57">
+        <v>4.33</v>
+      </c>
+      <c r="AG57">
+        <v>1.67</v>
+      </c>
+      <c r="AH57">
+        <v>2.1</v>
+      </c>
+      <c r="AI57">
+        <v>1.67</v>
+      </c>
+      <c r="AJ57">
+        <v>2.1</v>
+      </c>
+      <c r="AK57">
+        <v>1.14</v>
+      </c>
+      <c r="AL57">
+        <v>1.18</v>
+      </c>
+      <c r="AM57">
+        <v>2.3</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>1.67</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>1.25</v>
+      </c>
+      <c r="AS57">
+        <v>0.93</v>
+      </c>
+      <c r="AT57">
+        <v>2.18</v>
+      </c>
+      <c r="AU57">
+        <v>5</v>
+      </c>
+      <c r="AV57">
+        <v>8</v>
+      </c>
+      <c r="AW57">
+        <v>5</v>
+      </c>
+      <c r="AX57">
+        <v>5</v>
+      </c>
+      <c r="AY57">
+        <v>10</v>
+      </c>
+      <c r="AZ57">
+        <v>13</v>
+      </c>
+      <c r="BA57">
+        <v>4</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
+        <v>7</v>
+      </c>
+      <c r="BD57">
+        <v>1.31</v>
+      </c>
+      <c r="BE57">
+        <v>9</v>
+      </c>
+      <c r="BF57">
+        <v>4.43</v>
+      </c>
+      <c r="BG57">
+        <v>1.22</v>
+      </c>
+      <c r="BH57">
+        <v>3.8</v>
+      </c>
+      <c r="BI57">
+        <v>1.31</v>
+      </c>
+      <c r="BJ57">
+        <v>3.04</v>
+      </c>
+      <c r="BK57">
+        <v>1.56</v>
+      </c>
+      <c r="BL57">
+        <v>2.21</v>
+      </c>
+      <c r="BM57">
+        <v>2</v>
+      </c>
+      <c r="BN57">
+        <v>1.8</v>
+      </c>
+      <c r="BO57">
+        <v>2.5</v>
+      </c>
+      <c r="BP57">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7476590</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45542.45833333334</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>133</v>
+      </c>
+      <c r="P58" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q58">
+        <v>2.6</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1.36</v>
+      </c>
+      <c r="U58">
+        <v>3</v>
+      </c>
+      <c r="V58">
+        <v>2.75</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58">
+        <v>7</v>
+      </c>
+      <c r="Y58">
+        <v>1.1</v>
+      </c>
+      <c r="Z58">
+        <v>1.95</v>
+      </c>
+      <c r="AA58">
+        <v>3.5</v>
+      </c>
+      <c r="AB58">
+        <v>3.4</v>
+      </c>
+      <c r="AC58">
+        <v>1.05</v>
+      </c>
+      <c r="AD58">
+        <v>9.5</v>
+      </c>
+      <c r="AE58">
+        <v>1.25</v>
+      </c>
+      <c r="AF58">
+        <v>3.7</v>
+      </c>
+      <c r="AG58">
+        <v>1.8</v>
+      </c>
+      <c r="AH58">
+        <v>1.91</v>
+      </c>
+      <c r="AI58">
+        <v>1.73</v>
+      </c>
+      <c r="AJ58">
+        <v>2</v>
+      </c>
+      <c r="AK58">
+        <v>1.28</v>
+      </c>
+      <c r="AL58">
+        <v>1.22</v>
+      </c>
+      <c r="AM58">
+        <v>1.8</v>
+      </c>
+      <c r="AN58">
+        <v>1.5</v>
+      </c>
+      <c r="AO58">
+        <v>2</v>
+      </c>
+      <c r="AP58">
+        <v>2</v>
+      </c>
+      <c r="AQ58">
+        <v>1.33</v>
+      </c>
+      <c r="AR58">
+        <v>1.19</v>
+      </c>
+      <c r="AS58">
+        <v>1.19</v>
+      </c>
+      <c r="AT58">
+        <v>2.38</v>
+      </c>
+      <c r="AU58">
+        <v>5</v>
+      </c>
+      <c r="AV58">
+        <v>6</v>
+      </c>
+      <c r="AW58">
+        <v>4</v>
+      </c>
+      <c r="AX58">
+        <v>5</v>
+      </c>
+      <c r="AY58">
+        <v>9</v>
+      </c>
+      <c r="AZ58">
+        <v>11</v>
+      </c>
+      <c r="BA58">
+        <v>4</v>
+      </c>
+      <c r="BB58">
+        <v>5</v>
+      </c>
+      <c r="BC58">
+        <v>9</v>
+      </c>
+      <c r="BD58">
+        <v>1.55</v>
+      </c>
+      <c r="BE58">
+        <v>7.5</v>
+      </c>
+      <c r="BF58">
+        <v>3.04</v>
+      </c>
+      <c r="BG58">
+        <v>1.22</v>
+      </c>
+      <c r="BH58">
+        <v>3.8</v>
+      </c>
+      <c r="BI58">
+        <v>1.33</v>
+      </c>
+      <c r="BJ58">
+        <v>2.91</v>
+      </c>
+      <c r="BK58">
+        <v>1.6</v>
+      </c>
+      <c r="BL58">
+        <v>2.14</v>
+      </c>
+      <c r="BM58">
+        <v>2</v>
+      </c>
+      <c r="BN58">
+        <v>1.73</v>
+      </c>
+      <c r="BO58">
+        <v>2.6</v>
+      </c>
+      <c r="BP58">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7476594</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45542.45833333334</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>134</v>
+      </c>
+      <c r="P59" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q59">
+        <v>2.4</v>
+      </c>
+      <c r="R59">
+        <v>2.25</v>
+      </c>
+      <c r="S59">
+        <v>4.5</v>
+      </c>
+      <c r="T59">
+        <v>1.36</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="V59">
+        <v>2.75</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59">
+        <v>7</v>
+      </c>
+      <c r="Y59">
+        <v>1.1</v>
+      </c>
+      <c r="Z59">
+        <v>1.8</v>
+      </c>
+      <c r="AA59">
+        <v>3.5</v>
+      </c>
+      <c r="AB59">
+        <v>4</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>9</v>
+      </c>
+      <c r="AE59">
+        <v>1.28</v>
+      </c>
+      <c r="AF59">
+        <v>3.5</v>
+      </c>
+      <c r="AG59">
+        <v>1.95</v>
+      </c>
+      <c r="AH59">
+        <v>1.75</v>
+      </c>
+      <c r="AI59">
+        <v>1.73</v>
+      </c>
+      <c r="AJ59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
+        <v>1.2</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.95</v>
+      </c>
+      <c r="AN59">
+        <v>3</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>3</v>
+      </c>
+      <c r="AQ59">
+        <v>1.33</v>
+      </c>
+      <c r="AR59">
+        <v>1.21</v>
+      </c>
+      <c r="AS59">
+        <v>0.92</v>
+      </c>
+      <c r="AT59">
+        <v>2.13</v>
+      </c>
+      <c r="AU59">
+        <v>4</v>
+      </c>
+      <c r="AV59">
+        <v>2</v>
+      </c>
+      <c r="AW59">
+        <v>4</v>
+      </c>
+      <c r="AX59">
+        <v>1</v>
+      </c>
+      <c r="AY59">
+        <v>8</v>
+      </c>
+      <c r="AZ59">
+        <v>3</v>
+      </c>
+      <c r="BA59">
+        <v>3</v>
+      </c>
+      <c r="BB59">
+        <v>5</v>
+      </c>
+      <c r="BC59">
+        <v>8</v>
+      </c>
+      <c r="BD59">
+        <v>1.41</v>
+      </c>
+      <c r="BE59">
+        <v>8</v>
+      </c>
+      <c r="BF59">
+        <v>3.61</v>
+      </c>
+      <c r="BG59">
+        <v>1.25</v>
+      </c>
+      <c r="BH59">
+        <v>3.6</v>
+      </c>
+      <c r="BI59">
+        <v>1.42</v>
+      </c>
+      <c r="BJ59">
+        <v>2.62</v>
+      </c>
+      <c r="BK59">
+        <v>1.8</v>
+      </c>
+      <c r="BL59">
+        <v>2</v>
+      </c>
+      <c r="BM59">
+        <v>2.14</v>
+      </c>
+      <c r="BN59">
+        <v>1.68</v>
+      </c>
+      <c r="BO59">
+        <v>2.6</v>
+      </c>
+      <c r="BP59">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['27', '45+1']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -876,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1135,7 +1138,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1341,7 +1344,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1753,7 +1756,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1959,7 +1962,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2371,7 +2374,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2577,7 +2580,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2655,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -2783,7 +2786,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2989,7 +2992,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4019,7 +4022,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4431,7 +4434,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4637,7 +4640,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4843,7 +4846,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5130,7 +5133,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5461,7 +5464,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5873,7 +5876,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6079,7 +6082,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6903,7 +6906,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7521,7 +7524,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7727,7 +7730,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -7933,7 +7936,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8139,7 +8142,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8551,7 +8554,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8632,7 +8635,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -8963,7 +8966,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>2.4</v>
@@ -9169,7 +9172,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9375,7 +9378,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9581,7 +9584,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9659,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -9787,7 +9790,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9993,7 +9996,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10199,7 +10202,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10611,7 +10614,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11229,7 +11232,7 @@
         <v>127</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11641,7 +11644,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q53">
         <v>3.6</v>
@@ -11847,7 +11850,7 @@
         <v>103</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>2.5</v>
@@ -12259,7 +12262,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>2.63</v>
@@ -12465,7 +12468,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13034,6 +13037,212 @@
       </c>
       <c r="BP59">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7476606</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45547.66666666666</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>135</v>
+      </c>
+      <c r="P60" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q60">
+        <v>4.75</v>
+      </c>
+      <c r="R60">
+        <v>2.25</v>
+      </c>
+      <c r="S60">
+        <v>2.38</v>
+      </c>
+      <c r="T60">
+        <v>1.36</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60">
+        <v>2.63</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>7</v>
+      </c>
+      <c r="Y60">
+        <v>1.1</v>
+      </c>
+      <c r="Z60">
+        <v>3.93</v>
+      </c>
+      <c r="AA60">
+        <v>3.55</v>
+      </c>
+      <c r="AB60">
+        <v>1.79</v>
+      </c>
+      <c r="AC60">
+        <v>1.02</v>
+      </c>
+      <c r="AD60">
+        <v>10</v>
+      </c>
+      <c r="AE60">
+        <v>1.25</v>
+      </c>
+      <c r="AF60">
+        <v>3.6</v>
+      </c>
+      <c r="AG60">
+        <v>1.8</v>
+      </c>
+      <c r="AH60">
+        <v>1.9</v>
+      </c>
+      <c r="AI60">
+        <v>1.73</v>
+      </c>
+      <c r="AJ60">
+        <v>2</v>
+      </c>
+      <c r="AK60">
+        <v>2</v>
+      </c>
+      <c r="AL60">
+        <v>1.29</v>
+      </c>
+      <c r="AM60">
+        <v>1.22</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>1.5</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1.11</v>
+      </c>
+      <c r="AS60">
+        <v>1.24</v>
+      </c>
+      <c r="AT60">
+        <v>2.35</v>
+      </c>
+      <c r="AU60">
+        <v>5</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>2</v>
+      </c>
+      <c r="AX60">
+        <v>8</v>
+      </c>
+      <c r="AY60">
+        <v>7</v>
+      </c>
+      <c r="AZ60">
+        <v>14</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>6</v>
+      </c>
+      <c r="BC60">
+        <v>11</v>
+      </c>
+      <c r="BD60">
+        <v>3.1</v>
+      </c>
+      <c r="BE60">
+        <v>7.5</v>
+      </c>
+      <c r="BF60">
+        <v>1.51</v>
+      </c>
+      <c r="BG60">
+        <v>1.18</v>
+      </c>
+      <c r="BH60">
+        <v>4.33</v>
+      </c>
+      <c r="BI60">
+        <v>1.33</v>
+      </c>
+      <c r="BJ60">
+        <v>3</v>
+      </c>
+      <c r="BK60">
+        <v>1.57</v>
+      </c>
+      <c r="BL60">
+        <v>2.36</v>
+      </c>
+      <c r="BM60">
+        <v>1.98</v>
+      </c>
+      <c r="BN60">
+        <v>1.82</v>
+      </c>
+      <c r="BO60">
+        <v>2.4</v>
+      </c>
+      <c r="BP60">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,36 @@
     <t>['27', '45+1']</t>
   </si>
   <si>
+    <t>['11', '90', '90+7']</t>
+  </si>
+  <si>
+    <t>['4', '18', '21', '45']</t>
+  </si>
+  <si>
+    <t>['17', '83', '88']</t>
+  </si>
+  <si>
+    <t>['19', '88']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['60', '86']</t>
+  </si>
+  <si>
+    <t>['48', '82', '89']</t>
+  </si>
+  <si>
+    <t>['4', '6']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['42', '52']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -518,6 +548,21 @@
   </si>
   <si>
     <t>['50']</t>
+  </si>
+  <si>
+    <t>['43', '49', '64']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['13', '47', '56', '89']</t>
+  </si>
+  <si>
+    <t>['14', '26']</t>
+  </si>
+  <si>
+    <t>['10', '19', '67']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,7 +1183,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1344,7 +1389,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1425,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1631,7 +1676,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1756,7 +1801,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1837,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1962,7 +2007,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2374,7 +2419,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2580,7 +2625,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2786,7 +2831,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2867,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2992,7 +3037,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3070,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3279,7 +3324,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3688,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3894,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4022,7 +4067,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4100,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4434,7 +4479,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4515,7 +4560,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4640,7 +4685,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4718,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4846,7 +4891,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4924,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -5336,10 +5381,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5464,7 +5509,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5542,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -5876,7 +5921,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5957,7 +6002,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6082,7 +6127,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6906,7 +6951,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7524,7 +7569,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7730,7 +7775,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -7936,7 +7981,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8142,7 +8187,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8554,7 +8599,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8632,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8841,7 +8886,7 @@
         <v>3</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.62</v>
@@ -8966,7 +9011,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>2.4</v>
@@ -9172,7 +9217,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9250,10 +9295,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR41">
         <v>0</v>
@@ -9378,7 +9423,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9456,10 +9501,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.1</v>
@@ -9584,7 +9629,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9665,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.15</v>
@@ -9790,7 +9835,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9868,10 +9913,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.2</v>
@@ -9996,7 +10041,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10074,10 +10119,10 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.02</v>
@@ -10202,7 +10247,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10280,10 +10325,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
         <v>2.58</v>
@@ -10489,7 +10534,7 @@
         <v>3</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -10614,7 +10659,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -10692,10 +10737,10 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.43</v>
@@ -10898,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>0</v>
@@ -11232,7 +11277,7 @@
         <v>127</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11644,7 +11689,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q53">
         <v>3.6</v>
@@ -11850,7 +11895,7 @@
         <v>103</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>2.5</v>
@@ -12262,7 +12307,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>2.63</v>
@@ -12468,7 +12513,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13243,6 +13288,2272 @@
       </c>
       <c r="BP60">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7476600</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45549.35416666666</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>136</v>
+      </c>
+      <c r="P61" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="R61">
+        <v>2.25</v>
+      </c>
+      <c r="S61">
+        <v>3.4</v>
+      </c>
+      <c r="T61">
+        <v>1.33</v>
+      </c>
+      <c r="U61">
+        <v>3.25</v>
+      </c>
+      <c r="V61">
+        <v>2.63</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>6.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.11</v>
+      </c>
+      <c r="Z61">
+        <v>2.25</v>
+      </c>
+      <c r="AA61">
+        <v>3.3</v>
+      </c>
+      <c r="AB61">
+        <v>2.8</v>
+      </c>
+      <c r="AC61">
+        <v>1.04</v>
+      </c>
+      <c r="AD61">
+        <v>10</v>
+      </c>
+      <c r="AE61">
+        <v>1.22</v>
+      </c>
+      <c r="AF61">
+        <v>4</v>
+      </c>
+      <c r="AG61">
+        <v>1.79</v>
+      </c>
+      <c r="AH61">
+        <v>1.97</v>
+      </c>
+      <c r="AI61">
+        <v>1.62</v>
+      </c>
+      <c r="AJ61">
+        <v>2.2</v>
+      </c>
+      <c r="AK61">
+        <v>1.42</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.57</v>
+      </c>
+      <c r="AN61">
+        <v>3</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>3</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>1.47</v>
+      </c>
+      <c r="AS61">
+        <v>1.37</v>
+      </c>
+      <c r="AT61">
+        <v>2.84</v>
+      </c>
+      <c r="AU61">
+        <v>9</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>3</v>
+      </c>
+      <c r="AX61">
+        <v>4</v>
+      </c>
+      <c r="AY61">
+        <v>12</v>
+      </c>
+      <c r="AZ61">
+        <v>7</v>
+      </c>
+      <c r="BA61">
+        <v>2</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>6</v>
+      </c>
+      <c r="BD61">
+        <v>1.82</v>
+      </c>
+      <c r="BE61">
+        <v>8</v>
+      </c>
+      <c r="BF61">
+        <v>2.39</v>
+      </c>
+      <c r="BG61">
+        <v>1.3</v>
+      </c>
+      <c r="BH61">
+        <v>3.2</v>
+      </c>
+      <c r="BI61">
+        <v>1.52</v>
+      </c>
+      <c r="BJ61">
+        <v>2.47</v>
+      </c>
+      <c r="BK61">
+        <v>1.9</v>
+      </c>
+      <c r="BL61">
+        <v>1.9</v>
+      </c>
+      <c r="BM61">
+        <v>2.36</v>
+      </c>
+      <c r="BN61">
+        <v>1.56</v>
+      </c>
+      <c r="BO61">
+        <v>3</v>
+      </c>
+      <c r="BP61">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7476610</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45549.35416666666</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>137</v>
+      </c>
+      <c r="P62" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q62">
+        <v>2.25</v>
+      </c>
+      <c r="R62">
+        <v>2.4</v>
+      </c>
+      <c r="S62">
+        <v>4.5</v>
+      </c>
+      <c r="T62">
+        <v>1.3</v>
+      </c>
+      <c r="U62">
+        <v>3.4</v>
+      </c>
+      <c r="V62">
+        <v>2.38</v>
+      </c>
+      <c r="W62">
+        <v>1.53</v>
+      </c>
+      <c r="X62">
+        <v>6</v>
+      </c>
+      <c r="Y62">
+        <v>1.13</v>
+      </c>
+      <c r="Z62">
+        <v>1.73</v>
+      </c>
+      <c r="AA62">
+        <v>3.7</v>
+      </c>
+      <c r="AB62">
+        <v>4.3</v>
+      </c>
+      <c r="AC62">
+        <v>1.04</v>
+      </c>
+      <c r="AD62">
+        <v>10</v>
+      </c>
+      <c r="AE62">
+        <v>1.17</v>
+      </c>
+      <c r="AF62">
+        <v>4.2</v>
+      </c>
+      <c r="AG62">
+        <v>1.62</v>
+      </c>
+      <c r="AH62">
+        <v>2.15</v>
+      </c>
+      <c r="AI62">
+        <v>1.62</v>
+      </c>
+      <c r="AJ62">
+        <v>2.2</v>
+      </c>
+      <c r="AK62">
+        <v>1.2</v>
+      </c>
+      <c r="AL62">
+        <v>1.2</v>
+      </c>
+      <c r="AM62">
+        <v>2.1</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>1.5</v>
+      </c>
+      <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>1.82</v>
+      </c>
+      <c r="AS62">
+        <v>1.05</v>
+      </c>
+      <c r="AT62">
+        <v>2.87</v>
+      </c>
+      <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62">
+        <v>0</v>
+      </c>
+      <c r="AW62">
+        <v>6</v>
+      </c>
+      <c r="AX62">
+        <v>3</v>
+      </c>
+      <c r="AY62">
+        <v>13</v>
+      </c>
+      <c r="AZ62">
+        <v>3</v>
+      </c>
+      <c r="BA62">
+        <v>2</v>
+      </c>
+      <c r="BB62">
+        <v>1</v>
+      </c>
+      <c r="BC62">
+        <v>3</v>
+      </c>
+      <c r="BD62">
+        <v>1.37</v>
+      </c>
+      <c r="BE62">
+        <v>8.5</v>
+      </c>
+      <c r="BF62">
+        <v>3.86</v>
+      </c>
+      <c r="BG62">
+        <v>1.22</v>
+      </c>
+      <c r="BH62">
+        <v>3.8</v>
+      </c>
+      <c r="BI62">
+        <v>1.38</v>
+      </c>
+      <c r="BJ62">
+        <v>2.8</v>
+      </c>
+      <c r="BK62">
+        <v>1.77</v>
+      </c>
+      <c r="BL62">
+        <v>1.95</v>
+      </c>
+      <c r="BM62">
+        <v>2.01</v>
+      </c>
+      <c r="BN62">
+        <v>1.78</v>
+      </c>
+      <c r="BO62">
+        <v>2.4</v>
+      </c>
+      <c r="BP62">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7476607</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>6</v>
+      </c>
+      <c r="O63" t="s">
+        <v>138</v>
+      </c>
+      <c r="P63" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q63">
+        <v>3.75</v>
+      </c>
+      <c r="R63">
+        <v>2.1</v>
+      </c>
+      <c r="S63">
+        <v>2.88</v>
+      </c>
+      <c r="T63">
+        <v>1.4</v>
+      </c>
+      <c r="U63">
+        <v>2.75</v>
+      </c>
+      <c r="V63">
+        <v>3</v>
+      </c>
+      <c r="W63">
+        <v>1.36</v>
+      </c>
+      <c r="X63">
+        <v>9</v>
+      </c>
+      <c r="Y63">
+        <v>1.07</v>
+      </c>
+      <c r="Z63">
+        <v>2.85</v>
+      </c>
+      <c r="AA63">
+        <v>3.25</v>
+      </c>
+      <c r="AB63">
+        <v>2.3</v>
+      </c>
+      <c r="AC63">
+        <v>1.05</v>
+      </c>
+      <c r="AD63">
+        <v>9</v>
+      </c>
+      <c r="AE63">
+        <v>1.3</v>
+      </c>
+      <c r="AF63">
+        <v>3.35</v>
+      </c>
+      <c r="AG63">
+        <v>1.9</v>
+      </c>
+      <c r="AH63">
+        <v>1.72</v>
+      </c>
+      <c r="AI63">
+        <v>1.83</v>
+      </c>
+      <c r="AJ63">
+        <v>1.83</v>
+      </c>
+      <c r="AK63">
+        <v>1.62</v>
+      </c>
+      <c r="AL63">
+        <v>1.25</v>
+      </c>
+      <c r="AM63">
+        <v>1.36</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0.5</v>
+      </c>
+      <c r="AP63">
+        <v>0.33</v>
+      </c>
+      <c r="AQ63">
+        <v>0.67</v>
+      </c>
+      <c r="AR63">
+        <v>1.41</v>
+      </c>
+      <c r="AS63">
+        <v>1.17</v>
+      </c>
+      <c r="AT63">
+        <v>2.58</v>
+      </c>
+      <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
+        <v>9</v>
+      </c>
+      <c r="AW63">
+        <v>4</v>
+      </c>
+      <c r="AX63">
+        <v>12</v>
+      </c>
+      <c r="AY63">
+        <v>8</v>
+      </c>
+      <c r="AZ63">
+        <v>21</v>
+      </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>2</v>
+      </c>
+      <c r="BC63">
+        <v>2</v>
+      </c>
+      <c r="BD63">
+        <v>2.25</v>
+      </c>
+      <c r="BE63">
+        <v>7</v>
+      </c>
+      <c r="BF63">
+        <v>1.91</v>
+      </c>
+      <c r="BG63">
+        <v>1.2</v>
+      </c>
+      <c r="BH63">
+        <v>4</v>
+      </c>
+      <c r="BI63">
+        <v>1.36</v>
+      </c>
+      <c r="BJ63">
+        <v>2.9</v>
+      </c>
+      <c r="BK63">
+        <v>1.53</v>
+      </c>
+      <c r="BL63">
+        <v>2.44</v>
+      </c>
+      <c r="BM63">
+        <v>1.98</v>
+      </c>
+      <c r="BN63">
+        <v>1.82</v>
+      </c>
+      <c r="BO63">
+        <v>2.31</v>
+      </c>
+      <c r="BP63">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7476611</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s">
+        <v>92</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>139</v>
+      </c>
+      <c r="P64" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>2.2</v>
+      </c>
+      <c r="S64">
+        <v>3.5</v>
+      </c>
+      <c r="T64">
+        <v>1.4</v>
+      </c>
+      <c r="U64">
+        <v>2.75</v>
+      </c>
+      <c r="V64">
+        <v>2.75</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64">
+        <v>8</v>
+      </c>
+      <c r="Y64">
+        <v>1.08</v>
+      </c>
+      <c r="Z64">
+        <v>2.25</v>
+      </c>
+      <c r="AA64">
+        <v>3.25</v>
+      </c>
+      <c r="AB64">
+        <v>2.9</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>9</v>
+      </c>
+      <c r="AE64">
+        <v>1.3</v>
+      </c>
+      <c r="AF64">
+        <v>3.45</v>
+      </c>
+      <c r="AG64">
+        <v>1.76</v>
+      </c>
+      <c r="AH64">
+        <v>1.85</v>
+      </c>
+      <c r="AI64">
+        <v>1.73</v>
+      </c>
+      <c r="AJ64">
+        <v>2</v>
+      </c>
+      <c r="AK64">
+        <v>1.42</v>
+      </c>
+      <c r="AL64">
+        <v>1.25</v>
+      </c>
+      <c r="AM64">
+        <v>1.55</v>
+      </c>
+      <c r="AN64">
+        <v>3</v>
+      </c>
+      <c r="AO64">
+        <v>1.5</v>
+      </c>
+      <c r="AP64">
+        <v>3</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>1.57</v>
+      </c>
+      <c r="AS64">
+        <v>1.03</v>
+      </c>
+      <c r="AT64">
+        <v>2.6</v>
+      </c>
+      <c r="AU64">
+        <v>7</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>4</v>
+      </c>
+      <c r="AX64">
+        <v>2</v>
+      </c>
+      <c r="AY64">
+        <v>11</v>
+      </c>
+      <c r="AZ64">
+        <v>5</v>
+      </c>
+      <c r="BA64">
+        <v>7</v>
+      </c>
+      <c r="BB64">
+        <v>6</v>
+      </c>
+      <c r="BC64">
+        <v>13</v>
+      </c>
+      <c r="BD64">
+        <v>1.75</v>
+      </c>
+      <c r="BE64">
+        <v>7.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.45</v>
+      </c>
+      <c r="BG64">
+        <v>1.25</v>
+      </c>
+      <c r="BH64">
+        <v>3.6</v>
+      </c>
+      <c r="BI64">
+        <v>1.42</v>
+      </c>
+      <c r="BJ64">
+        <v>2.62</v>
+      </c>
+      <c r="BK64">
+        <v>1.77</v>
+      </c>
+      <c r="BL64">
+        <v>1.95</v>
+      </c>
+      <c r="BM64">
+        <v>2.15</v>
+      </c>
+      <c r="BN64">
+        <v>1.69</v>
+      </c>
+      <c r="BO64">
+        <v>2.62</v>
+      </c>
+      <c r="BP64">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7476608</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>90</v>
+      </c>
+      <c r="H65" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>140</v>
+      </c>
+      <c r="P65" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q65">
+        <v>3.1</v>
+      </c>
+      <c r="R65">
+        <v>2.2</v>
+      </c>
+      <c r="S65">
+        <v>3.4</v>
+      </c>
+      <c r="T65">
+        <v>1.4</v>
+      </c>
+      <c r="U65">
+        <v>2.75</v>
+      </c>
+      <c r="V65">
+        <v>2.75</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65">
+        <v>8</v>
+      </c>
+      <c r="Y65">
+        <v>1.08</v>
+      </c>
+      <c r="Z65">
+        <v>2.4</v>
+      </c>
+      <c r="AA65">
+        <v>3.3</v>
+      </c>
+      <c r="AB65">
+        <v>2.6</v>
+      </c>
+      <c r="AC65">
+        <v>1.05</v>
+      </c>
+      <c r="AD65">
+        <v>9.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.3</v>
+      </c>
+      <c r="AF65">
+        <v>3.45</v>
+      </c>
+      <c r="AG65">
+        <v>1.85</v>
+      </c>
+      <c r="AH65">
+        <v>1.76</v>
+      </c>
+      <c r="AI65">
+        <v>1.73</v>
+      </c>
+      <c r="AJ65">
+        <v>2</v>
+      </c>
+      <c r="AK65">
+        <v>1.42</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>1.55</v>
+      </c>
+      <c r="AN65">
+        <v>0.5</v>
+      </c>
+      <c r="AO65">
+        <v>1.5</v>
+      </c>
+      <c r="AP65">
+        <v>1.33</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1.4</v>
+      </c>
+      <c r="AS65">
+        <v>1.84</v>
+      </c>
+      <c r="AT65">
+        <v>3.24</v>
+      </c>
+      <c r="AU65">
+        <v>5</v>
+      </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <v>4</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>9</v>
+      </c>
+      <c r="AZ65">
+        <v>4</v>
+      </c>
+      <c r="BA65">
+        <v>2</v>
+      </c>
+      <c r="BB65">
+        <v>7</v>
+      </c>
+      <c r="BC65">
+        <v>9</v>
+      </c>
+      <c r="BD65">
+        <v>1.82</v>
+      </c>
+      <c r="BE65">
+        <v>7.5</v>
+      </c>
+      <c r="BF65">
+        <v>2.42</v>
+      </c>
+      <c r="BG65">
+        <v>1.22</v>
+      </c>
+      <c r="BH65">
+        <v>3.8</v>
+      </c>
+      <c r="BI65">
+        <v>1.4</v>
+      </c>
+      <c r="BJ65">
+        <v>2.7</v>
+      </c>
+      <c r="BK65">
+        <v>1.67</v>
+      </c>
+      <c r="BL65">
+        <v>2.1</v>
+      </c>
+      <c r="BM65">
+        <v>1.95</v>
+      </c>
+      <c r="BN65">
+        <v>1.77</v>
+      </c>
+      <c r="BO65">
+        <v>2.6</v>
+      </c>
+      <c r="BP65">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7476609</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>141</v>
+      </c>
+      <c r="P66" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q66">
+        <v>2.5</v>
+      </c>
+      <c r="R66">
+        <v>2.2</v>
+      </c>
+      <c r="S66">
+        <v>4.5</v>
+      </c>
+      <c r="T66">
+        <v>1.4</v>
+      </c>
+      <c r="U66">
+        <v>2.75</v>
+      </c>
+      <c r="V66">
+        <v>2.75</v>
+      </c>
+      <c r="W66">
+        <v>1.4</v>
+      </c>
+      <c r="X66">
+        <v>8</v>
+      </c>
+      <c r="Y66">
+        <v>1.08</v>
+      </c>
+      <c r="Z66">
+        <v>1.9</v>
+      </c>
+      <c r="AA66">
+        <v>3.5</v>
+      </c>
+      <c r="AB66">
+        <v>3.8</v>
+      </c>
+      <c r="AC66">
+        <v>1.05</v>
+      </c>
+      <c r="AD66">
+        <v>9</v>
+      </c>
+      <c r="AE66">
+        <v>1.3</v>
+      </c>
+      <c r="AF66">
+        <v>3.4</v>
+      </c>
+      <c r="AG66">
+        <v>1.9</v>
+      </c>
+      <c r="AH66">
+        <v>1.72</v>
+      </c>
+      <c r="AI66">
+        <v>1.8</v>
+      </c>
+      <c r="AJ66">
+        <v>1.91</v>
+      </c>
+      <c r="AK66">
+        <v>1.25</v>
+      </c>
+      <c r="AL66">
+        <v>1.22</v>
+      </c>
+      <c r="AM66">
+        <v>1.83</v>
+      </c>
+      <c r="AN66">
+        <v>1.5</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>2</v>
+      </c>
+      <c r="AQ66">
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <v>1.34</v>
+      </c>
+      <c r="AS66">
+        <v>0.99</v>
+      </c>
+      <c r="AT66">
+        <v>2.33</v>
+      </c>
+      <c r="AU66">
+        <v>4</v>
+      </c>
+      <c r="AV66">
+        <v>4</v>
+      </c>
+      <c r="AW66">
+        <v>1</v>
+      </c>
+      <c r="AX66">
+        <v>1</v>
+      </c>
+      <c r="AY66">
+        <v>5</v>
+      </c>
+      <c r="AZ66">
+        <v>5</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
+        <v>6</v>
+      </c>
+      <c r="BC66">
+        <v>10</v>
+      </c>
+      <c r="BD66">
+        <v>1.64</v>
+      </c>
+      <c r="BE66">
+        <v>7.5</v>
+      </c>
+      <c r="BF66">
+        <v>2.78</v>
+      </c>
+      <c r="BG66">
+        <v>1.25</v>
+      </c>
+      <c r="BH66">
+        <v>3.6</v>
+      </c>
+      <c r="BI66">
+        <v>1.42</v>
+      </c>
+      <c r="BJ66">
+        <v>2.62</v>
+      </c>
+      <c r="BK66">
+        <v>1.67</v>
+      </c>
+      <c r="BL66">
+        <v>2.1</v>
+      </c>
+      <c r="BM66">
+        <v>2.05</v>
+      </c>
+      <c r="BN66">
+        <v>1.7</v>
+      </c>
+      <c r="BO66">
+        <v>2.62</v>
+      </c>
+      <c r="BP66">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7476604</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67" t="s">
+        <v>142</v>
+      </c>
+      <c r="P67" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q67">
+        <v>2.63</v>
+      </c>
+      <c r="R67">
+        <v>2.1</v>
+      </c>
+      <c r="S67">
+        <v>4.33</v>
+      </c>
+      <c r="T67">
+        <v>1.4</v>
+      </c>
+      <c r="U67">
+        <v>2.75</v>
+      </c>
+      <c r="V67">
+        <v>3</v>
+      </c>
+      <c r="W67">
+        <v>1.36</v>
+      </c>
+      <c r="X67">
+        <v>8</v>
+      </c>
+      <c r="Y67">
+        <v>1.08</v>
+      </c>
+      <c r="Z67">
+        <v>1.9</v>
+      </c>
+      <c r="AA67">
+        <v>3.25</v>
+      </c>
+      <c r="AB67">
+        <v>3.9</v>
+      </c>
+      <c r="AC67">
+        <v>1.06</v>
+      </c>
+      <c r="AD67">
+        <v>8.5</v>
+      </c>
+      <c r="AE67">
+        <v>1.33</v>
+      </c>
+      <c r="AF67">
+        <v>3.3</v>
+      </c>
+      <c r="AG67">
+        <v>1.9</v>
+      </c>
+      <c r="AH67">
+        <v>1.8</v>
+      </c>
+      <c r="AI67">
+        <v>1.8</v>
+      </c>
+      <c r="AJ67">
+        <v>1.91</v>
+      </c>
+      <c r="AK67">
+        <v>1.25</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.77</v>
+      </c>
+      <c r="AN67">
+        <v>3</v>
+      </c>
+      <c r="AO67">
+        <v>2</v>
+      </c>
+      <c r="AP67">
+        <v>3</v>
+      </c>
+      <c r="AQ67">
+        <v>1.33</v>
+      </c>
+      <c r="AR67">
+        <v>1.34</v>
+      </c>
+      <c r="AS67">
+        <v>0.8</v>
+      </c>
+      <c r="AT67">
+        <v>2.14</v>
+      </c>
+      <c r="AU67">
+        <v>6</v>
+      </c>
+      <c r="AV67">
+        <v>6</v>
+      </c>
+      <c r="AW67">
+        <v>6</v>
+      </c>
+      <c r="AX67">
+        <v>5</v>
+      </c>
+      <c r="AY67">
+        <v>12</v>
+      </c>
+      <c r="AZ67">
+        <v>11</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>10</v>
+      </c>
+      <c r="BC67">
+        <v>15</v>
+      </c>
+      <c r="BD67">
+        <v>1.55</v>
+      </c>
+      <c r="BE67">
+        <v>8</v>
+      </c>
+      <c r="BF67">
+        <v>3.02</v>
+      </c>
+      <c r="BG67">
+        <v>1.2</v>
+      </c>
+      <c r="BH67">
+        <v>4</v>
+      </c>
+      <c r="BI67">
+        <v>1.36</v>
+      </c>
+      <c r="BJ67">
+        <v>2.9</v>
+      </c>
+      <c r="BK67">
+        <v>1.7</v>
+      </c>
+      <c r="BL67">
+        <v>2.05</v>
+      </c>
+      <c r="BM67">
+        <v>1.9</v>
+      </c>
+      <c r="BN67">
+        <v>1.9</v>
+      </c>
+      <c r="BO67">
+        <v>2.39</v>
+      </c>
+      <c r="BP67">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7476601</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>84</v>
+      </c>
+      <c r="H68" t="s">
+        <v>86</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>101</v>
+      </c>
+      <c r="P68" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q68">
+        <v>2.88</v>
+      </c>
+      <c r="R68">
+        <v>2.25</v>
+      </c>
+      <c r="S68">
+        <v>3.4</v>
+      </c>
+      <c r="T68">
+        <v>1.36</v>
+      </c>
+      <c r="U68">
+        <v>3</v>
+      </c>
+      <c r="V68">
+        <v>2.63</v>
+      </c>
+      <c r="W68">
+        <v>1.44</v>
+      </c>
+      <c r="X68">
+        <v>7</v>
+      </c>
+      <c r="Y68">
+        <v>1.1</v>
+      </c>
+      <c r="Z68">
+        <v>2.3</v>
+      </c>
+      <c r="AA68">
+        <v>3.3</v>
+      </c>
+      <c r="AB68">
+        <v>2.8</v>
+      </c>
+      <c r="AC68">
+        <v>1.05</v>
+      </c>
+      <c r="AD68">
+        <v>9.5</v>
+      </c>
+      <c r="AE68">
+        <v>1.25</v>
+      </c>
+      <c r="AF68">
+        <v>3.75</v>
+      </c>
+      <c r="AG68">
+        <v>1.75</v>
+      </c>
+      <c r="AH68">
+        <v>1.95</v>
+      </c>
+      <c r="AI68">
+        <v>1.62</v>
+      </c>
+      <c r="AJ68">
+        <v>2.2</v>
+      </c>
+      <c r="AK68">
+        <v>1.4</v>
+      </c>
+      <c r="AL68">
+        <v>1.25</v>
+      </c>
+      <c r="AM68">
+        <v>1.57</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1.5</v>
+      </c>
+      <c r="AP68">
+        <v>0.67</v>
+      </c>
+      <c r="AQ68">
+        <v>2</v>
+      </c>
+      <c r="AR68">
+        <v>1.88</v>
+      </c>
+      <c r="AS68">
+        <v>1.14</v>
+      </c>
+      <c r="AT68">
+        <v>3.02</v>
+      </c>
+      <c r="AU68">
+        <v>2</v>
+      </c>
+      <c r="AV68">
+        <v>4</v>
+      </c>
+      <c r="AW68">
+        <v>2</v>
+      </c>
+      <c r="AX68">
+        <v>2</v>
+      </c>
+      <c r="AY68">
+        <v>4</v>
+      </c>
+      <c r="AZ68">
+        <v>6</v>
+      </c>
+      <c r="BA68">
+        <v>3</v>
+      </c>
+      <c r="BB68">
+        <v>1</v>
+      </c>
+      <c r="BC68">
+        <v>4</v>
+      </c>
+      <c r="BD68">
+        <v>1.75</v>
+      </c>
+      <c r="BE68">
+        <v>7</v>
+      </c>
+      <c r="BF68">
+        <v>2.46</v>
+      </c>
+      <c r="BG68">
+        <v>1.18</v>
+      </c>
+      <c r="BH68">
+        <v>4.33</v>
+      </c>
+      <c r="BI68">
+        <v>1.33</v>
+      </c>
+      <c r="BJ68">
+        <v>3</v>
+      </c>
+      <c r="BK68">
+        <v>1.54</v>
+      </c>
+      <c r="BL68">
+        <v>2.42</v>
+      </c>
+      <c r="BM68">
+        <v>1.92</v>
+      </c>
+      <c r="BN68">
+        <v>1.88</v>
+      </c>
+      <c r="BO68">
+        <v>2.36</v>
+      </c>
+      <c r="BP68">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7476602</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69" t="s">
+        <v>93</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+      <c r="N69">
+        <v>6</v>
+      </c>
+      <c r="O69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P69" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q69">
+        <v>3.2</v>
+      </c>
+      <c r="R69">
+        <v>2.3</v>
+      </c>
+      <c r="S69">
+        <v>3</v>
+      </c>
+      <c r="T69">
+        <v>1.3</v>
+      </c>
+      <c r="U69">
+        <v>3.4</v>
+      </c>
+      <c r="V69">
+        <v>2.5</v>
+      </c>
+      <c r="W69">
+        <v>1.5</v>
+      </c>
+      <c r="X69">
+        <v>6</v>
+      </c>
+      <c r="Y69">
+        <v>1.13</v>
+      </c>
+      <c r="Z69">
+        <v>2.6</v>
+      </c>
+      <c r="AA69">
+        <v>3.35</v>
+      </c>
+      <c r="AB69">
+        <v>2.4</v>
+      </c>
+      <c r="AC69">
+        <v>1.04</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.2</v>
+      </c>
+      <c r="AF69">
+        <v>4.33</v>
+      </c>
+      <c r="AG69">
+        <v>1.6</v>
+      </c>
+      <c r="AH69">
+        <v>2.2</v>
+      </c>
+      <c r="AI69">
+        <v>1.53</v>
+      </c>
+      <c r="AJ69">
+        <v>2.38</v>
+      </c>
+      <c r="AK69">
+        <v>1.5</v>
+      </c>
+      <c r="AL69">
+        <v>1.25</v>
+      </c>
+      <c r="AM69">
+        <v>1.45</v>
+      </c>
+      <c r="AN69">
+        <v>1.5</v>
+      </c>
+      <c r="AO69">
+        <v>2</v>
+      </c>
+      <c r="AP69">
+        <v>1</v>
+      </c>
+      <c r="AQ69">
+        <v>2.33</v>
+      </c>
+      <c r="AR69">
+        <v>1.03</v>
+      </c>
+      <c r="AS69">
+        <v>0.92</v>
+      </c>
+      <c r="AT69">
+        <v>1.95</v>
+      </c>
+      <c r="AU69">
+        <v>8</v>
+      </c>
+      <c r="AV69">
+        <v>9</v>
+      </c>
+      <c r="AW69">
+        <v>4</v>
+      </c>
+      <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
+        <v>12</v>
+      </c>
+      <c r="AZ69">
+        <v>14</v>
+      </c>
+      <c r="BA69">
+        <v>5</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
+        <v>7</v>
+      </c>
+      <c r="BD69">
+        <v>1.91</v>
+      </c>
+      <c r="BE69">
+        <v>7</v>
+      </c>
+      <c r="BF69">
+        <v>2.2</v>
+      </c>
+      <c r="BG69">
+        <v>1.22</v>
+      </c>
+      <c r="BH69">
+        <v>3.8</v>
+      </c>
+      <c r="BI69">
+        <v>1.36</v>
+      </c>
+      <c r="BJ69">
+        <v>2.88</v>
+      </c>
+      <c r="BK69">
+        <v>1.62</v>
+      </c>
+      <c r="BL69">
+        <v>2.2</v>
+      </c>
+      <c r="BM69">
+        <v>2</v>
+      </c>
+      <c r="BN69">
+        <v>1.8</v>
+      </c>
+      <c r="BO69">
+        <v>2.4</v>
+      </c>
+      <c r="BP69">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7476605</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>144</v>
+      </c>
+      <c r="P70" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q70">
+        <v>3.25</v>
+      </c>
+      <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>3.4</v>
+      </c>
+      <c r="T70">
+        <v>1.4</v>
+      </c>
+      <c r="U70">
+        <v>2.75</v>
+      </c>
+      <c r="V70">
+        <v>3</v>
+      </c>
+      <c r="W70">
+        <v>1.36</v>
+      </c>
+      <c r="X70">
+        <v>8</v>
+      </c>
+      <c r="Y70">
+        <v>1.08</v>
+      </c>
+      <c r="Z70">
+        <v>2.45</v>
+      </c>
+      <c r="AA70">
+        <v>3.25</v>
+      </c>
+      <c r="AB70">
+        <v>2.65</v>
+      </c>
+      <c r="AC70">
+        <v>1.05</v>
+      </c>
+      <c r="AD70">
+        <v>9</v>
+      </c>
+      <c r="AE70">
+        <v>1.33</v>
+      </c>
+      <c r="AF70">
+        <v>3.3</v>
+      </c>
+      <c r="AG70">
+        <v>1.9</v>
+      </c>
+      <c r="AH70">
+        <v>1.72</v>
+      </c>
+      <c r="AI70">
+        <v>1.8</v>
+      </c>
+      <c r="AJ70">
+        <v>1.91</v>
+      </c>
+      <c r="AK70">
+        <v>1.5</v>
+      </c>
+      <c r="AL70">
+        <v>1.25</v>
+      </c>
+      <c r="AM70">
+        <v>1.48</v>
+      </c>
+      <c r="AN70">
+        <v>3</v>
+      </c>
+      <c r="AO70">
+        <v>1.5</v>
+      </c>
+      <c r="AP70">
+        <v>2</v>
+      </c>
+      <c r="AQ70">
+        <v>2</v>
+      </c>
+      <c r="AR70">
+        <v>1.23</v>
+      </c>
+      <c r="AS70">
+        <v>1.04</v>
+      </c>
+      <c r="AT70">
+        <v>2.27</v>
+      </c>
+      <c r="AU70">
+        <v>4</v>
+      </c>
+      <c r="AV70">
+        <v>7</v>
+      </c>
+      <c r="AW70">
+        <v>1</v>
+      </c>
+      <c r="AX70">
+        <v>4</v>
+      </c>
+      <c r="AY70">
+        <v>5</v>
+      </c>
+      <c r="AZ70">
+        <v>11</v>
+      </c>
+      <c r="BA70">
+        <v>7</v>
+      </c>
+      <c r="BB70">
+        <v>6</v>
+      </c>
+      <c r="BC70">
+        <v>13</v>
+      </c>
+      <c r="BD70">
+        <v>1.85</v>
+      </c>
+      <c r="BE70">
+        <v>7</v>
+      </c>
+      <c r="BF70">
+        <v>2.34</v>
+      </c>
+      <c r="BG70">
+        <v>1.2</v>
+      </c>
+      <c r="BH70">
+        <v>4</v>
+      </c>
+      <c r="BI70">
+        <v>1.36</v>
+      </c>
+      <c r="BJ70">
+        <v>2.9</v>
+      </c>
+      <c r="BK70">
+        <v>1.7</v>
+      </c>
+      <c r="BL70">
+        <v>2.05</v>
+      </c>
+      <c r="BM70">
+        <v>1.98</v>
+      </c>
+      <c r="BN70">
+        <v>1.82</v>
+      </c>
+      <c r="BO70">
+        <v>2.49</v>
+      </c>
+      <c r="BP70">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7476603</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <v>5</v>
+      </c>
+      <c r="O71" t="s">
+        <v>145</v>
+      </c>
+      <c r="P71" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q71">
+        <v>3</v>
+      </c>
+      <c r="R71">
+        <v>2.2</v>
+      </c>
+      <c r="S71">
+        <v>3.5</v>
+      </c>
+      <c r="T71">
+        <v>1.4</v>
+      </c>
+      <c r="U71">
+        <v>2.75</v>
+      </c>
+      <c r="V71">
+        <v>2.75</v>
+      </c>
+      <c r="W71">
+        <v>1.4</v>
+      </c>
+      <c r="X71">
+        <v>8</v>
+      </c>
+      <c r="Y71">
+        <v>1.08</v>
+      </c>
+      <c r="Z71">
+        <v>2.4</v>
+      </c>
+      <c r="AA71">
+        <v>3.25</v>
+      </c>
+      <c r="AB71">
+        <v>2.75</v>
+      </c>
+      <c r="AC71">
+        <v>1.05</v>
+      </c>
+      <c r="AD71">
+        <v>9</v>
+      </c>
+      <c r="AE71">
+        <v>1.28</v>
+      </c>
+      <c r="AF71">
+        <v>3.65</v>
+      </c>
+      <c r="AG71">
+        <v>1.76</v>
+      </c>
+      <c r="AH71">
+        <v>1.85</v>
+      </c>
+      <c r="AI71">
+        <v>1.73</v>
+      </c>
+      <c r="AJ71">
+        <v>2</v>
+      </c>
+      <c r="AK71">
+        <v>1.35</v>
+      </c>
+      <c r="AL71">
+        <v>1.25</v>
+      </c>
+      <c r="AM71">
+        <v>1.62</v>
+      </c>
+      <c r="AN71">
+        <v>1.5</v>
+      </c>
+      <c r="AO71">
+        <v>0.5</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1.33</v>
+      </c>
+      <c r="AR71">
+        <v>1.35</v>
+      </c>
+      <c r="AS71">
+        <v>1.02</v>
+      </c>
+      <c r="AT71">
+        <v>2.37</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>5</v>
+      </c>
+      <c r="AW71">
+        <v>2</v>
+      </c>
+      <c r="AX71">
+        <v>4</v>
+      </c>
+      <c r="AY71">
+        <v>9</v>
+      </c>
+      <c r="AZ71">
+        <v>9</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>7</v>
+      </c>
+      <c r="BD71">
+        <v>1.69</v>
+      </c>
+      <c r="BE71">
+        <v>7.5</v>
+      </c>
+      <c r="BF71">
+        <v>2.65</v>
+      </c>
+      <c r="BG71">
+        <v>1.22</v>
+      </c>
+      <c r="BH71">
+        <v>3.8</v>
+      </c>
+      <c r="BI71">
+        <v>1.36</v>
+      </c>
+      <c r="BJ71">
+        <v>2.88</v>
+      </c>
+      <c r="BK71">
+        <v>1.62</v>
+      </c>
+      <c r="BL71">
+        <v>2.2</v>
+      </c>
+      <c r="BM71">
+        <v>1.95</v>
+      </c>
+      <c r="BN71">
+        <v>1.85</v>
+      </c>
+      <c r="BO71">
+        <v>2.4</v>
+      </c>
+      <c r="BP71">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -13654,13 +13654,13 @@
         <v>3</v>
       </c>
       <c r="BA62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB62">
         <v>1</v>
       </c>
       <c r="BC62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD62">
         <v>1.37</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,12 +373,12 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['21']</t>
+  </si>
+  <si>
     <t>['48', '66']</t>
   </si>
   <si>
-    <t>['21']</t>
-  </si>
-  <si>
     <t>['7']</t>
   </si>
   <si>
@@ -397,30 +397,30 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['18', '67']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['2', '70']</t>
   </si>
   <si>
-    <t>['18', '67']</t>
-  </si>
-  <si>
-    <t>['24']</t>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['27', '45+2']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
   <si>
     <t>['43']</t>
   </si>
   <si>
-    <t>['60']</t>
-  </si>
-  <si>
-    <t>['27', '45+2']</t>
-  </si>
-  <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
-    <t>['30']</t>
-  </si>
-  <si>
     <t>['27', '45+1']</t>
   </si>
   <si>
@@ -436,12 +436,12 @@
     <t>['19', '88']</t>
   </si>
   <si>
+    <t>['60', '86']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
-    <t>['60', '86']</t>
-  </si>
-  <si>
     <t>['48', '82', '89']</t>
   </si>
   <si>
@@ -454,6 +454,12 @@
     <t>['42', '52']</t>
   </si>
   <si>
+    <t>['29', '43']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -514,18 +520,18 @@
     <t>['16', '46', '58']</t>
   </si>
   <si>
+    <t>['30', '80']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
-    <t>['30', '80']</t>
-  </si>
-  <si>
-    <t>['9']</t>
-  </si>
-  <si>
-    <t>['74']</t>
-  </si>
-  <si>
     <t>['6', '37']</t>
   </si>
   <si>
@@ -535,21 +541,21 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['6', '36', '48', '54']</t>
+  </si>
+  <si>
     <t>['58']</t>
   </si>
   <si>
-    <t>['6', '36', '48', '54']</t>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['50']</t>
   </si>
   <si>
     <t>['90+8']</t>
   </si>
   <si>
-    <t>['23']</t>
-  </si>
-  <si>
-    <t>['50']</t>
-  </si>
-  <si>
     <t>['43', '49', '64']</t>
   </si>
   <si>
@@ -563,6 +569,12 @@
   </si>
   <si>
     <t>['10', '19', '67']</t>
+  </si>
+  <si>
+    <t>['90', '90+5']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -924,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1183,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1261,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1389,7 +1401,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1801,7 +1813,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2007,7 +2019,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2419,7 +2431,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2625,7 +2637,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2831,7 +2843,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3037,7 +3049,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3118,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4067,7 +4079,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4145,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4479,7 +4491,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4685,7 +4697,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4766,7 +4778,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4891,7 +4903,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5097,7 +5109,7 @@
         <v>108</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>4.33</v>
@@ -5509,7 +5521,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5921,7 +5933,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6127,7 +6139,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6951,7 +6963,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7569,7 +7581,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7647,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7775,7 +7787,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -7981,7 +7993,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8187,7 +8199,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8474,7 +8486,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR37">
         <v>1.13</v>
@@ -8599,7 +8611,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8969,7 +8981,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7476588</v>
+        <v>7476587</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -8984,25 +8996,25 @@
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40">
         <v>3</v>
@@ -9011,145 +9023,145 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
         <v>2.4</v>
       </c>
-      <c r="R40">
-        <v>2.3</v>
-      </c>
       <c r="S40">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U40">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V40">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W40">
+        <v>1.62</v>
+      </c>
+      <c r="X40">
+        <v>5</v>
+      </c>
+      <c r="Y40">
+        <v>1.17</v>
+      </c>
+      <c r="Z40">
+        <v>2.37</v>
+      </c>
+      <c r="AA40">
+        <v>3.9</v>
+      </c>
+      <c r="AB40">
+        <v>2.55</v>
+      </c>
+      <c r="AC40">
+        <v>1.02</v>
+      </c>
+      <c r="AD40">
+        <v>20</v>
+      </c>
+      <c r="AE40">
+        <v>1.13</v>
+      </c>
+      <c r="AF40">
+        <v>5</v>
+      </c>
+      <c r="AG40">
         <v>1.5</v>
       </c>
-      <c r="X40">
-        <v>6.5</v>
-      </c>
-      <c r="Y40">
-        <v>1.11</v>
-      </c>
-      <c r="Z40">
-        <v>1.98</v>
-      </c>
-      <c r="AA40">
-        <v>3.4</v>
-      </c>
-      <c r="AB40">
-        <v>3.6</v>
-      </c>
-      <c r="AC40">
-        <v>1.03</v>
-      </c>
-      <c r="AD40">
-        <v>14</v>
-      </c>
-      <c r="AE40">
-        <v>1.2</v>
-      </c>
-      <c r="AF40">
-        <v>4</v>
-      </c>
-      <c r="AG40">
-        <v>1.68</v>
-      </c>
       <c r="AH40">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="AI40">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AJ40">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AK40">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AL40">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AM40">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AR40">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="AT40">
-        <v>2</v>
+        <v>0.96</v>
       </c>
       <c r="AU40">
         <v>7</v>
       </c>
       <c r="AV40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW40">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AX40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY40">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC40">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD40">
-        <v>1.51</v>
+        <v>1.85</v>
       </c>
       <c r="BE40">
         <v>7.5</v>
       </c>
       <c r="BF40">
-        <v>3.27</v>
+        <v>2.29</v>
       </c>
       <c r="BG40">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="BH40">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="BI40">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="BJ40">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="BK40">
         <v>1.7</v>
@@ -9158,16 +9170,16 @@
         <v>2.05</v>
       </c>
       <c r="BM40">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="BN40">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="BO40">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="BP40">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9175,7 +9187,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7476587</v>
+        <v>7476584</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9190,139 +9202,139 @@
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R41">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="T41">
+        <v>1.36</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>2.75</v>
+      </c>
+      <c r="W41">
+        <v>1.4</v>
+      </c>
+      <c r="X41">
+        <v>7</v>
+      </c>
+      <c r="Y41">
+        <v>1.1</v>
+      </c>
+      <c r="Z41">
+        <v>2.15</v>
+      </c>
+      <c r="AA41">
+        <v>3.5</v>
+      </c>
+      <c r="AB41">
+        <v>3.1</v>
+      </c>
+      <c r="AC41">
+        <v>1.05</v>
+      </c>
+      <c r="AD41">
+        <v>9</v>
+      </c>
+      <c r="AE41">
+        <v>1.28</v>
+      </c>
+      <c r="AF41">
+        <v>3.6</v>
+      </c>
+      <c r="AG41">
+        <v>1.81</v>
+      </c>
+      <c r="AH41">
+        <v>1.91</v>
+      </c>
+      <c r="AI41">
+        <v>1.67</v>
+      </c>
+      <c r="AJ41">
+        <v>2.1</v>
+      </c>
+      <c r="AK41">
+        <v>1.33</v>
+      </c>
+      <c r="AL41">
         <v>1.25</v>
       </c>
-      <c r="U41">
-        <v>3.75</v>
-      </c>
-      <c r="V41">
-        <v>2.2</v>
-      </c>
-      <c r="W41">
-        <v>1.62</v>
-      </c>
-      <c r="X41">
+      <c r="AM41">
+        <v>1.65</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0.33</v>
+      </c>
+      <c r="AQ41">
+        <v>1</v>
+      </c>
+      <c r="AR41">
+        <v>1.1</v>
+      </c>
+      <c r="AS41">
+        <v>1.42</v>
+      </c>
+      <c r="AT41">
+        <v>2.52</v>
+      </c>
+      <c r="AU41">
         <v>5</v>
       </c>
-      <c r="Y41">
-        <v>1.17</v>
-      </c>
-      <c r="Z41">
-        <v>2.37</v>
-      </c>
-      <c r="AA41">
-        <v>3.9</v>
-      </c>
-      <c r="AB41">
-        <v>2.55</v>
-      </c>
-      <c r="AC41">
-        <v>1.02</v>
-      </c>
-      <c r="AD41">
-        <v>20</v>
-      </c>
-      <c r="AE41">
-        <v>1.13</v>
-      </c>
-      <c r="AF41">
-        <v>5</v>
-      </c>
-      <c r="AG41">
-        <v>1.5</v>
-      </c>
-      <c r="AH41">
-        <v>2.4</v>
-      </c>
-      <c r="AI41">
-        <v>1.44</v>
-      </c>
-      <c r="AJ41">
-        <v>2.63</v>
-      </c>
-      <c r="AK41">
-        <v>1.5</v>
-      </c>
-      <c r="AL41">
-        <v>1.29</v>
-      </c>
-      <c r="AM41">
-        <v>1.53</v>
-      </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
-      <c r="AO41">
-        <v>1</v>
-      </c>
-      <c r="AP41">
-        <v>1</v>
-      </c>
-      <c r="AQ41">
-        <v>2.33</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <v>0.96</v>
-      </c>
-      <c r="AT41">
-        <v>0.96</v>
-      </c>
-      <c r="AU41">
-        <v>7</v>
-      </c>
       <c r="AV41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW41">
         <v>8</v>
       </c>
       <c r="AX41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ41">
         <v>6</v>
@@ -9331,19 +9343,19 @@
         <v>9</v>
       </c>
       <c r="BB41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC41">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD41">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="BE41">
         <v>7.5</v>
       </c>
       <c r="BF41">
-        <v>2.29</v>
+        <v>2.78</v>
       </c>
       <c r="BG41">
         <v>1.2</v>
@@ -9352,28 +9364,28 @@
         <v>4</v>
       </c>
       <c r="BI41">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="BJ41">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="BK41">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="BL41">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="BM41">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="BN41">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="BO41">
-        <v>2.43</v>
+        <v>2.52</v>
       </c>
       <c r="BP41">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9381,7 +9393,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7476584</v>
+        <v>7476583</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9396,19 +9408,19 @@
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -9423,76 +9435,76 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q42">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="R42">
+        <v>2.1</v>
+      </c>
+      <c r="S42">
+        <v>3</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42">
+        <v>2.75</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1.36</v>
+      </c>
+      <c r="X42">
+        <v>8</v>
+      </c>
+      <c r="Y42">
+        <v>1.08</v>
+      </c>
+      <c r="Z42">
+        <v>3</v>
+      </c>
+      <c r="AA42">
+        <v>3.4</v>
+      </c>
+      <c r="AB42">
         <v>2.2</v>
       </c>
-      <c r="S42">
-        <v>3.6</v>
-      </c>
-      <c r="T42">
-        <v>1.36</v>
-      </c>
-      <c r="U42">
-        <v>3</v>
-      </c>
-      <c r="V42">
-        <v>2.75</v>
-      </c>
-      <c r="W42">
-        <v>1.4</v>
-      </c>
-      <c r="X42">
-        <v>7</v>
-      </c>
-      <c r="Y42">
-        <v>1.1</v>
-      </c>
-      <c r="Z42">
-        <v>2.15</v>
-      </c>
-      <c r="AA42">
-        <v>3.5</v>
-      </c>
-      <c r="AB42">
-        <v>3.1</v>
-      </c>
       <c r="AC42">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD42">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE42">
+        <v>1.33</v>
+      </c>
+      <c r="AF42">
+        <v>3.25</v>
+      </c>
+      <c r="AG42">
+        <v>1.93</v>
+      </c>
+      <c r="AH42">
+        <v>1.79</v>
+      </c>
+      <c r="AI42">
+        <v>1.73</v>
+      </c>
+      <c r="AJ42">
+        <v>2</v>
+      </c>
+      <c r="AK42">
+        <v>1.6</v>
+      </c>
+      <c r="AL42">
         <v>1.28</v>
       </c>
-      <c r="AF42">
-        <v>3.6</v>
-      </c>
-      <c r="AG42">
-        <v>1.81</v>
-      </c>
-      <c r="AH42">
-        <v>1.91</v>
-      </c>
-      <c r="AI42">
-        <v>1.67</v>
-      </c>
-      <c r="AJ42">
-        <v>2.1</v>
-      </c>
-      <c r="AK42">
-        <v>1.33</v>
-      </c>
-      <c r="AL42">
-        <v>1.25</v>
-      </c>
       <c r="AM42">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AN42">
         <v>0</v>
@@ -9501,85 +9513,85 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR42">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AS42">
-        <v>1.42</v>
+        <v>0.77</v>
       </c>
       <c r="AT42">
-        <v>2.52</v>
+        <v>1.92</v>
       </c>
       <c r="AU42">
         <v>5</v>
       </c>
       <c r="AV42">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW42">
+        <v>2</v>
+      </c>
+      <c r="AX42">
+        <v>1</v>
+      </c>
+      <c r="AY42">
+        <v>7</v>
+      </c>
+      <c r="AZ42">
         <v>8</v>
       </c>
-      <c r="AX42">
-        <v>4</v>
-      </c>
-      <c r="AY42">
-        <v>13</v>
-      </c>
-      <c r="AZ42">
+      <c r="BA42">
+        <v>8</v>
+      </c>
+      <c r="BB42">
         <v>6</v>
       </c>
-      <c r="BA42">
-        <v>9</v>
-      </c>
-      <c r="BB42">
-        <v>1</v>
-      </c>
       <c r="BC42">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD42">
-        <v>1.64</v>
+        <v>2.43</v>
       </c>
       <c r="BE42">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BF42">
-        <v>2.78</v>
+        <v>1.82</v>
       </c>
       <c r="BG42">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="BH42">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="BI42">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="BJ42">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="BK42">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="BL42">
-        <v>2.29</v>
+        <v>1.95</v>
       </c>
       <c r="BM42">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="BN42">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="BO42">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="BP42">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9587,7 +9599,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7476583</v>
+        <v>7476588</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9602,10 +9614,10 @@
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -9617,145 +9629,145 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O43" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q43">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="R43">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="T43">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U43">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V43">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W43">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X43">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y43">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="Z43">
-        <v>3</v>
+        <v>1.98</v>
       </c>
       <c r="AA43">
         <v>3.4</v>
       </c>
       <c r="AB43">
+        <v>3.6</v>
+      </c>
+      <c r="AC43">
+        <v>1.03</v>
+      </c>
+      <c r="AD43">
+        <v>14</v>
+      </c>
+      <c r="AE43">
+        <v>1.2</v>
+      </c>
+      <c r="AF43">
+        <v>4</v>
+      </c>
+      <c r="AG43">
+        <v>1.68</v>
+      </c>
+      <c r="AH43">
+        <v>2.07</v>
+      </c>
+      <c r="AI43">
+        <v>1.62</v>
+      </c>
+      <c r="AJ43">
         <v>2.2</v>
       </c>
-      <c r="AC43">
-        <v>1.06</v>
-      </c>
-      <c r="AD43">
-        <v>8.5</v>
-      </c>
-      <c r="AE43">
-        <v>1.33</v>
-      </c>
-      <c r="AF43">
-        <v>3.25</v>
-      </c>
-      <c r="AG43">
-        <v>1.93</v>
-      </c>
-      <c r="AH43">
-        <v>1.79</v>
-      </c>
-      <c r="AI43">
-        <v>1.73</v>
-      </c>
-      <c r="AJ43">
-        <v>2</v>
-      </c>
       <c r="AK43">
-        <v>1.6</v>
+        <v>1.22</v>
       </c>
       <c r="AL43">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM43">
-        <v>1.35</v>
+        <v>1.85</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO43">
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="AR43">
-        <v>1.15</v>
+        <v>0.97</v>
       </c>
       <c r="AS43">
-        <v>0.77</v>
+        <v>1.03</v>
       </c>
       <c r="AT43">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV43">
+        <v>3</v>
+      </c>
+      <c r="AW43">
+        <v>13</v>
+      </c>
+      <c r="AX43">
+        <v>4</v>
+      </c>
+      <c r="AY43">
+        <v>20</v>
+      </c>
+      <c r="AZ43">
         <v>7</v>
       </c>
-      <c r="AW43">
-        <v>2</v>
-      </c>
-      <c r="AX43">
-        <v>1</v>
-      </c>
-      <c r="AY43">
-        <v>7</v>
-      </c>
-      <c r="AZ43">
+      <c r="BA43">
+        <v>6</v>
+      </c>
+      <c r="BB43">
+        <v>2</v>
+      </c>
+      <c r="BC43">
         <v>8</v>
       </c>
-      <c r="BA43">
-        <v>8</v>
-      </c>
-      <c r="BB43">
-        <v>6</v>
-      </c>
-      <c r="BC43">
-        <v>14</v>
-      </c>
       <c r="BD43">
-        <v>2.43</v>
+        <v>1.51</v>
       </c>
       <c r="BE43">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF43">
-        <v>1.82</v>
+        <v>3.27</v>
       </c>
       <c r="BG43">
         <v>1.25</v>
@@ -9770,16 +9782,16 @@
         <v>2.62</v>
       </c>
       <c r="BK43">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="BL43">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BM43">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="BN43">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="BO43">
         <v>2.62</v>
@@ -9835,7 +9847,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10041,7 +10053,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10247,7 +10259,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10325,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ46">
         <v>0.67</v>
@@ -10659,7 +10671,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11029,7 +11041,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7476596</v>
+        <v>7476598</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11044,10 +11056,10 @@
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -11059,175 +11071,175 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O50" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P50" t="s">
         <v>101</v>
       </c>
       <c r="Q50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="R50">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S50">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="T50">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U50">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V50">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="W50">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y50">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="Z50">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="AA50">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="AB50">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="AC50">
         <v>1.01</v>
       </c>
       <c r="AD50">
+        <v>17</v>
+      </c>
+      <c r="AE50">
+        <v>1.15</v>
+      </c>
+      <c r="AF50">
+        <v>5.25</v>
+      </c>
+      <c r="AG50">
+        <v>1.45</v>
+      </c>
+      <c r="AH50">
+        <v>2.56</v>
+      </c>
+      <c r="AI50">
+        <v>1.44</v>
+      </c>
+      <c r="AJ50">
+        <v>2.63</v>
+      </c>
+      <c r="AK50">
+        <v>1.2</v>
+      </c>
+      <c r="AL50">
+        <v>1.2</v>
+      </c>
+      <c r="AM50">
+        <v>2.05</v>
+      </c>
+      <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>2.33</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>1.79</v>
+      </c>
+      <c r="AS50">
+        <v>1.31</v>
+      </c>
+      <c r="AT50">
+        <v>3.1</v>
+      </c>
+      <c r="AU50">
+        <v>9</v>
+      </c>
+      <c r="AV50">
+        <v>4</v>
+      </c>
+      <c r="AW50">
+        <v>4</v>
+      </c>
+      <c r="AX50">
+        <v>6</v>
+      </c>
+      <c r="AY50">
+        <v>13</v>
+      </c>
+      <c r="AZ50">
+        <v>10</v>
+      </c>
+      <c r="BA50">
+        <v>9</v>
+      </c>
+      <c r="BB50">
+        <v>2</v>
+      </c>
+      <c r="BC50">
         <v>11</v>
       </c>
-      <c r="AE50">
-        <v>1.17</v>
-      </c>
-      <c r="AF50">
-        <v>4.5</v>
-      </c>
-      <c r="AG50">
-        <v>1.8</v>
-      </c>
-      <c r="AH50">
-        <v>1.91</v>
-      </c>
-      <c r="AI50">
-        <v>1.53</v>
-      </c>
-      <c r="AJ50">
+      <c r="BD50">
+        <v>1.41</v>
+      </c>
+      <c r="BE50">
+        <v>8</v>
+      </c>
+      <c r="BF50">
+        <v>3.7</v>
+      </c>
+      <c r="BG50">
+        <v>1.18</v>
+      </c>
+      <c r="BH50">
+        <v>4.33</v>
+      </c>
+      <c r="BI50">
+        <v>1.33</v>
+      </c>
+      <c r="BJ50">
+        <v>3</v>
+      </c>
+      <c r="BK50">
+        <v>1.55</v>
+      </c>
+      <c r="BL50">
+        <v>2.4</v>
+      </c>
+      <c r="BM50">
+        <v>2.05</v>
+      </c>
+      <c r="BN50">
+        <v>1.7</v>
+      </c>
+      <c r="BO50">
         <v>2.38</v>
       </c>
-      <c r="AK50">
-        <v>1.36</v>
-      </c>
-      <c r="AL50">
-        <v>1.25</v>
-      </c>
-      <c r="AM50">
-        <v>1.62</v>
-      </c>
-      <c r="AN50">
-        <v>1.5</v>
-      </c>
-      <c r="AO50">
-        <v>1.5</v>
-      </c>
-      <c r="AP50">
-        <v>2</v>
-      </c>
-      <c r="AQ50">
-        <v>1</v>
-      </c>
-      <c r="AR50">
-        <v>1.63</v>
-      </c>
-      <c r="AS50">
-        <v>1.2</v>
-      </c>
-      <c r="AT50">
-        <v>2.83</v>
-      </c>
-      <c r="AU50">
-        <v>6</v>
-      </c>
-      <c r="AV50">
-        <v>3</v>
-      </c>
-      <c r="AW50">
-        <v>2</v>
-      </c>
-      <c r="AX50">
-        <v>3</v>
-      </c>
-      <c r="AY50">
-        <v>8</v>
-      </c>
-      <c r="AZ50">
-        <v>6</v>
-      </c>
-      <c r="BA50">
-        <v>3</v>
-      </c>
-      <c r="BB50">
-        <v>3</v>
-      </c>
-      <c r="BC50">
-        <v>6</v>
-      </c>
-      <c r="BD50">
-        <v>1.69</v>
-      </c>
-      <c r="BE50">
-        <v>7</v>
-      </c>
-      <c r="BF50">
-        <v>2.65</v>
-      </c>
-      <c r="BG50">
-        <v>1.29</v>
-      </c>
-      <c r="BH50">
-        <v>3.4</v>
-      </c>
-      <c r="BI50">
-        <v>1.47</v>
-      </c>
-      <c r="BJ50">
-        <v>2.61</v>
-      </c>
-      <c r="BK50">
-        <v>1.8</v>
-      </c>
-      <c r="BL50">
-        <v>2</v>
-      </c>
-      <c r="BM50">
-        <v>2.25</v>
-      </c>
-      <c r="BN50">
-        <v>1.62</v>
-      </c>
-      <c r="BO50">
-        <v>2.8</v>
-      </c>
       <c r="BP50">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11235,7 +11247,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7477095</v>
+        <v>7476597</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11250,43 +11262,43 @@
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q51">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="R51">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S51">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="T51">
         <v>1.36</v>
@@ -11307,25 +11319,25 @@
         <v>1.1</v>
       </c>
       <c r="Z51">
-        <v>1.73</v>
+        <v>3.2</v>
       </c>
       <c r="AA51">
+        <v>3.3</v>
+      </c>
+      <c r="AB51">
+        <v>2.1</v>
+      </c>
+      <c r="AC51">
+        <v>1.02</v>
+      </c>
+      <c r="AD51">
+        <v>10</v>
+      </c>
+      <c r="AE51">
+        <v>1.25</v>
+      </c>
+      <c r="AF51">
         <v>3.6</v>
-      </c>
-      <c r="AB51">
-        <v>4.33</v>
-      </c>
-      <c r="AC51">
-        <v>1.05</v>
-      </c>
-      <c r="AD51">
-        <v>9.5</v>
-      </c>
-      <c r="AE51">
-        <v>1.28</v>
-      </c>
-      <c r="AF51">
-        <v>3.65</v>
       </c>
       <c r="AG51">
         <v>1.8</v>
@@ -11334,106 +11346,106 @@
         <v>1.91</v>
       </c>
       <c r="AI51">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AJ51">
+        <v>2.1</v>
+      </c>
+      <c r="AK51">
+        <v>1.66</v>
+      </c>
+      <c r="AL51">
+        <v>1.28</v>
+      </c>
+      <c r="AM51">
+        <v>1.33</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>1.5</v>
+      </c>
+      <c r="AP51">
+        <v>2</v>
+      </c>
+      <c r="AQ51">
+        <v>1.75</v>
+      </c>
+      <c r="AR51">
+        <v>0.78</v>
+      </c>
+      <c r="AS51">
+        <v>0.97</v>
+      </c>
+      <c r="AT51">
+        <v>1.75</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>8</v>
+      </c>
+      <c r="AW51">
+        <v>2</v>
+      </c>
+      <c r="AX51">
+        <v>11</v>
+      </c>
+      <c r="AY51">
+        <v>6</v>
+      </c>
+      <c r="AZ51">
+        <v>19</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>7</v>
+      </c>
+      <c r="BC51">
+        <v>7</v>
+      </c>
+      <c r="BD51">
+        <v>2.2</v>
+      </c>
+      <c r="BE51">
+        <v>7</v>
+      </c>
+      <c r="BF51">
         <v>1.91</v>
       </c>
-      <c r="AK51">
-        <v>1.18</v>
-      </c>
-      <c r="AL51">
-        <v>1.22</v>
-      </c>
-      <c r="AM51">
-        <v>2.05</v>
-      </c>
-      <c r="AN51">
-        <v>2</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>2.33</v>
-      </c>
-      <c r="AQ51">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>1.74</v>
-      </c>
-      <c r="AS51">
-        <v>1.42</v>
-      </c>
-      <c r="AT51">
-        <v>3.16</v>
-      </c>
-      <c r="AU51">
-        <v>5</v>
-      </c>
-      <c r="AV51">
-        <v>7</v>
-      </c>
-      <c r="AW51">
-        <v>5</v>
-      </c>
-      <c r="AX51">
-        <v>3</v>
-      </c>
-      <c r="AY51">
-        <v>10</v>
-      </c>
-      <c r="AZ51">
-        <v>10</v>
-      </c>
-      <c r="BA51">
-        <v>3</v>
-      </c>
-      <c r="BB51">
-        <v>5</v>
-      </c>
-      <c r="BC51">
-        <v>8</v>
-      </c>
-      <c r="BD51">
-        <v>1.37</v>
-      </c>
-      <c r="BE51">
-        <v>8</v>
-      </c>
-      <c r="BF51">
-        <v>3.88</v>
-      </c>
       <c r="BG51">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="BH51">
-        <v>3.56</v>
+        <v>3.74</v>
       </c>
       <c r="BI51">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="BJ51">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="BK51">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="BL51">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BM51">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="BN51">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="BO51">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="BP51">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11441,7 +11453,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7476598</v>
+        <v>7476596</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11456,10 +11468,10 @@
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -11471,175 +11483,175 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="P52" t="s">
         <v>101</v>
       </c>
       <c r="Q52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="R52">
+        <v>2.3</v>
+      </c>
+      <c r="S52">
+        <v>3.5</v>
+      </c>
+      <c r="T52">
+        <v>1.3</v>
+      </c>
+      <c r="U52">
+        <v>3.4</v>
+      </c>
+      <c r="V52">
         <v>2.5</v>
       </c>
-      <c r="S52">
-        <v>4.33</v>
-      </c>
-      <c r="T52">
-        <v>1.25</v>
-      </c>
-      <c r="U52">
-        <v>3.75</v>
-      </c>
-      <c r="V52">
-        <v>2.1</v>
-      </c>
       <c r="W52">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="X52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y52">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Z52">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="AA52">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AB52">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AC52">
         <v>1.01</v>
       </c>
       <c r="AD52">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE52">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AF52">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="AG52">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AH52">
-        <v>2.56</v>
+        <v>1.91</v>
       </c>
       <c r="AI52">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AJ52">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AK52">
+        <v>1.36</v>
+      </c>
+      <c r="AL52">
+        <v>1.25</v>
+      </c>
+      <c r="AM52">
+        <v>1.62</v>
+      </c>
+      <c r="AN52">
+        <v>1.5</v>
+      </c>
+      <c r="AO52">
+        <v>1.5</v>
+      </c>
+      <c r="AP52">
+        <v>2</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>1.63</v>
+      </c>
+      <c r="AS52">
         <v>1.2</v>
       </c>
-      <c r="AL52">
-        <v>1.2</v>
-      </c>
-      <c r="AM52">
-        <v>2.05</v>
-      </c>
-      <c r="AN52">
-        <v>2</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>2.33</v>
-      </c>
-      <c r="AQ52">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>1.79</v>
-      </c>
-      <c r="AS52">
-        <v>1.31</v>
-      </c>
       <c r="AT52">
-        <v>3.1</v>
+        <v>2.83</v>
       </c>
       <c r="AU52">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX52">
+        <v>3</v>
+      </c>
+      <c r="AY52">
+        <v>8</v>
+      </c>
+      <c r="AZ52">
         <v>6</v>
       </c>
-      <c r="AY52">
-        <v>13</v>
-      </c>
-      <c r="AZ52">
-        <v>10</v>
-      </c>
       <c r="BA52">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BB52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC52">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD52">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="BE52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF52">
-        <v>3.7</v>
+        <v>2.65</v>
       </c>
       <c r="BG52">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="BH52">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="BI52">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="BJ52">
-        <v>3</v>
+        <v>2.61</v>
       </c>
       <c r="BK52">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="BL52">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="BM52">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="BN52">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BO52">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="BP52">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -11647,7 +11659,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7476597</v>
+        <v>7477095</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11662,43 +11674,43 @@
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O53" t="s">
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q53">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="R53">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S53">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="T53">
         <v>1.36</v>
@@ -11719,25 +11731,25 @@
         <v>1.1</v>
       </c>
       <c r="Z53">
-        <v>3.2</v>
+        <v>1.73</v>
       </c>
       <c r="AA53">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AB53">
-        <v>2.1</v>
+        <v>4.33</v>
       </c>
       <c r="AC53">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD53">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE53">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF53">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AG53">
         <v>1.8</v>
@@ -11746,106 +11758,106 @@
         <v>1.91</v>
       </c>
       <c r="AI53">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AJ53">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AK53">
-        <v>1.66</v>
+        <v>1.18</v>
       </c>
       <c r="AL53">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM53">
-        <v>1.33</v>
+        <v>2.05</v>
       </c>
       <c r="AN53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO53">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR53">
-        <v>0.78</v>
+        <v>1.74</v>
       </c>
       <c r="AS53">
-        <v>0.97</v>
+        <v>1.42</v>
       </c>
       <c r="AT53">
-        <v>1.75</v>
+        <v>3.16</v>
       </c>
       <c r="AU53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV53">
+        <v>7</v>
+      </c>
+      <c r="AW53">
+        <v>5</v>
+      </c>
+      <c r="AX53">
+        <v>3</v>
+      </c>
+      <c r="AY53">
+        <v>10</v>
+      </c>
+      <c r="AZ53">
+        <v>10</v>
+      </c>
+      <c r="BA53">
+        <v>3</v>
+      </c>
+      <c r="BB53">
+        <v>5</v>
+      </c>
+      <c r="BC53">
         <v>8</v>
       </c>
-      <c r="AW53">
-        <v>2</v>
-      </c>
-      <c r="AX53">
-        <v>11</v>
-      </c>
-      <c r="AY53">
-        <v>6</v>
-      </c>
-      <c r="AZ53">
-        <v>19</v>
-      </c>
-      <c r="BA53">
-        <v>0</v>
-      </c>
-      <c r="BB53">
-        <v>7</v>
-      </c>
-      <c r="BC53">
-        <v>7</v>
-      </c>
       <c r="BD53">
-        <v>2.2</v>
+        <v>1.37</v>
       </c>
       <c r="BE53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF53">
-        <v>1.91</v>
+        <v>3.88</v>
       </c>
       <c r="BG53">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="BH53">
-        <v>3.74</v>
+        <v>3.56</v>
       </c>
       <c r="BI53">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="BJ53">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="BK53">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="BL53">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BM53">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="BN53">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="BO53">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="BP53">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -11853,7 +11865,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7476589</v>
+        <v>7476594</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -11868,10 +11880,10 @@
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -11886,25 +11898,25 @@
         <v>1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="Q54">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R54">
         <v>2.25</v>
       </c>
       <c r="S54">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T54">
         <v>1.36</v>
@@ -11913,10 +11925,10 @@
         <v>3</v>
       </c>
       <c r="V54">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W54">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X54">
         <v>7</v>
@@ -11925,10 +11937,10 @@
         <v>1.1</v>
       </c>
       <c r="Z54">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AA54">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB54">
         <v>4</v>
@@ -11943,13 +11955,13 @@
         <v>1.28</v>
       </c>
       <c r="AF54">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AG54">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AH54">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AI54">
         <v>1.73</v>
@@ -11958,70 +11970,70 @@
         <v>2</v>
       </c>
       <c r="AK54">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AL54">
         <v>1.25</v>
       </c>
       <c r="AM54">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AN54">
         <v>3</v>
       </c>
       <c r="AO54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AS54">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AT54">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="AU54">
         <v>4</v>
       </c>
       <c r="AV54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW54">
         <v>4</v>
       </c>
       <c r="AX54">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AY54">
         <v>8</v>
       </c>
       <c r="AZ54">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BA54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB54">
         <v>5</v>
       </c>
       <c r="BC54">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD54">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="BE54">
         <v>8</v>
       </c>
       <c r="BF54">
-        <v>3.48</v>
+        <v>3.61</v>
       </c>
       <c r="BG54">
         <v>1.25</v>
@@ -12036,22 +12048,22 @@
         <v>2.62</v>
       </c>
       <c r="BK54">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BL54">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BM54">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="BN54">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="BO54">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="BP54">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -12059,7 +12071,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7476593</v>
+        <v>7476592</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12074,16 +12086,16 @@
         <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -12092,142 +12104,142 @@
         <v>1</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="Q55">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="R55">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S55">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="T55">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U55">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V55">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W55">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X55">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Y55">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z55">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AA55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB55">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AC55">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD55">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE55">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AF55">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="AG55">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AH55">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AI55">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AJ55">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AK55">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AL55">
         <v>1.25</v>
       </c>
       <c r="AM55">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AN55">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP55">
         <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
-        <v>1</v>
+        <v>2.03</v>
       </c>
       <c r="AS55">
-        <v>0.57</v>
+        <v>1.31</v>
       </c>
       <c r="AT55">
-        <v>1.57</v>
+        <v>3.34</v>
       </c>
       <c r="AU55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW55">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY55">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AZ55">
         <v>7</v>
       </c>
       <c r="BA55">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BB55">
         <v>7</v>
       </c>
       <c r="BC55">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BD55">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="BE55">
-        <v>9.1</v>
+        <v>7.5</v>
       </c>
       <c r="BF55">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="BG55">
         <v>1.18</v>
@@ -12236,28 +12248,28 @@
         <v>4.33</v>
       </c>
       <c r="BI55">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BJ55">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BK55">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="BL55">
-        <v>2.41</v>
+        <v>2.32</v>
       </c>
       <c r="BM55">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BN55">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="BO55">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="BP55">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12265,7 +12277,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7476592</v>
+        <v>7476591</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12280,190 +12292,190 @@
         <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q56">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="R56">
+        <v>2.4</v>
+      </c>
+      <c r="S56">
+        <v>5</v>
+      </c>
+      <c r="T56">
+        <v>1.3</v>
+      </c>
+      <c r="U56">
+        <v>3.4</v>
+      </c>
+      <c r="V56">
+        <v>2.38</v>
+      </c>
+      <c r="W56">
+        <v>1.53</v>
+      </c>
+      <c r="X56">
+        <v>6</v>
+      </c>
+      <c r="Y56">
+        <v>1.13</v>
+      </c>
+      <c r="Z56">
+        <v>1.65</v>
+      </c>
+      <c r="AA56">
+        <v>3.8</v>
+      </c>
+      <c r="AB56">
+        <v>4.5</v>
+      </c>
+      <c r="AC56">
+        <v>1.04</v>
+      </c>
+      <c r="AD56">
+        <v>10</v>
+      </c>
+      <c r="AE56">
+        <v>1.2</v>
+      </c>
+      <c r="AF56">
+        <v>4.33</v>
+      </c>
+      <c r="AG56">
+        <v>1.67</v>
+      </c>
+      <c r="AH56">
+        <v>2.1</v>
+      </c>
+      <c r="AI56">
+        <v>1.67</v>
+      </c>
+      <c r="AJ56">
+        <v>2.1</v>
+      </c>
+      <c r="AK56">
+        <v>1.14</v>
+      </c>
+      <c r="AL56">
+        <v>1.18</v>
+      </c>
+      <c r="AM56">
         <v>2.3</v>
       </c>
-      <c r="S56">
-        <v>3.75</v>
-      </c>
-      <c r="T56">
-        <v>1.33</v>
-      </c>
-      <c r="U56">
-        <v>3.25</v>
-      </c>
-      <c r="V56">
-        <v>2.63</v>
-      </c>
-      <c r="W56">
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>1.5</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>1.25</v>
+      </c>
+      <c r="AS56">
+        <v>0.93</v>
+      </c>
+      <c r="AT56">
+        <v>2.18</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <v>8</v>
+      </c>
+      <c r="AW56">
+        <v>5</v>
+      </c>
+      <c r="AX56">
+        <v>5</v>
+      </c>
+      <c r="AY56">
+        <v>10</v>
+      </c>
+      <c r="AZ56">
+        <v>13</v>
+      </c>
+      <c r="BA56">
+        <v>4</v>
+      </c>
+      <c r="BB56">
+        <v>3</v>
+      </c>
+      <c r="BC56">
+        <v>7</v>
+      </c>
+      <c r="BD56">
+        <v>1.31</v>
+      </c>
+      <c r="BE56">
+        <v>9</v>
+      </c>
+      <c r="BF56">
+        <v>4.43</v>
+      </c>
+      <c r="BG56">
+        <v>1.22</v>
+      </c>
+      <c r="BH56">
+        <v>3.8</v>
+      </c>
+      <c r="BI56">
+        <v>1.31</v>
+      </c>
+      <c r="BJ56">
+        <v>3.04</v>
+      </c>
+      <c r="BK56">
+        <v>1.56</v>
+      </c>
+      <c r="BL56">
+        <v>2.21</v>
+      </c>
+      <c r="BM56">
+        <v>2</v>
+      </c>
+      <c r="BN56">
+        <v>1.8</v>
+      </c>
+      <c r="BO56">
+        <v>2.5</v>
+      </c>
+      <c r="BP56">
         <v>1.44</v>
-      </c>
-      <c r="X56">
-        <v>6.5</v>
-      </c>
-      <c r="Y56">
-        <v>1.11</v>
-      </c>
-      <c r="Z56">
-        <v>2</v>
-      </c>
-      <c r="AA56">
-        <v>3.5</v>
-      </c>
-      <c r="AB56">
-        <v>3.25</v>
-      </c>
-      <c r="AC56">
-        <v>1.05</v>
-      </c>
-      <c r="AD56">
-        <v>9.5</v>
-      </c>
-      <c r="AE56">
-        <v>1.25</v>
-      </c>
-      <c r="AF56">
-        <v>3.95</v>
-      </c>
-      <c r="AG56">
-        <v>1.8</v>
-      </c>
-      <c r="AH56">
-        <v>1.91</v>
-      </c>
-      <c r="AI56">
-        <v>1.62</v>
-      </c>
-      <c r="AJ56">
-        <v>2.2</v>
-      </c>
-      <c r="AK56">
-        <v>1.38</v>
-      </c>
-      <c r="AL56">
-        <v>1.25</v>
-      </c>
-      <c r="AM56">
-        <v>1.7</v>
-      </c>
-      <c r="AN56">
-        <v>1.5</v>
-      </c>
-      <c r="AO56">
-        <v>1.5</v>
-      </c>
-      <c r="AP56">
-        <v>1.33</v>
-      </c>
-      <c r="AQ56">
-        <v>1.33</v>
-      </c>
-      <c r="AR56">
-        <v>2.03</v>
-      </c>
-      <c r="AS56">
-        <v>1.31</v>
-      </c>
-      <c r="AT56">
-        <v>3.34</v>
-      </c>
-      <c r="AU56">
-        <v>6</v>
-      </c>
-      <c r="AV56">
-        <v>5</v>
-      </c>
-      <c r="AW56">
-        <v>7</v>
-      </c>
-      <c r="AX56">
-        <v>2</v>
-      </c>
-      <c r="AY56">
-        <v>13</v>
-      </c>
-      <c r="AZ56">
-        <v>7</v>
-      </c>
-      <c r="BA56">
-        <v>8</v>
-      </c>
-      <c r="BB56">
-        <v>7</v>
-      </c>
-      <c r="BC56">
-        <v>15</v>
-      </c>
-      <c r="BD56">
-        <v>1.69</v>
-      </c>
-      <c r="BE56">
-        <v>7.5</v>
-      </c>
-      <c r="BF56">
-        <v>2.72</v>
-      </c>
-      <c r="BG56">
-        <v>1.18</v>
-      </c>
-      <c r="BH56">
-        <v>4.33</v>
-      </c>
-      <c r="BI56">
-        <v>1.28</v>
-      </c>
-      <c r="BJ56">
-        <v>3.2</v>
-      </c>
-      <c r="BK56">
-        <v>1.51</v>
-      </c>
-      <c r="BL56">
-        <v>2.32</v>
-      </c>
-      <c r="BM56">
-        <v>1.92</v>
-      </c>
-      <c r="BN56">
-        <v>1.88</v>
-      </c>
-      <c r="BO56">
-        <v>2.38</v>
-      </c>
-      <c r="BP56">
-        <v>1.49</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12471,7 +12483,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7476591</v>
+        <v>7476590</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12486,160 +12498,160 @@
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="Q57">
+        <v>2.6</v>
+      </c>
+      <c r="R57">
         <v>2.2</v>
       </c>
-      <c r="R57">
-        <v>2.4</v>
-      </c>
       <c r="S57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U57">
+        <v>3</v>
+      </c>
+      <c r="V57">
+        <v>2.75</v>
+      </c>
+      <c r="W57">
+        <v>1.4</v>
+      </c>
+      <c r="X57">
+        <v>7</v>
+      </c>
+      <c r="Y57">
+        <v>1.1</v>
+      </c>
+      <c r="Z57">
+        <v>1.95</v>
+      </c>
+      <c r="AA57">
+        <v>3.5</v>
+      </c>
+      <c r="AB57">
         <v>3.4</v>
       </c>
-      <c r="V57">
+      <c r="AC57">
+        <v>1.05</v>
+      </c>
+      <c r="AD57">
+        <v>9.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.25</v>
+      </c>
+      <c r="AF57">
+        <v>3.7</v>
+      </c>
+      <c r="AG57">
+        <v>1.8</v>
+      </c>
+      <c r="AH57">
+        <v>1.91</v>
+      </c>
+      <c r="AI57">
+        <v>1.73</v>
+      </c>
+      <c r="AJ57">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>1.28</v>
+      </c>
+      <c r="AL57">
+        <v>1.22</v>
+      </c>
+      <c r="AM57">
+        <v>1.8</v>
+      </c>
+      <c r="AN57">
+        <v>1.5</v>
+      </c>
+      <c r="AO57">
+        <v>2</v>
+      </c>
+      <c r="AP57">
+        <v>2</v>
+      </c>
+      <c r="AQ57">
+        <v>1.33</v>
+      </c>
+      <c r="AR57">
+        <v>1.19</v>
+      </c>
+      <c r="AS57">
+        <v>1.19</v>
+      </c>
+      <c r="AT57">
         <v>2.38</v>
-      </c>
-      <c r="W57">
-        <v>1.53</v>
-      </c>
-      <c r="X57">
-        <v>6</v>
-      </c>
-      <c r="Y57">
-        <v>1.13</v>
-      </c>
-      <c r="Z57">
-        <v>1.65</v>
-      </c>
-      <c r="AA57">
-        <v>3.8</v>
-      </c>
-      <c r="AB57">
-        <v>4.5</v>
-      </c>
-      <c r="AC57">
-        <v>1.04</v>
-      </c>
-      <c r="AD57">
-        <v>10</v>
-      </c>
-      <c r="AE57">
-        <v>1.2</v>
-      </c>
-      <c r="AF57">
-        <v>4.33</v>
-      </c>
-      <c r="AG57">
-        <v>1.67</v>
-      </c>
-      <c r="AH57">
-        <v>2.1</v>
-      </c>
-      <c r="AI57">
-        <v>1.67</v>
-      </c>
-      <c r="AJ57">
-        <v>2.1</v>
-      </c>
-      <c r="AK57">
-        <v>1.14</v>
-      </c>
-      <c r="AL57">
-        <v>1.18</v>
-      </c>
-      <c r="AM57">
-        <v>2.3</v>
-      </c>
-      <c r="AN57">
-        <v>1</v>
-      </c>
-      <c r="AO57">
-        <v>0</v>
-      </c>
-      <c r="AP57">
-        <v>1.67</v>
-      </c>
-      <c r="AQ57">
-        <v>0</v>
-      </c>
-      <c r="AR57">
-        <v>1.25</v>
-      </c>
-      <c r="AS57">
-        <v>0.93</v>
-      </c>
-      <c r="AT57">
-        <v>2.18</v>
       </c>
       <c r="AU57">
         <v>5</v>
       </c>
       <c r="AV57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX57">
         <v>5</v>
       </c>
       <c r="AY57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ57">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA57">
         <v>4</v>
       </c>
       <c r="BB57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC57">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD57">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="BE57">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="BF57">
-        <v>4.43</v>
+        <v>3.04</v>
       </c>
       <c r="BG57">
         <v>1.22</v>
@@ -12648,28 +12660,28 @@
         <v>3.8</v>
       </c>
       <c r="BI57">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="BJ57">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="BK57">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="BL57">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="BM57">
         <v>2</v>
       </c>
       <c r="BN57">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BO57">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="BP57">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12677,7 +12689,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7476590</v>
+        <v>7476589</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12692,43 +12704,43 @@
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O58" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="P58" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="Q58">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R58">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S58">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T58">
         <v>1.36</v>
@@ -12737,10 +12749,10 @@
         <v>3</v>
       </c>
       <c r="V58">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W58">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X58">
         <v>7</v>
@@ -12749,31 +12761,31 @@
         <v>1.1</v>
       </c>
       <c r="Z58">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="AA58">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB58">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AC58">
         <v>1.05</v>
       </c>
       <c r="AD58">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE58">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF58">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="AG58">
+        <v>1.91</v>
+      </c>
+      <c r="AH58">
         <v>1.8</v>
-      </c>
-      <c r="AH58">
-        <v>1.91</v>
       </c>
       <c r="AI58">
         <v>1.73</v>
@@ -12782,37 +12794,37 @@
         <v>2</v>
       </c>
       <c r="AK58">
+        <v>1.22</v>
+      </c>
+      <c r="AL58">
+        <v>1.25</v>
+      </c>
+      <c r="AM58">
+        <v>1.91</v>
+      </c>
+      <c r="AN58">
+        <v>3</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>2.33</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
         <v>1.28</v>
       </c>
-      <c r="AL58">
-        <v>1.22</v>
-      </c>
-      <c r="AM58">
-        <v>1.8</v>
-      </c>
-      <c r="AN58">
-        <v>1.5</v>
-      </c>
-      <c r="AO58">
-        <v>2</v>
-      </c>
-      <c r="AP58">
-        <v>2</v>
-      </c>
-      <c r="AQ58">
-        <v>1.33</v>
-      </c>
-      <c r="AR58">
-        <v>1.19</v>
-      </c>
       <c r="AS58">
-        <v>1.19</v>
+        <v>0.86</v>
       </c>
       <c r="AT58">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="AU58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV58">
         <v>6</v>
@@ -12821,61 +12833,61 @@
         <v>4</v>
       </c>
       <c r="AX58">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ58">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB58">
         <v>5</v>
       </c>
       <c r="BC58">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD58">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="BE58">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF58">
-        <v>3.04</v>
+        <v>3.48</v>
       </c>
       <c r="BG58">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BH58">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BI58">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="BJ58">
-        <v>2.91</v>
+        <v>2.62</v>
       </c>
       <c r="BK58">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="BL58">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="BM58">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BN58">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="BO58">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="BP58">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12883,7 +12895,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7476594</v>
+        <v>7476593</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12898,10 +12910,10 @@
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -12928,160 +12940,160 @@
         <v>101</v>
       </c>
       <c r="Q59">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R59">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S59">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T59">
+        <v>1.4</v>
+      </c>
+      <c r="U59">
+        <v>2.75</v>
+      </c>
+      <c r="V59">
+        <v>3</v>
+      </c>
+      <c r="W59">
         <v>1.36</v>
       </c>
-      <c r="U59">
-        <v>3</v>
-      </c>
-      <c r="V59">
-        <v>2.75</v>
-      </c>
-      <c r="W59">
-        <v>1.4</v>
-      </c>
       <c r="X59">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y59">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z59">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AA59">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB59">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AC59">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD59">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE59">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AF59">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AG59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AH59">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AI59">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AJ59">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AK59">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AL59">
         <v>1.25</v>
       </c>
       <c r="AM59">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AN59">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AR59">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AS59">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="AT59">
-        <v>2.13</v>
+        <v>1.57</v>
       </c>
       <c r="AU59">
+        <v>3</v>
+      </c>
+      <c r="AV59">
         <v>4</v>
       </c>
-      <c r="AV59">
-        <v>2</v>
-      </c>
       <c r="AW59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY59">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC59">
         <v>8</v>
       </c>
       <c r="BD59">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="BE59">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="BF59">
-        <v>3.61</v>
+        <v>2.92</v>
       </c>
       <c r="BG59">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="BH59">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="BI59">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="BJ59">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="BK59">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="BL59">
-        <v>2</v>
+        <v>2.41</v>
       </c>
       <c r="BM59">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="BN59">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="BO59">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="BP59">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13749,7 +13761,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13955,7 +13967,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14119,7 +14131,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7476608</v>
+        <v>7476609</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14134,43 +14146,43 @@
         <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O65" t="s">
         <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="Q65">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R65">
         <v>2.2</v>
       </c>
       <c r="S65">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="T65">
         <v>1.4</v>
@@ -14191,115 +14203,115 @@
         <v>1.08</v>
       </c>
       <c r="Z65">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AA65">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AB65">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="AC65">
         <v>1.05</v>
       </c>
       <c r="AD65">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE65">
         <v>1.3</v>
       </c>
       <c r="AF65">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AG65">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AH65">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AI65">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AJ65">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK65">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AL65">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM65">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="AN65">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AR65">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AS65">
-        <v>1.84</v>
+        <v>0.99</v>
       </c>
       <c r="AT65">
-        <v>3.24</v>
+        <v>2.33</v>
       </c>
       <c r="AU65">
+        <v>4</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>1</v>
+      </c>
+      <c r="AX65">
+        <v>1</v>
+      </c>
+      <c r="AY65">
         <v>5</v>
       </c>
-      <c r="AV65">
-        <v>0</v>
-      </c>
-      <c r="AW65">
+      <c r="AZ65">
+        <v>5</v>
+      </c>
+      <c r="BA65">
         <v>4</v>
       </c>
-      <c r="AX65">
-        <v>4</v>
-      </c>
-      <c r="AY65">
-        <v>9</v>
-      </c>
-      <c r="AZ65">
-        <v>4</v>
-      </c>
-      <c r="BA65">
-        <v>2</v>
-      </c>
       <c r="BB65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC65">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD65">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="BE65">
         <v>7.5</v>
       </c>
       <c r="BF65">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="BG65">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BH65">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BI65">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="BJ65">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="BK65">
         <v>1.67</v>
@@ -14308,16 +14320,16 @@
         <v>2.1</v>
       </c>
       <c r="BM65">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BN65">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="BO65">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="BP65">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14325,7 +14337,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7476609</v>
+        <v>7476608</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14340,43 +14352,43 @@
         <v>6</v>
       </c>
       <c r="G66" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O66" t="s">
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="Q66">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R66">
         <v>2.2</v>
       </c>
       <c r="S66">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="T66">
         <v>1.4</v>
@@ -14397,115 +14409,115 @@
         <v>1.08</v>
       </c>
       <c r="Z66">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AA66">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB66">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="AC66">
         <v>1.05</v>
       </c>
       <c r="AD66">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE66">
         <v>1.3</v>
       </c>
       <c r="AF66">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AG66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AH66">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="AI66">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AJ66">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK66">
+        <v>1.42</v>
+      </c>
+      <c r="AL66">
         <v>1.25</v>
       </c>
-      <c r="AL66">
-        <v>1.22</v>
-      </c>
       <c r="AM66">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="AN66">
+        <v>0.5</v>
+      </c>
+      <c r="AO66">
         <v>1.5</v>
       </c>
-      <c r="AO66">
-        <v>0</v>
-      </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR66">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AS66">
-        <v>0.99</v>
+        <v>1.84</v>
       </c>
       <c r="AT66">
-        <v>2.33</v>
+        <v>3.24</v>
       </c>
       <c r="AU66">
+        <v>5</v>
+      </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
+      <c r="AW66">
         <v>4</v>
       </c>
-      <c r="AV66">
+      <c r="AX66">
         <v>4</v>
       </c>
-      <c r="AW66">
-        <v>1</v>
-      </c>
-      <c r="AX66">
-        <v>1</v>
-      </c>
       <c r="AY66">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD66">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="BE66">
         <v>7.5</v>
       </c>
       <c r="BF66">
-        <v>2.78</v>
+        <v>2.42</v>
       </c>
       <c r="BG66">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BH66">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="BI66">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="BJ66">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="BK66">
         <v>1.67</v>
@@ -14514,16 +14526,16 @@
         <v>2.1</v>
       </c>
       <c r="BM66">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BN66">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BO66">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="BP66">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14779,7 +14791,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14857,7 +14869,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ68">
         <v>2</v>
@@ -14985,7 +14997,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15191,7 +15203,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15397,7 +15409,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15554,6 +15566,418 @@
       </c>
       <c r="BP71">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7476612</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45556.35416666666</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>84</v>
+      </c>
+      <c r="H72" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>146</v>
+      </c>
+      <c r="P72" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q72">
+        <v>4</v>
+      </c>
+      <c r="R72">
+        <v>2.2</v>
+      </c>
+      <c r="S72">
+        <v>2.75</v>
+      </c>
+      <c r="T72">
+        <v>1.36</v>
+      </c>
+      <c r="U72">
+        <v>3</v>
+      </c>
+      <c r="V72">
+        <v>2.75</v>
+      </c>
+      <c r="W72">
+        <v>1.4</v>
+      </c>
+      <c r="X72">
+        <v>8</v>
+      </c>
+      <c r="Y72">
+        <v>1.08</v>
+      </c>
+      <c r="Z72">
+        <v>3.4</v>
+      </c>
+      <c r="AA72">
+        <v>3.3</v>
+      </c>
+      <c r="AB72">
+        <v>2.1</v>
+      </c>
+      <c r="AC72">
+        <v>1.05</v>
+      </c>
+      <c r="AD72">
+        <v>9.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.28</v>
+      </c>
+      <c r="AF72">
+        <v>3.6</v>
+      </c>
+      <c r="AG72">
+        <v>1.8</v>
+      </c>
+      <c r="AH72">
+        <v>1.91</v>
+      </c>
+      <c r="AI72">
+        <v>1.73</v>
+      </c>
+      <c r="AJ72">
+        <v>2</v>
+      </c>
+      <c r="AK72">
+        <v>1.75</v>
+      </c>
+      <c r="AL72">
+        <v>1.22</v>
+      </c>
+      <c r="AM72">
+        <v>1.3</v>
+      </c>
+      <c r="AN72">
+        <v>0.67</v>
+      </c>
+      <c r="AO72">
+        <v>2</v>
+      </c>
+      <c r="AP72">
+        <v>0.75</v>
+      </c>
+      <c r="AQ72">
+        <v>1.75</v>
+      </c>
+      <c r="AR72">
+        <v>1.54</v>
+      </c>
+      <c r="AS72">
+        <v>1.39</v>
+      </c>
+      <c r="AT72">
+        <v>2.93</v>
+      </c>
+      <c r="AU72">
+        <v>-1</v>
+      </c>
+      <c r="AV72">
+        <v>-1</v>
+      </c>
+      <c r="AW72">
+        <v>-1</v>
+      </c>
+      <c r="AX72">
+        <v>-1</v>
+      </c>
+      <c r="AY72">
+        <v>-1</v>
+      </c>
+      <c r="AZ72">
+        <v>-1</v>
+      </c>
+      <c r="BA72">
+        <v>-1</v>
+      </c>
+      <c r="BB72">
+        <v>-1</v>
+      </c>
+      <c r="BC72">
+        <v>-1</v>
+      </c>
+      <c r="BD72">
+        <v>2.46</v>
+      </c>
+      <c r="BE72">
+        <v>7</v>
+      </c>
+      <c r="BF72">
+        <v>1.75</v>
+      </c>
+      <c r="BG72">
+        <v>1.22</v>
+      </c>
+      <c r="BH72">
+        <v>3.8</v>
+      </c>
+      <c r="BI72">
+        <v>1.38</v>
+      </c>
+      <c r="BJ72">
+        <v>2.8</v>
+      </c>
+      <c r="BK72">
+        <v>1.5</v>
+      </c>
+      <c r="BL72">
+        <v>2.4</v>
+      </c>
+      <c r="BM72">
+        <v>1.92</v>
+      </c>
+      <c r="BN72">
+        <v>1.88</v>
+      </c>
+      <c r="BO72">
+        <v>2.37</v>
+      </c>
+      <c r="BP72">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7476615</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45556.35416666666</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>70</v>
+      </c>
+      <c r="H73" t="s">
+        <v>73</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>147</v>
+      </c>
+      <c r="P73" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>2.5</v>
+      </c>
+      <c r="S73">
+        <v>5.5</v>
+      </c>
+      <c r="T73">
+        <v>1.3</v>
+      </c>
+      <c r="U73">
+        <v>3.4</v>
+      </c>
+      <c r="V73">
+        <v>2.38</v>
+      </c>
+      <c r="W73">
+        <v>1.53</v>
+      </c>
+      <c r="X73">
+        <v>6</v>
+      </c>
+      <c r="Y73">
+        <v>1.13</v>
+      </c>
+      <c r="Z73">
+        <v>1.5</v>
+      </c>
+      <c r="AA73">
+        <v>4</v>
+      </c>
+      <c r="AB73">
+        <v>6</v>
+      </c>
+      <c r="AC73">
+        <v>1.04</v>
+      </c>
+      <c r="AD73">
+        <v>10</v>
+      </c>
+      <c r="AE73">
+        <v>1.2</v>
+      </c>
+      <c r="AF73">
+        <v>4.33</v>
+      </c>
+      <c r="AG73">
+        <v>1.6</v>
+      </c>
+      <c r="AH73">
+        <v>2.2</v>
+      </c>
+      <c r="AI73">
+        <v>1.73</v>
+      </c>
+      <c r="AJ73">
+        <v>2</v>
+      </c>
+      <c r="AK73">
+        <v>1.11</v>
+      </c>
+      <c r="AL73">
+        <v>1.17</v>
+      </c>
+      <c r="AM73">
+        <v>2.55</v>
+      </c>
+      <c r="AN73">
+        <v>1.67</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>1.5</v>
+      </c>
+      <c r="AQ73">
+        <v>0.25</v>
+      </c>
+      <c r="AR73">
+        <v>1.28</v>
+      </c>
+      <c r="AS73">
+        <v>0.97</v>
+      </c>
+      <c r="AT73">
+        <v>2.25</v>
+      </c>
+      <c r="AU73">
+        <v>6</v>
+      </c>
+      <c r="AV73">
+        <v>3</v>
+      </c>
+      <c r="AW73">
+        <v>6</v>
+      </c>
+      <c r="AX73">
+        <v>4</v>
+      </c>
+      <c r="AY73">
+        <v>12</v>
+      </c>
+      <c r="AZ73">
+        <v>7</v>
+      </c>
+      <c r="BA73">
+        <v>6</v>
+      </c>
+      <c r="BB73">
+        <v>1</v>
+      </c>
+      <c r="BC73">
+        <v>7</v>
+      </c>
+      <c r="BD73">
+        <v>1.21</v>
+      </c>
+      <c r="BE73">
+        <v>11</v>
+      </c>
+      <c r="BF73">
+        <v>5.6</v>
+      </c>
+      <c r="BG73">
+        <v>1.17</v>
+      </c>
+      <c r="BH73">
+        <v>3.78</v>
+      </c>
+      <c r="BI73">
+        <v>1.37</v>
+      </c>
+      <c r="BJ73">
+        <v>2.85</v>
+      </c>
+      <c r="BK73">
+        <v>1.67</v>
+      </c>
+      <c r="BL73">
+        <v>2.07</v>
+      </c>
+      <c r="BM73">
+        <v>2.05</v>
+      </c>
+      <c r="BN73">
+        <v>1.7</v>
+      </c>
+      <c r="BO73">
+        <v>2.77</v>
+      </c>
+      <c r="BP73">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,21 @@
     <t>['27']</t>
   </si>
   <si>
+    <t>['27', '82']</t>
+  </si>
+  <si>
+    <t>['7', '38', '78']</t>
+  </si>
+  <si>
+    <t>['7', '31', '88']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -575,6 +590,15 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['51', '57']</t>
+  </si>
+  <si>
+    <t>['42', '72']</t>
   </si>
 </sst>
 </file>
@@ -936,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,7 +1219,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1401,7 +1425,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1685,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -1813,7 +1837,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1894,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2019,7 +2043,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2431,7 +2455,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2512,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2637,7 +2661,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2718,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2843,7 +2867,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2921,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3049,7 +3073,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3127,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.75</v>
@@ -3954,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4079,7 +4103,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4160,7 +4184,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4363,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4491,7 +4515,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4569,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4697,7 +4721,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4775,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
         <v>0.25</v>
@@ -4903,7 +4927,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4984,7 +5008,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5396,7 +5420,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5521,7 +5545,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5599,10 +5623,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5805,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5933,7 +5957,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6011,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>1.33</v>
@@ -6139,7 +6163,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6217,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -6426,7 +6450,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>0.86</v>
@@ -6629,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6963,7 +6987,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7250,7 +7274,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7453,10 +7477,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR32">
         <v>1.62</v>
@@ -7581,7 +7605,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7787,7 +7811,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -7865,10 +7889,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.61</v>
@@ -7993,7 +8017,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8074,7 +8098,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.55</v>
@@ -8199,7 +8223,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8277,10 +8301,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.26</v>
@@ -8483,7 +8507,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37">
         <v>1.75</v>
@@ -8611,7 +8635,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9023,7 +9047,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9101,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ40">
         <v>2.33</v>
@@ -9229,7 +9253,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9310,7 +9334,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9435,7 +9459,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9641,7 +9665,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9847,7 +9871,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9928,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.2</v>
@@ -10053,7 +10077,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10259,7 +10283,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10671,7 +10695,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -10749,7 +10773,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10955,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>0</v>
@@ -11161,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
         <v>0</v>
@@ -11289,7 +11313,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -11573,10 +11597,10 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.63</v>
@@ -11701,7 +11725,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -11779,10 +11803,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR53">
         <v>1.74</v>
@@ -11988,7 +12012,7 @@
         <v>3</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.21</v>
@@ -12113,7 +12137,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>2.63</v>
@@ -12191,10 +12215,10 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>2.03</v>
@@ -12319,7 +12343,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12606,7 +12630,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.19</v>
@@ -12731,7 +12755,7 @@
         <v>103</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12809,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13015,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
         <v>0</v>
@@ -13633,10 +13657,10 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -13761,7 +13785,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13967,7 +13991,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14173,7 +14197,7 @@
         <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14251,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>0.25</v>
@@ -14666,7 +14690,7 @@
         <v>3</v>
       </c>
       <c r="AQ67">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -14791,7 +14815,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14997,7 +15021,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15203,7 +15227,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15281,7 +15305,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ70">
         <v>2</v>
@@ -15409,7 +15433,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15615,7 +15639,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15708,31 +15732,31 @@
         <v>2.93</v>
       </c>
       <c r="AU72">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV72">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW72">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX72">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY72">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ72">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA72">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB72">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC72">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD72">
         <v>2.46</v>
@@ -15821,7 +15845,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15917,19 +15941,19 @@
         <v>6</v>
       </c>
       <c r="AV73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX73">
         <v>4</v>
       </c>
       <c r="AY73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ73">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA73">
         <v>6</v>
@@ -15978,6 +16002,1860 @@
       </c>
       <c r="BP73">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7476620</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>93</v>
+      </c>
+      <c r="H74" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>101</v>
+      </c>
+      <c r="P74" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q74">
+        <v>2.6</v>
+      </c>
+      <c r="R74">
+        <v>2.3</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+      <c r="T74">
+        <v>1.33</v>
+      </c>
+      <c r="U74">
+        <v>3.25</v>
+      </c>
+      <c r="V74">
+        <v>2.5</v>
+      </c>
+      <c r="W74">
+        <v>1.5</v>
+      </c>
+      <c r="X74">
+        <v>6.5</v>
+      </c>
+      <c r="Y74">
+        <v>1.11</v>
+      </c>
+      <c r="Z74">
+        <v>1.91</v>
+      </c>
+      <c r="AA74">
+        <v>3.5</v>
+      </c>
+      <c r="AB74">
+        <v>3.75</v>
+      </c>
+      <c r="AC74">
+        <v>1.04</v>
+      </c>
+      <c r="AD74">
+        <v>10</v>
+      </c>
+      <c r="AE74">
+        <v>1.22</v>
+      </c>
+      <c r="AF74">
+        <v>4.2</v>
+      </c>
+      <c r="AG74">
+        <v>1.67</v>
+      </c>
+      <c r="AH74">
+        <v>2.05</v>
+      </c>
+      <c r="AI74">
+        <v>1.62</v>
+      </c>
+      <c r="AJ74">
+        <v>2.2</v>
+      </c>
+      <c r="AK74">
+        <v>1.28</v>
+      </c>
+      <c r="AL74">
+        <v>1.22</v>
+      </c>
+      <c r="AM74">
+        <v>1.77</v>
+      </c>
+      <c r="AN74">
+        <v>2.33</v>
+      </c>
+      <c r="AO74">
+        <v>1.33</v>
+      </c>
+      <c r="AP74">
+        <v>1.75</v>
+      </c>
+      <c r="AQ74">
+        <v>1.75</v>
+      </c>
+      <c r="AR74">
+        <v>1.78</v>
+      </c>
+      <c r="AS74">
+        <v>0.84</v>
+      </c>
+      <c r="AT74">
+        <v>2.62</v>
+      </c>
+      <c r="AU74">
+        <v>4</v>
+      </c>
+      <c r="AV74">
+        <v>6</v>
+      </c>
+      <c r="AW74">
+        <v>6</v>
+      </c>
+      <c r="AX74">
+        <v>1</v>
+      </c>
+      <c r="AY74">
+        <v>10</v>
+      </c>
+      <c r="AZ74">
+        <v>7</v>
+      </c>
+      <c r="BA74">
+        <v>6</v>
+      </c>
+      <c r="BB74">
+        <v>3</v>
+      </c>
+      <c r="BC74">
+        <v>9</v>
+      </c>
+      <c r="BD74">
+        <v>1.51</v>
+      </c>
+      <c r="BE74">
+        <v>7.1</v>
+      </c>
+      <c r="BF74">
+        <v>3.3</v>
+      </c>
+      <c r="BG74">
+        <v>1.2</v>
+      </c>
+      <c r="BH74">
+        <v>4</v>
+      </c>
+      <c r="BI74">
+        <v>1.3</v>
+      </c>
+      <c r="BJ74">
+        <v>3.2</v>
+      </c>
+      <c r="BK74">
+        <v>1.54</v>
+      </c>
+      <c r="BL74">
+        <v>2.32</v>
+      </c>
+      <c r="BM74">
+        <v>1.96</v>
+      </c>
+      <c r="BN74">
+        <v>1.75</v>
+      </c>
+      <c r="BO74">
+        <v>2.52</v>
+      </c>
+      <c r="BP74">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7476613</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s">
+        <v>89</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>148</v>
+      </c>
+      <c r="P75" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q75">
+        <v>2.1</v>
+      </c>
+      <c r="R75">
+        <v>2.3</v>
+      </c>
+      <c r="S75">
+        <v>6</v>
+      </c>
+      <c r="T75">
+        <v>1.36</v>
+      </c>
+      <c r="U75">
+        <v>3</v>
+      </c>
+      <c r="V75">
+        <v>2.63</v>
+      </c>
+      <c r="W75">
+        <v>1.44</v>
+      </c>
+      <c r="X75">
+        <v>7</v>
+      </c>
+      <c r="Y75">
+        <v>1.1</v>
+      </c>
+      <c r="Z75">
+        <v>1.55</v>
+      </c>
+      <c r="AA75">
+        <v>3.8</v>
+      </c>
+      <c r="AB75">
+        <v>6</v>
+      </c>
+      <c r="AC75">
+        <v>1.04</v>
+      </c>
+      <c r="AD75">
+        <v>10</v>
+      </c>
+      <c r="AE75">
+        <v>1.25</v>
+      </c>
+      <c r="AF75">
+        <v>3.8</v>
+      </c>
+      <c r="AG75">
+        <v>1.8</v>
+      </c>
+      <c r="AH75">
+        <v>1.95</v>
+      </c>
+      <c r="AI75">
+        <v>1.83</v>
+      </c>
+      <c r="AJ75">
+        <v>1.83</v>
+      </c>
+      <c r="AK75">
+        <v>1.13</v>
+      </c>
+      <c r="AL75">
+        <v>1.18</v>
+      </c>
+      <c r="AM75">
+        <v>2.4</v>
+      </c>
+      <c r="AN75">
+        <v>2.33</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>2.5</v>
+      </c>
+      <c r="AQ75">
+        <v>0.75</v>
+      </c>
+      <c r="AR75">
+        <v>1.2</v>
+      </c>
+      <c r="AS75">
+        <v>0.84</v>
+      </c>
+      <c r="AT75">
+        <v>2.04</v>
+      </c>
+      <c r="AU75">
+        <v>10</v>
+      </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
+      <c r="AW75">
+        <v>7</v>
+      </c>
+      <c r="AX75">
+        <v>2</v>
+      </c>
+      <c r="AY75">
+        <v>17</v>
+      </c>
+      <c r="AZ75">
+        <v>2</v>
+      </c>
+      <c r="BA75">
+        <v>10</v>
+      </c>
+      <c r="BB75">
+        <v>2</v>
+      </c>
+      <c r="BC75">
+        <v>12</v>
+      </c>
+      <c r="BD75">
+        <v>1.26</v>
+      </c>
+      <c r="BE75">
+        <v>9.5</v>
+      </c>
+      <c r="BF75">
+        <v>5.09</v>
+      </c>
+      <c r="BG75">
+        <v>1.25</v>
+      </c>
+      <c r="BH75">
+        <v>3.6</v>
+      </c>
+      <c r="BI75">
+        <v>1.33</v>
+      </c>
+      <c r="BJ75">
+        <v>2.73</v>
+      </c>
+      <c r="BK75">
+        <v>1.9</v>
+      </c>
+      <c r="BL75">
+        <v>1.9</v>
+      </c>
+      <c r="BM75">
+        <v>2.06</v>
+      </c>
+      <c r="BN75">
+        <v>1.68</v>
+      </c>
+      <c r="BO75">
+        <v>2.62</v>
+      </c>
+      <c r="BP75">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7476614</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>92</v>
+      </c>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>101</v>
+      </c>
+      <c r="P76" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q76">
+        <v>2.88</v>
+      </c>
+      <c r="R76">
+        <v>2.1</v>
+      </c>
+      <c r="S76">
+        <v>3.75</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>1.36</v>
+      </c>
+      <c r="X76">
+        <v>8</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>2.2</v>
+      </c>
+      <c r="AA76">
+        <v>3.3</v>
+      </c>
+      <c r="AB76">
+        <v>3.2</v>
+      </c>
+      <c r="AC76">
+        <v>1.05</v>
+      </c>
+      <c r="AD76">
+        <v>9</v>
+      </c>
+      <c r="AE76">
+        <v>1.3</v>
+      </c>
+      <c r="AF76">
+        <v>3.35</v>
+      </c>
+      <c r="AG76">
+        <v>1.91</v>
+      </c>
+      <c r="AH76">
+        <v>1.8</v>
+      </c>
+      <c r="AI76">
+        <v>1.8</v>
+      </c>
+      <c r="AJ76">
+        <v>1.91</v>
+      </c>
+      <c r="AK76">
+        <v>1.33</v>
+      </c>
+      <c r="AL76">
+        <v>1.25</v>
+      </c>
+      <c r="AM76">
+        <v>1.67</v>
+      </c>
+      <c r="AN76">
+        <v>2.33</v>
+      </c>
+      <c r="AO76">
+        <v>1.5</v>
+      </c>
+      <c r="AP76">
+        <v>2</v>
+      </c>
+      <c r="AQ76">
+        <v>1.33</v>
+      </c>
+      <c r="AR76">
+        <v>1.6</v>
+      </c>
+      <c r="AS76">
+        <v>1.17</v>
+      </c>
+      <c r="AT76">
+        <v>2.77</v>
+      </c>
+      <c r="AU76">
+        <v>6</v>
+      </c>
+      <c r="AV76">
+        <v>0</v>
+      </c>
+      <c r="AW76">
+        <v>2</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>8</v>
+      </c>
+      <c r="AZ76">
+        <v>4</v>
+      </c>
+      <c r="BA76">
+        <v>7</v>
+      </c>
+      <c r="BB76">
+        <v>3</v>
+      </c>
+      <c r="BC76">
+        <v>10</v>
+      </c>
+      <c r="BD76">
+        <v>1.71</v>
+      </c>
+      <c r="BE76">
+        <v>6.65</v>
+      </c>
+      <c r="BF76">
+        <v>2.7</v>
+      </c>
+      <c r="BG76">
+        <v>1.25</v>
+      </c>
+      <c r="BH76">
+        <v>3.6</v>
+      </c>
+      <c r="BI76">
+        <v>1.37</v>
+      </c>
+      <c r="BJ76">
+        <v>2.85</v>
+      </c>
+      <c r="BK76">
+        <v>1.7</v>
+      </c>
+      <c r="BL76">
+        <v>2.03</v>
+      </c>
+      <c r="BM76">
+        <v>2.13</v>
+      </c>
+      <c r="BN76">
+        <v>1.63</v>
+      </c>
+      <c r="BO76">
+        <v>2.85</v>
+      </c>
+      <c r="BP76">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7476616</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" t="s">
+        <v>80</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>149</v>
+      </c>
+      <c r="P77" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q77">
+        <v>2.75</v>
+      </c>
+      <c r="R77">
+        <v>2.1</v>
+      </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <v>1.4</v>
+      </c>
+      <c r="U77">
+        <v>2.75</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="W77">
+        <v>1.36</v>
+      </c>
+      <c r="X77">
+        <v>9</v>
+      </c>
+      <c r="Y77">
+        <v>1.07</v>
+      </c>
+      <c r="Z77">
+        <v>2.05</v>
+      </c>
+      <c r="AA77">
+        <v>3.3</v>
+      </c>
+      <c r="AB77">
+        <v>3.5</v>
+      </c>
+      <c r="AC77">
+        <v>1.06</v>
+      </c>
+      <c r="AD77">
+        <v>8.5</v>
+      </c>
+      <c r="AE77">
+        <v>1.33</v>
+      </c>
+      <c r="AF77">
+        <v>3.2</v>
+      </c>
+      <c r="AG77">
+        <v>1.95</v>
+      </c>
+      <c r="AH77">
+        <v>1.75</v>
+      </c>
+      <c r="AI77">
+        <v>1.8</v>
+      </c>
+      <c r="AJ77">
+        <v>1.91</v>
+      </c>
+      <c r="AK77">
+        <v>1.3</v>
+      </c>
+      <c r="AL77">
+        <v>1.25</v>
+      </c>
+      <c r="AM77">
+        <v>1.7</v>
+      </c>
+      <c r="AN77">
+        <v>1.33</v>
+      </c>
+      <c r="AO77">
+        <v>1.33</v>
+      </c>
+      <c r="AP77">
+        <v>1.75</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>1.92</v>
+      </c>
+      <c r="AS77">
+        <v>1.23</v>
+      </c>
+      <c r="AT77">
+        <v>3.15</v>
+      </c>
+      <c r="AU77">
+        <v>9</v>
+      </c>
+      <c r="AV77">
+        <v>7</v>
+      </c>
+      <c r="AW77">
+        <v>3</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>12</v>
+      </c>
+      <c r="AZ77">
+        <v>11</v>
+      </c>
+      <c r="BA77">
+        <v>2</v>
+      </c>
+      <c r="BB77">
+        <v>5</v>
+      </c>
+      <c r="BC77">
+        <v>7</v>
+      </c>
+      <c r="BD77">
+        <v>1.59</v>
+      </c>
+      <c r="BE77">
+        <v>7.5</v>
+      </c>
+      <c r="BF77">
+        <v>2.92</v>
+      </c>
+      <c r="BG77">
+        <v>1.15</v>
+      </c>
+      <c r="BH77">
+        <v>4.75</v>
+      </c>
+      <c r="BI77">
+        <v>1.29</v>
+      </c>
+      <c r="BJ77">
+        <v>3.3</v>
+      </c>
+      <c r="BK77">
+        <v>1.43</v>
+      </c>
+      <c r="BL77">
+        <v>2.62</v>
+      </c>
+      <c r="BM77">
+        <v>2</v>
+      </c>
+      <c r="BN77">
+        <v>1.8</v>
+      </c>
+      <c r="BO77">
+        <v>2.22</v>
+      </c>
+      <c r="BP77">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7476617</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>150</v>
+      </c>
+      <c r="P78" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q78">
+        <v>2.4</v>
+      </c>
+      <c r="R78">
+        <v>2.2</v>
+      </c>
+      <c r="S78">
+        <v>4.75</v>
+      </c>
+      <c r="T78">
+        <v>1.36</v>
+      </c>
+      <c r="U78">
+        <v>3</v>
+      </c>
+      <c r="V78">
+        <v>2.75</v>
+      </c>
+      <c r="W78">
+        <v>1.4</v>
+      </c>
+      <c r="X78">
+        <v>8</v>
+      </c>
+      <c r="Y78">
+        <v>1.08</v>
+      </c>
+      <c r="Z78">
+        <v>1.75</v>
+      </c>
+      <c r="AA78">
+        <v>3.5</v>
+      </c>
+      <c r="AB78">
+        <v>4.6</v>
+      </c>
+      <c r="AC78">
+        <v>1.05</v>
+      </c>
+      <c r="AD78">
+        <v>9</v>
+      </c>
+      <c r="AE78">
+        <v>1.28</v>
+      </c>
+      <c r="AF78">
+        <v>3.5</v>
+      </c>
+      <c r="AG78">
+        <v>1.85</v>
+      </c>
+      <c r="AH78">
+        <v>1.85</v>
+      </c>
+      <c r="AI78">
+        <v>1.8</v>
+      </c>
+      <c r="AJ78">
+        <v>1.91</v>
+      </c>
+      <c r="AK78">
+        <v>1.18</v>
+      </c>
+      <c r="AL78">
+        <v>1.22</v>
+      </c>
+      <c r="AM78">
+        <v>2</v>
+      </c>
+      <c r="AN78">
+        <v>1.33</v>
+      </c>
+      <c r="AO78">
+        <v>1.33</v>
+      </c>
+      <c r="AP78">
+        <v>1.75</v>
+      </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
+      <c r="AR78">
+        <v>0.97</v>
+      </c>
+      <c r="AS78">
+        <v>1.24</v>
+      </c>
+      <c r="AT78">
+        <v>2.21</v>
+      </c>
+      <c r="AU78">
+        <v>7</v>
+      </c>
+      <c r="AV78">
+        <v>6</v>
+      </c>
+      <c r="AW78">
+        <v>7</v>
+      </c>
+      <c r="AX78">
+        <v>1</v>
+      </c>
+      <c r="AY78">
+        <v>14</v>
+      </c>
+      <c r="AZ78">
+        <v>7</v>
+      </c>
+      <c r="BA78">
+        <v>5</v>
+      </c>
+      <c r="BB78">
+        <v>7</v>
+      </c>
+      <c r="BC78">
+        <v>12</v>
+      </c>
+      <c r="BD78">
+        <v>1.44</v>
+      </c>
+      <c r="BE78">
+        <v>7.5</v>
+      </c>
+      <c r="BF78">
+        <v>3.58</v>
+      </c>
+      <c r="BG78">
+        <v>1.17</v>
+      </c>
+      <c r="BH78">
+        <v>4.5</v>
+      </c>
+      <c r="BI78">
+        <v>1.3</v>
+      </c>
+      <c r="BJ78">
+        <v>3.2</v>
+      </c>
+      <c r="BK78">
+        <v>1.46</v>
+      </c>
+      <c r="BL78">
+        <v>2.52</v>
+      </c>
+      <c r="BM78">
+        <v>1.95</v>
+      </c>
+      <c r="BN78">
+        <v>1.85</v>
+      </c>
+      <c r="BO78">
+        <v>2.32</v>
+      </c>
+      <c r="BP78">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7476618</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s">
+        <v>83</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>151</v>
+      </c>
+      <c r="P79" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q79">
+        <v>2.88</v>
+      </c>
+      <c r="R79">
+        <v>2.25</v>
+      </c>
+      <c r="S79">
+        <v>3.4</v>
+      </c>
+      <c r="T79">
+        <v>1.36</v>
+      </c>
+      <c r="U79">
+        <v>3</v>
+      </c>
+      <c r="V79">
+        <v>2.63</v>
+      </c>
+      <c r="W79">
+        <v>1.44</v>
+      </c>
+      <c r="X79">
+        <v>7</v>
+      </c>
+      <c r="Y79">
+        <v>1.1</v>
+      </c>
+      <c r="Z79">
+        <v>2.25</v>
+      </c>
+      <c r="AA79">
+        <v>3.3</v>
+      </c>
+      <c r="AB79">
+        <v>3</v>
+      </c>
+      <c r="AC79">
+        <v>1.05</v>
+      </c>
+      <c r="AD79">
+        <v>9.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.25</v>
+      </c>
+      <c r="AF79">
+        <v>3.7</v>
+      </c>
+      <c r="AG79">
+        <v>1.75</v>
+      </c>
+      <c r="AH79">
+        <v>1.95</v>
+      </c>
+      <c r="AI79">
+        <v>1.62</v>
+      </c>
+      <c r="AJ79">
+        <v>2.2</v>
+      </c>
+      <c r="AK79">
+        <v>1.38</v>
+      </c>
+      <c r="AL79">
+        <v>1.25</v>
+      </c>
+      <c r="AM79">
+        <v>1.6</v>
+      </c>
+      <c r="AN79">
+        <v>2</v>
+      </c>
+      <c r="AO79">
+        <v>1.33</v>
+      </c>
+      <c r="AP79">
+        <v>2.25</v>
+      </c>
+      <c r="AQ79">
+        <v>1</v>
+      </c>
+      <c r="AR79">
+        <v>1.15</v>
+      </c>
+      <c r="AS79">
+        <v>1.23</v>
+      </c>
+      <c r="AT79">
+        <v>2.38</v>
+      </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>3</v>
+      </c>
+      <c r="AW79">
+        <v>4</v>
+      </c>
+      <c r="AX79">
+        <v>6</v>
+      </c>
+      <c r="AY79">
+        <v>9</v>
+      </c>
+      <c r="AZ79">
+        <v>9</v>
+      </c>
+      <c r="BA79">
+        <v>3</v>
+      </c>
+      <c r="BB79">
+        <v>5</v>
+      </c>
+      <c r="BC79">
+        <v>8</v>
+      </c>
+      <c r="BD79">
+        <v>1.75</v>
+      </c>
+      <c r="BE79">
+        <v>7.5</v>
+      </c>
+      <c r="BF79">
+        <v>2.45</v>
+      </c>
+      <c r="BG79">
+        <v>1.18</v>
+      </c>
+      <c r="BH79">
+        <v>4.33</v>
+      </c>
+      <c r="BI79">
+        <v>1.33</v>
+      </c>
+      <c r="BJ79">
+        <v>3</v>
+      </c>
+      <c r="BK79">
+        <v>1.48</v>
+      </c>
+      <c r="BL79">
+        <v>2.47</v>
+      </c>
+      <c r="BM79">
+        <v>1.9</v>
+      </c>
+      <c r="BN79">
+        <v>1.9</v>
+      </c>
+      <c r="BO79">
+        <v>2.25</v>
+      </c>
+      <c r="BP79">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7476619</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s">
+        <v>74</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>152</v>
+      </c>
+      <c r="P80" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q80">
+        <v>2.88</v>
+      </c>
+      <c r="R80">
+        <v>2.25</v>
+      </c>
+      <c r="S80">
+        <v>3.4</v>
+      </c>
+      <c r="T80">
+        <v>1.33</v>
+      </c>
+      <c r="U80">
+        <v>3.25</v>
+      </c>
+      <c r="V80">
+        <v>2.63</v>
+      </c>
+      <c r="W80">
+        <v>1.44</v>
+      </c>
+      <c r="X80">
+        <v>6.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.11</v>
+      </c>
+      <c r="Z80">
+        <v>2.3</v>
+      </c>
+      <c r="AA80">
+        <v>3.4</v>
+      </c>
+      <c r="AB80">
+        <v>2.9</v>
+      </c>
+      <c r="AC80">
+        <v>1.05</v>
+      </c>
+      <c r="AD80">
+        <v>9.5</v>
+      </c>
+      <c r="AE80">
+        <v>1.25</v>
+      </c>
+      <c r="AF80">
+        <v>3.95</v>
+      </c>
+      <c r="AG80">
+        <v>1.65</v>
+      </c>
+      <c r="AH80">
+        <v>2.1</v>
+      </c>
+      <c r="AI80">
+        <v>1.57</v>
+      </c>
+      <c r="AJ80">
+        <v>2.25</v>
+      </c>
+      <c r="AK80">
+        <v>1.42</v>
+      </c>
+      <c r="AL80">
+        <v>1.25</v>
+      </c>
+      <c r="AM80">
+        <v>1.57</v>
+      </c>
+      <c r="AN80">
+        <v>2</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80">
+        <v>1.75</v>
+      </c>
+      <c r="AQ80">
+        <v>1</v>
+      </c>
+      <c r="AR80">
+        <v>1.48</v>
+      </c>
+      <c r="AS80">
+        <v>1.55</v>
+      </c>
+      <c r="AT80">
+        <v>3.03</v>
+      </c>
+      <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>7</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>6</v>
+      </c>
+      <c r="AY80">
+        <v>8</v>
+      </c>
+      <c r="AZ80">
+        <v>13</v>
+      </c>
+      <c r="BA80">
+        <v>4</v>
+      </c>
+      <c r="BB80">
+        <v>5</v>
+      </c>
+      <c r="BC80">
+        <v>9</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>1.5</v>
+      </c>
+      <c r="BJ80">
+        <v>0</v>
+      </c>
+      <c r="BK80">
+        <v>1.84</v>
+      </c>
+      <c r="BL80">
+        <v>1.95</v>
+      </c>
+      <c r="BM80">
+        <v>2.31</v>
+      </c>
+      <c r="BN80">
+        <v>1.58</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7476621</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F81">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>101</v>
+      </c>
+      <c r="P81" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q81">
+        <v>3.4</v>
+      </c>
+      <c r="R81">
+        <v>2.2</v>
+      </c>
+      <c r="S81">
+        <v>3.1</v>
+      </c>
+      <c r="T81">
+        <v>1.36</v>
+      </c>
+      <c r="U81">
+        <v>3</v>
+      </c>
+      <c r="V81">
+        <v>2.75</v>
+      </c>
+      <c r="W81">
+        <v>1.4</v>
+      </c>
+      <c r="X81">
+        <v>7</v>
+      </c>
+      <c r="Y81">
+        <v>1.1</v>
+      </c>
+      <c r="Z81">
+        <v>2.8</v>
+      </c>
+      <c r="AA81">
+        <v>3.3</v>
+      </c>
+      <c r="AB81">
+        <v>2.45</v>
+      </c>
+      <c r="AC81">
+        <v>1.05</v>
+      </c>
+      <c r="AD81">
+        <v>9</v>
+      </c>
+      <c r="AE81">
+        <v>1.28</v>
+      </c>
+      <c r="AF81">
+        <v>3.55</v>
+      </c>
+      <c r="AG81">
+        <v>1.8</v>
+      </c>
+      <c r="AH81">
+        <v>1.95</v>
+      </c>
+      <c r="AI81">
+        <v>1.67</v>
+      </c>
+      <c r="AJ81">
+        <v>2.1</v>
+      </c>
+      <c r="AK81">
+        <v>1.53</v>
+      </c>
+      <c r="AL81">
+        <v>1.25</v>
+      </c>
+      <c r="AM81">
+        <v>1.42</v>
+      </c>
+      <c r="AN81">
+        <v>2</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>1.5</v>
+      </c>
+      <c r="AQ81">
+        <v>1.5</v>
+      </c>
+      <c r="AR81">
+        <v>1.26</v>
+      </c>
+      <c r="AS81">
+        <v>1.04</v>
+      </c>
+      <c r="AT81">
+        <v>2.3</v>
+      </c>
+      <c r="AU81">
+        <v>3</v>
+      </c>
+      <c r="AV81">
+        <v>7</v>
+      </c>
+      <c r="AW81">
+        <v>6</v>
+      </c>
+      <c r="AX81">
+        <v>5</v>
+      </c>
+      <c r="AY81">
+        <v>9</v>
+      </c>
+      <c r="AZ81">
+        <v>12</v>
+      </c>
+      <c r="BA81">
+        <v>6</v>
+      </c>
+      <c r="BB81">
+        <v>5</v>
+      </c>
+      <c r="BC81">
+        <v>11</v>
+      </c>
+      <c r="BD81">
+        <v>1.91</v>
+      </c>
+      <c r="BE81">
+        <v>7</v>
+      </c>
+      <c r="BF81">
+        <v>2.2</v>
+      </c>
+      <c r="BG81">
+        <v>1.18</v>
+      </c>
+      <c r="BH81">
+        <v>3.74</v>
+      </c>
+      <c r="BI81">
+        <v>1.38</v>
+      </c>
+      <c r="BJ81">
+        <v>2.62</v>
+      </c>
+      <c r="BK81">
+        <v>1.7</v>
+      </c>
+      <c r="BL81">
+        <v>2.03</v>
+      </c>
+      <c r="BM81">
+        <v>2.1</v>
+      </c>
+      <c r="BN81">
+        <v>1.59</v>
+      </c>
+      <c r="BO81">
+        <v>2.73</v>
+      </c>
+      <c r="BP81">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7476622</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" t="s">
+        <v>82</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>101</v>
+      </c>
+      <c r="P82" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q82">
+        <v>2.63</v>
+      </c>
+      <c r="R82">
+        <v>2.25</v>
+      </c>
+      <c r="S82">
+        <v>4</v>
+      </c>
+      <c r="T82">
+        <v>1.36</v>
+      </c>
+      <c r="U82">
+        <v>3</v>
+      </c>
+      <c r="V82">
+        <v>2.63</v>
+      </c>
+      <c r="W82">
+        <v>1.44</v>
+      </c>
+      <c r="X82">
+        <v>7</v>
+      </c>
+      <c r="Y82">
+        <v>1.1</v>
+      </c>
+      <c r="Z82">
+        <v>1.95</v>
+      </c>
+      <c r="AA82">
+        <v>3.4</v>
+      </c>
+      <c r="AB82">
+        <v>3.6</v>
+      </c>
+      <c r="AC82">
+        <v>1.05</v>
+      </c>
+      <c r="AD82">
+        <v>9.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.25</v>
+      </c>
+      <c r="AF82">
+        <v>3.75</v>
+      </c>
+      <c r="AG82">
+        <v>1.75</v>
+      </c>
+      <c r="AH82">
+        <v>2</v>
+      </c>
+      <c r="AI82">
+        <v>1.67</v>
+      </c>
+      <c r="AJ82">
+        <v>2.1</v>
+      </c>
+      <c r="AK82">
+        <v>1.28</v>
+      </c>
+      <c r="AL82">
+        <v>1.22</v>
+      </c>
+      <c r="AM82">
+        <v>1.77</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0.75</v>
+      </c>
+      <c r="AQ82">
+        <v>0.75</v>
+      </c>
+      <c r="AR82">
+        <v>1.69</v>
+      </c>
+      <c r="AS82">
+        <v>1.44</v>
+      </c>
+      <c r="AT82">
+        <v>3.13</v>
+      </c>
+      <c r="AU82">
+        <v>3</v>
+      </c>
+      <c r="AV82">
+        <v>3</v>
+      </c>
+      <c r="AW82">
+        <v>8</v>
+      </c>
+      <c r="AX82">
+        <v>4</v>
+      </c>
+      <c r="AY82">
+        <v>11</v>
+      </c>
+      <c r="AZ82">
+        <v>7</v>
+      </c>
+      <c r="BA82">
+        <v>9</v>
+      </c>
+      <c r="BB82">
+        <v>5</v>
+      </c>
+      <c r="BC82">
+        <v>14</v>
+      </c>
+      <c r="BD82">
+        <v>1.59</v>
+      </c>
+      <c r="BE82">
+        <v>7.5</v>
+      </c>
+      <c r="BF82">
+        <v>2.92</v>
+      </c>
+      <c r="BG82">
+        <v>1.29</v>
+      </c>
+      <c r="BH82">
+        <v>3.3</v>
+      </c>
+      <c r="BI82">
+        <v>1.5</v>
+      </c>
+      <c r="BJ82">
+        <v>2.4</v>
+      </c>
+      <c r="BK82">
+        <v>1.85</v>
+      </c>
+      <c r="BL82">
+        <v>1.95</v>
+      </c>
+      <c r="BM82">
+        <v>2.25</v>
+      </c>
+      <c r="BN82">
+        <v>1.57</v>
+      </c>
+      <c r="BO82">
+        <v>2.9</v>
+      </c>
+      <c r="BP82">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,9 +460,6 @@
     <t>['27']</t>
   </si>
   <si>
-    <t>['27', '82']</t>
-  </si>
-  <si>
     <t>['7', '38', '78']</t>
   </si>
   <si>
@@ -472,7 +469,7 @@
     <t>['51']</t>
   </si>
   <si>
-    <t>['34']</t>
+    <t>['34', '45+3']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -592,13 +589,13 @@
     <t>['53']</t>
   </si>
   <si>
-    <t>['82']</t>
-  </si>
-  <si>
     <t>['51', '57']</t>
   </si>
   <si>
     <t>['42', '72']</t>
+  </si>
+  <si>
+    <t>['74', '86']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1216,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1425,7 +1422,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1709,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -1837,7 +1834,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1918,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2043,7 +2040,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2327,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2455,7 +2452,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2661,7 +2658,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2867,7 +2864,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2945,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3073,7 +3070,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3566,7 +3563,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4103,7 +4100,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4515,7 +4512,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4721,7 +4718,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4927,7 +4924,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5545,7 +5542,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5957,7 +5954,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6163,7 +6160,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6862,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -6987,7 +6984,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7271,7 +7268,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -7477,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0.75</v>
@@ -7605,7 +7602,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7811,7 +7808,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8017,7 +8014,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8223,7 +8220,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8507,7 +8504,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
         <v>1.75</v>
@@ -8635,7 +8632,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9047,7 +9044,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9253,7 +9250,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9334,7 +9331,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9459,7 +9456,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9665,7 +9662,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9871,7 +9868,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10077,7 +10074,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10283,7 +10280,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10695,7 +10692,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11313,7 +11310,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -11597,7 +11594,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -11725,7 +11722,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12137,7 +12134,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>2.63</v>
@@ -12343,7 +12340,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12755,7 +12752,7 @@
         <v>103</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12833,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13042,7 +13039,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ59">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR59">
         <v>1</v>
@@ -13660,7 +13657,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -13785,7 +13782,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13991,7 +13988,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14197,7 +14194,7 @@
         <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14815,7 +14812,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15021,7 +15018,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15227,7 +15224,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15433,7 +15430,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15639,7 +15636,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15845,7 +15842,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16051,7 +16048,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16215,7 +16212,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7476613</v>
+        <v>7476614</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16230,160 +16227,160 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="P75" t="s">
         <v>101</v>
       </c>
       <c r="Q75">
+        <v>2.88</v>
+      </c>
+      <c r="R75">
         <v>2.1</v>
       </c>
-      <c r="R75">
-        <v>2.3</v>
-      </c>
       <c r="S75">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="T75">
+        <v>1.4</v>
+      </c>
+      <c r="U75">
+        <v>2.75</v>
+      </c>
+      <c r="V75">
+        <v>3</v>
+      </c>
+      <c r="W75">
         <v>1.36</v>
       </c>
-      <c r="U75">
-        <v>3</v>
-      </c>
-      <c r="V75">
-        <v>2.63</v>
-      </c>
-      <c r="W75">
-        <v>1.44</v>
-      </c>
       <c r="X75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y75">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z75">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="AA75">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="AB75">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="AC75">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE75">
+        <v>1.3</v>
+      </c>
+      <c r="AF75">
+        <v>3.35</v>
+      </c>
+      <c r="AG75">
+        <v>1.91</v>
+      </c>
+      <c r="AH75">
+        <v>1.8</v>
+      </c>
+      <c r="AI75">
+        <v>1.8</v>
+      </c>
+      <c r="AJ75">
+        <v>1.91</v>
+      </c>
+      <c r="AK75">
+        <v>1.33</v>
+      </c>
+      <c r="AL75">
         <v>1.25</v>
       </c>
-      <c r="AF75">
-        <v>3.8</v>
-      </c>
-      <c r="AG75">
-        <v>1.8</v>
-      </c>
-      <c r="AH75">
-        <v>1.95</v>
-      </c>
-      <c r="AI75">
-        <v>1.83</v>
-      </c>
-      <c r="AJ75">
-        <v>1.83</v>
-      </c>
-      <c r="AK75">
-        <v>1.13</v>
-      </c>
-      <c r="AL75">
-        <v>1.18</v>
-      </c>
       <c r="AM75">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="AN75">
         <v>2.33</v>
       </c>
       <c r="AO75">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP75">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AS75">
-        <v>0.84</v>
+        <v>1.17</v>
       </c>
       <c r="AT75">
-        <v>2.04</v>
+        <v>2.77</v>
       </c>
       <c r="AU75">
+        <v>6</v>
+      </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
+      <c r="AW75">
+        <v>2</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>8</v>
+      </c>
+      <c r="AZ75">
+        <v>4</v>
+      </c>
+      <c r="BA75">
+        <v>7</v>
+      </c>
+      <c r="BB75">
+        <v>3</v>
+      </c>
+      <c r="BC75">
         <v>10</v>
       </c>
-      <c r="AV75">
-        <v>0</v>
-      </c>
-      <c r="AW75">
-        <v>7</v>
-      </c>
-      <c r="AX75">
-        <v>2</v>
-      </c>
-      <c r="AY75">
-        <v>17</v>
-      </c>
-      <c r="AZ75">
-        <v>2</v>
-      </c>
-      <c r="BA75">
-        <v>10</v>
-      </c>
-      <c r="BB75">
-        <v>2</v>
-      </c>
-      <c r="BC75">
-        <v>12</v>
-      </c>
       <c r="BD75">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="BE75">
-        <v>9.5</v>
+        <v>6.65</v>
       </c>
       <c r="BF75">
-        <v>5.09</v>
+        <v>2.7</v>
       </c>
       <c r="BG75">
         <v>1.25</v>
@@ -16392,28 +16389,28 @@
         <v>3.6</v>
       </c>
       <c r="BI75">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="BJ75">
-        <v>2.73</v>
+        <v>2.85</v>
       </c>
       <c r="BK75">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="BL75">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="BM75">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="BN75">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="BO75">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="BP75">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16421,7 +16418,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7476614</v>
+        <v>7476616</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16436,43 +16433,43 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O76" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="P76" t="s">
         <v>101</v>
       </c>
       <c r="Q76">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="R76">
         <v>2.1</v>
       </c>
       <c r="S76">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T76">
         <v>1.4</v>
@@ -16487,37 +16484,37 @@
         <v>1.36</v>
       </c>
       <c r="X76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y76">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z76">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AA76">
         <v>3.3</v>
       </c>
       <c r="AB76">
+        <v>3.5</v>
+      </c>
+      <c r="AC76">
+        <v>1.06</v>
+      </c>
+      <c r="AD76">
+        <v>8.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.33</v>
+      </c>
+      <c r="AF76">
         <v>3.2</v>
       </c>
-      <c r="AC76">
-        <v>1.05</v>
-      </c>
-      <c r="AD76">
-        <v>9</v>
-      </c>
-      <c r="AE76">
-        <v>1.3</v>
-      </c>
-      <c r="AF76">
-        <v>3.35</v>
-      </c>
       <c r="AG76">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AH76">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AI76">
         <v>1.8</v>
@@ -16526,100 +16523,100 @@
         <v>1.91</v>
       </c>
       <c r="AK76">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AL76">
         <v>1.25</v>
       </c>
       <c r="AM76">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AN76">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ76">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR76">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="AS76">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AT76">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="AU76">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV76">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX76">
         <v>4</v>
       </c>
       <c r="AY76">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ76">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA76">
+        <v>2</v>
+      </c>
+      <c r="BB76">
+        <v>5</v>
+      </c>
+      <c r="BC76">
         <v>7</v>
       </c>
-      <c r="BB76">
-        <v>3</v>
-      </c>
-      <c r="BC76">
-        <v>10</v>
-      </c>
       <c r="BD76">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="BE76">
-        <v>6.65</v>
+        <v>7.5</v>
       </c>
       <c r="BF76">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="BG76">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="BH76">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="BI76">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="BJ76">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="BK76">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="BL76">
-        <v>2.03</v>
+        <v>2.62</v>
       </c>
       <c r="BM76">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="BN76">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="BO76">
-        <v>2.85</v>
+        <v>2.22</v>
       </c>
       <c r="BP76">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16627,7 +16624,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7476616</v>
+        <v>7476617</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16642,10 +16639,10 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -16672,58 +16669,58 @@
         <v>101</v>
       </c>
       <c r="Q77">
+        <v>2.4</v>
+      </c>
+      <c r="R77">
+        <v>2.2</v>
+      </c>
+      <c r="S77">
+        <v>4.75</v>
+      </c>
+      <c r="T77">
+        <v>1.36</v>
+      </c>
+      <c r="U77">
+        <v>3</v>
+      </c>
+      <c r="V77">
         <v>2.75</v>
       </c>
-      <c r="R77">
-        <v>2.1</v>
-      </c>
-      <c r="S77">
-        <v>4</v>
-      </c>
-      <c r="T77">
+      <c r="W77">
         <v>1.4</v>
       </c>
-      <c r="U77">
-        <v>2.75</v>
-      </c>
-      <c r="V77">
-        <v>3</v>
-      </c>
-      <c r="W77">
-        <v>1.36</v>
-      </c>
       <c r="X77">
+        <v>8</v>
+      </c>
+      <c r="Y77">
+        <v>1.08</v>
+      </c>
+      <c r="Z77">
+        <v>1.75</v>
+      </c>
+      <c r="AA77">
+        <v>3.5</v>
+      </c>
+      <c r="AB77">
+        <v>4.6</v>
+      </c>
+      <c r="AC77">
+        <v>1.05</v>
+      </c>
+      <c r="AD77">
         <v>9</v>
       </c>
-      <c r="Y77">
-        <v>1.07</v>
-      </c>
-      <c r="Z77">
-        <v>2.05</v>
-      </c>
-      <c r="AA77">
-        <v>3.3</v>
-      </c>
-      <c r="AB77">
+      <c r="AE77">
+        <v>1.28</v>
+      </c>
+      <c r="AF77">
         <v>3.5</v>
       </c>
-      <c r="AC77">
-        <v>1.06</v>
-      </c>
-      <c r="AD77">
-        <v>8.5</v>
-      </c>
-      <c r="AE77">
-        <v>1.33</v>
-      </c>
-      <c r="AF77">
-        <v>3.2</v>
-      </c>
       <c r="AG77">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AH77">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AI77">
         <v>1.8</v>
@@ -16732,13 +16729,13 @@
         <v>1.91</v>
       </c>
       <c r="AK77">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AL77">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM77">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AN77">
         <v>1.33</v>
@@ -16753,79 +16750,79 @@
         <v>1</v>
       </c>
       <c r="AR77">
-        <v>1.92</v>
+        <v>0.97</v>
       </c>
       <c r="AS77">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AT77">
-        <v>3.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU77">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV77">
+        <v>6</v>
+      </c>
+      <c r="AW77">
         <v>7</v>
       </c>
-      <c r="AW77">
-        <v>3</v>
-      </c>
       <c r="AX77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY77">
+        <v>14</v>
+      </c>
+      <c r="AZ77">
+        <v>7</v>
+      </c>
+      <c r="BA77">
+        <v>5</v>
+      </c>
+      <c r="BB77">
+        <v>7</v>
+      </c>
+      <c r="BC77">
         <v>12</v>
       </c>
-      <c r="AZ77">
-        <v>11</v>
-      </c>
-      <c r="BA77">
-        <v>2</v>
-      </c>
-      <c r="BB77">
-        <v>5</v>
-      </c>
-      <c r="BC77">
-        <v>7</v>
-      </c>
       <c r="BD77">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="BE77">
         <v>7.5</v>
       </c>
       <c r="BF77">
-        <v>2.92</v>
+        <v>3.58</v>
       </c>
       <c r="BG77">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="BH77">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="BI77">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BJ77">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BK77">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BL77">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="BM77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BO77">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="BP77">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16833,7 +16830,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7476617</v>
+        <v>7476618</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16848,28 +16845,28 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O78" t="s">
         <v>150</v>
@@ -16878,13 +16875,13 @@
         <v>101</v>
       </c>
       <c r="Q78">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R78">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S78">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="T78">
         <v>1.36</v>
@@ -16893,145 +16890,145 @@
         <v>3</v>
       </c>
       <c r="V78">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W78">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y78">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z78">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AA78">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB78">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="AC78">
         <v>1.05</v>
       </c>
       <c r="AD78">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE78">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF78">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AG78">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AH78">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AI78">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AJ78">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AK78">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AL78">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM78">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AN78">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO78">
         <v>1.33</v>
       </c>
       <c r="AP78">
+        <v>2.25</v>
+      </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
+      <c r="AR78">
+        <v>1.15</v>
+      </c>
+      <c r="AS78">
+        <v>1.23</v>
+      </c>
+      <c r="AT78">
+        <v>2.38</v>
+      </c>
+      <c r="AU78">
+        <v>5</v>
+      </c>
+      <c r="AV78">
+        <v>3</v>
+      </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>9</v>
+      </c>
+      <c r="AZ78">
+        <v>9</v>
+      </c>
+      <c r="BA78">
+        <v>3</v>
+      </c>
+      <c r="BB78">
+        <v>5</v>
+      </c>
+      <c r="BC78">
+        <v>8</v>
+      </c>
+      <c r="BD78">
         <v>1.75</v>
-      </c>
-      <c r="AQ78">
-        <v>1</v>
-      </c>
-      <c r="AR78">
-        <v>0.97</v>
-      </c>
-      <c r="AS78">
-        <v>1.24</v>
-      </c>
-      <c r="AT78">
-        <v>2.21</v>
-      </c>
-      <c r="AU78">
-        <v>7</v>
-      </c>
-      <c r="AV78">
-        <v>6</v>
-      </c>
-      <c r="AW78">
-        <v>7</v>
-      </c>
-      <c r="AX78">
-        <v>1</v>
-      </c>
-      <c r="AY78">
-        <v>14</v>
-      </c>
-      <c r="AZ78">
-        <v>7</v>
-      </c>
-      <c r="BA78">
-        <v>5</v>
-      </c>
-      <c r="BB78">
-        <v>7</v>
-      </c>
-      <c r="BC78">
-        <v>12</v>
-      </c>
-      <c r="BD78">
-        <v>1.44</v>
       </c>
       <c r="BE78">
         <v>7.5</v>
       </c>
       <c r="BF78">
-        <v>3.58</v>
+        <v>2.45</v>
       </c>
       <c r="BG78">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH78">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="BI78">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BJ78">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="BK78">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="BL78">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="BM78">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BN78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="BO78">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="BP78">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17039,7 +17036,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7476618</v>
+        <v>7476621</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17054,10 +17051,10 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -17069,28 +17066,28 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O79" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="P79" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="Q79">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R79">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S79">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T79">
         <v>1.36</v>
@@ -17099,10 +17096,10 @@
         <v>3</v>
       </c>
       <c r="V79">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W79">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X79">
         <v>7</v>
@@ -17111,133 +17108,133 @@
         <v>1.1</v>
       </c>
       <c r="Z79">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="AA79">
         <v>3.3</v>
       </c>
       <c r="AB79">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="AC79">
         <v>1.05</v>
       </c>
       <c r="AD79">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE79">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF79">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="AG79">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AH79">
         <v>1.95</v>
       </c>
       <c r="AI79">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AJ79">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AK79">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AL79">
         <v>1.25</v>
       </c>
       <c r="AM79">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="AN79">
         <v>2</v>
       </c>
       <c r="AO79">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP79">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR79">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AS79">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="AT79">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="AU79">
+        <v>3</v>
+      </c>
+      <c r="AV79">
+        <v>7</v>
+      </c>
+      <c r="AW79">
+        <v>6</v>
+      </c>
+      <c r="AX79">
         <v>5</v>
-      </c>
-      <c r="AV79">
-        <v>3</v>
-      </c>
-      <c r="AW79">
-        <v>4</v>
-      </c>
-      <c r="AX79">
-        <v>6</v>
       </c>
       <c r="AY79">
         <v>9</v>
       </c>
       <c r="AZ79">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB79">
         <v>5</v>
       </c>
       <c r="BC79">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD79">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="BE79">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BF79">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="BG79">
         <v>1.18</v>
       </c>
       <c r="BH79">
-        <v>4.33</v>
+        <v>3.74</v>
       </c>
       <c r="BI79">
+        <v>1.38</v>
+      </c>
+      <c r="BJ79">
+        <v>2.62</v>
+      </c>
+      <c r="BK79">
+        <v>1.7</v>
+      </c>
+      <c r="BL79">
+        <v>2.03</v>
+      </c>
+      <c r="BM79">
+        <v>2.1</v>
+      </c>
+      <c r="BN79">
+        <v>1.59</v>
+      </c>
+      <c r="BO79">
+        <v>2.73</v>
+      </c>
+      <c r="BP79">
         <v>1.33</v>
-      </c>
-      <c r="BJ79">
-        <v>3</v>
-      </c>
-      <c r="BK79">
-        <v>1.48</v>
-      </c>
-      <c r="BL79">
-        <v>2.47</v>
-      </c>
-      <c r="BM79">
-        <v>1.9</v>
-      </c>
-      <c r="BN79">
-        <v>1.9</v>
-      </c>
-      <c r="BO79">
-        <v>2.25</v>
-      </c>
-      <c r="BP79">
-        <v>1.57</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17245,7 +17242,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7476619</v>
+        <v>7476622</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17260,49 +17257,49 @@
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H80" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N80">
         <v>2</v>
       </c>
       <c r="O80" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="P80" t="s">
         <v>192</v>
       </c>
       <c r="Q80">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="R80">
         <v>2.25</v>
       </c>
       <c r="S80">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T80">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U80">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V80">
         <v>2.63</v>
@@ -17311,19 +17308,19 @@
         <v>1.44</v>
       </c>
       <c r="X80">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y80">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z80">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="AA80">
         <v>3.4</v>
       </c>
       <c r="AB80">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="AC80">
         <v>1.05</v>
@@ -17335,115 +17332,115 @@
         <v>1.25</v>
       </c>
       <c r="AF80">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="AG80">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AH80">
+        <v>2</v>
+      </c>
+      <c r="AI80">
+        <v>1.67</v>
+      </c>
+      <c r="AJ80">
         <v>2.1</v>
       </c>
-      <c r="AI80">
-        <v>1.57</v>
-      </c>
-      <c r="AJ80">
-        <v>2.25</v>
-      </c>
       <c r="AK80">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AL80">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM80">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AN80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR80">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="AS80">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AT80">
-        <v>3.03</v>
+        <v>3.13</v>
       </c>
       <c r="AU80">
+        <v>3</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>8</v>
+      </c>
+      <c r="AX80">
         <v>4</v>
       </c>
-      <c r="AV80">
+      <c r="AY80">
+        <v>11</v>
+      </c>
+      <c r="AZ80">
         <v>7</v>
       </c>
-      <c r="AW80">
-        <v>4</v>
-      </c>
-      <c r="AX80">
-        <v>6</v>
-      </c>
-      <c r="AY80">
-        <v>8</v>
-      </c>
-      <c r="AZ80">
-        <v>13</v>
-      </c>
       <c r="BA80">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB80">
         <v>5</v>
       </c>
       <c r="BC80">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD80">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="BE80">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="BF80">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="BG80">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BH80">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BI80">
         <v>1.5</v>
       </c>
       <c r="BJ80">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BK80">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="BL80">
         <v>1.95</v>
       </c>
       <c r="BM80">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="BN80">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="BO80">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BP80">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17451,7 +17448,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7476621</v>
+        <v>7477096</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17460,49 +17457,49 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45556.45833333334</v>
+        <v>45558.66666666666</v>
       </c>
       <c r="F81">
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H81" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M81">
         <v>2</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O81" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="P81" t="s">
         <v>193</v>
       </c>
       <c r="Q81">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="R81">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S81">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="T81">
         <v>1.36</v>
@@ -17523,339 +17520,133 @@
         <v>1.1</v>
       </c>
       <c r="Z81">
-        <v>2.8</v>
+        <v>1.58</v>
       </c>
       <c r="AA81">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AB81">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="AC81">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD81">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE81">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AF81">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="AG81">
+        <v>1.81</v>
+      </c>
+      <c r="AH81">
+        <v>1.91</v>
+      </c>
+      <c r="AI81">
+        <v>1.83</v>
+      </c>
+      <c r="AJ81">
+        <v>1.83</v>
+      </c>
+      <c r="AK81">
+        <v>1.13</v>
+      </c>
+      <c r="AL81">
+        <v>1.22</v>
+      </c>
+      <c r="AM81">
+        <v>2.32</v>
+      </c>
+      <c r="AN81">
+        <v>2</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>1.67</v>
+      </c>
+      <c r="AQ81">
+        <v>0.25</v>
+      </c>
+      <c r="AR81">
+        <v>1.21</v>
+      </c>
+      <c r="AS81">
+        <v>0.76</v>
+      </c>
+      <c r="AT81">
+        <v>1.97</v>
+      </c>
+      <c r="AU81">
+        <v>13</v>
+      </c>
+      <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81">
+        <v>10</v>
+      </c>
+      <c r="AX81">
+        <v>3</v>
+      </c>
+      <c r="AY81">
+        <v>23</v>
+      </c>
+      <c r="AZ81">
+        <v>8</v>
+      </c>
+      <c r="BA81">
+        <v>5</v>
+      </c>
+      <c r="BB81">
+        <v>1</v>
+      </c>
+      <c r="BC81">
+        <v>6</v>
+      </c>
+      <c r="BD81">
+        <v>1.37</v>
+      </c>
+      <c r="BE81">
+        <v>9.5</v>
+      </c>
+      <c r="BF81">
+        <v>3.69</v>
+      </c>
+      <c r="BG81">
+        <v>1.16</v>
+      </c>
+      <c r="BH81">
+        <v>5.16</v>
+      </c>
+      <c r="BI81">
+        <v>1.32</v>
+      </c>
+      <c r="BJ81">
+        <v>3.39</v>
+      </c>
+      <c r="BK81">
+        <v>1.54</v>
+      </c>
+      <c r="BL81">
+        <v>2.46</v>
+      </c>
+      <c r="BM81">
+        <v>2</v>
+      </c>
+      <c r="BN81">
         <v>1.8</v>
       </c>
-      <c r="AH81">
-        <v>1.95</v>
-      </c>
-      <c r="AI81">
-        <v>1.67</v>
-      </c>
-      <c r="AJ81">
-        <v>2.1</v>
-      </c>
-      <c r="AK81">
-        <v>1.53</v>
-      </c>
-      <c r="AL81">
-        <v>1.25</v>
-      </c>
-      <c r="AM81">
-        <v>1.42</v>
-      </c>
-      <c r="AN81">
-        <v>2</v>
-      </c>
-      <c r="AO81">
-        <v>1</v>
-      </c>
-      <c r="AP81">
-        <v>1.5</v>
-      </c>
-      <c r="AQ81">
-        <v>1.5</v>
-      </c>
-      <c r="AR81">
-        <v>1.26</v>
-      </c>
-      <c r="AS81">
-        <v>1.04</v>
-      </c>
-      <c r="AT81">
-        <v>2.3</v>
-      </c>
-      <c r="AU81">
-        <v>3</v>
-      </c>
-      <c r="AV81">
-        <v>7</v>
-      </c>
-      <c r="AW81">
-        <v>6</v>
-      </c>
-      <c r="AX81">
-        <v>5</v>
-      </c>
-      <c r="AY81">
-        <v>9</v>
-      </c>
-      <c r="AZ81">
-        <v>12</v>
-      </c>
-      <c r="BA81">
-        <v>6</v>
-      </c>
-      <c r="BB81">
-        <v>5</v>
-      </c>
-      <c r="BC81">
-        <v>11</v>
-      </c>
-      <c r="BD81">
-        <v>1.91</v>
-      </c>
-      <c r="BE81">
-        <v>7</v>
-      </c>
-      <c r="BF81">
-        <v>2.2</v>
-      </c>
-      <c r="BG81">
-        <v>1.18</v>
-      </c>
-      <c r="BH81">
-        <v>3.74</v>
-      </c>
-      <c r="BI81">
-        <v>1.38</v>
-      </c>
-      <c r="BJ81">
-        <v>2.62</v>
-      </c>
-      <c r="BK81">
-        <v>1.7</v>
-      </c>
-      <c r="BL81">
-        <v>2.03</v>
-      </c>
-      <c r="BM81">
-        <v>2.1</v>
-      </c>
-      <c r="BN81">
+      <c r="BO81">
+        <v>2.36</v>
+      </c>
+      <c r="BP81">
         <v>1.59</v>
-      </c>
-      <c r="BO81">
-        <v>2.73</v>
-      </c>
-      <c r="BP81">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:68">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>7476622</v>
-      </c>
-      <c r="C82" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="2">
-        <v>45556.45833333334</v>
-      </c>
-      <c r="F82">
-        <v>7</v>
-      </c>
-      <c r="G82" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" t="s">
-        <v>82</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>2</v>
-      </c>
-      <c r="N82">
-        <v>2</v>
-      </c>
-      <c r="O82" t="s">
-        <v>101</v>
-      </c>
-      <c r="P82" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q82">
-        <v>2.63</v>
-      </c>
-      <c r="R82">
-        <v>2.25</v>
-      </c>
-      <c r="S82">
-        <v>4</v>
-      </c>
-      <c r="T82">
-        <v>1.36</v>
-      </c>
-      <c r="U82">
-        <v>3</v>
-      </c>
-      <c r="V82">
-        <v>2.63</v>
-      </c>
-      <c r="W82">
-        <v>1.44</v>
-      </c>
-      <c r="X82">
-        <v>7</v>
-      </c>
-      <c r="Y82">
-        <v>1.1</v>
-      </c>
-      <c r="Z82">
-        <v>1.95</v>
-      </c>
-      <c r="AA82">
-        <v>3.4</v>
-      </c>
-      <c r="AB82">
-        <v>3.6</v>
-      </c>
-      <c r="AC82">
-        <v>1.05</v>
-      </c>
-      <c r="AD82">
-        <v>9.5</v>
-      </c>
-      <c r="AE82">
-        <v>1.25</v>
-      </c>
-      <c r="AF82">
-        <v>3.75</v>
-      </c>
-      <c r="AG82">
-        <v>1.75</v>
-      </c>
-      <c r="AH82">
-        <v>2</v>
-      </c>
-      <c r="AI82">
-        <v>1.67</v>
-      </c>
-      <c r="AJ82">
-        <v>2.1</v>
-      </c>
-      <c r="AK82">
-        <v>1.28</v>
-      </c>
-      <c r="AL82">
-        <v>1.22</v>
-      </c>
-      <c r="AM82">
-        <v>1.77</v>
-      </c>
-      <c r="AN82">
-        <v>1</v>
-      </c>
-      <c r="AO82">
-        <v>0</v>
-      </c>
-      <c r="AP82">
-        <v>0.75</v>
-      </c>
-      <c r="AQ82">
-        <v>0.75</v>
-      </c>
-      <c r="AR82">
-        <v>1.69</v>
-      </c>
-      <c r="AS82">
-        <v>1.44</v>
-      </c>
-      <c r="AT82">
-        <v>3.13</v>
-      </c>
-      <c r="AU82">
-        <v>3</v>
-      </c>
-      <c r="AV82">
-        <v>3</v>
-      </c>
-      <c r="AW82">
-        <v>8</v>
-      </c>
-      <c r="AX82">
-        <v>4</v>
-      </c>
-      <c r="AY82">
-        <v>11</v>
-      </c>
-      <c r="AZ82">
-        <v>7</v>
-      </c>
-      <c r="BA82">
-        <v>9</v>
-      </c>
-      <c r="BB82">
-        <v>5</v>
-      </c>
-      <c r="BC82">
-        <v>14</v>
-      </c>
-      <c r="BD82">
-        <v>1.59</v>
-      </c>
-      <c r="BE82">
-        <v>7.5</v>
-      </c>
-      <c r="BF82">
-        <v>2.92</v>
-      </c>
-      <c r="BG82">
-        <v>1.29</v>
-      </c>
-      <c r="BH82">
-        <v>3.3</v>
-      </c>
-      <c r="BI82">
-        <v>1.5</v>
-      </c>
-      <c r="BJ82">
-        <v>2.4</v>
-      </c>
-      <c r="BK82">
-        <v>1.85</v>
-      </c>
-      <c r="BL82">
-        <v>1.95</v>
-      </c>
-      <c r="BM82">
-        <v>2.25</v>
-      </c>
-      <c r="BN82">
-        <v>1.57</v>
-      </c>
-      <c r="BO82">
-        <v>2.9</v>
-      </c>
-      <c r="BP82">
-        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,9 @@
     <t>['27']</t>
   </si>
   <si>
+    <t>['27', '82']</t>
+  </si>
+  <si>
     <t>['7', '38', '78']</t>
   </si>
   <si>
@@ -469,6 +472,9 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['34', '45+3']</t>
   </si>
   <si>
@@ -587,6 +593,9 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['82']</t>
   </si>
   <si>
     <t>['51', '57']</t>
@@ -957,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1225,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1422,7 +1431,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1706,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -1834,7 +1843,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1915,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2040,7 +2049,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2452,7 +2461,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2658,7 +2667,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2864,7 +2873,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2942,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3070,7 +3079,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4100,7 +4109,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4512,7 +4521,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4718,7 +4727,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4924,7 +4933,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5542,7 +5551,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5954,7 +5963,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6160,7 +6169,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6984,7 +6993,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7474,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
         <v>0.75</v>
@@ -7602,7 +7611,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7808,7 +7817,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8014,7 +8023,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8220,7 +8229,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8504,7 +8513,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37">
         <v>1.75</v>
@@ -8632,7 +8641,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9044,7 +9053,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9250,7 +9259,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9331,7 +9340,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9456,7 +9465,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9662,7 +9671,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9868,7 +9877,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10074,7 +10083,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10280,7 +10289,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10692,7 +10701,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11310,7 +11319,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -11594,7 +11603,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -11722,7 +11731,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12134,7 +12143,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>2.63</v>
@@ -12340,7 +12349,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12752,7 +12761,7 @@
         <v>103</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12830,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13657,7 +13666,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -13782,7 +13791,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13988,7 +13997,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14194,7 +14203,7 @@
         <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14812,7 +14821,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15018,7 +15027,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15224,7 +15233,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15430,7 +15439,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15636,7 +15645,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15842,7 +15851,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16048,7 +16057,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16212,7 +16221,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7476614</v>
+        <v>7476613</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16227,160 +16236,160 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="H75" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O75" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="P75" t="s">
         <v>101</v>
       </c>
       <c r="Q75">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R75">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S75">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="T75">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V75">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W75">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y75">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z75">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="AA75">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AB75">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="AC75">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE75">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF75">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="AG75">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AH75">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AI75">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AJ75">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AK75">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AL75">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AM75">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="AN75">
         <v>2.33</v>
       </c>
       <c r="AO75">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AR75">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AS75">
-        <v>1.17</v>
+        <v>0.84</v>
       </c>
       <c r="AT75">
-        <v>2.77</v>
+        <v>2.04</v>
       </c>
       <c r="AU75">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV75">
         <v>0</v>
       </c>
       <c r="AW75">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY75">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AZ75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC75">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD75">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="BE75">
-        <v>6.65</v>
+        <v>9.5</v>
       </c>
       <c r="BF75">
-        <v>2.7</v>
+        <v>5.09</v>
       </c>
       <c r="BG75">
         <v>1.25</v>
@@ -16389,28 +16398,28 @@
         <v>3.6</v>
       </c>
       <c r="BI75">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="BJ75">
-        <v>2.85</v>
+        <v>2.73</v>
       </c>
       <c r="BK75">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="BL75">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="BM75">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="BN75">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="BO75">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="BP75">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16418,7 +16427,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7476616</v>
+        <v>7476614</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16433,43 +16442,43 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="P76" t="s">
         <v>101</v>
       </c>
       <c r="Q76">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="R76">
         <v>2.1</v>
       </c>
       <c r="S76">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T76">
         <v>1.4</v>
@@ -16484,37 +16493,37 @@
         <v>1.36</v>
       </c>
       <c r="X76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y76">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z76">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AA76">
         <v>3.3</v>
       </c>
       <c r="AB76">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AC76">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD76">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE76">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF76">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AG76">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AH76">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AI76">
         <v>1.8</v>
@@ -16523,100 +16532,100 @@
         <v>1.91</v>
       </c>
       <c r="AK76">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AL76">
         <v>1.25</v>
       </c>
       <c r="AM76">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AN76">
+        <v>2.33</v>
+      </c>
+      <c r="AO76">
+        <v>1.5</v>
+      </c>
+      <c r="AP76">
+        <v>2</v>
+      </c>
+      <c r="AQ76">
         <v>1.33</v>
       </c>
-      <c r="AO76">
-        <v>1.33</v>
-      </c>
-      <c r="AP76">
-        <v>1.75</v>
-      </c>
-      <c r="AQ76">
-        <v>1</v>
-      </c>
       <c r="AR76">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AS76">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AT76">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="AU76">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV76">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX76">
         <v>4</v>
       </c>
       <c r="AY76">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ76">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BA76">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD76">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="BE76">
-        <v>7.5</v>
+        <v>6.65</v>
       </c>
       <c r="BF76">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="BG76">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="BH76">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="BI76">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="BJ76">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="BK76">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="BL76">
-        <v>2.62</v>
+        <v>2.03</v>
       </c>
       <c r="BM76">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="BN76">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="BO76">
-        <v>2.22</v>
+        <v>2.85</v>
       </c>
       <c r="BP76">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16624,7 +16633,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7476617</v>
+        <v>7476616</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16639,10 +16648,10 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -16669,58 +16678,58 @@
         <v>101</v>
       </c>
       <c r="Q77">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="R77">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S77">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T77">
+        <v>1.4</v>
+      </c>
+      <c r="U77">
+        <v>2.75</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="W77">
         <v>1.36</v>
       </c>
-      <c r="U77">
-        <v>3</v>
-      </c>
-      <c r="V77">
-        <v>2.75</v>
-      </c>
-      <c r="W77">
-        <v>1.4</v>
-      </c>
       <c r="X77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y77">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z77">
+        <v>2.05</v>
+      </c>
+      <c r="AA77">
+        <v>3.3</v>
+      </c>
+      <c r="AB77">
+        <v>3.5</v>
+      </c>
+      <c r="AC77">
+        <v>1.06</v>
+      </c>
+      <c r="AD77">
+        <v>8.5</v>
+      </c>
+      <c r="AE77">
+        <v>1.33</v>
+      </c>
+      <c r="AF77">
+        <v>3.2</v>
+      </c>
+      <c r="AG77">
+        <v>1.95</v>
+      </c>
+      <c r="AH77">
         <v>1.75</v>
-      </c>
-      <c r="AA77">
-        <v>3.5</v>
-      </c>
-      <c r="AB77">
-        <v>4.6</v>
-      </c>
-      <c r="AC77">
-        <v>1.05</v>
-      </c>
-      <c r="AD77">
-        <v>9</v>
-      </c>
-      <c r="AE77">
-        <v>1.28</v>
-      </c>
-      <c r="AF77">
-        <v>3.5</v>
-      </c>
-      <c r="AG77">
-        <v>1.85</v>
-      </c>
-      <c r="AH77">
-        <v>1.85</v>
       </c>
       <c r="AI77">
         <v>1.8</v>
@@ -16729,13 +16738,13 @@
         <v>1.91</v>
       </c>
       <c r="AK77">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AL77">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM77">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AN77">
         <v>1.33</v>
@@ -16750,79 +16759,79 @@
         <v>1</v>
       </c>
       <c r="AR77">
-        <v>0.97</v>
+        <v>1.92</v>
       </c>
       <c r="AS77">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT77">
-        <v>2.21</v>
+        <v>3.15</v>
       </c>
       <c r="AU77">
+        <v>9</v>
+      </c>
+      <c r="AV77">
         <v>7</v>
       </c>
-      <c r="AV77">
-        <v>6</v>
-      </c>
       <c r="AW77">
+        <v>3</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>12</v>
+      </c>
+      <c r="AZ77">
+        <v>11</v>
+      </c>
+      <c r="BA77">
+        <v>2</v>
+      </c>
+      <c r="BB77">
+        <v>5</v>
+      </c>
+      <c r="BC77">
         <v>7</v>
       </c>
-      <c r="AX77">
-        <v>1</v>
-      </c>
-      <c r="AY77">
-        <v>14</v>
-      </c>
-      <c r="AZ77">
-        <v>7</v>
-      </c>
-      <c r="BA77">
-        <v>5</v>
-      </c>
-      <c r="BB77">
-        <v>7</v>
-      </c>
-      <c r="BC77">
-        <v>12</v>
-      </c>
       <c r="BD77">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="BE77">
         <v>7.5</v>
       </c>
       <c r="BF77">
-        <v>3.58</v>
+        <v>2.92</v>
       </c>
       <c r="BG77">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="BH77">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="BI77">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BJ77">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BK77">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BL77">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="BM77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN77">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BO77">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="BP77">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16830,7 +16839,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7476618</v>
+        <v>7476617</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16845,28 +16854,28 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O78" t="s">
         <v>150</v>
@@ -16875,13 +16884,13 @@
         <v>101</v>
       </c>
       <c r="Q78">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R78">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S78">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="T78">
         <v>1.36</v>
@@ -16890,145 +16899,145 @@
         <v>3</v>
       </c>
       <c r="V78">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W78">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y78">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z78">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AA78">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AB78">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="AC78">
         <v>1.05</v>
       </c>
       <c r="AD78">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE78">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF78">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AG78">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AH78">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AI78">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ78">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AK78">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AL78">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM78">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AN78">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO78">
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
         <v>1</v>
       </c>
       <c r="AR78">
-        <v>1.15</v>
+        <v>0.97</v>
       </c>
       <c r="AS78">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AT78">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU78">
+        <v>7</v>
+      </c>
+      <c r="AV78">
+        <v>6</v>
+      </c>
+      <c r="AW78">
+        <v>7</v>
+      </c>
+      <c r="AX78">
+        <v>1</v>
+      </c>
+      <c r="AY78">
+        <v>14</v>
+      </c>
+      <c r="AZ78">
+        <v>7</v>
+      </c>
+      <c r="BA78">
         <v>5</v>
       </c>
-      <c r="AV78">
-        <v>3</v>
-      </c>
-      <c r="AW78">
-        <v>4</v>
-      </c>
-      <c r="AX78">
-        <v>6</v>
-      </c>
-      <c r="AY78">
-        <v>9</v>
-      </c>
-      <c r="AZ78">
-        <v>9</v>
-      </c>
-      <c r="BA78">
-        <v>3</v>
-      </c>
       <c r="BB78">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC78">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD78">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="BE78">
         <v>7.5</v>
       </c>
       <c r="BF78">
-        <v>2.45</v>
+        <v>3.58</v>
       </c>
       <c r="BG78">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH78">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="BI78">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BJ78">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BK78">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BL78">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="BM78">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BN78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BO78">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="BP78">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17036,7 +17045,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7476621</v>
+        <v>7476618</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17051,10 +17060,10 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -17066,28 +17075,28 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O79" t="s">
+        <v>151</v>
+      </c>
+      <c r="P79" t="s">
         <v>101</v>
       </c>
-      <c r="P79" t="s">
-        <v>191</v>
-      </c>
       <c r="Q79">
+        <v>2.88</v>
+      </c>
+      <c r="R79">
+        <v>2.25</v>
+      </c>
+      <c r="S79">
         <v>3.4</v>
-      </c>
-      <c r="R79">
-        <v>2.2</v>
-      </c>
-      <c r="S79">
-        <v>3.1</v>
       </c>
       <c r="T79">
         <v>1.36</v>
@@ -17096,10 +17105,10 @@
         <v>3</v>
       </c>
       <c r="V79">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W79">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X79">
         <v>7</v>
@@ -17108,133 +17117,133 @@
         <v>1.1</v>
       </c>
       <c r="Z79">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AA79">
         <v>3.3</v>
       </c>
       <c r="AB79">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="AC79">
         <v>1.05</v>
       </c>
       <c r="AD79">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE79">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF79">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AG79">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AH79">
         <v>1.95</v>
       </c>
       <c r="AI79">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ79">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK79">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AL79">
         <v>1.25</v>
       </c>
       <c r="AM79">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AN79">
         <v>2</v>
       </c>
       <c r="AO79">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR79">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AS79">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="AT79">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="AU79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV79">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW79">
+        <v>4</v>
+      </c>
+      <c r="AX79">
         <v>6</v>
-      </c>
-      <c r="AX79">
-        <v>5</v>
       </c>
       <c r="AY79">
         <v>9</v>
       </c>
       <c r="AZ79">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA79">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC79">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD79">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="BE79">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF79">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="BG79">
         <v>1.18</v>
       </c>
       <c r="BH79">
-        <v>3.74</v>
+        <v>4.33</v>
       </c>
       <c r="BI79">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="BJ79">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="BK79">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="BL79">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="BM79">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="BN79">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="BO79">
-        <v>2.73</v>
+        <v>2.25</v>
       </c>
       <c r="BP79">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17242,7 +17251,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7476622</v>
+        <v>7476619</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17257,49 +17266,49 @@
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N80">
         <v>2</v>
       </c>
       <c r="O80" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q80">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="R80">
         <v>2.25</v>
       </c>
       <c r="S80">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T80">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U80">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V80">
         <v>2.63</v>
@@ -17308,19 +17317,19 @@
         <v>1.44</v>
       </c>
       <c r="X80">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y80">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z80">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="AA80">
         <v>3.4</v>
       </c>
       <c r="AB80">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AC80">
         <v>1.05</v>
@@ -17332,115 +17341,115 @@
         <v>1.25</v>
       </c>
       <c r="AF80">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="AG80">
+        <v>1.65</v>
+      </c>
+      <c r="AH80">
+        <v>2.1</v>
+      </c>
+      <c r="AI80">
+        <v>1.57</v>
+      </c>
+      <c r="AJ80">
+        <v>2.25</v>
+      </c>
+      <c r="AK80">
+        <v>1.42</v>
+      </c>
+      <c r="AL80">
+        <v>1.25</v>
+      </c>
+      <c r="AM80">
+        <v>1.57</v>
+      </c>
+      <c r="AN80">
+        <v>2</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80">
         <v>1.75</v>
       </c>
-      <c r="AH80">
-        <v>2</v>
-      </c>
-      <c r="AI80">
-        <v>1.67</v>
-      </c>
-      <c r="AJ80">
-        <v>2.1</v>
-      </c>
-      <c r="AK80">
-        <v>1.28</v>
-      </c>
-      <c r="AL80">
-        <v>1.22</v>
-      </c>
-      <c r="AM80">
-        <v>1.77</v>
-      </c>
-      <c r="AN80">
-        <v>1</v>
-      </c>
-      <c r="AO80">
-        <v>0</v>
-      </c>
-      <c r="AP80">
-        <v>0.75</v>
-      </c>
       <c r="AQ80">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR80">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="AS80">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AT80">
-        <v>3.13</v>
+        <v>3.03</v>
       </c>
       <c r="AU80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV80">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>6</v>
+      </c>
+      <c r="AY80">
         <v>8</v>
       </c>
-      <c r="AX80">
+      <c r="AZ80">
+        <v>13</v>
+      </c>
+      <c r="BA80">
         <v>4</v>
-      </c>
-      <c r="AY80">
-        <v>11</v>
-      </c>
-      <c r="AZ80">
-        <v>7</v>
-      </c>
-      <c r="BA80">
-        <v>9</v>
       </c>
       <c r="BB80">
         <v>5</v>
       </c>
       <c r="BC80">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD80">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="BE80">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="BF80">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="BG80">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="BH80">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="BI80">
         <v>1.5</v>
       </c>
       <c r="BJ80">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="BK80">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="BL80">
         <v>1.95</v>
       </c>
       <c r="BM80">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="BN80">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BO80">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="BP80">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17448,7 +17457,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7477096</v>
+        <v>7476621</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17457,49 +17466,49 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45558.66666666666</v>
+        <v>45556.45833333334</v>
       </c>
       <c r="F81">
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M81">
         <v>2</v>
       </c>
       <c r="N81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O81" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q81">
+        <v>3.4</v>
+      </c>
+      <c r="R81">
         <v>2.2</v>
       </c>
-      <c r="R81">
-        <v>2.3</v>
-      </c>
       <c r="S81">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="T81">
         <v>1.36</v>
@@ -17520,132 +17529,544 @@
         <v>1.1</v>
       </c>
       <c r="Z81">
+        <v>2.8</v>
+      </c>
+      <c r="AA81">
+        <v>3.3</v>
+      </c>
+      <c r="AB81">
+        <v>2.45</v>
+      </c>
+      <c r="AC81">
+        <v>1.05</v>
+      </c>
+      <c r="AD81">
+        <v>9</v>
+      </c>
+      <c r="AE81">
+        <v>1.28</v>
+      </c>
+      <c r="AF81">
+        <v>3.55</v>
+      </c>
+      <c r="AG81">
+        <v>1.8</v>
+      </c>
+      <c r="AH81">
+        <v>1.95</v>
+      </c>
+      <c r="AI81">
+        <v>1.67</v>
+      </c>
+      <c r="AJ81">
+        <v>2.1</v>
+      </c>
+      <c r="AK81">
+        <v>1.53</v>
+      </c>
+      <c r="AL81">
+        <v>1.25</v>
+      </c>
+      <c r="AM81">
+        <v>1.42</v>
+      </c>
+      <c r="AN81">
+        <v>2</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>1.5</v>
+      </c>
+      <c r="AQ81">
+        <v>1.5</v>
+      </c>
+      <c r="AR81">
+        <v>1.26</v>
+      </c>
+      <c r="AS81">
+        <v>1.04</v>
+      </c>
+      <c r="AT81">
+        <v>2.3</v>
+      </c>
+      <c r="AU81">
+        <v>3</v>
+      </c>
+      <c r="AV81">
+        <v>7</v>
+      </c>
+      <c r="AW81">
+        <v>6</v>
+      </c>
+      <c r="AX81">
+        <v>5</v>
+      </c>
+      <c r="AY81">
+        <v>9</v>
+      </c>
+      <c r="AZ81">
+        <v>12</v>
+      </c>
+      <c r="BA81">
+        <v>6</v>
+      </c>
+      <c r="BB81">
+        <v>5</v>
+      </c>
+      <c r="BC81">
+        <v>11</v>
+      </c>
+      <c r="BD81">
+        <v>1.91</v>
+      </c>
+      <c r="BE81">
+        <v>7</v>
+      </c>
+      <c r="BF81">
+        <v>2.2</v>
+      </c>
+      <c r="BG81">
+        <v>1.18</v>
+      </c>
+      <c r="BH81">
+        <v>3.74</v>
+      </c>
+      <c r="BI81">
+        <v>1.38</v>
+      </c>
+      <c r="BJ81">
+        <v>2.62</v>
+      </c>
+      <c r="BK81">
+        <v>1.7</v>
+      </c>
+      <c r="BL81">
+        <v>2.03</v>
+      </c>
+      <c r="BM81">
+        <v>2.1</v>
+      </c>
+      <c r="BN81">
+        <v>1.59</v>
+      </c>
+      <c r="BO81">
+        <v>2.73</v>
+      </c>
+      <c r="BP81">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7476622</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" t="s">
+        <v>82</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>101</v>
+      </c>
+      <c r="P82" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q82">
+        <v>2.63</v>
+      </c>
+      <c r="R82">
+        <v>2.25</v>
+      </c>
+      <c r="S82">
+        <v>4</v>
+      </c>
+      <c r="T82">
+        <v>1.36</v>
+      </c>
+      <c r="U82">
+        <v>3</v>
+      </c>
+      <c r="V82">
+        <v>2.63</v>
+      </c>
+      <c r="W82">
+        <v>1.44</v>
+      </c>
+      <c r="X82">
+        <v>7</v>
+      </c>
+      <c r="Y82">
+        <v>1.1</v>
+      </c>
+      <c r="Z82">
+        <v>1.95</v>
+      </c>
+      <c r="AA82">
+        <v>3.4</v>
+      </c>
+      <c r="AB82">
+        <v>3.6</v>
+      </c>
+      <c r="AC82">
+        <v>1.05</v>
+      </c>
+      <c r="AD82">
+        <v>9.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.25</v>
+      </c>
+      <c r="AF82">
+        <v>3.75</v>
+      </c>
+      <c r="AG82">
+        <v>1.75</v>
+      </c>
+      <c r="AH82">
+        <v>2</v>
+      </c>
+      <c r="AI82">
+        <v>1.67</v>
+      </c>
+      <c r="AJ82">
+        <v>2.1</v>
+      </c>
+      <c r="AK82">
+        <v>1.28</v>
+      </c>
+      <c r="AL82">
+        <v>1.22</v>
+      </c>
+      <c r="AM82">
+        <v>1.77</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0.75</v>
+      </c>
+      <c r="AQ82">
+        <v>0.75</v>
+      </c>
+      <c r="AR82">
+        <v>1.69</v>
+      </c>
+      <c r="AS82">
+        <v>1.44</v>
+      </c>
+      <c r="AT82">
+        <v>3.13</v>
+      </c>
+      <c r="AU82">
+        <v>3</v>
+      </c>
+      <c r="AV82">
+        <v>3</v>
+      </c>
+      <c r="AW82">
+        <v>8</v>
+      </c>
+      <c r="AX82">
+        <v>4</v>
+      </c>
+      <c r="AY82">
+        <v>11</v>
+      </c>
+      <c r="AZ82">
+        <v>7</v>
+      </c>
+      <c r="BA82">
+        <v>9</v>
+      </c>
+      <c r="BB82">
+        <v>5</v>
+      </c>
+      <c r="BC82">
+        <v>14</v>
+      </c>
+      <c r="BD82">
+        <v>1.59</v>
+      </c>
+      <c r="BE82">
+        <v>7.5</v>
+      </c>
+      <c r="BF82">
+        <v>2.92</v>
+      </c>
+      <c r="BG82">
+        <v>1.29</v>
+      </c>
+      <c r="BH82">
+        <v>3.3</v>
+      </c>
+      <c r="BI82">
+        <v>1.5</v>
+      </c>
+      <c r="BJ82">
+        <v>2.4</v>
+      </c>
+      <c r="BK82">
+        <v>1.85</v>
+      </c>
+      <c r="BL82">
+        <v>1.95</v>
+      </c>
+      <c r="BM82">
+        <v>2.25</v>
+      </c>
+      <c r="BN82">
+        <v>1.57</v>
+      </c>
+      <c r="BO82">
+        <v>2.9</v>
+      </c>
+      <c r="BP82">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7477096</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45558.66666666666</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s">
+        <v>88</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83" t="s">
+        <v>153</v>
+      </c>
+      <c r="P83" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q83">
+        <v>2.2</v>
+      </c>
+      <c r="R83">
+        <v>2.3</v>
+      </c>
+      <c r="S83">
+        <v>5.5</v>
+      </c>
+      <c r="T83">
+        <v>1.36</v>
+      </c>
+      <c r="U83">
+        <v>3</v>
+      </c>
+      <c r="V83">
+        <v>2.75</v>
+      </c>
+      <c r="W83">
+        <v>1.4</v>
+      </c>
+      <c r="X83">
+        <v>7</v>
+      </c>
+      <c r="Y83">
+        <v>1.1</v>
+      </c>
+      <c r="Z83">
         <v>1.58</v>
       </c>
-      <c r="AA81">
+      <c r="AA83">
         <v>4</v>
       </c>
-      <c r="AB81">
+      <c r="AB83">
         <v>5.25</v>
       </c>
-      <c r="AC81">
+      <c r="AC83">
         <v>1.01</v>
       </c>
-      <c r="AD81">
+      <c r="AD83">
         <v>9.800000000000001</v>
       </c>
-      <c r="AE81">
+      <c r="AE83">
         <v>1.22</v>
       </c>
-      <c r="AF81">
+      <c r="AF83">
         <v>3.35</v>
       </c>
-      <c r="AG81">
+      <c r="AG83">
         <v>1.81</v>
       </c>
-      <c r="AH81">
+      <c r="AH83">
         <v>1.91</v>
       </c>
-      <c r="AI81">
+      <c r="AI83">
         <v>1.83</v>
       </c>
-      <c r="AJ81">
+      <c r="AJ83">
         <v>1.83</v>
       </c>
-      <c r="AK81">
+      <c r="AK83">
         <v>1.13</v>
       </c>
-      <c r="AL81">
+      <c r="AL83">
         <v>1.22</v>
       </c>
-      <c r="AM81">
+      <c r="AM83">
         <v>2.32</v>
       </c>
-      <c r="AN81">
-        <v>2</v>
-      </c>
-      <c r="AO81">
-        <v>0</v>
-      </c>
-      <c r="AP81">
+      <c r="AN83">
+        <v>2</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
         <v>1.67</v>
       </c>
-      <c r="AQ81">
+      <c r="AQ83">
         <v>0.25</v>
       </c>
-      <c r="AR81">
+      <c r="AR83">
         <v>1.21</v>
       </c>
-      <c r="AS81">
+      <c r="AS83">
         <v>0.76</v>
       </c>
-      <c r="AT81">
+      <c r="AT83">
         <v>1.97</v>
       </c>
-      <c r="AU81">
+      <c r="AU83">
         <v>13</v>
       </c>
-      <c r="AV81">
+      <c r="AV83">
         <v>5</v>
       </c>
-      <c r="AW81">
+      <c r="AW83">
         <v>10</v>
       </c>
-      <c r="AX81">
-        <v>3</v>
-      </c>
-      <c r="AY81">
+      <c r="AX83">
+        <v>3</v>
+      </c>
+      <c r="AY83">
         <v>23</v>
       </c>
-      <c r="AZ81">
+      <c r="AZ83">
         <v>8</v>
       </c>
-      <c r="BA81">
+      <c r="BA83">
         <v>5</v>
       </c>
-      <c r="BB81">
-        <v>1</v>
-      </c>
-      <c r="BC81">
+      <c r="BB83">
+        <v>1</v>
+      </c>
+      <c r="BC83">
         <v>6</v>
       </c>
-      <c r="BD81">
+      <c r="BD83">
         <v>1.37</v>
       </c>
-      <c r="BE81">
+      <c r="BE83">
         <v>9.5</v>
       </c>
-      <c r="BF81">
+      <c r="BF83">
         <v>3.69</v>
       </c>
-      <c r="BG81">
+      <c r="BG83">
         <v>1.16</v>
       </c>
-      <c r="BH81">
+      <c r="BH83">
         <v>5.16</v>
       </c>
-      <c r="BI81">
+      <c r="BI83">
         <v>1.32</v>
       </c>
-      <c r="BJ81">
+      <c r="BJ83">
         <v>3.39</v>
       </c>
-      <c r="BK81">
+      <c r="BK83">
         <v>1.54</v>
       </c>
-      <c r="BL81">
+      <c r="BL83">
         <v>2.46</v>
       </c>
-      <c r="BM81">
-        <v>2</v>
-      </c>
-      <c r="BN81">
+      <c r="BM83">
+        <v>2</v>
+      </c>
+      <c r="BN83">
         <v>1.8</v>
       </c>
-      <c r="BO81">
+      <c r="BO83">
         <v>2.36</v>
       </c>
-      <c r="BP81">
+      <c r="BP83">
         <v>1.59</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -966,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
         <v>2.33</v>
@@ -6453,7 +6453,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
         <v>1.5</v>
@@ -18068,6 +18068,212 @@
       </c>
       <c r="BP83">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7476639</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45562.65625</v>
+      </c>
+      <c r="F84">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>80</v>
+      </c>
+      <c r="H84" t="s">
+        <v>79</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
+        <v>101</v>
+      </c>
+      <c r="P84" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q84">
+        <v>2.88</v>
+      </c>
+      <c r="R84">
+        <v>2.2</v>
+      </c>
+      <c r="S84">
+        <v>3.75</v>
+      </c>
+      <c r="T84">
+        <v>1.4</v>
+      </c>
+      <c r="U84">
+        <v>2.75</v>
+      </c>
+      <c r="V84">
+        <v>2.75</v>
+      </c>
+      <c r="W84">
+        <v>1.4</v>
+      </c>
+      <c r="X84">
+        <v>8</v>
+      </c>
+      <c r="Y84">
+        <v>1.08</v>
+      </c>
+      <c r="Z84">
+        <v>2.17</v>
+      </c>
+      <c r="AA84">
+        <v>3.42</v>
+      </c>
+      <c r="AB84">
+        <v>3.2</v>
+      </c>
+      <c r="AC84">
+        <v>1.03</v>
+      </c>
+      <c r="AD84">
+        <v>9</v>
+      </c>
+      <c r="AE84">
+        <v>1.25</v>
+      </c>
+      <c r="AF84">
+        <v>3.6</v>
+      </c>
+      <c r="AG84">
+        <v>1.88</v>
+      </c>
+      <c r="AH84">
+        <v>1.82</v>
+      </c>
+      <c r="AI84">
+        <v>1.73</v>
+      </c>
+      <c r="AJ84">
+        <v>2</v>
+      </c>
+      <c r="AK84">
+        <v>1.33</v>
+      </c>
+      <c r="AL84">
+        <v>1.29</v>
+      </c>
+      <c r="AM84">
+        <v>1.66</v>
+      </c>
+      <c r="AN84">
+        <v>2</v>
+      </c>
+      <c r="AO84">
+        <v>1</v>
+      </c>
+      <c r="AP84">
+        <v>1.67</v>
+      </c>
+      <c r="AQ84">
+        <v>1</v>
+      </c>
+      <c r="AR84">
+        <v>0.73</v>
+      </c>
+      <c r="AS84">
+        <v>0.85</v>
+      </c>
+      <c r="AT84">
+        <v>1.58</v>
+      </c>
+      <c r="AU84">
+        <v>7</v>
+      </c>
+      <c r="AV84">
+        <v>5</v>
+      </c>
+      <c r="AW84">
+        <v>7</v>
+      </c>
+      <c r="AX84">
+        <v>4</v>
+      </c>
+      <c r="AY84">
+        <v>14</v>
+      </c>
+      <c r="AZ84">
+        <v>9</v>
+      </c>
+      <c r="BA84">
+        <v>11</v>
+      </c>
+      <c r="BB84">
+        <v>4</v>
+      </c>
+      <c r="BC84">
+        <v>15</v>
+      </c>
+      <c r="BD84">
+        <v>1.75</v>
+      </c>
+      <c r="BE84">
+        <v>7.5</v>
+      </c>
+      <c r="BF84">
+        <v>2.53</v>
+      </c>
+      <c r="BG84">
+        <v>1.2</v>
+      </c>
+      <c r="BH84">
+        <v>4</v>
+      </c>
+      <c r="BI84">
+        <v>1.28</v>
+      </c>
+      <c r="BJ84">
+        <v>3.35</v>
+      </c>
+      <c r="BK84">
+        <v>1.5</v>
+      </c>
+      <c r="BL84">
+        <v>2.4</v>
+      </c>
+      <c r="BM84">
+        <v>1.88</v>
+      </c>
+      <c r="BN84">
+        <v>1.92</v>
+      </c>
+      <c r="BO84">
+        <v>2.45</v>
+      </c>
+      <c r="BP84">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,27 @@
     <t>['34', '45+3']</t>
   </si>
   <si>
+    <t>['39', '79', '89', '90+2']</t>
+  </si>
+  <si>
+    <t>['11', '22']</t>
+  </si>
+  <si>
+    <t>['61', '85']</t>
+  </si>
+  <si>
+    <t>['33', '74']</t>
+  </si>
+  <si>
+    <t>['12', '27']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['17', '62']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -565,9 +586,6 @@
     <t>['58']</t>
   </si>
   <si>
-    <t>['23']</t>
-  </si>
-  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -605,6 +623,24 @@
   </si>
   <si>
     <t>['74', '86']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['24', '81', '90']</t>
+  </si>
+  <si>
+    <t>['31', '59', '90+5']</t>
+  </si>
+  <si>
+    <t>['5', '51']</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1261,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1306,7 +1342,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1431,7 +1467,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1512,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1718,7 +1754,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1843,7 +1879,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1921,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2049,7 +2085,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2127,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2336,7 +2372,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2461,7 +2497,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2667,7 +2703,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2745,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2873,7 +2909,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2954,7 +2990,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3079,7 +3115,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3366,7 +3402,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3775,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4109,7 +4145,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4396,7 +4432,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4521,7 +4557,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4602,7 +4638,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4727,7 +4763,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4933,7 +4969,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5011,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ20">
         <v>1.75</v>
@@ -5217,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5423,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5551,7 +5587,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5963,7 +5999,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6044,7 +6080,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6169,7 +6205,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6250,7 +6286,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>1.83</v>
@@ -6662,7 +6698,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.35</v>
@@ -6865,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -6993,7 +7029,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7071,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7611,7 +7647,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7817,7 +7853,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8023,7 +8059,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8101,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8229,7 +8265,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8641,7 +8677,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8719,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8928,7 +8964,7 @@
         <v>3</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.62</v>
@@ -9053,7 +9089,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9134,7 +9170,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ40">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9259,7 +9295,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9337,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ41">
         <v>0.75</v>
@@ -9465,7 +9501,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9543,10 +9579,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.15</v>
@@ -9671,7 +9707,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9877,7 +9913,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9955,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10083,7 +10119,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10164,7 +10200,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.02</v>
@@ -10289,7 +10325,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10370,7 +10406,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>2.58</v>
@@ -10576,7 +10612,7 @@
         <v>3</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -10701,7 +10737,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -10782,7 +10818,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR48">
         <v>1.43</v>
@@ -10988,7 +11024,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11319,7 +11355,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -11397,7 +11433,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -11731,7 +11767,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12015,7 +12051,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ54">
         <v>1.75</v>
@@ -12143,7 +12179,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="Q55">
         <v>2.63</v>
@@ -12349,7 +12385,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12430,7 +12466,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR56">
         <v>1.25</v>
@@ -12633,7 +12669,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12761,7 +12797,7 @@
         <v>103</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12842,7 +12878,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR58">
         <v>1.28</v>
@@ -13251,7 +13287,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13460,7 +13496,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR61">
         <v>1.47</v>
@@ -13791,7 +13827,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13869,10 +13905,10 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ63">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR63">
         <v>1.41</v>
@@ -13997,7 +14033,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14078,7 +14114,7 @@
         <v>3</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14203,7 +14239,7 @@
         <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14487,10 +14523,10 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
         <v>1.4</v>
@@ -14821,7 +14857,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14902,7 +14938,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.88</v>
@@ -15027,7 +15063,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15108,7 +15144,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR69">
         <v>1.03</v>
@@ -15233,7 +15269,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15314,7 +15350,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15439,7 +15475,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15517,10 +15553,10 @@
         <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR71">
         <v>1.35</v>
@@ -15645,7 +15681,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15851,7 +15887,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16057,7 +16093,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -17293,7 +17329,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17499,7 +17535,7 @@
         <v>101</v>
       </c>
       <c r="P81" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>3.4</v>
@@ -17705,7 +17741,7 @@
         <v>101</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -17911,7 +17947,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18274,6 +18310,2066 @@
       </c>
       <c r="BP84">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7476640</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45563.35416666666</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>81</v>
+      </c>
+      <c r="H85" t="s">
+        <v>85</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>4</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>154</v>
+      </c>
+      <c r="P85" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q85">
+        <v>2.6</v>
+      </c>
+      <c r="R85">
+        <v>2.2</v>
+      </c>
+      <c r="S85">
+        <v>4.33</v>
+      </c>
+      <c r="T85">
+        <v>1.4</v>
+      </c>
+      <c r="U85">
+        <v>2.75</v>
+      </c>
+      <c r="V85">
+        <v>2.75</v>
+      </c>
+      <c r="W85">
+        <v>1.4</v>
+      </c>
+      <c r="X85">
+        <v>8</v>
+      </c>
+      <c r="Y85">
+        <v>1.08</v>
+      </c>
+      <c r="Z85">
+        <v>1.78</v>
+      </c>
+      <c r="AA85">
+        <v>3.64</v>
+      </c>
+      <c r="AB85">
+        <v>4.3</v>
+      </c>
+      <c r="AC85">
+        <v>1.03</v>
+      </c>
+      <c r="AD85">
+        <v>9</v>
+      </c>
+      <c r="AE85">
+        <v>1.25</v>
+      </c>
+      <c r="AF85">
+        <v>3.6</v>
+      </c>
+      <c r="AG85">
+        <v>1.83</v>
+      </c>
+      <c r="AH85">
+        <v>1.91</v>
+      </c>
+      <c r="AI85">
+        <v>1.8</v>
+      </c>
+      <c r="AJ85">
+        <v>1.91</v>
+      </c>
+      <c r="AK85">
+        <v>1.25</v>
+      </c>
+      <c r="AL85">
+        <v>1.3</v>
+      </c>
+      <c r="AM85">
+        <v>1.88</v>
+      </c>
+      <c r="AN85">
+        <v>3</v>
+      </c>
+      <c r="AO85">
+        <v>0.67</v>
+      </c>
+      <c r="AP85">
+        <v>3</v>
+      </c>
+      <c r="AQ85">
+        <v>0.5</v>
+      </c>
+      <c r="AR85">
+        <v>1.6</v>
+      </c>
+      <c r="AS85">
+        <v>1.52</v>
+      </c>
+      <c r="AT85">
+        <v>3.12</v>
+      </c>
+      <c r="AU85">
+        <v>7</v>
+      </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <v>5</v>
+      </c>
+      <c r="AX85">
+        <v>3</v>
+      </c>
+      <c r="AY85">
+        <v>12</v>
+      </c>
+      <c r="AZ85">
+        <v>3</v>
+      </c>
+      <c r="BA85">
+        <v>5</v>
+      </c>
+      <c r="BB85">
+        <v>5</v>
+      </c>
+      <c r="BC85">
+        <v>10</v>
+      </c>
+      <c r="BD85">
+        <v>1.45</v>
+      </c>
+      <c r="BE85">
+        <v>8</v>
+      </c>
+      <c r="BF85">
+        <v>3.35</v>
+      </c>
+      <c r="BG85">
+        <v>1.22</v>
+      </c>
+      <c r="BH85">
+        <v>3.8</v>
+      </c>
+      <c r="BI85">
+        <v>1.33</v>
+      </c>
+      <c r="BJ85">
+        <v>3.05</v>
+      </c>
+      <c r="BK85">
+        <v>1.7</v>
+      </c>
+      <c r="BL85">
+        <v>2.05</v>
+      </c>
+      <c r="BM85">
+        <v>2.03</v>
+      </c>
+      <c r="BN85">
+        <v>1.7</v>
+      </c>
+      <c r="BO85">
+        <v>2.62</v>
+      </c>
+      <c r="BP85">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7476635</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45563.35416666666</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s">
+        <v>92</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86" t="s">
+        <v>155</v>
+      </c>
+      <c r="P86" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q86">
+        <v>4.33</v>
+      </c>
+      <c r="R86">
+        <v>2.2</v>
+      </c>
+      <c r="S86">
+        <v>2.5</v>
+      </c>
+      <c r="T86">
+        <v>1.4</v>
+      </c>
+      <c r="U86">
+        <v>2.75</v>
+      </c>
+      <c r="V86">
+        <v>2.75</v>
+      </c>
+      <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>8</v>
+      </c>
+      <c r="Y86">
+        <v>1.08</v>
+      </c>
+      <c r="Z86">
+        <v>3.82</v>
+      </c>
+      <c r="AA86">
+        <v>3.62</v>
+      </c>
+      <c r="AB86">
+        <v>1.88</v>
+      </c>
+      <c r="AC86">
+        <v>1.04</v>
+      </c>
+      <c r="AD86">
+        <v>11</v>
+      </c>
+      <c r="AE86">
+        <v>1.23</v>
+      </c>
+      <c r="AF86">
+        <v>3.28</v>
+      </c>
+      <c r="AG86">
+        <v>1.85</v>
+      </c>
+      <c r="AH86">
+        <v>1.85</v>
+      </c>
+      <c r="AI86">
+        <v>1.8</v>
+      </c>
+      <c r="AJ86">
+        <v>1.91</v>
+      </c>
+      <c r="AK86">
+        <v>1.9</v>
+      </c>
+      <c r="AL86">
+        <v>1.25</v>
+      </c>
+      <c r="AM86">
+        <v>1.25</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>1</v>
+      </c>
+      <c r="AP86">
+        <v>1.5</v>
+      </c>
+      <c r="AQ86">
+        <v>0.75</v>
+      </c>
+      <c r="AR86">
+        <v>1.1</v>
+      </c>
+      <c r="AS86">
+        <v>1.02</v>
+      </c>
+      <c r="AT86">
+        <v>2.12</v>
+      </c>
+      <c r="AU86">
+        <v>6</v>
+      </c>
+      <c r="AV86">
+        <v>2</v>
+      </c>
+      <c r="AW86">
+        <v>3</v>
+      </c>
+      <c r="AX86">
+        <v>5</v>
+      </c>
+      <c r="AY86">
+        <v>9</v>
+      </c>
+      <c r="AZ86">
+        <v>7</v>
+      </c>
+      <c r="BA86">
+        <v>3</v>
+      </c>
+      <c r="BB86">
+        <v>2</v>
+      </c>
+      <c r="BC86">
+        <v>5</v>
+      </c>
+      <c r="BD86">
+        <v>2.78</v>
+      </c>
+      <c r="BE86">
+        <v>7.5</v>
+      </c>
+      <c r="BF86">
+        <v>1.64</v>
+      </c>
+      <c r="BG86">
+        <v>1.2</v>
+      </c>
+      <c r="BH86">
+        <v>4</v>
+      </c>
+      <c r="BI86">
+        <v>1.28</v>
+      </c>
+      <c r="BJ86">
+        <v>3.35</v>
+      </c>
+      <c r="BK86">
+        <v>1.5</v>
+      </c>
+      <c r="BL86">
+        <v>2.4</v>
+      </c>
+      <c r="BM86">
+        <v>1.95</v>
+      </c>
+      <c r="BN86">
+        <v>1.77</v>
+      </c>
+      <c r="BO86">
+        <v>2.45</v>
+      </c>
+      <c r="BP86">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7476636</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>88</v>
+      </c>
+      <c r="H87" t="s">
+        <v>93</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>122</v>
+      </c>
+      <c r="P87" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q87">
+        <v>4.33</v>
+      </c>
+      <c r="R87">
+        <v>2.4</v>
+      </c>
+      <c r="S87">
+        <v>2.3</v>
+      </c>
+      <c r="T87">
+        <v>1.29</v>
+      </c>
+      <c r="U87">
+        <v>3.5</v>
+      </c>
+      <c r="V87">
+        <v>2.38</v>
+      </c>
+      <c r="W87">
+        <v>1.53</v>
+      </c>
+      <c r="X87">
+        <v>5.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.14</v>
+      </c>
+      <c r="Z87">
+        <v>4.1</v>
+      </c>
+      <c r="AA87">
+        <v>3.98</v>
+      </c>
+      <c r="AB87">
+        <v>1.74</v>
+      </c>
+      <c r="AC87">
+        <v>1.02</v>
+      </c>
+      <c r="AD87">
+        <v>17</v>
+      </c>
+      <c r="AE87">
+        <v>1.14</v>
+      </c>
+      <c r="AF87">
+        <v>4.15</v>
+      </c>
+      <c r="AG87">
+        <v>1.6</v>
+      </c>
+      <c r="AH87">
+        <v>2.25</v>
+      </c>
+      <c r="AI87">
+        <v>1.57</v>
+      </c>
+      <c r="AJ87">
+        <v>2.25</v>
+      </c>
+      <c r="AK87">
+        <v>1.98</v>
+      </c>
+      <c r="AL87">
+        <v>1.23</v>
+      </c>
+      <c r="AM87">
+        <v>1.21</v>
+      </c>
+      <c r="AN87">
+        <v>0.33</v>
+      </c>
+      <c r="AO87">
+        <v>2.33</v>
+      </c>
+      <c r="AP87">
+        <v>0.5</v>
+      </c>
+      <c r="AQ87">
+        <v>2</v>
+      </c>
+      <c r="AR87">
+        <v>1.28</v>
+      </c>
+      <c r="AS87">
+        <v>1.2</v>
+      </c>
+      <c r="AT87">
+        <v>2.48</v>
+      </c>
+      <c r="AU87">
+        <v>9</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>1</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>10</v>
+      </c>
+      <c r="AZ87">
+        <v>9</v>
+      </c>
+      <c r="BA87">
+        <v>7</v>
+      </c>
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
+        <v>11</v>
+      </c>
+      <c r="BD87">
+        <v>2.53</v>
+      </c>
+      <c r="BE87">
+        <v>7.5</v>
+      </c>
+      <c r="BF87">
+        <v>1.75</v>
+      </c>
+      <c r="BG87">
+        <v>1.18</v>
+      </c>
+      <c r="BH87">
+        <v>4.33</v>
+      </c>
+      <c r="BI87">
+        <v>1.33</v>
+      </c>
+      <c r="BJ87">
+        <v>3</v>
+      </c>
+      <c r="BK87">
+        <v>1.5</v>
+      </c>
+      <c r="BL87">
+        <v>2.4</v>
+      </c>
+      <c r="BM87">
+        <v>1.88</v>
+      </c>
+      <c r="BN87">
+        <v>1.82</v>
+      </c>
+      <c r="BO87">
+        <v>2.05</v>
+      </c>
+      <c r="BP87">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7476638</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>90</v>
+      </c>
+      <c r="H88" t="s">
+        <v>91</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>156</v>
+      </c>
+      <c r="P88" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q88">
+        <v>2.5</v>
+      </c>
+      <c r="R88">
+        <v>2.25</v>
+      </c>
+      <c r="S88">
+        <v>4.33</v>
+      </c>
+      <c r="T88">
+        <v>1.36</v>
+      </c>
+      <c r="U88">
+        <v>3</v>
+      </c>
+      <c r="V88">
+        <v>2.63</v>
+      </c>
+      <c r="W88">
+        <v>1.44</v>
+      </c>
+      <c r="X88">
+        <v>7</v>
+      </c>
+      <c r="Y88">
+        <v>1.1</v>
+      </c>
+      <c r="Z88">
+        <v>1.87</v>
+      </c>
+      <c r="AA88">
+        <v>3.6</v>
+      </c>
+      <c r="AB88">
+        <v>3.88</v>
+      </c>
+      <c r="AC88">
+        <v>1.03</v>
+      </c>
+      <c r="AD88">
+        <v>12</v>
+      </c>
+      <c r="AE88">
+        <v>1.25</v>
+      </c>
+      <c r="AF88">
+        <v>3.75</v>
+      </c>
+      <c r="AG88">
+        <v>1.8</v>
+      </c>
+      <c r="AH88">
+        <v>1.91</v>
+      </c>
+      <c r="AI88">
+        <v>1.73</v>
+      </c>
+      <c r="AJ88">
+        <v>2</v>
+      </c>
+      <c r="AK88">
+        <v>1.22</v>
+      </c>
+      <c r="AL88">
+        <v>1.22</v>
+      </c>
+      <c r="AM88">
+        <v>1.9</v>
+      </c>
+      <c r="AN88">
+        <v>1.33</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AP88">
+        <v>1.75</v>
+      </c>
+      <c r="AQ88">
+        <v>0.75</v>
+      </c>
+      <c r="AR88">
+        <v>1.3</v>
+      </c>
+      <c r="AS88">
+        <v>1.13</v>
+      </c>
+      <c r="AT88">
+        <v>2.43</v>
+      </c>
+      <c r="AU88">
+        <v>7</v>
+      </c>
+      <c r="AV88">
+        <v>2</v>
+      </c>
+      <c r="AW88">
+        <v>10</v>
+      </c>
+      <c r="AX88">
+        <v>2</v>
+      </c>
+      <c r="AY88">
+        <v>17</v>
+      </c>
+      <c r="AZ88">
+        <v>4</v>
+      </c>
+      <c r="BA88">
+        <v>12</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>15</v>
+      </c>
+      <c r="BD88">
+        <v>1.69</v>
+      </c>
+      <c r="BE88">
+        <v>8</v>
+      </c>
+      <c r="BF88">
+        <v>2.54</v>
+      </c>
+      <c r="BG88">
+        <v>1.25</v>
+      </c>
+      <c r="BH88">
+        <v>3.6</v>
+      </c>
+      <c r="BI88">
+        <v>1.42</v>
+      </c>
+      <c r="BJ88">
+        <v>2.62</v>
+      </c>
+      <c r="BK88">
+        <v>1.7</v>
+      </c>
+      <c r="BL88">
+        <v>2.05</v>
+      </c>
+      <c r="BM88">
+        <v>2.1</v>
+      </c>
+      <c r="BN88">
+        <v>1.67</v>
+      </c>
+      <c r="BO88">
+        <v>2.62</v>
+      </c>
+      <c r="BP88">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7476637</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>89</v>
+      </c>
+      <c r="H89" t="s">
+        <v>86</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89" t="s">
+        <v>157</v>
+      </c>
+      <c r="P89" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q89">
+        <v>3.75</v>
+      </c>
+      <c r="R89">
+        <v>2.2</v>
+      </c>
+      <c r="S89">
+        <v>2.88</v>
+      </c>
+      <c r="T89">
+        <v>1.4</v>
+      </c>
+      <c r="U89">
+        <v>2.75</v>
+      </c>
+      <c r="V89">
+        <v>2.75</v>
+      </c>
+      <c r="W89">
+        <v>1.4</v>
+      </c>
+      <c r="X89">
+        <v>8</v>
+      </c>
+      <c r="Y89">
+        <v>1.08</v>
+      </c>
+      <c r="Z89">
+        <v>3.48</v>
+      </c>
+      <c r="AA89">
+        <v>3.48</v>
+      </c>
+      <c r="AB89">
+        <v>2.02</v>
+      </c>
+      <c r="AC89">
+        <v>1.02</v>
+      </c>
+      <c r="AD89">
+        <v>10</v>
+      </c>
+      <c r="AE89">
+        <v>1.29</v>
+      </c>
+      <c r="AF89">
+        <v>3.3</v>
+      </c>
+      <c r="AG89">
+        <v>1.93</v>
+      </c>
+      <c r="AH89">
+        <v>1.93</v>
+      </c>
+      <c r="AI89">
+        <v>1.73</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>1.65</v>
+      </c>
+      <c r="AL89">
+        <v>1.28</v>
+      </c>
+      <c r="AM89">
+        <v>1.33</v>
+      </c>
+      <c r="AN89">
+        <v>2</v>
+      </c>
+      <c r="AO89">
+        <v>2</v>
+      </c>
+      <c r="AP89">
+        <v>2.25</v>
+      </c>
+      <c r="AQ89">
+        <v>1.5</v>
+      </c>
+      <c r="AR89">
+        <v>0.82</v>
+      </c>
+      <c r="AS89">
+        <v>1.06</v>
+      </c>
+      <c r="AT89">
+        <v>1.88</v>
+      </c>
+      <c r="AU89">
+        <v>3</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>6</v>
+      </c>
+      <c r="AX89">
+        <v>2</v>
+      </c>
+      <c r="AY89">
+        <v>9</v>
+      </c>
+      <c r="AZ89">
+        <v>6</v>
+      </c>
+      <c r="BA89">
+        <v>3</v>
+      </c>
+      <c r="BB89">
+        <v>4</v>
+      </c>
+      <c r="BC89">
+        <v>7</v>
+      </c>
+      <c r="BD89">
+        <v>2.3</v>
+      </c>
+      <c r="BE89">
+        <v>7</v>
+      </c>
+      <c r="BF89">
+        <v>1.85</v>
+      </c>
+      <c r="BG89">
+        <v>1.25</v>
+      </c>
+      <c r="BH89">
+        <v>3.6</v>
+      </c>
+      <c r="BI89">
+        <v>1.35</v>
+      </c>
+      <c r="BJ89">
+        <v>2.95</v>
+      </c>
+      <c r="BK89">
+        <v>1.7</v>
+      </c>
+      <c r="BL89">
+        <v>2.05</v>
+      </c>
+      <c r="BM89">
+        <v>2.1</v>
+      </c>
+      <c r="BN89">
+        <v>1.65</v>
+      </c>
+      <c r="BO89">
+        <v>2.75</v>
+      </c>
+      <c r="BP89">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7476625</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F90">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>82</v>
+      </c>
+      <c r="H90" t="s">
+        <v>87</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>5</v>
+      </c>
+      <c r="O90" t="s">
+        <v>158</v>
+      </c>
+      <c r="P90" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q90">
+        <v>2.75</v>
+      </c>
+      <c r="R90">
+        <v>2.2</v>
+      </c>
+      <c r="S90">
+        <v>3.75</v>
+      </c>
+      <c r="T90">
+        <v>1.4</v>
+      </c>
+      <c r="U90">
+        <v>2.75</v>
+      </c>
+      <c r="V90">
+        <v>2.75</v>
+      </c>
+      <c r="W90">
+        <v>1.4</v>
+      </c>
+      <c r="X90">
+        <v>8</v>
+      </c>
+      <c r="Y90">
+        <v>1.08</v>
+      </c>
+      <c r="Z90">
+        <v>2.07</v>
+      </c>
+      <c r="AA90">
+        <v>3.46</v>
+      </c>
+      <c r="AB90">
+        <v>3.35</v>
+      </c>
+      <c r="AC90">
+        <v>1.04</v>
+      </c>
+      <c r="AD90">
+        <v>12</v>
+      </c>
+      <c r="AE90">
+        <v>1.23</v>
+      </c>
+      <c r="AF90">
+        <v>3.28</v>
+      </c>
+      <c r="AG90">
+        <v>1.83</v>
+      </c>
+      <c r="AH90">
+        <v>1.91</v>
+      </c>
+      <c r="AI90">
+        <v>1.73</v>
+      </c>
+      <c r="AJ90">
+        <v>2</v>
+      </c>
+      <c r="AK90">
+        <v>1.33</v>
+      </c>
+      <c r="AL90">
+        <v>1.25</v>
+      </c>
+      <c r="AM90">
+        <v>1.72</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>0.75</v>
+      </c>
+      <c r="AQ90">
+        <v>0.75</v>
+      </c>
+      <c r="AR90">
+        <v>1.37</v>
+      </c>
+      <c r="AS90">
+        <v>1.21</v>
+      </c>
+      <c r="AT90">
+        <v>2.58</v>
+      </c>
+      <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AV90">
+        <v>7</v>
+      </c>
+      <c r="AW90">
+        <v>3</v>
+      </c>
+      <c r="AX90">
+        <v>2</v>
+      </c>
+      <c r="AY90">
+        <v>8</v>
+      </c>
+      <c r="AZ90">
+        <v>9</v>
+      </c>
+      <c r="BA90">
+        <v>5</v>
+      </c>
+      <c r="BB90">
+        <v>4</v>
+      </c>
+      <c r="BC90">
+        <v>9</v>
+      </c>
+      <c r="BD90">
+        <v>1.69</v>
+      </c>
+      <c r="BE90">
+        <v>7.5</v>
+      </c>
+      <c r="BF90">
+        <v>2.65</v>
+      </c>
+      <c r="BG90">
+        <v>1.2</v>
+      </c>
+      <c r="BH90">
+        <v>4</v>
+      </c>
+      <c r="BI90">
+        <v>1.36</v>
+      </c>
+      <c r="BJ90">
+        <v>2.9</v>
+      </c>
+      <c r="BK90">
+        <v>1.57</v>
+      </c>
+      <c r="BL90">
+        <v>2.25</v>
+      </c>
+      <c r="BM90">
+        <v>1.98</v>
+      </c>
+      <c r="BN90">
+        <v>1.82</v>
+      </c>
+      <c r="BO90">
+        <v>2.4</v>
+      </c>
+      <c r="BP90">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7476627</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s">
+        <v>70</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>101</v>
+      </c>
+      <c r="P91" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q91">
+        <v>2.75</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>3.75</v>
+      </c>
+      <c r="T91">
+        <v>1.36</v>
+      </c>
+      <c r="U91">
+        <v>3</v>
+      </c>
+      <c r="V91">
+        <v>2.75</v>
+      </c>
+      <c r="W91">
+        <v>1.4</v>
+      </c>
+      <c r="X91">
+        <v>7</v>
+      </c>
+      <c r="Y91">
+        <v>1.1</v>
+      </c>
+      <c r="Z91">
+        <v>2.12</v>
+      </c>
+      <c r="AA91">
+        <v>3.5</v>
+      </c>
+      <c r="AB91">
+        <v>3.2</v>
+      </c>
+      <c r="AC91">
+        <v>1.02</v>
+      </c>
+      <c r="AD91">
+        <v>10</v>
+      </c>
+      <c r="AE91">
+        <v>1.22</v>
+      </c>
+      <c r="AF91">
+        <v>3.35</v>
+      </c>
+      <c r="AG91">
+        <v>1.8</v>
+      </c>
+      <c r="AH91">
+        <v>1.91</v>
+      </c>
+      <c r="AI91">
+        <v>1.73</v>
+      </c>
+      <c r="AJ91">
+        <v>2</v>
+      </c>
+      <c r="AK91">
+        <v>1.31</v>
+      </c>
+      <c r="AL91">
+        <v>1.28</v>
+      </c>
+      <c r="AM91">
+        <v>1.71</v>
+      </c>
+      <c r="AN91">
+        <v>3</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>2.25</v>
+      </c>
+      <c r="AQ91">
+        <v>1.5</v>
+      </c>
+      <c r="AR91">
+        <v>1.18</v>
+      </c>
+      <c r="AS91">
+        <v>1.42</v>
+      </c>
+      <c r="AT91">
+        <v>2.6</v>
+      </c>
+      <c r="AU91">
+        <v>0</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>2</v>
+      </c>
+      <c r="AX91">
+        <v>1</v>
+      </c>
+      <c r="AY91">
+        <v>2</v>
+      </c>
+      <c r="AZ91">
+        <v>6</v>
+      </c>
+      <c r="BA91">
+        <v>4</v>
+      </c>
+      <c r="BB91">
+        <v>10</v>
+      </c>
+      <c r="BC91">
+        <v>14</v>
+      </c>
+      <c r="BD91">
+        <v>1.59</v>
+      </c>
+      <c r="BE91">
+        <v>7.5</v>
+      </c>
+      <c r="BF91">
+        <v>2.92</v>
+      </c>
+      <c r="BG91">
+        <v>1.29</v>
+      </c>
+      <c r="BH91">
+        <v>3.3</v>
+      </c>
+      <c r="BI91">
+        <v>1.5</v>
+      </c>
+      <c r="BJ91">
+        <v>2.4</v>
+      </c>
+      <c r="BK91">
+        <v>1.82</v>
+      </c>
+      <c r="BL91">
+        <v>1.98</v>
+      </c>
+      <c r="BM91">
+        <v>2.25</v>
+      </c>
+      <c r="BN91">
+        <v>1.57</v>
+      </c>
+      <c r="BO91">
+        <v>2.9</v>
+      </c>
+      <c r="BP91">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7476626</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>101</v>
+      </c>
+      <c r="P92" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q92">
+        <v>3.4</v>
+      </c>
+      <c r="R92">
+        <v>2.2</v>
+      </c>
+      <c r="S92">
+        <v>3.1</v>
+      </c>
+      <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>3</v>
+      </c>
+      <c r="V92">
+        <v>2.75</v>
+      </c>
+      <c r="W92">
+        <v>1.4</v>
+      </c>
+      <c r="X92">
+        <v>8</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>2.8</v>
+      </c>
+      <c r="AA92">
+        <v>3.48</v>
+      </c>
+      <c r="AB92">
+        <v>2.35</v>
+      </c>
+      <c r="AC92">
+        <v>1.03</v>
+      </c>
+      <c r="AD92">
+        <v>9</v>
+      </c>
+      <c r="AE92">
+        <v>1.25</v>
+      </c>
+      <c r="AF92">
+        <v>3.6</v>
+      </c>
+      <c r="AG92">
+        <v>1.83</v>
+      </c>
+      <c r="AH92">
+        <v>1.91</v>
+      </c>
+      <c r="AI92">
+        <v>1.67</v>
+      </c>
+      <c r="AJ92">
+        <v>2.1</v>
+      </c>
+      <c r="AK92">
+        <v>1.57</v>
+      </c>
+      <c r="AL92">
+        <v>1.27</v>
+      </c>
+      <c r="AM92">
+        <v>1.3</v>
+      </c>
+      <c r="AN92">
+        <v>2</v>
+      </c>
+      <c r="AO92">
+        <v>1.33</v>
+      </c>
+      <c r="AP92">
+        <v>1.5</v>
+      </c>
+      <c r="AQ92">
+        <v>1.75</v>
+      </c>
+      <c r="AR92">
+        <v>1.26</v>
+      </c>
+      <c r="AS92">
+        <v>1.09</v>
+      </c>
+      <c r="AT92">
+        <v>2.35</v>
+      </c>
+      <c r="AU92">
+        <v>2</v>
+      </c>
+      <c r="AV92">
+        <v>6</v>
+      </c>
+      <c r="AW92">
+        <v>4</v>
+      </c>
+      <c r="AX92">
+        <v>7</v>
+      </c>
+      <c r="AY92">
+        <v>6</v>
+      </c>
+      <c r="AZ92">
+        <v>13</v>
+      </c>
+      <c r="BA92">
+        <v>2</v>
+      </c>
+      <c r="BB92">
+        <v>6</v>
+      </c>
+      <c r="BC92">
+        <v>8</v>
+      </c>
+      <c r="BD92">
+        <v>2.33</v>
+      </c>
+      <c r="BE92">
+        <v>8</v>
+      </c>
+      <c r="BF92">
+        <v>1.82</v>
+      </c>
+      <c r="BG92">
+        <v>1.22</v>
+      </c>
+      <c r="BH92">
+        <v>3.8</v>
+      </c>
+      <c r="BI92">
+        <v>1.38</v>
+      </c>
+      <c r="BJ92">
+        <v>2.8</v>
+      </c>
+      <c r="BK92">
+        <v>1.65</v>
+      </c>
+      <c r="BL92">
+        <v>2.1</v>
+      </c>
+      <c r="BM92">
+        <v>1.95</v>
+      </c>
+      <c r="BN92">
+        <v>1.77</v>
+      </c>
+      <c r="BO92">
+        <v>2.5</v>
+      </c>
+      <c r="BP92">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7476624</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F93">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>83</v>
+      </c>
+      <c r="H93" t="s">
+        <v>78</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>159</v>
+      </c>
+      <c r="P93" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q93">
+        <v>3.4</v>
+      </c>
+      <c r="R93">
+        <v>2.25</v>
+      </c>
+      <c r="S93">
+        <v>3</v>
+      </c>
+      <c r="T93">
+        <v>1.33</v>
+      </c>
+      <c r="U93">
+        <v>3.25</v>
+      </c>
+      <c r="V93">
+        <v>2.63</v>
+      </c>
+      <c r="W93">
+        <v>1.44</v>
+      </c>
+      <c r="X93">
+        <v>7</v>
+      </c>
+      <c r="Y93">
+        <v>1.1</v>
+      </c>
+      <c r="Z93">
+        <v>3.06</v>
+      </c>
+      <c r="AA93">
+        <v>3.6</v>
+      </c>
+      <c r="AB93">
+        <v>2.15</v>
+      </c>
+      <c r="AC93">
+        <v>1.01</v>
+      </c>
+      <c r="AD93">
+        <v>11</v>
+      </c>
+      <c r="AE93">
+        <v>1.19</v>
+      </c>
+      <c r="AF93">
+        <v>3.55</v>
+      </c>
+      <c r="AG93">
+        <v>1.75</v>
+      </c>
+      <c r="AH93">
+        <v>2</v>
+      </c>
+      <c r="AI93">
+        <v>1.62</v>
+      </c>
+      <c r="AJ93">
+        <v>2.2</v>
+      </c>
+      <c r="AK93">
+        <v>1.57</v>
+      </c>
+      <c r="AL93">
+        <v>1.28</v>
+      </c>
+      <c r="AM93">
+        <v>1.41</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <v>1</v>
+      </c>
+      <c r="AQ93">
+        <v>0.25</v>
+      </c>
+      <c r="AR93">
+        <v>1.27</v>
+      </c>
+      <c r="AS93">
+        <v>1.27</v>
+      </c>
+      <c r="AT93">
+        <v>2.54</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>5</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
+        <v>6</v>
+      </c>
+      <c r="AY93">
+        <v>9</v>
+      </c>
+      <c r="AZ93">
+        <v>11</v>
+      </c>
+      <c r="BA93">
+        <v>4</v>
+      </c>
+      <c r="BB93">
+        <v>2</v>
+      </c>
+      <c r="BC93">
+        <v>6</v>
+      </c>
+      <c r="BD93">
+        <v>2</v>
+      </c>
+      <c r="BE93">
+        <v>7</v>
+      </c>
+      <c r="BF93">
+        <v>2.1</v>
+      </c>
+      <c r="BG93">
+        <v>1.4</v>
+      </c>
+      <c r="BH93">
+        <v>2.7</v>
+      </c>
+      <c r="BI93">
+        <v>1.67</v>
+      </c>
+      <c r="BJ93">
+        <v>2.1</v>
+      </c>
+      <c r="BK93">
+        <v>2.1</v>
+      </c>
+      <c r="BL93">
+        <v>1.67</v>
+      </c>
+      <c r="BM93">
+        <v>2.62</v>
+      </c>
+      <c r="BN93">
+        <v>1.42</v>
+      </c>
+      <c r="BO93">
+        <v>3.6</v>
+      </c>
+      <c r="BP93">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7476634</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s">
+        <v>72</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>160</v>
+      </c>
+      <c r="P94" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q94">
+        <v>3.25</v>
+      </c>
+      <c r="R94">
+        <v>2.05</v>
+      </c>
+      <c r="S94">
+        <v>3.5</v>
+      </c>
+      <c r="T94">
+        <v>1.5</v>
+      </c>
+      <c r="U94">
+        <v>2.5</v>
+      </c>
+      <c r="V94">
+        <v>3.4</v>
+      </c>
+      <c r="W94">
+        <v>1.3</v>
+      </c>
+      <c r="X94">
+        <v>10</v>
+      </c>
+      <c r="Y94">
+        <v>1.06</v>
+      </c>
+      <c r="Z94">
+        <v>2.33</v>
+      </c>
+      <c r="AA94">
+        <v>3.2</v>
+      </c>
+      <c r="AB94">
+        <v>3.04</v>
+      </c>
+      <c r="AC94">
+        <v>1.07</v>
+      </c>
+      <c r="AD94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>1.4</v>
+      </c>
+      <c r="AF94">
+        <v>2.95</v>
+      </c>
+      <c r="AG94">
+        <v>2.15</v>
+      </c>
+      <c r="AH94">
+        <v>1.61</v>
+      </c>
+      <c r="AI94">
+        <v>1.83</v>
+      </c>
+      <c r="AJ94">
+        <v>1.83</v>
+      </c>
+      <c r="AK94">
+        <v>1.42</v>
+      </c>
+      <c r="AL94">
+        <v>1.3</v>
+      </c>
+      <c r="AM94">
+        <v>1.53</v>
+      </c>
+      <c r="AN94">
+        <v>3</v>
+      </c>
+      <c r="AO94">
+        <v>2</v>
+      </c>
+      <c r="AP94">
+        <v>3</v>
+      </c>
+      <c r="AQ94">
+        <v>1.5</v>
+      </c>
+      <c r="AR94">
+        <v>1.4</v>
+      </c>
+      <c r="AS94">
+        <v>1.18</v>
+      </c>
+      <c r="AT94">
+        <v>2.58</v>
+      </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AV94">
+        <v>3</v>
+      </c>
+      <c r="AW94">
+        <v>2</v>
+      </c>
+      <c r="AX94">
+        <v>2</v>
+      </c>
+      <c r="AY94">
+        <v>7</v>
+      </c>
+      <c r="AZ94">
+        <v>5</v>
+      </c>
+      <c r="BA94">
+        <v>7</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>10</v>
+      </c>
+      <c r="BD94">
+        <v>1.82</v>
+      </c>
+      <c r="BE94">
+        <v>8</v>
+      </c>
+      <c r="BF94">
+        <v>2.39</v>
+      </c>
+      <c r="BG94">
+        <v>1.25</v>
+      </c>
+      <c r="BH94">
+        <v>3.6</v>
+      </c>
+      <c r="BI94">
+        <v>1.37</v>
+      </c>
+      <c r="BJ94">
+        <v>2.85</v>
+      </c>
+      <c r="BK94">
+        <v>1.7</v>
+      </c>
+      <c r="BL94">
+        <v>2.03</v>
+      </c>
+      <c r="BM94">
+        <v>2.13</v>
+      </c>
+      <c r="BN94">
+        <v>1.63</v>
+      </c>
+      <c r="BO94">
+        <v>2.85</v>
+      </c>
+      <c r="BP94">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -478,27 +478,27 @@
     <t>['34', '45+3']</t>
   </si>
   <si>
+    <t>['17', '62']</t>
+  </si>
+  <si>
+    <t>['12', '27']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['11', '22']</t>
+  </si>
+  <si>
     <t>['39', '79', '89', '90+2']</t>
   </si>
   <si>
-    <t>['11', '22']</t>
+    <t>['33', '74']</t>
   </si>
   <si>
     <t>['61', '85']</t>
   </si>
   <si>
-    <t>['33', '74']</t>
-  </si>
-  <si>
-    <t>['12', '27']</t>
-  </si>
-  <si>
-    <t>['23']</t>
-  </si>
-  <si>
-    <t>['17', '62']</t>
-  </si>
-  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -625,22 +625,22 @@
     <t>['74', '86']</t>
   </si>
   <si>
+    <t>['31', '59', '90+5']</t>
+  </si>
+  <si>
+    <t>['24', '81', '90']</t>
+  </si>
+  <si>
+    <t>['5', '51']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['89']</t>
-  </si>
-  <si>
-    <t>['71']</t>
-  </si>
-  <si>
-    <t>['24', '81', '90']</t>
-  </si>
-  <si>
-    <t>['31', '59', '90+5']</t>
-  </si>
-  <si>
-    <t>['5', '51']</t>
   </si>
 </sst>
 </file>
@@ -12179,7 +12179,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q55">
         <v>2.63</v>
@@ -16051,7 +16051,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7476620</v>
+        <v>7476613</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16066,70 +16066,70 @@
         <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H74" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O74" t="s">
+        <v>148</v>
+      </c>
+      <c r="P74" t="s">
         <v>101</v>
       </c>
-      <c r="P74" t="s">
-        <v>176</v>
-      </c>
       <c r="Q74">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="R74">
         <v>2.3</v>
       </c>
       <c r="S74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T74">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V74">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W74">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X74">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y74">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z74">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="AA74">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB74">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="AC74">
         <v>1.04</v>
@@ -16138,118 +16138,118 @@
         <v>10</v>
       </c>
       <c r="AE74">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF74">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AG74">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AH74">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AI74">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AJ74">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AK74">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="AL74">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AM74">
-        <v>1.77</v>
+        <v>2.4</v>
       </c>
       <c r="AN74">
         <v>2.33</v>
       </c>
       <c r="AO74">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AQ74">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AR74">
-        <v>1.78</v>
+        <v>1.2</v>
       </c>
       <c r="AS74">
         <v>0.84</v>
       </c>
       <c r="AT74">
+        <v>2.04</v>
+      </c>
+      <c r="AU74">
+        <v>10</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74">
+        <v>7</v>
+      </c>
+      <c r="AX74">
+        <v>2</v>
+      </c>
+      <c r="AY74">
+        <v>17</v>
+      </c>
+      <c r="AZ74">
+        <v>2</v>
+      </c>
+      <c r="BA74">
+        <v>10</v>
+      </c>
+      <c r="BB74">
+        <v>2</v>
+      </c>
+      <c r="BC74">
+        <v>12</v>
+      </c>
+      <c r="BD74">
+        <v>1.26</v>
+      </c>
+      <c r="BE74">
+        <v>9.5</v>
+      </c>
+      <c r="BF74">
+        <v>5.09</v>
+      </c>
+      <c r="BG74">
+        <v>1.25</v>
+      </c>
+      <c r="BH74">
+        <v>3.6</v>
+      </c>
+      <c r="BI74">
+        <v>1.33</v>
+      </c>
+      <c r="BJ74">
+        <v>2.73</v>
+      </c>
+      <c r="BK74">
+        <v>1.9</v>
+      </c>
+      <c r="BL74">
+        <v>1.9</v>
+      </c>
+      <c r="BM74">
+        <v>2.06</v>
+      </c>
+      <c r="BN74">
+        <v>1.68</v>
+      </c>
+      <c r="BO74">
         <v>2.62</v>
       </c>
-      <c r="AU74">
-        <v>4</v>
-      </c>
-      <c r="AV74">
-        <v>6</v>
-      </c>
-      <c r="AW74">
-        <v>6</v>
-      </c>
-      <c r="AX74">
-        <v>1</v>
-      </c>
-      <c r="AY74">
-        <v>10</v>
-      </c>
-      <c r="AZ74">
-        <v>7</v>
-      </c>
-      <c r="BA74">
-        <v>6</v>
-      </c>
-      <c r="BB74">
-        <v>3</v>
-      </c>
-      <c r="BC74">
-        <v>9</v>
-      </c>
-      <c r="BD74">
-        <v>1.51</v>
-      </c>
-      <c r="BE74">
-        <v>7.1</v>
-      </c>
-      <c r="BF74">
-        <v>3.3</v>
-      </c>
-      <c r="BG74">
-        <v>1.2</v>
-      </c>
-      <c r="BH74">
-        <v>4</v>
-      </c>
-      <c r="BI74">
-        <v>1.3</v>
-      </c>
-      <c r="BJ74">
-        <v>3.2</v>
-      </c>
-      <c r="BK74">
-        <v>1.54</v>
-      </c>
-      <c r="BL74">
-        <v>2.32</v>
-      </c>
-      <c r="BM74">
-        <v>1.96</v>
-      </c>
-      <c r="BN74">
-        <v>1.75</v>
-      </c>
-      <c r="BO74">
-        <v>2.52</v>
-      </c>
       <c r="BP74">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16257,7 +16257,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7476613</v>
+        <v>7476614</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16272,160 +16272,160 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="P75" t="s">
         <v>101</v>
       </c>
       <c r="Q75">
+        <v>2.88</v>
+      </c>
+      <c r="R75">
         <v>2.1</v>
       </c>
-      <c r="R75">
-        <v>2.3</v>
-      </c>
       <c r="S75">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="T75">
+        <v>1.4</v>
+      </c>
+      <c r="U75">
+        <v>2.75</v>
+      </c>
+      <c r="V75">
+        <v>3</v>
+      </c>
+      <c r="W75">
         <v>1.36</v>
       </c>
-      <c r="U75">
-        <v>3</v>
-      </c>
-      <c r="V75">
-        <v>2.63</v>
-      </c>
-      <c r="W75">
-        <v>1.44</v>
-      </c>
       <c r="X75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y75">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z75">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="AA75">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="AB75">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="AC75">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE75">
+        <v>1.3</v>
+      </c>
+      <c r="AF75">
+        <v>3.35</v>
+      </c>
+      <c r="AG75">
+        <v>1.91</v>
+      </c>
+      <c r="AH75">
+        <v>1.8</v>
+      </c>
+      <c r="AI75">
+        <v>1.8</v>
+      </c>
+      <c r="AJ75">
+        <v>1.91</v>
+      </c>
+      <c r="AK75">
+        <v>1.33</v>
+      </c>
+      <c r="AL75">
         <v>1.25</v>
       </c>
-      <c r="AF75">
-        <v>3.8</v>
-      </c>
-      <c r="AG75">
-        <v>1.8</v>
-      </c>
-      <c r="AH75">
-        <v>1.95</v>
-      </c>
-      <c r="AI75">
-        <v>1.83</v>
-      </c>
-      <c r="AJ75">
-        <v>1.83</v>
-      </c>
-      <c r="AK75">
-        <v>1.13</v>
-      </c>
-      <c r="AL75">
-        <v>1.18</v>
-      </c>
       <c r="AM75">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="AN75">
         <v>2.33</v>
       </c>
       <c r="AO75">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP75">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AS75">
-        <v>0.84</v>
+        <v>1.17</v>
       </c>
       <c r="AT75">
-        <v>2.04</v>
+        <v>2.77</v>
       </c>
       <c r="AU75">
+        <v>6</v>
+      </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
+      <c r="AW75">
+        <v>2</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>8</v>
+      </c>
+      <c r="AZ75">
+        <v>4</v>
+      </c>
+      <c r="BA75">
+        <v>7</v>
+      </c>
+      <c r="BB75">
+        <v>3</v>
+      </c>
+      <c r="BC75">
         <v>10</v>
       </c>
-      <c r="AV75">
-        <v>0</v>
-      </c>
-      <c r="AW75">
-        <v>7</v>
-      </c>
-      <c r="AX75">
-        <v>2</v>
-      </c>
-      <c r="AY75">
-        <v>17</v>
-      </c>
-      <c r="AZ75">
-        <v>2</v>
-      </c>
-      <c r="BA75">
-        <v>10</v>
-      </c>
-      <c r="BB75">
-        <v>2</v>
-      </c>
-      <c r="BC75">
-        <v>12</v>
-      </c>
       <c r="BD75">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="BE75">
-        <v>9.5</v>
+        <v>6.65</v>
       </c>
       <c r="BF75">
-        <v>5.09</v>
+        <v>2.7</v>
       </c>
       <c r="BG75">
         <v>1.25</v>
@@ -16434,28 +16434,28 @@
         <v>3.6</v>
       </c>
       <c r="BI75">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="BJ75">
-        <v>2.73</v>
+        <v>2.85</v>
       </c>
       <c r="BK75">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="BL75">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="BM75">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="BN75">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="BO75">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="BP75">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16463,7 +16463,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7476614</v>
+        <v>7476616</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16478,43 +16478,43 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O76" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="P76" t="s">
         <v>101</v>
       </c>
       <c r="Q76">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="R76">
         <v>2.1</v>
       </c>
       <c r="S76">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T76">
         <v>1.4</v>
@@ -16529,37 +16529,37 @@
         <v>1.36</v>
       </c>
       <c r="X76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y76">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z76">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AA76">
         <v>3.3</v>
       </c>
       <c r="AB76">
+        <v>3.5</v>
+      </c>
+      <c r="AC76">
+        <v>1.06</v>
+      </c>
+      <c r="AD76">
+        <v>8.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.33</v>
+      </c>
+      <c r="AF76">
         <v>3.2</v>
       </c>
-      <c r="AC76">
-        <v>1.05</v>
-      </c>
-      <c r="AD76">
-        <v>9</v>
-      </c>
-      <c r="AE76">
-        <v>1.3</v>
-      </c>
-      <c r="AF76">
-        <v>3.35</v>
-      </c>
       <c r="AG76">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AH76">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AI76">
         <v>1.8</v>
@@ -16568,100 +16568,100 @@
         <v>1.91</v>
       </c>
       <c r="AK76">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AL76">
         <v>1.25</v>
       </c>
       <c r="AM76">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AN76">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ76">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR76">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="AS76">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AT76">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="AU76">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV76">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX76">
         <v>4</v>
       </c>
       <c r="AY76">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ76">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA76">
+        <v>2</v>
+      </c>
+      <c r="BB76">
+        <v>5</v>
+      </c>
+      <c r="BC76">
         <v>7</v>
       </c>
-      <c r="BB76">
-        <v>3</v>
-      </c>
-      <c r="BC76">
-        <v>10</v>
-      </c>
       <c r="BD76">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="BE76">
-        <v>6.65</v>
+        <v>7.5</v>
       </c>
       <c r="BF76">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="BG76">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="BH76">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="BI76">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="BJ76">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="BK76">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="BL76">
-        <v>2.03</v>
+        <v>2.62</v>
       </c>
       <c r="BM76">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="BN76">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="BO76">
-        <v>2.85</v>
+        <v>2.22</v>
       </c>
       <c r="BP76">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16669,7 +16669,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7476616</v>
+        <v>7476617</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16684,10 +16684,10 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -16708,64 +16708,64 @@
         <v>3</v>
       </c>
       <c r="O77" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P77" t="s">
         <v>101</v>
       </c>
       <c r="Q77">
+        <v>2.4</v>
+      </c>
+      <c r="R77">
+        <v>2.2</v>
+      </c>
+      <c r="S77">
+        <v>4.75</v>
+      </c>
+      <c r="T77">
+        <v>1.36</v>
+      </c>
+      <c r="U77">
+        <v>3</v>
+      </c>
+      <c r="V77">
         <v>2.75</v>
       </c>
-      <c r="R77">
-        <v>2.1</v>
-      </c>
-      <c r="S77">
-        <v>4</v>
-      </c>
-      <c r="T77">
+      <c r="W77">
         <v>1.4</v>
       </c>
-      <c r="U77">
-        <v>2.75</v>
-      </c>
-      <c r="V77">
-        <v>3</v>
-      </c>
-      <c r="W77">
-        <v>1.36</v>
-      </c>
       <c r="X77">
+        <v>8</v>
+      </c>
+      <c r="Y77">
+        <v>1.08</v>
+      </c>
+      <c r="Z77">
+        <v>1.75</v>
+      </c>
+      <c r="AA77">
+        <v>3.5</v>
+      </c>
+      <c r="AB77">
+        <v>4.6</v>
+      </c>
+      <c r="AC77">
+        <v>1.05</v>
+      </c>
+      <c r="AD77">
         <v>9</v>
       </c>
-      <c r="Y77">
-        <v>1.07</v>
-      </c>
-      <c r="Z77">
-        <v>2.05</v>
-      </c>
-      <c r="AA77">
-        <v>3.3</v>
-      </c>
-      <c r="AB77">
+      <c r="AE77">
+        <v>1.28</v>
+      </c>
+      <c r="AF77">
         <v>3.5</v>
       </c>
-      <c r="AC77">
-        <v>1.06</v>
-      </c>
-      <c r="AD77">
-        <v>8.5</v>
-      </c>
-      <c r="AE77">
-        <v>1.33</v>
-      </c>
-      <c r="AF77">
-        <v>3.2</v>
-      </c>
       <c r="AG77">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AH77">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AI77">
         <v>1.8</v>
@@ -16774,13 +16774,13 @@
         <v>1.91</v>
       </c>
       <c r="AK77">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AL77">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM77">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AN77">
         <v>1.33</v>
@@ -16795,79 +16795,79 @@
         <v>1</v>
       </c>
       <c r="AR77">
-        <v>1.92</v>
+        <v>0.97</v>
       </c>
       <c r="AS77">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AT77">
-        <v>3.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU77">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV77">
+        <v>6</v>
+      </c>
+      <c r="AW77">
         <v>7</v>
       </c>
-      <c r="AW77">
-        <v>3</v>
-      </c>
       <c r="AX77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY77">
+        <v>14</v>
+      </c>
+      <c r="AZ77">
+        <v>7</v>
+      </c>
+      <c r="BA77">
+        <v>5</v>
+      </c>
+      <c r="BB77">
+        <v>7</v>
+      </c>
+      <c r="BC77">
         <v>12</v>
       </c>
-      <c r="AZ77">
-        <v>11</v>
-      </c>
-      <c r="BA77">
-        <v>2</v>
-      </c>
-      <c r="BB77">
-        <v>5</v>
-      </c>
-      <c r="BC77">
-        <v>7</v>
-      </c>
       <c r="BD77">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="BE77">
         <v>7.5</v>
       </c>
       <c r="BF77">
-        <v>2.92</v>
+        <v>3.58</v>
       </c>
       <c r="BG77">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="BH77">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="BI77">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BJ77">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BK77">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BL77">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="BM77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BO77">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="BP77">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16875,7 +16875,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7476617</v>
+        <v>7476618</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16890,43 +16890,43 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P78" t="s">
         <v>101</v>
       </c>
       <c r="Q78">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R78">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S78">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="T78">
         <v>1.36</v>
@@ -16935,145 +16935,145 @@
         <v>3</v>
       </c>
       <c r="V78">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W78">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y78">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z78">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AA78">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB78">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="AC78">
         <v>1.05</v>
       </c>
       <c r="AD78">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE78">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF78">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AG78">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AH78">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AI78">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AJ78">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AK78">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AL78">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM78">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AN78">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO78">
         <v>1.33</v>
       </c>
       <c r="AP78">
+        <v>2.25</v>
+      </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
+      <c r="AR78">
+        <v>1.15</v>
+      </c>
+      <c r="AS78">
+        <v>1.23</v>
+      </c>
+      <c r="AT78">
+        <v>2.38</v>
+      </c>
+      <c r="AU78">
+        <v>5</v>
+      </c>
+      <c r="AV78">
+        <v>3</v>
+      </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>9</v>
+      </c>
+      <c r="AZ78">
+        <v>9</v>
+      </c>
+      <c r="BA78">
+        <v>3</v>
+      </c>
+      <c r="BB78">
+        <v>4</v>
+      </c>
+      <c r="BC78">
+        <v>7</v>
+      </c>
+      <c r="BD78">
         <v>1.75</v>
-      </c>
-      <c r="AQ78">
-        <v>1</v>
-      </c>
-      <c r="AR78">
-        <v>0.97</v>
-      </c>
-      <c r="AS78">
-        <v>1.24</v>
-      </c>
-      <c r="AT78">
-        <v>2.21</v>
-      </c>
-      <c r="AU78">
-        <v>7</v>
-      </c>
-      <c r="AV78">
-        <v>6</v>
-      </c>
-      <c r="AW78">
-        <v>7</v>
-      </c>
-      <c r="AX78">
-        <v>1</v>
-      </c>
-      <c r="AY78">
-        <v>14</v>
-      </c>
-      <c r="AZ78">
-        <v>7</v>
-      </c>
-      <c r="BA78">
-        <v>5</v>
-      </c>
-      <c r="BB78">
-        <v>7</v>
-      </c>
-      <c r="BC78">
-        <v>12</v>
-      </c>
-      <c r="BD78">
-        <v>1.44</v>
       </c>
       <c r="BE78">
         <v>7.5</v>
       </c>
       <c r="BF78">
-        <v>3.58</v>
+        <v>2.45</v>
       </c>
       <c r="BG78">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH78">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="BI78">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BJ78">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="BK78">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="BL78">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="BM78">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BN78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="BO78">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="BP78">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17081,7 +17081,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7476618</v>
+        <v>7476619</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17096,34 +17096,34 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P79" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>2.88</v>
@@ -17135,10 +17135,10 @@
         <v>3.4</v>
       </c>
       <c r="T79">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U79">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V79">
         <v>2.63</v>
@@ -17147,19 +17147,19 @@
         <v>1.44</v>
       </c>
       <c r="X79">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y79">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z79">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AA79">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB79">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AC79">
         <v>1.05</v>
@@ -17171,55 +17171,55 @@
         <v>1.25</v>
       </c>
       <c r="AF79">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="AG79">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AH79">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AI79">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AJ79">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK79">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AL79">
         <v>1.25</v>
       </c>
       <c r="AM79">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AN79">
         <v>2</v>
       </c>
       <c r="AO79">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP79">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79">
         <v>1</v>
       </c>
       <c r="AR79">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="AS79">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="AT79">
-        <v>2.38</v>
+        <v>3.03</v>
       </c>
       <c r="AU79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV79">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW79">
         <v>4</v>
@@ -17228,58 +17228,58 @@
         <v>6</v>
       </c>
       <c r="AY79">
+        <v>8</v>
+      </c>
+      <c r="AZ79">
+        <v>13</v>
+      </c>
+      <c r="BA79">
+        <v>4</v>
+      </c>
+      <c r="BB79">
+        <v>5</v>
+      </c>
+      <c r="BC79">
         <v>9</v>
       </c>
-      <c r="AZ79">
-        <v>9</v>
-      </c>
-      <c r="BA79">
-        <v>3</v>
-      </c>
-      <c r="BB79">
-        <v>4</v>
-      </c>
-      <c r="BC79">
-        <v>7</v>
-      </c>
       <c r="BD79">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BE79">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="BF79">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="BG79">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH79">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="BI79">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="BJ79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BK79">
-        <v>1.48</v>
+        <v>1.84</v>
       </c>
       <c r="BL79">
-        <v>2.47</v>
+        <v>1.95</v>
       </c>
       <c r="BM79">
-        <v>1.9</v>
+        <v>2.31</v>
       </c>
       <c r="BN79">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="BO79">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BP79">
-        <v>1.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17287,7 +17287,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7476619</v>
+        <v>7476620</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17302,43 +17302,43 @@
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H80" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>1</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O80" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="Q80">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="R80">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S80">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T80">
         <v>1.33</v>
@@ -17347,10 +17347,10 @@
         <v>3.25</v>
       </c>
       <c r="V80">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W80">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X80">
         <v>6.5</v>
@@ -17359,133 +17359,133 @@
         <v>1.11</v>
       </c>
       <c r="Z80">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="AA80">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB80">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="AC80">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD80">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE80">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF80">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AG80">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AH80">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AI80">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AJ80">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK80">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AL80">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM80">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AN80">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP80">
         <v>1.75</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AR80">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="AS80">
-        <v>1.55</v>
+        <v>0.84</v>
       </c>
       <c r="AT80">
-        <v>3.03</v>
+        <v>2.62</v>
       </c>
       <c r="AU80">
         <v>4</v>
       </c>
       <c r="AV80">
+        <v>6</v>
+      </c>
+      <c r="AW80">
+        <v>6</v>
+      </c>
+      <c r="AX80">
+        <v>1</v>
+      </c>
+      <c r="AY80">
+        <v>10</v>
+      </c>
+      <c r="AZ80">
         <v>7</v>
       </c>
-      <c r="AW80">
-        <v>4</v>
-      </c>
-      <c r="AX80">
+      <c r="BA80">
         <v>6</v>
       </c>
-      <c r="AY80">
-        <v>8</v>
-      </c>
-      <c r="AZ80">
-        <v>13</v>
-      </c>
-      <c r="BA80">
-        <v>4</v>
-      </c>
       <c r="BB80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC80">
         <v>9</v>
       </c>
       <c r="BD80">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="BE80">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="BF80">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BG80">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BH80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI80">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="BJ80">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BK80">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="BL80">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="BM80">
-        <v>2.31</v>
+        <v>1.96</v>
       </c>
       <c r="BN80">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="BO80">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="BP80">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -18317,7 +18317,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7476640</v>
+        <v>7476634</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18326,16 +18326,16 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45563.35416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F85">
         <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H85" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -18347,13 +18347,13 @@
         <v>1</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O85" t="s">
         <v>154</v>
@@ -18362,160 +18362,160 @@
         <v>101</v>
       </c>
       <c r="Q85">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="R85">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S85">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="T85">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U85">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V85">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W85">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X85">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y85">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z85">
-        <v>1.78</v>
+        <v>2.33</v>
       </c>
       <c r="AA85">
-        <v>3.64</v>
+        <v>3.2</v>
       </c>
       <c r="AB85">
-        <v>4.3</v>
+        <v>3.04</v>
       </c>
       <c r="AC85">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AD85">
         <v>9</v>
       </c>
       <c r="AE85">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AF85">
-        <v>3.6</v>
+        <v>2.95</v>
       </c>
       <c r="AG85">
+        <v>2.15</v>
+      </c>
+      <c r="AH85">
+        <v>1.61</v>
+      </c>
+      <c r="AI85">
         <v>1.83</v>
       </c>
-      <c r="AH85">
-        <v>1.91</v>
-      </c>
-      <c r="AI85">
-        <v>1.8</v>
-      </c>
       <c r="AJ85">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AK85">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AL85">
         <v>1.3</v>
       </c>
       <c r="AM85">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="AN85">
         <v>3</v>
       </c>
       <c r="AO85">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AP85">
         <v>3</v>
       </c>
       <c r="AQ85">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AR85">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AS85">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="AT85">
-        <v>3.12</v>
+        <v>2.58</v>
       </c>
       <c r="AU85">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW85">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX85">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY85">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AZ85">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BA85">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB85">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC85">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD85">
-        <v>1.45</v>
+        <v>1.82</v>
       </c>
       <c r="BE85">
         <v>8</v>
       </c>
       <c r="BF85">
-        <v>3.35</v>
+        <v>2.39</v>
       </c>
       <c r="BG85">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BH85">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BI85">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="BJ85">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="BK85">
         <v>1.7</v>
       </c>
       <c r="BL85">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="BM85">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="BN85">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="BO85">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="BP85">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18523,7 +18523,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7476635</v>
+        <v>7476627</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18532,55 +18532,55 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45563.35416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F86">
         <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H86" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N86">
         <v>3</v>
       </c>
       <c r="O86" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="P86" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="Q86">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="R86">
         <v>2.2</v>
       </c>
       <c r="S86">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T86">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V86">
         <v>2.75</v>
@@ -18589,139 +18589,139 @@
         <v>1.4</v>
       </c>
       <c r="X86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y86">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z86">
-        <v>3.82</v>
+        <v>2.12</v>
       </c>
       <c r="AA86">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="AB86">
-        <v>1.88</v>
+        <v>3.2</v>
       </c>
       <c r="AC86">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE86">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AF86">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="AG86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AH86">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AI86">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AJ86">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK86">
-        <v>1.9</v>
+        <v>1.31</v>
       </c>
       <c r="AL86">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM86">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="AN86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO86">
         <v>1</v>
       </c>
       <c r="AP86">
+        <v>2.25</v>
+      </c>
+      <c r="AQ86">
         <v>1.5</v>
       </c>
-      <c r="AQ86">
-        <v>0.75</v>
-      </c>
       <c r="AR86">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AS86">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="AT86">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="AU86">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV86">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW86">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX86">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY86">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AZ86">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA86">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BB86">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC86">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BD86">
-        <v>2.78</v>
+        <v>1.59</v>
       </c>
       <c r="BE86">
         <v>7.5</v>
       </c>
       <c r="BF86">
-        <v>1.64</v>
+        <v>2.92</v>
       </c>
       <c r="BG86">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="BH86">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="BI86">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="BJ86">
-        <v>3.35</v>
+        <v>2.4</v>
       </c>
       <c r="BK86">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="BL86">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="BM86">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="BN86">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="BO86">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="BP86">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18729,7 +18729,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7476636</v>
+        <v>7476625</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18738,196 +18738,196 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F87">
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O87" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q87">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="R87">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S87">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="T87">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="U87">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V87">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="W87">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X87">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y87">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="Z87">
-        <v>4.1</v>
+        <v>2.07</v>
       </c>
       <c r="AA87">
-        <v>3.98</v>
+        <v>3.46</v>
       </c>
       <c r="AB87">
-        <v>1.74</v>
+        <v>3.35</v>
       </c>
       <c r="AC87">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD87">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE87">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AF87">
-        <v>4.15</v>
+        <v>3.28</v>
       </c>
       <c r="AG87">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AH87">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AI87">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AJ87">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AK87">
-        <v>1.98</v>
+        <v>1.33</v>
       </c>
       <c r="AL87">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AM87">
+        <v>1.72</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <v>0.75</v>
+      </c>
+      <c r="AQ87">
+        <v>0.75</v>
+      </c>
+      <c r="AR87">
+        <v>1.37</v>
+      </c>
+      <c r="AS87">
         <v>1.21</v>
       </c>
-      <c r="AN87">
-        <v>0.33</v>
-      </c>
-      <c r="AO87">
-        <v>2.33</v>
-      </c>
-      <c r="AP87">
-        <v>0.5</v>
-      </c>
-      <c r="AQ87">
-        <v>2</v>
-      </c>
-      <c r="AR87">
-        <v>1.28</v>
-      </c>
-      <c r="AS87">
-        <v>1.2</v>
-      </c>
       <c r="AT87">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="AU87">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV87">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AX87">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY87">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AZ87">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BA87">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BB87">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC87">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD87">
-        <v>2.53</v>
+        <v>1.69</v>
       </c>
       <c r="BE87">
         <v>7.5</v>
       </c>
       <c r="BF87">
-        <v>1.75</v>
+        <v>2.65</v>
       </c>
       <c r="BG87">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH87">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="BI87">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="BJ87">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="BK87">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="BL87">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="BM87">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="BN87">
         <v>1.82</v>
       </c>
       <c r="BO87">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="BP87">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18935,7 +18935,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7476638</v>
+        <v>7476624</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18944,55 +18944,55 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F88">
         <v>8</v>
       </c>
       <c r="G88" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H88" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88">
         <v>1</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O88" t="s">
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="Q88">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="R88">
         <v>2.25</v>
       </c>
       <c r="S88">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="T88">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U88">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V88">
         <v>2.63</v>
@@ -19007,133 +19007,133 @@
         <v>1.1</v>
       </c>
       <c r="Z88">
-        <v>1.87</v>
+        <v>3.06</v>
       </c>
       <c r="AA88">
         <v>3.6</v>
       </c>
       <c r="AB88">
-        <v>3.88</v>
+        <v>2.15</v>
       </c>
       <c r="AC88">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD88">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE88">
+        <v>1.19</v>
+      </c>
+      <c r="AF88">
+        <v>3.55</v>
+      </c>
+      <c r="AG88">
+        <v>1.75</v>
+      </c>
+      <c r="AH88">
+        <v>2</v>
+      </c>
+      <c r="AI88">
+        <v>1.62</v>
+      </c>
+      <c r="AJ88">
+        <v>2.2</v>
+      </c>
+      <c r="AK88">
+        <v>1.57</v>
+      </c>
+      <c r="AL88">
+        <v>1.28</v>
+      </c>
+      <c r="AM88">
+        <v>1.41</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>1</v>
+      </c>
+      <c r="AQ88">
+        <v>0.25</v>
+      </c>
+      <c r="AR88">
+        <v>1.27</v>
+      </c>
+      <c r="AS88">
+        <v>1.27</v>
+      </c>
+      <c r="AT88">
+        <v>2.54</v>
+      </c>
+      <c r="AU88">
+        <v>-1</v>
+      </c>
+      <c r="AV88">
+        <v>-1</v>
+      </c>
+      <c r="AW88">
+        <v>-1</v>
+      </c>
+      <c r="AX88">
+        <v>-1</v>
+      </c>
+      <c r="AY88">
+        <v>-1</v>
+      </c>
+      <c r="AZ88">
+        <v>-1</v>
+      </c>
+      <c r="BA88">
+        <v>-1</v>
+      </c>
+      <c r="BB88">
+        <v>-1</v>
+      </c>
+      <c r="BC88">
+        <v>-1</v>
+      </c>
+      <c r="BD88">
+        <v>2</v>
+      </c>
+      <c r="BE88">
+        <v>7</v>
+      </c>
+      <c r="BF88">
+        <v>2.1</v>
+      </c>
+      <c r="BG88">
+        <v>1.4</v>
+      </c>
+      <c r="BH88">
+        <v>2.7</v>
+      </c>
+      <c r="BI88">
+        <v>1.67</v>
+      </c>
+      <c r="BJ88">
+        <v>2.1</v>
+      </c>
+      <c r="BK88">
+        <v>2.1</v>
+      </c>
+      <c r="BL88">
+        <v>1.67</v>
+      </c>
+      <c r="BM88">
+        <v>2.62</v>
+      </c>
+      <c r="BN88">
+        <v>1.42</v>
+      </c>
+      <c r="BO88">
+        <v>3.6</v>
+      </c>
+      <c r="BP88">
         <v>1.25</v>
-      </c>
-      <c r="AF88">
-        <v>3.75</v>
-      </c>
-      <c r="AG88">
-        <v>1.8</v>
-      </c>
-      <c r="AH88">
-        <v>1.91</v>
-      </c>
-      <c r="AI88">
-        <v>1.73</v>
-      </c>
-      <c r="AJ88">
-        <v>2</v>
-      </c>
-      <c r="AK88">
-        <v>1.22</v>
-      </c>
-      <c r="AL88">
-        <v>1.22</v>
-      </c>
-      <c r="AM88">
-        <v>1.9</v>
-      </c>
-      <c r="AN88">
-        <v>1.33</v>
-      </c>
-      <c r="AO88">
-        <v>1</v>
-      </c>
-      <c r="AP88">
-        <v>1.75</v>
-      </c>
-      <c r="AQ88">
-        <v>0.75</v>
-      </c>
-      <c r="AR88">
-        <v>1.3</v>
-      </c>
-      <c r="AS88">
-        <v>1.13</v>
-      </c>
-      <c r="AT88">
-        <v>2.43</v>
-      </c>
-      <c r="AU88">
-        <v>7</v>
-      </c>
-      <c r="AV88">
-        <v>2</v>
-      </c>
-      <c r="AW88">
-        <v>10</v>
-      </c>
-      <c r="AX88">
-        <v>2</v>
-      </c>
-      <c r="AY88">
-        <v>17</v>
-      </c>
-      <c r="AZ88">
-        <v>4</v>
-      </c>
-      <c r="BA88">
-        <v>12</v>
-      </c>
-      <c r="BB88">
-        <v>3</v>
-      </c>
-      <c r="BC88">
-        <v>15</v>
-      </c>
-      <c r="BD88">
-        <v>1.69</v>
-      </c>
-      <c r="BE88">
-        <v>8</v>
-      </c>
-      <c r="BF88">
-        <v>2.54</v>
-      </c>
-      <c r="BG88">
-        <v>1.25</v>
-      </c>
-      <c r="BH88">
-        <v>3.6</v>
-      </c>
-      <c r="BI88">
-        <v>1.42</v>
-      </c>
-      <c r="BJ88">
-        <v>2.62</v>
-      </c>
-      <c r="BK88">
-        <v>1.7</v>
-      </c>
-      <c r="BL88">
-        <v>2.05</v>
-      </c>
-      <c r="BM88">
-        <v>2.1</v>
-      </c>
-      <c r="BN88">
-        <v>1.67</v>
-      </c>
-      <c r="BO88">
-        <v>2.62</v>
-      </c>
-      <c r="BP88">
-        <v>1.42</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19141,7 +19141,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7476637</v>
+        <v>7476626</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19150,55 +19150,55 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F89">
         <v>8</v>
       </c>
       <c r="G89" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H89" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
         <v>1</v>
       </c>
       <c r="L89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O89" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="P89" t="s">
         <v>205</v>
       </c>
       <c r="Q89">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="R89">
         <v>2.2</v>
       </c>
       <c r="S89">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="T89">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U89">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V89">
         <v>2.75</v>
@@ -19213,133 +19213,133 @@
         <v>1.08</v>
       </c>
       <c r="Z89">
-        <v>3.48</v>
+        <v>2.8</v>
       </c>
       <c r="AA89">
         <v>3.48</v>
       </c>
       <c r="AB89">
-        <v>2.02</v>
+        <v>2.35</v>
       </c>
       <c r="AC89">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD89">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE89">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AF89">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AG89">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AH89">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AI89">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AJ89">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK89">
+        <v>1.57</v>
+      </c>
+      <c r="AL89">
+        <v>1.27</v>
+      </c>
+      <c r="AM89">
+        <v>1.3</v>
+      </c>
+      <c r="AN89">
+        <v>2</v>
+      </c>
+      <c r="AO89">
+        <v>1.33</v>
+      </c>
+      <c r="AP89">
+        <v>1.5</v>
+      </c>
+      <c r="AQ89">
+        <v>1.75</v>
+      </c>
+      <c r="AR89">
+        <v>1.26</v>
+      </c>
+      <c r="AS89">
+        <v>1.09</v>
+      </c>
+      <c r="AT89">
+        <v>2.35</v>
+      </c>
+      <c r="AU89">
+        <v>-1</v>
+      </c>
+      <c r="AV89">
+        <v>-1</v>
+      </c>
+      <c r="AW89">
+        <v>-1</v>
+      </c>
+      <c r="AX89">
+        <v>-1</v>
+      </c>
+      <c r="AY89">
+        <v>-1</v>
+      </c>
+      <c r="AZ89">
+        <v>-1</v>
+      </c>
+      <c r="BA89">
+        <v>-1</v>
+      </c>
+      <c r="BB89">
+        <v>-1</v>
+      </c>
+      <c r="BC89">
+        <v>-1</v>
+      </c>
+      <c r="BD89">
+        <v>2.33</v>
+      </c>
+      <c r="BE89">
+        <v>8</v>
+      </c>
+      <c r="BF89">
+        <v>1.82</v>
+      </c>
+      <c r="BG89">
+        <v>1.22</v>
+      </c>
+      <c r="BH89">
+        <v>3.8</v>
+      </c>
+      <c r="BI89">
+        <v>1.38</v>
+      </c>
+      <c r="BJ89">
+        <v>2.8</v>
+      </c>
+      <c r="BK89">
         <v>1.65</v>
       </c>
-      <c r="AL89">
-        <v>1.28</v>
-      </c>
-      <c r="AM89">
-        <v>1.33</v>
-      </c>
-      <c r="AN89">
-        <v>2</v>
-      </c>
-      <c r="AO89">
-        <v>2</v>
-      </c>
-      <c r="AP89">
-        <v>2.25</v>
-      </c>
-      <c r="AQ89">
-        <v>1.5</v>
-      </c>
-      <c r="AR89">
-        <v>0.82</v>
-      </c>
-      <c r="AS89">
-        <v>1.06</v>
-      </c>
-      <c r="AT89">
-        <v>1.88</v>
-      </c>
-      <c r="AU89">
-        <v>3</v>
-      </c>
-      <c r="AV89">
-        <v>4</v>
-      </c>
-      <c r="AW89">
-        <v>6</v>
-      </c>
-      <c r="AX89">
-        <v>2</v>
-      </c>
-      <c r="AY89">
-        <v>9</v>
-      </c>
-      <c r="AZ89">
-        <v>6</v>
-      </c>
-      <c r="BA89">
-        <v>3</v>
-      </c>
-      <c r="BB89">
-        <v>4</v>
-      </c>
-      <c r="BC89">
-        <v>7</v>
-      </c>
-      <c r="BD89">
-        <v>2.3</v>
-      </c>
-      <c r="BE89">
-        <v>7</v>
-      </c>
-      <c r="BF89">
-        <v>1.85</v>
-      </c>
-      <c r="BG89">
-        <v>1.25</v>
-      </c>
-      <c r="BH89">
-        <v>3.6</v>
-      </c>
-      <c r="BI89">
-        <v>1.35</v>
-      </c>
-      <c r="BJ89">
-        <v>2.95</v>
-      </c>
-      <c r="BK89">
-        <v>1.7</v>
-      </c>
       <c r="BL89">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="BM89">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BN89">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="BO89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="BP89">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19347,7 +19347,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7476625</v>
+        <v>7476635</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19356,16 +19356,16 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45563.45833333334</v>
+        <v>45563.35416666666</v>
       </c>
       <c r="F90">
         <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H90" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -19380,25 +19380,25 @@
         <v>2</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="Q90">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="R90">
         <v>2.2</v>
       </c>
       <c r="S90">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="T90">
         <v>1.4</v>
@@ -19419,19 +19419,19 @@
         <v>1.08</v>
       </c>
       <c r="Z90">
-        <v>2.07</v>
+        <v>3.82</v>
       </c>
       <c r="AA90">
-        <v>3.46</v>
+        <v>3.62</v>
       </c>
       <c r="AB90">
-        <v>3.35</v>
+        <v>1.88</v>
       </c>
       <c r="AC90">
         <v>1.04</v>
       </c>
       <c r="AD90">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE90">
         <v>1.23</v>
@@ -19440,82 +19440,82 @@
         <v>3.28</v>
       </c>
       <c r="AG90">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AH90">
+        <v>1.85</v>
+      </c>
+      <c r="AI90">
+        <v>1.8</v>
+      </c>
+      <c r="AJ90">
         <v>1.91</v>
       </c>
-      <c r="AI90">
-        <v>1.73</v>
-      </c>
-      <c r="AJ90">
-        <v>2</v>
-      </c>
       <c r="AK90">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="AL90">
         <v>1.25</v>
       </c>
       <c r="AM90">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="AN90">
         <v>1</v>
       </c>
       <c r="AO90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP90">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90">
         <v>0.75</v>
       </c>
       <c r="AR90">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="AS90">
-        <v>1.21</v>
+        <v>1.02</v>
       </c>
       <c r="AT90">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="AU90">
+        <v>6</v>
+      </c>
+      <c r="AV90">
+        <v>2</v>
+      </c>
+      <c r="AW90">
+        <v>3</v>
+      </c>
+      <c r="AX90">
         <v>5</v>
       </c>
-      <c r="AV90">
+      <c r="AY90">
+        <v>9</v>
+      </c>
+      <c r="AZ90">
         <v>7</v>
       </c>
-      <c r="AW90">
-        <v>3</v>
-      </c>
-      <c r="AX90">
-        <v>2</v>
-      </c>
-      <c r="AY90">
-        <v>8</v>
-      </c>
-      <c r="AZ90">
-        <v>9</v>
-      </c>
       <c r="BA90">
+        <v>3</v>
+      </c>
+      <c r="BB90">
+        <v>2</v>
+      </c>
+      <c r="BC90">
         <v>5</v>
       </c>
-      <c r="BB90">
-        <v>4</v>
-      </c>
-      <c r="BC90">
-        <v>9</v>
-      </c>
       <c r="BD90">
-        <v>1.69</v>
+        <v>2.78</v>
       </c>
       <c r="BE90">
         <v>7.5</v>
       </c>
       <c r="BF90">
-        <v>2.65</v>
+        <v>1.64</v>
       </c>
       <c r="BG90">
         <v>1.2</v>
@@ -19524,28 +19524,28 @@
         <v>4</v>
       </c>
       <c r="BI90">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="BJ90">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="BK90">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="BL90">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="BM90">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BN90">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="BO90">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BP90">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="91" spans="1:68">
@@ -19553,7 +19553,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7476627</v>
+        <v>7476640</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19562,55 +19562,55 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45563.45833333334</v>
+        <v>45563.35416666666</v>
       </c>
       <c r="F91">
         <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H91" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O91" t="s">
+        <v>158</v>
+      </c>
+      <c r="P91" t="s">
         <v>101</v>
       </c>
-      <c r="P91" t="s">
-        <v>207</v>
-      </c>
       <c r="Q91">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="R91">
         <v>2.2</v>
       </c>
       <c r="S91">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="T91">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U91">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V91">
         <v>2.75</v>
@@ -19619,139 +19619,139 @@
         <v>1.4</v>
       </c>
       <c r="X91">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y91">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z91">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="AA91">
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
       <c r="AB91">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="AC91">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD91">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE91">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF91">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="AG91">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AH91">
         <v>1.91</v>
       </c>
       <c r="AI91">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AJ91">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK91">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AL91">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM91">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AN91">
         <v>3</v>
       </c>
       <c r="AO91">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP91">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AR91">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="AS91">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AT91">
-        <v>2.6</v>
+        <v>3.12</v>
       </c>
       <c r="AU91">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV91">
+        <v>0</v>
+      </c>
+      <c r="AW91">
         <v>5</v>
       </c>
-      <c r="AW91">
-        <v>2</v>
-      </c>
       <c r="AX91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY91">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AZ91">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BA91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB91">
+        <v>5</v>
+      </c>
+      <c r="BC91">
         <v>10</v>
       </c>
-      <c r="BC91">
-        <v>14</v>
-      </c>
       <c r="BD91">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="BE91">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF91">
-        <v>2.92</v>
+        <v>3.35</v>
       </c>
       <c r="BG91">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="BH91">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BI91">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="BJ91">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="BK91">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="BL91">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="BM91">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="BN91">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="BO91">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="BP91">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19759,7 +19759,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7476626</v>
+        <v>7476636</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19774,190 +19774,190 @@
         <v>8</v>
       </c>
       <c r="G92" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92">
         <v>2</v>
       </c>
       <c r="O92" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q92">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="R92">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S92">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="T92">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U92">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V92">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="W92">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X92">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Y92">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="Z92">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="AA92">
-        <v>3.48</v>
+        <v>3.98</v>
       </c>
       <c r="AB92">
-        <v>2.35</v>
+        <v>1.74</v>
       </c>
       <c r="AC92">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD92">
+        <v>17</v>
+      </c>
+      <c r="AE92">
+        <v>1.14</v>
+      </c>
+      <c r="AF92">
+        <v>4.15</v>
+      </c>
+      <c r="AG92">
+        <v>1.6</v>
+      </c>
+      <c r="AH92">
+        <v>2.25</v>
+      </c>
+      <c r="AI92">
+        <v>1.57</v>
+      </c>
+      <c r="AJ92">
+        <v>2.25</v>
+      </c>
+      <c r="AK92">
+        <v>1.98</v>
+      </c>
+      <c r="AL92">
+        <v>1.23</v>
+      </c>
+      <c r="AM92">
+        <v>1.21</v>
+      </c>
+      <c r="AN92">
+        <v>0.33</v>
+      </c>
+      <c r="AO92">
+        <v>2.33</v>
+      </c>
+      <c r="AP92">
+        <v>0.5</v>
+      </c>
+      <c r="AQ92">
+        <v>2</v>
+      </c>
+      <c r="AR92">
+        <v>1.28</v>
+      </c>
+      <c r="AS92">
+        <v>1.2</v>
+      </c>
+      <c r="AT92">
+        <v>2.48</v>
+      </c>
+      <c r="AU92">
         <v>9</v>
       </c>
-      <c r="AE92">
-        <v>1.25</v>
-      </c>
-      <c r="AF92">
-        <v>3.6</v>
-      </c>
-      <c r="AG92">
-        <v>1.83</v>
-      </c>
-      <c r="AH92">
-        <v>1.91</v>
-      </c>
-      <c r="AI92">
-        <v>1.67</v>
-      </c>
-      <c r="AJ92">
-        <v>2.1</v>
-      </c>
-      <c r="AK92">
-        <v>1.57</v>
-      </c>
-      <c r="AL92">
-        <v>1.27</v>
-      </c>
-      <c r="AM92">
-        <v>1.3</v>
-      </c>
-      <c r="AN92">
-        <v>2</v>
-      </c>
-      <c r="AO92">
+      <c r="AV92">
+        <v>5</v>
+      </c>
+      <c r="AW92">
+        <v>1</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>10</v>
+      </c>
+      <c r="AZ92">
+        <v>9</v>
+      </c>
+      <c r="BA92">
+        <v>7</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>11</v>
+      </c>
+      <c r="BD92">
+        <v>2.53</v>
+      </c>
+      <c r="BE92">
+        <v>7.5</v>
+      </c>
+      <c r="BF92">
+        <v>1.75</v>
+      </c>
+      <c r="BG92">
+        <v>1.18</v>
+      </c>
+      <c r="BH92">
+        <v>4.33</v>
+      </c>
+      <c r="BI92">
         <v>1.33</v>
       </c>
-      <c r="AP92">
+      <c r="BJ92">
+        <v>3</v>
+      </c>
+      <c r="BK92">
         <v>1.5</v>
       </c>
-      <c r="AQ92">
-        <v>1.75</v>
-      </c>
-      <c r="AR92">
-        <v>1.26</v>
-      </c>
-      <c r="AS92">
-        <v>1.09</v>
-      </c>
-      <c r="AT92">
-        <v>2.35</v>
-      </c>
-      <c r="AU92">
-        <v>2</v>
-      </c>
-      <c r="AV92">
-        <v>6</v>
-      </c>
-      <c r="AW92">
-        <v>4</v>
-      </c>
-      <c r="AX92">
-        <v>7</v>
-      </c>
-      <c r="AY92">
-        <v>6</v>
-      </c>
-      <c r="AZ92">
-        <v>13</v>
-      </c>
-      <c r="BA92">
-        <v>2</v>
-      </c>
-      <c r="BB92">
-        <v>6</v>
-      </c>
-      <c r="BC92">
-        <v>8</v>
-      </c>
-      <c r="BD92">
-        <v>2.33</v>
-      </c>
-      <c r="BE92">
-        <v>8</v>
-      </c>
-      <c r="BF92">
+      <c r="BL92">
+        <v>2.4</v>
+      </c>
+      <c r="BM92">
+        <v>1.88</v>
+      </c>
+      <c r="BN92">
         <v>1.82</v>
       </c>
-      <c r="BG92">
-        <v>1.22</v>
-      </c>
-      <c r="BH92">
-        <v>3.8</v>
-      </c>
-      <c r="BI92">
-        <v>1.38</v>
-      </c>
-      <c r="BJ92">
-        <v>2.8</v>
-      </c>
-      <c r="BK92">
-        <v>1.65</v>
-      </c>
-      <c r="BL92">
-        <v>2.1</v>
-      </c>
-      <c r="BM92">
-        <v>1.95</v>
-      </c>
-      <c r="BN92">
-        <v>1.77</v>
-      </c>
       <c r="BO92">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="BP92">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -19965,7 +19965,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7476624</v>
+        <v>7476637</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -19980,190 +19980,190 @@
         <v>8</v>
       </c>
       <c r="G93" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H93" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M93">
         <v>1</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O93" t="s">
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="Q93">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R93">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S93">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T93">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U93">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V93">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W93">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X93">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z93">
-        <v>3.06</v>
+        <v>3.48</v>
       </c>
       <c r="AA93">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="AB93">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="AC93">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD93">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE93">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AF93">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="AG93">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="AH93">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AI93">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AJ93">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK93">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AL93">
         <v>1.28</v>
       </c>
       <c r="AM93">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AN93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AQ93">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
-        <v>1.27</v>
+        <v>0.82</v>
       </c>
       <c r="AS93">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="AT93">
-        <v>2.54</v>
+        <v>1.88</v>
       </c>
       <c r="AU93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW93">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX93">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY93">
         <v>9</v>
       </c>
       <c r="AZ93">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA93">
+        <v>3</v>
+      </c>
+      <c r="BB93">
         <v>4</v>
       </c>
-      <c r="BB93">
-        <v>2</v>
-      </c>
       <c r="BC93">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD93">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BE93">
         <v>7</v>
       </c>
       <c r="BF93">
+        <v>1.85</v>
+      </c>
+      <c r="BG93">
+        <v>1.25</v>
+      </c>
+      <c r="BH93">
+        <v>3.6</v>
+      </c>
+      <c r="BI93">
+        <v>1.35</v>
+      </c>
+      <c r="BJ93">
+        <v>2.95</v>
+      </c>
+      <c r="BK93">
+        <v>1.7</v>
+      </c>
+      <c r="BL93">
+        <v>2.05</v>
+      </c>
+      <c r="BM93">
         <v>2.1</v>
       </c>
-      <c r="BG93">
+      <c r="BN93">
+        <v>1.65</v>
+      </c>
+      <c r="BO93">
+        <v>2.75</v>
+      </c>
+      <c r="BP93">
         <v>1.4</v>
-      </c>
-      <c r="BH93">
-        <v>2.7</v>
-      </c>
-      <c r="BI93">
-        <v>1.67</v>
-      </c>
-      <c r="BJ93">
-        <v>2.1</v>
-      </c>
-      <c r="BK93">
-        <v>2.1</v>
-      </c>
-      <c r="BL93">
-        <v>1.67</v>
-      </c>
-      <c r="BM93">
-        <v>2.62</v>
-      </c>
-      <c r="BN93">
-        <v>1.42</v>
-      </c>
-      <c r="BO93">
-        <v>3.6</v>
-      </c>
-      <c r="BP93">
-        <v>1.25</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20171,7 +20171,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7476634</v>
+        <v>7476638</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20186,160 +20186,160 @@
         <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94">
         <v>2</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O94" t="s">
         <v>160</v>
       </c>
       <c r="P94" t="s">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="Q94">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R94">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S94">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="T94">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U94">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V94">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="W94">
+        <v>1.44</v>
+      </c>
+      <c r="X94">
+        <v>7</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
+        <v>1.87</v>
+      </c>
+      <c r="AA94">
+        <v>3.6</v>
+      </c>
+      <c r="AB94">
+        <v>3.88</v>
+      </c>
+      <c r="AC94">
+        <v>1.03</v>
+      </c>
+      <c r="AD94">
+        <v>12</v>
+      </c>
+      <c r="AE94">
+        <v>1.25</v>
+      </c>
+      <c r="AF94">
+        <v>3.75</v>
+      </c>
+      <c r="AG94">
+        <v>1.8</v>
+      </c>
+      <c r="AH94">
+        <v>1.91</v>
+      </c>
+      <c r="AI94">
+        <v>1.73</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94">
+        <v>1.22</v>
+      </c>
+      <c r="AL94">
+        <v>1.22</v>
+      </c>
+      <c r="AM94">
+        <v>1.9</v>
+      </c>
+      <c r="AN94">
+        <v>1.33</v>
+      </c>
+      <c r="AO94">
+        <v>1</v>
+      </c>
+      <c r="AP94">
+        <v>1.75</v>
+      </c>
+      <c r="AQ94">
+        <v>0.75</v>
+      </c>
+      <c r="AR94">
         <v>1.3</v>
       </c>
-      <c r="X94">
+      <c r="AS94">
+        <v>1.13</v>
+      </c>
+      <c r="AT94">
+        <v>2.43</v>
+      </c>
+      <c r="AU94">
+        <v>7</v>
+      </c>
+      <c r="AV94">
+        <v>2</v>
+      </c>
+      <c r="AW94">
         <v>10</v>
       </c>
-      <c r="Y94">
-        <v>1.06</v>
-      </c>
-      <c r="Z94">
-        <v>2.33</v>
-      </c>
-      <c r="AA94">
-        <v>3.2</v>
-      </c>
-      <c r="AB94">
-        <v>3.04</v>
-      </c>
-      <c r="AC94">
-        <v>1.07</v>
-      </c>
-      <c r="AD94">
-        <v>9</v>
-      </c>
-      <c r="AE94">
-        <v>1.4</v>
-      </c>
-      <c r="AF94">
-        <v>2.95</v>
-      </c>
-      <c r="AG94">
-        <v>2.15</v>
-      </c>
-      <c r="AH94">
-        <v>1.61</v>
-      </c>
-      <c r="AI94">
-        <v>1.83</v>
-      </c>
-      <c r="AJ94">
-        <v>1.83</v>
-      </c>
-      <c r="AK94">
-        <v>1.42</v>
-      </c>
-      <c r="AL94">
-        <v>1.3</v>
-      </c>
-      <c r="AM94">
-        <v>1.53</v>
-      </c>
-      <c r="AN94">
-        <v>3</v>
-      </c>
-      <c r="AO94">
-        <v>2</v>
-      </c>
-      <c r="AP94">
-        <v>3</v>
-      </c>
-      <c r="AQ94">
-        <v>1.5</v>
-      </c>
-      <c r="AR94">
-        <v>1.4</v>
-      </c>
-      <c r="AS94">
-        <v>1.18</v>
-      </c>
-      <c r="AT94">
-        <v>2.58</v>
-      </c>
-      <c r="AU94">
-        <v>5</v>
-      </c>
-      <c r="AV94">
-        <v>3</v>
-      </c>
-      <c r="AW94">
-        <v>2</v>
-      </c>
       <c r="AX94">
         <v>2</v>
       </c>
       <c r="AY94">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AZ94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA94">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BB94">
         <v>3</v>
       </c>
       <c r="BC94">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD94">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="BE94">
         <v>8</v>
       </c>
       <c r="BF94">
-        <v>2.39</v>
+        <v>2.54</v>
       </c>
       <c r="BG94">
         <v>1.25</v>
@@ -20348,28 +20348,28 @@
         <v>3.6</v>
       </c>
       <c r="BI94">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="BJ94">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="BK94">
         <v>1.7</v>
       </c>
       <c r="BL94">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="BM94">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="BN94">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="BO94">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="BP94">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,117 +475,114 @@
     <t>['34']</t>
   </si>
   <si>
-    <t>['34', '45+3']</t>
-  </si>
-  <si>
-    <t>['17', '62']</t>
-  </si>
-  <si>
-    <t>['12', '27']</t>
+    <t>['14', '45']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['10', '26', '67']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['1', '9']</t>
+  </si>
+  <si>
+    <t>['31', '43']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['62', '71']</t>
+  </si>
+  <si>
+    <t>['3', '5']</t>
+  </si>
+  <si>
+    <t>['45+3', '69']</t>
+  </si>
+  <si>
+    <t>['16', '33', '90+3']</t>
+  </si>
+  <si>
+    <t>['1', '10', '12', '28', '49']</t>
+  </si>
+  <si>
+    <t>['61', '82']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['33', '40', '49', '64']</t>
+  </si>
+  <si>
+    <t>['30', '46']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['16', '46', '58']</t>
+  </si>
+  <si>
+    <t>['30', '80']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['6', '37']</t>
+  </si>
+  <si>
+    <t>['83', '90+1']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['6', '36', '48', '54']</t>
+  </si>
+  <si>
+    <t>['58']</t>
   </si>
   <si>
     <t>['23']</t>
   </si>
   <si>
-    <t>['11', '22']</t>
-  </si>
-  <si>
-    <t>['39', '79', '89', '90+2']</t>
-  </si>
-  <si>
-    <t>['33', '74']</t>
-  </si>
-  <si>
-    <t>['61', '85']</t>
-  </si>
-  <si>
-    <t>['64']</t>
-  </si>
-  <si>
-    <t>['1', '9']</t>
-  </si>
-  <si>
-    <t>['31', '43']</t>
-  </si>
-  <si>
-    <t>['47']</t>
-  </si>
-  <si>
-    <t>['65']</t>
-  </si>
-  <si>
-    <t>['62', '71']</t>
-  </si>
-  <si>
-    <t>['3', '5']</t>
-  </si>
-  <si>
-    <t>['45+3', '69']</t>
-  </si>
-  <si>
-    <t>['16', '33', '90+3']</t>
-  </si>
-  <si>
-    <t>['1', '10', '12', '28', '49']</t>
-  </si>
-  <si>
-    <t>['61', '82']</t>
-  </si>
-  <si>
-    <t>['76']</t>
-  </si>
-  <si>
-    <t>['33', '40', '49', '64']</t>
-  </si>
-  <si>
-    <t>['30', '46']</t>
-  </si>
-  <si>
-    <t>['45+4']</t>
-  </si>
-  <si>
-    <t>['38']</t>
-  </si>
-  <si>
-    <t>['86']</t>
-  </si>
-  <si>
-    <t>['68']</t>
-  </si>
-  <si>
-    <t>['67']</t>
-  </si>
-  <si>
-    <t>['16', '46', '58']</t>
-  </si>
-  <si>
-    <t>['30', '80']</t>
-  </si>
-  <si>
-    <t>['9']</t>
-  </si>
-  <si>
-    <t>['74']</t>
-  </si>
-  <si>
-    <t>['85']</t>
-  </si>
-  <si>
-    <t>['6', '37']</t>
-  </si>
-  <si>
-    <t>['83', '90+1']</t>
-  </si>
-  <si>
-    <t>['78']</t>
-  </si>
-  <si>
-    <t>['6', '36', '48', '54']</t>
-  </si>
-  <si>
-    <t>['58']</t>
-  </si>
-  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -622,25 +619,19 @@
     <t>['42', '72']</t>
   </si>
   <si>
-    <t>['74', '86']</t>
-  </si>
-  <si>
-    <t>['31', '59', '90+5']</t>
-  </si>
-  <si>
-    <t>['24', '81', '90']</t>
-  </si>
-  <si>
-    <t>['5', '51']</t>
-  </si>
-  <si>
-    <t>['79']</t>
-  </si>
-  <si>
-    <t>['71']</t>
-  </si>
-  <si>
-    <t>['89']</t>
+    <t>['25', '51', '57', '67', '85', '90+4']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['35', '45+2', '45+4', '87', '90']</t>
+  </si>
+  <si>
+    <t>['10', '34']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,7 +1252,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1342,7 +1333,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1467,7 +1458,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1548,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1754,7 +1745,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1879,7 +1870,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1957,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2085,7 +2076,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2163,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2369,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>0.75</v>
@@ -2497,7 +2488,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2575,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ8">
         <v>0.75</v>
@@ -2703,7 +2694,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2781,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2909,7 +2900,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2990,7 +2981,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3115,7 +3106,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3402,7 +3393,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3605,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4145,7 +4136,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4432,7 +4423,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4557,7 +4548,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4638,7 +4629,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4763,7 +4754,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4969,7 +4960,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5047,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ20">
         <v>1.75</v>
@@ -5459,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5587,7 +5578,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5874,7 +5865,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5999,7 +5990,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6205,7 +6196,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6698,7 +6689,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.35</v>
@@ -6901,10 +6892,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7029,7 +7020,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7313,7 +7304,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -7647,7 +7638,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7728,7 +7719,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -7853,7 +7844,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8059,7 +8050,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8137,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8265,7 +8256,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8677,7 +8668,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8755,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8961,10 +8952,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.62</v>
@@ -9089,7 +9080,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9170,7 +9161,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9295,7 +9286,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9373,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ41">
         <v>0.75</v>
@@ -9501,7 +9492,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9579,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -9707,7 +9698,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9785,7 +9776,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ43">
         <v>0.25</v>
@@ -9913,7 +9904,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10119,7 +10110,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10200,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.02</v>
@@ -10325,7 +10316,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10406,7 +10397,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AR46">
         <v>2.58</v>
@@ -10737,7 +10728,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -10818,7 +10809,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.43</v>
@@ -11024,7 +11015,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11355,7 +11346,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -11767,7 +11758,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -12051,7 +12042,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AQ54">
         <v>1.75</v>
@@ -12179,7 +12170,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>2.63</v>
@@ -12385,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12669,7 +12660,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12797,7 +12788,7 @@
         <v>103</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12878,7 +12869,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ58">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.28</v>
@@ -13084,7 +13075,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ59">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR59">
         <v>1</v>
@@ -13287,7 +13278,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13496,7 +13487,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR61">
         <v>1.47</v>
@@ -13827,7 +13818,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13905,10 +13896,10 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ63">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AR63">
         <v>1.41</v>
@@ -14033,7 +14024,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14111,10 +14102,10 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14239,7 +14230,7 @@
         <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14523,10 +14514,10 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.4</v>
@@ -14729,7 +14720,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14857,7 +14848,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14938,7 +14929,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>1.88</v>
@@ -15063,7 +15054,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15144,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AR69">
         <v>1.03</v>
@@ -15269,7 +15260,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15475,7 +15466,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15681,7 +15672,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15887,7 +15878,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16051,7 +16042,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7476613</v>
+        <v>7476620</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16066,70 +16057,70 @@
         <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O74" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="Q74">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="R74">
         <v>2.3</v>
       </c>
       <c r="S74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T74">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V74">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W74">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X74">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y74">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z74">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="AA74">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AB74">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AC74">
         <v>1.04</v>
@@ -16138,118 +16129,118 @@
         <v>10</v>
       </c>
       <c r="AE74">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF74">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AG74">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AH74">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AI74">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AJ74">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AK74">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AL74">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AM74">
-        <v>2.4</v>
+        <v>1.77</v>
       </c>
       <c r="AN74">
         <v>2.33</v>
       </c>
       <c r="AO74">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ74">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="AR74">
-        <v>1.2</v>
+        <v>1.78</v>
       </c>
       <c r="AS74">
         <v>0.84</v>
       </c>
       <c r="AT74">
-        <v>2.04</v>
+        <v>2.62</v>
       </c>
       <c r="AU74">
+        <v>4</v>
+      </c>
+      <c r="AV74">
+        <v>6</v>
+      </c>
+      <c r="AW74">
+        <v>6</v>
+      </c>
+      <c r="AX74">
+        <v>1</v>
+      </c>
+      <c r="AY74">
         <v>10</v>
       </c>
-      <c r="AV74">
-        <v>0</v>
-      </c>
-      <c r="AW74">
+      <c r="AZ74">
         <v>7</v>
       </c>
-      <c r="AX74">
-        <v>2</v>
-      </c>
-      <c r="AY74">
-        <v>17</v>
-      </c>
-      <c r="AZ74">
-        <v>2</v>
-      </c>
       <c r="BA74">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC74">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD74">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="BE74">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="BF74">
-        <v>5.09</v>
+        <v>3.3</v>
       </c>
       <c r="BG74">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="BH74">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="BI74">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BJ74">
-        <v>2.73</v>
+        <v>3.2</v>
       </c>
       <c r="BK74">
-        <v>1.9</v>
+        <v>1.54</v>
       </c>
       <c r="BL74">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="BM74">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="BN74">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="BO74">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="BP74">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16257,7 +16248,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7476614</v>
+        <v>7476613</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16272,160 +16263,160 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="H75" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O75" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="P75" t="s">
         <v>101</v>
       </c>
       <c r="Q75">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R75">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S75">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="T75">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V75">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W75">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y75">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z75">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="AA75">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AB75">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="AC75">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE75">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF75">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="AG75">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AH75">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AI75">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AJ75">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AK75">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AL75">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AM75">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="AN75">
         <v>2.33</v>
       </c>
       <c r="AO75">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AR75">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AS75">
-        <v>1.17</v>
+        <v>0.84</v>
       </c>
       <c r="AT75">
-        <v>2.77</v>
+        <v>2.04</v>
       </c>
       <c r="AU75">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV75">
         <v>0</v>
       </c>
       <c r="AW75">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY75">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AZ75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC75">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD75">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="BE75">
-        <v>6.65</v>
+        <v>9.5</v>
       </c>
       <c r="BF75">
-        <v>2.7</v>
+        <v>5.09</v>
       </c>
       <c r="BG75">
         <v>1.25</v>
@@ -16434,28 +16425,28 @@
         <v>3.6</v>
       </c>
       <c r="BI75">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="BJ75">
-        <v>2.85</v>
+        <v>2.73</v>
       </c>
       <c r="BK75">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="BL75">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="BM75">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="BN75">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="BO75">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="BP75">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16463,7 +16454,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7476616</v>
+        <v>7476614</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16478,43 +16469,43 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="P76" t="s">
         <v>101</v>
       </c>
       <c r="Q76">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="R76">
         <v>2.1</v>
       </c>
       <c r="S76">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T76">
         <v>1.4</v>
@@ -16529,37 +16520,37 @@
         <v>1.36</v>
       </c>
       <c r="X76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y76">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z76">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AA76">
         <v>3.3</v>
       </c>
       <c r="AB76">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AC76">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD76">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE76">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF76">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AG76">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AH76">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AI76">
         <v>1.8</v>
@@ -16568,100 +16559,100 @@
         <v>1.91</v>
       </c>
       <c r="AK76">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AL76">
         <v>1.25</v>
       </c>
       <c r="AM76">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AN76">
+        <v>2.33</v>
+      </c>
+      <c r="AO76">
+        <v>1.5</v>
+      </c>
+      <c r="AP76">
+        <v>2</v>
+      </c>
+      <c r="AQ76">
         <v>1.33</v>
       </c>
-      <c r="AO76">
-        <v>1.33</v>
-      </c>
-      <c r="AP76">
-        <v>1.75</v>
-      </c>
-      <c r="AQ76">
-        <v>1</v>
-      </c>
       <c r="AR76">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AS76">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AT76">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="AU76">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV76">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX76">
         <v>4</v>
       </c>
       <c r="AY76">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ76">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BA76">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD76">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="BE76">
-        <v>7.5</v>
+        <v>6.65</v>
       </c>
       <c r="BF76">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="BG76">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="BH76">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="BI76">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="BJ76">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="BK76">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="BL76">
-        <v>2.62</v>
+        <v>2.03</v>
       </c>
       <c r="BM76">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="BN76">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="BO76">
-        <v>2.22</v>
+        <v>2.85</v>
       </c>
       <c r="BP76">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16669,7 +16660,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7476617</v>
+        <v>7476616</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16684,10 +16675,10 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -16708,64 +16699,64 @@
         <v>3</v>
       </c>
       <c r="O77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P77" t="s">
         <v>101</v>
       </c>
       <c r="Q77">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="R77">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S77">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T77">
+        <v>1.4</v>
+      </c>
+      <c r="U77">
+        <v>2.75</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="W77">
         <v>1.36</v>
       </c>
-      <c r="U77">
-        <v>3</v>
-      </c>
-      <c r="V77">
-        <v>2.75</v>
-      </c>
-      <c r="W77">
-        <v>1.4</v>
-      </c>
       <c r="X77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y77">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z77">
+        <v>2.05</v>
+      </c>
+      <c r="AA77">
+        <v>3.3</v>
+      </c>
+      <c r="AB77">
+        <v>3.5</v>
+      </c>
+      <c r="AC77">
+        <v>1.06</v>
+      </c>
+      <c r="AD77">
+        <v>8.5</v>
+      </c>
+      <c r="AE77">
+        <v>1.33</v>
+      </c>
+      <c r="AF77">
+        <v>3.2</v>
+      </c>
+      <c r="AG77">
+        <v>1.95</v>
+      </c>
+      <c r="AH77">
         <v>1.75</v>
-      </c>
-      <c r="AA77">
-        <v>3.5</v>
-      </c>
-      <c r="AB77">
-        <v>4.6</v>
-      </c>
-      <c r="AC77">
-        <v>1.05</v>
-      </c>
-      <c r="AD77">
-        <v>9</v>
-      </c>
-      <c r="AE77">
-        <v>1.28</v>
-      </c>
-      <c r="AF77">
-        <v>3.5</v>
-      </c>
-      <c r="AG77">
-        <v>1.85</v>
-      </c>
-      <c r="AH77">
-        <v>1.85</v>
       </c>
       <c r="AI77">
         <v>1.8</v>
@@ -16774,13 +16765,13 @@
         <v>1.91</v>
       </c>
       <c r="AK77">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AL77">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM77">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AN77">
         <v>1.33</v>
@@ -16795,79 +16786,79 @@
         <v>1</v>
       </c>
       <c r="AR77">
-        <v>0.97</v>
+        <v>1.92</v>
       </c>
       <c r="AS77">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT77">
-        <v>2.21</v>
+        <v>3.15</v>
       </c>
       <c r="AU77">
+        <v>9</v>
+      </c>
+      <c r="AV77">
         <v>7</v>
       </c>
-      <c r="AV77">
-        <v>6</v>
-      </c>
       <c r="AW77">
+        <v>3</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>12</v>
+      </c>
+      <c r="AZ77">
+        <v>11</v>
+      </c>
+      <c r="BA77">
+        <v>2</v>
+      </c>
+      <c r="BB77">
+        <v>5</v>
+      </c>
+      <c r="BC77">
         <v>7</v>
       </c>
-      <c r="AX77">
-        <v>1</v>
-      </c>
-      <c r="AY77">
-        <v>14</v>
-      </c>
-      <c r="AZ77">
-        <v>7</v>
-      </c>
-      <c r="BA77">
-        <v>5</v>
-      </c>
-      <c r="BB77">
-        <v>7</v>
-      </c>
-      <c r="BC77">
-        <v>12</v>
-      </c>
       <c r="BD77">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="BE77">
         <v>7.5</v>
       </c>
       <c r="BF77">
-        <v>3.58</v>
+        <v>2.92</v>
       </c>
       <c r="BG77">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="BH77">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="BI77">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BJ77">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BK77">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BL77">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="BM77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN77">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BO77">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="BP77">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16875,7 +16866,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7476618</v>
+        <v>7476617</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16890,43 +16881,43 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P78" t="s">
         <v>101</v>
       </c>
       <c r="Q78">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R78">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S78">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="T78">
         <v>1.36</v>
@@ -16935,145 +16926,145 @@
         <v>3</v>
       </c>
       <c r="V78">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W78">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y78">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z78">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AA78">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AB78">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="AC78">
         <v>1.05</v>
       </c>
       <c r="AD78">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE78">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF78">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AG78">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AH78">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AI78">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ78">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AK78">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AL78">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM78">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AN78">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO78">
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
         <v>1</v>
       </c>
       <c r="AR78">
-        <v>1.15</v>
+        <v>0.97</v>
       </c>
       <c r="AS78">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AT78">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AU78">
+        <v>7</v>
+      </c>
+      <c r="AV78">
+        <v>6</v>
+      </c>
+      <c r="AW78">
+        <v>7</v>
+      </c>
+      <c r="AX78">
+        <v>1</v>
+      </c>
+      <c r="AY78">
+        <v>14</v>
+      </c>
+      <c r="AZ78">
+        <v>7</v>
+      </c>
+      <c r="BA78">
         <v>5</v>
       </c>
-      <c r="AV78">
-        <v>3</v>
-      </c>
-      <c r="AW78">
-        <v>4</v>
-      </c>
-      <c r="AX78">
-        <v>6</v>
-      </c>
-      <c r="AY78">
-        <v>9</v>
-      </c>
-      <c r="AZ78">
-        <v>9</v>
-      </c>
-      <c r="BA78">
-        <v>3</v>
-      </c>
       <c r="BB78">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC78">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD78">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="BE78">
         <v>7.5</v>
       </c>
       <c r="BF78">
-        <v>2.45</v>
+        <v>3.58</v>
       </c>
       <c r="BG78">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH78">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="BI78">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BJ78">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BK78">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BL78">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="BM78">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BN78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BO78">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="BP78">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17081,7 +17072,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7476619</v>
+        <v>7476618</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17096,34 +17087,34 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="Q79">
         <v>2.88</v>
@@ -17135,10 +17126,10 @@
         <v>3.4</v>
       </c>
       <c r="T79">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V79">
         <v>2.63</v>
@@ -17147,19 +17138,19 @@
         <v>1.44</v>
       </c>
       <c r="X79">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y79">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z79">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AA79">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB79">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AC79">
         <v>1.05</v>
@@ -17171,55 +17162,55 @@
         <v>1.25</v>
       </c>
       <c r="AF79">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="AG79">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AH79">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AI79">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AJ79">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK79">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AL79">
         <v>1.25</v>
       </c>
       <c r="AM79">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AN79">
         <v>2</v>
       </c>
       <c r="AO79">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AQ79">
         <v>1</v>
       </c>
       <c r="AR79">
-        <v>1.48</v>
+        <v>1.15</v>
       </c>
       <c r="AS79">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="AT79">
-        <v>3.03</v>
+        <v>2.38</v>
       </c>
       <c r="AU79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV79">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW79">
         <v>4</v>
@@ -17228,58 +17219,58 @@
         <v>6</v>
       </c>
       <c r="AY79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ79">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA79">
+        <v>3</v>
+      </c>
+      <c r="BB79">
         <v>4</v>
       </c>
-      <c r="BB79">
-        <v>5</v>
-      </c>
       <c r="BC79">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD79">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="BE79">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="BF79">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="BG79">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH79">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="BI79">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="BJ79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK79">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
       <c r="BL79">
-        <v>1.95</v>
+        <v>2.47</v>
       </c>
       <c r="BM79">
-        <v>2.31</v>
+        <v>1.9</v>
       </c>
       <c r="BN79">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="BO79">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BP79">
-        <v>0</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17287,7 +17278,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7476620</v>
+        <v>7476619</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17302,43 +17293,43 @@
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
         <v>1</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O80" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="Q80">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R80">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S80">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T80">
         <v>1.33</v>
@@ -17347,10 +17338,10 @@
         <v>3.25</v>
       </c>
       <c r="V80">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W80">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X80">
         <v>6.5</v>
@@ -17359,133 +17350,133 @@
         <v>1.11</v>
       </c>
       <c r="Z80">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="AA80">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB80">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="AC80">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD80">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE80">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF80">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="AG80">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AH80">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AI80">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AJ80">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK80">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AL80">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM80">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AN80">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO80">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP80">
         <v>1.75</v>
       </c>
       <c r="AQ80">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR80">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
       <c r="AS80">
-        <v>0.84</v>
+        <v>1.55</v>
       </c>
       <c r="AT80">
-        <v>2.62</v>
+        <v>3.03</v>
       </c>
       <c r="AU80">
         <v>4</v>
       </c>
       <c r="AV80">
+        <v>7</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
         <v>6</v>
       </c>
-      <c r="AW80">
-        <v>6</v>
-      </c>
-      <c r="AX80">
-        <v>1</v>
-      </c>
       <c r="AY80">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ80">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC80">
         <v>9</v>
       </c>
       <c r="BD80">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="BE80">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="BF80">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="BG80">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="BH80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BI80">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="BJ80">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BK80">
-        <v>1.54</v>
+        <v>1.84</v>
       </c>
       <c r="BL80">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="BM80">
-        <v>1.96</v>
+        <v>2.31</v>
       </c>
       <c r="BN80">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="BO80">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="BP80">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17535,7 +17526,7 @@
         <v>101</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>3.4</v>
@@ -17741,7 +17732,7 @@
         <v>101</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -17905,7 +17896,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7477096</v>
+        <v>7476652</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17914,94 +17905,94 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45558.66666666666</v>
+        <v>45566.65625</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G83" t="s">
+        <v>81</v>
+      </c>
+      <c r="H83" t="s">
         <v>75</v>
       </c>
-      <c r="H83" t="s">
-        <v>88</v>
-      </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L83">
         <v>2</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O83" t="s">
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q83">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="R83">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S83">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T83">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U83">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V83">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W83">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X83">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y83">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z83">
-        <v>1.58</v>
+        <v>2.07</v>
       </c>
       <c r="AA83">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="AB83">
-        <v>5.25</v>
+        <v>3.65</v>
       </c>
       <c r="AC83">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD83">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AE83">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AF83">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="AG83">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="AH83">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AI83">
         <v>1.83</v>
@@ -18010,100 +18001,100 @@
         <v>1.83</v>
       </c>
       <c r="AK83">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AL83">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AM83">
-        <v>2.32</v>
+        <v>1.76</v>
       </c>
       <c r="AN83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO83">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP83">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="AQ83">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR83">
+        <v>1.6</v>
+      </c>
+      <c r="AS83">
+        <v>1.09</v>
+      </c>
+      <c r="AT83">
+        <v>2.69</v>
+      </c>
+      <c r="AU83">
+        <v>-1</v>
+      </c>
+      <c r="AV83">
+        <v>-1</v>
+      </c>
+      <c r="AW83">
+        <v>-1</v>
+      </c>
+      <c r="AX83">
+        <v>-1</v>
+      </c>
+      <c r="AY83">
+        <v>-1</v>
+      </c>
+      <c r="AZ83">
+        <v>-1</v>
+      </c>
+      <c r="BA83">
+        <v>-1</v>
+      </c>
+      <c r="BB83">
+        <v>-1</v>
+      </c>
+      <c r="BC83">
+        <v>-1</v>
+      </c>
+      <c r="BD83">
+        <v>1.63</v>
+      </c>
+      <c r="BE83">
+        <v>6.8</v>
+      </c>
+      <c r="BF83">
+        <v>2.9</v>
+      </c>
+      <c r="BG83">
         <v>1.21</v>
       </c>
-      <c r="AS83">
-        <v>0.76</v>
-      </c>
-      <c r="AT83">
-        <v>1.97</v>
-      </c>
-      <c r="AU83">
-        <v>13</v>
-      </c>
-      <c r="AV83">
-        <v>5</v>
-      </c>
-      <c r="AW83">
-        <v>10</v>
-      </c>
-      <c r="AX83">
-        <v>3</v>
-      </c>
-      <c r="AY83">
-        <v>23</v>
-      </c>
-      <c r="AZ83">
-        <v>8</v>
-      </c>
-      <c r="BA83">
-        <v>5</v>
-      </c>
-      <c r="BB83">
-        <v>1</v>
-      </c>
-      <c r="BC83">
-        <v>6</v>
-      </c>
-      <c r="BD83">
-        <v>1.37</v>
-      </c>
-      <c r="BE83">
-        <v>9.5</v>
-      </c>
-      <c r="BF83">
-        <v>3.69</v>
-      </c>
-      <c r="BG83">
-        <v>1.16</v>
-      </c>
       <c r="BH83">
-        <v>5.16</v>
+        <v>3.9</v>
       </c>
       <c r="BI83">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="BJ83">
-        <v>3.39</v>
+        <v>2.69</v>
       </c>
       <c r="BK83">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="BL83">
-        <v>2.46</v>
+        <v>2.04</v>
       </c>
       <c r="BM83">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="BN83">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="BO83">
-        <v>2.36</v>
+        <v>2.69</v>
       </c>
       <c r="BP83">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18111,7 +18102,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7476639</v>
+        <v>7476651</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18120,109 +18111,109 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45562.65625</v>
+        <v>45566.65625</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G84" t="s">
         <v>80</v>
       </c>
       <c r="H84" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O84" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="P84" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="Q84">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="R84">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S84">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="T84">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U84">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V84">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W84">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X84">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y84">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z84">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="AA84">
-        <v>3.42</v>
+        <v>3.55</v>
       </c>
       <c r="AB84">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="AC84">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD84">
         <v>9</v>
       </c>
       <c r="AE84">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AF84">
-        <v>3.6</v>
+        <v>3.04</v>
       </c>
       <c r="AG84">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AH84">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AI84">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AJ84">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AK84">
+        <v>1.35</v>
+      </c>
+      <c r="AL84">
         <v>1.33</v>
       </c>
-      <c r="AL84">
-        <v>1.29</v>
-      </c>
       <c r="AM84">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AN84">
         <v>2</v>
@@ -18240,76 +18231,76 @@
         <v>0.73</v>
       </c>
       <c r="AS84">
-        <v>0.85</v>
+        <v>1.13</v>
       </c>
       <c r="AT84">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="AU84">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV84">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW84">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY84">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ84">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BA84">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BB84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC84">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BD84">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="BE84">
-        <v>7.5</v>
+        <v>6.95</v>
       </c>
       <c r="BF84">
-        <v>2.53</v>
+        <v>2.68</v>
       </c>
       <c r="BG84">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="BH84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BI84">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BJ84">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="BK84">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="BL84">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="BM84">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="BN84">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="BO84">
-        <v>2.45</v>
+        <v>2.14</v>
       </c>
       <c r="BP84">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18317,7 +18308,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7476634</v>
+        <v>7476650</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18326,130 +18317,130 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45562.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <v>2</v>
       </c>
       <c r="O85" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P85" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="Q85">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R85">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S85">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T85">
+        <v>1.3</v>
+      </c>
+      <c r="U85">
+        <v>3.4</v>
+      </c>
+      <c r="V85">
+        <v>2.5</v>
+      </c>
+      <c r="W85">
         <v>1.5</v>
       </c>
-      <c r="U85">
-        <v>2.5</v>
-      </c>
-      <c r="V85">
-        <v>3.4</v>
-      </c>
-      <c r="W85">
+      <c r="X85">
+        <v>6</v>
+      </c>
+      <c r="Y85">
+        <v>1.13</v>
+      </c>
+      <c r="Z85">
+        <v>1.94</v>
+      </c>
+      <c r="AA85">
+        <v>3.65</v>
+      </c>
+      <c r="AB85">
+        <v>3.85</v>
+      </c>
+      <c r="AC85">
+        <v>1.03</v>
+      </c>
+      <c r="AD85">
+        <v>15</v>
+      </c>
+      <c r="AE85">
+        <v>1.19</v>
+      </c>
+      <c r="AF85">
+        <v>4</v>
+      </c>
+      <c r="AG85">
+        <v>1.91</v>
+      </c>
+      <c r="AH85">
+        <v>1.8</v>
+      </c>
+      <c r="AI85">
+        <v>1.57</v>
+      </c>
+      <c r="AJ85">
+        <v>2.25</v>
+      </c>
+      <c r="AK85">
+        <v>1.26</v>
+      </c>
+      <c r="AL85">
+        <v>1.27</v>
+      </c>
+      <c r="AM85">
+        <v>1.83</v>
+      </c>
+      <c r="AN85">
+        <v>1.33</v>
+      </c>
+      <c r="AO85">
+        <v>0.67</v>
+      </c>
+      <c r="AP85">
+        <v>1.25</v>
+      </c>
+      <c r="AQ85">
+        <v>0.75</v>
+      </c>
+      <c r="AR85">
         <v>1.3</v>
       </c>
-      <c r="X85">
-        <v>10</v>
-      </c>
-      <c r="Y85">
-        <v>1.06</v>
-      </c>
-      <c r="Z85">
-        <v>2.33</v>
-      </c>
-      <c r="AA85">
-        <v>3.2</v>
-      </c>
-      <c r="AB85">
-        <v>3.04</v>
-      </c>
-      <c r="AC85">
-        <v>1.07</v>
-      </c>
-      <c r="AD85">
-        <v>9</v>
-      </c>
-      <c r="AE85">
-        <v>1.4</v>
-      </c>
-      <c r="AF85">
-        <v>2.95</v>
-      </c>
-      <c r="AG85">
-        <v>2.15</v>
-      </c>
-      <c r="AH85">
-        <v>1.61</v>
-      </c>
-      <c r="AI85">
-        <v>1.83</v>
-      </c>
-      <c r="AJ85">
-        <v>1.83</v>
-      </c>
-      <c r="AK85">
-        <v>1.42</v>
-      </c>
-      <c r="AL85">
-        <v>1.3</v>
-      </c>
-      <c r="AM85">
-        <v>1.53</v>
-      </c>
-      <c r="AN85">
-        <v>3</v>
-      </c>
-      <c r="AO85">
-        <v>2</v>
-      </c>
-      <c r="AP85">
-        <v>3</v>
-      </c>
-      <c r="AQ85">
-        <v>1.5</v>
-      </c>
-      <c r="AR85">
-        <v>1.4</v>
-      </c>
       <c r="AS85">
-        <v>1.18</v>
+        <v>1.52</v>
       </c>
       <c r="AT85">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="AU85">
         <v>-1</v>
@@ -18479,43 +18470,43 @@
         <v>-1</v>
       </c>
       <c r="BD85">
-        <v>1.82</v>
+        <v>1.44</v>
       </c>
       <c r="BE85">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="BF85">
-        <v>2.39</v>
+        <v>3.79</v>
       </c>
       <c r="BG85">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="BH85">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="BI85">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="BJ85">
-        <v>2.85</v>
+        <v>2.69</v>
       </c>
       <c r="BK85">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="BL85">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="BM85">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="BN85">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="BO85">
-        <v>2.85</v>
+        <v>2.69</v>
       </c>
       <c r="BP85">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18523,7 +18514,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7476627</v>
+        <v>7476649</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18532,49 +18523,49 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45562.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O86" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="Q86">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R86">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S86">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="T86">
         <v>1.36</v>
@@ -18583,10 +18574,10 @@
         <v>3</v>
       </c>
       <c r="V86">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W86">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X86">
         <v>7</v>
@@ -18595,49 +18586,49 @@
         <v>1.1</v>
       </c>
       <c r="Z86">
-        <v>2.12</v>
+        <v>2.95</v>
       </c>
       <c r="AA86">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AB86">
-        <v>3.2</v>
+        <v>2.33</v>
       </c>
       <c r="AC86">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD86">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE86">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF86">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="AG86">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AH86">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="AI86">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AJ86">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK86">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="AL86">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM86">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="AN86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO86">
         <v>1</v>
@@ -18646,16 +18637,16 @@
         <v>2.25</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR86">
-        <v>1.18</v>
+        <v>0.82</v>
       </c>
       <c r="AS86">
-        <v>1.42</v>
+        <v>0.85</v>
       </c>
       <c r="AT86">
-        <v>2.6</v>
+        <v>1.67</v>
       </c>
       <c r="AU86">
         <v>-1</v>
@@ -18685,43 +18676,43 @@
         <v>-1</v>
       </c>
       <c r="BD86">
-        <v>1.59</v>
+        <v>2.49</v>
       </c>
       <c r="BE86">
-        <v>7.5</v>
+        <v>6.45</v>
       </c>
       <c r="BF86">
-        <v>2.92</v>
+        <v>1.82</v>
       </c>
       <c r="BG86">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="BH86">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="BI86">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="BJ86">
-        <v>2.4</v>
+        <v>2.59</v>
       </c>
       <c r="BK86">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="BL86">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="BM86">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="BN86">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="BO86">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="BP86">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18729,7 +18720,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7476625</v>
+        <v>7476647</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18738,49 +18729,49 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45562.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K87">
         <v>3</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O87" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P87" t="s">
         <v>204</v>
       </c>
       <c r="Q87">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="R87">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S87">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="T87">
         <v>1.4</v>
@@ -18789,10 +18780,10 @@
         <v>2.75</v>
       </c>
       <c r="V87">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W87">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X87">
         <v>8</v>
@@ -18801,46 +18792,46 @@
         <v>1.08</v>
       </c>
       <c r="Z87">
-        <v>2.07</v>
+        <v>3.85</v>
       </c>
       <c r="AA87">
-        <v>3.46</v>
+        <v>3.65</v>
       </c>
       <c r="AB87">
-        <v>3.35</v>
+        <v>1.94</v>
       </c>
       <c r="AC87">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD87">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE87">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AF87">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="AG87">
+        <v>2.01</v>
+      </c>
+      <c r="AH87">
+        <v>1.81</v>
+      </c>
+      <c r="AI87">
         <v>1.83</v>
       </c>
-      <c r="AH87">
-        <v>1.91</v>
-      </c>
-      <c r="AI87">
-        <v>1.73</v>
-      </c>
       <c r="AJ87">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AK87">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AL87">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AM87">
-        <v>1.72</v>
+        <v>1.28</v>
       </c>
       <c r="AN87">
         <v>1</v>
@@ -18855,13 +18846,13 @@
         <v>0.75</v>
       </c>
       <c r="AR87">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="AS87">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AT87">
-        <v>2.58</v>
+        <v>2.37</v>
       </c>
       <c r="AU87">
         <v>-1</v>
@@ -18891,43 +18882,43 @@
         <v>-1</v>
       </c>
       <c r="BD87">
-        <v>1.69</v>
+        <v>3.04</v>
       </c>
       <c r="BE87">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF87">
-        <v>2.65</v>
+        <v>1.59</v>
       </c>
       <c r="BG87">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BH87">
-        <v>4</v>
+        <v>3.44</v>
       </c>
       <c r="BI87">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="BJ87">
-        <v>2.9</v>
+        <v>2.49</v>
       </c>
       <c r="BK87">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="BL87">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="BM87">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="BN87">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="BO87">
-        <v>2.4</v>
+        <v>2.94</v>
       </c>
       <c r="BP87">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18935,7 +18926,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7476624</v>
+        <v>7476645</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18944,130 +18935,130 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45562.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s">
+        <v>72</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>158</v>
+      </c>
+      <c r="P88" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q88">
+        <v>2.5</v>
+      </c>
+      <c r="R88">
+        <v>2.2</v>
+      </c>
+      <c r="S88">
+        <v>4.5</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.75</v>
+      </c>
+      <c r="V88">
+        <v>3</v>
+      </c>
+      <c r="W88">
+        <v>1.36</v>
+      </c>
+      <c r="X88">
         <v>8</v>
       </c>
-      <c r="G88" t="s">
-        <v>83</v>
-      </c>
-      <c r="H88" t="s">
-        <v>78</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88">
-        <v>2</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>2</v>
-      </c>
-      <c r="O88" t="s">
-        <v>156</v>
-      </c>
-      <c r="P88" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q88">
-        <v>3.4</v>
-      </c>
-      <c r="R88">
-        <v>2.25</v>
-      </c>
-      <c r="S88">
-        <v>3</v>
-      </c>
-      <c r="T88">
-        <v>1.33</v>
-      </c>
-      <c r="U88">
+      <c r="Y88">
+        <v>1.08</v>
+      </c>
+      <c r="Z88">
+        <v>1.85</v>
+      </c>
+      <c r="AA88">
+        <v>3.65</v>
+      </c>
+      <c r="AB88">
+        <v>4.3</v>
+      </c>
+      <c r="AC88">
+        <v>1.06</v>
+      </c>
+      <c r="AD88">
+        <v>10</v>
+      </c>
+      <c r="AE88">
+        <v>1.28</v>
+      </c>
+      <c r="AF88">
         <v>3.25</v>
       </c>
-      <c r="V88">
-        <v>2.63</v>
-      </c>
-      <c r="W88">
-        <v>1.44</v>
-      </c>
-      <c r="X88">
-        <v>7</v>
-      </c>
-      <c r="Y88">
-        <v>1.1</v>
-      </c>
-      <c r="Z88">
-        <v>3.06</v>
-      </c>
-      <c r="AA88">
-        <v>3.6</v>
-      </c>
-      <c r="AB88">
-        <v>2.15</v>
-      </c>
-      <c r="AC88">
-        <v>1.01</v>
-      </c>
-      <c r="AD88">
-        <v>11</v>
-      </c>
-      <c r="AE88">
-        <v>1.19</v>
-      </c>
-      <c r="AF88">
-        <v>3.55</v>
-      </c>
       <c r="AG88">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="AH88">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AI88">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AJ88">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AK88">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AL88">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AM88">
-        <v>1.41</v>
+        <v>1.93</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ88">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AS88">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AT88">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU88">
         <v>-1</v>
@@ -19097,43 +19088,43 @@
         <v>-1</v>
       </c>
       <c r="BD88">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="BE88">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF88">
-        <v>2.1</v>
+        <v>3.06</v>
       </c>
       <c r="BG88">
+        <v>1.19</v>
+      </c>
+      <c r="BH88">
+        <v>3.62</v>
+      </c>
+      <c r="BI88">
         <v>1.4</v>
       </c>
-      <c r="BH88">
-        <v>2.7</v>
-      </c>
-      <c r="BI88">
-        <v>1.67</v>
-      </c>
       <c r="BJ88">
-        <v>2.1</v>
+        <v>2.56</v>
       </c>
       <c r="BK88">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="BL88">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="BM88">
-        <v>2.62</v>
+        <v>2.15</v>
       </c>
       <c r="BN88">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="BO88">
-        <v>3.6</v>
+        <v>2.82</v>
       </c>
       <c r="BP88">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19141,7 +19132,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7476626</v>
+        <v>7476643</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19150,25 +19141,25 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45562.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H89" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -19186,37 +19177,37 @@
         <v>205</v>
       </c>
       <c r="Q89">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R89">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S89">
         <v>3.1</v>
       </c>
       <c r="T89">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U89">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W89">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X89">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y89">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z89">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="AA89">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="AB89">
         <v>2.35</v>
@@ -19225,55 +19216,55 @@
         <v>1.03</v>
       </c>
       <c r="AD89">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE89">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AF89">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="AG89">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AH89">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AI89">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AJ89">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AK89">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AL89">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AM89">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="AN89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO89">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ89">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AR89">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AS89">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AT89">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="AU89">
         <v>-1</v>
@@ -19303,31 +19294,31 @@
         <v>-1</v>
       </c>
       <c r="BD89">
-        <v>2.33</v>
+        <v>1.87</v>
       </c>
       <c r="BE89">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="BF89">
-        <v>1.82</v>
+        <v>2.44</v>
       </c>
       <c r="BG89">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="BH89">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="BI89">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BJ89">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="BK89">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="BL89">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="BM89">
         <v>1.95</v>
@@ -19336,10 +19327,10 @@
         <v>1.77</v>
       </c>
       <c r="BO89">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="BP89">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19347,7 +19338,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7476635</v>
+        <v>7476646</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19356,1019 +19347,195 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45563.35416666666</v>
+        <v>45566.65625</v>
       </c>
       <c r="F90">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>76</v>
+      </c>
+      <c r="H90" t="s">
+        <v>87</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>101</v>
+      </c>
+      <c r="P90" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q90">
+        <v>2.6</v>
+      </c>
+      <c r="R90">
+        <v>2.1</v>
+      </c>
+      <c r="S90">
+        <v>4.5</v>
+      </c>
+      <c r="T90">
+        <v>1.44</v>
+      </c>
+      <c r="U90">
+        <v>2.63</v>
+      </c>
+      <c r="V90">
+        <v>3</v>
+      </c>
+      <c r="W90">
+        <v>1.36</v>
+      </c>
+      <c r="X90">
+        <v>9</v>
+      </c>
+      <c r="Y90">
+        <v>1.07</v>
+      </c>
+      <c r="Z90">
+        <v>1.93</v>
+      </c>
+      <c r="AA90">
+        <v>3.45</v>
+      </c>
+      <c r="AB90">
+        <v>4.1</v>
+      </c>
+      <c r="AC90">
+        <v>1.05</v>
+      </c>
+      <c r="AD90">
         <v>8</v>
       </c>
-      <c r="G90" t="s">
-        <v>77</v>
-      </c>
-      <c r="H90" t="s">
-        <v>92</v>
-      </c>
-      <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90">
-        <v>3</v>
-      </c>
-      <c r="L90">
-        <v>2</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <v>3</v>
-      </c>
-      <c r="O90" t="s">
-        <v>157</v>
-      </c>
-      <c r="P90" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q90">
-        <v>4.33</v>
-      </c>
-      <c r="R90">
-        <v>2.2</v>
-      </c>
-      <c r="S90">
-        <v>2.5</v>
-      </c>
-      <c r="T90">
-        <v>1.4</v>
-      </c>
-      <c r="U90">
-        <v>2.75</v>
-      </c>
-      <c r="V90">
-        <v>2.75</v>
-      </c>
-      <c r="W90">
-        <v>1.4</v>
-      </c>
-      <c r="X90">
-        <v>8</v>
-      </c>
-      <c r="Y90">
-        <v>1.08</v>
-      </c>
-      <c r="Z90">
-        <v>3.82</v>
-      </c>
-      <c r="AA90">
-        <v>3.62</v>
-      </c>
-      <c r="AB90">
-        <v>1.88</v>
-      </c>
-      <c r="AC90">
-        <v>1.04</v>
-      </c>
-      <c r="AD90">
-        <v>11</v>
-      </c>
       <c r="AE90">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AF90">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="AG90">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AH90">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AI90">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AJ90">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AK90">
-        <v>1.9</v>
+        <v>1.26</v>
       </c>
       <c r="AL90">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM90">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="AN90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AQ90">
         <v>0.75</v>
       </c>
       <c r="AR90">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AS90">
-        <v>1.02</v>
+        <v>1.21</v>
       </c>
       <c r="AT90">
-        <v>2.12</v>
+        <v>2.61</v>
       </c>
       <c r="AU90">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV90">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW90">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX90">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY90">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AZ90">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA90">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BB90">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC90">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BD90">
-        <v>2.78</v>
+        <v>1.47</v>
       </c>
       <c r="BE90">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="BF90">
-        <v>1.64</v>
+        <v>3.6</v>
       </c>
       <c r="BG90">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH90">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BI90">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="BJ90">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="BK90">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="BL90">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="BM90">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="BN90">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="BO90">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="BP90">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:68">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>7476640</v>
-      </c>
-      <c r="C91" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91" s="2">
-        <v>45563.35416666666</v>
-      </c>
-      <c r="F91">
-        <v>8</v>
-      </c>
-      <c r="G91" t="s">
-        <v>81</v>
-      </c>
-      <c r="H91" t="s">
-        <v>85</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91">
-        <v>4</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>4</v>
-      </c>
-      <c r="O91" t="s">
-        <v>158</v>
-      </c>
-      <c r="P91" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q91">
-        <v>2.6</v>
-      </c>
-      <c r="R91">
-        <v>2.2</v>
-      </c>
-      <c r="S91">
-        <v>4.33</v>
-      </c>
-      <c r="T91">
-        <v>1.4</v>
-      </c>
-      <c r="U91">
-        <v>2.75</v>
-      </c>
-      <c r="V91">
-        <v>2.75</v>
-      </c>
-      <c r="W91">
-        <v>1.4</v>
-      </c>
-      <c r="X91">
-        <v>8</v>
-      </c>
-      <c r="Y91">
-        <v>1.08</v>
-      </c>
-      <c r="Z91">
-        <v>1.78</v>
-      </c>
-      <c r="AA91">
-        <v>3.64</v>
-      </c>
-      <c r="AB91">
-        <v>4.3</v>
-      </c>
-      <c r="AC91">
-        <v>1.03</v>
-      </c>
-      <c r="AD91">
-        <v>9</v>
-      </c>
-      <c r="AE91">
-        <v>1.25</v>
-      </c>
-      <c r="AF91">
-        <v>3.6</v>
-      </c>
-      <c r="AG91">
-        <v>1.83</v>
-      </c>
-      <c r="AH91">
-        <v>1.91</v>
-      </c>
-      <c r="AI91">
-        <v>1.8</v>
-      </c>
-      <c r="AJ91">
-        <v>1.91</v>
-      </c>
-      <c r="AK91">
-        <v>1.25</v>
-      </c>
-      <c r="AL91">
-        <v>1.3</v>
-      </c>
-      <c r="AM91">
-        <v>1.88</v>
-      </c>
-      <c r="AN91">
-        <v>3</v>
-      </c>
-      <c r="AO91">
-        <v>0.67</v>
-      </c>
-      <c r="AP91">
-        <v>3</v>
-      </c>
-      <c r="AQ91">
-        <v>0.5</v>
-      </c>
-      <c r="AR91">
-        <v>1.6</v>
-      </c>
-      <c r="AS91">
-        <v>1.52</v>
-      </c>
-      <c r="AT91">
-        <v>3.12</v>
-      </c>
-      <c r="AU91">
-        <v>7</v>
-      </c>
-      <c r="AV91">
-        <v>0</v>
-      </c>
-      <c r="AW91">
-        <v>5</v>
-      </c>
-      <c r="AX91">
-        <v>3</v>
-      </c>
-      <c r="AY91">
-        <v>12</v>
-      </c>
-      <c r="AZ91">
-        <v>3</v>
-      </c>
-      <c r="BA91">
-        <v>5</v>
-      </c>
-      <c r="BB91">
-        <v>5</v>
-      </c>
-      <c r="BC91">
-        <v>10</v>
-      </c>
-      <c r="BD91">
-        <v>1.45</v>
-      </c>
-      <c r="BE91">
-        <v>8</v>
-      </c>
-      <c r="BF91">
-        <v>3.35</v>
-      </c>
-      <c r="BG91">
-        <v>1.22</v>
-      </c>
-      <c r="BH91">
-        <v>3.8</v>
-      </c>
-      <c r="BI91">
-        <v>1.33</v>
-      </c>
-      <c r="BJ91">
-        <v>3.05</v>
-      </c>
-      <c r="BK91">
-        <v>1.7</v>
-      </c>
-      <c r="BL91">
-        <v>2.05</v>
-      </c>
-      <c r="BM91">
-        <v>2.03</v>
-      </c>
-      <c r="BN91">
-        <v>1.7</v>
-      </c>
-      <c r="BO91">
-        <v>2.62</v>
-      </c>
-      <c r="BP91">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="92" spans="1:68">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>7476636</v>
-      </c>
-      <c r="C92" t="s">
-        <v>68</v>
-      </c>
-      <c r="D92" t="s">
-        <v>69</v>
-      </c>
-      <c r="E92" s="2">
-        <v>45563.45833333334</v>
-      </c>
-      <c r="F92">
-        <v>8</v>
-      </c>
-      <c r="G92" t="s">
-        <v>88</v>
-      </c>
-      <c r="H92" t="s">
-        <v>93</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="N92">
-        <v>2</v>
-      </c>
-      <c r="O92" t="s">
-        <v>122</v>
-      </c>
-      <c r="P92" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q92">
-        <v>4.33</v>
-      </c>
-      <c r="R92">
-        <v>2.4</v>
-      </c>
-      <c r="S92">
-        <v>2.3</v>
-      </c>
-      <c r="T92">
-        <v>1.29</v>
-      </c>
-      <c r="U92">
-        <v>3.5</v>
-      </c>
-      <c r="V92">
-        <v>2.38</v>
-      </c>
-      <c r="W92">
-        <v>1.53</v>
-      </c>
-      <c r="X92">
-        <v>5.5</v>
-      </c>
-      <c r="Y92">
-        <v>1.14</v>
-      </c>
-      <c r="Z92">
-        <v>4.1</v>
-      </c>
-      <c r="AA92">
-        <v>3.98</v>
-      </c>
-      <c r="AB92">
-        <v>1.74</v>
-      </c>
-      <c r="AC92">
-        <v>1.02</v>
-      </c>
-      <c r="AD92">
-        <v>17</v>
-      </c>
-      <c r="AE92">
-        <v>1.14</v>
-      </c>
-      <c r="AF92">
-        <v>4.15</v>
-      </c>
-      <c r="AG92">
-        <v>1.6</v>
-      </c>
-      <c r="AH92">
-        <v>2.25</v>
-      </c>
-      <c r="AI92">
-        <v>1.57</v>
-      </c>
-      <c r="AJ92">
-        <v>2.25</v>
-      </c>
-      <c r="AK92">
-        <v>1.98</v>
-      </c>
-      <c r="AL92">
-        <v>1.23</v>
-      </c>
-      <c r="AM92">
-        <v>1.21</v>
-      </c>
-      <c r="AN92">
-        <v>0.33</v>
-      </c>
-      <c r="AO92">
-        <v>2.33</v>
-      </c>
-      <c r="AP92">
-        <v>0.5</v>
-      </c>
-      <c r="AQ92">
-        <v>2</v>
-      </c>
-      <c r="AR92">
-        <v>1.28</v>
-      </c>
-      <c r="AS92">
-        <v>1.2</v>
-      </c>
-      <c r="AT92">
-        <v>2.48</v>
-      </c>
-      <c r="AU92">
-        <v>9</v>
-      </c>
-      <c r="AV92">
-        <v>5</v>
-      </c>
-      <c r="AW92">
-        <v>1</v>
-      </c>
-      <c r="AX92">
-        <v>4</v>
-      </c>
-      <c r="AY92">
-        <v>10</v>
-      </c>
-      <c r="AZ92">
-        <v>9</v>
-      </c>
-      <c r="BA92">
-        <v>7</v>
-      </c>
-      <c r="BB92">
-        <v>4</v>
-      </c>
-      <c r="BC92">
-        <v>11</v>
-      </c>
-      <c r="BD92">
-        <v>2.53</v>
-      </c>
-      <c r="BE92">
-        <v>7.5</v>
-      </c>
-      <c r="BF92">
-        <v>1.75</v>
-      </c>
-      <c r="BG92">
-        <v>1.18</v>
-      </c>
-      <c r="BH92">
-        <v>4.33</v>
-      </c>
-      <c r="BI92">
-        <v>1.33</v>
-      </c>
-      <c r="BJ92">
-        <v>3</v>
-      </c>
-      <c r="BK92">
-        <v>1.5</v>
-      </c>
-      <c r="BL92">
-        <v>2.4</v>
-      </c>
-      <c r="BM92">
-        <v>1.88</v>
-      </c>
-      <c r="BN92">
-        <v>1.82</v>
-      </c>
-      <c r="BO92">
-        <v>2.05</v>
-      </c>
-      <c r="BP92">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:68">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>7476637</v>
-      </c>
-      <c r="C93" t="s">
-        <v>68</v>
-      </c>
-      <c r="D93" t="s">
-        <v>69</v>
-      </c>
-      <c r="E93" s="2">
-        <v>45563.45833333334</v>
-      </c>
-      <c r="F93">
-        <v>8</v>
-      </c>
-      <c r="G93" t="s">
-        <v>89</v>
-      </c>
-      <c r="H93" t="s">
-        <v>86</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <v>2</v>
-      </c>
-      <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="N93">
-        <v>3</v>
-      </c>
-      <c r="O93" t="s">
-        <v>159</v>
-      </c>
-      <c r="P93" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q93">
-        <v>3.75</v>
-      </c>
-      <c r="R93">
-        <v>2.2</v>
-      </c>
-      <c r="S93">
-        <v>2.88</v>
-      </c>
-      <c r="T93">
-        <v>1.4</v>
-      </c>
-      <c r="U93">
-        <v>2.75</v>
-      </c>
-      <c r="V93">
-        <v>2.75</v>
-      </c>
-      <c r="W93">
-        <v>1.4</v>
-      </c>
-      <c r="X93">
-        <v>8</v>
-      </c>
-      <c r="Y93">
-        <v>1.08</v>
-      </c>
-      <c r="Z93">
-        <v>3.48</v>
-      </c>
-      <c r="AA93">
-        <v>3.48</v>
-      </c>
-      <c r="AB93">
-        <v>2.02</v>
-      </c>
-      <c r="AC93">
-        <v>1.02</v>
-      </c>
-      <c r="AD93">
-        <v>10</v>
-      </c>
-      <c r="AE93">
-        <v>1.29</v>
-      </c>
-      <c r="AF93">
-        <v>3.3</v>
-      </c>
-      <c r="AG93">
-        <v>1.93</v>
-      </c>
-      <c r="AH93">
-        <v>1.93</v>
-      </c>
-      <c r="AI93">
-        <v>1.73</v>
-      </c>
-      <c r="AJ93">
-        <v>2</v>
-      </c>
-      <c r="AK93">
-        <v>1.65</v>
-      </c>
-      <c r="AL93">
-        <v>1.28</v>
-      </c>
-      <c r="AM93">
-        <v>1.33</v>
-      </c>
-      <c r="AN93">
-        <v>2</v>
-      </c>
-      <c r="AO93">
-        <v>2</v>
-      </c>
-      <c r="AP93">
-        <v>2.25</v>
-      </c>
-      <c r="AQ93">
-        <v>1.5</v>
-      </c>
-      <c r="AR93">
-        <v>0.82</v>
-      </c>
-      <c r="AS93">
-        <v>1.06</v>
-      </c>
-      <c r="AT93">
-        <v>1.88</v>
-      </c>
-      <c r="AU93">
-        <v>3</v>
-      </c>
-      <c r="AV93">
-        <v>4</v>
-      </c>
-      <c r="AW93">
-        <v>6</v>
-      </c>
-      <c r="AX93">
-        <v>2</v>
-      </c>
-      <c r="AY93">
-        <v>9</v>
-      </c>
-      <c r="AZ93">
-        <v>6</v>
-      </c>
-      <c r="BA93">
-        <v>3</v>
-      </c>
-      <c r="BB93">
-        <v>4</v>
-      </c>
-      <c r="BC93">
-        <v>7</v>
-      </c>
-      <c r="BD93">
-        <v>2.3</v>
-      </c>
-      <c r="BE93">
-        <v>7</v>
-      </c>
-      <c r="BF93">
-        <v>1.85</v>
-      </c>
-      <c r="BG93">
-        <v>1.25</v>
-      </c>
-      <c r="BH93">
-        <v>3.6</v>
-      </c>
-      <c r="BI93">
-        <v>1.35</v>
-      </c>
-      <c r="BJ93">
-        <v>2.95</v>
-      </c>
-      <c r="BK93">
-        <v>1.7</v>
-      </c>
-      <c r="BL93">
-        <v>2.05</v>
-      </c>
-      <c r="BM93">
-        <v>2.1</v>
-      </c>
-      <c r="BN93">
-        <v>1.65</v>
-      </c>
-      <c r="BO93">
-        <v>2.75</v>
-      </c>
-      <c r="BP93">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:68">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>7476638</v>
-      </c>
-      <c r="C94" t="s">
-        <v>68</v>
-      </c>
-      <c r="D94" t="s">
-        <v>69</v>
-      </c>
-      <c r="E94" s="2">
-        <v>45563.45833333334</v>
-      </c>
-      <c r="F94">
-        <v>8</v>
-      </c>
-      <c r="G94" t="s">
-        <v>90</v>
-      </c>
-      <c r="H94" t="s">
-        <v>91</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>2</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-      <c r="N94">
-        <v>3</v>
-      </c>
-      <c r="O94" t="s">
-        <v>160</v>
-      </c>
-      <c r="P94" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q94">
-        <v>2.5</v>
-      </c>
-      <c r="R94">
-        <v>2.25</v>
-      </c>
-      <c r="S94">
-        <v>4.33</v>
-      </c>
-      <c r="T94">
-        <v>1.36</v>
-      </c>
-      <c r="U94">
-        <v>3</v>
-      </c>
-      <c r="V94">
-        <v>2.63</v>
-      </c>
-      <c r="W94">
-        <v>1.44</v>
-      </c>
-      <c r="X94">
-        <v>7</v>
-      </c>
-      <c r="Y94">
-        <v>1.1</v>
-      </c>
-      <c r="Z94">
-        <v>1.87</v>
-      </c>
-      <c r="AA94">
-        <v>3.6</v>
-      </c>
-      <c r="AB94">
-        <v>3.88</v>
-      </c>
-      <c r="AC94">
-        <v>1.03</v>
-      </c>
-      <c r="AD94">
-        <v>12</v>
-      </c>
-      <c r="AE94">
-        <v>1.25</v>
-      </c>
-      <c r="AF94">
-        <v>3.75</v>
-      </c>
-      <c r="AG94">
-        <v>1.8</v>
-      </c>
-      <c r="AH94">
-        <v>1.91</v>
-      </c>
-      <c r="AI94">
-        <v>1.73</v>
-      </c>
-      <c r="AJ94">
-        <v>2</v>
-      </c>
-      <c r="AK94">
-        <v>1.22</v>
-      </c>
-      <c r="AL94">
-        <v>1.22</v>
-      </c>
-      <c r="AM94">
-        <v>1.9</v>
-      </c>
-      <c r="AN94">
-        <v>1.33</v>
-      </c>
-      <c r="AO94">
-        <v>1</v>
-      </c>
-      <c r="AP94">
-        <v>1.75</v>
-      </c>
-      <c r="AQ94">
-        <v>0.75</v>
-      </c>
-      <c r="AR94">
-        <v>1.3</v>
-      </c>
-      <c r="AS94">
-        <v>1.13</v>
-      </c>
-      <c r="AT94">
-        <v>2.43</v>
-      </c>
-      <c r="AU94">
-        <v>7</v>
-      </c>
-      <c r="AV94">
-        <v>2</v>
-      </c>
-      <c r="AW94">
-        <v>10</v>
-      </c>
-      <c r="AX94">
-        <v>2</v>
-      </c>
-      <c r="AY94">
-        <v>17</v>
-      </c>
-      <c r="AZ94">
-        <v>4</v>
-      </c>
-      <c r="BA94">
-        <v>12</v>
-      </c>
-      <c r="BB94">
-        <v>3</v>
-      </c>
-      <c r="BC94">
-        <v>15</v>
-      </c>
-      <c r="BD94">
-        <v>1.69</v>
-      </c>
-      <c r="BE94">
-        <v>8</v>
-      </c>
-      <c r="BF94">
-        <v>2.54</v>
-      </c>
-      <c r="BG94">
-        <v>1.25</v>
-      </c>
-      <c r="BH94">
-        <v>3.6</v>
-      </c>
-      <c r="BI94">
-        <v>1.42</v>
-      </c>
-      <c r="BJ94">
-        <v>2.62</v>
-      </c>
-      <c r="BK94">
-        <v>1.7</v>
-      </c>
-      <c r="BL94">
-        <v>2.05</v>
-      </c>
-      <c r="BM94">
-        <v>2.1</v>
-      </c>
-      <c r="BN94">
-        <v>1.67</v>
-      </c>
-      <c r="BO94">
-        <v>2.62</v>
-      </c>
-      <c r="BP94">
         <v>1.42</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,33 @@
     <t>['34']</t>
   </si>
   <si>
+    <t>['34', '45+3']</t>
+  </si>
+  <si>
+    <t>['39', '79', '89', '90+2']</t>
+  </si>
+  <si>
+    <t>['11', '23']</t>
+  </si>
+  <si>
+    <t>['61', '85']</t>
+  </si>
+  <si>
+    <t>['33', '74']</t>
+  </si>
+  <si>
+    <t>['12', '27']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['17', '62']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
     <t>['14', '45']</t>
   </si>
   <si>
@@ -491,6 +518,12 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['69', '80']</t>
+  </si>
+  <si>
+    <t>['14', '50']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -580,9 +613,6 @@
     <t>['58']</t>
   </si>
   <si>
-    <t>['23']</t>
-  </si>
-  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -619,6 +649,30 @@
     <t>['42', '72']</t>
   </si>
   <si>
+    <t>['74', '86']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['24', '81', '90']</t>
+  </si>
+  <si>
+    <t>['31', '59', '90+5']</t>
+  </si>
+  <si>
+    <t>['5', '51']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['25', '51', '57', '67', '85', '90+4']</t>
   </si>
   <si>
@@ -631,7 +685,13 @@
     <t>['35', '45+2', '45+4', '87', '90']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['10', '34']</t>
+  </si>
+  <si>
+    <t>['19', '37']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1312,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1333,7 +1393,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1357,10 +1417,10 @@
         <v>4</v>
       </c>
       <c r="AY2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA2">
         <v>5</v>
@@ -1458,7 +1518,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1539,7 +1599,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1563,10 +1623,10 @@
         <v>1</v>
       </c>
       <c r="AY3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA3">
         <v>5</v>
@@ -1745,7 +1805,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1769,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="AY4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ4">
         <v>5</v>
@@ -1870,7 +1930,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -1948,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -1975,10 +2035,10 @@
         <v>4</v>
       </c>
       <c r="AY5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA5">
         <v>4</v>
@@ -2076,7 +2136,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2154,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2181,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA6">
         <v>5</v>
@@ -2360,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2387,10 +2447,10 @@
         <v>2</v>
       </c>
       <c r="AY7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA7">
         <v>10</v>
@@ -2488,7 +2548,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2566,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ8">
         <v>0.75</v>
@@ -2593,10 +2653,10 @@
         <v>10</v>
       </c>
       <c r="AY8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA8">
         <v>6</v>
@@ -2694,7 +2754,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2772,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2799,10 +2859,10 @@
         <v>5</v>
       </c>
       <c r="AY9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA9">
         <v>5</v>
@@ -2900,7 +2960,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2981,7 +3041,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3005,10 +3065,10 @@
         <v>3</v>
       </c>
       <c r="AY10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA10">
         <v>4</v>
@@ -3106,7 +3166,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3211,10 +3271,10 @@
         <v>1</v>
       </c>
       <c r="AY11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA11">
         <v>3</v>
@@ -3390,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3417,10 +3477,10 @@
         <v>5</v>
       </c>
       <c r="AY12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA12">
         <v>5</v>
@@ -3596,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3623,10 +3683,10 @@
         <v>3</v>
       </c>
       <c r="AY13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA13">
         <v>8</v>
@@ -3802,10 +3862,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3829,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="AY14">
+        <v>14</v>
+      </c>
+      <c r="AZ14">
         <v>9</v>
-      </c>
-      <c r="AZ14">
-        <v>6</v>
       </c>
       <c r="BA14">
         <v>8</v>
@@ -4035,10 +4095,10 @@
         <v>5</v>
       </c>
       <c r="AY15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA15">
         <v>2</v>
@@ -4136,7 +4196,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4241,10 +4301,10 @@
         <v>3</v>
       </c>
       <c r="AY16">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA16">
         <v>9</v>
@@ -4423,7 +4483,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4447,10 +4507,10 @@
         <v>4</v>
       </c>
       <c r="AY17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA17">
         <v>4</v>
@@ -4548,7 +4608,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4629,7 +4689,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4653,10 +4713,10 @@
         <v>3</v>
       </c>
       <c r="AY18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ18">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA18">
         <v>5</v>
@@ -4754,7 +4814,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4859,10 +4919,10 @@
         <v>4</v>
       </c>
       <c r="AY19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA19">
         <v>9</v>
@@ -4960,7 +5020,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5038,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AQ20">
         <v>1.75</v>
@@ -5065,10 +5125,10 @@
         <v>3</v>
       </c>
       <c r="AY20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ20">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA20">
         <v>6</v>
@@ -5244,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5450,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5578,7 +5638,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5865,7 +5925,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5889,10 +5949,10 @@
         <v>3</v>
       </c>
       <c r="AY24">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24">
         <v>5</v>
@@ -5990,7 +6050,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6071,7 +6131,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6095,10 +6155,10 @@
         <v>2</v>
       </c>
       <c r="AY25">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA25">
         <v>11</v>
@@ -6196,7 +6256,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6277,7 +6337,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR26">
         <v>1.83</v>
@@ -6301,10 +6361,10 @@
         <v>7</v>
       </c>
       <c r="AY26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ26">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA26">
         <v>6</v>
@@ -6480,7 +6540,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>1.5</v>
@@ -6507,10 +6567,10 @@
         <v>6</v>
       </c>
       <c r="AY27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ27">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA27">
         <v>4</v>
@@ -6689,7 +6749,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>1.35</v>
@@ -6713,10 +6773,10 @@
         <v>3</v>
       </c>
       <c r="AY28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA28">
         <v>5</v>
@@ -6892,10 +6952,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -6919,10 +6979,10 @@
         <v>2</v>
       </c>
       <c r="AY29">
+        <v>13</v>
+      </c>
+      <c r="AZ29">
         <v>8</v>
-      </c>
-      <c r="AZ29">
-        <v>5</v>
       </c>
       <c r="BA29">
         <v>6</v>
@@ -7020,7 +7080,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7098,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7125,10 +7185,10 @@
         <v>7</v>
       </c>
       <c r="AY30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA30">
         <v>2</v>
@@ -7304,7 +7364,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -7331,10 +7391,10 @@
         <v>4</v>
       </c>
       <c r="AY31">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA31">
         <v>6</v>
@@ -7537,10 +7597,10 @@
         <v>3</v>
       </c>
       <c r="AY32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA32">
         <v>4</v>
@@ -7638,7 +7698,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7719,7 +7779,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -7743,10 +7803,10 @@
         <v>2</v>
       </c>
       <c r="AY33">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA33">
         <v>9</v>
@@ -7844,7 +7904,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -7949,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="AY34">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ34">
         <v>9</v>
@@ -8050,7 +8110,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8128,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8155,10 +8215,10 @@
         <v>2</v>
       </c>
       <c r="AY35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA35">
         <v>3</v>
@@ -8256,7 +8316,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8361,10 +8421,10 @@
         <v>4</v>
       </c>
       <c r="AY36">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ36">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA36">
         <v>10</v>
@@ -8567,10 +8627,10 @@
         <v>2</v>
       </c>
       <c r="AY37">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA37">
         <v>8</v>
@@ -8668,7 +8728,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8746,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8773,10 +8833,10 @@
         <v>3</v>
       </c>
       <c r="AY38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ38">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA38">
         <v>4</v>
@@ -8952,10 +9012,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR39">
         <v>1.62</v>
@@ -8979,10 +9039,10 @@
         <v>7</v>
       </c>
       <c r="AY39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ39">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA39">
         <v>1</v>
@@ -9080,7 +9140,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9161,7 +9221,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ40">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9185,10 +9245,10 @@
         <v>2</v>
       </c>
       <c r="AY40">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA40">
         <v>9</v>
@@ -9286,7 +9346,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9364,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AQ41">
         <v>0.75</v>
@@ -9391,10 +9451,10 @@
         <v>4</v>
       </c>
       <c r="AY41">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA41">
         <v>9</v>
@@ -9492,7 +9552,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9570,10 +9630,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR42">
         <v>1.15</v>
@@ -9597,10 +9657,10 @@
         <v>1</v>
       </c>
       <c r="AY42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ42">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA42">
         <v>8</v>
@@ -9698,7 +9758,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9776,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ43">
         <v>0.25</v>
@@ -9803,7 +9863,7 @@
         <v>4</v>
       </c>
       <c r="AY43">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ43">
         <v>7</v>
@@ -9904,7 +9964,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9982,7 +10042,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10009,10 +10069,10 @@
         <v>0</v>
       </c>
       <c r="AY44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA44">
         <v>3</v>
@@ -10110,7 +10170,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10191,7 +10251,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.02</v>
@@ -10215,10 +10275,10 @@
         <v>7</v>
       </c>
       <c r="AY45">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ45">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA45">
         <v>5</v>
@@ -10316,7 +10376,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10397,7 +10457,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR46">
         <v>2.58</v>
@@ -10421,10 +10481,10 @@
         <v>2</v>
       </c>
       <c r="AY46">
+        <v>14</v>
+      </c>
+      <c r="AZ46">
         <v>11</v>
-      </c>
-      <c r="AZ46">
-        <v>8</v>
       </c>
       <c r="BA46">
         <v>5</v>
@@ -10603,7 +10663,7 @@
         <v>3</v>
       </c>
       <c r="AQ47">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -10627,10 +10687,10 @@
         <v>4</v>
       </c>
       <c r="AY47">
+        <v>21</v>
+      </c>
+      <c r="AZ47">
         <v>12</v>
-      </c>
-      <c r="AZ47">
-        <v>8</v>
       </c>
       <c r="BA47">
         <v>9</v>
@@ -10728,7 +10788,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -10809,7 +10869,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR48">
         <v>1.43</v>
@@ -10833,10 +10893,10 @@
         <v>3</v>
       </c>
       <c r="AY48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ48">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA48">
         <v>5</v>
@@ -11015,7 +11075,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11039,10 +11099,10 @@
         <v>6</v>
       </c>
       <c r="AY49">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ49">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA49">
         <v>4</v>
@@ -11245,10 +11305,10 @@
         <v>6</v>
       </c>
       <c r="AY50">
+        <v>16</v>
+      </c>
+      <c r="AZ50">
         <v>13</v>
-      </c>
-      <c r="AZ50">
-        <v>10</v>
       </c>
       <c r="BA50">
         <v>9</v>
@@ -11346,7 +11406,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -11424,7 +11484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -11451,10 +11511,10 @@
         <v>11</v>
       </c>
       <c r="AY51">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ51">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BA51">
         <v>0</v>
@@ -11657,10 +11717,10 @@
         <v>3</v>
       </c>
       <c r="AY52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA52">
         <v>3</v>
@@ -11758,7 +11818,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -11863,10 +11923,10 @@
         <v>3</v>
       </c>
       <c r="AY53">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ53">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA53">
         <v>3</v>
@@ -12042,7 +12102,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ54">
         <v>1.75</v>
@@ -12069,10 +12129,10 @@
         <v>1</v>
       </c>
       <c r="AY54">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA54">
         <v>3</v>
@@ -12170,7 +12230,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="Q55">
         <v>2.63</v>
@@ -12275,10 +12335,10 @@
         <v>2</v>
       </c>
       <c r="AY55">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ55">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA55">
         <v>8</v>
@@ -12376,7 +12436,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12457,7 +12517,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR56">
         <v>1.25</v>
@@ -12481,10 +12541,10 @@
         <v>5</v>
       </c>
       <c r="AY56">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA56">
         <v>4</v>
@@ -12660,7 +12720,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12687,10 +12747,10 @@
         <v>5</v>
       </c>
       <c r="AY57">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ57">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA57">
         <v>4</v>
@@ -12788,7 +12848,7 @@
         <v>103</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12869,7 +12929,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR58">
         <v>1.28</v>
@@ -12896,7 +12956,7 @@
         <v>8</v>
       </c>
       <c r="AZ58">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA58">
         <v>6</v>
@@ -13075,7 +13135,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ59">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR59">
         <v>1</v>
@@ -13099,10 +13159,10 @@
         <v>3</v>
       </c>
       <c r="AY59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ59">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA59">
         <v>1</v>
@@ -13278,7 +13338,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13305,10 +13365,10 @@
         <v>8</v>
       </c>
       <c r="AY60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ60">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BA60">
         <v>5</v>
@@ -13487,7 +13547,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR61">
         <v>1.47</v>
@@ -13511,10 +13571,10 @@
         <v>4</v>
       </c>
       <c r="AY61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ61">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA61">
         <v>2</v>
@@ -13717,10 +13777,10 @@
         <v>3</v>
       </c>
       <c r="AY62">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA62">
         <v>3</v>
@@ -13818,7 +13878,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13896,10 +13956,10 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AQ63">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR63">
         <v>1.41</v>
@@ -13923,10 +13983,10 @@
         <v>12</v>
       </c>
       <c r="AY63">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ63">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA63">
         <v>0</v>
@@ -14024,7 +14084,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14102,10 +14162,10 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14129,10 +14189,10 @@
         <v>2</v>
       </c>
       <c r="AY64">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA64">
         <v>7</v>
@@ -14230,7 +14290,7 @@
         <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14335,10 +14395,10 @@
         <v>1</v>
       </c>
       <c r="AY65">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ65">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BA65">
         <v>4</v>
@@ -14514,10 +14574,10 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR66">
         <v>1.4</v>
@@ -14541,10 +14601,10 @@
         <v>4</v>
       </c>
       <c r="AY66">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA66">
         <v>2</v>
@@ -14720,7 +14780,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14747,10 +14807,10 @@
         <v>5</v>
       </c>
       <c r="AY67">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ67">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA67">
         <v>5</v>
@@ -14848,7 +14908,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14929,7 +14989,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.88</v>
@@ -14953,10 +15013,10 @@
         <v>2</v>
       </c>
       <c r="AY68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ68">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA68">
         <v>3</v>
@@ -15054,7 +15114,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15135,7 +15195,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR69">
         <v>1.03</v>
@@ -15159,10 +15219,10 @@
         <v>5</v>
       </c>
       <c r="AY69">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ69">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA69">
         <v>5</v>
@@ -15260,7 +15320,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15341,7 +15401,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15365,10 +15425,10 @@
         <v>4</v>
       </c>
       <c r="AY70">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ70">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA70">
         <v>7</v>
@@ -15466,7 +15526,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15544,10 +15604,10 @@
         <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ71">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR71">
         <v>1.35</v>
@@ -15571,10 +15631,10 @@
         <v>4</v>
       </c>
       <c r="AY71">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ71">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA71">
         <v>3</v>
@@ -15672,7 +15732,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15777,10 +15837,10 @@
         <v>3</v>
       </c>
       <c r="AY72">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ72">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA72">
         <v>3</v>
@@ -15878,7 +15938,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15983,7 +16043,7 @@
         <v>4</v>
       </c>
       <c r="AY73">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ73">
         <v>8</v>
@@ -16084,7 +16144,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16189,10 +16249,10 @@
         <v>1</v>
       </c>
       <c r="AY74">
+        <v>13</v>
+      </c>
+      <c r="AZ74">
         <v>10</v>
-      </c>
-      <c r="AZ74">
-        <v>7</v>
       </c>
       <c r="BA74">
         <v>6</v>
@@ -16395,10 +16455,10 @@
         <v>2</v>
       </c>
       <c r="AY75">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ75">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BA75">
         <v>10</v>
@@ -16601,10 +16661,10 @@
         <v>4</v>
       </c>
       <c r="AY76">
+        <v>12</v>
+      </c>
+      <c r="AZ76">
         <v>8</v>
-      </c>
-      <c r="AZ76">
-        <v>4</v>
       </c>
       <c r="BA76">
         <v>7</v>
@@ -16810,7 +16870,7 @@
         <v>12</v>
       </c>
       <c r="AZ77">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA77">
         <v>2</v>
@@ -17013,10 +17073,10 @@
         <v>1</v>
       </c>
       <c r="AY78">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ78">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA78">
         <v>5</v>
@@ -17219,10 +17279,10 @@
         <v>6</v>
       </c>
       <c r="AY79">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ79">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA79">
         <v>3</v>
@@ -17320,7 +17380,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17425,10 +17485,10 @@
         <v>6</v>
       </c>
       <c r="AY80">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ80">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA80">
         <v>4</v>
@@ -17526,7 +17586,7 @@
         <v>101</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>3.4</v>
@@ -17631,10 +17691,10 @@
         <v>5</v>
       </c>
       <c r="AY81">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ81">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA81">
         <v>6</v>
@@ -17732,7 +17792,7 @@
         <v>101</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -17837,10 +17897,10 @@
         <v>4</v>
       </c>
       <c r="AY82">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ82">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA82">
         <v>9</v>
@@ -17896,7 +17956,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7476652</v>
+        <v>7477096</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17905,94 +17965,94 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45566.65625</v>
+        <v>45558.66666666666</v>
       </c>
       <c r="F83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H83" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L83">
         <v>2</v>
       </c>
       <c r="M83">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N83">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O83" t="s">
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="Q83">
+        <v>2.2</v>
+      </c>
+      <c r="R83">
+        <v>2.3</v>
+      </c>
+      <c r="S83">
+        <v>5.5</v>
+      </c>
+      <c r="T83">
+        <v>1.36</v>
+      </c>
+      <c r="U83">
+        <v>3</v>
+      </c>
+      <c r="V83">
         <v>2.75</v>
       </c>
-      <c r="R83">
-        <v>2.1</v>
-      </c>
-      <c r="S83">
+      <c r="W83">
+        <v>1.4</v>
+      </c>
+      <c r="X83">
+        <v>7</v>
+      </c>
+      <c r="Y83">
+        <v>1.1</v>
+      </c>
+      <c r="Z83">
+        <v>1.58</v>
+      </c>
+      <c r="AA83">
         <v>4</v>
       </c>
-      <c r="T83">
-        <v>1.44</v>
-      </c>
-      <c r="U83">
-        <v>2.63</v>
-      </c>
-      <c r="V83">
-        <v>3.25</v>
-      </c>
-      <c r="W83">
-        <v>1.33</v>
-      </c>
-      <c r="X83">
-        <v>9</v>
-      </c>
-      <c r="Y83">
-        <v>1.07</v>
-      </c>
-      <c r="Z83">
-        <v>2.07</v>
-      </c>
-      <c r="AA83">
-        <v>3.45</v>
-      </c>
       <c r="AB83">
-        <v>3.65</v>
+        <v>5.25</v>
       </c>
       <c r="AC83">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD83">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE83">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AF83">
-        <v>3.22</v>
+        <v>3.35</v>
       </c>
       <c r="AG83">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AH83">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AI83">
         <v>1.83</v>
@@ -18001,100 +18061,100 @@
         <v>1.83</v>
       </c>
       <c r="AK83">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AL83">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AM83">
-        <v>1.76</v>
+        <v>2.32</v>
       </c>
       <c r="AN83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO83">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="AR83">
-        <v>1.6</v>
+        <v>1.21</v>
       </c>
       <c r="AS83">
-        <v>1.09</v>
+        <v>0.76</v>
       </c>
       <c r="AT83">
-        <v>2.69</v>
+        <v>1.97</v>
       </c>
       <c r="AU83">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AV83">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW83">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY83">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="AZ83">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA83">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC83">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD83">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="BE83">
-        <v>6.8</v>
+        <v>9.5</v>
       </c>
       <c r="BF83">
-        <v>2.9</v>
+        <v>3.69</v>
       </c>
       <c r="BG83">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="BH83">
-        <v>3.9</v>
+        <v>5.16</v>
       </c>
       <c r="BI83">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="BJ83">
-        <v>2.69</v>
+        <v>3.39</v>
       </c>
       <c r="BK83">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="BL83">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="BM83">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="BN83">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="BO83">
-        <v>2.69</v>
+        <v>2.36</v>
       </c>
       <c r="BP83">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18102,7 +18162,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7476651</v>
+        <v>7476639</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18111,109 +18171,109 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45566.65625</v>
+        <v>45562.65625</v>
       </c>
       <c r="F84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G84" t="s">
         <v>80</v>
       </c>
       <c r="H84" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="Q84">
+        <v>2.88</v>
+      </c>
+      <c r="R84">
+        <v>2.2</v>
+      </c>
+      <c r="S84">
+        <v>3.75</v>
+      </c>
+      <c r="T84">
+        <v>1.4</v>
+      </c>
+      <c r="U84">
         <v>2.75</v>
       </c>
-      <c r="R84">
-        <v>2.1</v>
-      </c>
-      <c r="S84">
-        <v>4.33</v>
-      </c>
-      <c r="T84">
-        <v>1.44</v>
-      </c>
-      <c r="U84">
-        <v>2.63</v>
-      </c>
       <c r="V84">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W84">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y84">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z84">
-        <v>2.02</v>
+        <v>2.17</v>
       </c>
       <c r="AA84">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
       <c r="AB84">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="AC84">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD84">
         <v>9</v>
       </c>
       <c r="AE84">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AF84">
-        <v>3.04</v>
+        <v>3.6</v>
       </c>
       <c r="AG84">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AH84">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AI84">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AJ84">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AK84">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AL84">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AM84">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="AN84">
         <v>2</v>
@@ -18222,85 +18282,85 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR84">
         <v>0.73</v>
       </c>
       <c r="AS84">
-        <v>1.13</v>
+        <v>0.85</v>
       </c>
       <c r="AT84">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="AU84">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV84">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW84">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY84">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ84">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA84">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC84">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD84">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="BE84">
-        <v>6.95</v>
+        <v>7.5</v>
       </c>
       <c r="BF84">
-        <v>2.68</v>
+        <v>2.53</v>
       </c>
       <c r="BG84">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BH84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI84">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BJ84">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="BK84">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BL84">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="BM84">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="BN84">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="BO84">
-        <v>2.14</v>
+        <v>2.45</v>
       </c>
       <c r="BP84">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18308,7 +18368,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7476650</v>
+        <v>7476640</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18317,196 +18377,196 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45566.65625</v>
+        <v>45563.35416666666</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s">
         <v>85</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="Q85">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R85">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S85">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T85">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U85">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W85">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X85">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y85">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z85">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AA85">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="AB85">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="AC85">
         <v>1.03</v>
       </c>
       <c r="AD85">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE85">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AF85">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AG85">
+        <v>1.83</v>
+      </c>
+      <c r="AH85">
         <v>1.91</v>
       </c>
-      <c r="AH85">
+      <c r="AI85">
         <v>1.8</v>
       </c>
-      <c r="AI85">
-        <v>1.57</v>
-      </c>
       <c r="AJ85">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AK85">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AL85">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AM85">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AN85">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO85">
         <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ85">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR85">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AS85">
         <v>1.52</v>
       </c>
       <c r="AT85">
-        <v>2.82</v>
+        <v>3.12</v>
       </c>
       <c r="AU85">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW85">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX85">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY85">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ85">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA85">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB85">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC85">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD85">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="BE85">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="BF85">
-        <v>3.79</v>
+        <v>3.35</v>
       </c>
       <c r="BG85">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="BH85">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="BI85">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BJ85">
-        <v>2.69</v>
+        <v>3.05</v>
       </c>
       <c r="BK85">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="BL85">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="BM85">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="BN85">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="BO85">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="BP85">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18514,7 +18574,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7476649</v>
+        <v>7476635</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18523,76 +18583,76 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45566.65625</v>
+        <v>45563.35416666666</v>
       </c>
       <c r="F86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H86" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I86">
         <v>2</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M86">
         <v>1</v>
       </c>
       <c r="N86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P86" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="Q86">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="R86">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S86">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="T86">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U86">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V86">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W86">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y86">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z86">
-        <v>2.95</v>
+        <v>3.82</v>
       </c>
       <c r="AA86">
-        <v>3.55</v>
+        <v>3.62</v>
       </c>
       <c r="AB86">
-        <v>2.33</v>
+        <v>1.88</v>
       </c>
       <c r="AC86">
         <v>1.04</v>
@@ -18601,118 +18661,118 @@
         <v>11</v>
       </c>
       <c r="AE86">
+        <v>1.23</v>
+      </c>
+      <c r="AF86">
+        <v>3.28</v>
+      </c>
+      <c r="AG86">
+        <v>1.85</v>
+      </c>
+      <c r="AH86">
+        <v>1.85</v>
+      </c>
+      <c r="AI86">
+        <v>1.8</v>
+      </c>
+      <c r="AJ86">
+        <v>1.91</v>
+      </c>
+      <c r="AK86">
+        <v>1.9</v>
+      </c>
+      <c r="AL86">
         <v>1.25</v>
       </c>
-      <c r="AF86">
-        <v>3.8</v>
-      </c>
-      <c r="AG86">
-        <v>1.81</v>
-      </c>
-      <c r="AH86">
-        <v>2.01</v>
-      </c>
-      <c r="AI86">
-        <v>1.62</v>
-      </c>
-      <c r="AJ86">
-        <v>2.2</v>
-      </c>
-      <c r="AK86">
-        <v>1.69</v>
-      </c>
-      <c r="AL86">
-        <v>1.3</v>
-      </c>
       <c r="AM86">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AN86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO86">
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ86">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR86">
-        <v>0.82</v>
+        <v>1.1</v>
       </c>
       <c r="AS86">
-        <v>0.85</v>
+        <v>1.02</v>
       </c>
       <c r="AT86">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="AU86">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV86">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW86">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX86">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY86">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ86">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA86">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB86">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC86">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD86">
-        <v>2.49</v>
+        <v>2.78</v>
       </c>
       <c r="BE86">
-        <v>6.45</v>
+        <v>7.5</v>
       </c>
       <c r="BF86">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="BG86">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH86">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="BI86">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="BJ86">
-        <v>2.59</v>
+        <v>3.35</v>
       </c>
       <c r="BK86">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="BL86">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="BM86">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="BN86">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="BO86">
-        <v>2.82</v>
+        <v>2.45</v>
       </c>
       <c r="BP86">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18720,7 +18780,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7476647</v>
+        <v>7476636</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18729,196 +18789,196 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45566.65625</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>88</v>
+      </c>
+      <c r="H87" t="s">
+        <v>93</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>122</v>
+      </c>
+      <c r="P87" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q87">
+        <v>4.33</v>
+      </c>
+      <c r="R87">
+        <v>2.4</v>
+      </c>
+      <c r="S87">
+        <v>2.3</v>
+      </c>
+      <c r="T87">
+        <v>1.29</v>
+      </c>
+      <c r="U87">
+        <v>3.5</v>
+      </c>
+      <c r="V87">
+        <v>2.38</v>
+      </c>
+      <c r="W87">
+        <v>1.53</v>
+      </c>
+      <c r="X87">
+        <v>5.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.14</v>
+      </c>
+      <c r="Z87">
+        <v>4.1</v>
+      </c>
+      <c r="AA87">
+        <v>3.98</v>
+      </c>
+      <c r="AB87">
+        <v>1.74</v>
+      </c>
+      <c r="AC87">
+        <v>1.02</v>
+      </c>
+      <c r="AD87">
+        <v>17</v>
+      </c>
+      <c r="AE87">
+        <v>1.14</v>
+      </c>
+      <c r="AF87">
+        <v>4.15</v>
+      </c>
+      <c r="AG87">
+        <v>1.6</v>
+      </c>
+      <c r="AH87">
+        <v>2.25</v>
+      </c>
+      <c r="AI87">
+        <v>1.57</v>
+      </c>
+      <c r="AJ87">
+        <v>2.25</v>
+      </c>
+      <c r="AK87">
+        <v>1.98</v>
+      </c>
+      <c r="AL87">
+        <v>1.23</v>
+      </c>
+      <c r="AM87">
+        <v>1.21</v>
+      </c>
+      <c r="AN87">
+        <v>0.33</v>
+      </c>
+      <c r="AO87">
+        <v>2.33</v>
+      </c>
+      <c r="AP87">
+        <v>0.6</v>
+      </c>
+      <c r="AQ87">
+        <v>2.2</v>
+      </c>
+      <c r="AR87">
+        <v>1.28</v>
+      </c>
+      <c r="AS87">
+        <v>1.2</v>
+      </c>
+      <c r="AT87">
+        <v>2.48</v>
+      </c>
+      <c r="AU87">
         <v>9</v>
       </c>
-      <c r="G87" t="s">
-        <v>77</v>
-      </c>
-      <c r="H87" t="s">
-        <v>78</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>3</v>
-      </c>
-      <c r="K87">
-        <v>3</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87">
+      <c r="AV87">
         <v>5</v>
       </c>
-      <c r="N87">
+      <c r="AW87">
+        <v>1</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>11</v>
+      </c>
+      <c r="AZ87">
+        <v>17</v>
+      </c>
+      <c r="BA87">
         <v>6</v>
       </c>
-      <c r="O87" t="s">
-        <v>157</v>
-      </c>
-      <c r="P87" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q87">
-        <v>4.5</v>
-      </c>
-      <c r="R87">
-        <v>2.1</v>
-      </c>
-      <c r="S87">
-        <v>2.6</v>
-      </c>
-      <c r="T87">
-        <v>1.4</v>
-      </c>
-      <c r="U87">
-        <v>2.75</v>
-      </c>
-      <c r="V87">
-        <v>3</v>
-      </c>
-      <c r="W87">
-        <v>1.36</v>
-      </c>
-      <c r="X87">
-        <v>8</v>
-      </c>
-      <c r="Y87">
-        <v>1.08</v>
-      </c>
-      <c r="Z87">
-        <v>3.85</v>
-      </c>
-      <c r="AA87">
-        <v>3.65</v>
-      </c>
-      <c r="AB87">
-        <v>1.94</v>
-      </c>
-      <c r="AC87">
-        <v>1.06</v>
-      </c>
-      <c r="AD87">
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
         <v>10</v>
       </c>
-      <c r="AE87">
-        <v>1.3</v>
-      </c>
-      <c r="AF87">
-        <v>3</v>
-      </c>
-      <c r="AG87">
-        <v>2.01</v>
-      </c>
-      <c r="AH87">
-        <v>1.81</v>
-      </c>
-      <c r="AI87">
-        <v>1.83</v>
-      </c>
-      <c r="AJ87">
-        <v>1.83</v>
-      </c>
-      <c r="AK87">
-        <v>1.83</v>
-      </c>
-      <c r="AL87">
-        <v>1.26</v>
-      </c>
-      <c r="AM87">
-        <v>1.28</v>
-      </c>
-      <c r="AN87">
-        <v>1</v>
-      </c>
-      <c r="AO87">
-        <v>0</v>
-      </c>
-      <c r="AP87">
-        <v>0.75</v>
-      </c>
-      <c r="AQ87">
-        <v>0.75</v>
-      </c>
-      <c r="AR87">
-        <v>1.1</v>
-      </c>
-      <c r="AS87">
-        <v>1.27</v>
-      </c>
-      <c r="AT87">
-        <v>2.37</v>
-      </c>
-      <c r="AU87">
-        <v>-1</v>
-      </c>
-      <c r="AV87">
-        <v>-1</v>
-      </c>
-      <c r="AW87">
-        <v>-1</v>
-      </c>
-      <c r="AX87">
-        <v>-1</v>
-      </c>
-      <c r="AY87">
-        <v>-1</v>
-      </c>
-      <c r="AZ87">
-        <v>-1</v>
-      </c>
-      <c r="BA87">
-        <v>-1</v>
-      </c>
-      <c r="BB87">
-        <v>-1</v>
-      </c>
-      <c r="BC87">
-        <v>-1</v>
-      </c>
       <c r="BD87">
-        <v>3.04</v>
+        <v>2.53</v>
       </c>
       <c r="BE87">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF87">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="BG87">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="BH87">
-        <v>3.44</v>
+        <v>4.33</v>
       </c>
       <c r="BI87">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="BJ87">
-        <v>2.49</v>
+        <v>3</v>
       </c>
       <c r="BK87">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="BL87">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="BM87">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="BN87">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="BO87">
-        <v>2.94</v>
+        <v>2.05</v>
       </c>
       <c r="BP87">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18926,7 +18986,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7476645</v>
+        <v>7476638</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18935,16 +18995,16 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45566.65625</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F88">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G88" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -18956,175 +19016,175 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
       </c>
       <c r="R88">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S88">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T88">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U88">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V88">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W88">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y88">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z88">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AA88">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AB88">
-        <v>4.3</v>
+        <v>3.88</v>
       </c>
       <c r="AC88">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD88">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE88">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF88">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AG88">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="AH88">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AI88">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AJ88">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AK88">
         <v>1.22</v>
       </c>
       <c r="AL88">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AM88">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AN88">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AR88">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AS88">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AT88">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="AU88">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV88">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW88">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX88">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY88">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ88">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA88">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BB88">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC88">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD88">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="BE88">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="BF88">
-        <v>3.06</v>
+        <v>2.54</v>
       </c>
       <c r="BG88">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="BH88">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="BI88">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="BJ88">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="BK88">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="BL88">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="BM88">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="BN88">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="BO88">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="BP88">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19132,7 +19192,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7476643</v>
+        <v>7476637</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19141,196 +19201,196 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45566.65625</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G89" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H89" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O89" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q89">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="R89">
+        <v>2.2</v>
+      </c>
+      <c r="S89">
+        <v>2.88</v>
+      </c>
+      <c r="T89">
+        <v>1.4</v>
+      </c>
+      <c r="U89">
+        <v>2.75</v>
+      </c>
+      <c r="V89">
+        <v>2.75</v>
+      </c>
+      <c r="W89">
+        <v>1.4</v>
+      </c>
+      <c r="X89">
+        <v>8</v>
+      </c>
+      <c r="Y89">
+        <v>1.08</v>
+      </c>
+      <c r="Z89">
+        <v>3.48</v>
+      </c>
+      <c r="AA89">
+        <v>3.48</v>
+      </c>
+      <c r="AB89">
+        <v>2.02</v>
+      </c>
+      <c r="AC89">
+        <v>1.02</v>
+      </c>
+      <c r="AD89">
+        <v>10</v>
+      </c>
+      <c r="AE89">
+        <v>1.29</v>
+      </c>
+      <c r="AF89">
+        <v>3.3</v>
+      </c>
+      <c r="AG89">
+        <v>1.93</v>
+      </c>
+      <c r="AH89">
+        <v>1.93</v>
+      </c>
+      <c r="AI89">
+        <v>1.73</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>1.65</v>
+      </c>
+      <c r="AL89">
+        <v>1.28</v>
+      </c>
+      <c r="AM89">
+        <v>1.33</v>
+      </c>
+      <c r="AN89">
+        <v>2</v>
+      </c>
+      <c r="AO89">
+        <v>2</v>
+      </c>
+      <c r="AP89">
+        <v>2.4</v>
+      </c>
+      <c r="AQ89">
+        <v>1.5</v>
+      </c>
+      <c r="AR89">
+        <v>0.82</v>
+      </c>
+      <c r="AS89">
+        <v>1.06</v>
+      </c>
+      <c r="AT89">
+        <v>1.88</v>
+      </c>
+      <c r="AU89">
+        <v>3</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>6</v>
+      </c>
+      <c r="AX89">
+        <v>2</v>
+      </c>
+      <c r="AY89">
+        <v>11</v>
+      </c>
+      <c r="AZ89">
+        <v>12</v>
+      </c>
+      <c r="BA89">
+        <v>3</v>
+      </c>
+      <c r="BB89">
+        <v>4</v>
+      </c>
+      <c r="BC89">
+        <v>7</v>
+      </c>
+      <c r="BD89">
         <v>2.3</v>
       </c>
-      <c r="S89">
-        <v>3.1</v>
-      </c>
-      <c r="T89">
-        <v>1.3</v>
-      </c>
-      <c r="U89">
-        <v>3.4</v>
-      </c>
-      <c r="V89">
-        <v>2.5</v>
-      </c>
-      <c r="W89">
-        <v>1.5</v>
-      </c>
-      <c r="X89">
-        <v>6</v>
-      </c>
-      <c r="Y89">
-        <v>1.13</v>
-      </c>
-      <c r="Z89">
-        <v>2.45</v>
-      </c>
-      <c r="AA89">
-        <v>3.3</v>
-      </c>
-      <c r="AB89">
-        <v>2.35</v>
-      </c>
-      <c r="AC89">
-        <v>1.03</v>
-      </c>
-      <c r="AD89">
-        <v>15</v>
-      </c>
-      <c r="AE89">
-        <v>1.17</v>
-      </c>
-      <c r="AF89">
-        <v>4.25</v>
-      </c>
-      <c r="AG89">
-        <v>1.57</v>
-      </c>
-      <c r="AH89">
-        <v>2.25</v>
-      </c>
-      <c r="AI89">
-        <v>1.53</v>
-      </c>
-      <c r="AJ89">
-        <v>2.38</v>
-      </c>
-      <c r="AK89">
-        <v>1.52</v>
-      </c>
-      <c r="AL89">
-        <v>1.26</v>
-      </c>
-      <c r="AM89">
-        <v>1.47</v>
-      </c>
-      <c r="AN89">
-        <v>1</v>
-      </c>
-      <c r="AO89">
-        <v>2.33</v>
-      </c>
-      <c r="AP89">
-        <v>0.75</v>
-      </c>
-      <c r="AQ89">
-        <v>2.5</v>
-      </c>
-      <c r="AR89">
-        <v>1.37</v>
-      </c>
-      <c r="AS89">
-        <v>1.2</v>
-      </c>
-      <c r="AT89">
-        <v>2.57</v>
-      </c>
-      <c r="AU89">
-        <v>-1</v>
-      </c>
-      <c r="AV89">
-        <v>-1</v>
-      </c>
-      <c r="AW89">
-        <v>-1</v>
-      </c>
-      <c r="AX89">
-        <v>-1</v>
-      </c>
-      <c r="AY89">
-        <v>-1</v>
-      </c>
-      <c r="AZ89">
-        <v>-1</v>
-      </c>
-      <c r="BA89">
-        <v>-1</v>
-      </c>
-      <c r="BB89">
-        <v>-1</v>
-      </c>
-      <c r="BC89">
-        <v>-1</v>
-      </c>
-      <c r="BD89">
-        <v>1.87</v>
-      </c>
       <c r="BE89">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BF89">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="BG89">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="BH89">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="BI89">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="BJ89">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="BK89">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="BL89">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="BM89">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BN89">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="BO89">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="BP89">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19338,7 +19398,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7476646</v>
+        <v>7476625</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19347,195 +19407,3285 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45566.65625</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H90" t="s">
         <v>87</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O90" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="P90" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="Q90">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="R90">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S90">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T90">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U90">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V90">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W90">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y90">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z90">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="AA90">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="AB90">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="AC90">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD90">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE90">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AF90">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="AG90">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AH90">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AI90">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AJ90">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AK90">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AL90">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM90">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="AN90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO90">
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>2.25</v>
+        <v>0.6</v>
       </c>
       <c r="AQ90">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR90">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AS90">
         <v>1.21</v>
       </c>
       <c r="AT90">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AV90">
+        <v>7</v>
+      </c>
+      <c r="AW90">
+        <v>3</v>
+      </c>
+      <c r="AX90">
+        <v>2</v>
+      </c>
+      <c r="AY90">
+        <v>12</v>
+      </c>
+      <c r="AZ90">
+        <v>13</v>
+      </c>
+      <c r="BA90">
+        <v>5</v>
+      </c>
+      <c r="BB90">
+        <v>4</v>
+      </c>
+      <c r="BC90">
+        <v>9</v>
+      </c>
+      <c r="BD90">
+        <v>1.69</v>
+      </c>
+      <c r="BE90">
+        <v>7.5</v>
+      </c>
+      <c r="BF90">
+        <v>2.65</v>
+      </c>
+      <c r="BG90">
+        <v>1.2</v>
+      </c>
+      <c r="BH90">
+        <v>4</v>
+      </c>
+      <c r="BI90">
+        <v>1.36</v>
+      </c>
+      <c r="BJ90">
+        <v>2.9</v>
+      </c>
+      <c r="BK90">
+        <v>1.57</v>
+      </c>
+      <c r="BL90">
+        <v>2.25</v>
+      </c>
+      <c r="BM90">
+        <v>1.98</v>
+      </c>
+      <c r="BN90">
+        <v>1.82</v>
+      </c>
+      <c r="BO90">
+        <v>2.4</v>
+      </c>
+      <c r="BP90">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7476627</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s">
+        <v>70</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>101</v>
+      </c>
+      <c r="P91" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q91">
+        <v>2.75</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>3.75</v>
+      </c>
+      <c r="T91">
+        <v>1.36</v>
+      </c>
+      <c r="U91">
+        <v>3</v>
+      </c>
+      <c r="V91">
+        <v>2.75</v>
+      </c>
+      <c r="W91">
+        <v>1.4</v>
+      </c>
+      <c r="X91">
+        <v>7</v>
+      </c>
+      <c r="Y91">
+        <v>1.1</v>
+      </c>
+      <c r="Z91">
+        <v>2.12</v>
+      </c>
+      <c r="AA91">
+        <v>3.5</v>
+      </c>
+      <c r="AB91">
+        <v>3.2</v>
+      </c>
+      <c r="AC91">
+        <v>1.02</v>
+      </c>
+      <c r="AD91">
+        <v>10</v>
+      </c>
+      <c r="AE91">
+        <v>1.22</v>
+      </c>
+      <c r="AF91">
+        <v>3.35</v>
+      </c>
+      <c r="AG91">
+        <v>1.8</v>
+      </c>
+      <c r="AH91">
+        <v>1.91</v>
+      </c>
+      <c r="AI91">
+        <v>1.73</v>
+      </c>
+      <c r="AJ91">
+        <v>2</v>
+      </c>
+      <c r="AK91">
+        <v>1.31</v>
+      </c>
+      <c r="AL91">
+        <v>1.28</v>
+      </c>
+      <c r="AM91">
+        <v>1.71</v>
+      </c>
+      <c r="AN91">
+        <v>3</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>2.4</v>
+      </c>
+      <c r="AQ91">
+        <v>1.4</v>
+      </c>
+      <c r="AR91">
+        <v>1.18</v>
+      </c>
+      <c r="AS91">
+        <v>1.42</v>
+      </c>
+      <c r="AT91">
+        <v>2.6</v>
+      </c>
+      <c r="AU91">
+        <v>0</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>2</v>
+      </c>
+      <c r="AX91">
+        <v>1</v>
+      </c>
+      <c r="AY91">
+        <v>3</v>
+      </c>
+      <c r="AZ91">
+        <v>7</v>
+      </c>
+      <c r="BA91">
+        <v>4</v>
+      </c>
+      <c r="BB91">
+        <v>10</v>
+      </c>
+      <c r="BC91">
+        <v>14</v>
+      </c>
+      <c r="BD91">
+        <v>1.59</v>
+      </c>
+      <c r="BE91">
+        <v>7.5</v>
+      </c>
+      <c r="BF91">
+        <v>2.92</v>
+      </c>
+      <c r="BG91">
+        <v>1.29</v>
+      </c>
+      <c r="BH91">
+        <v>3.3</v>
+      </c>
+      <c r="BI91">
+        <v>1.5</v>
+      </c>
+      <c r="BJ91">
+        <v>2.4</v>
+      </c>
+      <c r="BK91">
+        <v>1.82</v>
+      </c>
+      <c r="BL91">
+        <v>1.98</v>
+      </c>
+      <c r="BM91">
+        <v>2.25</v>
+      </c>
+      <c r="BN91">
+        <v>1.57</v>
+      </c>
+      <c r="BO91">
+        <v>2.9</v>
+      </c>
+      <c r="BP91">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7476626</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>101</v>
+      </c>
+      <c r="P92" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q92">
+        <v>3.4</v>
+      </c>
+      <c r="R92">
+        <v>2.2</v>
+      </c>
+      <c r="S92">
+        <v>3.1</v>
+      </c>
+      <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>3</v>
+      </c>
+      <c r="V92">
+        <v>2.75</v>
+      </c>
+      <c r="W92">
+        <v>1.4</v>
+      </c>
+      <c r="X92">
+        <v>8</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>2.8</v>
+      </c>
+      <c r="AA92">
+        <v>3.48</v>
+      </c>
+      <c r="AB92">
+        <v>2.35</v>
+      </c>
+      <c r="AC92">
+        <v>1.03</v>
+      </c>
+      <c r="AD92">
+        <v>9</v>
+      </c>
+      <c r="AE92">
+        <v>1.25</v>
+      </c>
+      <c r="AF92">
+        <v>3.6</v>
+      </c>
+      <c r="AG92">
+        <v>1.83</v>
+      </c>
+      <c r="AH92">
+        <v>1.91</v>
+      </c>
+      <c r="AI92">
+        <v>1.67</v>
+      </c>
+      <c r="AJ92">
+        <v>2.1</v>
+      </c>
+      <c r="AK92">
+        <v>1.57</v>
+      </c>
+      <c r="AL92">
+        <v>1.27</v>
+      </c>
+      <c r="AM92">
+        <v>1.3</v>
+      </c>
+      <c r="AN92">
+        <v>2</v>
+      </c>
+      <c r="AO92">
+        <v>1.33</v>
+      </c>
+      <c r="AP92">
+        <v>1.8</v>
+      </c>
+      <c r="AQ92">
+        <v>2</v>
+      </c>
+      <c r="AR92">
+        <v>1.26</v>
+      </c>
+      <c r="AS92">
+        <v>1.09</v>
+      </c>
+      <c r="AT92">
+        <v>2.35</v>
+      </c>
+      <c r="AU92">
+        <v>2</v>
+      </c>
+      <c r="AV92">
+        <v>6</v>
+      </c>
+      <c r="AW92">
+        <v>4</v>
+      </c>
+      <c r="AX92">
+        <v>7</v>
+      </c>
+      <c r="AY92">
+        <v>7</v>
+      </c>
+      <c r="AZ92">
+        <v>15</v>
+      </c>
+      <c r="BA92">
+        <v>2</v>
+      </c>
+      <c r="BB92">
+        <v>6</v>
+      </c>
+      <c r="BC92">
+        <v>8</v>
+      </c>
+      <c r="BD92">
+        <v>2.33</v>
+      </c>
+      <c r="BE92">
+        <v>8</v>
+      </c>
+      <c r="BF92">
+        <v>1.82</v>
+      </c>
+      <c r="BG92">
+        <v>1.22</v>
+      </c>
+      <c r="BH92">
+        <v>3.8</v>
+      </c>
+      <c r="BI92">
+        <v>1.38</v>
+      </c>
+      <c r="BJ92">
+        <v>2.8</v>
+      </c>
+      <c r="BK92">
+        <v>1.65</v>
+      </c>
+      <c r="BL92">
+        <v>2.1</v>
+      </c>
+      <c r="BM92">
+        <v>1.95</v>
+      </c>
+      <c r="BN92">
+        <v>1.77</v>
+      </c>
+      <c r="BO92">
+        <v>2.5</v>
+      </c>
+      <c r="BP92">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7476624</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F93">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>83</v>
+      </c>
+      <c r="H93" t="s">
+        <v>78</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>159</v>
+      </c>
+      <c r="P93" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q93">
+        <v>3.4</v>
+      </c>
+      <c r="R93">
+        <v>2.25</v>
+      </c>
+      <c r="S93">
+        <v>3</v>
+      </c>
+      <c r="T93">
+        <v>1.33</v>
+      </c>
+      <c r="U93">
+        <v>3.25</v>
+      </c>
+      <c r="V93">
+        <v>2.63</v>
+      </c>
+      <c r="W93">
+        <v>1.44</v>
+      </c>
+      <c r="X93">
+        <v>7</v>
+      </c>
+      <c r="Y93">
+        <v>1.1</v>
+      </c>
+      <c r="Z93">
+        <v>3.06</v>
+      </c>
+      <c r="AA93">
+        <v>3.6</v>
+      </c>
+      <c r="AB93">
+        <v>2.15</v>
+      </c>
+      <c r="AC93">
+        <v>1.01</v>
+      </c>
+      <c r="AD93">
+        <v>11</v>
+      </c>
+      <c r="AE93">
+        <v>1.19</v>
+      </c>
+      <c r="AF93">
+        <v>3.55</v>
+      </c>
+      <c r="AG93">
+        <v>1.75</v>
+      </c>
+      <c r="AH93">
+        <v>2</v>
+      </c>
+      <c r="AI93">
+        <v>1.62</v>
+      </c>
+      <c r="AJ93">
+        <v>2.2</v>
+      </c>
+      <c r="AK93">
+        <v>1.57</v>
+      </c>
+      <c r="AL93">
+        <v>1.28</v>
+      </c>
+      <c r="AM93">
+        <v>1.41</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <v>1</v>
+      </c>
+      <c r="AQ93">
+        <v>0.8</v>
+      </c>
+      <c r="AR93">
+        <v>1.27</v>
+      </c>
+      <c r="AS93">
+        <v>1.27</v>
+      </c>
+      <c r="AT93">
+        <v>2.54</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>5</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
+        <v>6</v>
+      </c>
+      <c r="AY93">
+        <v>13</v>
+      </c>
+      <c r="AZ93">
+        <v>16</v>
+      </c>
+      <c r="BA93">
+        <v>4</v>
+      </c>
+      <c r="BB93">
+        <v>2</v>
+      </c>
+      <c r="BC93">
+        <v>6</v>
+      </c>
+      <c r="BD93">
+        <v>2</v>
+      </c>
+      <c r="BE93">
+        <v>7</v>
+      </c>
+      <c r="BF93">
+        <v>2.1</v>
+      </c>
+      <c r="BG93">
+        <v>1.4</v>
+      </c>
+      <c r="BH93">
+        <v>2.7</v>
+      </c>
+      <c r="BI93">
+        <v>1.67</v>
+      </c>
+      <c r="BJ93">
+        <v>2.1</v>
+      </c>
+      <c r="BK93">
+        <v>2.1</v>
+      </c>
+      <c r="BL93">
+        <v>1.67</v>
+      </c>
+      <c r="BM93">
+        <v>2.62</v>
+      </c>
+      <c r="BN93">
+        <v>1.42</v>
+      </c>
+      <c r="BO93">
+        <v>3.6</v>
+      </c>
+      <c r="BP93">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7476634</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s">
+        <v>72</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>160</v>
+      </c>
+      <c r="P94" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q94">
+        <v>3.25</v>
+      </c>
+      <c r="R94">
+        <v>2.05</v>
+      </c>
+      <c r="S94">
+        <v>3.5</v>
+      </c>
+      <c r="T94">
+        <v>1.5</v>
+      </c>
+      <c r="U94">
+        <v>2.5</v>
+      </c>
+      <c r="V94">
+        <v>3.4</v>
+      </c>
+      <c r="W94">
+        <v>1.3</v>
+      </c>
+      <c r="X94">
+        <v>10</v>
+      </c>
+      <c r="Y94">
+        <v>1.06</v>
+      </c>
+      <c r="Z94">
+        <v>2.33</v>
+      </c>
+      <c r="AA94">
+        <v>3.2</v>
+      </c>
+      <c r="AB94">
+        <v>3.04</v>
+      </c>
+      <c r="AC94">
+        <v>1.07</v>
+      </c>
+      <c r="AD94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>1.4</v>
+      </c>
+      <c r="AF94">
+        <v>2.95</v>
+      </c>
+      <c r="AG94">
+        <v>2.15</v>
+      </c>
+      <c r="AH94">
+        <v>1.61</v>
+      </c>
+      <c r="AI94">
+        <v>1.83</v>
+      </c>
+      <c r="AJ94">
+        <v>1.83</v>
+      </c>
+      <c r="AK94">
+        <v>1.42</v>
+      </c>
+      <c r="AL94">
+        <v>1.3</v>
+      </c>
+      <c r="AM94">
+        <v>1.53</v>
+      </c>
+      <c r="AN94">
+        <v>3</v>
+      </c>
+      <c r="AO94">
+        <v>2</v>
+      </c>
+      <c r="AP94">
+        <v>2.4</v>
+      </c>
+      <c r="AQ94">
+        <v>1.2</v>
+      </c>
+      <c r="AR94">
+        <v>1.4</v>
+      </c>
+      <c r="AS94">
+        <v>1.18</v>
+      </c>
+      <c r="AT94">
+        <v>2.58</v>
+      </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AV94">
+        <v>3</v>
+      </c>
+      <c r="AW94">
+        <v>2</v>
+      </c>
+      <c r="AX94">
+        <v>2</v>
+      </c>
+      <c r="AY94">
+        <v>8</v>
+      </c>
+      <c r="AZ94">
+        <v>9</v>
+      </c>
+      <c r="BA94">
+        <v>7</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>10</v>
+      </c>
+      <c r="BD94">
+        <v>1.82</v>
+      </c>
+      <c r="BE94">
+        <v>8</v>
+      </c>
+      <c r="BF94">
+        <v>2.39</v>
+      </c>
+      <c r="BG94">
+        <v>1.25</v>
+      </c>
+      <c r="BH94">
+        <v>3.6</v>
+      </c>
+      <c r="BI94">
+        <v>1.37</v>
+      </c>
+      <c r="BJ94">
+        <v>2.85</v>
+      </c>
+      <c r="BK94">
+        <v>1.7</v>
+      </c>
+      <c r="BL94">
+        <v>2.03</v>
+      </c>
+      <c r="BM94">
+        <v>2.13</v>
+      </c>
+      <c r="BN94">
+        <v>1.63</v>
+      </c>
+      <c r="BO94">
+        <v>2.85</v>
+      </c>
+      <c r="BP94">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7476648</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F95">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>88</v>
+      </c>
+      <c r="H95" t="s">
+        <v>92</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>161</v>
+      </c>
+      <c r="P95" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q95">
+        <v>4.5</v>
+      </c>
+      <c r="R95">
+        <v>2.1</v>
+      </c>
+      <c r="S95">
+        <v>2.6</v>
+      </c>
+      <c r="T95">
+        <v>1.44</v>
+      </c>
+      <c r="U95">
+        <v>2.63</v>
+      </c>
+      <c r="V95">
+        <v>3</v>
+      </c>
+      <c r="W95">
+        <v>1.36</v>
+      </c>
+      <c r="X95">
+        <v>9</v>
+      </c>
+      <c r="Y95">
+        <v>1.07</v>
+      </c>
+      <c r="Z95">
+        <v>3.2</v>
+      </c>
+      <c r="AA95">
+        <v>3.1</v>
+      </c>
+      <c r="AB95">
+        <v>1.99</v>
+      </c>
+      <c r="AC95">
+        <v>1.06</v>
+      </c>
+      <c r="AD95">
+        <v>9.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.31</v>
+      </c>
+      <c r="AF95">
+        <v>2.97</v>
+      </c>
+      <c r="AG95">
+        <v>1.85</v>
+      </c>
+      <c r="AH95">
+        <v>1.85</v>
+      </c>
+      <c r="AI95">
+        <v>1.83</v>
+      </c>
+      <c r="AJ95">
+        <v>1.83</v>
+      </c>
+      <c r="AK95">
+        <v>1.88</v>
+      </c>
+      <c r="AL95">
+        <v>1.27</v>
+      </c>
+      <c r="AM95">
+        <v>1.24</v>
+      </c>
+      <c r="AN95">
+        <v>0.5</v>
+      </c>
+      <c r="AO95">
+        <v>0.75</v>
+      </c>
+      <c r="AP95">
+        <v>0.6</v>
+      </c>
+      <c r="AQ95">
+        <v>0.8</v>
+      </c>
+      <c r="AR95">
+        <v>1.37</v>
+      </c>
+      <c r="AS95">
+        <v>1.01</v>
+      </c>
+      <c r="AT95">
+        <v>2.38</v>
+      </c>
+      <c r="AU95">
         <v>-1</v>
       </c>
-      <c r="AV90">
+      <c r="AV95">
         <v>-1</v>
       </c>
-      <c r="AW90">
+      <c r="AW95">
         <v>-1</v>
       </c>
-      <c r="AX90">
+      <c r="AX95">
         <v>-1</v>
       </c>
-      <c r="AY90">
+      <c r="AY95">
         <v>-1</v>
       </c>
-      <c r="AZ90">
+      <c r="AZ95">
         <v>-1</v>
       </c>
-      <c r="BA90">
+      <c r="BA95">
         <v>-1</v>
       </c>
-      <c r="BB90">
+      <c r="BB95">
         <v>-1</v>
       </c>
-      <c r="BC90">
+      <c r="BC95">
         <v>-1</v>
       </c>
-      <c r="BD90">
+      <c r="BD95">
+        <v>2.58</v>
+      </c>
+      <c r="BE95">
+        <v>6.65</v>
+      </c>
+      <c r="BF95">
+        <v>1.79</v>
+      </c>
+      <c r="BG95">
+        <v>1.19</v>
+      </c>
+      <c r="BH95">
+        <v>4.2</v>
+      </c>
+      <c r="BI95">
+        <v>1.3</v>
+      </c>
+      <c r="BJ95">
+        <v>2.88</v>
+      </c>
+      <c r="BK95">
+        <v>1.56</v>
+      </c>
+      <c r="BL95">
+        <v>2.16</v>
+      </c>
+      <c r="BM95">
+        <v>1.98</v>
+      </c>
+      <c r="BN95">
+        <v>1.74</v>
+      </c>
+      <c r="BO95">
+        <v>2.49</v>
+      </c>
+      <c r="BP95">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7476652</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F96">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>81</v>
+      </c>
+      <c r="H96" t="s">
+        <v>75</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>6</v>
+      </c>
+      <c r="N96">
+        <v>8</v>
+      </c>
+      <c r="O96" t="s">
+        <v>162</v>
+      </c>
+      <c r="P96" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q96">
+        <v>2.75</v>
+      </c>
+      <c r="R96">
+        <v>2.1</v>
+      </c>
+      <c r="S96">
+        <v>4</v>
+      </c>
+      <c r="T96">
+        <v>1.44</v>
+      </c>
+      <c r="U96">
+        <v>2.63</v>
+      </c>
+      <c r="V96">
+        <v>3.25</v>
+      </c>
+      <c r="W96">
+        <v>1.33</v>
+      </c>
+      <c r="X96">
+        <v>9</v>
+      </c>
+      <c r="Y96">
+        <v>1.07</v>
+      </c>
+      <c r="Z96">
+        <v>2.07</v>
+      </c>
+      <c r="AA96">
+        <v>3.45</v>
+      </c>
+      <c r="AB96">
+        <v>3.65</v>
+      </c>
+      <c r="AC96">
+        <v>1.05</v>
+      </c>
+      <c r="AD96">
+        <v>9</v>
+      </c>
+      <c r="AE96">
+        <v>1.24</v>
+      </c>
+      <c r="AF96">
+        <v>3.22</v>
+      </c>
+      <c r="AG96">
+        <v>1.83</v>
+      </c>
+      <c r="AH96">
+        <v>1.85</v>
+      </c>
+      <c r="AI96">
+        <v>1.83</v>
+      </c>
+      <c r="AJ96">
+        <v>1.83</v>
+      </c>
+      <c r="AK96">
+        <v>1.29</v>
+      </c>
+      <c r="AL96">
+        <v>1.31</v>
+      </c>
+      <c r="AM96">
+        <v>1.76</v>
+      </c>
+      <c r="AN96">
+        <v>3</v>
+      </c>
+      <c r="AO96">
+        <v>1.75</v>
+      </c>
+      <c r="AP96">
+        <v>2.4</v>
+      </c>
+      <c r="AQ96">
+        <v>2</v>
+      </c>
+      <c r="AR96">
+        <v>1.61</v>
+      </c>
+      <c r="AS96">
+        <v>1.21</v>
+      </c>
+      <c r="AT96">
+        <v>2.82</v>
+      </c>
+      <c r="AU96">
+        <v>-1</v>
+      </c>
+      <c r="AV96">
+        <v>-1</v>
+      </c>
+      <c r="AW96">
+        <v>-1</v>
+      </c>
+      <c r="AX96">
+        <v>-1</v>
+      </c>
+      <c r="AY96">
+        <v>-1</v>
+      </c>
+      <c r="AZ96">
+        <v>-1</v>
+      </c>
+      <c r="BA96">
+        <v>-1</v>
+      </c>
+      <c r="BB96">
+        <v>-1</v>
+      </c>
+      <c r="BC96">
+        <v>-1</v>
+      </c>
+      <c r="BD96">
+        <v>1.63</v>
+      </c>
+      <c r="BE96">
+        <v>6.8</v>
+      </c>
+      <c r="BF96">
+        <v>2.9</v>
+      </c>
+      <c r="BG96">
+        <v>1.21</v>
+      </c>
+      <c r="BH96">
+        <v>3.9</v>
+      </c>
+      <c r="BI96">
+        <v>1.34</v>
+      </c>
+      <c r="BJ96">
+        <v>2.69</v>
+      </c>
+      <c r="BK96">
+        <v>1.63</v>
+      </c>
+      <c r="BL96">
+        <v>2.04</v>
+      </c>
+      <c r="BM96">
+        <v>2.09</v>
+      </c>
+      <c r="BN96">
+        <v>1.66</v>
+      </c>
+      <c r="BO96">
+        <v>2.69</v>
+      </c>
+      <c r="BP96">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7476651</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F97">
+        <v>9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>80</v>
+      </c>
+      <c r="H97" t="s">
+        <v>91</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>163</v>
+      </c>
+      <c r="P97" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q97">
+        <v>2.75</v>
+      </c>
+      <c r="R97">
+        <v>2.1</v>
+      </c>
+      <c r="S97">
+        <v>4.33</v>
+      </c>
+      <c r="T97">
+        <v>1.44</v>
+      </c>
+      <c r="U97">
+        <v>2.63</v>
+      </c>
+      <c r="V97">
+        <v>3.25</v>
+      </c>
+      <c r="W97">
+        <v>1.33</v>
+      </c>
+      <c r="X97">
+        <v>9</v>
+      </c>
+      <c r="Y97">
+        <v>1.07</v>
+      </c>
+      <c r="Z97">
+        <v>2.02</v>
+      </c>
+      <c r="AA97">
+        <v>3.55</v>
+      </c>
+      <c r="AB97">
+        <v>3.65</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>9</v>
+      </c>
+      <c r="AE97">
+        <v>1.27</v>
+      </c>
+      <c r="AF97">
+        <v>3.04</v>
+      </c>
+      <c r="AG97">
+        <v>1.95</v>
+      </c>
+      <c r="AH97">
+        <v>1.75</v>
+      </c>
+      <c r="AI97">
+        <v>1.83</v>
+      </c>
+      <c r="AJ97">
+        <v>1.83</v>
+      </c>
+      <c r="AK97">
+        <v>1.35</v>
+      </c>
+      <c r="AL97">
+        <v>1.33</v>
+      </c>
+      <c r="AM97">
+        <v>1.62</v>
+      </c>
+      <c r="AN97">
+        <v>1.67</v>
+      </c>
+      <c r="AO97">
+        <v>0.75</v>
+      </c>
+      <c r="AP97">
+        <v>1.5</v>
+      </c>
+      <c r="AQ97">
+        <v>0.8</v>
+      </c>
+      <c r="AR97">
+        <v>1.07</v>
+      </c>
+      <c r="AS97">
+        <v>0.98</v>
+      </c>
+      <c r="AT97">
+        <v>2.05</v>
+      </c>
+      <c r="AU97">
+        <v>-1</v>
+      </c>
+      <c r="AV97">
+        <v>-1</v>
+      </c>
+      <c r="AW97">
+        <v>-1</v>
+      </c>
+      <c r="AX97">
+        <v>-1</v>
+      </c>
+      <c r="AY97">
+        <v>-1</v>
+      </c>
+      <c r="AZ97">
+        <v>-1</v>
+      </c>
+      <c r="BA97">
+        <v>-1</v>
+      </c>
+      <c r="BB97">
+        <v>-1</v>
+      </c>
+      <c r="BC97">
+        <v>-1</v>
+      </c>
+      <c r="BD97">
+        <v>1.7</v>
+      </c>
+      <c r="BE97">
+        <v>6.95</v>
+      </c>
+      <c r="BF97">
+        <v>2.68</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+      <c r="BI97">
+        <v>1.26</v>
+      </c>
+      <c r="BJ97">
+        <v>3.5</v>
+      </c>
+      <c r="BK97">
+        <v>1.38</v>
+      </c>
+      <c r="BL97">
+        <v>2.54</v>
+      </c>
+      <c r="BM97">
+        <v>1.7</v>
+      </c>
+      <c r="BN97">
+        <v>2.05</v>
+      </c>
+      <c r="BO97">
+        <v>2.14</v>
+      </c>
+      <c r="BP97">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7476650</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F98">
+        <v>9</v>
+      </c>
+      <c r="G98" t="s">
+        <v>90</v>
+      </c>
+      <c r="H98" t="s">
+        <v>85</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>164</v>
+      </c>
+      <c r="P98" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q98">
+        <v>2.5</v>
+      </c>
+      <c r="R98">
+        <v>2.3</v>
+      </c>
+      <c r="S98">
+        <v>4</v>
+      </c>
+      <c r="T98">
+        <v>1.3</v>
+      </c>
+      <c r="U98">
+        <v>3.4</v>
+      </c>
+      <c r="V98">
+        <v>2.5</v>
+      </c>
+      <c r="W98">
+        <v>1.5</v>
+      </c>
+      <c r="X98">
+        <v>6</v>
+      </c>
+      <c r="Y98">
+        <v>1.13</v>
+      </c>
+      <c r="Z98">
+        <v>1.94</v>
+      </c>
+      <c r="AA98">
+        <v>3.65</v>
+      </c>
+      <c r="AB98">
+        <v>3.85</v>
+      </c>
+      <c r="AC98">
+        <v>1.03</v>
+      </c>
+      <c r="AD98">
+        <v>15</v>
+      </c>
+      <c r="AE98">
+        <v>1.19</v>
+      </c>
+      <c r="AF98">
+        <v>4</v>
+      </c>
+      <c r="AG98">
+        <v>1.91</v>
+      </c>
+      <c r="AH98">
+        <v>1.8</v>
+      </c>
+      <c r="AI98">
+        <v>1.57</v>
+      </c>
+      <c r="AJ98">
+        <v>2.25</v>
+      </c>
+      <c r="AK98">
+        <v>1.26</v>
+      </c>
+      <c r="AL98">
+        <v>1.27</v>
+      </c>
+      <c r="AM98">
+        <v>1.83</v>
+      </c>
+      <c r="AN98">
+        <v>1.75</v>
+      </c>
+      <c r="AO98">
+        <v>0.5</v>
+      </c>
+      <c r="AP98">
+        <v>1.6</v>
+      </c>
+      <c r="AQ98">
+        <v>0.6</v>
+      </c>
+      <c r="AR98">
+        <v>1.55</v>
+      </c>
+      <c r="AS98">
+        <v>1.28</v>
+      </c>
+      <c r="AT98">
+        <v>2.83</v>
+      </c>
+      <c r="AU98">
+        <v>-1</v>
+      </c>
+      <c r="AV98">
+        <v>-1</v>
+      </c>
+      <c r="AW98">
+        <v>-1</v>
+      </c>
+      <c r="AX98">
+        <v>-1</v>
+      </c>
+      <c r="AY98">
+        <v>-1</v>
+      </c>
+      <c r="AZ98">
+        <v>-1</v>
+      </c>
+      <c r="BA98">
+        <v>-1</v>
+      </c>
+      <c r="BB98">
+        <v>-1</v>
+      </c>
+      <c r="BC98">
+        <v>-1</v>
+      </c>
+      <c r="BD98">
+        <v>1.44</v>
+      </c>
+      <c r="BE98">
+        <v>7.3</v>
+      </c>
+      <c r="BF98">
+        <v>3.79</v>
+      </c>
+      <c r="BG98">
+        <v>1.21</v>
+      </c>
+      <c r="BH98">
+        <v>3.9</v>
+      </c>
+      <c r="BI98">
+        <v>1.34</v>
+      </c>
+      <c r="BJ98">
+        <v>2.69</v>
+      </c>
+      <c r="BK98">
+        <v>1.63</v>
+      </c>
+      <c r="BL98">
+        <v>2.04</v>
+      </c>
+      <c r="BM98">
+        <v>2.09</v>
+      </c>
+      <c r="BN98">
+        <v>1.66</v>
+      </c>
+      <c r="BO98">
+        <v>2.69</v>
+      </c>
+      <c r="BP98">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7476649</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F99">
+        <v>9</v>
+      </c>
+      <c r="G99" t="s">
+        <v>89</v>
+      </c>
+      <c r="H99" t="s">
+        <v>79</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>4</v>
+      </c>
+      <c r="O99" t="s">
+        <v>165</v>
+      </c>
+      <c r="P99" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q99">
+        <v>3.4</v>
+      </c>
+      <c r="R99">
+        <v>2.25</v>
+      </c>
+      <c r="S99">
+        <v>2.88</v>
+      </c>
+      <c r="T99">
+        <v>1.36</v>
+      </c>
+      <c r="U99">
+        <v>3</v>
+      </c>
+      <c r="V99">
+        <v>2.63</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>7</v>
+      </c>
+      <c r="Y99">
+        <v>1.1</v>
+      </c>
+      <c r="Z99">
+        <v>2.95</v>
+      </c>
+      <c r="AA99">
+        <v>3.55</v>
+      </c>
+      <c r="AB99">
+        <v>2.33</v>
+      </c>
+      <c r="AC99">
+        <v>1.04</v>
+      </c>
+      <c r="AD99">
+        <v>11</v>
+      </c>
+      <c r="AE99">
+        <v>1.25</v>
+      </c>
+      <c r="AF99">
+        <v>3.8</v>
+      </c>
+      <c r="AG99">
+        <v>1.81</v>
+      </c>
+      <c r="AH99">
+        <v>2.01</v>
+      </c>
+      <c r="AI99">
+        <v>1.62</v>
+      </c>
+      <c r="AJ99">
+        <v>2.2</v>
+      </c>
+      <c r="AK99">
+        <v>1.69</v>
+      </c>
+      <c r="AL99">
+        <v>1.3</v>
+      </c>
+      <c r="AM99">
+        <v>1.34</v>
+      </c>
+      <c r="AN99">
+        <v>2.25</v>
+      </c>
+      <c r="AO99">
+        <v>1</v>
+      </c>
+      <c r="AP99">
+        <v>2.4</v>
+      </c>
+      <c r="AQ99">
+        <v>0.75</v>
+      </c>
+      <c r="AR99">
+        <v>0.92</v>
+      </c>
+      <c r="AS99">
+        <v>0.99</v>
+      </c>
+      <c r="AT99">
+        <v>1.91</v>
+      </c>
+      <c r="AU99">
+        <v>-1</v>
+      </c>
+      <c r="AV99">
+        <v>-1</v>
+      </c>
+      <c r="AW99">
+        <v>-1</v>
+      </c>
+      <c r="AX99">
+        <v>-1</v>
+      </c>
+      <c r="AY99">
+        <v>-1</v>
+      </c>
+      <c r="AZ99">
+        <v>-1</v>
+      </c>
+      <c r="BA99">
+        <v>-1</v>
+      </c>
+      <c r="BB99">
+        <v>-1</v>
+      </c>
+      <c r="BC99">
+        <v>-1</v>
+      </c>
+      <c r="BD99">
+        <v>2.49</v>
+      </c>
+      <c r="BE99">
+        <v>6.45</v>
+      </c>
+      <c r="BF99">
+        <v>1.82</v>
+      </c>
+      <c r="BG99">
+        <v>1.18</v>
+      </c>
+      <c r="BH99">
+        <v>3.65</v>
+      </c>
+      <c r="BI99">
+        <v>1.39</v>
+      </c>
+      <c r="BJ99">
+        <v>2.59</v>
+      </c>
+      <c r="BK99">
+        <v>1.73</v>
+      </c>
+      <c r="BL99">
+        <v>1.99</v>
+      </c>
+      <c r="BM99">
+        <v>2.15</v>
+      </c>
+      <c r="BN99">
+        <v>1.56</v>
+      </c>
+      <c r="BO99">
+        <v>2.82</v>
+      </c>
+      <c r="BP99">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7476647</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F100">
+        <v>9</v>
+      </c>
+      <c r="G100" t="s">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s">
+        <v>78</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>3</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>6</v>
+      </c>
+      <c r="O100" t="s">
+        <v>166</v>
+      </c>
+      <c r="P100" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q100">
+        <v>4.5</v>
+      </c>
+      <c r="R100">
+        <v>2.1</v>
+      </c>
+      <c r="S100">
+        <v>2.6</v>
+      </c>
+      <c r="T100">
+        <v>1.4</v>
+      </c>
+      <c r="U100">
+        <v>2.75</v>
+      </c>
+      <c r="V100">
+        <v>3</v>
+      </c>
+      <c r="W100">
+        <v>1.36</v>
+      </c>
+      <c r="X100">
+        <v>8</v>
+      </c>
+      <c r="Y100">
+        <v>1.08</v>
+      </c>
+      <c r="Z100">
+        <v>3.85</v>
+      </c>
+      <c r="AA100">
+        <v>3.65</v>
+      </c>
+      <c r="AB100">
+        <v>1.94</v>
+      </c>
+      <c r="AC100">
+        <v>1.06</v>
+      </c>
+      <c r="AD100">
+        <v>10</v>
+      </c>
+      <c r="AE100">
+        <v>1.3</v>
+      </c>
+      <c r="AF100">
+        <v>3</v>
+      </c>
+      <c r="AG100">
+        <v>2.01</v>
+      </c>
+      <c r="AH100">
+        <v>1.81</v>
+      </c>
+      <c r="AI100">
+        <v>1.83</v>
+      </c>
+      <c r="AJ100">
+        <v>1.83</v>
+      </c>
+      <c r="AK100">
+        <v>1.83</v>
+      </c>
+      <c r="AL100">
+        <v>1.26</v>
+      </c>
+      <c r="AM100">
+        <v>1.28</v>
+      </c>
+      <c r="AN100">
+        <v>1.5</v>
+      </c>
+      <c r="AO100">
+        <v>0.25</v>
+      </c>
+      <c r="AP100">
+        <v>1.2</v>
+      </c>
+      <c r="AQ100">
+        <v>0.8</v>
+      </c>
+      <c r="AR100">
+        <v>1.14</v>
+      </c>
+      <c r="AS100">
+        <v>1.31</v>
+      </c>
+      <c r="AT100">
+        <v>2.45</v>
+      </c>
+      <c r="AU100">
+        <v>-1</v>
+      </c>
+      <c r="AV100">
+        <v>-1</v>
+      </c>
+      <c r="AW100">
+        <v>-1</v>
+      </c>
+      <c r="AX100">
+        <v>-1</v>
+      </c>
+      <c r="AY100">
+        <v>-1</v>
+      </c>
+      <c r="AZ100">
+        <v>-1</v>
+      </c>
+      <c r="BA100">
+        <v>-1</v>
+      </c>
+      <c r="BB100">
+        <v>-1</v>
+      </c>
+      <c r="BC100">
+        <v>-1</v>
+      </c>
+      <c r="BD100">
+        <v>3.04</v>
+      </c>
+      <c r="BE100">
+        <v>6.75</v>
+      </c>
+      <c r="BF100">
+        <v>1.59</v>
+      </c>
+      <c r="BG100">
+        <v>1.21</v>
+      </c>
+      <c r="BH100">
+        <v>3.44</v>
+      </c>
+      <c r="BI100">
+        <v>1.42</v>
+      </c>
+      <c r="BJ100">
+        <v>2.49</v>
+      </c>
+      <c r="BK100">
+        <v>1.8</v>
+      </c>
+      <c r="BL100">
+        <v>1.91</v>
+      </c>
+      <c r="BM100">
+        <v>2.24</v>
+      </c>
+      <c r="BN100">
+        <v>1.52</v>
+      </c>
+      <c r="BO100">
+        <v>2.94</v>
+      </c>
+      <c r="BP100">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7476645</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F101">
+        <v>9</v>
+      </c>
+      <c r="G101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>167</v>
+      </c>
+      <c r="P101" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q101">
+        <v>2.5</v>
+      </c>
+      <c r="R101">
+        <v>2.2</v>
+      </c>
+      <c r="S101">
+        <v>4.5</v>
+      </c>
+      <c r="T101">
+        <v>1.4</v>
+      </c>
+      <c r="U101">
+        <v>2.75</v>
+      </c>
+      <c r="V101">
+        <v>3</v>
+      </c>
+      <c r="W101">
+        <v>1.36</v>
+      </c>
+      <c r="X101">
+        <v>8</v>
+      </c>
+      <c r="Y101">
+        <v>1.08</v>
+      </c>
+      <c r="Z101">
+        <v>1.85</v>
+      </c>
+      <c r="AA101">
+        <v>3.65</v>
+      </c>
+      <c r="AB101">
+        <v>4.3</v>
+      </c>
+      <c r="AC101">
+        <v>1.06</v>
+      </c>
+      <c r="AD101">
+        <v>10</v>
+      </c>
+      <c r="AE101">
+        <v>1.28</v>
+      </c>
+      <c r="AF101">
+        <v>3.25</v>
+      </c>
+      <c r="AG101">
+        <v>1.96</v>
+      </c>
+      <c r="AH101">
+        <v>1.86</v>
+      </c>
+      <c r="AI101">
+        <v>1.83</v>
+      </c>
+      <c r="AJ101">
+        <v>1.83</v>
+      </c>
+      <c r="AK101">
+        <v>1.22</v>
+      </c>
+      <c r="AL101">
+        <v>1.26</v>
+      </c>
+      <c r="AM101">
+        <v>1.93</v>
+      </c>
+      <c r="AN101">
+        <v>2.25</v>
+      </c>
+      <c r="AO101">
+        <v>1.5</v>
+      </c>
+      <c r="AP101">
+        <v>2.4</v>
+      </c>
+      <c r="AQ101">
+        <v>1.2</v>
+      </c>
+      <c r="AR101">
+        <v>1</v>
+      </c>
+      <c r="AS101">
+        <v>1.09</v>
+      </c>
+      <c r="AT101">
+        <v>2.09</v>
+      </c>
+      <c r="AU101">
+        <v>-1</v>
+      </c>
+      <c r="AV101">
+        <v>-1</v>
+      </c>
+      <c r="AW101">
+        <v>-1</v>
+      </c>
+      <c r="AX101">
+        <v>-1</v>
+      </c>
+      <c r="AY101">
+        <v>-1</v>
+      </c>
+      <c r="AZ101">
+        <v>-1</v>
+      </c>
+      <c r="BA101">
+        <v>-1</v>
+      </c>
+      <c r="BB101">
+        <v>-1</v>
+      </c>
+      <c r="BC101">
+        <v>-1</v>
+      </c>
+      <c r="BD101">
+        <v>1.61</v>
+      </c>
+      <c r="BE101">
+        <v>6.75</v>
+      </c>
+      <c r="BF101">
+        <v>3.06</v>
+      </c>
+      <c r="BG101">
+        <v>1.19</v>
+      </c>
+      <c r="BH101">
+        <v>3.62</v>
+      </c>
+      <c r="BI101">
+        <v>1.4</v>
+      </c>
+      <c r="BJ101">
+        <v>2.56</v>
+      </c>
+      <c r="BK101">
+        <v>1.74</v>
+      </c>
+      <c r="BL101">
+        <v>1.98</v>
+      </c>
+      <c r="BM101">
+        <v>2.15</v>
+      </c>
+      <c r="BN101">
+        <v>1.56</v>
+      </c>
+      <c r="BO101">
+        <v>2.82</v>
+      </c>
+      <c r="BP101">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7476644</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F102">
+        <v>9</v>
+      </c>
+      <c r="G102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" t="s">
+        <v>84</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>168</v>
+      </c>
+      <c r="P102" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q102">
+        <v>2.88</v>
+      </c>
+      <c r="R102">
+        <v>2.25</v>
+      </c>
+      <c r="S102">
+        <v>3.5</v>
+      </c>
+      <c r="T102">
+        <v>1.36</v>
+      </c>
+      <c r="U102">
+        <v>3</v>
+      </c>
+      <c r="V102">
+        <v>2.63</v>
+      </c>
+      <c r="W102">
+        <v>1.44</v>
+      </c>
+      <c r="X102">
+        <v>7</v>
+      </c>
+      <c r="Y102">
+        <v>1.1</v>
+      </c>
+      <c r="Z102">
+        <v>2.1</v>
+      </c>
+      <c r="AA102">
+        <v>3.1</v>
+      </c>
+      <c r="AB102">
+        <v>2.9</v>
+      </c>
+      <c r="AC102">
+        <v>1.02</v>
+      </c>
+      <c r="AD102">
+        <v>10</v>
+      </c>
+      <c r="AE102">
+        <v>1.22</v>
+      </c>
+      <c r="AF102">
+        <v>3.8</v>
+      </c>
+      <c r="AG102">
+        <v>1.81</v>
+      </c>
+      <c r="AH102">
+        <v>2.01</v>
+      </c>
+      <c r="AI102">
+        <v>1.62</v>
+      </c>
+      <c r="AJ102">
+        <v>2.2</v>
+      </c>
+      <c r="AK102">
+        <v>1.3</v>
+      </c>
+      <c r="AL102">
+        <v>1.27</v>
+      </c>
+      <c r="AM102">
+        <v>1.73</v>
+      </c>
+      <c r="AN102">
+        <v>1.5</v>
+      </c>
+      <c r="AO102">
+        <v>0</v>
+      </c>
+      <c r="AP102">
+        <v>1.8</v>
+      </c>
+      <c r="AQ102">
+        <v>0</v>
+      </c>
+      <c r="AR102">
+        <v>1.14</v>
+      </c>
+      <c r="AS102">
+        <v>1.28</v>
+      </c>
+      <c r="AT102">
+        <v>2.42</v>
+      </c>
+      <c r="AU102">
+        <v>-1</v>
+      </c>
+      <c r="AV102">
+        <v>-1</v>
+      </c>
+      <c r="AW102">
+        <v>-1</v>
+      </c>
+      <c r="AX102">
+        <v>-1</v>
+      </c>
+      <c r="AY102">
+        <v>-1</v>
+      </c>
+      <c r="AZ102">
+        <v>-1</v>
+      </c>
+      <c r="BA102">
+        <v>-1</v>
+      </c>
+      <c r="BB102">
+        <v>-1</v>
+      </c>
+      <c r="BC102">
+        <v>-1</v>
+      </c>
+      <c r="BD102">
+        <v>2.11</v>
+      </c>
+      <c r="BE102">
+        <v>6.35</v>
+      </c>
+      <c r="BF102">
+        <v>2.11</v>
+      </c>
+      <c r="BG102">
+        <v>1.21</v>
+      </c>
+      <c r="BH102">
+        <v>3.44</v>
+      </c>
+      <c r="BI102">
+        <v>1.43</v>
+      </c>
+      <c r="BJ102">
+        <v>2.46</v>
+      </c>
+      <c r="BK102">
+        <v>1.77</v>
+      </c>
+      <c r="BL102">
+        <v>1.95</v>
+      </c>
+      <c r="BM102">
+        <v>2.24</v>
+      </c>
+      <c r="BN102">
+        <v>1.52</v>
+      </c>
+      <c r="BO102">
+        <v>2.94</v>
+      </c>
+      <c r="BP102">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7476643</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F103">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>82</v>
+      </c>
+      <c r="H103" t="s">
+        <v>93</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>101</v>
+      </c>
+      <c r="P103" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q103">
+        <v>3</v>
+      </c>
+      <c r="R103">
+        <v>2.3</v>
+      </c>
+      <c r="S103">
+        <v>3.1</v>
+      </c>
+      <c r="T103">
+        <v>1.3</v>
+      </c>
+      <c r="U103">
+        <v>3.4</v>
+      </c>
+      <c r="V103">
+        <v>2.5</v>
+      </c>
+      <c r="W103">
+        <v>1.5</v>
+      </c>
+      <c r="X103">
+        <v>6</v>
+      </c>
+      <c r="Y103">
+        <v>1.13</v>
+      </c>
+      <c r="Z103">
+        <v>2.45</v>
+      </c>
+      <c r="AA103">
+        <v>3.3</v>
+      </c>
+      <c r="AB103">
+        <v>2.35</v>
+      </c>
+      <c r="AC103">
+        <v>1.03</v>
+      </c>
+      <c r="AD103">
+        <v>15</v>
+      </c>
+      <c r="AE103">
+        <v>1.17</v>
+      </c>
+      <c r="AF103">
+        <v>4.25</v>
+      </c>
+      <c r="AG103">
+        <v>1.57</v>
+      </c>
+      <c r="AH103">
+        <v>2.25</v>
+      </c>
+      <c r="AI103">
+        <v>1.53</v>
+      </c>
+      <c r="AJ103">
+        <v>2.38</v>
+      </c>
+      <c r="AK103">
+        <v>1.52</v>
+      </c>
+      <c r="AL103">
+        <v>1.26</v>
+      </c>
+      <c r="AM103">
         <v>1.47</v>
       </c>
-      <c r="BE90">
+      <c r="AN103">
+        <v>0.75</v>
+      </c>
+      <c r="AO103">
+        <v>2</v>
+      </c>
+      <c r="AP103">
+        <v>0.6</v>
+      </c>
+      <c r="AQ103">
+        <v>2.2</v>
+      </c>
+      <c r="AR103">
+        <v>1.32</v>
+      </c>
+      <c r="AS103">
+        <v>1.21</v>
+      </c>
+      <c r="AT103">
+        <v>2.53</v>
+      </c>
+      <c r="AU103">
+        <v>-1</v>
+      </c>
+      <c r="AV103">
+        <v>-1</v>
+      </c>
+      <c r="AW103">
+        <v>-1</v>
+      </c>
+      <c r="AX103">
+        <v>-1</v>
+      </c>
+      <c r="AY103">
+        <v>-1</v>
+      </c>
+      <c r="AZ103">
+        <v>-1</v>
+      </c>
+      <c r="BA103">
+        <v>-1</v>
+      </c>
+      <c r="BB103">
+        <v>-1</v>
+      </c>
+      <c r="BC103">
+        <v>-1</v>
+      </c>
+      <c r="BD103">
+        <v>1.87</v>
+      </c>
+      <c r="BE103">
+        <v>6.6</v>
+      </c>
+      <c r="BF103">
+        <v>2.44</v>
+      </c>
+      <c r="BG103">
+        <v>1.19</v>
+      </c>
+      <c r="BH103">
+        <v>4.2</v>
+      </c>
+      <c r="BI103">
+        <v>1.3</v>
+      </c>
+      <c r="BJ103">
+        <v>2.88</v>
+      </c>
+      <c r="BK103">
+        <v>1.57</v>
+      </c>
+      <c r="BL103">
+        <v>2.14</v>
+      </c>
+      <c r="BM103">
+        <v>1.95</v>
+      </c>
+      <c r="BN103">
+        <v>1.77</v>
+      </c>
+      <c r="BO103">
+        <v>2.52</v>
+      </c>
+      <c r="BP103">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7476642</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F104">
+        <v>9</v>
+      </c>
+      <c r="G104" t="s">
+        <v>83</v>
+      </c>
+      <c r="H104" t="s">
+        <v>70</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104" t="s">
+        <v>169</v>
+      </c>
+      <c r="P104" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q104">
+        <v>4</v>
+      </c>
+      <c r="R104">
+        <v>2.1</v>
+      </c>
+      <c r="S104">
+        <v>2.75</v>
+      </c>
+      <c r="T104">
+        <v>1.4</v>
+      </c>
+      <c r="U104">
+        <v>2.75</v>
+      </c>
+      <c r="V104">
+        <v>3</v>
+      </c>
+      <c r="W104">
+        <v>1.36</v>
+      </c>
+      <c r="X104">
+        <v>8</v>
+      </c>
+      <c r="Y104">
+        <v>1.08</v>
+      </c>
+      <c r="Z104">
+        <v>3.45</v>
+      </c>
+      <c r="AA104">
+        <v>3.45</v>
+      </c>
+      <c r="AB104">
+        <v>2.12</v>
+      </c>
+      <c r="AC104">
+        <v>1.06</v>
+      </c>
+      <c r="AD104">
+        <v>10</v>
+      </c>
+      <c r="AE104">
+        <v>1.28</v>
+      </c>
+      <c r="AF104">
+        <v>3.25</v>
+      </c>
+      <c r="AG104">
+        <v>1.96</v>
+      </c>
+      <c r="AH104">
+        <v>1.86</v>
+      </c>
+      <c r="AI104">
+        <v>1.73</v>
+      </c>
+      <c r="AJ104">
+        <v>2</v>
+      </c>
+      <c r="AK104">
+        <v>1.72</v>
+      </c>
+      <c r="AL104">
+        <v>1.27</v>
+      </c>
+      <c r="AM104">
+        <v>1.31</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
+        <v>1.5</v>
+      </c>
+      <c r="AP104">
+        <v>1</v>
+      </c>
+      <c r="AQ104">
+        <v>1.4</v>
+      </c>
+      <c r="AR104">
+        <v>1.27</v>
+      </c>
+      <c r="AS104">
+        <v>1.32</v>
+      </c>
+      <c r="AT104">
+        <v>2.59</v>
+      </c>
+      <c r="AU104">
+        <v>-1</v>
+      </c>
+      <c r="AV104">
+        <v>-1</v>
+      </c>
+      <c r="AW104">
+        <v>-1</v>
+      </c>
+      <c r="AX104">
+        <v>-1</v>
+      </c>
+      <c r="AY104">
+        <v>-1</v>
+      </c>
+      <c r="AZ104">
+        <v>-1</v>
+      </c>
+      <c r="BA104">
+        <v>-1</v>
+      </c>
+      <c r="BB104">
+        <v>-1</v>
+      </c>
+      <c r="BC104">
+        <v>-1</v>
+      </c>
+      <c r="BD104">
+        <v>3.07</v>
+      </c>
+      <c r="BE104">
+        <v>6.9</v>
+      </c>
+      <c r="BF104">
+        <v>1.6</v>
+      </c>
+      <c r="BG104">
+        <v>1.2</v>
+      </c>
+      <c r="BH104">
+        <v>4</v>
+      </c>
+      <c r="BI104">
+        <v>1.33</v>
+      </c>
+      <c r="BJ104">
+        <v>2.73</v>
+      </c>
+      <c r="BK104">
+        <v>1.61</v>
+      </c>
+      <c r="BL104">
+        <v>2.07</v>
+      </c>
+      <c r="BM104">
+        <v>2.06</v>
+      </c>
+      <c r="BN104">
+        <v>1.68</v>
+      </c>
+      <c r="BO104">
+        <v>2.62</v>
+      </c>
+      <c r="BP104">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7476646</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F105">
+        <v>9</v>
+      </c>
+      <c r="G105" t="s">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s">
+        <v>87</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>101</v>
+      </c>
+      <c r="P105" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q105">
+        <v>2.6</v>
+      </c>
+      <c r="R105">
+        <v>2.1</v>
+      </c>
+      <c r="S105">
+        <v>4.5</v>
+      </c>
+      <c r="T105">
+        <v>1.44</v>
+      </c>
+      <c r="U105">
+        <v>2.63</v>
+      </c>
+      <c r="V105">
+        <v>3</v>
+      </c>
+      <c r="W105">
+        <v>1.36</v>
+      </c>
+      <c r="X105">
+        <v>9</v>
+      </c>
+      <c r="Y105">
+        <v>1.07</v>
+      </c>
+      <c r="Z105">
+        <v>1.93</v>
+      </c>
+      <c r="AA105">
+        <v>3.45</v>
+      </c>
+      <c r="AB105">
+        <v>4.1</v>
+      </c>
+      <c r="AC105">
+        <v>1.05</v>
+      </c>
+      <c r="AD105">
+        <v>8</v>
+      </c>
+      <c r="AE105">
+        <v>1.29</v>
+      </c>
+      <c r="AF105">
+        <v>3.3</v>
+      </c>
+      <c r="AG105">
+        <v>1.95</v>
+      </c>
+      <c r="AH105">
+        <v>1.75</v>
+      </c>
+      <c r="AI105">
+        <v>1.83</v>
+      </c>
+      <c r="AJ105">
+        <v>1.83</v>
+      </c>
+      <c r="AK105">
+        <v>1.26</v>
+      </c>
+      <c r="AL105">
+        <v>1.28</v>
+      </c>
+      <c r="AM105">
+        <v>1.79</v>
+      </c>
+      <c r="AN105">
+        <v>3</v>
+      </c>
+      <c r="AO105">
+        <v>0.75</v>
+      </c>
+      <c r="AP105">
+        <v>2.4</v>
+      </c>
+      <c r="AQ105">
+        <v>1.2</v>
+      </c>
+      <c r="AR105">
+        <v>1.31</v>
+      </c>
+      <c r="AS105">
+        <v>1.25</v>
+      </c>
+      <c r="AT105">
+        <v>2.56</v>
+      </c>
+      <c r="AU105">
+        <v>-1</v>
+      </c>
+      <c r="AV105">
+        <v>-1</v>
+      </c>
+      <c r="AW105">
+        <v>-1</v>
+      </c>
+      <c r="AX105">
+        <v>-1</v>
+      </c>
+      <c r="AY105">
+        <v>-1</v>
+      </c>
+      <c r="AZ105">
+        <v>-1</v>
+      </c>
+      <c r="BA105">
+        <v>-1</v>
+      </c>
+      <c r="BB105">
+        <v>-1</v>
+      </c>
+      <c r="BC105">
+        <v>-1</v>
+      </c>
+      <c r="BD105">
+        <v>1.47</v>
+      </c>
+      <c r="BE105">
         <v>7.3</v>
       </c>
-      <c r="BF90">
+      <c r="BF105">
         <v>3.6</v>
       </c>
-      <c r="BG90">
+      <c r="BG105">
         <v>1.18</v>
       </c>
-      <c r="BH90">
+      <c r="BH105">
         <v>4.3</v>
       </c>
-      <c r="BI90">
+      <c r="BI105">
         <v>1.29</v>
       </c>
-      <c r="BJ90">
+      <c r="BJ105">
         <v>2.92</v>
       </c>
-      <c r="BK90">
+      <c r="BK105">
         <v>1.55</v>
       </c>
-      <c r="BL90">
+      <c r="BL105">
         <v>2.17</v>
       </c>
-      <c r="BM90">
+      <c r="BM105">
         <v>1.96</v>
       </c>
-      <c r="BN90">
+      <c r="BN105">
         <v>1.75</v>
       </c>
-      <c r="BO90">
+      <c r="BO105">
         <v>2.49</v>
       </c>
-      <c r="BP90">
+      <c r="BP105">
         <v>1.42</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,21 @@
     <t>['14', '50']</t>
   </si>
   <si>
+    <t>['45+1', '67']</t>
+  </si>
+  <si>
+    <t>['17', '60']</t>
+  </si>
+  <si>
+    <t>['47', '86']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['36', '45+1']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -692,6 +707,18 @@
   </si>
   <si>
     <t>['19', '37']</t>
+  </si>
+  <si>
+    <t>['2', '10', '44']</t>
+  </si>
+  <si>
+    <t>['33', '46']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1339,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1390,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
         <v>0.8</v>
@@ -1518,7 +1545,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1802,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1930,7 +1957,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2136,7 +2163,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2420,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.2</v>
@@ -2548,7 +2575,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2629,7 +2656,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2754,7 +2781,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2960,7 +2987,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3038,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10">
         <v>0.8</v>
@@ -3166,7 +3193,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3244,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3659,7 +3686,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ13">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4071,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4196,7 +4223,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4274,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4480,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
         <v>0.8</v>
@@ -4608,7 +4635,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4686,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1.4</v>
@@ -4814,7 +4841,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4892,10 +4919,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5020,7 +5047,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5101,7 +5128,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ20">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5307,7 +5334,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5638,7 +5665,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5716,10 +5743,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6050,7 +6077,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6128,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6256,7 +6283,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6334,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
         <v>1.2</v>
@@ -6543,7 +6570,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR27">
         <v>0.86</v>
@@ -6746,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0.8</v>
@@ -6955,7 +6982,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7080,7 +7107,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7364,10 +7391,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7570,10 +7597,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
         <v>1.62</v>
@@ -7698,7 +7725,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7776,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
         <v>0.75</v>
@@ -7904,7 +7931,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -7982,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8110,7 +8137,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8191,7 +8218,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.55</v>
@@ -8316,7 +8343,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8600,10 +8627,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.13</v>
@@ -8728,7 +8755,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8809,7 +8836,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9140,7 +9167,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9218,7 +9245,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ40">
         <v>2.2</v>
@@ -9346,7 +9373,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9552,7 +9579,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9758,7 +9785,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9839,7 +9866,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ43">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR43">
         <v>0.97</v>
@@ -9964,7 +9991,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10170,7 +10197,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10376,7 +10403,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10454,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
         <v>0.6</v>
@@ -10788,7 +10815,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -10866,7 +10893,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ48">
         <v>0.8</v>
@@ -11072,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
         <v>0.8</v>
@@ -11278,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
         <v>0</v>
@@ -11406,7 +11433,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -11487,7 +11514,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>0.78</v>
@@ -11690,10 +11717,10 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.63</v>
@@ -11818,7 +11845,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -11899,7 +11926,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR53">
         <v>1.74</v>
@@ -12105,7 +12132,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR54">
         <v>1.21</v>
@@ -12308,7 +12335,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12436,7 +12463,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12514,7 +12541,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ56">
         <v>1.2</v>
@@ -12848,7 +12875,7 @@
         <v>103</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12926,7 +12953,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ58">
         <v>0.8</v>
@@ -13132,10 +13159,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR59">
         <v>1</v>
@@ -13341,7 +13368,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13750,7 +13777,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ62">
         <v>0.75</v>
@@ -13878,7 +13905,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14084,7 +14111,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14290,7 +14317,7 @@
         <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14368,10 +14395,10 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ65">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR65">
         <v>1.34</v>
@@ -14908,7 +14935,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14986,7 +15013,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
         <v>1.5</v>
@@ -15114,7 +15141,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15320,7 +15347,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15398,7 +15425,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ70">
         <v>1.2</v>
@@ -15526,7 +15553,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15732,7 +15759,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15810,10 +15837,10 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ72">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -15938,7 +15965,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16016,10 +16043,10 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR73">
         <v>1.28</v>
@@ -16144,7 +16171,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16222,10 +16249,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ74">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR74">
         <v>1.78</v>
@@ -16428,7 +16455,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ75">
         <v>0.75</v>
@@ -16637,7 +16664,7 @@
         <v>2</v>
       </c>
       <c r="AQ76">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.6</v>
@@ -16840,7 +16867,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17046,7 +17073,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17252,7 +17279,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17380,7 +17407,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17458,10 +17485,10 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR80">
         <v>1.48</v>
@@ -17586,7 +17613,7 @@
         <v>101</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>3.4</v>
@@ -17664,10 +17691,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR81">
         <v>1.26</v>
@@ -17792,7 +17819,7 @@
         <v>101</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -17870,10 +17897,10 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ82">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR82">
         <v>1.69</v>
@@ -17998,7 +18025,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18076,10 +18103,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR83">
         <v>1.21</v>
@@ -18822,7 +18849,7 @@
         <v>122</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19028,7 +19055,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
@@ -19234,7 +19261,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19440,7 +19467,7 @@
         <v>158</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19646,7 +19673,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -19852,7 +19879,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20470,7 +20497,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20676,7 +20703,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20882,7 +20909,7 @@
         <v>163</v>
       </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>2.75</v>
@@ -21088,7 +21115,7 @@
         <v>164</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21500,7 +21527,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21912,7 +21939,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22118,7 +22145,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22324,7 +22351,7 @@
         <v>169</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22687,6 +22714,2272 @@
       </c>
       <c r="BP105">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7476660</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>87</v>
+      </c>
+      <c r="H106" t="s">
+        <v>74</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106">
+        <v>3</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>101</v>
+      </c>
+      <c r="P106" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q106">
+        <v>3.6</v>
+      </c>
+      <c r="R106">
+        <v>2.25</v>
+      </c>
+      <c r="S106">
+        <v>2.88</v>
+      </c>
+      <c r="T106">
+        <v>1.36</v>
+      </c>
+      <c r="U106">
+        <v>3</v>
+      </c>
+      <c r="V106">
+        <v>2.63</v>
+      </c>
+      <c r="W106">
+        <v>1.44</v>
+      </c>
+      <c r="X106">
+        <v>7</v>
+      </c>
+      <c r="Y106">
+        <v>1.1</v>
+      </c>
+      <c r="Z106">
+        <v>3.1</v>
+      </c>
+      <c r="AA106">
+        <v>3.4</v>
+      </c>
+      <c r="AB106">
+        <v>2.3</v>
+      </c>
+      <c r="AC106">
+        <v>1.04</v>
+      </c>
+      <c r="AD106">
+        <v>10</v>
+      </c>
+      <c r="AE106">
+        <v>1.25</v>
+      </c>
+      <c r="AF106">
+        <v>3.8</v>
+      </c>
+      <c r="AG106">
+        <v>1.79</v>
+      </c>
+      <c r="AH106">
+        <v>1.99</v>
+      </c>
+      <c r="AI106">
+        <v>1.67</v>
+      </c>
+      <c r="AJ106">
+        <v>2.1</v>
+      </c>
+      <c r="AK106">
+        <v>1.65</v>
+      </c>
+      <c r="AL106">
+        <v>1.22</v>
+      </c>
+      <c r="AM106">
+        <v>1.36</v>
+      </c>
+      <c r="AN106">
+        <v>2.25</v>
+      </c>
+      <c r="AO106">
+        <v>1</v>
+      </c>
+      <c r="AP106">
+        <v>1.8</v>
+      </c>
+      <c r="AQ106">
+        <v>1.4</v>
+      </c>
+      <c r="AR106">
+        <v>1.16</v>
+      </c>
+      <c r="AS106">
+        <v>1.59</v>
+      </c>
+      <c r="AT106">
+        <v>2.75</v>
+      </c>
+      <c r="AU106">
+        <v>-1</v>
+      </c>
+      <c r="AV106">
+        <v>-1</v>
+      </c>
+      <c r="AW106">
+        <v>-1</v>
+      </c>
+      <c r="AX106">
+        <v>-1</v>
+      </c>
+      <c r="AY106">
+        <v>-1</v>
+      </c>
+      <c r="AZ106">
+        <v>-1</v>
+      </c>
+      <c r="BA106">
+        <v>-1</v>
+      </c>
+      <c r="BB106">
+        <v>-1</v>
+      </c>
+      <c r="BC106">
+        <v>-1</v>
+      </c>
+      <c r="BD106">
+        <v>2.1</v>
+      </c>
+      <c r="BE106">
+        <v>8.5</v>
+      </c>
+      <c r="BF106">
+        <v>1.91</v>
+      </c>
+      <c r="BG106">
+        <v>1.17</v>
+      </c>
+      <c r="BH106">
+        <v>4.5</v>
+      </c>
+      <c r="BI106">
+        <v>1.27</v>
+      </c>
+      <c r="BJ106">
+        <v>3.04</v>
+      </c>
+      <c r="BK106">
+        <v>1.52</v>
+      </c>
+      <c r="BL106">
+        <v>2.24</v>
+      </c>
+      <c r="BM106">
+        <v>1.95</v>
+      </c>
+      <c r="BN106">
+        <v>1.85</v>
+      </c>
+      <c r="BO106">
+        <v>2.41</v>
+      </c>
+      <c r="BP106">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7476659</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H107" t="s">
+        <v>83</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" t="s">
+        <v>101</v>
+      </c>
+      <c r="P107" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q107">
+        <v>2.5</v>
+      </c>
+      <c r="R107">
+        <v>2.25</v>
+      </c>
+      <c r="S107">
+        <v>4</v>
+      </c>
+      <c r="T107">
+        <v>1.36</v>
+      </c>
+      <c r="U107">
+        <v>3</v>
+      </c>
+      <c r="V107">
+        <v>2.63</v>
+      </c>
+      <c r="W107">
+        <v>1.44</v>
+      </c>
+      <c r="X107">
+        <v>7</v>
+      </c>
+      <c r="Y107">
+        <v>1.1</v>
+      </c>
+      <c r="Z107">
+        <v>1.8</v>
+      </c>
+      <c r="AA107">
+        <v>3.8</v>
+      </c>
+      <c r="AB107">
+        <v>4.33</v>
+      </c>
+      <c r="AC107">
+        <v>1.02</v>
+      </c>
+      <c r="AD107">
+        <v>10</v>
+      </c>
+      <c r="AE107">
+        <v>1.21</v>
+      </c>
+      <c r="AF107">
+        <v>3.44</v>
+      </c>
+      <c r="AG107">
+        <v>1.79</v>
+      </c>
+      <c r="AH107">
+        <v>1.99</v>
+      </c>
+      <c r="AI107">
+        <v>1.67</v>
+      </c>
+      <c r="AJ107">
+        <v>2.1</v>
+      </c>
+      <c r="AK107">
+        <v>1.27</v>
+      </c>
+      <c r="AL107">
+        <v>1.27</v>
+      </c>
+      <c r="AM107">
+        <v>1.81</v>
+      </c>
+      <c r="AN107">
+        <v>1.67</v>
+      </c>
+      <c r="AO107">
+        <v>1</v>
+      </c>
+      <c r="AP107">
+        <v>1.5</v>
+      </c>
+      <c r="AQ107">
+        <v>1</v>
+      </c>
+      <c r="AR107">
+        <v>1.69</v>
+      </c>
+      <c r="AS107">
+        <v>1.24</v>
+      </c>
+      <c r="AT107">
+        <v>2.93</v>
+      </c>
+      <c r="AU107">
+        <v>-1</v>
+      </c>
+      <c r="AV107">
+        <v>-1</v>
+      </c>
+      <c r="AW107">
+        <v>-1</v>
+      </c>
+      <c r="AX107">
+        <v>-1</v>
+      </c>
+      <c r="AY107">
+        <v>-1</v>
+      </c>
+      <c r="AZ107">
+        <v>-1</v>
+      </c>
+      <c r="BA107">
+        <v>-1</v>
+      </c>
+      <c r="BB107">
+        <v>-1</v>
+      </c>
+      <c r="BC107">
+        <v>-1</v>
+      </c>
+      <c r="BD107">
+        <v>1.45</v>
+      </c>
+      <c r="BE107">
+        <v>8</v>
+      </c>
+      <c r="BF107">
+        <v>3.56</v>
+      </c>
+      <c r="BG107">
+        <v>1.15</v>
+      </c>
+      <c r="BH107">
+        <v>4.7</v>
+      </c>
+      <c r="BI107">
+        <v>1.23</v>
+      </c>
+      <c r="BJ107">
+        <v>3.28</v>
+      </c>
+      <c r="BK107">
+        <v>1.45</v>
+      </c>
+      <c r="BL107">
+        <v>2.41</v>
+      </c>
+      <c r="BM107">
+        <v>1.85</v>
+      </c>
+      <c r="BN107">
+        <v>1.95</v>
+      </c>
+      <c r="BO107">
+        <v>2.24</v>
+      </c>
+      <c r="BP107">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7476656</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>70</v>
+      </c>
+      <c r="H108" t="s">
+        <v>81</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+      <c r="O108" t="s">
+        <v>170</v>
+      </c>
+      <c r="P108" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q108">
+        <v>2.6</v>
+      </c>
+      <c r="R108">
+        <v>2.1</v>
+      </c>
+      <c r="S108">
+        <v>4.5</v>
+      </c>
+      <c r="T108">
+        <v>1.44</v>
+      </c>
+      <c r="U108">
+        <v>2.63</v>
+      </c>
+      <c r="V108">
+        <v>3</v>
+      </c>
+      <c r="W108">
+        <v>1.36</v>
+      </c>
+      <c r="X108">
+        <v>9</v>
+      </c>
+      <c r="Y108">
+        <v>1.07</v>
+      </c>
+      <c r="Z108">
+        <v>2.05</v>
+      </c>
+      <c r="AA108">
+        <v>3.4</v>
+      </c>
+      <c r="AB108">
+        <v>3.6</v>
+      </c>
+      <c r="AC108">
+        <v>1.05</v>
+      </c>
+      <c r="AD108">
+        <v>9</v>
+      </c>
+      <c r="AE108">
+        <v>1.33</v>
+      </c>
+      <c r="AF108">
+        <v>3.2</v>
+      </c>
+      <c r="AG108">
+        <v>1.83</v>
+      </c>
+      <c r="AH108">
+        <v>1.91</v>
+      </c>
+      <c r="AI108">
+        <v>1.83</v>
+      </c>
+      <c r="AJ108">
+        <v>1.83</v>
+      </c>
+      <c r="AK108">
+        <v>1.25</v>
+      </c>
+      <c r="AL108">
+        <v>1.28</v>
+      </c>
+      <c r="AM108">
+        <v>1.81</v>
+      </c>
+      <c r="AN108">
+        <v>1.5</v>
+      </c>
+      <c r="AO108">
+        <v>1.5</v>
+      </c>
+      <c r="AP108">
+        <v>1.4</v>
+      </c>
+      <c r="AQ108">
+        <v>1.4</v>
+      </c>
+      <c r="AR108">
+        <v>1.34</v>
+      </c>
+      <c r="AS108">
+        <v>1.2</v>
+      </c>
+      <c r="AT108">
+        <v>2.54</v>
+      </c>
+      <c r="AU108">
+        <v>3</v>
+      </c>
+      <c r="AV108">
+        <v>6</v>
+      </c>
+      <c r="AW108">
+        <v>3</v>
+      </c>
+      <c r="AX108">
+        <v>8</v>
+      </c>
+      <c r="AY108">
+        <v>12</v>
+      </c>
+      <c r="AZ108">
+        <v>19</v>
+      </c>
+      <c r="BA108">
+        <v>1</v>
+      </c>
+      <c r="BB108">
+        <v>7</v>
+      </c>
+      <c r="BC108">
+        <v>8</v>
+      </c>
+      <c r="BD108">
+        <v>1.64</v>
+      </c>
+      <c r="BE108">
+        <v>8.5</v>
+      </c>
+      <c r="BF108">
+        <v>2.66</v>
+      </c>
+      <c r="BG108">
+        <v>1.17</v>
+      </c>
+      <c r="BH108">
+        <v>3.82</v>
+      </c>
+      <c r="BI108">
+        <v>1.36</v>
+      </c>
+      <c r="BJ108">
+        <v>2.7</v>
+      </c>
+      <c r="BK108">
+        <v>1.7</v>
+      </c>
+      <c r="BL108">
+        <v>2.05</v>
+      </c>
+      <c r="BM108">
+        <v>2.07</v>
+      </c>
+      <c r="BN108">
+        <v>1.61</v>
+      </c>
+      <c r="BO108">
+        <v>2.69</v>
+      </c>
+      <c r="BP108">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7476657</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>85</v>
+      </c>
+      <c r="H109" t="s">
+        <v>82</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109" t="s">
+        <v>101</v>
+      </c>
+      <c r="P109" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q109">
+        <v>2.88</v>
+      </c>
+      <c r="R109">
+        <v>2.25</v>
+      </c>
+      <c r="S109">
+        <v>3.5</v>
+      </c>
+      <c r="T109">
+        <v>1.33</v>
+      </c>
+      <c r="U109">
+        <v>3.25</v>
+      </c>
+      <c r="V109">
+        <v>2.63</v>
+      </c>
+      <c r="W109">
+        <v>1.44</v>
+      </c>
+      <c r="X109">
+        <v>7</v>
+      </c>
+      <c r="Y109">
+        <v>1.1</v>
+      </c>
+      <c r="Z109">
+        <v>2.15</v>
+      </c>
+      <c r="AA109">
+        <v>3.4</v>
+      </c>
+      <c r="AB109">
+        <v>3.4</v>
+      </c>
+      <c r="AC109">
+        <v>1.05</v>
+      </c>
+      <c r="AD109">
+        <v>9.5</v>
+      </c>
+      <c r="AE109">
+        <v>1.25</v>
+      </c>
+      <c r="AF109">
+        <v>3.85</v>
+      </c>
+      <c r="AG109">
+        <v>1.85</v>
+      </c>
+      <c r="AH109">
+        <v>1.89</v>
+      </c>
+      <c r="AI109">
+        <v>1.62</v>
+      </c>
+      <c r="AJ109">
+        <v>2.2</v>
+      </c>
+      <c r="AK109">
+        <v>1.36</v>
+      </c>
+      <c r="AL109">
+        <v>1.25</v>
+      </c>
+      <c r="AM109">
+        <v>1.65</v>
+      </c>
+      <c r="AN109">
+        <v>1.75</v>
+      </c>
+      <c r="AO109">
+        <v>0.75</v>
+      </c>
+      <c r="AP109">
+        <v>1.6</v>
+      </c>
+      <c r="AQ109">
+        <v>0.8</v>
+      </c>
+      <c r="AR109">
+        <v>1.85</v>
+      </c>
+      <c r="AS109">
+        <v>1.27</v>
+      </c>
+      <c r="AT109">
+        <v>3.12</v>
+      </c>
+      <c r="AU109">
+        <v>5</v>
+      </c>
+      <c r="AV109">
+        <v>2</v>
+      </c>
+      <c r="AW109">
+        <v>7</v>
+      </c>
+      <c r="AX109">
+        <v>6</v>
+      </c>
+      <c r="AY109">
+        <v>15</v>
+      </c>
+      <c r="AZ109">
+        <v>11</v>
+      </c>
+      <c r="BA109">
+        <v>5</v>
+      </c>
+      <c r="BB109">
+        <v>7</v>
+      </c>
+      <c r="BC109">
+        <v>12</v>
+      </c>
+      <c r="BD109">
+        <v>1.69</v>
+      </c>
+      <c r="BE109">
+        <v>7.5</v>
+      </c>
+      <c r="BF109">
+        <v>2.64</v>
+      </c>
+      <c r="BG109">
+        <v>1.2</v>
+      </c>
+      <c r="BH109">
+        <v>3.54</v>
+      </c>
+      <c r="BI109">
+        <v>1.41</v>
+      </c>
+      <c r="BJ109">
+        <v>2.52</v>
+      </c>
+      <c r="BK109">
+        <v>1.8</v>
+      </c>
+      <c r="BL109">
+        <v>2</v>
+      </c>
+      <c r="BM109">
+        <v>2.21</v>
+      </c>
+      <c r="BN109">
+        <v>1.53</v>
+      </c>
+      <c r="BO109">
+        <v>2.88</v>
+      </c>
+      <c r="BP109">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7476658</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>86</v>
+      </c>
+      <c r="H110" t="s">
+        <v>76</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>171</v>
+      </c>
+      <c r="P110" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q110">
+        <v>3.25</v>
+      </c>
+      <c r="R110">
+        <v>2.05</v>
+      </c>
+      <c r="S110">
+        <v>3.4</v>
+      </c>
+      <c r="T110">
+        <v>1.44</v>
+      </c>
+      <c r="U110">
+        <v>2.63</v>
+      </c>
+      <c r="V110">
+        <v>3.25</v>
+      </c>
+      <c r="W110">
+        <v>1.33</v>
+      </c>
+      <c r="X110">
+        <v>10</v>
+      </c>
+      <c r="Y110">
+        <v>1.06</v>
+      </c>
+      <c r="Z110">
+        <v>2.5</v>
+      </c>
+      <c r="AA110">
+        <v>3.2</v>
+      </c>
+      <c r="AB110">
+        <v>2.9</v>
+      </c>
+      <c r="AC110">
+        <v>1.07</v>
+      </c>
+      <c r="AD110">
+        <v>8</v>
+      </c>
+      <c r="AE110">
+        <v>1.38</v>
+      </c>
+      <c r="AF110">
+        <v>3</v>
+      </c>
+      <c r="AG110">
+        <v>2.07</v>
+      </c>
+      <c r="AH110">
+        <v>1.68</v>
+      </c>
+      <c r="AI110">
+        <v>1.83</v>
+      </c>
+      <c r="AJ110">
+        <v>1.83</v>
+      </c>
+      <c r="AK110">
+        <v>1.45</v>
+      </c>
+      <c r="AL110">
+        <v>1.28</v>
+      </c>
+      <c r="AM110">
+        <v>1.45</v>
+      </c>
+      <c r="AN110">
+        <v>1.75</v>
+      </c>
+      <c r="AO110">
+        <v>1.75</v>
+      </c>
+      <c r="AP110">
+        <v>2</v>
+      </c>
+      <c r="AQ110">
+        <v>1.4</v>
+      </c>
+      <c r="AR110">
+        <v>1.19</v>
+      </c>
+      <c r="AS110">
+        <v>0.89</v>
+      </c>
+      <c r="AT110">
+        <v>2.08</v>
+      </c>
+      <c r="AU110">
+        <v>7</v>
+      </c>
+      <c r="AV110">
+        <v>2</v>
+      </c>
+      <c r="AW110">
+        <v>2</v>
+      </c>
+      <c r="AX110">
+        <v>9</v>
+      </c>
+      <c r="AY110">
+        <v>10</v>
+      </c>
+      <c r="AZ110">
+        <v>19</v>
+      </c>
+      <c r="BA110">
+        <v>3</v>
+      </c>
+      <c r="BB110">
+        <v>5</v>
+      </c>
+      <c r="BC110">
+        <v>8</v>
+      </c>
+      <c r="BD110">
+        <v>2</v>
+      </c>
+      <c r="BE110">
+        <v>8</v>
+      </c>
+      <c r="BF110">
+        <v>2</v>
+      </c>
+      <c r="BG110">
+        <v>1.22</v>
+      </c>
+      <c r="BH110">
+        <v>4.27</v>
+      </c>
+      <c r="BI110">
+        <v>1.32</v>
+      </c>
+      <c r="BJ110">
+        <v>3.1</v>
+      </c>
+      <c r="BK110">
+        <v>1.7</v>
+      </c>
+      <c r="BL110">
+        <v>2.05</v>
+      </c>
+      <c r="BM110">
+        <v>2.03</v>
+      </c>
+      <c r="BN110">
+        <v>1.7</v>
+      </c>
+      <c r="BO110">
+        <v>2.62</v>
+      </c>
+      <c r="BP110">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7476654</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>72</v>
+      </c>
+      <c r="H111" t="s">
+        <v>73</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>172</v>
+      </c>
+      <c r="P111" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q111">
+        <v>2.4</v>
+      </c>
+      <c r="R111">
+        <v>2.2</v>
+      </c>
+      <c r="S111">
+        <v>4.75</v>
+      </c>
+      <c r="T111">
+        <v>1.4</v>
+      </c>
+      <c r="U111">
+        <v>2.75</v>
+      </c>
+      <c r="V111">
+        <v>3</v>
+      </c>
+      <c r="W111">
+        <v>1.36</v>
+      </c>
+      <c r="X111">
+        <v>8</v>
+      </c>
+      <c r="Y111">
+        <v>1.08</v>
+      </c>
+      <c r="Z111">
+        <v>1.73</v>
+      </c>
+      <c r="AA111">
+        <v>3.6</v>
+      </c>
+      <c r="AB111">
+        <v>5</v>
+      </c>
+      <c r="AC111">
+        <v>1.05</v>
+      </c>
+      <c r="AD111">
+        <v>9.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.3</v>
+      </c>
+      <c r="AF111">
+        <v>3.35</v>
+      </c>
+      <c r="AG111">
+        <v>1.99</v>
+      </c>
+      <c r="AH111">
+        <v>1.79</v>
+      </c>
+      <c r="AI111">
+        <v>1.91</v>
+      </c>
+      <c r="AJ111">
+        <v>1.8</v>
+      </c>
+      <c r="AK111">
+        <v>1.22</v>
+      </c>
+      <c r="AL111">
+        <v>1.22</v>
+      </c>
+      <c r="AM111">
+        <v>1.95</v>
+      </c>
+      <c r="AN111">
+        <v>2.5</v>
+      </c>
+      <c r="AO111">
+        <v>0.25</v>
+      </c>
+      <c r="AP111">
+        <v>2.6</v>
+      </c>
+      <c r="AQ111">
+        <v>0.2</v>
+      </c>
+      <c r="AR111">
+        <v>1.49</v>
+      </c>
+      <c r="AS111">
+        <v>0.99</v>
+      </c>
+      <c r="AT111">
+        <v>2.48</v>
+      </c>
+      <c r="AU111">
+        <v>5</v>
+      </c>
+      <c r="AV111">
+        <v>6</v>
+      </c>
+      <c r="AW111">
+        <v>3</v>
+      </c>
+      <c r="AX111">
+        <v>2</v>
+      </c>
+      <c r="AY111">
+        <v>11</v>
+      </c>
+      <c r="AZ111">
+        <v>8</v>
+      </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>1</v>
+      </c>
+      <c r="BC111">
+        <v>1</v>
+      </c>
+      <c r="BD111">
+        <v>1.41</v>
+      </c>
+      <c r="BE111">
+        <v>9</v>
+      </c>
+      <c r="BF111">
+        <v>3.49</v>
+      </c>
+      <c r="BG111">
+        <v>1.2</v>
+      </c>
+      <c r="BH111">
+        <v>3.54</v>
+      </c>
+      <c r="BI111">
+        <v>1.41</v>
+      </c>
+      <c r="BJ111">
+        <v>2.52</v>
+      </c>
+      <c r="BK111">
+        <v>1.8</v>
+      </c>
+      <c r="BL111">
+        <v>2</v>
+      </c>
+      <c r="BM111">
+        <v>2.19</v>
+      </c>
+      <c r="BN111">
+        <v>1.54</v>
+      </c>
+      <c r="BO111">
+        <v>2.88</v>
+      </c>
+      <c r="BP111">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7476661</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>78</v>
+      </c>
+      <c r="H112" t="s">
+        <v>80</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>159</v>
+      </c>
+      <c r="P112" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q112">
+        <v>2.5</v>
+      </c>
+      <c r="R112">
+        <v>2.1</v>
+      </c>
+      <c r="S112">
+        <v>5</v>
+      </c>
+      <c r="T112">
+        <v>1.44</v>
+      </c>
+      <c r="U112">
+        <v>2.63</v>
+      </c>
+      <c r="V112">
+        <v>3.25</v>
+      </c>
+      <c r="W112">
+        <v>1.33</v>
+      </c>
+      <c r="X112">
+        <v>9</v>
+      </c>
+      <c r="Y112">
+        <v>1.07</v>
+      </c>
+      <c r="Z112">
+        <v>1.83</v>
+      </c>
+      <c r="AA112">
+        <v>3.6</v>
+      </c>
+      <c r="AB112">
+        <v>4.33</v>
+      </c>
+      <c r="AC112">
+        <v>1.07</v>
+      </c>
+      <c r="AD112">
+        <v>8</v>
+      </c>
+      <c r="AE112">
+        <v>1.36</v>
+      </c>
+      <c r="AF112">
+        <v>3.1</v>
+      </c>
+      <c r="AG112">
+        <v>1.85</v>
+      </c>
+      <c r="AH112">
+        <v>1.89</v>
+      </c>
+      <c r="AI112">
+        <v>1.91</v>
+      </c>
+      <c r="AJ112">
+        <v>1.8</v>
+      </c>
+      <c r="AK112">
+        <v>1.2</v>
+      </c>
+      <c r="AL112">
+        <v>1.25</v>
+      </c>
+      <c r="AM112">
+        <v>1.95</v>
+      </c>
+      <c r="AN112">
+        <v>1.75</v>
+      </c>
+      <c r="AO112">
+        <v>1</v>
+      </c>
+      <c r="AP112">
+        <v>1.6</v>
+      </c>
+      <c r="AQ112">
+        <v>1</v>
+      </c>
+      <c r="AR112">
+        <v>1.38</v>
+      </c>
+      <c r="AS112">
+        <v>1.32</v>
+      </c>
+      <c r="AT112">
+        <v>2.7</v>
+      </c>
+      <c r="AU112">
+        <v>5</v>
+      </c>
+      <c r="AV112">
+        <v>4</v>
+      </c>
+      <c r="AW112">
+        <v>4</v>
+      </c>
+      <c r="AX112">
+        <v>2</v>
+      </c>
+      <c r="AY112">
+        <v>10</v>
+      </c>
+      <c r="AZ112">
+        <v>7</v>
+      </c>
+      <c r="BA112">
+        <v>5</v>
+      </c>
+      <c r="BB112">
+        <v>5</v>
+      </c>
+      <c r="BC112">
+        <v>10</v>
+      </c>
+      <c r="BD112">
+        <v>1.55</v>
+      </c>
+      <c r="BE112">
+        <v>8.5</v>
+      </c>
+      <c r="BF112">
+        <v>2.91</v>
+      </c>
+      <c r="BG112">
+        <v>1.22</v>
+      </c>
+      <c r="BH112">
+        <v>4.27</v>
+      </c>
+      <c r="BI112">
+        <v>1.32</v>
+      </c>
+      <c r="BJ112">
+        <v>2.78</v>
+      </c>
+      <c r="BK112">
+        <v>1.77</v>
+      </c>
+      <c r="BL112">
+        <v>1.95</v>
+      </c>
+      <c r="BM112">
+        <v>2.03</v>
+      </c>
+      <c r="BN112">
+        <v>1.7</v>
+      </c>
+      <c r="BO112">
+        <v>2.62</v>
+      </c>
+      <c r="BP112">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7476662</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>93</v>
+      </c>
+      <c r="H113" t="s">
+        <v>90</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>101</v>
+      </c>
+      <c r="P113" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q113">
+        <v>2.88</v>
+      </c>
+      <c r="R113">
+        <v>2.25</v>
+      </c>
+      <c r="S113">
+        <v>3.5</v>
+      </c>
+      <c r="T113">
+        <v>1.33</v>
+      </c>
+      <c r="U113">
+        <v>3.25</v>
+      </c>
+      <c r="V113">
+        <v>2.63</v>
+      </c>
+      <c r="W113">
+        <v>1.44</v>
+      </c>
+      <c r="X113">
+        <v>7</v>
+      </c>
+      <c r="Y113">
+        <v>1.1</v>
+      </c>
+      <c r="Z113">
+        <v>2.4</v>
+      </c>
+      <c r="AA113">
+        <v>3.5</v>
+      </c>
+      <c r="AB113">
+        <v>2.8</v>
+      </c>
+      <c r="AC113">
+        <v>1.01</v>
+      </c>
+      <c r="AD113">
+        <v>12.5</v>
+      </c>
+      <c r="AE113">
+        <v>1.17</v>
+      </c>
+      <c r="AF113">
+        <v>3.84</v>
+      </c>
+      <c r="AG113">
+        <v>1.77</v>
+      </c>
+      <c r="AH113">
+        <v>1.98</v>
+      </c>
+      <c r="AI113">
+        <v>1.62</v>
+      </c>
+      <c r="AJ113">
+        <v>2.2</v>
+      </c>
+      <c r="AK113">
+        <v>1.38</v>
+      </c>
+      <c r="AL113">
+        <v>1.27</v>
+      </c>
+      <c r="AM113">
+        <v>1.54</v>
+      </c>
+      <c r="AN113">
+        <v>1.75</v>
+      </c>
+      <c r="AO113">
+        <v>1.75</v>
+      </c>
+      <c r="AP113">
+        <v>1.4</v>
+      </c>
+      <c r="AQ113">
+        <v>2</v>
+      </c>
+      <c r="AR113">
+        <v>1.69</v>
+      </c>
+      <c r="AS113">
+        <v>1.41</v>
+      </c>
+      <c r="AT113">
+        <v>3.1</v>
+      </c>
+      <c r="AU113">
+        <v>4</v>
+      </c>
+      <c r="AV113">
+        <v>4</v>
+      </c>
+      <c r="AW113">
+        <v>8</v>
+      </c>
+      <c r="AX113">
+        <v>4</v>
+      </c>
+      <c r="AY113">
+        <v>16</v>
+      </c>
+      <c r="AZ113">
+        <v>10</v>
+      </c>
+      <c r="BA113">
+        <v>6</v>
+      </c>
+      <c r="BB113">
+        <v>3</v>
+      </c>
+      <c r="BC113">
+        <v>9</v>
+      </c>
+      <c r="BD113">
+        <v>1.75</v>
+      </c>
+      <c r="BE113">
+        <v>8.5</v>
+      </c>
+      <c r="BF113">
+        <v>2.35</v>
+      </c>
+      <c r="BG113">
+        <v>1.16</v>
+      </c>
+      <c r="BH113">
+        <v>5.16</v>
+      </c>
+      <c r="BI113">
+        <v>1.24</v>
+      </c>
+      <c r="BJ113">
+        <v>3.22</v>
+      </c>
+      <c r="BK113">
+        <v>1.47</v>
+      </c>
+      <c r="BL113">
+        <v>2.35</v>
+      </c>
+      <c r="BM113">
+        <v>1.88</v>
+      </c>
+      <c r="BN113">
+        <v>1.92</v>
+      </c>
+      <c r="BO113">
+        <v>2.28</v>
+      </c>
+      <c r="BP113">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7476663</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>79</v>
+      </c>
+      <c r="H114" t="s">
+        <v>71</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114" t="s">
+        <v>173</v>
+      </c>
+      <c r="P114" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q114">
+        <v>3.4</v>
+      </c>
+      <c r="R114">
+        <v>2.05</v>
+      </c>
+      <c r="S114">
+        <v>3.25</v>
+      </c>
+      <c r="T114">
+        <v>1.44</v>
+      </c>
+      <c r="U114">
+        <v>2.63</v>
+      </c>
+      <c r="V114">
+        <v>3.25</v>
+      </c>
+      <c r="W114">
+        <v>1.33</v>
+      </c>
+      <c r="X114">
+        <v>9</v>
+      </c>
+      <c r="Y114">
+        <v>1.07</v>
+      </c>
+      <c r="Z114">
+        <v>3.1</v>
+      </c>
+      <c r="AA114">
+        <v>3.2</v>
+      </c>
+      <c r="AB114">
+        <v>2.38</v>
+      </c>
+      <c r="AC114">
+        <v>1.04</v>
+      </c>
+      <c r="AD114">
+        <v>9</v>
+      </c>
+      <c r="AE114">
+        <v>1.3</v>
+      </c>
+      <c r="AF114">
+        <v>3.35</v>
+      </c>
+      <c r="AG114">
+        <v>1.85</v>
+      </c>
+      <c r="AH114">
+        <v>1.89</v>
+      </c>
+      <c r="AI114">
+        <v>1.83</v>
+      </c>
+      <c r="AJ114">
+        <v>1.83</v>
+      </c>
+      <c r="AK114">
+        <v>1.61</v>
+      </c>
+      <c r="AL114">
+        <v>1.31</v>
+      </c>
+      <c r="AM114">
+        <v>1.35</v>
+      </c>
+      <c r="AN114">
+        <v>1.5</v>
+      </c>
+      <c r="AO114">
+        <v>1.33</v>
+      </c>
+      <c r="AP114">
+        <v>1.8</v>
+      </c>
+      <c r="AQ114">
+        <v>1</v>
+      </c>
+      <c r="AR114">
+        <v>1.25</v>
+      </c>
+      <c r="AS114">
+        <v>0.96</v>
+      </c>
+      <c r="AT114">
+        <v>2.21</v>
+      </c>
+      <c r="AU114">
+        <v>4</v>
+      </c>
+      <c r="AV114">
+        <v>2</v>
+      </c>
+      <c r="AW114">
+        <v>3</v>
+      </c>
+      <c r="AX114">
+        <v>1</v>
+      </c>
+      <c r="AY114">
+        <v>9</v>
+      </c>
+      <c r="AZ114">
+        <v>5</v>
+      </c>
+      <c r="BA114">
+        <v>4</v>
+      </c>
+      <c r="BB114">
+        <v>6</v>
+      </c>
+      <c r="BC114">
+        <v>10</v>
+      </c>
+      <c r="BD114">
+        <v>2.52</v>
+      </c>
+      <c r="BE114">
+        <v>8</v>
+      </c>
+      <c r="BF114">
+        <v>1.75</v>
+      </c>
+      <c r="BG114">
+        <v>1.19</v>
+      </c>
+      <c r="BH114">
+        <v>3.62</v>
+      </c>
+      <c r="BI114">
+        <v>1.45</v>
+      </c>
+      <c r="BJ114">
+        <v>2.55</v>
+      </c>
+      <c r="BK114">
+        <v>1.75</v>
+      </c>
+      <c r="BL114">
+        <v>1.96</v>
+      </c>
+      <c r="BM114">
+        <v>2.25</v>
+      </c>
+      <c r="BN114">
+        <v>1.57</v>
+      </c>
+      <c r="BO114">
+        <v>3</v>
+      </c>
+      <c r="BP114">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7476664</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>91</v>
+      </c>
+      <c r="H115" t="s">
+        <v>77</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115" t="s">
+        <v>101</v>
+      </c>
+      <c r="P115" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q115">
+        <v>2.5</v>
+      </c>
+      <c r="R115">
+        <v>2.1</v>
+      </c>
+      <c r="S115">
+        <v>4.75</v>
+      </c>
+      <c r="T115">
+        <v>1.4</v>
+      </c>
+      <c r="U115">
+        <v>2.75</v>
+      </c>
+      <c r="V115">
+        <v>3</v>
+      </c>
+      <c r="W115">
+        <v>1.36</v>
+      </c>
+      <c r="X115">
+        <v>8</v>
+      </c>
+      <c r="Y115">
+        <v>1.08</v>
+      </c>
+      <c r="Z115">
+        <v>1.83</v>
+      </c>
+      <c r="AA115">
+        <v>3.7</v>
+      </c>
+      <c r="AB115">
+        <v>4.2</v>
+      </c>
+      <c r="AC115">
+        <v>1.04</v>
+      </c>
+      <c r="AD115">
+        <v>9.5</v>
+      </c>
+      <c r="AE115">
+        <v>1.19</v>
+      </c>
+      <c r="AF115">
+        <v>3.62</v>
+      </c>
+      <c r="AG115">
+        <v>1.99</v>
+      </c>
+      <c r="AH115">
+        <v>1.79</v>
+      </c>
+      <c r="AI115">
+        <v>1.83</v>
+      </c>
+      <c r="AJ115">
+        <v>1.83</v>
+      </c>
+      <c r="AK115">
+        <v>1.23</v>
+      </c>
+      <c r="AL115">
+        <v>1.22</v>
+      </c>
+      <c r="AM115">
+        <v>1.94</v>
+      </c>
+      <c r="AN115">
+        <v>0.75</v>
+      </c>
+      <c r="AO115">
+        <v>1</v>
+      </c>
+      <c r="AP115">
+        <v>0.8</v>
+      </c>
+      <c r="AQ115">
+        <v>1</v>
+      </c>
+      <c r="AR115">
+        <v>1.59</v>
+      </c>
+      <c r="AS115">
+        <v>1.26</v>
+      </c>
+      <c r="AT115">
+        <v>2.85</v>
+      </c>
+      <c r="AU115">
+        <v>3</v>
+      </c>
+      <c r="AV115">
+        <v>2</v>
+      </c>
+      <c r="AW115">
+        <v>4</v>
+      </c>
+      <c r="AX115">
+        <v>4</v>
+      </c>
+      <c r="AY115">
+        <v>14</v>
+      </c>
+      <c r="AZ115">
+        <v>8</v>
+      </c>
+      <c r="BA115">
+        <v>6</v>
+      </c>
+      <c r="BB115">
+        <v>2</v>
+      </c>
+      <c r="BC115">
+        <v>8</v>
+      </c>
+      <c r="BD115">
+        <v>1.37</v>
+      </c>
+      <c r="BE115">
+        <v>9.5</v>
+      </c>
+      <c r="BF115">
+        <v>3.69</v>
+      </c>
+      <c r="BG115">
+        <v>1.16</v>
+      </c>
+      <c r="BH115">
+        <v>5.16</v>
+      </c>
+      <c r="BI115">
+        <v>1.23</v>
+      </c>
+      <c r="BJ115">
+        <v>3.28</v>
+      </c>
+      <c r="BK115">
+        <v>1.44</v>
+      </c>
+      <c r="BL115">
+        <v>2.43</v>
+      </c>
+      <c r="BM115">
+        <v>2</v>
+      </c>
+      <c r="BN115">
+        <v>1.8</v>
+      </c>
+      <c r="BO115">
+        <v>2.21</v>
+      </c>
+      <c r="BP115">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7476653</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>84</v>
+      </c>
+      <c r="H116" t="s">
+        <v>88</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>174</v>
+      </c>
+      <c r="P116" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q116">
+        <v>2.5</v>
+      </c>
+      <c r="R116">
+        <v>2.25</v>
+      </c>
+      <c r="S116">
+        <v>4</v>
+      </c>
+      <c r="T116">
+        <v>1.36</v>
+      </c>
+      <c r="U116">
+        <v>3</v>
+      </c>
+      <c r="V116">
+        <v>2.63</v>
+      </c>
+      <c r="W116">
+        <v>1.44</v>
+      </c>
+      <c r="X116">
+        <v>7</v>
+      </c>
+      <c r="Y116">
+        <v>1.1</v>
+      </c>
+      <c r="Z116">
+        <v>2.1</v>
+      </c>
+      <c r="AA116">
+        <v>3.5</v>
+      </c>
+      <c r="AB116">
+        <v>3.4</v>
+      </c>
+      <c r="AC116">
+        <v>1.05</v>
+      </c>
+      <c r="AD116">
+        <v>9.5</v>
+      </c>
+      <c r="AE116">
+        <v>1.25</v>
+      </c>
+      <c r="AF116">
+        <v>3.7</v>
+      </c>
+      <c r="AG116">
+        <v>1.79</v>
+      </c>
+      <c r="AH116">
+        <v>1.99</v>
+      </c>
+      <c r="AI116">
+        <v>1.67</v>
+      </c>
+      <c r="AJ116">
+        <v>2.1</v>
+      </c>
+      <c r="AK116">
+        <v>1.27</v>
+      </c>
+      <c r="AL116">
+        <v>1.27</v>
+      </c>
+      <c r="AM116">
+        <v>1.81</v>
+      </c>
+      <c r="AN116">
+        <v>0.75</v>
+      </c>
+      <c r="AO116">
+        <v>0.25</v>
+      </c>
+      <c r="AP116">
+        <v>1.2</v>
+      </c>
+      <c r="AQ116">
+        <v>0.2</v>
+      </c>
+      <c r="AR116">
+        <v>1.49</v>
+      </c>
+      <c r="AS116">
+        <v>0.87</v>
+      </c>
+      <c r="AT116">
+        <v>2.36</v>
+      </c>
+      <c r="AU116">
+        <v>5</v>
+      </c>
+      <c r="AV116">
+        <v>3</v>
+      </c>
+      <c r="AW116">
+        <v>5</v>
+      </c>
+      <c r="AX116">
+        <v>2</v>
+      </c>
+      <c r="AY116">
+        <v>13</v>
+      </c>
+      <c r="AZ116">
+        <v>9</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>7</v>
+      </c>
+      <c r="BC116">
+        <v>12</v>
+      </c>
+      <c r="BD116">
+        <v>1.51</v>
+      </c>
+      <c r="BE116">
+        <v>8</v>
+      </c>
+      <c r="BF116">
+        <v>3.3</v>
+      </c>
+      <c r="BG116">
+        <v>1.18</v>
+      </c>
+      <c r="BH116">
+        <v>4.3</v>
+      </c>
+      <c r="BI116">
+        <v>1.29</v>
+      </c>
+      <c r="BJ116">
+        <v>3.3</v>
+      </c>
+      <c r="BK116">
+        <v>1.52</v>
+      </c>
+      <c r="BL116">
+        <v>2.35</v>
+      </c>
+      <c r="BM116">
+        <v>2</v>
+      </c>
+      <c r="BN116">
+        <v>1.8</v>
+      </c>
+      <c r="BO116">
+        <v>2.5</v>
+      </c>
+      <c r="BP116">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -20464,7 +20464,7 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F95">
         <v>9</v>
@@ -20590,31 +20590,31 @@
         <v>2.38</v>
       </c>
       <c r="AU95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW95">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX95">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY95">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ95">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB95">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BC95">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD95">
         <v>2.58</v>
@@ -20670,7 +20670,7 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F96">
         <v>9</v>
@@ -20796,31 +20796,31 @@
         <v>2.82</v>
       </c>
       <c r="AU96">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV96">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW96">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX96">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY96">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ96">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA96">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB96">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC96">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD96">
         <v>1.63</v>
@@ -20876,7 +20876,7 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F97">
         <v>9</v>
@@ -21002,31 +21002,31 @@
         <v>2.05</v>
       </c>
       <c r="AU97">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV97">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW97">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX97">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY97">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ97">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA97">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB97">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC97">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD97">
         <v>1.7</v>
@@ -21082,7 +21082,7 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F98">
         <v>9</v>
@@ -21208,31 +21208,31 @@
         <v>2.83</v>
       </c>
       <c r="AU98">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW98">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX98">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY98">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ98">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC98">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD98">
         <v>1.44</v>
@@ -21288,7 +21288,7 @@
         <v>69</v>
       </c>
       <c r="E99" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F99">
         <v>9</v>
@@ -21414,31 +21414,31 @@
         <v>1.91</v>
       </c>
       <c r="AU99">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW99">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX99">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY99">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ99">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB99">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC99">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD99">
         <v>2.49</v>
@@ -21494,7 +21494,7 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F100">
         <v>9</v>
@@ -21620,31 +21620,31 @@
         <v>2.45</v>
       </c>
       <c r="AU100">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV100">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AW100">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX100">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY100">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ100">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA100">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB100">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC100">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD100">
         <v>3.04</v>
@@ -21700,7 +21700,7 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F101">
         <v>9</v>
@@ -21826,31 +21826,31 @@
         <v>2.09</v>
       </c>
       <c r="AU101">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV101">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW101">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX101">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY101">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ101">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA101">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB101">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC101">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD101">
         <v>1.61</v>
@@ -21906,10 +21906,10 @@
         <v>69</v>
       </c>
       <c r="E102" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F102">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G102" t="s">
         <v>73</v>
@@ -22032,31 +22032,31 @@
         <v>2.42</v>
       </c>
       <c r="AU102">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV102">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW102">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX102">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY102">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ102">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA102">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB102">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC102">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD102">
         <v>2.11</v>
@@ -22112,7 +22112,7 @@
         <v>69</v>
       </c>
       <c r="E103" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F103">
         <v>9</v>
@@ -22238,31 +22238,31 @@
         <v>2.53</v>
       </c>
       <c r="AU103">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV103">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW103">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX103">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY103">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ103">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA103">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BB103">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC103">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BD103">
         <v>1.87</v>
@@ -22318,10 +22318,10 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F104">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G104" t="s">
         <v>83</v>
@@ -22444,31 +22444,31 @@
         <v>2.59</v>
       </c>
       <c r="AU104">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV104">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW104">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX104">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY104">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ104">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA104">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB104">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC104">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD104">
         <v>3.07</v>
@@ -22524,7 +22524,7 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F105">
         <v>9</v>
@@ -22650,31 +22650,31 @@
         <v>2.56</v>
       </c>
       <c r="AU105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV105">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX105">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY105">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ105">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA105">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC105">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD105">
         <v>1.47</v>
@@ -22730,7 +22730,7 @@
         <v>69</v>
       </c>
       <c r="E106" s="2">
-        <v>45569.875</v>
+        <v>45570.35416666666</v>
       </c>
       <c r="F106">
         <v>10</v>
@@ -22856,31 +22856,31 @@
         <v>2.75</v>
       </c>
       <c r="AU106">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV106">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW106">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY106">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ106">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA106">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB106">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC106">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD106">
         <v>2.1</v>
@@ -22936,10 +22936,10 @@
         <v>69</v>
       </c>
       <c r="E107" s="2">
-        <v>45569.875</v>
+        <v>45570.35416666666</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
         <v>75</v>
@@ -23062,31 +23062,31 @@
         <v>2.93</v>
       </c>
       <c r="AU107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV107">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW107">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX107">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY107">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ107">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA107">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB107">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC107">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD107">
         <v>1.45</v>
@@ -23351,7 +23351,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
         <v>85</v>
@@ -23969,7 +23969,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G112" t="s">
         <v>78</v>
@@ -24381,7 +24381,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G114" t="s">
         <v>79</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="236">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>['36', '45+1']</t>
+  </si>
+  <si>
+    <t>['39', '75', '85']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -1080,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP116"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1342,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1545,7 +1548,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1957,7 +1960,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2038,7 +2041,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2163,7 +2166,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2575,7 +2578,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2781,7 +2784,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2987,7 +2990,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3193,7 +3196,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4223,7 +4226,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4635,7 +4638,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4841,7 +4844,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5047,7 +5050,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5665,7 +5668,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5949,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ24">
         <v>0.75</v>
@@ -6077,7 +6080,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6283,7 +6286,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -7107,7 +7110,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7725,7 +7728,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7931,7 +7934,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8137,7 +8140,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8343,7 +8346,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8421,7 +8424,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8755,7 +8758,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9167,7 +9170,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9373,7 +9376,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9454,7 +9457,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ41">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9579,7 +9582,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9785,7 +9788,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9991,7 +9994,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10197,7 +10200,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10403,7 +10406,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10815,7 +10818,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11433,7 +11436,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -11845,7 +11848,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -11923,7 +11926,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ53">
         <v>0.8</v>
@@ -12463,7 +12466,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12875,7 +12878,7 @@
         <v>103</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13780,7 +13783,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -13905,7 +13908,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14111,7 +14114,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14317,7 +14320,7 @@
         <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14935,7 +14938,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15141,7 +15144,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15347,7 +15350,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15553,7 +15556,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15759,7 +15762,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15965,7 +15968,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16171,7 +16174,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16458,7 +16461,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR75">
         <v>1.2</v>
@@ -16661,7 +16664,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17407,7 +17410,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17613,7 +17616,7 @@
         <v>101</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>3.4</v>
@@ -17819,7 +17822,7 @@
         <v>101</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -18025,7 +18028,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18849,7 +18852,7 @@
         <v>122</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19055,7 +19058,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
@@ -19261,7 +19264,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19467,7 +19470,7 @@
         <v>158</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19673,7 +19676,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -19879,7 +19882,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20497,7 +20500,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20703,7 +20706,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20909,7 +20912,7 @@
         <v>163</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>2.75</v>
@@ -21115,7 +21118,7 @@
         <v>164</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21527,7 +21530,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21939,7 +21942,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22145,7 +22148,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22351,7 +22354,7 @@
         <v>169</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22763,7 +22766,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23175,7 +23178,7 @@
         <v>170</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23793,7 +23796,7 @@
         <v>172</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -23999,7 +24002,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24823,7 +24826,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -24980,6 +24983,212 @@
       </c>
       <c r="BP116">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7476655</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45571.875</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>92</v>
+      </c>
+      <c r="H117" t="s">
+        <v>89</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>3</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>175</v>
+      </c>
+      <c r="P117" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q117">
+        <v>2.05</v>
+      </c>
+      <c r="R117">
+        <v>2.4</v>
+      </c>
+      <c r="S117">
+        <v>6</v>
+      </c>
+      <c r="T117">
+        <v>1.33</v>
+      </c>
+      <c r="U117">
+        <v>3.25</v>
+      </c>
+      <c r="V117">
+        <v>2.5</v>
+      </c>
+      <c r="W117">
+        <v>1.5</v>
+      </c>
+      <c r="X117">
+        <v>6.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.11</v>
+      </c>
+      <c r="Z117">
+        <v>1.45</v>
+      </c>
+      <c r="AA117">
+        <v>4.2</v>
+      </c>
+      <c r="AB117">
+        <v>6</v>
+      </c>
+      <c r="AC117">
+        <v>1.04</v>
+      </c>
+      <c r="AD117">
+        <v>10</v>
+      </c>
+      <c r="AE117">
+        <v>1.17</v>
+      </c>
+      <c r="AF117">
+        <v>3.76</v>
+      </c>
+      <c r="AG117">
+        <v>1.73</v>
+      </c>
+      <c r="AH117">
+        <v>2</v>
+      </c>
+      <c r="AI117">
+        <v>1.8</v>
+      </c>
+      <c r="AJ117">
+        <v>1.91</v>
+      </c>
+      <c r="AK117">
+        <v>1.09</v>
+      </c>
+      <c r="AL117">
+        <v>1.18</v>
+      </c>
+      <c r="AM117">
+        <v>2.67</v>
+      </c>
+      <c r="AN117">
+        <v>2</v>
+      </c>
+      <c r="AO117">
+        <v>0.75</v>
+      </c>
+      <c r="AP117">
+        <v>2.2</v>
+      </c>
+      <c r="AQ117">
+        <v>0.6</v>
+      </c>
+      <c r="AR117">
+        <v>1.54</v>
+      </c>
+      <c r="AS117">
+        <v>0.7</v>
+      </c>
+      <c r="AT117">
+        <v>2.24</v>
+      </c>
+      <c r="AU117">
+        <v>-1</v>
+      </c>
+      <c r="AV117">
+        <v>-1</v>
+      </c>
+      <c r="AW117">
+        <v>-1</v>
+      </c>
+      <c r="AX117">
+        <v>-1</v>
+      </c>
+      <c r="AY117">
+        <v>-1</v>
+      </c>
+      <c r="AZ117">
+        <v>-1</v>
+      </c>
+      <c r="BA117">
+        <v>-1</v>
+      </c>
+      <c r="BB117">
+        <v>-1</v>
+      </c>
+      <c r="BC117">
+        <v>-1</v>
+      </c>
+      <c r="BD117">
+        <v>1.27</v>
+      </c>
+      <c r="BE117">
+        <v>10.5</v>
+      </c>
+      <c r="BF117">
+        <v>4.72</v>
+      </c>
+      <c r="BG117">
+        <v>1.22</v>
+      </c>
+      <c r="BH117">
+        <v>3.8</v>
+      </c>
+      <c r="BI117">
+        <v>1.33</v>
+      </c>
+      <c r="BJ117">
+        <v>2.73</v>
+      </c>
+      <c r="BK117">
+        <v>1.6</v>
+      </c>
+      <c r="BL117">
+        <v>2.08</v>
+      </c>
+      <c r="BM117">
+        <v>2.04</v>
+      </c>
+      <c r="BN117">
+        <v>1.69</v>
+      </c>
+      <c r="BO117">
+        <v>2.62</v>
+      </c>
+      <c r="BP117">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -24999,7 +24999,7 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45571.875</v>
+        <v>45572.66666666666</v>
       </c>
       <c r="F117">
         <v>10</v>
@@ -25143,13 +25143,13 @@
         <v>-1</v>
       </c>
       <c r="BA117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB117">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC117">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD117">
         <v>1.27</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,21 @@
     <t>['39', '75', '85']</t>
   </si>
   <si>
+    <t>['6', '74']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['8', '39', '45+3', '50']</t>
+  </si>
+  <si>
+    <t>['63', '78']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -722,6 +737,27 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['14', '90+4']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['23', '72']</t>
+  </si>
+  <si>
+    <t>['1', '45+1']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['30', '34', '47']</t>
+  </si>
+  <si>
+    <t>['60', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,7 +1378,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1420,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1548,7 +1584,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1832,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1960,7 +1996,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2038,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2166,7 +2202,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2244,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2453,7 +2489,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2578,7 +2614,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2656,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2784,7 +2820,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2862,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2990,7 +3026,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3068,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3196,7 +3232,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3274,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3480,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3689,7 +3725,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ13">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4226,7 +4262,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4638,7 +4674,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4844,7 +4880,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5050,7 +5086,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5668,7 +5704,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6080,7 +6116,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6286,7 +6322,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6367,7 +6403,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.83</v>
@@ -6570,7 +6606,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27">
         <v>1.4</v>
@@ -6779,7 +6815,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
         <v>1.35</v>
@@ -6982,10 +7018,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ29">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7110,7 +7146,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7191,7 +7227,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7600,10 +7636,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>1.62</v>
@@ -7728,7 +7764,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7806,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
         <v>0.75</v>
@@ -7934,7 +7970,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8140,7 +8176,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8218,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8346,7 +8382,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8630,10 +8666,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR37">
         <v>1.13</v>
@@ -8758,7 +8794,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9042,7 +9078,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>1.4</v>
@@ -9170,7 +9206,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9251,7 +9287,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ40">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9376,7 +9412,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9457,7 +9493,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ41">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9582,7 +9618,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9660,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1.2</v>
@@ -9788,7 +9824,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9994,7 +10030,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10200,7 +10236,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10281,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR45">
         <v>1.02</v>
@@ -10406,7 +10442,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10818,7 +10854,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -10899,7 +10935,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ48">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.43</v>
@@ -11102,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>0.8</v>
@@ -11311,7 +11347,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR50">
         <v>1.79</v>
@@ -11436,7 +11472,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -11517,7 +11553,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR51">
         <v>0.78</v>
@@ -11720,7 +11756,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
         <v>1.4</v>
@@ -11848,7 +11884,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -11929,7 +11965,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR53">
         <v>1.74</v>
@@ -12132,7 +12168,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ54">
         <v>1.4</v>
@@ -12466,7 +12502,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12544,10 +12580,10 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.25</v>
@@ -12750,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12878,7 +12914,7 @@
         <v>103</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12956,10 +12992,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ58">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
         <v>1.28</v>
@@ -13165,7 +13201,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR59">
         <v>1</v>
@@ -13368,7 +13404,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1.4</v>
@@ -13783,7 +13819,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ62">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -13908,7 +13944,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14114,7 +14150,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14195,7 +14231,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ64">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14320,7 +14356,7 @@
         <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14398,7 +14434,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>0.2</v>
@@ -14810,7 +14846,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14938,7 +14974,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15019,7 +15055,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR68">
         <v>1.88</v>
@@ -15144,7 +15180,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15225,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR69">
         <v>1.03</v>
@@ -15350,7 +15386,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15556,7 +15592,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15762,7 +15798,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15843,7 +15879,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -15968,7 +16004,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16046,7 +16082,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73">
         <v>0.2</v>
@@ -16174,7 +16210,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16458,10 +16494,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ75">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR75">
         <v>1.2</v>
@@ -17410,7 +17446,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17488,7 +17524,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80">
         <v>1.4</v>
@@ -17616,7 +17652,7 @@
         <v>101</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>3.4</v>
@@ -17694,7 +17730,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
         <v>1.4</v>
@@ -17822,7 +17858,7 @@
         <v>101</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>2.63</v>
@@ -17903,7 +17939,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ82">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR82">
         <v>1.69</v>
@@ -18028,7 +18064,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18109,7 +18145,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR83">
         <v>1.21</v>
@@ -18312,7 +18348,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ84">
         <v>0.75</v>
@@ -18724,10 +18760,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR86">
         <v>1.1</v>
@@ -18852,7 +18888,7 @@
         <v>122</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -18933,7 +18969,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ87">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR87">
         <v>1.28</v>
@@ -19058,7 +19094,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
@@ -19139,7 +19175,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ88">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19264,7 +19300,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19345,7 +19381,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ89">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR89">
         <v>0.82</v>
@@ -19470,7 +19506,7 @@
         <v>158</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19551,7 +19587,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ90">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR90">
         <v>1.37</v>
@@ -19676,7 +19712,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -19754,7 +19790,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ91">
         <v>1.4</v>
@@ -19882,7 +19918,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -19960,7 +19996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92">
         <v>2</v>
@@ -20372,7 +20408,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>1.2</v>
@@ -20500,7 +20536,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>4.5</v>
@@ -20581,7 +20617,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ95">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR95">
         <v>1.37</v>
@@ -20706,7 +20742,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20912,7 +20948,7 @@
         <v>163</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q97">
         <v>2.75</v>
@@ -20990,10 +21026,10 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ97">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR97">
         <v>1.07</v>
@@ -21118,7 +21154,7 @@
         <v>164</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21530,7 +21566,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21608,7 +21644,7 @@
         <v>0.25</v>
       </c>
       <c r="AP100">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
         <v>0.8</v>
@@ -21814,7 +21850,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ101">
         <v>1.2</v>
@@ -21942,7 +21978,7 @@
         <v>168</v>
       </c>
       <c r="P102" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22020,10 +22056,10 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR102">
         <v>1.14</v>
@@ -22148,7 +22184,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22229,7 +22265,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ103">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR103">
         <v>1.32</v>
@@ -22354,7 +22390,7 @@
         <v>169</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22638,10 +22674,10 @@
         <v>0.75</v>
       </c>
       <c r="AP105">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -22766,7 +22802,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23178,7 +23214,7 @@
         <v>170</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>2.6</v>
@@ -23256,7 +23292,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
         <v>1.4</v>
@@ -23465,7 +23501,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ109">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR109">
         <v>1.85</v>
@@ -23796,7 +23832,7 @@
         <v>172</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -23874,7 +23910,7 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ111">
         <v>0.2</v>
@@ -24002,7 +24038,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q112">
         <v>2.5</v>
@@ -24080,7 +24116,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24289,7 +24325,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ113">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR113">
         <v>1.69</v>
@@ -24492,7 +24528,7 @@
         <v>1.33</v>
       </c>
       <c r="AP114">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -24826,7 +24862,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -24907,7 +24943,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ116">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR116">
         <v>1.49</v>
@@ -25032,7 +25068,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25113,7 +25149,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ117">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>1.54</v>
@@ -25125,22 +25161,22 @@
         <v>2.24</v>
       </c>
       <c r="AU117">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV117">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW117">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX117">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY117">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ117">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA117">
         <v>3</v>
@@ -25189,6 +25225,2066 @@
       </c>
       <c r="BP117">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7476668</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45577.35416666666</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" t="s">
+        <v>93</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>176</v>
+      </c>
+      <c r="P118" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q118">
+        <v>2.5</v>
+      </c>
+      <c r="R118">
+        <v>2.38</v>
+      </c>
+      <c r="S118">
+        <v>4</v>
+      </c>
+      <c r="T118">
+        <v>1.29</v>
+      </c>
+      <c r="U118">
+        <v>3.5</v>
+      </c>
+      <c r="V118">
+        <v>2.38</v>
+      </c>
+      <c r="W118">
+        <v>1.53</v>
+      </c>
+      <c r="X118">
+        <v>5.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.14</v>
+      </c>
+      <c r="Z118">
+        <v>1.91</v>
+      </c>
+      <c r="AA118">
+        <v>3.75</v>
+      </c>
+      <c r="AB118">
+        <v>3.75</v>
+      </c>
+      <c r="AC118">
+        <v>1.02</v>
+      </c>
+      <c r="AD118">
+        <v>17</v>
+      </c>
+      <c r="AE118">
+        <v>1.18</v>
+      </c>
+      <c r="AF118">
+        <v>4.75</v>
+      </c>
+      <c r="AG118">
+        <v>1.57</v>
+      </c>
+      <c r="AH118">
+        <v>2.25</v>
+      </c>
+      <c r="AI118">
+        <v>1.53</v>
+      </c>
+      <c r="AJ118">
+        <v>2.38</v>
+      </c>
+      <c r="AK118">
+        <v>1.28</v>
+      </c>
+      <c r="AL118">
+        <v>1.2</v>
+      </c>
+      <c r="AM118">
+        <v>1.9</v>
+      </c>
+      <c r="AN118">
+        <v>1.4</v>
+      </c>
+      <c r="AO118">
+        <v>2.2</v>
+      </c>
+      <c r="AP118">
+        <v>1.33</v>
+      </c>
+      <c r="AQ118">
+        <v>2</v>
+      </c>
+      <c r="AR118">
+        <v>1.26</v>
+      </c>
+      <c r="AS118">
+        <v>1.14</v>
+      </c>
+      <c r="AT118">
+        <v>2.4</v>
+      </c>
+      <c r="AU118">
+        <v>7</v>
+      </c>
+      <c r="AV118">
+        <v>7</v>
+      </c>
+      <c r="AW118">
+        <v>4</v>
+      </c>
+      <c r="AX118">
+        <v>6</v>
+      </c>
+      <c r="AY118">
+        <v>15</v>
+      </c>
+      <c r="AZ118">
+        <v>16</v>
+      </c>
+      <c r="BA118">
+        <v>5</v>
+      </c>
+      <c r="BB118">
+        <v>9</v>
+      </c>
+      <c r="BC118">
+        <v>14</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>0</v>
+      </c>
+      <c r="BG118">
+        <v>1.2</v>
+      </c>
+      <c r="BH118">
+        <v>4</v>
+      </c>
+      <c r="BI118">
+        <v>1.36</v>
+      </c>
+      <c r="BJ118">
+        <v>2.9</v>
+      </c>
+      <c r="BK118">
+        <v>1.6</v>
+      </c>
+      <c r="BL118">
+        <v>2.31</v>
+      </c>
+      <c r="BM118">
+        <v>1.97</v>
+      </c>
+      <c r="BN118">
+        <v>1.83</v>
+      </c>
+      <c r="BO118">
+        <v>2.5</v>
+      </c>
+      <c r="BP118">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7476673</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45577.45833333334</v>
+      </c>
+      <c r="F119">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
+        <v>78</v>
+      </c>
+      <c r="H119" t="s">
+        <v>90</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>101</v>
+      </c>
+      <c r="P119" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q119">
+        <v>2.75</v>
+      </c>
+      <c r="R119">
+        <v>2.2</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <v>1.4</v>
+      </c>
+      <c r="U119">
+        <v>2.75</v>
+      </c>
+      <c r="V119">
+        <v>2.75</v>
+      </c>
+      <c r="W119">
+        <v>1.4</v>
+      </c>
+      <c r="X119">
+        <v>8</v>
+      </c>
+      <c r="Y119">
+        <v>1.08</v>
+      </c>
+      <c r="Z119">
+        <v>2.15</v>
+      </c>
+      <c r="AA119">
+        <v>3.6</v>
+      </c>
+      <c r="AB119">
+        <v>3.2</v>
+      </c>
+      <c r="AC119">
+        <v>1.04</v>
+      </c>
+      <c r="AD119">
+        <v>12</v>
+      </c>
+      <c r="AE119">
+        <v>1.28</v>
+      </c>
+      <c r="AF119">
+        <v>3.6</v>
+      </c>
+      <c r="AG119">
+        <v>1.75</v>
+      </c>
+      <c r="AH119">
+        <v>1.95</v>
+      </c>
+      <c r="AI119">
+        <v>1.73</v>
+      </c>
+      <c r="AJ119">
+        <v>2</v>
+      </c>
+      <c r="AK119">
+        <v>1.35</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.75</v>
+      </c>
+      <c r="AN119">
+        <v>1.6</v>
+      </c>
+      <c r="AO119">
+        <v>2</v>
+      </c>
+      <c r="AP119">
+        <v>1.33</v>
+      </c>
+      <c r="AQ119">
+        <v>2.17</v>
+      </c>
+      <c r="AR119">
+        <v>1.34</v>
+      </c>
+      <c r="AS119">
+        <v>1.31</v>
+      </c>
+      <c r="AT119">
+        <v>2.65</v>
+      </c>
+      <c r="AU119">
+        <v>4</v>
+      </c>
+      <c r="AV119">
+        <v>7</v>
+      </c>
+      <c r="AW119">
+        <v>1</v>
+      </c>
+      <c r="AX119">
+        <v>5</v>
+      </c>
+      <c r="AY119">
+        <v>9</v>
+      </c>
+      <c r="AZ119">
+        <v>13</v>
+      </c>
+      <c r="BA119">
+        <v>9</v>
+      </c>
+      <c r="BB119">
+        <v>5</v>
+      </c>
+      <c r="BC119">
+        <v>14</v>
+      </c>
+      <c r="BD119">
+        <v>1.7</v>
+      </c>
+      <c r="BE119">
+        <v>8.5</v>
+      </c>
+      <c r="BF119">
+        <v>2.4</v>
+      </c>
+      <c r="BG119">
+        <v>1.33</v>
+      </c>
+      <c r="BH119">
+        <v>3</v>
+      </c>
+      <c r="BI119">
+        <v>1.57</v>
+      </c>
+      <c r="BJ119">
+        <v>2.37</v>
+      </c>
+      <c r="BK119">
+        <v>1.94</v>
+      </c>
+      <c r="BL119">
+        <v>1.85</v>
+      </c>
+      <c r="BM119">
+        <v>2.48</v>
+      </c>
+      <c r="BN119">
+        <v>1.52</v>
+      </c>
+      <c r="BO119">
+        <v>3.2</v>
+      </c>
+      <c r="BP119">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7476675</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45577.45833333334</v>
+      </c>
+      <c r="F120">
+        <v>11</v>
+      </c>
+      <c r="G120" t="s">
+        <v>80</v>
+      </c>
+      <c r="H120" t="s">
+        <v>92</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>101</v>
+      </c>
+      <c r="P120" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q120">
+        <v>3.4</v>
+      </c>
+      <c r="R120">
+        <v>2.1</v>
+      </c>
+      <c r="S120">
+        <v>3.25</v>
+      </c>
+      <c r="T120">
+        <v>1.44</v>
+      </c>
+      <c r="U120">
+        <v>2.63</v>
+      </c>
+      <c r="V120">
+        <v>3.25</v>
+      </c>
+      <c r="W120">
+        <v>1.33</v>
+      </c>
+      <c r="X120">
+        <v>9</v>
+      </c>
+      <c r="Y120">
+        <v>1.07</v>
+      </c>
+      <c r="Z120">
+        <v>2.75</v>
+      </c>
+      <c r="AA120">
+        <v>3.3</v>
+      </c>
+      <c r="AB120">
+        <v>2.5</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>9</v>
+      </c>
+      <c r="AE120">
+        <v>1.33</v>
+      </c>
+      <c r="AF120">
+        <v>3.25</v>
+      </c>
+      <c r="AG120">
+        <v>2.05</v>
+      </c>
+      <c r="AH120">
+        <v>1.73</v>
+      </c>
+      <c r="AI120">
+        <v>1.83</v>
+      </c>
+      <c r="AJ120">
+        <v>1.83</v>
+      </c>
+      <c r="AK120">
+        <v>1.5</v>
+      </c>
+      <c r="AL120">
+        <v>1.25</v>
+      </c>
+      <c r="AM120">
+        <v>1.45</v>
+      </c>
+      <c r="AN120">
+        <v>1.5</v>
+      </c>
+      <c r="AO120">
+        <v>0.8</v>
+      </c>
+      <c r="AP120">
+        <v>1.2</v>
+      </c>
+      <c r="AQ120">
+        <v>1.17</v>
+      </c>
+      <c r="AR120">
+        <v>1.15</v>
+      </c>
+      <c r="AS120">
+        <v>1.15</v>
+      </c>
+      <c r="AT120">
+        <v>2.3</v>
+      </c>
+      <c r="AU120">
+        <v>3</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>7</v>
+      </c>
+      <c r="AX120">
+        <v>5</v>
+      </c>
+      <c r="AY120">
+        <v>14</v>
+      </c>
+      <c r="AZ120">
+        <v>10</v>
+      </c>
+      <c r="BA120">
+        <v>8</v>
+      </c>
+      <c r="BB120">
+        <v>2</v>
+      </c>
+      <c r="BC120">
+        <v>10</v>
+      </c>
+      <c r="BD120">
+        <v>1.75</v>
+      </c>
+      <c r="BE120">
+        <v>8.5</v>
+      </c>
+      <c r="BF120">
+        <v>2.3</v>
+      </c>
+      <c r="BG120">
+        <v>1.2</v>
+      </c>
+      <c r="BH120">
+        <v>4</v>
+      </c>
+      <c r="BI120">
+        <v>1.33</v>
+      </c>
+      <c r="BJ120">
+        <v>3</v>
+      </c>
+      <c r="BK120">
+        <v>1.59</v>
+      </c>
+      <c r="BL120">
+        <v>2.33</v>
+      </c>
+      <c r="BM120">
+        <v>1.9</v>
+      </c>
+      <c r="BN120">
+        <v>1.9</v>
+      </c>
+      <c r="BO120">
+        <v>2.46</v>
+      </c>
+      <c r="BP120">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7476674</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45577.45833333334</v>
+      </c>
+      <c r="F121">
+        <v>11</v>
+      </c>
+      <c r="G121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H121" t="s">
+        <v>87</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+      <c r="K121">
+        <v>3</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>94</v>
+      </c>
+      <c r="P121" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q121">
+        <v>2.88</v>
+      </c>
+      <c r="R121">
+        <v>2.2</v>
+      </c>
+      <c r="S121">
+        <v>3.75</v>
+      </c>
+      <c r="T121">
+        <v>1.4</v>
+      </c>
+      <c r="U121">
+        <v>2.75</v>
+      </c>
+      <c r="V121">
+        <v>2.75</v>
+      </c>
+      <c r="W121">
+        <v>1.4</v>
+      </c>
+      <c r="X121">
+        <v>8</v>
+      </c>
+      <c r="Y121">
+        <v>1.08</v>
+      </c>
+      <c r="Z121">
+        <v>2.25</v>
+      </c>
+      <c r="AA121">
+        <v>3.5</v>
+      </c>
+      <c r="AB121">
+        <v>3.1</v>
+      </c>
+      <c r="AC121">
+        <v>1.02</v>
+      </c>
+      <c r="AD121">
+        <v>10</v>
+      </c>
+      <c r="AE121">
+        <v>1.29</v>
+      </c>
+      <c r="AF121">
+        <v>3.4</v>
+      </c>
+      <c r="AG121">
+        <v>1.83</v>
+      </c>
+      <c r="AH121">
+        <v>1.91</v>
+      </c>
+      <c r="AI121">
+        <v>1.73</v>
+      </c>
+      <c r="AJ121">
+        <v>2</v>
+      </c>
+      <c r="AK121">
+        <v>1.35</v>
+      </c>
+      <c r="AL121">
+        <v>1.31</v>
+      </c>
+      <c r="AM121">
+        <v>1.65</v>
+      </c>
+      <c r="AN121">
+        <v>1.8</v>
+      </c>
+      <c r="AO121">
+        <v>1.2</v>
+      </c>
+      <c r="AP121">
+        <v>1.5</v>
+      </c>
+      <c r="AQ121">
+        <v>1.5</v>
+      </c>
+      <c r="AR121">
+        <v>1.19</v>
+      </c>
+      <c r="AS121">
+        <v>1.12</v>
+      </c>
+      <c r="AT121">
+        <v>2.31</v>
+      </c>
+      <c r="AU121">
+        <v>11</v>
+      </c>
+      <c r="AV121">
+        <v>5</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
+        <v>27</v>
+      </c>
+      <c r="AZ121">
+        <v>7</v>
+      </c>
+      <c r="BA121">
+        <v>9</v>
+      </c>
+      <c r="BB121">
+        <v>1</v>
+      </c>
+      <c r="BC121">
+        <v>10</v>
+      </c>
+      <c r="BD121">
+        <v>1.7</v>
+      </c>
+      <c r="BE121">
+        <v>8.5</v>
+      </c>
+      <c r="BF121">
+        <v>2.38</v>
+      </c>
+      <c r="BG121">
+        <v>1.22</v>
+      </c>
+      <c r="BH121">
+        <v>3.8</v>
+      </c>
+      <c r="BI121">
+        <v>1.38</v>
+      </c>
+      <c r="BJ121">
+        <v>2.8</v>
+      </c>
+      <c r="BK121">
+        <v>1.64</v>
+      </c>
+      <c r="BL121">
+        <v>2.23</v>
+      </c>
+      <c r="BM121">
+        <v>2.02</v>
+      </c>
+      <c r="BN121">
+        <v>1.78</v>
+      </c>
+      <c r="BO121">
+        <v>2.5</v>
+      </c>
+      <c r="BP121">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7476672</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45577.45833333334</v>
+      </c>
+      <c r="F122">
+        <v>11</v>
+      </c>
+      <c r="G122" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122" t="s">
+        <v>89</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>177</v>
+      </c>
+      <c r="P122" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q122">
+        <v>2.75</v>
+      </c>
+      <c r="R122">
+        <v>2.1</v>
+      </c>
+      <c r="S122">
+        <v>4</v>
+      </c>
+      <c r="T122">
+        <v>1.4</v>
+      </c>
+      <c r="U122">
+        <v>2.75</v>
+      </c>
+      <c r="V122">
+        <v>3</v>
+      </c>
+      <c r="W122">
+        <v>1.36</v>
+      </c>
+      <c r="X122">
+        <v>8</v>
+      </c>
+      <c r="Y122">
+        <v>1.08</v>
+      </c>
+      <c r="Z122">
+        <v>2.15</v>
+      </c>
+      <c r="AA122">
+        <v>3.5</v>
+      </c>
+      <c r="AB122">
+        <v>3.2</v>
+      </c>
+      <c r="AC122">
+        <v>1.04</v>
+      </c>
+      <c r="AD122">
+        <v>12</v>
+      </c>
+      <c r="AE122">
+        <v>1.28</v>
+      </c>
+      <c r="AF122">
+        <v>3.6</v>
+      </c>
+      <c r="AG122">
+        <v>1.8</v>
+      </c>
+      <c r="AH122">
+        <v>1.91</v>
+      </c>
+      <c r="AI122">
+        <v>1.8</v>
+      </c>
+      <c r="AJ122">
+        <v>1.91</v>
+      </c>
+      <c r="AK122">
+        <v>1.33</v>
+      </c>
+      <c r="AL122">
+        <v>1.25</v>
+      </c>
+      <c r="AM122">
+        <v>1.78</v>
+      </c>
+      <c r="AN122">
+        <v>1.2</v>
+      </c>
+      <c r="AO122">
+        <v>0.6</v>
+      </c>
+      <c r="AP122">
+        <v>1.5</v>
+      </c>
+      <c r="AQ122">
+        <v>0.5</v>
+      </c>
+      <c r="AR122">
+        <v>1.16</v>
+      </c>
+      <c r="AS122">
+        <v>0.82</v>
+      </c>
+      <c r="AT122">
+        <v>1.98</v>
+      </c>
+      <c r="AU122">
+        <v>4</v>
+      </c>
+      <c r="AV122">
+        <v>2</v>
+      </c>
+      <c r="AW122">
+        <v>2</v>
+      </c>
+      <c r="AX122">
+        <v>4</v>
+      </c>
+      <c r="AY122">
+        <v>9</v>
+      </c>
+      <c r="AZ122">
+        <v>9</v>
+      </c>
+      <c r="BA122">
+        <v>7</v>
+      </c>
+      <c r="BB122">
+        <v>5</v>
+      </c>
+      <c r="BC122">
+        <v>12</v>
+      </c>
+      <c r="BD122">
+        <v>1.62</v>
+      </c>
+      <c r="BE122">
+        <v>8.5</v>
+      </c>
+      <c r="BF122">
+        <v>2.6</v>
+      </c>
+      <c r="BG122">
+        <v>1.25</v>
+      </c>
+      <c r="BH122">
+        <v>3.6</v>
+      </c>
+      <c r="BI122">
+        <v>1.42</v>
+      </c>
+      <c r="BJ122">
+        <v>2.62</v>
+      </c>
+      <c r="BK122">
+        <v>1.74</v>
+      </c>
+      <c r="BL122">
+        <v>2.08</v>
+      </c>
+      <c r="BM122">
+        <v>2.17</v>
+      </c>
+      <c r="BN122">
+        <v>1.68</v>
+      </c>
+      <c r="BO122">
+        <v>2.62</v>
+      </c>
+      <c r="BP122">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7476665</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45577.45833333334</v>
+      </c>
+      <c r="F123">
+        <v>11</v>
+      </c>
+      <c r="G123" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" t="s">
+        <v>82</v>
+      </c>
+      <c r="I123">
+        <v>3</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>3</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123" t="s">
+        <v>178</v>
+      </c>
+      <c r="P123" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q123">
+        <v>2.5</v>
+      </c>
+      <c r="R123">
+        <v>2.2</v>
+      </c>
+      <c r="S123">
+        <v>4.75</v>
+      </c>
+      <c r="T123">
+        <v>1.4</v>
+      </c>
+      <c r="U123">
+        <v>2.75</v>
+      </c>
+      <c r="V123">
+        <v>2.75</v>
+      </c>
+      <c r="W123">
+        <v>1.4</v>
+      </c>
+      <c r="X123">
+        <v>8</v>
+      </c>
+      <c r="Y123">
+        <v>1.08</v>
+      </c>
+      <c r="Z123">
+        <v>1.85</v>
+      </c>
+      <c r="AA123">
+        <v>3.6</v>
+      </c>
+      <c r="AB123">
+        <v>4.2</v>
+      </c>
+      <c r="AC123">
+        <v>1.05</v>
+      </c>
+      <c r="AD123">
+        <v>11</v>
+      </c>
+      <c r="AE123">
+        <v>1.3</v>
+      </c>
+      <c r="AF123">
+        <v>3.4</v>
+      </c>
+      <c r="AG123">
+        <v>1.85</v>
+      </c>
+      <c r="AH123">
+        <v>1.85</v>
+      </c>
+      <c r="AI123">
+        <v>1.83</v>
+      </c>
+      <c r="AJ123">
+        <v>1.83</v>
+      </c>
+      <c r="AK123">
+        <v>1.22</v>
+      </c>
+      <c r="AL123">
+        <v>1.22</v>
+      </c>
+      <c r="AM123">
+        <v>2</v>
+      </c>
+      <c r="AN123">
+        <v>3</v>
+      </c>
+      <c r="AO123">
+        <v>0.8</v>
+      </c>
+      <c r="AP123">
+        <v>3</v>
+      </c>
+      <c r="AQ123">
+        <v>0.67</v>
+      </c>
+      <c r="AR123">
+        <v>1.5</v>
+      </c>
+      <c r="AS123">
+        <v>1.2</v>
+      </c>
+      <c r="AT123">
+        <v>2.7</v>
+      </c>
+      <c r="AU123">
+        <v>5</v>
+      </c>
+      <c r="AV123">
+        <v>2</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>1</v>
+      </c>
+      <c r="AY123">
+        <v>14</v>
+      </c>
+      <c r="AZ123">
+        <v>4</v>
+      </c>
+      <c r="BA123">
+        <v>6</v>
+      </c>
+      <c r="BB123">
+        <v>2</v>
+      </c>
+      <c r="BC123">
+        <v>8</v>
+      </c>
+      <c r="BD123">
+        <v>1.5</v>
+      </c>
+      <c r="BE123">
+        <v>9</v>
+      </c>
+      <c r="BF123">
+        <v>2.88</v>
+      </c>
+      <c r="BG123">
+        <v>1.25</v>
+      </c>
+      <c r="BH123">
+        <v>3.6</v>
+      </c>
+      <c r="BI123">
+        <v>1.42</v>
+      </c>
+      <c r="BJ123">
+        <v>2.62</v>
+      </c>
+      <c r="BK123">
+        <v>1.7</v>
+      </c>
+      <c r="BL123">
+        <v>2.12</v>
+      </c>
+      <c r="BM123">
+        <v>2.13</v>
+      </c>
+      <c r="BN123">
+        <v>1.7</v>
+      </c>
+      <c r="BO123">
+        <v>2.6</v>
+      </c>
+      <c r="BP123">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7476669</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45577.45833333334</v>
+      </c>
+      <c r="F124">
+        <v>11</v>
+      </c>
+      <c r="G124" t="s">
+        <v>74</v>
+      </c>
+      <c r="H124" t="s">
+        <v>86</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>166</v>
+      </c>
+      <c r="P124" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q124">
+        <v>2.38</v>
+      </c>
+      <c r="R124">
+        <v>2.2</v>
+      </c>
+      <c r="S124">
+        <v>5</v>
+      </c>
+      <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>8</v>
+      </c>
+      <c r="Y124">
+        <v>1.08</v>
+      </c>
+      <c r="Z124">
+        <v>1.73</v>
+      </c>
+      <c r="AA124">
+        <v>3.75</v>
+      </c>
+      <c r="AB124">
+        <v>4.6</v>
+      </c>
+      <c r="AC124">
+        <v>1.03</v>
+      </c>
+      <c r="AD124">
+        <v>10</v>
+      </c>
+      <c r="AE124">
+        <v>1.32</v>
+      </c>
+      <c r="AF124">
+        <v>3.43</v>
+      </c>
+      <c r="AG124">
+        <v>1.85</v>
+      </c>
+      <c r="AH124">
+        <v>1.85</v>
+      </c>
+      <c r="AI124">
+        <v>1.83</v>
+      </c>
+      <c r="AJ124">
+        <v>1.83</v>
+      </c>
+      <c r="AK124">
+        <v>1.16</v>
+      </c>
+      <c r="AL124">
+        <v>1.22</v>
+      </c>
+      <c r="AM124">
+        <v>2.25</v>
+      </c>
+      <c r="AN124">
+        <v>2.4</v>
+      </c>
+      <c r="AO124">
+        <v>1.5</v>
+      </c>
+      <c r="AP124">
+        <v>2.17</v>
+      </c>
+      <c r="AQ124">
+        <v>1.4</v>
+      </c>
+      <c r="AR124">
+        <v>1.08</v>
+      </c>
+      <c r="AS124">
+        <v>1.07</v>
+      </c>
+      <c r="AT124">
+        <v>2.15</v>
+      </c>
+      <c r="AU124">
+        <v>6</v>
+      </c>
+      <c r="AV124">
+        <v>3</v>
+      </c>
+      <c r="AW124">
+        <v>7</v>
+      </c>
+      <c r="AX124">
+        <v>4</v>
+      </c>
+      <c r="AY124">
+        <v>21</v>
+      </c>
+      <c r="AZ124">
+        <v>10</v>
+      </c>
+      <c r="BA124">
+        <v>9</v>
+      </c>
+      <c r="BB124">
+        <v>2</v>
+      </c>
+      <c r="BC124">
+        <v>11</v>
+      </c>
+      <c r="BD124">
+        <v>1.57</v>
+      </c>
+      <c r="BE124">
+        <v>8.5</v>
+      </c>
+      <c r="BF124">
+        <v>2.7</v>
+      </c>
+      <c r="BG124">
+        <v>1.24</v>
+      </c>
+      <c r="BH124">
+        <v>3.65</v>
+      </c>
+      <c r="BI124">
+        <v>1.41</v>
+      </c>
+      <c r="BJ124">
+        <v>2.45</v>
+      </c>
+      <c r="BK124">
+        <v>1.86</v>
+      </c>
+      <c r="BL124">
+        <v>1.86</v>
+      </c>
+      <c r="BM124">
+        <v>2.05</v>
+      </c>
+      <c r="BN124">
+        <v>1.7</v>
+      </c>
+      <c r="BO124">
+        <v>2.97</v>
+      </c>
+      <c r="BP124">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7476667</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45577.45833333334</v>
+      </c>
+      <c r="F125">
+        <v>11</v>
+      </c>
+      <c r="G125" t="s">
+        <v>73</v>
+      </c>
+      <c r="H125" t="s">
+        <v>91</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125" t="s">
+        <v>179</v>
+      </c>
+      <c r="P125" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q125">
+        <v>3.25</v>
+      </c>
+      <c r="R125">
+        <v>2.2</v>
+      </c>
+      <c r="S125">
+        <v>3.25</v>
+      </c>
+      <c r="T125">
+        <v>1.4</v>
+      </c>
+      <c r="U125">
+        <v>2.75</v>
+      </c>
+      <c r="V125">
+        <v>2.75</v>
+      </c>
+      <c r="W125">
+        <v>1.4</v>
+      </c>
+      <c r="X125">
+        <v>8</v>
+      </c>
+      <c r="Y125">
+        <v>1.08</v>
+      </c>
+      <c r="Z125">
+        <v>2.62</v>
+      </c>
+      <c r="AA125">
+        <v>3.4</v>
+      </c>
+      <c r="AB125">
+        <v>2.6</v>
+      </c>
+      <c r="AC125">
+        <v>1.05</v>
+      </c>
+      <c r="AD125">
+        <v>11</v>
+      </c>
+      <c r="AE125">
+        <v>1.3</v>
+      </c>
+      <c r="AF125">
+        <v>3.5</v>
+      </c>
+      <c r="AG125">
+        <v>1.85</v>
+      </c>
+      <c r="AH125">
+        <v>1.85</v>
+      </c>
+      <c r="AI125">
+        <v>1.67</v>
+      </c>
+      <c r="AJ125">
+        <v>2.1</v>
+      </c>
+      <c r="AK125">
+        <v>1.47</v>
+      </c>
+      <c r="AL125">
+        <v>1.28</v>
+      </c>
+      <c r="AM125">
+        <v>1.47</v>
+      </c>
+      <c r="AN125">
+        <v>1.8</v>
+      </c>
+      <c r="AO125">
+        <v>0.8</v>
+      </c>
+      <c r="AP125">
+        <v>1.5</v>
+      </c>
+      <c r="AQ125">
+        <v>1.17</v>
+      </c>
+      <c r="AR125">
+        <v>1.2</v>
+      </c>
+      <c r="AS125">
+        <v>1.05</v>
+      </c>
+      <c r="AT125">
+        <v>2.25</v>
+      </c>
+      <c r="AU125">
+        <v>4</v>
+      </c>
+      <c r="AV125">
+        <v>7</v>
+      </c>
+      <c r="AW125">
+        <v>9</v>
+      </c>
+      <c r="AX125">
+        <v>3</v>
+      </c>
+      <c r="AY125">
+        <v>16</v>
+      </c>
+      <c r="AZ125">
+        <v>14</v>
+      </c>
+      <c r="BA125">
+        <v>1</v>
+      </c>
+      <c r="BB125">
+        <v>2</v>
+      </c>
+      <c r="BC125">
+        <v>3</v>
+      </c>
+      <c r="BD125">
+        <v>2.2</v>
+      </c>
+      <c r="BE125">
+        <v>8</v>
+      </c>
+      <c r="BF125">
+        <v>1.83</v>
+      </c>
+      <c r="BG125">
+        <v>1.25</v>
+      </c>
+      <c r="BH125">
+        <v>3.6</v>
+      </c>
+      <c r="BI125">
+        <v>1.42</v>
+      </c>
+      <c r="BJ125">
+        <v>2.62</v>
+      </c>
+      <c r="BK125">
+        <v>1.71</v>
+      </c>
+      <c r="BL125">
+        <v>2.11</v>
+      </c>
+      <c r="BM125">
+        <v>2.13</v>
+      </c>
+      <c r="BN125">
+        <v>1.7</v>
+      </c>
+      <c r="BO125">
+        <v>2.62</v>
+      </c>
+      <c r="BP125">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7476666</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45577.45833333334</v>
+      </c>
+      <c r="F126">
+        <v>11</v>
+      </c>
+      <c r="G126" t="s">
+        <v>72</v>
+      </c>
+      <c r="H126" t="s">
+        <v>88</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>101</v>
+      </c>
+      <c r="P126" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q126">
+        <v>2.1</v>
+      </c>
+      <c r="R126">
+        <v>2.3</v>
+      </c>
+      <c r="S126">
+        <v>6</v>
+      </c>
+      <c r="T126">
+        <v>1.36</v>
+      </c>
+      <c r="U126">
+        <v>3</v>
+      </c>
+      <c r="V126">
+        <v>2.75</v>
+      </c>
+      <c r="W126">
+        <v>1.4</v>
+      </c>
+      <c r="X126">
+        <v>7</v>
+      </c>
+      <c r="Y126">
+        <v>1.1</v>
+      </c>
+      <c r="Z126">
+        <v>1.57</v>
+      </c>
+      <c r="AA126">
+        <v>4</v>
+      </c>
+      <c r="AB126">
+        <v>5.75</v>
+      </c>
+      <c r="AC126">
+        <v>1.04</v>
+      </c>
+      <c r="AD126">
+        <v>12</v>
+      </c>
+      <c r="AE126">
+        <v>1.28</v>
+      </c>
+      <c r="AF126">
+        <v>3.75</v>
+      </c>
+      <c r="AG126">
+        <v>1.83</v>
+      </c>
+      <c r="AH126">
+        <v>1.91</v>
+      </c>
+      <c r="AI126">
+        <v>1.91</v>
+      </c>
+      <c r="AJ126">
+        <v>1.8</v>
+      </c>
+      <c r="AK126">
+        <v>1.12</v>
+      </c>
+      <c r="AL126">
+        <v>1.18</v>
+      </c>
+      <c r="AM126">
+        <v>2.5</v>
+      </c>
+      <c r="AN126">
+        <v>2.6</v>
+      </c>
+      <c r="AO126">
+        <v>0.2</v>
+      </c>
+      <c r="AP126">
+        <v>2.17</v>
+      </c>
+      <c r="AQ126">
+        <v>0.67</v>
+      </c>
+      <c r="AR126">
+        <v>1.43</v>
+      </c>
+      <c r="AS126">
+        <v>0.85</v>
+      </c>
+      <c r="AT126">
+        <v>2.28</v>
+      </c>
+      <c r="AU126">
+        <v>6</v>
+      </c>
+      <c r="AV126">
+        <v>4</v>
+      </c>
+      <c r="AW126">
+        <v>4</v>
+      </c>
+      <c r="AX126">
+        <v>3</v>
+      </c>
+      <c r="AY126">
+        <v>11</v>
+      </c>
+      <c r="AZ126">
+        <v>8</v>
+      </c>
+      <c r="BA126">
+        <v>3</v>
+      </c>
+      <c r="BB126">
+        <v>4</v>
+      </c>
+      <c r="BC126">
+        <v>7</v>
+      </c>
+      <c r="BD126">
+        <v>1.44</v>
+      </c>
+      <c r="BE126">
+        <v>9</v>
+      </c>
+      <c r="BF126">
+        <v>3</v>
+      </c>
+      <c r="BG126">
+        <v>1.22</v>
+      </c>
+      <c r="BH126">
+        <v>3.8</v>
+      </c>
+      <c r="BI126">
+        <v>1.38</v>
+      </c>
+      <c r="BJ126">
+        <v>2.8</v>
+      </c>
+      <c r="BK126">
+        <v>1.64</v>
+      </c>
+      <c r="BL126">
+        <v>2.23</v>
+      </c>
+      <c r="BM126">
+        <v>2.03</v>
+      </c>
+      <c r="BN126">
+        <v>1.77</v>
+      </c>
+      <c r="BO126">
+        <v>2.5</v>
+      </c>
+      <c r="BP126">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7476671</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45577.45833333334</v>
+      </c>
+      <c r="F127">
+        <v>11</v>
+      </c>
+      <c r="G127" t="s">
+        <v>76</v>
+      </c>
+      <c r="H127" t="s">
+        <v>84</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>180</v>
+      </c>
+      <c r="P127" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q127">
+        <v>2.38</v>
+      </c>
+      <c r="R127">
+        <v>2.2</v>
+      </c>
+      <c r="S127">
+        <v>5</v>
+      </c>
+      <c r="T127">
+        <v>1.36</v>
+      </c>
+      <c r="U127">
+        <v>3</v>
+      </c>
+      <c r="V127">
+        <v>2.75</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>8</v>
+      </c>
+      <c r="Y127">
+        <v>1.08</v>
+      </c>
+      <c r="Z127">
+        <v>1.75</v>
+      </c>
+      <c r="AA127">
+        <v>3.75</v>
+      </c>
+      <c r="AB127">
+        <v>4.5</v>
+      </c>
+      <c r="AC127">
+        <v>1.04</v>
+      </c>
+      <c r="AD127">
+        <v>13</v>
+      </c>
+      <c r="AE127">
+        <v>1.28</v>
+      </c>
+      <c r="AF127">
+        <v>3.6</v>
+      </c>
+      <c r="AG127">
+        <v>1.83</v>
+      </c>
+      <c r="AH127">
+        <v>1.91</v>
+      </c>
+      <c r="AI127">
+        <v>1.83</v>
+      </c>
+      <c r="AJ127">
+        <v>1.83</v>
+      </c>
+      <c r="AK127">
+        <v>1.2</v>
+      </c>
+      <c r="AL127">
+        <v>1.22</v>
+      </c>
+      <c r="AM127">
+        <v>2.1</v>
+      </c>
+      <c r="AN127">
+        <v>2.4</v>
+      </c>
+      <c r="AO127">
+        <v>0</v>
+      </c>
+      <c r="AP127">
+        <v>2</v>
+      </c>
+      <c r="AQ127">
+        <v>0.6</v>
+      </c>
+      <c r="AR127">
+        <v>1.25</v>
+      </c>
+      <c r="AS127">
+        <v>1.23</v>
+      </c>
+      <c r="AT127">
+        <v>2.48</v>
+      </c>
+      <c r="AU127">
+        <v>3</v>
+      </c>
+      <c r="AV127">
+        <v>8</v>
+      </c>
+      <c r="AW127">
+        <v>2</v>
+      </c>
+      <c r="AX127">
+        <v>5</v>
+      </c>
+      <c r="AY127">
+        <v>9</v>
+      </c>
+      <c r="AZ127">
+        <v>15</v>
+      </c>
+      <c r="BA127">
+        <v>4</v>
+      </c>
+      <c r="BB127">
+        <v>3</v>
+      </c>
+      <c r="BC127">
+        <v>7</v>
+      </c>
+      <c r="BD127">
+        <v>1.5</v>
+      </c>
+      <c r="BE127">
+        <v>9</v>
+      </c>
+      <c r="BF127">
+        <v>2.88</v>
+      </c>
+      <c r="BG127">
+        <v>1.22</v>
+      </c>
+      <c r="BH127">
+        <v>3.8</v>
+      </c>
+      <c r="BI127">
+        <v>1.38</v>
+      </c>
+      <c r="BJ127">
+        <v>2.8</v>
+      </c>
+      <c r="BK127">
+        <v>1.65</v>
+      </c>
+      <c r="BL127">
+        <v>2.22</v>
+      </c>
+      <c r="BM127">
+        <v>2.04</v>
+      </c>
+      <c r="BN127">
+        <v>1.76</v>
+      </c>
+      <c r="BO127">
+        <v>2.5</v>
+      </c>
+      <c r="BP127">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -25244,7 +25244,7 @@
         <v>45577.35416666666</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G118" t="s">
         <v>70</v>
@@ -25656,7 +25656,7 @@
         <v>45577.45833333334</v>
       </c>
       <c r="F120">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
         <v>80</v>
@@ -26068,7 +26068,7 @@
         <v>45577.45833333334</v>
       </c>
       <c r="F122">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>77</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -1456,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1662,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1868,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.17</v>
+        <v>1.73</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2074,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>0.91</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="AQ6">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2486,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2692,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3104,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AQ10">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>2.17</v>
+        <v>1.91</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3722,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3925,22 +3925,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1.73</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4128,25 +4128,25 @@
         <v>1.47</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP15">
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AU15">
         <v>5</v>
@@ -4340,19 +4340,19 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AU16">
         <v>10</v>
@@ -4546,19 +4546,19 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="AQ17">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AU17">
         <v>9</v>
@@ -4749,22 +4749,22 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -4955,22 +4955,22 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ19">
-        <v>0.2</v>
+        <v>0.91</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5161,22 +5161,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5367,22 +5367,22 @@
         <v>0</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ21">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AU21">
         <v>-1</v>
@@ -5570,25 +5570,25 @@
         <v>2.04</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AU22">
         <v>-1</v>
@@ -5776,25 +5776,25 @@
         <v>1.54</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AU23">
         <v>-1</v>
@@ -5982,25 +5982,25 @@
         <v>2.05</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AU24">
         <v>4</v>
@@ -6188,25 +6188,25 @@
         <v>1.77</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU25">
         <v>9</v>
@@ -6397,22 +6397,22 @@
         <v>1</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
+        <v>1.73</v>
+      </c>
+      <c r="AQ26">
+        <v>1.64</v>
+      </c>
+      <c r="AR26">
         <v>1.4</v>
       </c>
-      <c r="AQ26">
-        <v>1.5</v>
-      </c>
-      <c r="AR26">
-        <v>1.83</v>
-      </c>
       <c r="AS26">
-        <v>0.64</v>
+        <v>1.04</v>
       </c>
       <c r="AT26">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6606,19 +6606,19 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AQ27">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AR27">
         <v>0.86</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AT27">
-        <v>0.86</v>
+        <v>1.83</v>
       </c>
       <c r="AU27">
         <v>2</v>
@@ -6809,22 +6809,22 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR28">
-        <v>1.35</v>
+        <v>0.96</v>
       </c>
       <c r="AS28">
         <v>0.6899999999999999</v>
       </c>
       <c r="AT28">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -7012,25 +7012,25 @@
         <v>2.46</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO29">
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
       </c>
       <c r="AS29">
-        <v>0.33</v>
+        <v>0.72</v>
       </c>
       <c r="AT29">
-        <v>1.72</v>
+        <v>2.11</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -7218,25 +7218,25 @@
         <v>1.57</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>2.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AS30">
-        <v>0.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT30">
-        <v>0.65</v>
+        <v>3.03</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7424,25 +7424,25 @@
         <v>1.5</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO31">
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="AR31">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="AS31">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AT31">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="AU31">
         <v>4</v>
@@ -7633,22 +7633,22 @@
         <v>0</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR32">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AS32">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="AT32">
-        <v>3.48</v>
+        <v>2.97</v>
       </c>
       <c r="AU32">
         <v>7</v>
@@ -7836,25 +7836,25 @@
         <v>2</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
-        <v>1.27</v>
+        <v>1.77</v>
       </c>
       <c r="AS33">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AT33">
-        <v>2.29</v>
+        <v>2.83</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -8042,25 +8042,25 @@
         <v>1.77</v>
       </c>
       <c r="AN34">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AR34">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="AS34">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AT34">
-        <v>2.93</v>
+        <v>2.6</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8248,25 +8248,25 @@
         <v>1.73</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>0.91</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR35">
-        <v>1.55</v>
+        <v>1.29</v>
       </c>
       <c r="AS35">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AT35">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8454,25 +8454,25 @@
         <v>2.2</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO36">
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ36">
         <v>1</v>
       </c>
       <c r="AR36">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="AS36">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="AT36">
-        <v>2.8</v>
+        <v>2.31</v>
       </c>
       <c r="AU36">
         <v>10</v>
@@ -8660,25 +8660,25 @@
         <v>1.53</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.17</v>
+        <v>1.73</v>
       </c>
       <c r="AQ37">
-        <v>2.17</v>
+        <v>1.91</v>
       </c>
       <c r="AR37">
-        <v>1.13</v>
+        <v>0.95</v>
       </c>
       <c r="AS37">
         <v>1.08</v>
       </c>
       <c r="AT37">
-        <v>2.21</v>
+        <v>2.03</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -8866,25 +8866,25 @@
         <v>1.6</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="AQ38">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AR38">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AS38">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AT38">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AU38">
         <v>6</v>
@@ -9072,25 +9072,25 @@
         <v>1.62</v>
       </c>
       <c r="AN39">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO39">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AQ39">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR39">
-        <v>1.62</v>
+        <v>1.15</v>
       </c>
       <c r="AS39">
-        <v>2.26</v>
+        <v>1.59</v>
       </c>
       <c r="AT39">
-        <v>3.88</v>
+        <v>2.74</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9278,25 +9278,25 @@
         <v>1.53</v>
       </c>
       <c r="AN40">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO40">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AR40">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AS40">
-        <v>0.96</v>
+        <v>1.51</v>
       </c>
       <c r="AT40">
-        <v>0.96</v>
+        <v>2.37</v>
       </c>
       <c r="AU40">
         <v>7</v>
@@ -9487,22 +9487,22 @@
         <v>0</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR41">
+        <v>0.75</v>
+      </c>
+      <c r="AS41">
         <v>1.1</v>
       </c>
-      <c r="AS41">
-        <v>1.42</v>
-      </c>
       <c r="AT41">
-        <v>2.52</v>
+        <v>1.85</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -9690,25 +9690,25 @@
         <v>1.35</v>
       </c>
       <c r="AN42">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AQ42">
-        <v>1.2</v>
+        <v>1.73</v>
       </c>
       <c r="AR42">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AS42">
-        <v>0.77</v>
+        <v>1.11</v>
       </c>
       <c r="AT42">
-        <v>1.92</v>
+        <v>2.29</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -9896,25 +9896,25 @@
         <v>1.85</v>
       </c>
       <c r="AN43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AQ43">
-        <v>0.2</v>
+        <v>0.91</v>
       </c>
       <c r="AR43">
-        <v>0.97</v>
+        <v>1.09</v>
       </c>
       <c r="AS43">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="AU43">
         <v>7</v>
@@ -10102,25 +10102,25 @@
         <v>1.74</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO44">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR44">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AS44">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AT44">
-        <v>1.2</v>
+        <v>2.08</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10308,25 +10308,25 @@
         <v>1.55</v>
       </c>
       <c r="AN45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP45">
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AR45">
-        <v>1.02</v>
+        <v>1.21</v>
       </c>
       <c r="AS45">
-        <v>0.5600000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AT45">
-        <v>1.58</v>
+        <v>2.07</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10514,25 +10514,25 @@
         <v>1.48</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ46">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AR46">
-        <v>2.58</v>
+        <v>1.73</v>
       </c>
       <c r="AS46">
-        <v>1.11</v>
+        <v>1.73</v>
       </c>
       <c r="AT46">
-        <v>3.69</v>
+        <v>3.46</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10720,25 +10720,25 @@
         <v>1.77</v>
       </c>
       <c r="AN47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO47">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR47">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="AS47">
-        <v>0.92</v>
+        <v>1.11</v>
       </c>
       <c r="AT47">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="AU47">
         <v>6</v>
@@ -10926,25 +10926,25 @@
         <v>1.38</v>
       </c>
       <c r="AN48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO48">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR48">
+        <v>1.1</v>
+      </c>
+      <c r="AS48">
         <v>1.43</v>
       </c>
-      <c r="AS48">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="AT48">
-        <v>2.24</v>
+        <v>2.53</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11132,25 +11132,25 @@
         <v>1.37</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ49">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AR49">
-        <v>1.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS49">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="AT49">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="AU49">
         <v>7</v>
@@ -11341,22 +11341,22 @@
         <v>2</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="AQ50">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR50">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="AS50">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="AT50">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="AU50">
         <v>9</v>
@@ -11544,25 +11544,25 @@
         <v>1.33</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO51">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ51">
-        <v>2.17</v>
+        <v>1.91</v>
       </c>
       <c r="AR51">
-        <v>0.78</v>
+        <v>0.96</v>
       </c>
       <c r="AS51">
-        <v>0.97</v>
+        <v>1.11</v>
       </c>
       <c r="AT51">
-        <v>1.75</v>
+        <v>2.07</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11750,25 +11750,25 @@
         <v>1.62</v>
       </c>
       <c r="AN52">
+        <v>0.75</v>
+      </c>
+      <c r="AO52">
+        <v>2.25</v>
+      </c>
+      <c r="AP52">
+        <v>1.09</v>
+      </c>
+      <c r="AQ52">
+        <v>1.9</v>
+      </c>
+      <c r="AR52">
         <v>1.5</v>
       </c>
-      <c r="AO52">
-        <v>1.5</v>
-      </c>
-      <c r="AP52">
-        <v>1.33</v>
-      </c>
-      <c r="AQ52">
-        <v>1.4</v>
-      </c>
-      <c r="AR52">
-        <v>1.63</v>
-      </c>
       <c r="AS52">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="AT52">
-        <v>2.83</v>
+        <v>2.95</v>
       </c>
       <c r="AU52">
         <v>6</v>
@@ -11956,25 +11956,25 @@
         <v>2.05</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO53">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP53">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR53">
-        <v>1.74</v>
+        <v>1.39</v>
       </c>
       <c r="AS53">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT53">
-        <v>3.16</v>
+        <v>2.77</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -12162,25 +12162,25 @@
         <v>1.95</v>
       </c>
       <c r="AN54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO54">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP54">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="AQ54">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="AR54">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AS54">
-        <v>0.92</v>
+        <v>1.13</v>
       </c>
       <c r="AT54">
-        <v>2.13</v>
+        <v>2.35</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12368,25 +12368,25 @@
         <v>1.7</v>
       </c>
       <c r="AN55">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO55">
         <v>1.5</v>
       </c>
       <c r="AP55">
+        <v>1.1</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
         <v>1.6</v>
       </c>
-      <c r="AQ55">
-        <v>1</v>
-      </c>
-      <c r="AR55">
-        <v>2.03</v>
-      </c>
       <c r="AS55">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AT55">
-        <v>3.34</v>
+        <v>2.77</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12574,25 +12574,25 @@
         <v>2.3</v>
       </c>
       <c r="AN56">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO56">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR56">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="AS56">
-        <v>0.93</v>
+        <v>1.08</v>
       </c>
       <c r="AT56">
-        <v>2.18</v>
+        <v>2.63</v>
       </c>
       <c r="AU56">
         <v>5</v>
@@ -12780,25 +12780,25 @@
         <v>1.8</v>
       </c>
       <c r="AN57">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>0.91</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AR57">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AS57">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AT57">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="AU57">
         <v>5</v>
@@ -12986,25 +12986,25 @@
         <v>1.91</v>
       </c>
       <c r="AN58">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.17</v>
+        <v>1.73</v>
       </c>
       <c r="AQ58">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR58">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AS58">
-        <v>0.86</v>
+        <v>1.18</v>
       </c>
       <c r="AT58">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13192,25 +13192,25 @@
         <v>1.85</v>
       </c>
       <c r="AN59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO59">
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ59">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR59">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AS59">
-        <v>0.57</v>
+        <v>0.99</v>
       </c>
       <c r="AT59">
-        <v>1.57</v>
+        <v>2.06</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13398,25 +13398,25 @@
         <v>1.22</v>
       </c>
       <c r="AN60">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AO60">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AR60">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AS60">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AT60">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13604,25 +13604,25 @@
         <v>1.57</v>
       </c>
       <c r="AN61">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AR61">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="AS61">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AT61">
-        <v>2.84</v>
+        <v>2.75</v>
       </c>
       <c r="AU61">
         <v>9</v>
@@ -13810,25 +13810,25 @@
         <v>2.1</v>
       </c>
       <c r="AN62">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO62">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP62">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR62">
-        <v>1.82</v>
+        <v>1.3</v>
       </c>
       <c r="AS62">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="AT62">
-        <v>2.87</v>
+        <v>2.23</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -14019,22 +14019,22 @@
         <v>0</v>
       </c>
       <c r="AO63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP63">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ63">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AR63">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="AS63">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AT63">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="AU63">
         <v>4</v>
@@ -14222,25 +14222,25 @@
         <v>1.55</v>
       </c>
       <c r="AN64">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO64">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AQ64">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR64">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AS64">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="AT64">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14428,25 +14428,25 @@
         <v>1.83</v>
       </c>
       <c r="AN65">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO65">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ65">
-        <v>0.2</v>
+        <v>0.91</v>
       </c>
       <c r="AR65">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="AS65">
-        <v>0.99</v>
+        <v>1.15</v>
       </c>
       <c r="AT65">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AU65">
         <v>4</v>
@@ -14634,25 +14634,25 @@
         <v>1.55</v>
       </c>
       <c r="AN66">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO66">
+        <v>1.6</v>
+      </c>
+      <c r="AP66">
+        <v>1.91</v>
+      </c>
+      <c r="AQ66">
+        <v>1.36</v>
+      </c>
+      <c r="AR66">
+        <v>1.39</v>
+      </c>
+      <c r="AS66">
         <v>1.5</v>
       </c>
-      <c r="AP66">
-        <v>1.6</v>
-      </c>
-      <c r="AQ66">
-        <v>1.4</v>
-      </c>
-      <c r="AR66">
-        <v>1.4</v>
-      </c>
-      <c r="AS66">
-        <v>1.84</v>
-      </c>
       <c r="AT66">
-        <v>3.24</v>
+        <v>2.89</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14840,25 +14840,25 @@
         <v>1.77</v>
       </c>
       <c r="AN67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO67">
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR67">
-        <v>1.34</v>
+        <v>1.04</v>
       </c>
       <c r="AS67">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AT67">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="AU67">
         <v>6</v>
@@ -15046,25 +15046,25 @@
         <v>1.57</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AO68">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP68">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AR68">
-        <v>1.88</v>
+        <v>1.52</v>
       </c>
       <c r="AS68">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="AT68">
-        <v>3.02</v>
+        <v>2.55</v>
       </c>
       <c r="AU68">
         <v>2</v>
@@ -15252,25 +15252,25 @@
         <v>1.45</v>
       </c>
       <c r="AN69">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO69">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP69">
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AR69">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AS69">
-        <v>0.92</v>
+        <v>1.43</v>
       </c>
       <c r="AT69">
-        <v>1.95</v>
+        <v>2.58</v>
       </c>
       <c r="AU69">
         <v>8</v>
@@ -15458,25 +15458,25 @@
         <v>1.48</v>
       </c>
       <c r="AN70">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AO70">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP70">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ70">
-        <v>1.2</v>
+        <v>1.73</v>
       </c>
       <c r="AR70">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AS70">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="AT70">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="AU70">
         <v>4</v>
@@ -15664,25 +15664,25 @@
         <v>1.62</v>
       </c>
       <c r="AN71">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO71">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP71">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR71">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AS71">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="AT71">
-        <v>2.37</v>
+        <v>2.51</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -15870,25 +15870,25 @@
         <v>1.3</v>
       </c>
       <c r="AN72">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AO72">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ72">
-        <v>2.17</v>
+        <v>1.91</v>
       </c>
       <c r="AR72">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AS72">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AT72">
-        <v>2.93</v>
+        <v>2.76</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16076,25 +16076,25 @@
         <v>2.55</v>
       </c>
       <c r="AN73">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AQ73">
-        <v>0.2</v>
+        <v>0.91</v>
       </c>
       <c r="AR73">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AS73">
-        <v>0.97</v>
+        <v>1.12</v>
       </c>
       <c r="AT73">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16285,22 +16285,22 @@
         <v>2.33</v>
       </c>
       <c r="AO74">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AP74">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="AQ74">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="AR74">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="AS74">
-        <v>0.84</v>
+        <v>1.12</v>
       </c>
       <c r="AT74">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="AU74">
         <v>4</v>
@@ -16488,25 +16488,25 @@
         <v>2.4</v>
       </c>
       <c r="AN75">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="AO75">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP75">
-        <v>2.17</v>
+        <v>1.73</v>
       </c>
       <c r="AQ75">
-        <v>0.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR75">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AS75">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="AT75">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="AU75">
         <v>10</v>
@@ -16694,25 +16694,25 @@
         <v>1.67</v>
       </c>
       <c r="AN76">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO76">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AP76">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR76">
-        <v>1.6</v>
+        <v>1.31</v>
       </c>
       <c r="AS76">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="AT76">
-        <v>2.77</v>
+        <v>2.68</v>
       </c>
       <c r="AU76">
         <v>6</v>
@@ -16900,25 +16900,25 @@
         <v>1.7</v>
       </c>
       <c r="AN77">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO77">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AP77">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR77">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="AS77">
-        <v>1.23</v>
+        <v>0.98</v>
       </c>
       <c r="AT77">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="AU77">
         <v>9</v>
@@ -17106,25 +17106,25 @@
         <v>2</v>
       </c>
       <c r="AN78">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO78">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AR78">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="AS78">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT78">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17312,25 +17312,25 @@
         <v>1.6</v>
       </c>
       <c r="AN79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO79">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP79">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ79">
         <v>1</v>
       </c>
       <c r="AR79">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AS79">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT79">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -17518,25 +17518,25 @@
         <v>1.57</v>
       </c>
       <c r="AN80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP80">
+        <v>1.09</v>
+      </c>
+      <c r="AQ80">
+        <v>1.82</v>
+      </c>
+      <c r="AR80">
+        <v>1.37</v>
+      </c>
+      <c r="AS80">
         <v>1.33</v>
       </c>
-      <c r="AQ80">
-        <v>1.4</v>
-      </c>
-      <c r="AR80">
-        <v>1.48</v>
-      </c>
-      <c r="AS80">
-        <v>1.55</v>
-      </c>
       <c r="AT80">
-        <v>3.03</v>
+        <v>2.7</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17724,25 +17724,25 @@
         <v>1.42</v>
       </c>
       <c r="AN81">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ81">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AR81">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="AS81">
-        <v>1.04</v>
+        <v>1.38</v>
       </c>
       <c r="AT81">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -17933,22 +17933,22 @@
         <v>1</v>
       </c>
       <c r="AO82">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR82">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="AS82">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT82">
-        <v>3.13</v>
+        <v>2.75</v>
       </c>
       <c r="AU82">
         <v>3</v>
@@ -18136,25 +18136,25 @@
         <v>2.32</v>
       </c>
       <c r="AN83">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO83">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR83">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AS83">
-        <v>0.76</v>
+        <v>1.02</v>
       </c>
       <c r="AT83">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="AU83">
         <v>13</v>
@@ -18342,25 +18342,25 @@
         <v>1.66</v>
       </c>
       <c r="AN84">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO84">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP84">
+        <v>1.1</v>
+      </c>
+      <c r="AQ84">
         <v>1.2</v>
       </c>
-      <c r="AQ84">
-        <v>0.75</v>
-      </c>
       <c r="AR84">
-        <v>0.73</v>
+        <v>1.09</v>
       </c>
       <c r="AS84">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AT84">
-        <v>1.58</v>
+        <v>2.21</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18548,25 +18548,25 @@
         <v>1.88</v>
       </c>
       <c r="AN85">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="AO85">
-        <v>0.67</v>
+        <v>1.29</v>
       </c>
       <c r="AP85">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AQ85">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AR85">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AS85">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="AT85">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="AU85">
         <v>7</v>
@@ -18757,22 +18757,22 @@
         <v>1</v>
       </c>
       <c r="AO86">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AQ86">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR86">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AS86">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="AT86">
-        <v>2.12</v>
+        <v>2.51</v>
       </c>
       <c r="AU86">
         <v>6</v>
@@ -18960,25 +18960,25 @@
         <v>1.21</v>
       </c>
       <c r="AN87">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AO87">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP87">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ87">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AR87">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="AS87">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="AT87">
-        <v>2.48</v>
+        <v>2.53</v>
       </c>
       <c r="AU87">
         <v>9</v>
@@ -19166,25 +19166,25 @@
         <v>1.9</v>
       </c>
       <c r="AN88">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AO88">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="AQ88">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR88">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AS88">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AT88">
-        <v>2.43</v>
+        <v>2.73</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19372,25 +19372,25 @@
         <v>1.33</v>
       </c>
       <c r="AN89">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AO89">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP89">
-        <v>2.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ89">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AR89">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="AS89">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AT89">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AU89">
         <v>3</v>
@@ -19578,25 +19578,25 @@
         <v>1.72</v>
       </c>
       <c r="AN90">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AO90">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AP90">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ90">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR90">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AS90">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AT90">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="AU90">
         <v>5</v>
@@ -19784,25 +19784,25 @@
         <v>1.71</v>
       </c>
       <c r="AN91">
-        <v>3</v>
+        <v>1.86</v>
       </c>
       <c r="AO91">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP91">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="AQ91">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR91">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AS91">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AT91">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AU91">
         <v>0</v>
@@ -19990,25 +19990,25 @@
         <v>1.3</v>
       </c>
       <c r="AN92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO92">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>0.91</v>
       </c>
       <c r="AQ92">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR92">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AS92">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="AT92">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="AU92">
         <v>2</v>
@@ -20199,22 +20199,22 @@
         <v>1</v>
       </c>
       <c r="AO93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP93">
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AR93">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AS93">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AT93">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="AU93">
         <v>5</v>
@@ -20402,25 +20402,25 @@
         <v>1.53</v>
       </c>
       <c r="AN94">
-        <v>3</v>
+        <v>2.29</v>
       </c>
       <c r="AO94">
-        <v>2</v>
+        <v>2.29</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AQ94">
-        <v>1.2</v>
+        <v>1.73</v>
       </c>
       <c r="AR94">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="AS94">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AT94">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20608,25 +20608,25 @@
         <v>1.24</v>
       </c>
       <c r="AN95">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AO95">
-        <v>0.75</v>
+        <v>1.38</v>
       </c>
       <c r="AP95">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ95">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR95">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="AS95">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="AT95">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -20814,25 +20814,25 @@
         <v>1.76</v>
       </c>
       <c r="AN96">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO96">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AP96">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AQ96">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR96">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AS96">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="AT96">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AU96">
         <v>4</v>
@@ -21020,25 +21020,25 @@
         <v>1.62</v>
       </c>
       <c r="AN97">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AO97">
         <v>0.75</v>
       </c>
       <c r="AP97">
+        <v>1.1</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AR97">
         <v>1.2</v>
       </c>
-      <c r="AQ97">
-        <v>1.17</v>
-      </c>
-      <c r="AR97">
-        <v>1.07</v>
-      </c>
       <c r="AS97">
-        <v>0.98</v>
+        <v>1.25</v>
       </c>
       <c r="AT97">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21229,22 +21229,22 @@
         <v>1.75</v>
       </c>
       <c r="AO98">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AP98">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="AQ98">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AR98">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AS98">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="AT98">
-        <v>2.83</v>
+        <v>3.03</v>
       </c>
       <c r="AU98">
         <v>5</v>
@@ -21432,25 +21432,25 @@
         <v>1.34</v>
       </c>
       <c r="AN99">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO99">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP99">
-        <v>2.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ99">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR99">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="AS99">
-        <v>0.99</v>
+        <v>1.14</v>
       </c>
       <c r="AT99">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -21638,25 +21638,25 @@
         <v>1.28</v>
       </c>
       <c r="AN100">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO100">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AQ100">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AR100">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AS100">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AT100">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="AU100">
         <v>5</v>
@@ -21844,25 +21844,25 @@
         <v>1.93</v>
       </c>
       <c r="AN101">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="AO101">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP101">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="AQ101">
-        <v>1.2</v>
+        <v>1.73</v>
       </c>
       <c r="AR101">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AS101">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
       <c r="AT101">
-        <v>2.09</v>
+        <v>2.54</v>
       </c>
       <c r="AU101">
         <v>5</v>
@@ -22050,25 +22050,25 @@
         <v>1.73</v>
       </c>
       <c r="AN102">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AO102">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>0.91</v>
       </c>
       <c r="AQ102">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR102">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AS102">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="AT102">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22259,22 +22259,22 @@
         <v>0.75</v>
       </c>
       <c r="AO103">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AP103">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ103">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AR103">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AS103">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="AT103">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="AU103">
         <v>8</v>
@@ -22471,16 +22471,16 @@
         <v>1</v>
       </c>
       <c r="AQ104">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR104">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AS104">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AT104">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22668,25 +22668,25 @@
         <v>1.79</v>
       </c>
       <c r="AN105">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AO105">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR105">
-        <v>1.31</v>
+        <v>1.1</v>
       </c>
       <c r="AS105">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AT105">
-        <v>2.56</v>
+        <v>2.31</v>
       </c>
       <c r="AU105">
         <v>3</v>
@@ -22874,25 +22874,25 @@
         <v>1.36</v>
       </c>
       <c r="AN106">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="AO106">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="AP106">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ106">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AR106">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AS106">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="AT106">
-        <v>2.75</v>
+        <v>2.41</v>
       </c>
       <c r="AU106">
         <v>4</v>
@@ -23080,25 +23080,25 @@
         <v>1.81</v>
       </c>
       <c r="AN107">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AO107">
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AQ107">
         <v>1</v>
       </c>
       <c r="AR107">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
       <c r="AS107">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AT107">
-        <v>2.93</v>
+        <v>2.71</v>
       </c>
       <c r="AU107">
         <v>3</v>
@@ -23286,25 +23286,25 @@
         <v>1.81</v>
       </c>
       <c r="AN108">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AO108">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP108">
+        <v>1.36</v>
+      </c>
+      <c r="AQ108">
+        <v>1.9</v>
+      </c>
+      <c r="AR108">
         <v>1.33</v>
       </c>
-      <c r="AQ108">
-        <v>1.4</v>
-      </c>
-      <c r="AR108">
-        <v>1.34</v>
-      </c>
       <c r="AS108">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="AT108">
-        <v>2.54</v>
+        <v>2.75</v>
       </c>
       <c r="AU108">
         <v>3</v>
@@ -23492,25 +23492,25 @@
         <v>1.65</v>
       </c>
       <c r="AN109">
-        <v>1.75</v>
+        <v>1.11</v>
       </c>
       <c r="AO109">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="AQ109">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR109">
-        <v>1.85</v>
+        <v>1.49</v>
       </c>
       <c r="AS109">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AT109">
-        <v>3.12</v>
+        <v>2.89</v>
       </c>
       <c r="AU109">
         <v>5</v>
@@ -23698,25 +23698,25 @@
         <v>1.45</v>
       </c>
       <c r="AN110">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO110">
-        <v>1.75</v>
+        <v>2.11</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ110">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="AR110">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AS110">
-        <v>0.89</v>
+        <v>1.09</v>
       </c>
       <c r="AT110">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="AU110">
         <v>7</v>
@@ -23904,25 +23904,25 @@
         <v>1.95</v>
       </c>
       <c r="AN111">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="AO111">
-        <v>0.25</v>
+        <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>2.17</v>
+        <v>1.73</v>
       </c>
       <c r="AQ111">
-        <v>0.2</v>
+        <v>0.91</v>
       </c>
       <c r="AR111">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="AS111">
-        <v>0.99</v>
+        <v>1.11</v>
       </c>
       <c r="AT111">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="AU111">
         <v>5</v>
@@ -24110,25 +24110,25 @@
         <v>1.95</v>
       </c>
       <c r="AN112">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="AO112">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR112">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AS112">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AT112">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24316,25 +24316,25 @@
         <v>1.54</v>
       </c>
       <c r="AN113">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO113">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="AQ113">
-        <v>2.17</v>
+        <v>1.91</v>
       </c>
       <c r="AR113">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="AS113">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AT113">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -24522,25 +24522,25 @@
         <v>1.35</v>
       </c>
       <c r="AN114">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AO114">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR114">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AS114">
-        <v>0.96</v>
+        <v>1.23</v>
       </c>
       <c r="AT114">
-        <v>2.21</v>
+        <v>2.36</v>
       </c>
       <c r="AU114">
         <v>4</v>
@@ -24728,25 +24728,25 @@
         <v>1.94</v>
       </c>
       <c r="AN115">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AO115">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP115">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AR115">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="AS115">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AT115">
-        <v>2.85</v>
+        <v>2.47</v>
       </c>
       <c r="AU115">
         <v>3</v>
@@ -24934,25 +24934,25 @@
         <v>1.81</v>
       </c>
       <c r="AN116">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="AO116">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="AP116">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ116">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR116">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="AS116">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
       <c r="AT116">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="AU116">
         <v>5</v>
@@ -25140,25 +25140,25 @@
         <v>2.67</v>
       </c>
       <c r="AN117">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO117">
-        <v>0.75</v>
+        <v>1.67</v>
       </c>
       <c r="AP117">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR117">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="AS117">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="AT117">
-        <v>2.24</v>
+        <v>2.21</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25349,22 +25349,22 @@
         <v>1.4</v>
       </c>
       <c r="AO118">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AP118">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AQ118">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AR118">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AS118">
-        <v>1.14</v>
+        <v>1.42</v>
       </c>
       <c r="AT118">
-        <v>2.4</v>
+        <v>2.71</v>
       </c>
       <c r="AU118">
         <v>7</v>
@@ -25552,25 +25552,25 @@
         <v>1.75</v>
       </c>
       <c r="AN119">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AO119">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP119">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AQ119">
-        <v>2.17</v>
+        <v>1.91</v>
       </c>
       <c r="AR119">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AS119">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AT119">
-        <v>2.65</v>
+        <v>2.78</v>
       </c>
       <c r="AU119">
         <v>4</v>
@@ -25758,25 +25758,25 @@
         <v>1.45</v>
       </c>
       <c r="AN120">
+        <v>1.22</v>
+      </c>
+      <c r="AO120">
         <v>1.5</v>
       </c>
-      <c r="AO120">
-        <v>0.8</v>
-      </c>
       <c r="AP120">
+        <v>1.1</v>
+      </c>
+      <c r="AQ120">
+        <v>1.64</v>
+      </c>
+      <c r="AR120">
         <v>1.2</v>
       </c>
-      <c r="AQ120">
-        <v>1.17</v>
-      </c>
-      <c r="AR120">
-        <v>1.15</v>
-      </c>
       <c r="AS120">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AT120">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AU120">
         <v>3</v>
@@ -25964,25 +25964,25 @@
         <v>1.65</v>
       </c>
       <c r="AN121">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO121">
+        <v>1.5</v>
+      </c>
+      <c r="AP121">
         <v>1.2</v>
       </c>
-      <c r="AP121">
-        <v>1.5</v>
-      </c>
       <c r="AQ121">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR121">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="AS121">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AT121">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="AU121">
         <v>11</v>
@@ -26170,25 +26170,25 @@
         <v>1.78</v>
       </c>
       <c r="AN122">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AO122">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AQ122">
-        <v>0.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR122">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AS122">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="AT122">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AU122">
         <v>4</v>
@@ -26376,25 +26376,25 @@
         <v>2</v>
       </c>
       <c r="AN123">
-        <v>3</v>
+        <v>1.86</v>
       </c>
       <c r="AO123">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AP123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR123">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AS123">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AT123">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AU123">
         <v>5</v>
@@ -26582,25 +26582,25 @@
         <v>2.25</v>
       </c>
       <c r="AN124">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AO124">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AP124">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="AQ124">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AR124">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="AS124">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AT124">
-        <v>2.15</v>
+        <v>2.42</v>
       </c>
       <c r="AU124">
         <v>6</v>
@@ -26788,25 +26788,25 @@
         <v>1.47</v>
       </c>
       <c r="AN125">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AO125">
         <v>0.8</v>
       </c>
       <c r="AP125">
-        <v>1.5</v>
+        <v>0.91</v>
       </c>
       <c r="AQ125">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR125">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AS125">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="AT125">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="AU125">
         <v>4</v>
@@ -26994,25 +26994,25 @@
         <v>2.5</v>
       </c>
       <c r="AN126">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="AO126">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AP126">
-        <v>2.17</v>
+        <v>1.73</v>
       </c>
       <c r="AQ126">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR126">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AS126">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="AT126">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AU126">
         <v>6</v>
@@ -27200,25 +27200,25 @@
         <v>2.1</v>
       </c>
       <c r="AN127">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AO127">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AQ127">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR127">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AS127">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AT127">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="AU127">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,13 +445,13 @@
     <t>['48', '82', '89']</t>
   </si>
   <si>
-    <t>['4', '6']</t>
+    <t>['42', '52']</t>
   </si>
   <si>
     <t>['45+3']</t>
   </si>
   <si>
-    <t>['42', '52']</t>
+    <t>['4', '6']</t>
   </si>
   <si>
     <t>['29', '43']</t>
@@ -499,13 +499,10 @@
     <t>['23']</t>
   </si>
   <si>
-    <t>['14', '45']</t>
-  </si>
-  <si>
     <t>['17']</t>
   </si>
   <si>
-    <t>['73']</t>
+    <t>['14', '45']</t>
   </si>
   <si>
     <t>['55']</t>
@@ -515,6 +512,9 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
   <si>
     <t>['69', '80']</t>
@@ -658,13 +658,13 @@
     <t>['43', '49', '64']</t>
   </si>
   <si>
-    <t>['13', '47', '56', '89']</t>
+    <t>['10', '19', '67']</t>
   </si>
   <si>
     <t>['14', '26']</t>
   </si>
   <si>
-    <t>['10', '19', '67']</t>
+    <t>['13', '47', '56', '89']</t>
   </si>
   <si>
     <t>['90', '90+5']</t>
@@ -703,19 +703,19 @@
     <t>['31', '59', '90+5']</t>
   </si>
   <si>
-    <t>['25', '51', '57', '67', '85', '90+4']</t>
-  </si>
-  <si>
     <t>['54']</t>
   </si>
   <si>
-    <t>['35', '45+2', '45+4', '87', '90']</t>
+    <t>['25', '51', '57', '67', '85', '90+4']</t>
   </si>
   <si>
     <t>['90']</t>
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['35', '45+2', '45+4', '87', '90']</t>
   </si>
   <si>
     <t>['39']</t>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t>['56']</t>
+  </si>
+  <si>
+    <t>['1', '84', '87']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4755,7 +4758,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5370,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>1.4</v>
@@ -7224,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>0.6</v>
@@ -9081,7 +9084,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
         <v>1.62</v>
@@ -11344,7 +11347,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>2.17</v>
@@ -14643,7 +14646,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ66">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
         <v>1.4</v>
@@ -14932,7 +14935,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7476601</v>
+        <v>7476603</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14947,190 +14950,190 @@
         <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O68" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="Q68">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R68">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S68">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T68">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V68">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W68">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y68">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z68">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AA68">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AB68">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AC68">
         <v>1.05</v>
       </c>
       <c r="AD68">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE68">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF68">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AG68">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AH68">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AI68">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AJ68">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK68">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AL68">
         <v>1.25</v>
       </c>
       <c r="AM68">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO68">
+        <v>0.5</v>
+      </c>
+      <c r="AP68">
+        <v>0.6</v>
+      </c>
+      <c r="AQ68">
+        <v>2</v>
+      </c>
+      <c r="AR68">
+        <v>1.35</v>
+      </c>
+      <c r="AS68">
+        <v>1.02</v>
+      </c>
+      <c r="AT68">
+        <v>2.37</v>
+      </c>
+      <c r="AU68">
+        <v>7</v>
+      </c>
+      <c r="AV68">
+        <v>5</v>
+      </c>
+      <c r="AW68">
+        <v>2</v>
+      </c>
+      <c r="AX68">
+        <v>4</v>
+      </c>
+      <c r="AY68">
+        <v>11</v>
+      </c>
+      <c r="AZ68">
+        <v>14</v>
+      </c>
+      <c r="BA68">
+        <v>3</v>
+      </c>
+      <c r="BB68">
+        <v>4</v>
+      </c>
+      <c r="BC68">
+        <v>7</v>
+      </c>
+      <c r="BD68">
+        <v>1.69</v>
+      </c>
+      <c r="BE68">
+        <v>7.5</v>
+      </c>
+      <c r="BF68">
+        <v>2.65</v>
+      </c>
+      <c r="BG68">
+        <v>1.22</v>
+      </c>
+      <c r="BH68">
+        <v>3.8</v>
+      </c>
+      <c r="BI68">
+        <v>1.36</v>
+      </c>
+      <c r="BJ68">
+        <v>2.88</v>
+      </c>
+      <c r="BK68">
+        <v>1.62</v>
+      </c>
+      <c r="BL68">
+        <v>2.2</v>
+      </c>
+      <c r="BM68">
+        <v>1.95</v>
+      </c>
+      <c r="BN68">
+        <v>1.85</v>
+      </c>
+      <c r="BO68">
+        <v>2.4</v>
+      </c>
+      <c r="BP68">
         <v>1.5</v>
-      </c>
-      <c r="AP68">
-        <v>1.2</v>
-      </c>
-      <c r="AQ68">
-        <v>1.4</v>
-      </c>
-      <c r="AR68">
-        <v>1.88</v>
-      </c>
-      <c r="AS68">
-        <v>1.14</v>
-      </c>
-      <c r="AT68">
-        <v>3.02</v>
-      </c>
-      <c r="AU68">
-        <v>2</v>
-      </c>
-      <c r="AV68">
-        <v>4</v>
-      </c>
-      <c r="AW68">
-        <v>2</v>
-      </c>
-      <c r="AX68">
-        <v>2</v>
-      </c>
-      <c r="AY68">
-        <v>6</v>
-      </c>
-      <c r="AZ68">
-        <v>8</v>
-      </c>
-      <c r="BA68">
-        <v>3</v>
-      </c>
-      <c r="BB68">
-        <v>1</v>
-      </c>
-      <c r="BC68">
-        <v>4</v>
-      </c>
-      <c r="BD68">
-        <v>1.75</v>
-      </c>
-      <c r="BE68">
-        <v>7</v>
-      </c>
-      <c r="BF68">
-        <v>2.46</v>
-      </c>
-      <c r="BG68">
-        <v>1.18</v>
-      </c>
-      <c r="BH68">
-        <v>4.33</v>
-      </c>
-      <c r="BI68">
-        <v>1.33</v>
-      </c>
-      <c r="BJ68">
-        <v>3</v>
-      </c>
-      <c r="BK68">
-        <v>1.54</v>
-      </c>
-      <c r="BL68">
-        <v>2.42</v>
-      </c>
-      <c r="BM68">
-        <v>1.92</v>
-      </c>
-      <c r="BN68">
-        <v>1.88</v>
-      </c>
-      <c r="BO68">
-        <v>2.36</v>
-      </c>
-      <c r="BP68">
-        <v>1.56</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -15138,7 +15141,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7476602</v>
+        <v>7476605</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15153,94 +15156,94 @@
         <v>6</v>
       </c>
       <c r="G69" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69">
         <v>3</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q69">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R69">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S69">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T69">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U69">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V69">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W69">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X69">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y69">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z69">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AA69">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AB69">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="AC69">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE69">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AF69">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="AG69">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AH69">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="AI69">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AJ69">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="AK69">
         <v>1.5</v>
@@ -15249,94 +15252,94 @@
         <v>1.25</v>
       </c>
       <c r="AM69">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AN69">
+        <v>3</v>
+      </c>
+      <c r="AO69">
         <v>1.5</v>
       </c>
-      <c r="AO69">
-        <v>2</v>
-      </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AR69">
-        <v>1.03</v>
+        <v>1.23</v>
       </c>
       <c r="AS69">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="AT69">
-        <v>1.95</v>
+        <v>2.27</v>
       </c>
       <c r="AU69">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV69">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW69">
+        <v>1</v>
+      </c>
+      <c r="AX69">
         <v>4</v>
       </c>
-      <c r="AX69">
-        <v>5</v>
-      </c>
       <c r="AY69">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ69">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB69">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC69">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD69">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="BE69">
         <v>7</v>
       </c>
       <c r="BF69">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="BG69">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BH69">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="BI69">
         <v>1.36</v>
       </c>
       <c r="BJ69">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="BK69">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BL69">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BM69">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BN69">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="BO69">
-        <v>2.4</v>
+        <v>2.49</v>
       </c>
       <c r="BP69">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15344,7 +15347,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7476605</v>
+        <v>7476602</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15359,94 +15362,94 @@
         <v>6</v>
       </c>
       <c r="G70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H70" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70">
         <v>3</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R70">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S70">
+        <v>3</v>
+      </c>
+      <c r="T70">
+        <v>1.3</v>
+      </c>
+      <c r="U70">
         <v>3.4</v>
       </c>
-      <c r="T70">
-        <v>1.4</v>
-      </c>
-      <c r="U70">
-        <v>2.75</v>
-      </c>
       <c r="V70">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W70">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X70">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y70">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z70">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AA70">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AB70">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="AC70">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD70">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE70">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AF70">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="AG70">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AH70">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="AI70">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AJ70">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="AK70">
         <v>1.5</v>
@@ -15455,94 +15458,94 @@
         <v>1.25</v>
       </c>
       <c r="AM70">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AN70">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO70">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP70">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AR70">
-        <v>1.23</v>
+        <v>1.03</v>
       </c>
       <c r="AS70">
-        <v>1.04</v>
+        <v>0.92</v>
       </c>
       <c r="AT70">
-        <v>2.27</v>
+        <v>1.95</v>
       </c>
       <c r="AU70">
+        <v>8</v>
+      </c>
+      <c r="AV70">
+        <v>9</v>
+      </c>
+      <c r="AW70">
         <v>4</v>
       </c>
-      <c r="AV70">
+      <c r="AX70">
+        <v>5</v>
+      </c>
+      <c r="AY70">
+        <v>14</v>
+      </c>
+      <c r="AZ70">
+        <v>15</v>
+      </c>
+      <c r="BA70">
+        <v>5</v>
+      </c>
+      <c r="BB70">
+        <v>2</v>
+      </c>
+      <c r="BC70">
         <v>7</v>
       </c>
-      <c r="AW70">
-        <v>1</v>
-      </c>
-      <c r="AX70">
-        <v>4</v>
-      </c>
-      <c r="AY70">
-        <v>10</v>
-      </c>
-      <c r="AZ70">
-        <v>17</v>
-      </c>
-      <c r="BA70">
-        <v>7</v>
-      </c>
-      <c r="BB70">
-        <v>6</v>
-      </c>
-      <c r="BC70">
-        <v>13</v>
-      </c>
       <c r="BD70">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="BE70">
         <v>7</v>
       </c>
       <c r="BF70">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="BG70">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BH70">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="BI70">
         <v>1.36</v>
       </c>
       <c r="BJ70">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="BK70">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BL70">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BM70">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BN70">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="BO70">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="BP70">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15550,7 +15553,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7476603</v>
+        <v>7476601</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15565,190 +15568,190 @@
         <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O71" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R71">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S71">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T71">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V71">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W71">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X71">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y71">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z71">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AA71">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AB71">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AC71">
         <v>1.05</v>
       </c>
       <c r="AD71">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE71">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF71">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AG71">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="AH71">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AI71">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AJ71">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK71">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AL71">
         <v>1.25</v>
       </c>
       <c r="AM71">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>1.5</v>
       </c>
-      <c r="AO71">
-        <v>0.5</v>
-      </c>
       <c r="AP71">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AR71">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="AS71">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="AT71">
-        <v>2.37</v>
+        <v>3.02</v>
       </c>
       <c r="AU71">
+        <v>2</v>
+      </c>
+      <c r="AV71">
+        <v>4</v>
+      </c>
+      <c r="AW71">
+        <v>2</v>
+      </c>
+      <c r="AX71">
+        <v>2</v>
+      </c>
+      <c r="AY71">
+        <v>6</v>
+      </c>
+      <c r="AZ71">
+        <v>8</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>1</v>
+      </c>
+      <c r="BC71">
+        <v>4</v>
+      </c>
+      <c r="BD71">
+        <v>1.75</v>
+      </c>
+      <c r="BE71">
         <v>7</v>
       </c>
-      <c r="AV71">
-        <v>5</v>
-      </c>
-      <c r="AW71">
-        <v>2</v>
-      </c>
-      <c r="AX71">
-        <v>4</v>
-      </c>
-      <c r="AY71">
-        <v>11</v>
-      </c>
-      <c r="AZ71">
-        <v>14</v>
-      </c>
-      <c r="BA71">
-        <v>3</v>
-      </c>
-      <c r="BB71">
-        <v>4</v>
-      </c>
-      <c r="BC71">
-        <v>7</v>
-      </c>
-      <c r="BD71">
-        <v>1.69</v>
-      </c>
-      <c r="BE71">
-        <v>7.5</v>
-      </c>
       <c r="BF71">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="BG71">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH71">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="BI71">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="BJ71">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="BK71">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="BL71">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="BM71">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="BN71">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BO71">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="BP71">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -19172,7 +19175,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>1.4</v>
@@ -20082,7 +20085,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7476627</v>
+        <v>7476624</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20097,55 +20100,55 @@
         <v>8</v>
       </c>
       <c r="G93" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H93" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O93" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="Q93">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R93">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S93">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T93">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U93">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V93">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W93">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X93">
         <v>7</v>
@@ -20154,133 +20157,133 @@
         <v>1.1</v>
       </c>
       <c r="Z93">
-        <v>2.12</v>
+        <v>3.06</v>
       </c>
       <c r="AA93">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB93">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="AC93">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD93">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE93">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AF93">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="AG93">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AH93">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AI93">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AJ93">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK93">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AL93">
         <v>1.28</v>
       </c>
       <c r="AM93">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="AN93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP93">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AR93">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AS93">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AT93">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="AU93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV93">
         <v>5</v>
       </c>
       <c r="AW93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX93">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY93">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AZ93">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BA93">
         <v>4</v>
       </c>
       <c r="BB93">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BC93">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BD93">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="BE93">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BF93">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="BG93">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="BH93">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="BI93">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="BJ93">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BK93">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="BL93">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="BM93">
-        <v>2.25</v>
+        <v>2.62</v>
       </c>
       <c r="BN93">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="BO93">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="BP93">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20288,7 +20291,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7476624</v>
+        <v>7476627</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20303,55 +20306,55 @@
         <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H94" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O94" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="P94" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="Q94">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R94">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S94">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T94">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U94">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V94">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W94">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X94">
         <v>7</v>
@@ -20360,133 +20363,133 @@
         <v>1.1</v>
       </c>
       <c r="Z94">
-        <v>3.06</v>
+        <v>2.12</v>
       </c>
       <c r="AA94">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB94">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="AC94">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD94">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE94">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AF94">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="AG94">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AH94">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AI94">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AJ94">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK94">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="AL94">
         <v>1.28</v>
       </c>
       <c r="AM94">
-        <v>1.41</v>
+        <v>1.71</v>
       </c>
       <c r="AN94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AQ94">
-        <v>0.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR94">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AS94">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT94">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="AU94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV94">
         <v>5</v>
       </c>
       <c r="AW94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX94">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY94">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AZ94">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BA94">
         <v>4</v>
       </c>
       <c r="BB94">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BC94">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD94">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="BE94">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF94">
-        <v>2.1</v>
+        <v>2.92</v>
       </c>
       <c r="BG94">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BH94">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BI94">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="BJ94">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BK94">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="BL94">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="BM94">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="BN94">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="BO94">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="BP94">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20494,7 +20497,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7476652</v>
+        <v>7476651</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20509,28 +20512,28 @@
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N95">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O95" t="s">
         <v>161</v>
@@ -20545,7 +20548,7 @@
         <v>2.1</v>
       </c>
       <c r="S95">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T95">
         <v>1.44</v>
@@ -20566,31 +20569,31 @@
         <v>1.07</v>
       </c>
       <c r="Z95">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="AA95">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AB95">
         <v>3.65</v>
       </c>
       <c r="AC95">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD95">
         <v>9</v>
       </c>
       <c r="AE95">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AF95">
-        <v>3.22</v>
+        <v>3.04</v>
       </c>
       <c r="AG95">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AH95">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AI95">
         <v>1.83</v>
@@ -20599,100 +20602,100 @@
         <v>1.83</v>
       </c>
       <c r="AK95">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AL95">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AM95">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AN95">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO95">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AP95">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AR95">
-        <v>1.61</v>
+        <v>1.07</v>
       </c>
       <c r="AS95">
-        <v>1.21</v>
+        <v>0.98</v>
       </c>
       <c r="AT95">
-        <v>2.82</v>
+        <v>2.05</v>
       </c>
       <c r="AU95">
         <v>4</v>
       </c>
       <c r="AV95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX95">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AY95">
         <v>15</v>
       </c>
       <c r="AZ95">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC95">
         <v>10</v>
       </c>
       <c r="BD95">
+        <v>1.7</v>
+      </c>
+      <c r="BE95">
+        <v>6.95</v>
+      </c>
+      <c r="BF95">
+        <v>2.68</v>
+      </c>
+      <c r="BG95">
+        <v>0</v>
+      </c>
+      <c r="BH95">
+        <v>0</v>
+      </c>
+      <c r="BI95">
+        <v>1.26</v>
+      </c>
+      <c r="BJ95">
+        <v>3.5</v>
+      </c>
+      <c r="BK95">
+        <v>1.38</v>
+      </c>
+      <c r="BL95">
+        <v>2.54</v>
+      </c>
+      <c r="BM95">
+        <v>1.7</v>
+      </c>
+      <c r="BN95">
+        <v>2.05</v>
+      </c>
+      <c r="BO95">
+        <v>2.14</v>
+      </c>
+      <c r="BP95">
         <v>1.63</v>
-      </c>
-      <c r="BE95">
-        <v>6.8</v>
-      </c>
-      <c r="BF95">
-        <v>2.9</v>
-      </c>
-      <c r="BG95">
-        <v>1.21</v>
-      </c>
-      <c r="BH95">
-        <v>3.9</v>
-      </c>
-      <c r="BI95">
-        <v>1.34</v>
-      </c>
-      <c r="BJ95">
-        <v>2.69</v>
-      </c>
-      <c r="BK95">
-        <v>1.63</v>
-      </c>
-      <c r="BL95">
-        <v>2.04</v>
-      </c>
-      <c r="BM95">
-        <v>2.09</v>
-      </c>
-      <c r="BN95">
-        <v>1.66</v>
-      </c>
-      <c r="BO95">
-        <v>2.69</v>
-      </c>
-      <c r="BP95">
-        <v>1.36</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20700,7 +20703,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7476651</v>
+        <v>7476652</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20715,28 +20718,28 @@
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H96" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O96" t="s">
         <v>162</v>
@@ -20751,7 +20754,7 @@
         <v>2.1</v>
       </c>
       <c r="S96">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T96">
         <v>1.44</v>
@@ -20772,31 +20775,31 @@
         <v>1.07</v>
       </c>
       <c r="Z96">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="AA96">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AB96">
         <v>3.65</v>
       </c>
       <c r="AC96">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD96">
         <v>9</v>
       </c>
       <c r="AE96">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AF96">
-        <v>3.04</v>
+        <v>3.22</v>
       </c>
       <c r="AG96">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AH96">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AI96">
         <v>1.83</v>
@@ -20805,100 +20808,100 @@
         <v>1.83</v>
       </c>
       <c r="AK96">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AL96">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AM96">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AN96">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO96">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ96">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AR96">
-        <v>1.07</v>
+        <v>1.61</v>
       </c>
       <c r="AS96">
-        <v>0.98</v>
+        <v>1.21</v>
       </c>
       <c r="AT96">
-        <v>2.05</v>
+        <v>2.82</v>
       </c>
       <c r="AU96">
         <v>4</v>
       </c>
       <c r="AV96">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW96">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX96">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AY96">
         <v>15</v>
       </c>
       <c r="AZ96">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC96">
         <v>10</v>
       </c>
       <c r="BD96">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="BE96">
-        <v>6.95</v>
+        <v>6.8</v>
       </c>
       <c r="BF96">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="BG96">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BH96">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BI96">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="BJ96">
-        <v>3.5</v>
+        <v>2.69</v>
       </c>
       <c r="BK96">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="BL96">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="BM96">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="BN96">
-        <v>2.05</v>
+        <v>1.66</v>
       </c>
       <c r="BO96">
-        <v>2.14</v>
+        <v>2.69</v>
       </c>
       <c r="BP96">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20906,7 +20909,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7476647</v>
+        <v>7476650</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20921,28 +20924,28 @@
         <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L97">
         <v>1</v>
       </c>
       <c r="M97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N97">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O97" t="s">
         <v>163</v>
@@ -20951,160 +20954,160 @@
         <v>231</v>
       </c>
       <c r="Q97">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="R97">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S97">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="T97">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U97">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V97">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W97">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y97">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z97">
-        <v>3.85</v>
+        <v>1.94</v>
       </c>
       <c r="AA97">
         <v>3.65</v>
       </c>
       <c r="AB97">
-        <v>1.94</v>
+        <v>3.85</v>
       </c>
       <c r="AC97">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD97">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE97">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AF97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG97">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="AH97">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AI97">
+        <v>1.57</v>
+      </c>
+      <c r="AJ97">
+        <v>2.25</v>
+      </c>
+      <c r="AK97">
+        <v>1.26</v>
+      </c>
+      <c r="AL97">
+        <v>1.27</v>
+      </c>
+      <c r="AM97">
         <v>1.83</v>
       </c>
-      <c r="AJ97">
-        <v>1.83</v>
-      </c>
-      <c r="AK97">
-        <v>1.83</v>
-      </c>
-      <c r="AL97">
-        <v>1.26</v>
-      </c>
-      <c r="AM97">
+      <c r="AN97">
+        <v>1.75</v>
+      </c>
+      <c r="AO97">
+        <v>0.5</v>
+      </c>
+      <c r="AP97">
+        <v>1.6</v>
+      </c>
+      <c r="AQ97">
+        <v>0.6</v>
+      </c>
+      <c r="AR97">
+        <v>1.55</v>
+      </c>
+      <c r="AS97">
         <v>1.28</v>
       </c>
-      <c r="AN97">
-        <v>1.5</v>
-      </c>
-      <c r="AO97">
-        <v>0.25</v>
-      </c>
-      <c r="AP97">
-        <v>1.5</v>
-      </c>
-      <c r="AQ97">
-        <v>0.8</v>
-      </c>
-      <c r="AR97">
-        <v>1.14</v>
-      </c>
-      <c r="AS97">
-        <v>1.31</v>
-      </c>
       <c r="AT97">
-        <v>2.45</v>
+        <v>2.83</v>
       </c>
       <c r="AU97">
         <v>5</v>
       </c>
       <c r="AV97">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AW97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY97">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ97">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA97">
         <v>3</v>
       </c>
       <c r="BB97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD97">
-        <v>3.04</v>
+        <v>1.44</v>
       </c>
       <c r="BE97">
-        <v>6.75</v>
+        <v>7.3</v>
       </c>
       <c r="BF97">
-        <v>1.59</v>
+        <v>3.79</v>
       </c>
       <c r="BG97">
         <v>1.21</v>
       </c>
       <c r="BH97">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="BI97">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="BJ97">
-        <v>2.49</v>
+        <v>2.69</v>
       </c>
       <c r="BK97">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="BL97">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="BM97">
-        <v>2.24</v>
+        <v>2.09</v>
       </c>
       <c r="BN97">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="BO97">
-        <v>2.94</v>
+        <v>2.69</v>
       </c>
       <c r="BP97">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -21112,7 +21115,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7476650</v>
+        <v>7476649</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21127,127 +21130,127 @@
         <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H98" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O98" t="s">
         <v>164</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="Q98">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="R98">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S98">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="T98">
+        <v>1.36</v>
+      </c>
+      <c r="U98">
+        <v>3</v>
+      </c>
+      <c r="V98">
+        <v>2.63</v>
+      </c>
+      <c r="W98">
+        <v>1.44</v>
+      </c>
+      <c r="X98">
+        <v>7</v>
+      </c>
+      <c r="Y98">
+        <v>1.1</v>
+      </c>
+      <c r="Z98">
+        <v>2.95</v>
+      </c>
+      <c r="AA98">
+        <v>3.55</v>
+      </c>
+      <c r="AB98">
+        <v>2.33</v>
+      </c>
+      <c r="AC98">
+        <v>1.04</v>
+      </c>
+      <c r="AD98">
+        <v>11</v>
+      </c>
+      <c r="AE98">
+        <v>1.25</v>
+      </c>
+      <c r="AF98">
+        <v>3.8</v>
+      </c>
+      <c r="AG98">
+        <v>1.81</v>
+      </c>
+      <c r="AH98">
+        <v>2.01</v>
+      </c>
+      <c r="AI98">
+        <v>1.62</v>
+      </c>
+      <c r="AJ98">
+        <v>2.2</v>
+      </c>
+      <c r="AK98">
+        <v>1.69</v>
+      </c>
+      <c r="AL98">
         <v>1.3</v>
       </c>
-      <c r="U98">
-        <v>3.4</v>
-      </c>
-      <c r="V98">
-        <v>2.5</v>
-      </c>
-      <c r="W98">
-        <v>1.5</v>
-      </c>
-      <c r="X98">
-        <v>6</v>
-      </c>
-      <c r="Y98">
-        <v>1.13</v>
-      </c>
-      <c r="Z98">
-        <v>1.94</v>
-      </c>
-      <c r="AA98">
-        <v>3.65</v>
-      </c>
-      <c r="AB98">
-        <v>3.85</v>
-      </c>
-      <c r="AC98">
-        <v>1.03</v>
-      </c>
-      <c r="AD98">
-        <v>15</v>
-      </c>
-      <c r="AE98">
-        <v>1.19</v>
-      </c>
-      <c r="AF98">
-        <v>4</v>
-      </c>
-      <c r="AG98">
+      <c r="AM98">
+        <v>1.34</v>
+      </c>
+      <c r="AN98">
+        <v>2.25</v>
+      </c>
+      <c r="AO98">
+        <v>1</v>
+      </c>
+      <c r="AP98">
+        <v>2</v>
+      </c>
+      <c r="AQ98">
+        <v>0.75</v>
+      </c>
+      <c r="AR98">
+        <v>0.92</v>
+      </c>
+      <c r="AS98">
+        <v>0.99</v>
+      </c>
+      <c r="AT98">
         <v>1.91</v>
       </c>
-      <c r="AH98">
-        <v>1.8</v>
-      </c>
-      <c r="AI98">
-        <v>1.57</v>
-      </c>
-      <c r="AJ98">
-        <v>2.25</v>
-      </c>
-      <c r="AK98">
-        <v>1.26</v>
-      </c>
-      <c r="AL98">
-        <v>1.27</v>
-      </c>
-      <c r="AM98">
-        <v>1.83</v>
-      </c>
-      <c r="AN98">
-        <v>1.75</v>
-      </c>
-      <c r="AO98">
-        <v>0.5</v>
-      </c>
-      <c r="AP98">
-        <v>1.6</v>
-      </c>
-      <c r="AQ98">
-        <v>0.6</v>
-      </c>
-      <c r="AR98">
-        <v>1.55</v>
-      </c>
-      <c r="AS98">
-        <v>1.28</v>
-      </c>
-      <c r="AT98">
-        <v>2.83</v>
-      </c>
       <c r="AU98">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV98">
         <v>3</v>
@@ -21256,61 +21259,61 @@
         <v>6</v>
       </c>
       <c r="AX98">
+        <v>4</v>
+      </c>
+      <c r="AY98">
+        <v>18</v>
+      </c>
+      <c r="AZ98">
+        <v>10</v>
+      </c>
+      <c r="BA98">
+        <v>3</v>
+      </c>
+      <c r="BB98">
+        <v>2</v>
+      </c>
+      <c r="BC98">
         <v>5</v>
       </c>
-      <c r="AY98">
-        <v>17</v>
-      </c>
-      <c r="AZ98">
-        <v>14</v>
-      </c>
-      <c r="BA98">
-        <v>3</v>
-      </c>
-      <c r="BB98">
-        <v>3</v>
-      </c>
-      <c r="BC98">
-        <v>6</v>
-      </c>
       <c r="BD98">
-        <v>1.44</v>
+        <v>2.49</v>
       </c>
       <c r="BE98">
-        <v>7.3</v>
+        <v>6.45</v>
       </c>
       <c r="BF98">
-        <v>3.79</v>
+        <v>1.82</v>
       </c>
       <c r="BG98">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="BH98">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="BI98">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="BJ98">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="BK98">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="BL98">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="BM98">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="BN98">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="BO98">
-        <v>2.69</v>
+        <v>2.82</v>
       </c>
       <c r="BP98">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21318,7 +21321,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7476649</v>
+        <v>7476648</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21333,190 +21336,190 @@
         <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H99" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M99">
         <v>1</v>
       </c>
       <c r="N99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O99" t="s">
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="Q99">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="R99">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S99">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="T99">
+        <v>1.44</v>
+      </c>
+      <c r="U99">
+        <v>2.63</v>
+      </c>
+      <c r="V99">
+        <v>3</v>
+      </c>
+      <c r="W99">
         <v>1.36</v>
       </c>
-      <c r="U99">
-        <v>3</v>
-      </c>
-      <c r="V99">
-        <v>2.63</v>
-      </c>
-      <c r="W99">
-        <v>1.44</v>
-      </c>
       <c r="X99">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y99">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z99">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AA99">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="AB99">
-        <v>2.33</v>
+        <v>1.99</v>
       </c>
       <c r="AC99">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD99">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE99">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AF99">
-        <v>3.8</v>
+        <v>2.97</v>
       </c>
       <c r="AG99">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AH99">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="AI99">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AJ99">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AK99">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AL99">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AM99">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AN99">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO99">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="AQ99">
-        <v>0.75</v>
+        <v>1.17</v>
       </c>
       <c r="AR99">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AS99">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="AT99">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="AU99">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW99">
         <v>6</v>
       </c>
       <c r="AX99">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY99">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ99">
+        <v>15</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
         <v>10</v>
       </c>
-      <c r="BA99">
-        <v>3</v>
-      </c>
-      <c r="BB99">
-        <v>2</v>
-      </c>
       <c r="BC99">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BD99">
+        <v>2.58</v>
+      </c>
+      <c r="BE99">
+        <v>6.65</v>
+      </c>
+      <c r="BF99">
+        <v>1.79</v>
+      </c>
+      <c r="BG99">
+        <v>1.19</v>
+      </c>
+      <c r="BH99">
+        <v>4.2</v>
+      </c>
+      <c r="BI99">
+        <v>1.3</v>
+      </c>
+      <c r="BJ99">
+        <v>2.88</v>
+      </c>
+      <c r="BK99">
+        <v>1.56</v>
+      </c>
+      <c r="BL99">
+        <v>2.16</v>
+      </c>
+      <c r="BM99">
+        <v>1.98</v>
+      </c>
+      <c r="BN99">
+        <v>1.74</v>
+      </c>
+      <c r="BO99">
         <v>2.49</v>
       </c>
-      <c r="BE99">
-        <v>6.45</v>
-      </c>
-      <c r="BF99">
-        <v>1.82</v>
-      </c>
-      <c r="BG99">
-        <v>1.18</v>
-      </c>
-      <c r="BH99">
-        <v>3.65</v>
-      </c>
-      <c r="BI99">
-        <v>1.39</v>
-      </c>
-      <c r="BJ99">
-        <v>2.59</v>
-      </c>
-      <c r="BK99">
-        <v>1.73</v>
-      </c>
-      <c r="BL99">
-        <v>1.99</v>
-      </c>
-      <c r="BM99">
-        <v>2.15</v>
-      </c>
-      <c r="BN99">
-        <v>1.56</v>
-      </c>
-      <c r="BO99">
-        <v>2.82</v>
-      </c>
       <c r="BP99">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21524,7 +21527,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7476648</v>
+        <v>7476646</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21539,43 +21542,43 @@
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H100" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100">
         <v>1</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O100" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="Q100">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="R100">
         <v>2.1</v>
       </c>
       <c r="S100">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="T100">
         <v>1.44</v>
@@ -21596,31 +21599,31 @@
         <v>1.07</v>
       </c>
       <c r="Z100">
-        <v>3.2</v>
+        <v>1.93</v>
       </c>
       <c r="AA100">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="AB100">
-        <v>1.99</v>
+        <v>4.1</v>
       </c>
       <c r="AC100">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD100">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE100">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AF100">
-        <v>2.97</v>
+        <v>3.3</v>
       </c>
       <c r="AG100">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AH100">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AI100">
         <v>1.83</v>
@@ -21629,94 +21632,94 @@
         <v>1.83</v>
       </c>
       <c r="AK100">
-        <v>1.88</v>
+        <v>1.26</v>
       </c>
       <c r="AL100">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AM100">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="AN100">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO100">
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AR100">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AS100">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="AT100">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="AU100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW100">
+        <v>3</v>
+      </c>
+      <c r="AX100">
+        <v>2</v>
+      </c>
+      <c r="AY100">
+        <v>13</v>
+      </c>
+      <c r="AZ100">
+        <v>7</v>
+      </c>
+      <c r="BA100">
         <v>6</v>
       </c>
-      <c r="AX100">
-        <v>8</v>
-      </c>
-      <c r="AY100">
-        <v>15</v>
-      </c>
-      <c r="AZ100">
-        <v>15</v>
-      </c>
-      <c r="BA100">
-        <v>5</v>
-      </c>
       <c r="BB100">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BC100">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BD100">
-        <v>2.58</v>
+        <v>1.47</v>
       </c>
       <c r="BE100">
-        <v>6.65</v>
+        <v>7.3</v>
       </c>
       <c r="BF100">
-        <v>1.79</v>
+        <v>3.6</v>
       </c>
       <c r="BG100">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BH100">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BI100">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BJ100">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="BK100">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="BL100">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="BM100">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="BN100">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="BO100">
         <v>2.49</v>
@@ -21730,7 +21733,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7476646</v>
+        <v>7476647</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21745,49 +21748,49 @@
         <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H101" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O101" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="P101" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="Q101">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="R101">
         <v>2.1</v>
       </c>
       <c r="S101">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="T101">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U101">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V101">
         <v>3</v>
@@ -21796,37 +21799,37 @@
         <v>1.36</v>
       </c>
       <c r="X101">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y101">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z101">
-        <v>1.93</v>
+        <v>3.85</v>
       </c>
       <c r="AA101">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="AB101">
-        <v>4.1</v>
+        <v>1.94</v>
       </c>
       <c r="AC101">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD101">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE101">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AF101">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AG101">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="AH101">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AI101">
         <v>1.83</v>
@@ -21835,100 +21838,100 @@
         <v>1.83</v>
       </c>
       <c r="AK101">
+        <v>1.83</v>
+      </c>
+      <c r="AL101">
         <v>1.26</v>
       </c>
-      <c r="AL101">
+      <c r="AM101">
         <v>1.28</v>
       </c>
-      <c r="AM101">
-        <v>1.79</v>
-      </c>
       <c r="AN101">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO101">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AR101">
+        <v>1.14</v>
+      </c>
+      <c r="AS101">
         <v>1.31</v>
       </c>
-      <c r="AS101">
-        <v>1.25</v>
-      </c>
       <c r="AT101">
-        <v>2.56</v>
+        <v>2.45</v>
       </c>
       <c r="AU101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV101">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AW101">
         <v>3</v>
       </c>
       <c r="AX101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY101">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ101">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BA101">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC101">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD101">
-        <v>1.47</v>
+        <v>3.04</v>
       </c>
       <c r="BE101">
-        <v>7.3</v>
+        <v>6.75</v>
       </c>
       <c r="BF101">
-        <v>3.6</v>
+        <v>1.59</v>
       </c>
       <c r="BG101">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BH101">
-        <v>4.3</v>
+        <v>3.44</v>
       </c>
       <c r="BI101">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="BJ101">
-        <v>2.92</v>
+        <v>2.49</v>
       </c>
       <c r="BK101">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="BL101">
-        <v>2.17</v>
+        <v>1.91</v>
       </c>
       <c r="BM101">
-        <v>1.96</v>
+        <v>2.24</v>
       </c>
       <c r="BN101">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="BO101">
-        <v>2.49</v>
+        <v>2.94</v>
       </c>
       <c r="BP101">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -22471,7 +22474,7 @@
         <v>1</v>
       </c>
       <c r="AQ104">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR104">
         <v>1.27</v>
@@ -27125,7 +27128,7 @@
         <v>2</v>
       </c>
       <c r="O127" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P127" t="s">
         <v>247</v>
@@ -27285,6 +27288,212 @@
       </c>
       <c r="BP127">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7476685</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45583.66666666666</v>
+      </c>
+      <c r="F128">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>89</v>
+      </c>
+      <c r="H128" t="s">
+        <v>70</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>101</v>
+      </c>
+      <c r="P128" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q128">
+        <v>4.75</v>
+      </c>
+      <c r="R128">
+        <v>2.4</v>
+      </c>
+      <c r="S128">
+        <v>2.25</v>
+      </c>
+      <c r="T128">
+        <v>1.3</v>
+      </c>
+      <c r="U128">
+        <v>3.4</v>
+      </c>
+      <c r="V128">
+        <v>2.38</v>
+      </c>
+      <c r="W128">
+        <v>1.53</v>
+      </c>
+      <c r="X128">
+        <v>6</v>
+      </c>
+      <c r="Y128">
+        <v>1.13</v>
+      </c>
+      <c r="Z128">
+        <v>4.75</v>
+      </c>
+      <c r="AA128">
+        <v>4</v>
+      </c>
+      <c r="AB128">
+        <v>1.67</v>
+      </c>
+      <c r="AC128">
+        <v>1.04</v>
+      </c>
+      <c r="AD128">
+        <v>10</v>
+      </c>
+      <c r="AE128">
+        <v>1.2</v>
+      </c>
+      <c r="AF128">
+        <v>4.33</v>
+      </c>
+      <c r="AG128">
+        <v>1.83</v>
+      </c>
+      <c r="AH128">
+        <v>2.03</v>
+      </c>
+      <c r="AI128">
+        <v>1.62</v>
+      </c>
+      <c r="AJ128">
+        <v>2.2</v>
+      </c>
+      <c r="AK128">
+        <v>2.15</v>
+      </c>
+      <c r="AL128">
+        <v>1.2</v>
+      </c>
+      <c r="AM128">
+        <v>1.18</v>
+      </c>
+      <c r="AN128">
+        <v>2.4</v>
+      </c>
+      <c r="AO128">
+        <v>1.4</v>
+      </c>
+      <c r="AP128">
+        <v>2</v>
+      </c>
+      <c r="AQ128">
+        <v>1.67</v>
+      </c>
+      <c r="AR128">
+        <v>1.07</v>
+      </c>
+      <c r="AS128">
+        <v>1.32</v>
+      </c>
+      <c r="AT128">
+        <v>2.39</v>
+      </c>
+      <c r="AU128">
+        <v>5</v>
+      </c>
+      <c r="AV128">
+        <v>4</v>
+      </c>
+      <c r="AW128">
+        <v>3</v>
+      </c>
+      <c r="AX128">
+        <v>4</v>
+      </c>
+      <c r="AY128">
+        <v>11</v>
+      </c>
+      <c r="AZ128">
+        <v>10</v>
+      </c>
+      <c r="BA128">
+        <v>6</v>
+      </c>
+      <c r="BB128">
+        <v>7</v>
+      </c>
+      <c r="BC128">
+        <v>13</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>0</v>
+      </c>
+      <c r="BG128">
+        <v>0</v>
+      </c>
+      <c r="BH128">
+        <v>0</v>
+      </c>
+      <c r="BI128">
+        <v>0</v>
+      </c>
+      <c r="BJ128">
+        <v>0</v>
+      </c>
+      <c r="BK128">
+        <v>2.1</v>
+      </c>
+      <c r="BL128">
+        <v>0</v>
+      </c>
+      <c r="BM128">
+        <v>0</v>
+      </c>
+      <c r="BN128">
+        <v>0</v>
+      </c>
+      <c r="BO128">
+        <v>0</v>
+      </c>
+      <c r="BP128">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,13 +445,13 @@
     <t>['48', '82', '89']</t>
   </si>
   <si>
-    <t>['42', '52']</t>
+    <t>['4', '6']</t>
   </si>
   <si>
     <t>['45+3']</t>
   </si>
   <si>
-    <t>['4', '6']</t>
+    <t>['42', '52']</t>
   </si>
   <si>
     <t>['29', '43']</t>
@@ -499,10 +499,13 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['14', '45']</t>
+  </si>
+  <si>
     <t>['17']</t>
   </si>
   <si>
-    <t>['14', '45']</t>
+    <t>['73']</t>
   </si>
   <si>
     <t>['55']</t>
@@ -512,9 +515,6 @@
   </si>
   <si>
     <t>['5']</t>
-  </si>
-  <si>
-    <t>['73']</t>
   </si>
   <si>
     <t>['69', '80']</t>
@@ -557,6 +557,30 @@
   </si>
   <si>
     <t>['8', '39', '45+3', '50']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['33', '67', '73']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['38', '45+3']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -610,9 +634,6 @@
     <t>['86']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
     <t>['68']</t>
   </si>
   <si>
@@ -658,13 +679,13 @@
     <t>['43', '49', '64']</t>
   </si>
   <si>
-    <t>['10', '19', '67']</t>
+    <t>['13', '47', '56', '89']</t>
   </si>
   <si>
     <t>['14', '26']</t>
   </si>
   <si>
-    <t>['13', '47', '56', '89']</t>
+    <t>['10', '19', '67']</t>
   </si>
   <si>
     <t>['90', '90+5']</t>
@@ -703,19 +724,19 @@
     <t>['31', '59', '90+5']</t>
   </si>
   <si>
+    <t>['25', '51', '57', '67', '85', '90+4']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
-    <t>['25', '51', '57', '67', '85', '90+4']</t>
+    <t>['35', '45+2', '45+4', '87', '90']</t>
   </si>
   <si>
     <t>['90']</t>
   </si>
   <si>
     <t>['88']</t>
-  </si>
-  <si>
-    <t>['35', '45+2', '45+4', '87', '90']</t>
   </si>
   <si>
     <t>['39']</t>
@@ -761,6 +782,27 @@
   </si>
   <si>
     <t>['1', '84', '87']</t>
+  </si>
+  <si>
+    <t>['58', '90+4']</t>
+  </si>
+  <si>
+    <t>['2', '22', '49']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['56', '69', '74', '90+1']</t>
+  </si>
+  <si>
+    <t>['5', '45+2']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['75', '80']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1423,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1587,7 +1629,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1999,7 +2041,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2205,7 +2247,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2617,7 +2659,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2823,7 +2865,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3029,7 +3071,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3235,7 +3277,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3931,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4137,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4265,7 +4307,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4343,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4549,10 +4591,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4677,7 +4719,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4755,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
         <v>1.67</v>
@@ -4883,7 +4925,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4961,10 +5003,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5089,7 +5131,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5167,10 +5209,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5376,7 +5418,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5579,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5707,7 +5749,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5785,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5991,10 +6033,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6119,7 +6161,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6197,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6325,7 +6367,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6403,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6612,7 +6654,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ27">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR27">
         <v>0.86</v>
@@ -6815,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28">
         <v>1.17</v>
@@ -7149,7 +7191,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7642,7 +7684,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR32">
         <v>1.04</v>
@@ -7767,7 +7809,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7848,7 +7890,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -7973,7 +8015,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8054,7 +8096,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -8179,7 +8221,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8257,7 +8299,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8591,7 +8633,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8669,7 +8711,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8797,7 +8839,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8875,10 +8917,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ38">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9209,7 +9251,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9287,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9415,7 +9457,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9493,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ41">
         <v>0.5</v>
@@ -9621,7 +9663,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9702,7 +9744,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.15</v>
@@ -9827,7 +9869,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9908,7 +9950,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ43">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR43">
         <v>0.97</v>
@@ -10033,7 +10075,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10111,10 +10153,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.2</v>
@@ -10239,7 +10281,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10317,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ45">
         <v>1.4</v>
@@ -10445,7 +10487,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10523,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>0.6</v>
@@ -10732,7 +10774,7 @@
         <v>3</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -10857,7 +10899,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -10935,7 +10977,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>1.17</v>
@@ -11144,7 +11186,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11269,7 +11311,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11475,7 +11517,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11887,7 +11929,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12171,7 +12213,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12377,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ55">
         <v>0.67</v>
@@ -12586,7 +12628,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
         <v>1.21</v>
@@ -12711,7 +12753,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12789,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ57">
         <v>0.67</v>
@@ -12998,7 +13040,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -13201,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59">
         <v>0.6</v>
@@ -13410,7 +13452,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13616,7 +13658,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR61">
         <v>1.47</v>
@@ -13819,7 +13861,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -13947,7 +13989,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14028,7 +14070,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14153,7 +14195,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14359,7 +14401,7 @@
         <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14437,7 +14479,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ65">
         <v>0.6</v>
@@ -14643,7 +14685,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ66">
         <v>1.67</v>
@@ -14852,7 +14894,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -14935,7 +14977,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7476603</v>
+        <v>7476601</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14950,190 +14992,190 @@
         <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O68" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q68">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R68">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S68">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T68">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V68">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W68">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y68">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z68">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AA68">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AB68">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AC68">
         <v>1.05</v>
       </c>
       <c r="AD68">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE68">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF68">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AG68">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="AH68">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AI68">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AJ68">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK68">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AL68">
         <v>1.25</v>
       </c>
       <c r="AM68">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>1.5</v>
       </c>
-      <c r="AO68">
-        <v>0.5</v>
-      </c>
       <c r="AP68">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AR68">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="AS68">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="AT68">
-        <v>2.37</v>
+        <v>3.02</v>
       </c>
       <c r="AU68">
+        <v>2</v>
+      </c>
+      <c r="AV68">
+        <v>4</v>
+      </c>
+      <c r="AW68">
+        <v>2</v>
+      </c>
+      <c r="AX68">
+        <v>2</v>
+      </c>
+      <c r="AY68">
+        <v>6</v>
+      </c>
+      <c r="AZ68">
+        <v>8</v>
+      </c>
+      <c r="BA68">
+        <v>3</v>
+      </c>
+      <c r="BB68">
+        <v>1</v>
+      </c>
+      <c r="BC68">
+        <v>4</v>
+      </c>
+      <c r="BD68">
+        <v>1.75</v>
+      </c>
+      <c r="BE68">
         <v>7</v>
       </c>
-      <c r="AV68">
-        <v>5</v>
-      </c>
-      <c r="AW68">
-        <v>2</v>
-      </c>
-      <c r="AX68">
-        <v>4</v>
-      </c>
-      <c r="AY68">
-        <v>11</v>
-      </c>
-      <c r="AZ68">
-        <v>14</v>
-      </c>
-      <c r="BA68">
-        <v>3</v>
-      </c>
-      <c r="BB68">
-        <v>4</v>
-      </c>
-      <c r="BC68">
-        <v>7</v>
-      </c>
-      <c r="BD68">
-        <v>1.69</v>
-      </c>
-      <c r="BE68">
-        <v>7.5</v>
-      </c>
       <c r="BF68">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="BG68">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH68">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="BI68">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="BJ68">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="BK68">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="BL68">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="BM68">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="BN68">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BO68">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="BP68">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -15141,7 +15183,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7476605</v>
+        <v>7476602</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15156,94 +15198,94 @@
         <v>6</v>
       </c>
       <c r="G69" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>3</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q69">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R69">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S69">
+        <v>3</v>
+      </c>
+      <c r="T69">
+        <v>1.3</v>
+      </c>
+      <c r="U69">
         <v>3.4</v>
       </c>
-      <c r="T69">
-        <v>1.4</v>
-      </c>
-      <c r="U69">
-        <v>2.75</v>
-      </c>
       <c r="V69">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W69">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X69">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y69">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z69">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AA69">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AB69">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="AC69">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE69">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AF69">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="AG69">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AH69">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="AI69">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AJ69">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="AK69">
         <v>1.5</v>
@@ -15252,94 +15294,94 @@
         <v>1.25</v>
       </c>
       <c r="AM69">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AN69">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO69">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ69">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AR69">
-        <v>1.23</v>
+        <v>1.03</v>
       </c>
       <c r="AS69">
-        <v>1.04</v>
+        <v>0.92</v>
       </c>
       <c r="AT69">
-        <v>2.27</v>
+        <v>1.95</v>
       </c>
       <c r="AU69">
+        <v>8</v>
+      </c>
+      <c r="AV69">
+        <v>9</v>
+      </c>
+      <c r="AW69">
         <v>4</v>
       </c>
-      <c r="AV69">
+      <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
+        <v>14</v>
+      </c>
+      <c r="AZ69">
+        <v>15</v>
+      </c>
+      <c r="BA69">
+        <v>5</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
         <v>7</v>
       </c>
-      <c r="AW69">
-        <v>1</v>
-      </c>
-      <c r="AX69">
-        <v>4</v>
-      </c>
-      <c r="AY69">
-        <v>10</v>
-      </c>
-      <c r="AZ69">
-        <v>17</v>
-      </c>
-      <c r="BA69">
-        <v>7</v>
-      </c>
-      <c r="BB69">
-        <v>6</v>
-      </c>
-      <c r="BC69">
-        <v>13</v>
-      </c>
       <c r="BD69">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="BE69">
         <v>7</v>
       </c>
       <c r="BF69">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="BG69">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BH69">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="BI69">
         <v>1.36</v>
       </c>
       <c r="BJ69">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="BK69">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BL69">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BM69">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BN69">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="BO69">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="BP69">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15347,7 +15389,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7476602</v>
+        <v>7476605</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15362,94 +15404,94 @@
         <v>6</v>
       </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70">
         <v>3</v>
       </c>
       <c r="L70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q70">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R70">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S70">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T70">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U70">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V70">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W70">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y70">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z70">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AA70">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AB70">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="AC70">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE70">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AF70">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="AG70">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AH70">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="AI70">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AJ70">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="AK70">
         <v>1.5</v>
@@ -15458,94 +15500,94 @@
         <v>1.25</v>
       </c>
       <c r="AM70">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AN70">
+        <v>3</v>
+      </c>
+      <c r="AO70">
         <v>1.5</v>
       </c>
-      <c r="AO70">
-        <v>2</v>
-      </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1.03</v>
+        <v>1.23</v>
       </c>
       <c r="AS70">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="AT70">
-        <v>1.95</v>
+        <v>2.27</v>
       </c>
       <c r="AU70">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV70">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW70">
+        <v>1</v>
+      </c>
+      <c r="AX70">
         <v>4</v>
       </c>
-      <c r="AX70">
-        <v>5</v>
-      </c>
       <c r="AY70">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ70">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB70">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC70">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD70">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="BE70">
         <v>7</v>
       </c>
       <c r="BF70">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="BG70">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BH70">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="BI70">
         <v>1.36</v>
       </c>
       <c r="BJ70">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="BK70">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BL70">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BM70">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BN70">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="BO70">
-        <v>2.4</v>
+        <v>2.49</v>
       </c>
       <c r="BP70">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15553,7 +15595,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7476601</v>
+        <v>7476603</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15568,190 +15610,190 @@
         <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O71" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Q71">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R71">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S71">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T71">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U71">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V71">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W71">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y71">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z71">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AA71">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AB71">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AC71">
         <v>1.05</v>
       </c>
       <c r="AD71">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE71">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF71">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AG71">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AH71">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AI71">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AJ71">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK71">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AL71">
         <v>1.25</v>
       </c>
       <c r="AM71">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO71">
+        <v>0.5</v>
+      </c>
+      <c r="AP71">
+        <v>0.67</v>
+      </c>
+      <c r="AQ71">
+        <v>1.67</v>
+      </c>
+      <c r="AR71">
+        <v>1.35</v>
+      </c>
+      <c r="AS71">
+        <v>1.02</v>
+      </c>
+      <c r="AT71">
+        <v>2.37</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>5</v>
+      </c>
+      <c r="AW71">
+        <v>2</v>
+      </c>
+      <c r="AX71">
+        <v>4</v>
+      </c>
+      <c r="AY71">
+        <v>11</v>
+      </c>
+      <c r="AZ71">
+        <v>14</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>7</v>
+      </c>
+      <c r="BD71">
+        <v>1.69</v>
+      </c>
+      <c r="BE71">
+        <v>7.5</v>
+      </c>
+      <c r="BF71">
+        <v>2.65</v>
+      </c>
+      <c r="BG71">
+        <v>1.22</v>
+      </c>
+      <c r="BH71">
+        <v>3.8</v>
+      </c>
+      <c r="BI71">
+        <v>1.36</v>
+      </c>
+      <c r="BJ71">
+        <v>2.88</v>
+      </c>
+      <c r="BK71">
+        <v>1.62</v>
+      </c>
+      <c r="BL71">
+        <v>2.2</v>
+      </c>
+      <c r="BM71">
+        <v>1.95</v>
+      </c>
+      <c r="BN71">
+        <v>1.85</v>
+      </c>
+      <c r="BO71">
+        <v>2.4</v>
+      </c>
+      <c r="BP71">
         <v>1.5</v>
-      </c>
-      <c r="AP71">
-        <v>1.2</v>
-      </c>
-      <c r="AQ71">
-        <v>1.4</v>
-      </c>
-      <c r="AR71">
-        <v>1.88</v>
-      </c>
-      <c r="AS71">
-        <v>1.14</v>
-      </c>
-      <c r="AT71">
-        <v>3.02</v>
-      </c>
-      <c r="AU71">
-        <v>2</v>
-      </c>
-      <c r="AV71">
-        <v>4</v>
-      </c>
-      <c r="AW71">
-        <v>2</v>
-      </c>
-      <c r="AX71">
-        <v>2</v>
-      </c>
-      <c r="AY71">
-        <v>6</v>
-      </c>
-      <c r="AZ71">
-        <v>8</v>
-      </c>
-      <c r="BA71">
-        <v>3</v>
-      </c>
-      <c r="BB71">
-        <v>1</v>
-      </c>
-      <c r="BC71">
-        <v>4</v>
-      </c>
-      <c r="BD71">
-        <v>1.75</v>
-      </c>
-      <c r="BE71">
-        <v>7</v>
-      </c>
-      <c r="BF71">
-        <v>2.46</v>
-      </c>
-      <c r="BG71">
-        <v>1.18</v>
-      </c>
-      <c r="BH71">
-        <v>4.33</v>
-      </c>
-      <c r="BI71">
-        <v>1.33</v>
-      </c>
-      <c r="BJ71">
-        <v>3</v>
-      </c>
-      <c r="BK71">
-        <v>1.54</v>
-      </c>
-      <c r="BL71">
-        <v>2.42</v>
-      </c>
-      <c r="BM71">
-        <v>1.92</v>
-      </c>
-      <c r="BN71">
-        <v>1.88</v>
-      </c>
-      <c r="BO71">
-        <v>2.36</v>
-      </c>
-      <c r="BP71">
-        <v>1.56</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15801,7 +15843,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15879,7 +15921,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
         <v>2.17</v>
@@ -16007,7 +16049,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16088,7 +16130,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR73">
         <v>1.28</v>
@@ -16213,7 +16255,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16294,7 +16336,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR74">
         <v>1.26</v>
@@ -16419,7 +16461,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -16497,10 +16539,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR75">
         <v>1.78</v>
@@ -16625,7 +16667,7 @@
         <v>148</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16706,7 +16748,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR76">
         <v>1.48</v>
@@ -16909,7 +16951,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17037,7 +17079,7 @@
         <v>101</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17115,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ78">
         <v>0.67</v>
@@ -17321,10 +17363,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -17527,10 +17569,10 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -17939,7 +17981,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18067,7 +18109,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18354,7 +18396,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ84">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR84">
         <v>0.73</v>
@@ -18891,7 +18933,7 @@
         <v>156</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -18969,7 +19011,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ87">
         <v>1.17</v>
@@ -19097,7 +19139,7 @@
         <v>157</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19303,7 +19345,7 @@
         <v>122</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>4.33</v>
@@ -19381,7 +19423,7 @@
         <v>2.33</v>
       </c>
       <c r="AP89">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ89">
         <v>2</v>
@@ -19590,7 +19632,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.4</v>
@@ -19715,7 +19757,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19796,7 +19838,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR91">
         <v>1.26</v>
@@ -19921,7 +19963,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -19999,7 +20041,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ92">
         <v>1.5</v>
@@ -20085,7 +20127,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7476624</v>
+        <v>7476627</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20100,55 +20142,55 @@
         <v>8</v>
       </c>
       <c r="G93" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H93" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O93" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="P93" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="Q93">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R93">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S93">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T93">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U93">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V93">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W93">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X93">
         <v>7</v>
@@ -20157,133 +20199,133 @@
         <v>1.1</v>
       </c>
       <c r="Z93">
-        <v>3.06</v>
+        <v>2.12</v>
       </c>
       <c r="AA93">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB93">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="AC93">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD93">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE93">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AF93">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="AG93">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AH93">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AI93">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AJ93">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK93">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="AL93">
         <v>1.28</v>
       </c>
       <c r="AM93">
-        <v>1.41</v>
+        <v>1.71</v>
       </c>
       <c r="AN93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AQ93">
-        <v>0.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR93">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AS93">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT93">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="AU93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV93">
         <v>5</v>
       </c>
       <c r="AW93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX93">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY93">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AZ93">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BA93">
         <v>4</v>
       </c>
       <c r="BB93">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BC93">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD93">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="BE93">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF93">
-        <v>2.1</v>
+        <v>2.92</v>
       </c>
       <c r="BG93">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BH93">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BI93">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="BJ93">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BK93">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="BL93">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="BM93">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="BN93">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="BO93">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="BP93">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20291,7 +20333,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7476627</v>
+        <v>7476624</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20306,55 +20348,55 @@
         <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H94" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="P94" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="Q94">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R94">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S94">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T94">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U94">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V94">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W94">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X94">
         <v>7</v>
@@ -20363,133 +20405,133 @@
         <v>1.1</v>
       </c>
       <c r="Z94">
-        <v>2.12</v>
+        <v>3.06</v>
       </c>
       <c r="AA94">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB94">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="AC94">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD94">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE94">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AF94">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="AG94">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AH94">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AI94">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AJ94">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK94">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AL94">
         <v>1.28</v>
       </c>
       <c r="AM94">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="AN94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP94">
-        <v>2.17</v>
+        <v>0.83</v>
       </c>
       <c r="AQ94">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AS94">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AT94">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="AU94">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV94">
         <v>5</v>
       </c>
       <c r="AW94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX94">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY94">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AZ94">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BA94">
         <v>4</v>
       </c>
       <c r="BB94">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BC94">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BD94">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="BE94">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BF94">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="BG94">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="BH94">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="BI94">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="BJ94">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BK94">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="BL94">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="BM94">
-        <v>2.25</v>
+        <v>2.62</v>
       </c>
       <c r="BN94">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="BO94">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="BP94">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20497,7 +20539,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7476651</v>
+        <v>7476652</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20512,34 +20554,34 @@
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H95" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O95" t="s">
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20548,7 +20590,7 @@
         <v>2.1</v>
       </c>
       <c r="S95">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T95">
         <v>1.44</v>
@@ -20569,31 +20611,31 @@
         <v>1.07</v>
       </c>
       <c r="Z95">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="AA95">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AB95">
         <v>3.65</v>
       </c>
       <c r="AC95">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD95">
         <v>9</v>
       </c>
       <c r="AE95">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AF95">
-        <v>3.04</v>
+        <v>3.22</v>
       </c>
       <c r="AG95">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AH95">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AI95">
         <v>1.83</v>
@@ -20602,100 +20644,100 @@
         <v>1.83</v>
       </c>
       <c r="AK95">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AL95">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AM95">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AN95">
+        <v>3</v>
+      </c>
+      <c r="AO95">
+        <v>1.75</v>
+      </c>
+      <c r="AP95">
+        <v>2.4</v>
+      </c>
+      <c r="AQ95">
         <v>1.67</v>
       </c>
-      <c r="AO95">
-        <v>0.75</v>
-      </c>
-      <c r="AP95">
-        <v>1.2</v>
-      </c>
-      <c r="AQ95">
-        <v>1.17</v>
-      </c>
       <c r="AR95">
-        <v>1.07</v>
+        <v>1.61</v>
       </c>
       <c r="AS95">
-        <v>0.98</v>
+        <v>1.21</v>
       </c>
       <c r="AT95">
-        <v>2.05</v>
+        <v>2.82</v>
       </c>
       <c r="AU95">
         <v>4</v>
       </c>
       <c r="AV95">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AY95">
         <v>15</v>
       </c>
       <c r="AZ95">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC95">
         <v>10</v>
       </c>
       <c r="BD95">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="BE95">
-        <v>6.95</v>
+        <v>6.8</v>
       </c>
       <c r="BF95">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="BG95">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BH95">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BI95">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="BJ95">
-        <v>3.5</v>
+        <v>2.69</v>
       </c>
       <c r="BK95">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="BL95">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="BM95">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="BN95">
-        <v>2.05</v>
+        <v>1.66</v>
       </c>
       <c r="BO95">
-        <v>2.14</v>
+        <v>2.69</v>
       </c>
       <c r="BP95">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20703,7 +20745,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7476652</v>
+        <v>7476651</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20718,34 +20760,34 @@
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N96">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O96" t="s">
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20754,7 +20796,7 @@
         <v>2.1</v>
       </c>
       <c r="S96">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T96">
         <v>1.44</v>
@@ -20775,31 +20817,31 @@
         <v>1.07</v>
       </c>
       <c r="Z96">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="AA96">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AB96">
         <v>3.65</v>
       </c>
       <c r="AC96">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD96">
         <v>9</v>
       </c>
       <c r="AE96">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AF96">
-        <v>3.22</v>
+        <v>3.04</v>
       </c>
       <c r="AG96">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AH96">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AI96">
         <v>1.83</v>
@@ -20808,100 +20850,100 @@
         <v>1.83</v>
       </c>
       <c r="AK96">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AL96">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AM96">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AN96">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO96">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AP96">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="AQ96">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AR96">
-        <v>1.61</v>
+        <v>1.07</v>
       </c>
       <c r="AS96">
-        <v>1.21</v>
+        <v>0.98</v>
       </c>
       <c r="AT96">
-        <v>2.82</v>
+        <v>2.05</v>
       </c>
       <c r="AU96">
         <v>4</v>
       </c>
       <c r="AV96">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX96">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AY96">
         <v>15</v>
       </c>
       <c r="AZ96">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC96">
         <v>10</v>
       </c>
       <c r="BD96">
+        <v>1.7</v>
+      </c>
+      <c r="BE96">
+        <v>6.95</v>
+      </c>
+      <c r="BF96">
+        <v>2.68</v>
+      </c>
+      <c r="BG96">
+        <v>0</v>
+      </c>
+      <c r="BH96">
+        <v>0</v>
+      </c>
+      <c r="BI96">
+        <v>1.26</v>
+      </c>
+      <c r="BJ96">
+        <v>3.5</v>
+      </c>
+      <c r="BK96">
+        <v>1.38</v>
+      </c>
+      <c r="BL96">
+        <v>2.54</v>
+      </c>
+      <c r="BM96">
+        <v>1.7</v>
+      </c>
+      <c r="BN96">
+        <v>2.05</v>
+      </c>
+      <c r="BO96">
+        <v>2.14</v>
+      </c>
+      <c r="BP96">
         <v>1.63</v>
-      </c>
-      <c r="BE96">
-        <v>6.8</v>
-      </c>
-      <c r="BF96">
-        <v>2.9</v>
-      </c>
-      <c r="BG96">
-        <v>1.21</v>
-      </c>
-      <c r="BH96">
-        <v>3.9</v>
-      </c>
-      <c r="BI96">
-        <v>1.34</v>
-      </c>
-      <c r="BJ96">
-        <v>2.69</v>
-      </c>
-      <c r="BK96">
-        <v>1.63</v>
-      </c>
-      <c r="BL96">
-        <v>2.04</v>
-      </c>
-      <c r="BM96">
-        <v>2.09</v>
-      </c>
-      <c r="BN96">
-        <v>1.66</v>
-      </c>
-      <c r="BO96">
-        <v>2.69</v>
-      </c>
-      <c r="BP96">
-        <v>1.36</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20909,7 +20951,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7476650</v>
+        <v>7476647</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20924,190 +20966,190 @@
         <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H97" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L97">
         <v>1</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O97" t="s">
         <v>163</v>
       </c>
       <c r="P97" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q97">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="R97">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S97">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="T97">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U97">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V97">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W97">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X97">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y97">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z97">
-        <v>1.94</v>
+        <v>3.85</v>
       </c>
       <c r="AA97">
         <v>3.65</v>
       </c>
       <c r="AB97">
-        <v>3.85</v>
+        <v>1.94</v>
       </c>
       <c r="AC97">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD97">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE97">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AF97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG97">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="AH97">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AI97">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AJ97">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AK97">
+        <v>1.83</v>
+      </c>
+      <c r="AL97">
         <v>1.26</v>
       </c>
-      <c r="AL97">
-        <v>1.27</v>
-      </c>
       <c r="AM97">
-        <v>1.83</v>
+        <v>1.28</v>
       </c>
       <c r="AN97">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO97">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>0.6</v>
+        <v>1.17</v>
       </c>
       <c r="AR97">
-        <v>1.55</v>
+        <v>1.14</v>
       </c>
       <c r="AS97">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT97">
-        <v>2.83</v>
+        <v>2.45</v>
       </c>
       <c r="AU97">
         <v>5</v>
       </c>
       <c r="AV97">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX97">
+        <v>3</v>
+      </c>
+      <c r="AY97">
+        <v>11</v>
+      </c>
+      <c r="AZ97">
+        <v>16</v>
+      </c>
+      <c r="BA97">
+        <v>3</v>
+      </c>
+      <c r="BB97">
         <v>5</v>
       </c>
-      <c r="AY97">
-        <v>17</v>
-      </c>
-      <c r="AZ97">
-        <v>14</v>
-      </c>
-      <c r="BA97">
-        <v>3</v>
-      </c>
-      <c r="BB97">
-        <v>3</v>
-      </c>
       <c r="BC97">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD97">
-        <v>1.44</v>
+        <v>3.04</v>
       </c>
       <c r="BE97">
-        <v>7.3</v>
+        <v>6.75</v>
       </c>
       <c r="BF97">
-        <v>3.79</v>
+        <v>1.59</v>
       </c>
       <c r="BG97">
         <v>1.21</v>
       </c>
       <c r="BH97">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="BI97">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="BJ97">
-        <v>2.69</v>
+        <v>2.49</v>
       </c>
       <c r="BK97">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="BL97">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="BM97">
-        <v>2.09</v>
+        <v>2.24</v>
       </c>
       <c r="BN97">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="BO97">
-        <v>2.69</v>
+        <v>2.94</v>
       </c>
       <c r="BP97">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -21115,7 +21157,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7476649</v>
+        <v>7476650</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21130,127 +21172,127 @@
         <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O98" t="s">
         <v>164</v>
       </c>
       <c r="P98" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="Q98">
+        <v>2.5</v>
+      </c>
+      <c r="R98">
+        <v>2.3</v>
+      </c>
+      <c r="S98">
+        <v>4</v>
+      </c>
+      <c r="T98">
+        <v>1.3</v>
+      </c>
+      <c r="U98">
         <v>3.4</v>
       </c>
-      <c r="R98">
+      <c r="V98">
+        <v>2.5</v>
+      </c>
+      <c r="W98">
+        <v>1.5</v>
+      </c>
+      <c r="X98">
+        <v>6</v>
+      </c>
+      <c r="Y98">
+        <v>1.13</v>
+      </c>
+      <c r="Z98">
+        <v>1.94</v>
+      </c>
+      <c r="AA98">
+        <v>3.65</v>
+      </c>
+      <c r="AB98">
+        <v>3.85</v>
+      </c>
+      <c r="AC98">
+        <v>1.03</v>
+      </c>
+      <c r="AD98">
+        <v>15</v>
+      </c>
+      <c r="AE98">
+        <v>1.19</v>
+      </c>
+      <c r="AF98">
+        <v>4</v>
+      </c>
+      <c r="AG98">
+        <v>1.91</v>
+      </c>
+      <c r="AH98">
+        <v>1.8</v>
+      </c>
+      <c r="AI98">
+        <v>1.57</v>
+      </c>
+      <c r="AJ98">
         <v>2.25</v>
       </c>
-      <c r="S98">
-        <v>2.88</v>
-      </c>
-      <c r="T98">
-        <v>1.36</v>
-      </c>
-      <c r="U98">
-        <v>3</v>
-      </c>
-      <c r="V98">
-        <v>2.63</v>
-      </c>
-      <c r="W98">
-        <v>1.44</v>
-      </c>
-      <c r="X98">
-        <v>7</v>
-      </c>
-      <c r="Y98">
-        <v>1.1</v>
-      </c>
-      <c r="Z98">
-        <v>2.95</v>
-      </c>
-      <c r="AA98">
-        <v>3.55</v>
-      </c>
-      <c r="AB98">
-        <v>2.33</v>
-      </c>
-      <c r="AC98">
-        <v>1.04</v>
-      </c>
-      <c r="AD98">
-        <v>11</v>
-      </c>
-      <c r="AE98">
-        <v>1.25</v>
-      </c>
-      <c r="AF98">
-        <v>3.8</v>
-      </c>
-      <c r="AG98">
-        <v>1.81</v>
-      </c>
-      <c r="AH98">
-        <v>2.01</v>
-      </c>
-      <c r="AI98">
-        <v>1.62</v>
-      </c>
-      <c r="AJ98">
-        <v>2.2</v>
-      </c>
       <c r="AK98">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="AL98">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AM98">
-        <v>1.34</v>
+        <v>1.83</v>
       </c>
       <c r="AN98">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO98">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ98">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR98">
-        <v>0.92</v>
+        <v>1.55</v>
       </c>
       <c r="AS98">
-        <v>0.99</v>
+        <v>1.28</v>
       </c>
       <c r="AT98">
-        <v>1.91</v>
+        <v>2.83</v>
       </c>
       <c r="AU98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV98">
         <v>3</v>
@@ -21259,61 +21301,61 @@
         <v>6</v>
       </c>
       <c r="AX98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY98">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ98">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA98">
         <v>3</v>
       </c>
       <c r="BB98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD98">
-        <v>2.49</v>
+        <v>1.44</v>
       </c>
       <c r="BE98">
-        <v>6.45</v>
+        <v>7.3</v>
       </c>
       <c r="BF98">
-        <v>1.82</v>
+        <v>3.79</v>
       </c>
       <c r="BG98">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BH98">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="BI98">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="BJ98">
-        <v>2.59</v>
+        <v>2.69</v>
       </c>
       <c r="BK98">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="BL98">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="BM98">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="BN98">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="BO98">
-        <v>2.82</v>
+        <v>2.69</v>
       </c>
       <c r="BP98">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21321,7 +21363,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7476648</v>
+        <v>7476649</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21336,190 +21378,190 @@
         <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H99" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M99">
         <v>1</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O99" t="s">
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="Q99">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="R99">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S99">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="T99">
+        <v>1.36</v>
+      </c>
+      <c r="U99">
+        <v>3</v>
+      </c>
+      <c r="V99">
+        <v>2.63</v>
+      </c>
+      <c r="W99">
         <v>1.44</v>
       </c>
-      <c r="U99">
-        <v>2.63</v>
-      </c>
-      <c r="V99">
-        <v>3</v>
-      </c>
-      <c r="W99">
-        <v>1.36</v>
-      </c>
       <c r="X99">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y99">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z99">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="AA99">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="AB99">
-        <v>1.99</v>
+        <v>2.33</v>
       </c>
       <c r="AC99">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AD99">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE99">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AF99">
-        <v>2.97</v>
+        <v>3.8</v>
       </c>
       <c r="AG99">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AH99">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="AI99">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AJ99">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AK99">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AL99">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AM99">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AN99">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO99">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP99">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
-        <v>1.17</v>
+        <v>0.8</v>
       </c>
       <c r="AR99">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AS99">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="AT99">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="AU99">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW99">
         <v>6</v>
       </c>
       <c r="AX99">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY99">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ99">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA99">
+        <v>3</v>
+      </c>
+      <c r="BB99">
+        <v>2</v>
+      </c>
+      <c r="BC99">
         <v>5</v>
       </c>
-      <c r="BB99">
-        <v>10</v>
-      </c>
-      <c r="BC99">
-        <v>15</v>
-      </c>
       <c r="BD99">
-        <v>2.58</v>
+        <v>2.49</v>
       </c>
       <c r="BE99">
-        <v>6.65</v>
+        <v>6.45</v>
       </c>
       <c r="BF99">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="BG99">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BH99">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="BI99">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="BJ99">
-        <v>2.88</v>
+        <v>2.59</v>
       </c>
       <c r="BK99">
+        <v>1.73</v>
+      </c>
+      <c r="BL99">
+        <v>1.99</v>
+      </c>
+      <c r="BM99">
+        <v>2.15</v>
+      </c>
+      <c r="BN99">
         <v>1.56</v>
       </c>
-      <c r="BL99">
-        <v>2.16</v>
-      </c>
-      <c r="BM99">
-        <v>1.98</v>
-      </c>
-      <c r="BN99">
-        <v>1.74</v>
-      </c>
       <c r="BO99">
-        <v>2.49</v>
+        <v>2.82</v>
       </c>
       <c r="BP99">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21527,7 +21569,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7476646</v>
+        <v>7476648</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21542,43 +21584,43 @@
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100">
         <v>1</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O100" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="Q100">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="R100">
         <v>2.1</v>
       </c>
       <c r="S100">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="T100">
         <v>1.44</v>
@@ -21599,31 +21641,31 @@
         <v>1.07</v>
       </c>
       <c r="Z100">
-        <v>1.93</v>
+        <v>3.2</v>
       </c>
       <c r="AA100">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="AB100">
-        <v>4.1</v>
+        <v>1.99</v>
       </c>
       <c r="AC100">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD100">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE100">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AF100">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="AG100">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AH100">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AI100">
         <v>1.83</v>
@@ -21632,94 +21674,94 @@
         <v>1.83</v>
       </c>
       <c r="AK100">
-        <v>1.26</v>
+        <v>1.88</v>
       </c>
       <c r="AL100">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AM100">
-        <v>1.79</v>
+        <v>1.24</v>
       </c>
       <c r="AN100">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO100">
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AQ100">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR100">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AS100">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="AT100">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="AU100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX100">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY100">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ100">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB100">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BC100">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BD100">
-        <v>1.47</v>
+        <v>2.58</v>
       </c>
       <c r="BE100">
-        <v>7.3</v>
+        <v>6.65</v>
       </c>
       <c r="BF100">
-        <v>3.6</v>
+        <v>1.79</v>
       </c>
       <c r="BG100">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH100">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BI100">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BJ100">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="BK100">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="BL100">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="BM100">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="BN100">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="BO100">
         <v>2.49</v>
@@ -21733,7 +21775,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7476647</v>
+        <v>7476646</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21748,49 +21790,49 @@
         <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H101" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N101">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O101" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="Q101">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="R101">
         <v>2.1</v>
       </c>
       <c r="S101">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="T101">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U101">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V101">
         <v>3</v>
@@ -21799,37 +21841,37 @@
         <v>1.36</v>
       </c>
       <c r="X101">
+        <v>9</v>
+      </c>
+      <c r="Y101">
+        <v>1.07</v>
+      </c>
+      <c r="Z101">
+        <v>1.93</v>
+      </c>
+      <c r="AA101">
+        <v>3.45</v>
+      </c>
+      <c r="AB101">
+        <v>4.1</v>
+      </c>
+      <c r="AC101">
+        <v>1.05</v>
+      </c>
+      <c r="AD101">
         <v>8</v>
       </c>
-      <c r="Y101">
-        <v>1.08</v>
-      </c>
-      <c r="Z101">
-        <v>3.85</v>
-      </c>
-      <c r="AA101">
-        <v>3.65</v>
-      </c>
-      <c r="AB101">
-        <v>1.94</v>
-      </c>
-      <c r="AC101">
-        <v>1.06</v>
-      </c>
-      <c r="AD101">
-        <v>10</v>
-      </c>
       <c r="AE101">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF101">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AG101">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="AH101">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AI101">
         <v>1.83</v>
@@ -21838,100 +21880,100 @@
         <v>1.83</v>
       </c>
       <c r="AK101">
-        <v>1.83</v>
+        <v>1.26</v>
       </c>
       <c r="AL101">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AM101">
-        <v>1.28</v>
+        <v>1.79</v>
       </c>
       <c r="AN101">
+        <v>3</v>
+      </c>
+      <c r="AO101">
+        <v>0.75</v>
+      </c>
+      <c r="AP101">
+        <v>2</v>
+      </c>
+      <c r="AQ101">
         <v>1.5</v>
       </c>
-      <c r="AO101">
-        <v>0.25</v>
-      </c>
-      <c r="AP101">
-        <v>1.5</v>
-      </c>
-      <c r="AQ101">
-        <v>0.8</v>
-      </c>
       <c r="AR101">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="AS101">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AT101">
-        <v>2.45</v>
+        <v>2.56</v>
       </c>
       <c r="AU101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV101">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AW101">
         <v>3</v>
       </c>
       <c r="AX101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY101">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ101">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BA101">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD101">
-        <v>3.04</v>
+        <v>1.47</v>
       </c>
       <c r="BE101">
-        <v>6.75</v>
+        <v>7.3</v>
       </c>
       <c r="BF101">
-        <v>1.59</v>
+        <v>3.6</v>
       </c>
       <c r="BG101">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="BH101">
-        <v>3.44</v>
+        <v>4.3</v>
       </c>
       <c r="BI101">
+        <v>1.29</v>
+      </c>
+      <c r="BJ101">
+        <v>2.92</v>
+      </c>
+      <c r="BK101">
+        <v>1.55</v>
+      </c>
+      <c r="BL101">
+        <v>2.17</v>
+      </c>
+      <c r="BM101">
+        <v>1.96</v>
+      </c>
+      <c r="BN101">
+        <v>1.75</v>
+      </c>
+      <c r="BO101">
+        <v>2.49</v>
+      </c>
+      <c r="BP101">
         <v>1.42</v>
-      </c>
-      <c r="BJ101">
-        <v>2.49</v>
-      </c>
-      <c r="BK101">
-        <v>1.8</v>
-      </c>
-      <c r="BL101">
-        <v>1.91</v>
-      </c>
-      <c r="BM101">
-        <v>2.24</v>
-      </c>
-      <c r="BN101">
-        <v>1.52</v>
-      </c>
-      <c r="BO101">
-        <v>2.94</v>
-      </c>
-      <c r="BP101">
-        <v>1.28</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -21981,7 +22023,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22187,7 +22229,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22265,7 +22307,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ103">
         <v>2</v>
@@ -22393,7 +22435,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22471,7 +22513,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ104">
         <v>1.67</v>
@@ -22680,7 +22722,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ105">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1</v>
@@ -22805,7 +22847,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -22883,10 +22925,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR106">
         <v>1.16</v>
@@ -23298,7 +23340,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR108">
         <v>1.25</v>
@@ -23501,7 +23543,7 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ109">
         <v>2.17</v>
@@ -23629,7 +23671,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23710,7 +23752,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR110">
         <v>1.38</v>
@@ -23913,10 +23955,10 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ111">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR111">
         <v>1.19</v>
@@ -24119,7 +24161,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24247,7 +24289,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24328,7 +24370,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ113">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR113">
         <v>1.34</v>
@@ -24453,7 +24495,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24534,7 +24576,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ114">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR114">
         <v>1.49</v>
@@ -24659,7 +24701,7 @@
         <v>174</v>
       </c>
       <c r="P115" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24737,7 +24779,7 @@
         <v>0.25</v>
       </c>
       <c r="AP115">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ115">
         <v>0.67</v>
@@ -24943,7 +24985,7 @@
         <v>0.75</v>
       </c>
       <c r="AP116">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ116">
         <v>0.67</v>
@@ -25071,7 +25113,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25149,7 +25191,7 @@
         <v>0.75</v>
       </c>
       <c r="AP117">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
@@ -25277,7 +25319,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25483,7 +25525,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25689,7 +25731,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -25895,7 +25937,7 @@
         <v>101</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>2.75</v>
@@ -26307,7 +26349,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26513,7 +26555,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26719,7 +26761,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -27128,10 +27170,10 @@
         <v>2</v>
       </c>
       <c r="O127" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q127">
         <v>2.38</v>
@@ -27337,7 +27379,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27493,6 +27535,2272 @@
         <v>0</v>
       </c>
       <c r="BP128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7476677</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45584.35416666666</v>
+      </c>
+      <c r="F129">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>84</v>
+      </c>
+      <c r="H129" t="s">
+        <v>72</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>118</v>
+      </c>
+      <c r="P129" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q129">
+        <v>3.75</v>
+      </c>
+      <c r="R129">
+        <v>2.1</v>
+      </c>
+      <c r="S129">
+        <v>3</v>
+      </c>
+      <c r="T129">
+        <v>1.44</v>
+      </c>
+      <c r="U129">
+        <v>2.63</v>
+      </c>
+      <c r="V129">
+        <v>3.25</v>
+      </c>
+      <c r="W129">
+        <v>1.33</v>
+      </c>
+      <c r="X129">
+        <v>9</v>
+      </c>
+      <c r="Y129">
+        <v>1.07</v>
+      </c>
+      <c r="Z129">
+        <v>3</v>
+      </c>
+      <c r="AA129">
+        <v>3.4</v>
+      </c>
+      <c r="AB129">
+        <v>2.25</v>
+      </c>
+      <c r="AC129">
+        <v>1.06</v>
+      </c>
+      <c r="AD129">
+        <v>10</v>
+      </c>
+      <c r="AE129">
+        <v>1.33</v>
+      </c>
+      <c r="AF129">
+        <v>3.25</v>
+      </c>
+      <c r="AG129">
+        <v>2</v>
+      </c>
+      <c r="AH129">
+        <v>1.73</v>
+      </c>
+      <c r="AI129">
+        <v>1.83</v>
+      </c>
+      <c r="AJ129">
+        <v>1.83</v>
+      </c>
+      <c r="AK129">
+        <v>1.63</v>
+      </c>
+      <c r="AL129">
+        <v>1.28</v>
+      </c>
+      <c r="AM129">
+        <v>1.36</v>
+      </c>
+      <c r="AN129">
+        <v>1.2</v>
+      </c>
+      <c r="AO129">
+        <v>1.2</v>
+      </c>
+      <c r="AP129">
+        <v>1.5</v>
+      </c>
+      <c r="AQ129">
+        <v>1</v>
+      </c>
+      <c r="AR129">
+        <v>1.45</v>
+      </c>
+      <c r="AS129">
+        <v>1.02</v>
+      </c>
+      <c r="AT129">
+        <v>2.47</v>
+      </c>
+      <c r="AU129">
+        <v>3</v>
+      </c>
+      <c r="AV129">
+        <v>3</v>
+      </c>
+      <c r="AW129">
+        <v>3</v>
+      </c>
+      <c r="AX129">
+        <v>6</v>
+      </c>
+      <c r="AY129">
+        <v>7</v>
+      </c>
+      <c r="AZ129">
+        <v>13</v>
+      </c>
+      <c r="BA129">
+        <v>2</v>
+      </c>
+      <c r="BB129">
+        <v>9</v>
+      </c>
+      <c r="BC129">
+        <v>11</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>0</v>
+      </c>
+      <c r="BG129">
+        <v>0</v>
+      </c>
+      <c r="BH129">
+        <v>0</v>
+      </c>
+      <c r="BI129">
+        <v>0</v>
+      </c>
+      <c r="BJ129">
+        <v>0</v>
+      </c>
+      <c r="BK129">
+        <v>2.1</v>
+      </c>
+      <c r="BL129">
+        <v>0</v>
+      </c>
+      <c r="BM129">
+        <v>0</v>
+      </c>
+      <c r="BN129">
+        <v>0</v>
+      </c>
+      <c r="BO129">
+        <v>0</v>
+      </c>
+      <c r="BP129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7476688</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F130">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>91</v>
+      </c>
+      <c r="H130" t="s">
+        <v>74</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>181</v>
+      </c>
+      <c r="P130" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q130">
+        <v>3.5</v>
+      </c>
+      <c r="R130">
+        <v>2.2</v>
+      </c>
+      <c r="S130">
+        <v>2.88</v>
+      </c>
+      <c r="T130">
+        <v>1.36</v>
+      </c>
+      <c r="U130">
+        <v>3</v>
+      </c>
+      <c r="V130">
+        <v>2.75</v>
+      </c>
+      <c r="W130">
+        <v>1.4</v>
+      </c>
+      <c r="X130">
+        <v>7</v>
+      </c>
+      <c r="Y130">
+        <v>1.1</v>
+      </c>
+      <c r="Z130">
+        <v>2.8</v>
+      </c>
+      <c r="AA130">
+        <v>3.7</v>
+      </c>
+      <c r="AB130">
+        <v>2.3</v>
+      </c>
+      <c r="AC130">
+        <v>1.04</v>
+      </c>
+      <c r="AD130">
+        <v>12</v>
+      </c>
+      <c r="AE130">
+        <v>1.3</v>
+      </c>
+      <c r="AF130">
+        <v>3.5</v>
+      </c>
+      <c r="AG130">
+        <v>1.83</v>
+      </c>
+      <c r="AH130">
+        <v>1.91</v>
+      </c>
+      <c r="AI130">
+        <v>1.73</v>
+      </c>
+      <c r="AJ130">
+        <v>2</v>
+      </c>
+      <c r="AK130">
+        <v>1.62</v>
+      </c>
+      <c r="AL130">
+        <v>1.25</v>
+      </c>
+      <c r="AM130">
+        <v>1.4</v>
+      </c>
+      <c r="AN130">
+        <v>0.8</v>
+      </c>
+      <c r="AO130">
+        <v>1.4</v>
+      </c>
+      <c r="AP130">
+        <v>0.67</v>
+      </c>
+      <c r="AQ130">
+        <v>1.67</v>
+      </c>
+      <c r="AR130">
+        <v>1.44</v>
+      </c>
+      <c r="AS130">
+        <v>1.51</v>
+      </c>
+      <c r="AT130">
+        <v>2.95</v>
+      </c>
+      <c r="AU130">
+        <v>4</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>2</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>9</v>
+      </c>
+      <c r="AZ130">
+        <v>15</v>
+      </c>
+      <c r="BA130">
+        <v>3</v>
+      </c>
+      <c r="BB130">
+        <v>12</v>
+      </c>
+      <c r="BC130">
+        <v>15</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>0</v>
+      </c>
+      <c r="BG130">
+        <v>0</v>
+      </c>
+      <c r="BH130">
+        <v>0</v>
+      </c>
+      <c r="BI130">
+        <v>0</v>
+      </c>
+      <c r="BJ130">
+        <v>0</v>
+      </c>
+      <c r="BK130">
+        <v>2</v>
+      </c>
+      <c r="BL130">
+        <v>0</v>
+      </c>
+      <c r="BM130">
+        <v>0</v>
+      </c>
+      <c r="BN130">
+        <v>0</v>
+      </c>
+      <c r="BO130">
+        <v>0</v>
+      </c>
+      <c r="BP130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7476684</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F131">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>88</v>
+      </c>
+      <c r="H131" t="s">
+        <v>78</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131">
+        <v>3</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+      <c r="N131">
+        <v>4</v>
+      </c>
+      <c r="O131" t="s">
+        <v>182</v>
+      </c>
+      <c r="P131" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q131">
+        <v>4</v>
+      </c>
+      <c r="R131">
+        <v>2.25</v>
+      </c>
+      <c r="S131">
+        <v>2.6</v>
+      </c>
+      <c r="T131">
+        <v>1.36</v>
+      </c>
+      <c r="U131">
+        <v>3</v>
+      </c>
+      <c r="V131">
+        <v>2.63</v>
+      </c>
+      <c r="W131">
+        <v>1.44</v>
+      </c>
+      <c r="X131">
+        <v>7</v>
+      </c>
+      <c r="Y131">
+        <v>1.1</v>
+      </c>
+      <c r="Z131">
+        <v>3.6</v>
+      </c>
+      <c r="AA131">
+        <v>3.6</v>
+      </c>
+      <c r="AB131">
+        <v>1.95</v>
+      </c>
+      <c r="AC131">
+        <v>1.03</v>
+      </c>
+      <c r="AD131">
+        <v>13</v>
+      </c>
+      <c r="AE131">
+        <v>1.25</v>
+      </c>
+      <c r="AF131">
+        <v>3.75</v>
+      </c>
+      <c r="AG131">
+        <v>1.75</v>
+      </c>
+      <c r="AH131">
+        <v>1.95</v>
+      </c>
+      <c r="AI131">
+        <v>1.67</v>
+      </c>
+      <c r="AJ131">
+        <v>2.1</v>
+      </c>
+      <c r="AK131">
+        <v>1.87</v>
+      </c>
+      <c r="AL131">
+        <v>1.22</v>
+      </c>
+      <c r="AM131">
+        <v>1.28</v>
+      </c>
+      <c r="AN131">
+        <v>0.6</v>
+      </c>
+      <c r="AO131">
+        <v>0.8</v>
+      </c>
+      <c r="AP131">
+        <v>0.5</v>
+      </c>
+      <c r="AQ131">
+        <v>1.17</v>
+      </c>
+      <c r="AR131">
+        <v>1.35</v>
+      </c>
+      <c r="AS131">
+        <v>1.43</v>
+      </c>
+      <c r="AT131">
+        <v>2.78</v>
+      </c>
+      <c r="AU131">
+        <v>5</v>
+      </c>
+      <c r="AV131">
+        <v>10</v>
+      </c>
+      <c r="AW131">
+        <v>8</v>
+      </c>
+      <c r="AX131">
+        <v>5</v>
+      </c>
+      <c r="AY131">
+        <v>17</v>
+      </c>
+      <c r="AZ131">
+        <v>17</v>
+      </c>
+      <c r="BA131">
+        <v>8</v>
+      </c>
+      <c r="BB131">
+        <v>4</v>
+      </c>
+      <c r="BC131">
+        <v>12</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>0</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>0</v>
+      </c>
+      <c r="BJ131">
+        <v>0</v>
+      </c>
+      <c r="BK131">
+        <v>2.25</v>
+      </c>
+      <c r="BL131">
+        <v>0</v>
+      </c>
+      <c r="BM131">
+        <v>0</v>
+      </c>
+      <c r="BN131">
+        <v>0</v>
+      </c>
+      <c r="BO131">
+        <v>0</v>
+      </c>
+      <c r="BP131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7476687</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>90</v>
+      </c>
+      <c r="H132" t="s">
+        <v>75</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132" t="s">
+        <v>183</v>
+      </c>
+      <c r="P132" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q132">
+        <v>2.63</v>
+      </c>
+      <c r="R132">
+        <v>2.2</v>
+      </c>
+      <c r="S132">
+        <v>4</v>
+      </c>
+      <c r="T132">
+        <v>1.4</v>
+      </c>
+      <c r="U132">
+        <v>2.75</v>
+      </c>
+      <c r="V132">
+        <v>2.75</v>
+      </c>
+      <c r="W132">
+        <v>1.4</v>
+      </c>
+      <c r="X132">
+        <v>8</v>
+      </c>
+      <c r="Y132">
+        <v>1.08</v>
+      </c>
+      <c r="Z132">
+        <v>2.05</v>
+      </c>
+      <c r="AA132">
+        <v>3.5</v>
+      </c>
+      <c r="AB132">
+        <v>3.4</v>
+      </c>
+      <c r="AC132">
+        <v>1.05</v>
+      </c>
+      <c r="AD132">
+        <v>11</v>
+      </c>
+      <c r="AE132">
+        <v>1.3</v>
+      </c>
+      <c r="AF132">
+        <v>3.5</v>
+      </c>
+      <c r="AG132">
+        <v>1.91</v>
+      </c>
+      <c r="AH132">
+        <v>1.8</v>
+      </c>
+      <c r="AI132">
+        <v>1.73</v>
+      </c>
+      <c r="AJ132">
+        <v>2</v>
+      </c>
+      <c r="AK132">
+        <v>1.3</v>
+      </c>
+      <c r="AL132">
+        <v>1.25</v>
+      </c>
+      <c r="AM132">
+        <v>1.78</v>
+      </c>
+      <c r="AN132">
+        <v>1.6</v>
+      </c>
+      <c r="AO132">
+        <v>2</v>
+      </c>
+      <c r="AP132">
+        <v>1.83</v>
+      </c>
+      <c r="AQ132">
+        <v>1.67</v>
+      </c>
+      <c r="AR132">
+        <v>1.51</v>
+      </c>
+      <c r="AS132">
+        <v>1.26</v>
+      </c>
+      <c r="AT132">
+        <v>2.77</v>
+      </c>
+      <c r="AU132">
+        <v>4</v>
+      </c>
+      <c r="AV132">
+        <v>4</v>
+      </c>
+      <c r="AW132">
+        <v>3</v>
+      </c>
+      <c r="AX132">
+        <v>1</v>
+      </c>
+      <c r="AY132">
+        <v>9</v>
+      </c>
+      <c r="AZ132">
+        <v>7</v>
+      </c>
+      <c r="BA132">
+        <v>8</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>12</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>0</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>0</v>
+      </c>
+      <c r="BJ132">
+        <v>0</v>
+      </c>
+      <c r="BK132">
+        <v>0</v>
+      </c>
+      <c r="BL132">
+        <v>0</v>
+      </c>
+      <c r="BM132">
+        <v>0</v>
+      </c>
+      <c r="BN132">
+        <v>0</v>
+      </c>
+      <c r="BO132">
+        <v>0</v>
+      </c>
+      <c r="BP132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7476683</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F133">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>87</v>
+      </c>
+      <c r="H133" t="s">
+        <v>81</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>4</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133" t="s">
+        <v>184</v>
+      </c>
+      <c r="P133" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q133">
+        <v>3.6</v>
+      </c>
+      <c r="R133">
+        <v>2.2</v>
+      </c>
+      <c r="S133">
+        <v>2.88</v>
+      </c>
+      <c r="T133">
+        <v>1.36</v>
+      </c>
+      <c r="U133">
+        <v>3</v>
+      </c>
+      <c r="V133">
+        <v>2.75</v>
+      </c>
+      <c r="W133">
+        <v>1.4</v>
+      </c>
+      <c r="X133">
+        <v>7</v>
+      </c>
+      <c r="Y133">
+        <v>1.1</v>
+      </c>
+      <c r="Z133">
+        <v>3.1</v>
+      </c>
+      <c r="AA133">
+        <v>3.6</v>
+      </c>
+      <c r="AB133">
+        <v>2.15</v>
+      </c>
+      <c r="AC133">
+        <v>1.04</v>
+      </c>
+      <c r="AD133">
+        <v>12</v>
+      </c>
+      <c r="AE133">
+        <v>1.28</v>
+      </c>
+      <c r="AF133">
+        <v>3.6</v>
+      </c>
+      <c r="AG133">
+        <v>1.8</v>
+      </c>
+      <c r="AH133">
+        <v>1.91</v>
+      </c>
+      <c r="AI133">
+        <v>1.67</v>
+      </c>
+      <c r="AJ133">
+        <v>2.1</v>
+      </c>
+      <c r="AK133">
+        <v>1.72</v>
+      </c>
+      <c r="AL133">
+        <v>1.25</v>
+      </c>
+      <c r="AM133">
+        <v>1.36</v>
+      </c>
+      <c r="AN133">
+        <v>1.8</v>
+      </c>
+      <c r="AO133">
+        <v>1.4</v>
+      </c>
+      <c r="AP133">
+        <v>1.5</v>
+      </c>
+      <c r="AQ133">
+        <v>1.67</v>
+      </c>
+      <c r="AR133">
+        <v>1.16</v>
+      </c>
+      <c r="AS133">
+        <v>1.32</v>
+      </c>
+      <c r="AT133">
+        <v>2.48</v>
+      </c>
+      <c r="AU133">
+        <v>6</v>
+      </c>
+      <c r="AV133">
+        <v>5</v>
+      </c>
+      <c r="AW133">
+        <v>2</v>
+      </c>
+      <c r="AX133">
+        <v>3</v>
+      </c>
+      <c r="AY133">
+        <v>9</v>
+      </c>
+      <c r="AZ133">
+        <v>15</v>
+      </c>
+      <c r="BA133">
+        <v>4</v>
+      </c>
+      <c r="BB133">
+        <v>6</v>
+      </c>
+      <c r="BC133">
+        <v>10</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>0</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>0</v>
+      </c>
+      <c r="BJ133">
+        <v>0</v>
+      </c>
+      <c r="BK133">
+        <v>1.91</v>
+      </c>
+      <c r="BL133">
+        <v>0</v>
+      </c>
+      <c r="BM133">
+        <v>0</v>
+      </c>
+      <c r="BN133">
+        <v>0</v>
+      </c>
+      <c r="BO133">
+        <v>0</v>
+      </c>
+      <c r="BP133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7476686</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F134">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>93</v>
+      </c>
+      <c r="H134" t="s">
+        <v>71</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>185</v>
+      </c>
+      <c r="P134" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q134">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>2.2</v>
+      </c>
+      <c r="S134">
+        <v>3.4</v>
+      </c>
+      <c r="T134">
+        <v>1.36</v>
+      </c>
+      <c r="U134">
+        <v>3</v>
+      </c>
+      <c r="V134">
+        <v>2.63</v>
+      </c>
+      <c r="W134">
+        <v>1.44</v>
+      </c>
+      <c r="X134">
+        <v>7</v>
+      </c>
+      <c r="Y134">
+        <v>1.1</v>
+      </c>
+      <c r="Z134">
+        <v>2.37</v>
+      </c>
+      <c r="AA134">
+        <v>3.7</v>
+      </c>
+      <c r="AB134">
+        <v>2.7</v>
+      </c>
+      <c r="AC134">
+        <v>1.03</v>
+      </c>
+      <c r="AD134">
+        <v>13</v>
+      </c>
+      <c r="AE134">
+        <v>1.22</v>
+      </c>
+      <c r="AF134">
+        <v>4.2</v>
+      </c>
+      <c r="AG134">
+        <v>1.7</v>
+      </c>
+      <c r="AH134">
+        <v>2</v>
+      </c>
+      <c r="AI134">
+        <v>1.62</v>
+      </c>
+      <c r="AJ134">
+        <v>2.2</v>
+      </c>
+      <c r="AK134">
+        <v>1.47</v>
+      </c>
+      <c r="AL134">
+        <v>1.25</v>
+      </c>
+      <c r="AM134">
+        <v>1.55</v>
+      </c>
+      <c r="AN134">
+        <v>1.4</v>
+      </c>
+      <c r="AO134">
+        <v>1</v>
+      </c>
+      <c r="AP134">
+        <v>1.67</v>
+      </c>
+      <c r="AQ134">
+        <v>0.8</v>
+      </c>
+      <c r="AR134">
+        <v>1.71</v>
+      </c>
+      <c r="AS134">
+        <v>0.88</v>
+      </c>
+      <c r="AT134">
+        <v>2.59</v>
+      </c>
+      <c r="AU134">
+        <v>4</v>
+      </c>
+      <c r="AV134">
+        <v>9</v>
+      </c>
+      <c r="AW134">
+        <v>6</v>
+      </c>
+      <c r="AX134">
+        <v>7</v>
+      </c>
+      <c r="AY134">
+        <v>13</v>
+      </c>
+      <c r="AZ134">
+        <v>17</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>1</v>
+      </c>
+      <c r="BC134">
+        <v>4</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>0</v>
+      </c>
+      <c r="BG134">
+        <v>0</v>
+      </c>
+      <c r="BH134">
+        <v>0</v>
+      </c>
+      <c r="BI134">
+        <v>0</v>
+      </c>
+      <c r="BJ134">
+        <v>0</v>
+      </c>
+      <c r="BK134">
+        <v>2.1</v>
+      </c>
+      <c r="BL134">
+        <v>0</v>
+      </c>
+      <c r="BM134">
+        <v>0</v>
+      </c>
+      <c r="BN134">
+        <v>0</v>
+      </c>
+      <c r="BO134">
+        <v>0</v>
+      </c>
+      <c r="BP134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7476681</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F135">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>85</v>
+      </c>
+      <c r="H135" t="s">
+        <v>73</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>147</v>
+      </c>
+      <c r="P135" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q135">
+        <v>2.6</v>
+      </c>
+      <c r="R135">
+        <v>2.2</v>
+      </c>
+      <c r="S135">
+        <v>4.5</v>
+      </c>
+      <c r="T135">
+        <v>1.4</v>
+      </c>
+      <c r="U135">
+        <v>2.75</v>
+      </c>
+      <c r="V135">
+        <v>3</v>
+      </c>
+      <c r="W135">
+        <v>1.36</v>
+      </c>
+      <c r="X135">
+        <v>8</v>
+      </c>
+      <c r="Y135">
+        <v>1.08</v>
+      </c>
+      <c r="Z135">
+        <v>1.91</v>
+      </c>
+      <c r="AA135">
+        <v>3.5</v>
+      </c>
+      <c r="AB135">
+        <v>4</v>
+      </c>
+      <c r="AC135">
+        <v>1.05</v>
+      </c>
+      <c r="AD135">
+        <v>10</v>
+      </c>
+      <c r="AE135">
+        <v>1.33</v>
+      </c>
+      <c r="AF135">
+        <v>3.25</v>
+      </c>
+      <c r="AG135">
+        <v>1.95</v>
+      </c>
+      <c r="AH135">
+        <v>1.75</v>
+      </c>
+      <c r="AI135">
+        <v>1.83</v>
+      </c>
+      <c r="AJ135">
+        <v>1.83</v>
+      </c>
+      <c r="AK135">
+        <v>1.22</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.9</v>
+      </c>
+      <c r="AN135">
+        <v>1.6</v>
+      </c>
+      <c r="AO135">
+        <v>0.2</v>
+      </c>
+      <c r="AP135">
+        <v>1.33</v>
+      </c>
+      <c r="AQ135">
+        <v>0.67</v>
+      </c>
+      <c r="AR135">
+        <v>1.78</v>
+      </c>
+      <c r="AS135">
+        <v>1.06</v>
+      </c>
+      <c r="AT135">
+        <v>2.84</v>
+      </c>
+      <c r="AU135">
+        <v>5</v>
+      </c>
+      <c r="AV135">
+        <v>5</v>
+      </c>
+      <c r="AW135">
+        <v>9</v>
+      </c>
+      <c r="AX135">
+        <v>2</v>
+      </c>
+      <c r="AY135">
+        <v>22</v>
+      </c>
+      <c r="AZ135">
+        <v>7</v>
+      </c>
+      <c r="BA135">
+        <v>5</v>
+      </c>
+      <c r="BB135">
+        <v>3</v>
+      </c>
+      <c r="BC135">
+        <v>8</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>0</v>
+      </c>
+      <c r="BG135">
+        <v>0</v>
+      </c>
+      <c r="BH135">
+        <v>0</v>
+      </c>
+      <c r="BI135">
+        <v>0</v>
+      </c>
+      <c r="BJ135">
+        <v>0</v>
+      </c>
+      <c r="BK135">
+        <v>2.25</v>
+      </c>
+      <c r="BL135">
+        <v>0</v>
+      </c>
+      <c r="BM135">
+        <v>0</v>
+      </c>
+      <c r="BN135">
+        <v>0</v>
+      </c>
+      <c r="BO135">
+        <v>0</v>
+      </c>
+      <c r="BP135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7476678</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F136">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>92</v>
+      </c>
+      <c r="H136" t="s">
+        <v>76</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>186</v>
+      </c>
+      <c r="P136" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q136">
+        <v>2.75</v>
+      </c>
+      <c r="R136">
+        <v>2.1</v>
+      </c>
+      <c r="S136">
+        <v>4</v>
+      </c>
+      <c r="T136">
+        <v>1.4</v>
+      </c>
+      <c r="U136">
+        <v>2.75</v>
+      </c>
+      <c r="V136">
+        <v>3</v>
+      </c>
+      <c r="W136">
+        <v>1.36</v>
+      </c>
+      <c r="X136">
+        <v>8</v>
+      </c>
+      <c r="Y136">
+        <v>1.08</v>
+      </c>
+      <c r="Z136">
+        <v>2.05</v>
+      </c>
+      <c r="AA136">
+        <v>3.4</v>
+      </c>
+      <c r="AB136">
+        <v>3.5</v>
+      </c>
+      <c r="AC136">
+        <v>1.05</v>
+      </c>
+      <c r="AD136">
+        <v>10</v>
+      </c>
+      <c r="AE136">
+        <v>1.33</v>
+      </c>
+      <c r="AF136">
+        <v>3.25</v>
+      </c>
+      <c r="AG136">
+        <v>2</v>
+      </c>
+      <c r="AH136">
+        <v>1.73</v>
+      </c>
+      <c r="AI136">
+        <v>1.8</v>
+      </c>
+      <c r="AJ136">
+        <v>1.91</v>
+      </c>
+      <c r="AK136">
+        <v>1.3</v>
+      </c>
+      <c r="AL136">
+        <v>1.25</v>
+      </c>
+      <c r="AM136">
+        <v>1.75</v>
+      </c>
+      <c r="AN136">
+        <v>2.2</v>
+      </c>
+      <c r="AO136">
+        <v>1.4</v>
+      </c>
+      <c r="AP136">
+        <v>2.33</v>
+      </c>
+      <c r="AQ136">
+        <v>1.17</v>
+      </c>
+      <c r="AR136">
+        <v>1.55</v>
+      </c>
+      <c r="AS136">
+        <v>0.96</v>
+      </c>
+      <c r="AT136">
+        <v>2.51</v>
+      </c>
+      <c r="AU136">
+        <v>7</v>
+      </c>
+      <c r="AV136">
+        <v>4</v>
+      </c>
+      <c r="AW136">
+        <v>4</v>
+      </c>
+      <c r="AX136">
+        <v>2</v>
+      </c>
+      <c r="AY136">
+        <v>16</v>
+      </c>
+      <c r="AZ136">
+        <v>7</v>
+      </c>
+      <c r="BA136">
+        <v>8</v>
+      </c>
+      <c r="BB136">
+        <v>4</v>
+      </c>
+      <c r="BC136">
+        <v>12</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>2.2</v>
+      </c>
+      <c r="BL136">
+        <v>0</v>
+      </c>
+      <c r="BM136">
+        <v>0</v>
+      </c>
+      <c r="BN136">
+        <v>0</v>
+      </c>
+      <c r="BO136">
+        <v>0</v>
+      </c>
+      <c r="BP136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7476682</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F137">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>86</v>
+      </c>
+      <c r="H137" t="s">
+        <v>79</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>187</v>
+      </c>
+      <c r="P137" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q137">
+        <v>3</v>
+      </c>
+      <c r="R137">
+        <v>2.05</v>
+      </c>
+      <c r="S137">
+        <v>3.75</v>
+      </c>
+      <c r="T137">
+        <v>1.44</v>
+      </c>
+      <c r="U137">
+        <v>2.63</v>
+      </c>
+      <c r="V137">
+        <v>3.25</v>
+      </c>
+      <c r="W137">
+        <v>1.33</v>
+      </c>
+      <c r="X137">
+        <v>9</v>
+      </c>
+      <c r="Y137">
+        <v>1.07</v>
+      </c>
+      <c r="Z137">
+        <v>2.25</v>
+      </c>
+      <c r="AA137">
+        <v>3.3</v>
+      </c>
+      <c r="AB137">
+        <v>3.1</v>
+      </c>
+      <c r="AC137">
+        <v>1.06</v>
+      </c>
+      <c r="AD137">
+        <v>10</v>
+      </c>
+      <c r="AE137">
+        <v>1.36</v>
+      </c>
+      <c r="AF137">
+        <v>3.2</v>
+      </c>
+      <c r="AG137">
+        <v>2</v>
+      </c>
+      <c r="AH137">
+        <v>1.7</v>
+      </c>
+      <c r="AI137">
+        <v>1.83</v>
+      </c>
+      <c r="AJ137">
+        <v>1.83</v>
+      </c>
+      <c r="AK137">
+        <v>1.36</v>
+      </c>
+      <c r="AL137">
+        <v>1.25</v>
+      </c>
+      <c r="AM137">
+        <v>1.65</v>
+      </c>
+      <c r="AN137">
+        <v>2</v>
+      </c>
+      <c r="AO137">
+        <v>0.75</v>
+      </c>
+      <c r="AP137">
+        <v>1.83</v>
+      </c>
+      <c r="AQ137">
+        <v>0.8</v>
+      </c>
+      <c r="AR137">
+        <v>1.2</v>
+      </c>
+      <c r="AS137">
+        <v>1.01</v>
+      </c>
+      <c r="AT137">
+        <v>2.21</v>
+      </c>
+      <c r="AU137">
+        <v>4</v>
+      </c>
+      <c r="AV137">
+        <v>6</v>
+      </c>
+      <c r="AW137">
+        <v>1</v>
+      </c>
+      <c r="AX137">
+        <v>4</v>
+      </c>
+      <c r="AY137">
+        <v>9</v>
+      </c>
+      <c r="AZ137">
+        <v>12</v>
+      </c>
+      <c r="BA137">
+        <v>8</v>
+      </c>
+      <c r="BB137">
+        <v>4</v>
+      </c>
+      <c r="BC137">
+        <v>12</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>0</v>
+      </c>
+      <c r="BG137">
+        <v>0</v>
+      </c>
+      <c r="BH137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>0</v>
+      </c>
+      <c r="BJ137">
+        <v>0</v>
+      </c>
+      <c r="BK137">
+        <v>2.1</v>
+      </c>
+      <c r="BL137">
+        <v>0</v>
+      </c>
+      <c r="BM137">
+        <v>0</v>
+      </c>
+      <c r="BN137">
+        <v>0</v>
+      </c>
+      <c r="BO137">
+        <v>0</v>
+      </c>
+      <c r="BP137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7476680</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>82</v>
+      </c>
+      <c r="H138" t="s">
+        <v>77</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>182</v>
+      </c>
+      <c r="P138" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q138">
+        <v>2.5</v>
+      </c>
+      <c r="R138">
+        <v>2.2</v>
+      </c>
+      <c r="S138">
+        <v>4.5</v>
+      </c>
+      <c r="T138">
+        <v>1.4</v>
+      </c>
+      <c r="U138">
+        <v>2.75</v>
+      </c>
+      <c r="V138">
+        <v>2.75</v>
+      </c>
+      <c r="W138">
+        <v>1.4</v>
+      </c>
+      <c r="X138">
+        <v>8</v>
+      </c>
+      <c r="Y138">
+        <v>1.08</v>
+      </c>
+      <c r="Z138">
+        <v>1.95</v>
+      </c>
+      <c r="AA138">
+        <v>3.5</v>
+      </c>
+      <c r="AB138">
+        <v>3.7</v>
+      </c>
+      <c r="AC138">
+        <v>1.04</v>
+      </c>
+      <c r="AD138">
+        <v>12</v>
+      </c>
+      <c r="AE138">
+        <v>1.3</v>
+      </c>
+      <c r="AF138">
+        <v>3.4</v>
+      </c>
+      <c r="AG138">
+        <v>1.91</v>
+      </c>
+      <c r="AH138">
+        <v>1.8</v>
+      </c>
+      <c r="AI138">
+        <v>1.8</v>
+      </c>
+      <c r="AJ138">
+        <v>1.91</v>
+      </c>
+      <c r="AK138">
+        <v>1.3</v>
+      </c>
+      <c r="AL138">
+        <v>1.22</v>
+      </c>
+      <c r="AM138">
+        <v>1.83</v>
+      </c>
+      <c r="AN138">
+        <v>0.6</v>
+      </c>
+      <c r="AO138">
+        <v>1</v>
+      </c>
+      <c r="AP138">
+        <v>0.67</v>
+      </c>
+      <c r="AQ138">
+        <v>1</v>
+      </c>
+      <c r="AR138">
+        <v>1.5</v>
+      </c>
+      <c r="AS138">
+        <v>1.18</v>
+      </c>
+      <c r="AT138">
+        <v>2.68</v>
+      </c>
+      <c r="AU138">
+        <v>10</v>
+      </c>
+      <c r="AV138">
+        <v>3</v>
+      </c>
+      <c r="AW138">
+        <v>9</v>
+      </c>
+      <c r="AX138">
+        <v>2</v>
+      </c>
+      <c r="AY138">
+        <v>24</v>
+      </c>
+      <c r="AZ138">
+        <v>5</v>
+      </c>
+      <c r="BA138">
+        <v>2</v>
+      </c>
+      <c r="BB138">
+        <v>1</v>
+      </c>
+      <c r="BC138">
+        <v>3</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>0</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>0</v>
+      </c>
+      <c r="BJ138">
+        <v>0</v>
+      </c>
+      <c r="BK138">
+        <v>2</v>
+      </c>
+      <c r="BL138">
+        <v>0</v>
+      </c>
+      <c r="BM138">
+        <v>0</v>
+      </c>
+      <c r="BN138">
+        <v>0</v>
+      </c>
+      <c r="BO138">
+        <v>0</v>
+      </c>
+      <c r="BP138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7476679</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F139">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>83</v>
+      </c>
+      <c r="H139" t="s">
+        <v>80</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>188</v>
+      </c>
+      <c r="P139" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q139">
+        <v>3</v>
+      </c>
+      <c r="R139">
+        <v>2.1</v>
+      </c>
+      <c r="S139">
+        <v>3.75</v>
+      </c>
+      <c r="T139">
+        <v>1.44</v>
+      </c>
+      <c r="U139">
+        <v>2.63</v>
+      </c>
+      <c r="V139">
+        <v>3.25</v>
+      </c>
+      <c r="W139">
+        <v>1.33</v>
+      </c>
+      <c r="X139">
+        <v>9</v>
+      </c>
+      <c r="Y139">
+        <v>1.07</v>
+      </c>
+      <c r="Z139">
+        <v>2.37</v>
+      </c>
+      <c r="AA139">
+        <v>3.4</v>
+      </c>
+      <c r="AB139">
+        <v>2.9</v>
+      </c>
+      <c r="AC139">
+        <v>1.06</v>
+      </c>
+      <c r="AD139">
+        <v>10</v>
+      </c>
+      <c r="AE139">
+        <v>1.36</v>
+      </c>
+      <c r="AF139">
+        <v>3.1</v>
+      </c>
+      <c r="AG139">
+        <v>2.05</v>
+      </c>
+      <c r="AH139">
+        <v>1.67</v>
+      </c>
+      <c r="AI139">
+        <v>1.8</v>
+      </c>
+      <c r="AJ139">
+        <v>1.91</v>
+      </c>
+      <c r="AK139">
+        <v>1.4</v>
+      </c>
+      <c r="AL139">
+        <v>1.28</v>
+      </c>
+      <c r="AM139">
+        <v>1.6</v>
+      </c>
+      <c r="AN139">
+        <v>1</v>
+      </c>
+      <c r="AO139">
+        <v>1</v>
+      </c>
+      <c r="AP139">
+        <v>0.83</v>
+      </c>
+      <c r="AQ139">
+        <v>1.33</v>
+      </c>
+      <c r="AR139">
+        <v>1.32</v>
+      </c>
+      <c r="AS139">
+        <v>1.25</v>
+      </c>
+      <c r="AT139">
+        <v>2.57</v>
+      </c>
+      <c r="AU139">
+        <v>9</v>
+      </c>
+      <c r="AV139">
+        <v>4</v>
+      </c>
+      <c r="AW139">
+        <v>12</v>
+      </c>
+      <c r="AX139">
+        <v>4</v>
+      </c>
+      <c r="AY139">
+        <v>26</v>
+      </c>
+      <c r="AZ139">
+        <v>12</v>
+      </c>
+      <c r="BA139">
+        <v>9</v>
+      </c>
+      <c r="BB139">
+        <v>6</v>
+      </c>
+      <c r="BC139">
+        <v>15</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>0</v>
+      </c>
+      <c r="BJ139">
+        <v>0</v>
+      </c>
+      <c r="BK139">
+        <v>2</v>
+      </c>
+      <c r="BL139">
+        <v>0</v>
+      </c>
+      <c r="BM139">
+        <v>0</v>
+      </c>
+      <c r="BN139">
+        <v>0</v>
+      </c>
+      <c r="BO139">
+        <v>0</v>
+      </c>
+      <c r="BP139">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -27472,22 +27472,22 @@
         <v>2.39</v>
       </c>
       <c r="AU128">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV128">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW128">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX128">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY128">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ128">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BA128">
         <v>6</v>
@@ -27761,7 +27761,7 @@
         <v>45584.45833333334</v>
       </c>
       <c r="F130">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G130" t="s">
         <v>91</v>
@@ -27884,31 +27884,31 @@
         <v>2.95</v>
       </c>
       <c r="AU130">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV130">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW130">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY130">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AZ130">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BA130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BB130">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BC130">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BD130">
         <v>0</v>
@@ -27967,7 +27967,7 @@
         <v>45584.45833333334</v>
       </c>
       <c r="F131">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
         <v>88</v>
@@ -28090,31 +28090,31 @@
         <v>2.78</v>
       </c>
       <c r="AU131">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV131">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AW131">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX131">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY131">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="AZ131">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="BA131">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BB131">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC131">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BD131">
         <v>0</v>
@@ -28296,22 +28296,22 @@
         <v>2.77</v>
       </c>
       <c r="AU132">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV132">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW132">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AY132">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AZ132">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA132">
         <v>8</v>
@@ -28502,22 +28502,22 @@
         <v>2.48</v>
       </c>
       <c r="AU133">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV133">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX133">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY133">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AZ133">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BA133">
         <v>4</v>
@@ -28708,22 +28708,22 @@
         <v>2.59</v>
       </c>
       <c r="AU134">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV134">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AW134">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX134">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY134">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AZ134">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="BA134">
         <v>3</v>
@@ -28791,7 +28791,7 @@
         <v>45584.45833333334</v>
       </c>
       <c r="F135">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G135" t="s">
         <v>85</v>
@@ -28914,22 +28914,22 @@
         <v>2.84</v>
       </c>
       <c r="AU135">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV135">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW135">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AX135">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY135">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AZ135">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA135">
         <v>5</v>
@@ -29326,31 +29326,31 @@
         <v>2.21</v>
       </c>
       <c r="AU137">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV137">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AX137">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY137">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AZ137">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BA137">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BB137">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC137">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BD137">
         <v>0</v>
@@ -29409,7 +29409,7 @@
         <v>45584.45833333334</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G138" t="s">
         <v>82</v>
@@ -29532,22 +29532,22 @@
         <v>2.68</v>
       </c>
       <c r="AU138">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AV138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW138">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AX138">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY138">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="AZ138">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BA138">
         <v>2</v>
@@ -29615,7 +29615,7 @@
         <v>45584.45833333334</v>
       </c>
       <c r="F139">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G139" t="s">
         <v>83</v>
@@ -29738,22 +29738,22 @@
         <v>2.57</v>
       </c>
       <c r="AU139">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV139">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW139">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AX139">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY139">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="AZ139">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BA139">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -27884,31 +27884,31 @@
         <v>2.95</v>
       </c>
       <c r="AU130">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV130">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX130">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY130">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ130">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA130">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB130">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BC130">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD130">
         <v>0</v>
@@ -28090,31 +28090,31 @@
         <v>2.78</v>
       </c>
       <c r="AU131">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV131">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AW131">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX131">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY131">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ131">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA131">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB131">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC131">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD131">
         <v>0</v>
@@ -28296,22 +28296,22 @@
         <v>2.77</v>
       </c>
       <c r="AU132">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV132">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW132">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY132">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ132">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA132">
         <v>8</v>
@@ -28502,22 +28502,22 @@
         <v>2.48</v>
       </c>
       <c r="AU133">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV133">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX133">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY133">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ133">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA133">
         <v>4</v>
@@ -28708,22 +28708,22 @@
         <v>2.59</v>
       </c>
       <c r="AU134">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV134">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW134">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX134">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY134">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ134">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA134">
         <v>3</v>
@@ -28914,22 +28914,22 @@
         <v>2.84</v>
       </c>
       <c r="AU135">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV135">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW135">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX135">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY135">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ135">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA135">
         <v>5</v>
@@ -29326,31 +29326,31 @@
         <v>2.21</v>
       </c>
       <c r="AU137">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV137">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX137">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY137">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ137">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA137">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB137">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC137">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD137">
         <v>0</v>
@@ -29532,22 +29532,22 @@
         <v>2.68</v>
       </c>
       <c r="AU138">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV138">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW138">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX138">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY138">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="AZ138">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA138">
         <v>2</v>
@@ -29738,22 +29738,22 @@
         <v>2.57</v>
       </c>
       <c r="AU139">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV139">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW139">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX139">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY139">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="AZ139">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA139">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,7 +583,19 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['2', '49', '56']</t>
+  </si>
+  <si>
+    <t>['3', '69']</t>
+  </si>
+  <si>
+    <t>['1', '58']</t>
+  </si>
+  <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['52', '66', '70']</t>
   </si>
   <si>
     <t>['1', '9']</t>
@@ -803,6 +815,18 @@
   </si>
   <si>
     <t>['75', '80']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['16', '33']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1447,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1501,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1629,7 +1653,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1710,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1913,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2041,7 +2065,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2119,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2247,7 +2271,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2325,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2531,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2659,7 +2683,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2737,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2865,7 +2889,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -2943,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3071,7 +3095,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3149,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3277,7 +3301,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3355,10 +3379,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3561,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3767,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4307,7 +4331,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4719,7 +4743,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4925,7 +4949,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5131,7 +5155,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5749,7 +5773,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6161,7 +6185,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6367,7 +6391,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6448,7 +6472,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR26">
         <v>1.83</v>
@@ -6651,7 +6675,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>1.67</v>
@@ -6860,7 +6884,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.35</v>
@@ -7063,10 +7087,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7191,7 +7215,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7272,7 +7296,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7475,10 +7499,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -7681,7 +7705,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ32">
         <v>1.17</v>
@@ -7809,7 +7833,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7887,7 +7911,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ33">
         <v>0.8</v>
@@ -8093,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ34">
         <v>0.8</v>
@@ -8221,7 +8245,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8302,7 +8326,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8505,10 +8529,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR36">
         <v>1.13</v>
@@ -8633,7 +8657,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8839,7 +8863,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9123,7 +9147,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ39">
         <v>1.67</v>
@@ -9251,7 +9275,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9332,7 +9356,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9457,7 +9481,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9538,7 +9562,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9663,7 +9687,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9741,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9869,7 +9893,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9947,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ43">
         <v>0.67</v>
@@ -10075,7 +10099,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10281,7 +10305,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10362,7 +10386,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ45">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
         <v>1.02</v>
@@ -10487,7 +10511,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10568,7 +10592,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
         <v>2.58</v>
@@ -10899,7 +10923,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -10980,7 +11004,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR48">
         <v>1.43</v>
@@ -11183,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ49">
         <v>1.17</v>
@@ -11311,7 +11335,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11392,7 +11416,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR50">
         <v>0.78</v>
@@ -11517,7 +11541,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11595,10 +11619,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.28</v>
@@ -11801,7 +11825,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -11929,7 +11953,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12007,10 +12031,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12216,7 +12240,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>2.03</v>
@@ -12422,7 +12446,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR55">
         <v>1</v>
@@ -12625,7 +12649,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ56">
         <v>1.17</v>
@@ -12753,7 +12777,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12834,7 +12858,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ57">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR57">
         <v>1.74</v>
@@ -13037,7 +13061,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ58">
         <v>1.67</v>
@@ -13246,7 +13270,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR59">
         <v>1.79</v>
@@ -13449,7 +13473,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
@@ -13864,7 +13888,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -13989,7 +14013,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14067,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ63">
         <v>0.67</v>
@@ -14195,7 +14219,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14273,10 +14297,10 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14401,7 +14425,7 @@
         <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14482,7 +14506,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ65">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14891,7 +14915,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ67">
         <v>1.33</v>
@@ -15019,7 +15043,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15100,7 +15124,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR68">
         <v>1.88</v>
@@ -15225,7 +15249,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15306,7 +15330,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR69">
         <v>1.03</v>
@@ -15431,7 +15455,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15637,7 +15661,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15843,7 +15867,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15924,7 +15948,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -16049,7 +16073,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16127,7 +16151,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
         <v>0.67</v>
@@ -16255,7 +16279,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16333,7 +16357,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ74">
         <v>1.67</v>
@@ -16461,7 +16485,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -16667,7 +16691,7 @@
         <v>148</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16745,7 +16769,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ76">
         <v>1.67</v>
@@ -16954,7 +16978,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.15</v>
@@ -17079,7 +17103,7 @@
         <v>101</v>
       </c>
       <c r="P78" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17160,7 +17184,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR78">
         <v>1.69</v>
@@ -17775,10 +17799,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.2</v>
@@ -18109,7 +18133,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18187,10 +18211,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR83">
         <v>1.21</v>
@@ -18393,7 +18417,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
         <v>0.8</v>
@@ -18599,10 +18623,10 @@
         <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ85">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR85">
         <v>1.6</v>
@@ -18805,10 +18829,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ86">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR86">
         <v>1.1</v>
@@ -18933,7 +18957,7 @@
         <v>156</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19014,7 +19038,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ87">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.3</v>
@@ -19139,7 +19163,7 @@
         <v>157</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19220,7 +19244,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR88">
         <v>0.82</v>
@@ -19345,7 +19369,7 @@
         <v>122</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>4.33</v>
@@ -19426,7 +19450,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ89">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR89">
         <v>1.28</v>
@@ -19629,7 +19653,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19757,7 +19781,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19835,7 +19859,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ91">
         <v>1.67</v>
@@ -19963,7 +19987,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>2.75</v>
@@ -20044,7 +20068,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR92">
         <v>1.37</v>
@@ -20169,7 +20193,7 @@
         <v>101</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20247,7 +20271,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ93">
         <v>1.67</v>
@@ -20581,7 +20605,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20659,7 +20683,7 @@
         <v>1.75</v>
       </c>
       <c r="AP95">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20787,7 +20811,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20865,10 +20889,10 @@
         <v>0.75</v>
       </c>
       <c r="AP96">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.07</v>
@@ -20993,7 +21017,7 @@
         <v>163</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>4.5</v>
@@ -21071,7 +21095,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
         <v>1.17</v>
@@ -21199,7 +21223,7 @@
         <v>164</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>2.5</v>
@@ -21280,7 +21304,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ98">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR98">
         <v>1.55</v>
@@ -21611,7 +21635,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -21692,7 +21716,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ100">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -21895,10 +21919,10 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ101">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR101">
         <v>1.31</v>
@@ -22023,7 +22047,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22101,10 +22125,10 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ102">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR102">
         <v>1.14</v>
@@ -22229,7 +22253,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22310,7 +22334,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ103">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR103">
         <v>1.32</v>
@@ -22435,7 +22459,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22719,7 +22743,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22847,7 +22871,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23131,10 +23155,10 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR107">
         <v>1.69</v>
@@ -23337,7 +23361,7 @@
         <v>1.33</v>
       </c>
       <c r="AP108">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ108">
         <v>0.8</v>
@@ -23546,7 +23570,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ109">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR109">
         <v>1.69</v>
@@ -23671,7 +23695,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23749,7 +23773,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ110">
         <v>1.33</v>
@@ -24289,7 +24313,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24367,7 +24391,7 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ113">
         <v>1.67</v>
@@ -24495,7 +24519,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24573,7 +24597,7 @@
         <v>0.25</v>
       </c>
       <c r="AP114">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ114">
         <v>0.67</v>
@@ -24701,7 +24725,7 @@
         <v>174</v>
       </c>
       <c r="P115" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24782,7 +24806,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ115">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -24988,7 +25012,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ116">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR116">
         <v>1.85</v>
@@ -25113,7 +25137,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25194,7 +25218,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR117">
         <v>1.54</v>
@@ -25319,7 +25343,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25397,10 +25421,10 @@
         <v>2.2</v>
       </c>
       <c r="AP118">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ118">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -25525,7 +25549,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25603,10 +25627,10 @@
         <v>0.8</v>
       </c>
       <c r="AP119">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR119">
         <v>1.15</v>
@@ -25731,7 +25755,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -25809,10 +25833,10 @@
         <v>1.2</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ120">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR120">
         <v>1.19</v>
@@ -25937,7 +25961,7 @@
         <v>101</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>2.75</v>
@@ -26015,10 +26039,10 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ121">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR121">
         <v>1.34</v>
@@ -26221,10 +26245,10 @@
         <v>0.6</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ122">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR122">
         <v>1.16</v>
@@ -26349,7 +26373,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26427,10 +26451,10 @@
         <v>0</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ123">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR123">
         <v>1.25</v>
@@ -26555,7 +26579,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26633,10 +26657,10 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ124">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR124">
         <v>1.2</v>
@@ -26761,7 +26785,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -26839,10 +26863,10 @@
         <v>0.2</v>
       </c>
       <c r="AP125">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ125">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR125">
         <v>1.43</v>
@@ -27048,7 +27072,7 @@
         <v>3</v>
       </c>
       <c r="AQ126">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27173,7 +27197,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>2.38</v>
@@ -27251,10 +27275,10 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ127">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR127">
         <v>1.08</v>
@@ -27379,7 +27403,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27472,22 +27496,22 @@
         <v>2.39</v>
       </c>
       <c r="AU128">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV128">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW128">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX128">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY128">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ128">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA128">
         <v>6</v>
@@ -27791,7 +27815,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q130">
         <v>3.5</v>
@@ -27997,7 +28021,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28108,13 +28132,13 @@
         <v>17</v>
       </c>
       <c r="BA131">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB131">
         <v>4</v>
       </c>
       <c r="BC131">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD131">
         <v>0</v>
@@ -28203,7 +28227,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>2.63</v>
@@ -28409,7 +28433,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28821,7 +28845,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29141,10 +29165,10 @@
         <v>8</v>
       </c>
       <c r="BB136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC136">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD136">
         <v>0</v>
@@ -29233,7 +29257,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29439,7 +29463,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29645,7 +29669,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29802,6 +29826,2478 @@
       </c>
       <c r="BP139">
         <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7476696</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F140">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>77</v>
+      </c>
+      <c r="H140" t="s">
+        <v>90</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>101</v>
+      </c>
+      <c r="P140" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q140">
+        <v>4.33</v>
+      </c>
+      <c r="R140">
+        <v>2.1</v>
+      </c>
+      <c r="S140">
+        <v>2.75</v>
+      </c>
+      <c r="T140">
+        <v>1.44</v>
+      </c>
+      <c r="U140">
+        <v>2.63</v>
+      </c>
+      <c r="V140">
+        <v>3</v>
+      </c>
+      <c r="W140">
+        <v>1.36</v>
+      </c>
+      <c r="X140">
+        <v>9</v>
+      </c>
+      <c r="Y140">
+        <v>1.07</v>
+      </c>
+      <c r="Z140">
+        <v>3.74</v>
+      </c>
+      <c r="AA140">
+        <v>3.4</v>
+      </c>
+      <c r="AB140">
+        <v>1.91</v>
+      </c>
+      <c r="AC140">
+        <v>1.05</v>
+      </c>
+      <c r="AD140">
+        <v>10</v>
+      </c>
+      <c r="AE140">
+        <v>1.33</v>
+      </c>
+      <c r="AF140">
+        <v>3.3</v>
+      </c>
+      <c r="AG140">
+        <v>1.9</v>
+      </c>
+      <c r="AH140">
+        <v>1.8</v>
+      </c>
+      <c r="AI140">
+        <v>1.83</v>
+      </c>
+      <c r="AJ140">
+        <v>1.83</v>
+      </c>
+      <c r="AK140">
+        <v>1.87</v>
+      </c>
+      <c r="AL140">
+        <v>1.25</v>
+      </c>
+      <c r="AM140">
+        <v>1.25</v>
+      </c>
+      <c r="AN140">
+        <v>1.5</v>
+      </c>
+      <c r="AO140">
+        <v>2.17</v>
+      </c>
+      <c r="AP140">
+        <v>1.29</v>
+      </c>
+      <c r="AQ140">
+        <v>2.29</v>
+      </c>
+      <c r="AR140">
+        <v>1.14</v>
+      </c>
+      <c r="AS140">
+        <v>1.34</v>
+      </c>
+      <c r="AT140">
+        <v>2.48</v>
+      </c>
+      <c r="AU140">
+        <v>4</v>
+      </c>
+      <c r="AV140">
+        <v>4</v>
+      </c>
+      <c r="AW140">
+        <v>8</v>
+      </c>
+      <c r="AX140">
+        <v>9</v>
+      </c>
+      <c r="AY140">
+        <v>14</v>
+      </c>
+      <c r="AZ140">
+        <v>21</v>
+      </c>
+      <c r="BA140">
+        <v>5</v>
+      </c>
+      <c r="BB140">
+        <v>9</v>
+      </c>
+      <c r="BC140">
+        <v>14</v>
+      </c>
+      <c r="BD140">
+        <v>3.2</v>
+      </c>
+      <c r="BE140">
+        <v>6.4</v>
+      </c>
+      <c r="BF140">
+        <v>1.5</v>
+      </c>
+      <c r="BG140">
+        <v>1.2</v>
+      </c>
+      <c r="BH140">
+        <v>4</v>
+      </c>
+      <c r="BI140">
+        <v>1.33</v>
+      </c>
+      <c r="BJ140">
+        <v>3</v>
+      </c>
+      <c r="BK140">
+        <v>1.6</v>
+      </c>
+      <c r="BL140">
+        <v>2.15</v>
+      </c>
+      <c r="BM140">
+        <v>2.05</v>
+      </c>
+      <c r="BN140">
+        <v>1.65</v>
+      </c>
+      <c r="BO140">
+        <v>2.78</v>
+      </c>
+      <c r="BP140">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7476700</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F141">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
+        <v>81</v>
+      </c>
+      <c r="H141" t="s">
+        <v>82</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>4</v>
+      </c>
+      <c r="O141" t="s">
+        <v>189</v>
+      </c>
+      <c r="P141" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q141">
+        <v>2.25</v>
+      </c>
+      <c r="R141">
+        <v>2.25</v>
+      </c>
+      <c r="S141">
+        <v>5</v>
+      </c>
+      <c r="T141">
+        <v>1.36</v>
+      </c>
+      <c r="U141">
+        <v>3</v>
+      </c>
+      <c r="V141">
+        <v>2.75</v>
+      </c>
+      <c r="W141">
+        <v>1.4</v>
+      </c>
+      <c r="X141">
+        <v>7</v>
+      </c>
+      <c r="Y141">
+        <v>1.1</v>
+      </c>
+      <c r="Z141">
+        <v>1.7</v>
+      </c>
+      <c r="AA141">
+        <v>3.75</v>
+      </c>
+      <c r="AB141">
+        <v>5</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>12</v>
+      </c>
+      <c r="AE141">
+        <v>1.25</v>
+      </c>
+      <c r="AF141">
+        <v>3.75</v>
+      </c>
+      <c r="AG141">
+        <v>1.8</v>
+      </c>
+      <c r="AH141">
+        <v>1.91</v>
+      </c>
+      <c r="AI141">
+        <v>1.83</v>
+      </c>
+      <c r="AJ141">
+        <v>1.83</v>
+      </c>
+      <c r="AK141">
+        <v>1.15</v>
+      </c>
+      <c r="AL141">
+        <v>1.2</v>
+      </c>
+      <c r="AM141">
+        <v>2.3</v>
+      </c>
+      <c r="AN141">
+        <v>2.4</v>
+      </c>
+      <c r="AO141">
+        <v>0.67</v>
+      </c>
+      <c r="AP141">
+        <v>2.5</v>
+      </c>
+      <c r="AQ141">
+        <v>0.57</v>
+      </c>
+      <c r="AR141">
+        <v>1.55</v>
+      </c>
+      <c r="AS141">
+        <v>1.09</v>
+      </c>
+      <c r="AT141">
+        <v>2.64</v>
+      </c>
+      <c r="AU141">
+        <v>7</v>
+      </c>
+      <c r="AV141">
+        <v>3</v>
+      </c>
+      <c r="AW141">
+        <v>2</v>
+      </c>
+      <c r="AX141">
+        <v>4</v>
+      </c>
+      <c r="AY141">
+        <v>11</v>
+      </c>
+      <c r="AZ141">
+        <v>8</v>
+      </c>
+      <c r="BA141">
+        <v>5</v>
+      </c>
+      <c r="BB141">
+        <v>2</v>
+      </c>
+      <c r="BC141">
+        <v>7</v>
+      </c>
+      <c r="BD141">
+        <v>1.39</v>
+      </c>
+      <c r="BE141">
+        <v>6.7</v>
+      </c>
+      <c r="BF141">
+        <v>3.8</v>
+      </c>
+      <c r="BG141">
+        <v>1.19</v>
+      </c>
+      <c r="BH141">
+        <v>4.1</v>
+      </c>
+      <c r="BI141">
+        <v>1.38</v>
+      </c>
+      <c r="BJ141">
+        <v>2.78</v>
+      </c>
+      <c r="BK141">
+        <v>1.68</v>
+      </c>
+      <c r="BL141">
+        <v>2.02</v>
+      </c>
+      <c r="BM141">
+        <v>2.15</v>
+      </c>
+      <c r="BN141">
+        <v>1.6</v>
+      </c>
+      <c r="BO141">
+        <v>2.9</v>
+      </c>
+      <c r="BP141">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7476699</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
+        <v>80</v>
+      </c>
+      <c r="H142" t="s">
+        <v>87</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
+        <v>101</v>
+      </c>
+      <c r="P142" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q142">
+        <v>3</v>
+      </c>
+      <c r="R142">
+        <v>2.1</v>
+      </c>
+      <c r="S142">
+        <v>3.75</v>
+      </c>
+      <c r="T142">
+        <v>1.44</v>
+      </c>
+      <c r="U142">
+        <v>2.63</v>
+      </c>
+      <c r="V142">
+        <v>3.25</v>
+      </c>
+      <c r="W142">
+        <v>1.33</v>
+      </c>
+      <c r="X142">
+        <v>9</v>
+      </c>
+      <c r="Y142">
+        <v>1.07</v>
+      </c>
+      <c r="Z142">
+        <v>2.1</v>
+      </c>
+      <c r="AA142">
+        <v>3</v>
+      </c>
+      <c r="AB142">
+        <v>3.63</v>
+      </c>
+      <c r="AC142">
+        <v>1.07</v>
+      </c>
+      <c r="AD142">
+        <v>9</v>
+      </c>
+      <c r="AE142">
+        <v>1.36</v>
+      </c>
+      <c r="AF142">
+        <v>3.1</v>
+      </c>
+      <c r="AG142">
+        <v>2.11</v>
+      </c>
+      <c r="AH142">
+        <v>1.65</v>
+      </c>
+      <c r="AI142">
+        <v>1.83</v>
+      </c>
+      <c r="AJ142">
+        <v>1.83</v>
+      </c>
+      <c r="AK142">
+        <v>1.3</v>
+      </c>
+      <c r="AL142">
+        <v>1.28</v>
+      </c>
+      <c r="AM142">
+        <v>1.72</v>
+      </c>
+      <c r="AN142">
+        <v>1.2</v>
+      </c>
+      <c r="AO142">
+        <v>1.5</v>
+      </c>
+      <c r="AP142">
+        <v>1</v>
+      </c>
+      <c r="AQ142">
+        <v>1.71</v>
+      </c>
+      <c r="AR142">
+        <v>1.19</v>
+      </c>
+      <c r="AS142">
+        <v>1.12</v>
+      </c>
+      <c r="AT142">
+        <v>2.31</v>
+      </c>
+      <c r="AU142">
+        <v>5</v>
+      </c>
+      <c r="AV142">
+        <v>3</v>
+      </c>
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>7</v>
+      </c>
+      <c r="AY142">
+        <v>20</v>
+      </c>
+      <c r="AZ142">
+        <v>11</v>
+      </c>
+      <c r="BA142">
+        <v>4</v>
+      </c>
+      <c r="BB142">
+        <v>2</v>
+      </c>
+      <c r="BC142">
+        <v>6</v>
+      </c>
+      <c r="BD142">
+        <v>1.44</v>
+      </c>
+      <c r="BE142">
+        <v>7.9</v>
+      </c>
+      <c r="BF142">
+        <v>3.25</v>
+      </c>
+      <c r="BG142">
+        <v>1.15</v>
+      </c>
+      <c r="BH142">
+        <v>4.8</v>
+      </c>
+      <c r="BI142">
+        <v>1.25</v>
+      </c>
+      <c r="BJ142">
+        <v>3.5</v>
+      </c>
+      <c r="BK142">
+        <v>1.47</v>
+      </c>
+      <c r="BL142">
+        <v>2.48</v>
+      </c>
+      <c r="BM142">
+        <v>1.8</v>
+      </c>
+      <c r="BN142">
+        <v>1.88</v>
+      </c>
+      <c r="BO142">
+        <v>2.32</v>
+      </c>
+      <c r="BP142">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7476698</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F143">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s">
+        <v>79</v>
+      </c>
+      <c r="H143" t="s">
+        <v>91</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>190</v>
+      </c>
+      <c r="P143" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q143">
+        <v>3.1</v>
+      </c>
+      <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>3.6</v>
+      </c>
+      <c r="T143">
+        <v>1.44</v>
+      </c>
+      <c r="U143">
+        <v>2.63</v>
+      </c>
+      <c r="V143">
+        <v>3.25</v>
+      </c>
+      <c r="W143">
+        <v>1.33</v>
+      </c>
+      <c r="X143">
+        <v>10</v>
+      </c>
+      <c r="Y143">
+        <v>1.06</v>
+      </c>
+      <c r="Z143">
+        <v>2.4</v>
+      </c>
+      <c r="AA143">
+        <v>3.3</v>
+      </c>
+      <c r="AB143">
+        <v>2.74</v>
+      </c>
+      <c r="AC143">
+        <v>1.05</v>
+      </c>
+      <c r="AD143">
+        <v>10</v>
+      </c>
+      <c r="AE143">
+        <v>1.33</v>
+      </c>
+      <c r="AF143">
+        <v>3.25</v>
+      </c>
+      <c r="AG143">
+        <v>2</v>
+      </c>
+      <c r="AH143">
+        <v>1.72</v>
+      </c>
+      <c r="AI143">
+        <v>1.83</v>
+      </c>
+      <c r="AJ143">
+        <v>1.83</v>
+      </c>
+      <c r="AK143">
+        <v>1.42</v>
+      </c>
+      <c r="AL143">
+        <v>1.28</v>
+      </c>
+      <c r="AM143">
+        <v>1.57</v>
+      </c>
+      <c r="AN143">
+        <v>1.5</v>
+      </c>
+      <c r="AO143">
+        <v>1.17</v>
+      </c>
+      <c r="AP143">
+        <v>1.71</v>
+      </c>
+      <c r="AQ143">
+        <v>1</v>
+      </c>
+      <c r="AR143">
+        <v>1.41</v>
+      </c>
+      <c r="AS143">
+        <v>1.1</v>
+      </c>
+      <c r="AT143">
+        <v>2.51</v>
+      </c>
+      <c r="AU143">
+        <v>5</v>
+      </c>
+      <c r="AV143">
+        <v>3</v>
+      </c>
+      <c r="AW143">
+        <v>3</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>17</v>
+      </c>
+      <c r="AZ143">
+        <v>7</v>
+      </c>
+      <c r="BA143">
+        <v>6</v>
+      </c>
+      <c r="BB143">
+        <v>1</v>
+      </c>
+      <c r="BC143">
+        <v>7</v>
+      </c>
+      <c r="BD143">
+        <v>1.68</v>
+      </c>
+      <c r="BE143">
+        <v>7.2</v>
+      </c>
+      <c r="BF143">
+        <v>2.55</v>
+      </c>
+      <c r="BG143">
+        <v>1.19</v>
+      </c>
+      <c r="BH143">
+        <v>4.1</v>
+      </c>
+      <c r="BI143">
+        <v>1.33</v>
+      </c>
+      <c r="BJ143">
+        <v>3</v>
+      </c>
+      <c r="BK143">
+        <v>1.6</v>
+      </c>
+      <c r="BL143">
+        <v>2.15</v>
+      </c>
+      <c r="BM143">
+        <v>2.05</v>
+      </c>
+      <c r="BN143">
+        <v>1.65</v>
+      </c>
+      <c r="BO143">
+        <v>2.78</v>
+      </c>
+      <c r="BP143">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7476697</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F144">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s">
+        <v>84</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>191</v>
+      </c>
+      <c r="P144" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q144">
+        <v>2.4</v>
+      </c>
+      <c r="R144">
+        <v>2.25</v>
+      </c>
+      <c r="S144">
+        <v>4.5</v>
+      </c>
+      <c r="T144">
+        <v>1.36</v>
+      </c>
+      <c r="U144">
+        <v>3</v>
+      </c>
+      <c r="V144">
+        <v>2.63</v>
+      </c>
+      <c r="W144">
+        <v>1.44</v>
+      </c>
+      <c r="X144">
+        <v>7</v>
+      </c>
+      <c r="Y144">
+        <v>1.1</v>
+      </c>
+      <c r="Z144">
+        <v>1.67</v>
+      </c>
+      <c r="AA144">
+        <v>3.8</v>
+      </c>
+      <c r="AB144">
+        <v>4.48</v>
+      </c>
+      <c r="AC144">
+        <v>1.02</v>
+      </c>
+      <c r="AD144">
+        <v>15</v>
+      </c>
+      <c r="AE144">
+        <v>1.22</v>
+      </c>
+      <c r="AF144">
+        <v>4.2</v>
+      </c>
+      <c r="AG144">
+        <v>1.7</v>
+      </c>
+      <c r="AH144">
+        <v>2.03</v>
+      </c>
+      <c r="AI144">
+        <v>1.73</v>
+      </c>
+      <c r="AJ144">
+        <v>2</v>
+      </c>
+      <c r="AK144">
+        <v>1.18</v>
+      </c>
+      <c r="AL144">
+        <v>1.2</v>
+      </c>
+      <c r="AM144">
+        <v>2.2</v>
+      </c>
+      <c r="AN144">
+        <v>1.33</v>
+      </c>
+      <c r="AO144">
+        <v>0.6</v>
+      </c>
+      <c r="AP144">
+        <v>1.57</v>
+      </c>
+      <c r="AQ144">
+        <v>0.5</v>
+      </c>
+      <c r="AR144">
+        <v>1.27</v>
+      </c>
+      <c r="AS144">
+        <v>1.3</v>
+      </c>
+      <c r="AT144">
+        <v>2.57</v>
+      </c>
+      <c r="AU144">
+        <v>3</v>
+      </c>
+      <c r="AV144">
+        <v>7</v>
+      </c>
+      <c r="AW144">
+        <v>1</v>
+      </c>
+      <c r="AX144">
+        <v>3</v>
+      </c>
+      <c r="AY144">
+        <v>6</v>
+      </c>
+      <c r="AZ144">
+        <v>15</v>
+      </c>
+      <c r="BA144">
+        <v>1</v>
+      </c>
+      <c r="BB144">
+        <v>5</v>
+      </c>
+      <c r="BC144">
+        <v>6</v>
+      </c>
+      <c r="BD144">
+        <v>1.25</v>
+      </c>
+      <c r="BE144">
+        <v>8.9</v>
+      </c>
+      <c r="BF144">
+        <v>4.65</v>
+      </c>
+      <c r="BG144">
+        <v>1.19</v>
+      </c>
+      <c r="BH144">
+        <v>4.1</v>
+      </c>
+      <c r="BI144">
+        <v>1.38</v>
+      </c>
+      <c r="BJ144">
+        <v>2.78</v>
+      </c>
+      <c r="BK144">
+        <v>1.68</v>
+      </c>
+      <c r="BL144">
+        <v>2.02</v>
+      </c>
+      <c r="BM144">
+        <v>2.15</v>
+      </c>
+      <c r="BN144">
+        <v>1.6</v>
+      </c>
+      <c r="BO144">
+        <v>2.9</v>
+      </c>
+      <c r="BP144">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7476695</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>76</v>
+      </c>
+      <c r="H145" t="s">
+        <v>89</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>101</v>
+      </c>
+      <c r="P145" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q145">
+        <v>2.25</v>
+      </c>
+      <c r="R145">
+        <v>2.2</v>
+      </c>
+      <c r="S145">
+        <v>5.5</v>
+      </c>
+      <c r="T145">
+        <v>1.4</v>
+      </c>
+      <c r="U145">
+        <v>2.75</v>
+      </c>
+      <c r="V145">
+        <v>2.75</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>8</v>
+      </c>
+      <c r="Y145">
+        <v>1.08</v>
+      </c>
+      <c r="Z145">
+        <v>1.57</v>
+      </c>
+      <c r="AA145">
+        <v>3.9</v>
+      </c>
+      <c r="AB145">
+        <v>5.22</v>
+      </c>
+      <c r="AC145">
+        <v>1.04</v>
+      </c>
+      <c r="AD145">
+        <v>11</v>
+      </c>
+      <c r="AE145">
+        <v>1.3</v>
+      </c>
+      <c r="AF145">
+        <v>3.5</v>
+      </c>
+      <c r="AG145">
+        <v>1.8</v>
+      </c>
+      <c r="AH145">
+        <v>1.9</v>
+      </c>
+      <c r="AI145">
+        <v>1.91</v>
+      </c>
+      <c r="AJ145">
+        <v>1.8</v>
+      </c>
+      <c r="AK145">
+        <v>1.15</v>
+      </c>
+      <c r="AL145">
+        <v>1.2</v>
+      </c>
+      <c r="AM145">
+        <v>2.3</v>
+      </c>
+      <c r="AN145">
+        <v>2</v>
+      </c>
+      <c r="AO145">
+        <v>0.5</v>
+      </c>
+      <c r="AP145">
+        <v>1.71</v>
+      </c>
+      <c r="AQ145">
+        <v>0.86</v>
+      </c>
+      <c r="AR145">
+        <v>1.19</v>
+      </c>
+      <c r="AS145">
+        <v>0.83</v>
+      </c>
+      <c r="AT145">
+        <v>2.02</v>
+      </c>
+      <c r="AU145">
+        <v>6</v>
+      </c>
+      <c r="AV145">
+        <v>4</v>
+      </c>
+      <c r="AW145">
+        <v>11</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>26</v>
+      </c>
+      <c r="AZ145">
+        <v>5</v>
+      </c>
+      <c r="BA145">
+        <v>8</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>8</v>
+      </c>
+      <c r="BD145">
+        <v>1.21</v>
+      </c>
+      <c r="BE145">
+        <v>7.9</v>
+      </c>
+      <c r="BF145">
+        <v>5.6</v>
+      </c>
+      <c r="BG145">
+        <v>1.18</v>
+      </c>
+      <c r="BH145">
+        <v>4.15</v>
+      </c>
+      <c r="BI145">
+        <v>1.37</v>
+      </c>
+      <c r="BJ145">
+        <v>2.82</v>
+      </c>
+      <c r="BK145">
+        <v>1.65</v>
+      </c>
+      <c r="BL145">
+        <v>2.05</v>
+      </c>
+      <c r="BM145">
+        <v>2.12</v>
+      </c>
+      <c r="BN145">
+        <v>1.62</v>
+      </c>
+      <c r="BO145">
+        <v>2.85</v>
+      </c>
+      <c r="BP145">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7476694</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F146">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>75</v>
+      </c>
+      <c r="H146" t="s">
+        <v>86</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>101</v>
+      </c>
+      <c r="P146" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q146">
+        <v>2.6</v>
+      </c>
+      <c r="R146">
+        <v>2.1</v>
+      </c>
+      <c r="S146">
+        <v>4.33</v>
+      </c>
+      <c r="T146">
+        <v>1.4</v>
+      </c>
+      <c r="U146">
+        <v>2.75</v>
+      </c>
+      <c r="V146">
+        <v>3</v>
+      </c>
+      <c r="W146">
+        <v>1.36</v>
+      </c>
+      <c r="X146">
+        <v>8</v>
+      </c>
+      <c r="Y146">
+        <v>1.08</v>
+      </c>
+      <c r="Z146">
+        <v>1.91</v>
+      </c>
+      <c r="AA146">
+        <v>3.4</v>
+      </c>
+      <c r="AB146">
+        <v>3.74</v>
+      </c>
+      <c r="AC146">
+        <v>1.05</v>
+      </c>
+      <c r="AD146">
+        <v>11</v>
+      </c>
+      <c r="AE146">
+        <v>1.3</v>
+      </c>
+      <c r="AF146">
+        <v>3.4</v>
+      </c>
+      <c r="AG146">
+        <v>1.9</v>
+      </c>
+      <c r="AH146">
+        <v>1.8</v>
+      </c>
+      <c r="AI146">
+        <v>1.83</v>
+      </c>
+      <c r="AJ146">
+        <v>1.83</v>
+      </c>
+      <c r="AK146">
+        <v>1.28</v>
+      </c>
+      <c r="AL146">
+        <v>1.25</v>
+      </c>
+      <c r="AM146">
+        <v>1.87</v>
+      </c>
+      <c r="AN146">
+        <v>1.5</v>
+      </c>
+      <c r="AO146">
+        <v>1.4</v>
+      </c>
+      <c r="AP146">
+        <v>1.2</v>
+      </c>
+      <c r="AQ146">
+        <v>1.67</v>
+      </c>
+      <c r="AR146">
+        <v>1.61</v>
+      </c>
+      <c r="AS146">
+        <v>1.02</v>
+      </c>
+      <c r="AT146">
+        <v>2.63</v>
+      </c>
+      <c r="AU146">
+        <v>6</v>
+      </c>
+      <c r="AV146">
+        <v>3</v>
+      </c>
+      <c r="AW146">
+        <v>8</v>
+      </c>
+      <c r="AX146">
+        <v>3</v>
+      </c>
+      <c r="AY146">
+        <v>16</v>
+      </c>
+      <c r="AZ146">
+        <v>8</v>
+      </c>
+      <c r="BA146">
+        <v>8</v>
+      </c>
+      <c r="BB146">
+        <v>5</v>
+      </c>
+      <c r="BC146">
+        <v>13</v>
+      </c>
+      <c r="BD146">
+        <v>1.46</v>
+      </c>
+      <c r="BE146">
+        <v>7.7</v>
+      </c>
+      <c r="BF146">
+        <v>3.2</v>
+      </c>
+      <c r="BG146">
+        <v>1.18</v>
+      </c>
+      <c r="BH146">
+        <v>4.2</v>
+      </c>
+      <c r="BI146">
+        <v>1.31</v>
+      </c>
+      <c r="BJ146">
+        <v>3.1</v>
+      </c>
+      <c r="BK146">
+        <v>1.55</v>
+      </c>
+      <c r="BL146">
+        <v>2.25</v>
+      </c>
+      <c r="BM146">
+        <v>1.95</v>
+      </c>
+      <c r="BN146">
+        <v>1.72</v>
+      </c>
+      <c r="BO146">
+        <v>2.62</v>
+      </c>
+      <c r="BP146">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7476692</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F147">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>70</v>
+      </c>
+      <c r="H147" t="s">
+        <v>85</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>192</v>
+      </c>
+      <c r="P147" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q147">
+        <v>2.4</v>
+      </c>
+      <c r="R147">
+        <v>2.25</v>
+      </c>
+      <c r="S147">
+        <v>4.5</v>
+      </c>
+      <c r="T147">
+        <v>1.36</v>
+      </c>
+      <c r="U147">
+        <v>3</v>
+      </c>
+      <c r="V147">
+        <v>2.63</v>
+      </c>
+      <c r="W147">
+        <v>1.44</v>
+      </c>
+      <c r="X147">
+        <v>7</v>
+      </c>
+      <c r="Y147">
+        <v>1.1</v>
+      </c>
+      <c r="Z147">
+        <v>1.78</v>
+      </c>
+      <c r="AA147">
+        <v>3.7</v>
+      </c>
+      <c r="AB147">
+        <v>3.95</v>
+      </c>
+      <c r="AC147">
+        <v>1.03</v>
+      </c>
+      <c r="AD147">
+        <v>13</v>
+      </c>
+      <c r="AE147">
+        <v>1.25</v>
+      </c>
+      <c r="AF147">
+        <v>3.75</v>
+      </c>
+      <c r="AG147">
+        <v>1.75</v>
+      </c>
+      <c r="AH147">
+        <v>1.96</v>
+      </c>
+      <c r="AI147">
+        <v>1.73</v>
+      </c>
+      <c r="AJ147">
+        <v>2</v>
+      </c>
+      <c r="AK147">
+        <v>1.22</v>
+      </c>
+      <c r="AL147">
+        <v>1.22</v>
+      </c>
+      <c r="AM147">
+        <v>2</v>
+      </c>
+      <c r="AN147">
+        <v>1.33</v>
+      </c>
+      <c r="AO147">
+        <v>0.6</v>
+      </c>
+      <c r="AP147">
+        <v>1.29</v>
+      </c>
+      <c r="AQ147">
+        <v>0.67</v>
+      </c>
+      <c r="AR147">
+        <v>1.31</v>
+      </c>
+      <c r="AS147">
+        <v>1.21</v>
+      </c>
+      <c r="AT147">
+        <v>2.52</v>
+      </c>
+      <c r="AU147">
+        <v>9</v>
+      </c>
+      <c r="AV147">
+        <v>3</v>
+      </c>
+      <c r="AW147">
+        <v>10</v>
+      </c>
+      <c r="AX147">
+        <v>2</v>
+      </c>
+      <c r="AY147">
+        <v>25</v>
+      </c>
+      <c r="AZ147">
+        <v>6</v>
+      </c>
+      <c r="BA147">
+        <v>17</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>17</v>
+      </c>
+      <c r="BD147">
+        <v>1.33</v>
+      </c>
+      <c r="BE147">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF147">
+        <v>3.9</v>
+      </c>
+      <c r="BG147">
+        <v>1.15</v>
+      </c>
+      <c r="BH147">
+        <v>4.6</v>
+      </c>
+      <c r="BI147">
+        <v>1.33</v>
+      </c>
+      <c r="BJ147">
+        <v>2.98</v>
+      </c>
+      <c r="BK147">
+        <v>1.62</v>
+      </c>
+      <c r="BL147">
+        <v>2.12</v>
+      </c>
+      <c r="BM147">
+        <v>2.08</v>
+      </c>
+      <c r="BN147">
+        <v>1.65</v>
+      </c>
+      <c r="BO147">
+        <v>2.75</v>
+      </c>
+      <c r="BP147">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7476691</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F148">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s">
+        <v>73</v>
+      </c>
+      <c r="H148" t="s">
+        <v>92</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>94</v>
+      </c>
+      <c r="P148" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q148">
+        <v>3.6</v>
+      </c>
+      <c r="R148">
+        <v>2.2</v>
+      </c>
+      <c r="S148">
+        <v>2.88</v>
+      </c>
+      <c r="T148">
+        <v>1.36</v>
+      </c>
+      <c r="U148">
+        <v>3</v>
+      </c>
+      <c r="V148">
+        <v>2.75</v>
+      </c>
+      <c r="W148">
+        <v>1.4</v>
+      </c>
+      <c r="X148">
+        <v>7</v>
+      </c>
+      <c r="Y148">
+        <v>1.1</v>
+      </c>
+      <c r="Z148">
+        <v>3.3</v>
+      </c>
+      <c r="AA148">
+        <v>3.4</v>
+      </c>
+      <c r="AB148">
+        <v>2.05</v>
+      </c>
+      <c r="AC148">
+        <v>1.05</v>
+      </c>
+      <c r="AD148">
+        <v>11</v>
+      </c>
+      <c r="AE148">
+        <v>1.3</v>
+      </c>
+      <c r="AF148">
+        <v>3.4</v>
+      </c>
+      <c r="AG148">
+        <v>1.8</v>
+      </c>
+      <c r="AH148">
+        <v>1.9</v>
+      </c>
+      <c r="AI148">
+        <v>1.67</v>
+      </c>
+      <c r="AJ148">
+        <v>2.1</v>
+      </c>
+      <c r="AK148">
+        <v>1.75</v>
+      </c>
+      <c r="AL148">
+        <v>1.25</v>
+      </c>
+      <c r="AM148">
+        <v>1.3</v>
+      </c>
+      <c r="AN148">
+        <v>1.5</v>
+      </c>
+      <c r="AO148">
+        <v>1.17</v>
+      </c>
+      <c r="AP148">
+        <v>1.43</v>
+      </c>
+      <c r="AQ148">
+        <v>1.14</v>
+      </c>
+      <c r="AR148">
+        <v>1.26</v>
+      </c>
+      <c r="AS148">
+        <v>1.15</v>
+      </c>
+      <c r="AT148">
+        <v>2.41</v>
+      </c>
+      <c r="AU148">
+        <v>7</v>
+      </c>
+      <c r="AV148">
+        <v>6</v>
+      </c>
+      <c r="AW148">
+        <v>1</v>
+      </c>
+      <c r="AX148">
+        <v>5</v>
+      </c>
+      <c r="AY148">
+        <v>10</v>
+      </c>
+      <c r="AZ148">
+        <v>16</v>
+      </c>
+      <c r="BA148">
+        <v>7</v>
+      </c>
+      <c r="BB148">
+        <v>10</v>
+      </c>
+      <c r="BC148">
+        <v>17</v>
+      </c>
+      <c r="BD148">
+        <v>2.82</v>
+      </c>
+      <c r="BE148">
+        <v>7.2</v>
+      </c>
+      <c r="BF148">
+        <v>1.55</v>
+      </c>
+      <c r="BG148">
+        <v>1.21</v>
+      </c>
+      <c r="BH148">
+        <v>3.85</v>
+      </c>
+      <c r="BI148">
+        <v>1.44</v>
+      </c>
+      <c r="BJ148">
+        <v>2.55</v>
+      </c>
+      <c r="BK148">
+        <v>1.78</v>
+      </c>
+      <c r="BL148">
+        <v>1.9</v>
+      </c>
+      <c r="BM148">
+        <v>2.35</v>
+      </c>
+      <c r="BN148">
+        <v>1.5</v>
+      </c>
+      <c r="BO148">
+        <v>3.2</v>
+      </c>
+      <c r="BP148">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7476690</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F149">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s">
+        <v>72</v>
+      </c>
+      <c r="H149" t="s">
+        <v>93</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>121</v>
+      </c>
+      <c r="P149" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q149">
+        <v>2.88</v>
+      </c>
+      <c r="R149">
+        <v>2.2</v>
+      </c>
+      <c r="S149">
+        <v>3.6</v>
+      </c>
+      <c r="T149">
+        <v>1.36</v>
+      </c>
+      <c r="U149">
+        <v>3</v>
+      </c>
+      <c r="V149">
+        <v>2.75</v>
+      </c>
+      <c r="W149">
+        <v>1.4</v>
+      </c>
+      <c r="X149">
+        <v>7</v>
+      </c>
+      <c r="Y149">
+        <v>1.1</v>
+      </c>
+      <c r="Z149">
+        <v>2.45</v>
+      </c>
+      <c r="AA149">
+        <v>3.3</v>
+      </c>
+      <c r="AB149">
+        <v>2.68</v>
+      </c>
+      <c r="AC149">
+        <v>1.04</v>
+      </c>
+      <c r="AD149">
+        <v>12</v>
+      </c>
+      <c r="AE149">
+        <v>1.28</v>
+      </c>
+      <c r="AF149">
+        <v>3.6</v>
+      </c>
+      <c r="AG149">
+        <v>1.8</v>
+      </c>
+      <c r="AH149">
+        <v>1.9</v>
+      </c>
+      <c r="AI149">
+        <v>1.73</v>
+      </c>
+      <c r="AJ149">
+        <v>2</v>
+      </c>
+      <c r="AK149">
+        <v>1.42</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.6</v>
+      </c>
+      <c r="AN149">
+        <v>2.17</v>
+      </c>
+      <c r="AO149">
+        <v>2</v>
+      </c>
+      <c r="AP149">
+        <v>2</v>
+      </c>
+      <c r="AQ149">
+        <v>1.86</v>
+      </c>
+      <c r="AR149">
+        <v>1.45</v>
+      </c>
+      <c r="AS149">
+        <v>1.23</v>
+      </c>
+      <c r="AT149">
+        <v>2.68</v>
+      </c>
+      <c r="AU149">
+        <v>8</v>
+      </c>
+      <c r="AV149">
+        <v>6</v>
+      </c>
+      <c r="AW149">
+        <v>3</v>
+      </c>
+      <c r="AX149">
+        <v>2</v>
+      </c>
+      <c r="AY149">
+        <v>13</v>
+      </c>
+      <c r="AZ149">
+        <v>12</v>
+      </c>
+      <c r="BA149">
+        <v>4</v>
+      </c>
+      <c r="BB149">
+        <v>4</v>
+      </c>
+      <c r="BC149">
+        <v>8</v>
+      </c>
+      <c r="BD149">
+        <v>1.65</v>
+      </c>
+      <c r="BE149">
+        <v>7.2</v>
+      </c>
+      <c r="BF149">
+        <v>2.58</v>
+      </c>
+      <c r="BG149">
+        <v>1.19</v>
+      </c>
+      <c r="BH149">
+        <v>4.1</v>
+      </c>
+      <c r="BI149">
+        <v>1.34</v>
+      </c>
+      <c r="BJ149">
+        <v>2.98</v>
+      </c>
+      <c r="BK149">
+        <v>1.6</v>
+      </c>
+      <c r="BL149">
+        <v>2.18</v>
+      </c>
+      <c r="BM149">
+        <v>2.02</v>
+      </c>
+      <c r="BN149">
+        <v>1.68</v>
+      </c>
+      <c r="BO149">
+        <v>2.75</v>
+      </c>
+      <c r="BP149">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7476689</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F150">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>71</v>
+      </c>
+      <c r="H150" t="s">
+        <v>88</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>193</v>
+      </c>
+      <c r="P150" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q150">
+        <v>2.2</v>
+      </c>
+      <c r="R150">
+        <v>2.2</v>
+      </c>
+      <c r="S150">
+        <v>6</v>
+      </c>
+      <c r="T150">
+        <v>1.4</v>
+      </c>
+      <c r="U150">
+        <v>2.75</v>
+      </c>
+      <c r="V150">
+        <v>3</v>
+      </c>
+      <c r="W150">
+        <v>1.36</v>
+      </c>
+      <c r="X150">
+        <v>8</v>
+      </c>
+      <c r="Y150">
+        <v>1.08</v>
+      </c>
+      <c r="Z150">
+        <v>1.6</v>
+      </c>
+      <c r="AA150">
+        <v>3.8</v>
+      </c>
+      <c r="AB150">
+        <v>6</v>
+      </c>
+      <c r="AC150">
+        <v>1.04</v>
+      </c>
+      <c r="AD150">
+        <v>12</v>
+      </c>
+      <c r="AE150">
+        <v>1.3</v>
+      </c>
+      <c r="AF150">
+        <v>3.5</v>
+      </c>
+      <c r="AG150">
+        <v>1.91</v>
+      </c>
+      <c r="AH150">
+        <v>1.83</v>
+      </c>
+      <c r="AI150">
+        <v>2</v>
+      </c>
+      <c r="AJ150">
+        <v>1.73</v>
+      </c>
+      <c r="AK150">
+        <v>1.14</v>
+      </c>
+      <c r="AL150">
+        <v>1.2</v>
+      </c>
+      <c r="AM150">
+        <v>2.35</v>
+      </c>
+      <c r="AN150">
+        <v>3</v>
+      </c>
+      <c r="AO150">
+        <v>0.67</v>
+      </c>
+      <c r="AP150">
+        <v>3</v>
+      </c>
+      <c r="AQ150">
+        <v>0.57</v>
+      </c>
+      <c r="AR150">
+        <v>1.49</v>
+      </c>
+      <c r="AS150">
+        <v>0.87</v>
+      </c>
+      <c r="AT150">
+        <v>2.36</v>
+      </c>
+      <c r="AU150">
+        <v>9</v>
+      </c>
+      <c r="AV150">
+        <v>3</v>
+      </c>
+      <c r="AW150">
+        <v>4</v>
+      </c>
+      <c r="AX150">
+        <v>2</v>
+      </c>
+      <c r="AY150">
+        <v>17</v>
+      </c>
+      <c r="AZ150">
+        <v>6</v>
+      </c>
+      <c r="BA150">
+        <v>10</v>
+      </c>
+      <c r="BB150">
+        <v>1</v>
+      </c>
+      <c r="BC150">
+        <v>11</v>
+      </c>
+      <c r="BD150">
+        <v>1.26</v>
+      </c>
+      <c r="BE150">
+        <v>7.6</v>
+      </c>
+      <c r="BF150">
+        <v>4.9</v>
+      </c>
+      <c r="BG150">
+        <v>1.18</v>
+      </c>
+      <c r="BH150">
+        <v>4.2</v>
+      </c>
+      <c r="BI150">
+        <v>1.29</v>
+      </c>
+      <c r="BJ150">
+        <v>3.2</v>
+      </c>
+      <c r="BK150">
+        <v>1.55</v>
+      </c>
+      <c r="BL150">
+        <v>2.28</v>
+      </c>
+      <c r="BM150">
+        <v>1.95</v>
+      </c>
+      <c r="BN150">
+        <v>1.75</v>
+      </c>
+      <c r="BO150">
+        <v>2.6</v>
+      </c>
+      <c r="BP150">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7476693</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F151">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+      <c r="H151" t="s">
+        <v>83</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>101</v>
+      </c>
+      <c r="P151" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q151">
+        <v>2.2</v>
+      </c>
+      <c r="R151">
+        <v>2.38</v>
+      </c>
+      <c r="S151">
+        <v>5</v>
+      </c>
+      <c r="T151">
+        <v>1.33</v>
+      </c>
+      <c r="U151">
+        <v>3.25</v>
+      </c>
+      <c r="V151">
+        <v>2.63</v>
+      </c>
+      <c r="W151">
+        <v>1.44</v>
+      </c>
+      <c r="X151">
+        <v>6.5</v>
+      </c>
+      <c r="Y151">
+        <v>1.11</v>
+      </c>
+      <c r="Z151">
+        <v>1.56</v>
+      </c>
+      <c r="AA151">
+        <v>4</v>
+      </c>
+      <c r="AB151">
+        <v>5.16</v>
+      </c>
+      <c r="AC151">
+        <v>1.03</v>
+      </c>
+      <c r="AD151">
+        <v>9.5</v>
+      </c>
+      <c r="AE151">
+        <v>1.22</v>
+      </c>
+      <c r="AF151">
+        <v>3.95</v>
+      </c>
+      <c r="AG151">
+        <v>1.7</v>
+      </c>
+      <c r="AH151">
+        <v>2.03</v>
+      </c>
+      <c r="AI151">
+        <v>1.73</v>
+      </c>
+      <c r="AJ151">
+        <v>2</v>
+      </c>
+      <c r="AK151">
+        <v>1.15</v>
+      </c>
+      <c r="AL151">
+        <v>1.18</v>
+      </c>
+      <c r="AM151">
+        <v>2.35</v>
+      </c>
+      <c r="AN151">
+        <v>2.17</v>
+      </c>
+      <c r="AO151">
+        <v>1</v>
+      </c>
+      <c r="AP151">
+        <v>1.86</v>
+      </c>
+      <c r="AQ151">
+        <v>1.33</v>
+      </c>
+      <c r="AR151">
+        <v>1.18</v>
+      </c>
+      <c r="AS151">
+        <v>1.3</v>
+      </c>
+      <c r="AT151">
+        <v>2.48</v>
+      </c>
+      <c r="AU151">
+        <v>9</v>
+      </c>
+      <c r="AV151">
+        <v>4</v>
+      </c>
+      <c r="AW151">
+        <v>6</v>
+      </c>
+      <c r="AX151">
+        <v>4</v>
+      </c>
+      <c r="AY151">
+        <v>23</v>
+      </c>
+      <c r="AZ151">
+        <v>13</v>
+      </c>
+      <c r="BA151">
+        <v>11</v>
+      </c>
+      <c r="BB151">
+        <v>8</v>
+      </c>
+      <c r="BC151">
+        <v>19</v>
+      </c>
+      <c r="BD151">
+        <v>1.31</v>
+      </c>
+      <c r="BE151">
+        <v>7.2</v>
+      </c>
+      <c r="BF151">
+        <v>4.4</v>
+      </c>
+      <c r="BG151">
+        <v>1.19</v>
+      </c>
+      <c r="BH151">
+        <v>4.2</v>
+      </c>
+      <c r="BI151">
+        <v>1.32</v>
+      </c>
+      <c r="BJ151">
+        <v>3.05</v>
+      </c>
+      <c r="BK151">
+        <v>1.58</v>
+      </c>
+      <c r="BL151">
+        <v>2.22</v>
+      </c>
+      <c r="BM151">
+        <v>1.98</v>
+      </c>
+      <c r="BN151">
+        <v>1.72</v>
+      </c>
+      <c r="BO151">
+        <v>2.62</v>
+      </c>
+      <c r="BP151">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -29842,7 +29842,7 @@
         <v>69</v>
       </c>
       <c r="E140" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F140">
         <v>13</v>
@@ -30048,7 +30048,7 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F141">
         <v>13</v>
@@ -30254,7 +30254,7 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F142">
         <v>13</v>
@@ -30460,10 +30460,10 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F143">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G143" t="s">
         <v>77</v>
@@ -30666,10 +30666,10 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
         <v>76</v>
@@ -30872,10 +30872,10 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F145">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G145" t="s">
         <v>75</v>
@@ -31078,7 +31078,7 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F146">
         <v>13</v>
@@ -31284,10 +31284,10 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
         <v>80</v>
@@ -31490,7 +31490,7 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F148">
         <v>13</v>
@@ -31696,7 +31696,7 @@
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F149">
         <v>13</v>
@@ -31902,7 +31902,7 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F150">
         <v>13</v>
@@ -32108,10 +32108,10 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F151">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G151" t="s">
         <v>70</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,33 @@
     <t>['64']</t>
   </si>
   <si>
+    <t>['10', '61']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['39', '54', '84']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['9', '11', '62']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -682,9 +709,6 @@
     <t>['50']</t>
   </si>
   <si>
-    <t>['58']</t>
-  </si>
-  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -763,9 +787,6 @@
     <t>['2', '10', '44']</t>
   </si>
   <si>
-    <t>['90+1']</t>
-  </si>
-  <si>
     <t>['33', '46']</t>
   </si>
   <si>
@@ -823,10 +844,22 @@
     <t>['59']</t>
   </si>
   <si>
-    <t>['90+3']</t>
+    <t>['6']</t>
   </si>
   <si>
-    <t>['6']</t>
+    <t>['8', '48', '74', '81', '89']</t>
+  </si>
+  <si>
+    <t>['61', '76']</t>
+  </si>
+  <si>
+    <t>['57', '66']</t>
+  </si>
+  <si>
+    <t>['49', '53', '90+5']</t>
+  </si>
+  <si>
+    <t>['61', '78']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1653,7 +1686,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2065,7 +2098,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2271,7 +2304,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2683,7 +2716,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2889,7 +2922,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3095,7 +3128,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3301,7 +3334,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3997,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4203,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4331,7 +4364,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4409,10 +4442,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4615,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4743,7 +4776,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4821,10 +4854,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4949,7 +4982,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5027,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5155,7 +5188,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5233,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5439,10 +5472,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ21">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5645,10 +5678,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5773,7 +5806,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5851,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6057,10 +6090,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6185,7 +6218,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6263,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6391,7 +6424,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6469,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ26">
         <v>1.71</v>
@@ -6678,7 +6711,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR27">
         <v>0.86</v>
@@ -6881,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7215,7 +7248,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7293,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ30">
         <v>0.5</v>
@@ -7708,7 +7741,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ32">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR32">
         <v>1.04</v>
@@ -7833,7 +7866,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7914,7 +7947,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -8120,7 +8153,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ34">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -8245,7 +8278,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8323,7 +8356,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8657,7 +8690,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8735,10 +8768,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR37">
         <v>1.61</v>
@@ -8863,7 +8896,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8941,10 +8974,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -9150,7 +9183,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR39">
         <v>1.62</v>
@@ -9275,7 +9308,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9353,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ40">
         <v>1.86</v>
@@ -9481,7 +9514,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9559,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ41">
         <v>0.86</v>
@@ -9687,7 +9720,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9893,7 +9926,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9974,7 +10007,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ43">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>0.97</v>
@@ -10099,7 +10132,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10177,10 +10210,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR44">
         <v>1.2</v>
@@ -10305,7 +10338,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10383,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ45">
         <v>1.67</v>
@@ -10511,7 +10544,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10589,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ46">
         <v>0.67</v>
@@ -10798,7 +10831,7 @@
         <v>3</v>
       </c>
       <c r="AQ47">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR47">
         <v>1.5</v>
@@ -10923,7 +10956,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11001,7 +11034,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
         <v>1.14</v>
@@ -11210,7 +11243,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11335,7 +11368,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11413,7 +11446,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ50">
         <v>2.29</v>
@@ -11541,7 +11574,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11828,7 +11861,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR52">
         <v>1.19</v>
@@ -11953,7 +11986,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12237,7 +12270,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54">
         <v>1.33</v>
@@ -12443,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0.57</v>
@@ -12652,7 +12685,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR56">
         <v>1.21</v>
@@ -12777,7 +12810,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -12855,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>0.57</v>
@@ -13064,7 +13097,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ58">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -13267,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ59">
         <v>0.5</v>
@@ -13476,7 +13509,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13682,7 +13715,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR61">
         <v>1.47</v>
@@ -13885,7 +13918,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ62">
         <v>0.86</v>
@@ -14013,7 +14046,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14094,7 +14127,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ63">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14219,7 +14252,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14503,10 +14536,10 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR65">
         <v>1.4</v>
@@ -14631,7 +14664,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -14709,7 +14742,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ66">
         <v>0.67</v>
@@ -14918,7 +14951,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ67">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15043,7 +15076,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15121,7 +15154,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ68">
         <v>1.67</v>
@@ -15249,7 +15282,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15327,7 +15360,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ69">
         <v>1.86</v>
@@ -15455,7 +15488,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15533,7 +15566,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15661,7 +15694,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15739,10 +15772,10 @@
         <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ71">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR71">
         <v>1.35</v>
@@ -15867,7 +15900,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15945,7 +15978,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ72">
         <v>2.29</v>
@@ -16073,7 +16106,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16154,7 +16187,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ73">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>1.28</v>
@@ -16279,7 +16312,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16357,7 +16390,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ74">
         <v>0.57</v>
@@ -16485,7 +16518,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16566,7 +16599,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR75">
         <v>1.26</v>
@@ -16691,7 +16724,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -16769,10 +16802,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ76">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR76">
         <v>1.78</v>
@@ -16975,7 +17008,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -17103,7 +17136,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17184,7 +17217,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR78">
         <v>1.48</v>
@@ -17387,10 +17420,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ79">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR79">
         <v>1.92</v>
@@ -17593,10 +17626,10 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -18005,10 +18038,10 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR82">
         <v>0.97</v>
@@ -18133,7 +18166,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18420,7 +18453,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR84">
         <v>0.73</v>
@@ -18957,7 +18990,7 @@
         <v>122</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19035,7 +19068,7 @@
         <v>2.33</v>
       </c>
       <c r="AP87">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ87">
         <v>1.86</v>
@@ -19163,7 +19196,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
@@ -19241,7 +19274,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19369,7 +19402,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19447,7 +19480,7 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ89">
         <v>1.67</v>
@@ -19653,10 +19686,10 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ90">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR90">
         <v>1.27</v>
@@ -19781,7 +19814,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -19862,7 +19895,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ91">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -19987,7 +20020,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20068,7 +20101,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR92">
         <v>1.26</v>
@@ -20193,7 +20226,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20271,7 +20304,7 @@
         <v>0</v>
       </c>
       <c r="AP93">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ93">
         <v>1.71</v>
@@ -20605,7 +20638,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20683,7 +20716,7 @@
         <v>0.5</v>
       </c>
       <c r="AP95">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>0.67</v>
@@ -20811,7 +20844,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -20892,7 +20925,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ96">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR96">
         <v>1.14</v>
@@ -21017,7 +21050,7 @@
         <v>163</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>2.75</v>
@@ -21301,10 +21334,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ98">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR98">
         <v>0.92</v>
@@ -21429,7 +21462,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21507,7 +21540,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ99">
         <v>1.14</v>
@@ -21635,7 +21668,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21716,7 +21749,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ100">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR100">
         <v>1.61</v>
@@ -22047,7 +22080,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22253,7 +22286,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22331,7 +22364,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ103">
         <v>1.86</v>
@@ -22459,7 +22492,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22537,10 +22570,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ104">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR104">
         <v>1.27</v>
@@ -22871,7 +22904,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -22949,10 +22982,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ106">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR106">
         <v>1.16</v>
@@ -23361,10 +23394,10 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23567,7 +23600,7 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ109">
         <v>2.29</v>
@@ -23695,7 +23728,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23776,7 +23809,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ110">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR110">
         <v>1.38</v>
@@ -23979,10 +24012,10 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR111">
         <v>1.19</v>
@@ -24188,7 +24221,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ112">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR112">
         <v>1.25</v>
@@ -24313,7 +24346,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24394,7 +24427,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ113">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR113">
         <v>1.34</v>
@@ -24519,7 +24552,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24600,7 +24633,7 @@
         <v>2</v>
       </c>
       <c r="AQ114">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.49</v>
@@ -24725,7 +24758,7 @@
         <v>174</v>
       </c>
       <c r="P115" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24803,7 +24836,7 @@
         <v>0.25</v>
       </c>
       <c r="AP115">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ115">
         <v>0.57</v>
@@ -25009,7 +25042,7 @@
         <v>0.75</v>
       </c>
       <c r="AP116">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ116">
         <v>0.57</v>
@@ -25137,7 +25170,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25215,7 +25248,7 @@
         <v>0.75</v>
       </c>
       <c r="AP117">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>0.86</v>
@@ -25343,7 +25376,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25549,7 +25582,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25755,7 +25788,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -25961,7 +25994,7 @@
         <v>101</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>2.75</v>
@@ -26373,7 +26406,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26579,7 +26612,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26785,7 +26818,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -27197,7 +27230,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27403,7 +27436,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27481,10 +27514,10 @@
         <v>1.4</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ128">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR128">
         <v>1.07</v>
@@ -27687,7 +27720,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -27815,7 +27848,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>2.63</v>
@@ -27893,10 +27926,10 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR130">
         <v>1.51</v>
@@ -28021,7 +28054,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28099,10 +28132,10 @@
         <v>1.4</v>
       </c>
       <c r="AP131">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ131">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR131">
         <v>1.44</v>
@@ -28227,7 +28260,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q132">
         <v>3.6</v>
@@ -28305,10 +28338,10 @@
         <v>1.4</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR132">
         <v>1.16</v>
@@ -28433,7 +28466,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28511,10 +28544,10 @@
         <v>0.8</v>
       </c>
       <c r="AP133">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ133">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR133">
         <v>1.35</v>
@@ -28639,7 +28672,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28717,10 +28750,10 @@
         <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -28923,10 +28956,10 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ135">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR135">
         <v>1.71</v>
@@ -29051,7 +29084,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29129,10 +29162,10 @@
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ136">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR136">
         <v>1.5</v>
@@ -29257,7 +29290,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29335,10 +29368,10 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR137">
         <v>1.32</v>
@@ -29541,10 +29574,10 @@
         <v>1.4</v>
       </c>
       <c r="AP138">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR138">
         <v>1.55</v>
@@ -29669,7 +29702,7 @@
         <v>147</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29747,10 +29780,10 @@
         <v>0.2</v>
       </c>
       <c r="AP139">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ139">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.78</v>
@@ -29875,7 +29908,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30081,7 +30114,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q141">
         <v>3.1</v>
@@ -30493,7 +30526,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30699,7 +30732,7 @@
         <v>101</v>
       </c>
       <c r="P144" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31317,7 +31350,7 @@
         <v>101</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -31729,7 +31762,7 @@
         <v>121</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32141,7 +32174,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q151">
         <v>2.4</v>
@@ -32298,6 +32331,2478 @@
       </c>
       <c r="BP151">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7476708</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45591.35416666666</v>
+      </c>
+      <c r="F152">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>88</v>
+      </c>
+      <c r="H152" t="s">
+        <v>70</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>5</v>
+      </c>
+      <c r="N152">
+        <v>7</v>
+      </c>
+      <c r="O152" t="s">
+        <v>194</v>
+      </c>
+      <c r="P152" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q152">
+        <v>4.5</v>
+      </c>
+      <c r="R152">
+        <v>2.2</v>
+      </c>
+      <c r="S152">
+        <v>2.5</v>
+      </c>
+      <c r="T152">
+        <v>1.4</v>
+      </c>
+      <c r="U152">
+        <v>2.75</v>
+      </c>
+      <c r="V152">
+        <v>2.75</v>
+      </c>
+      <c r="W152">
+        <v>1.4</v>
+      </c>
+      <c r="X152">
+        <v>8</v>
+      </c>
+      <c r="Y152">
+        <v>1.08</v>
+      </c>
+      <c r="Z152">
+        <v>4.2</v>
+      </c>
+      <c r="AA152">
+        <v>3.4</v>
+      </c>
+      <c r="AB152">
+        <v>1.83</v>
+      </c>
+      <c r="AC152">
+        <v>1.06</v>
+      </c>
+      <c r="AD152">
+        <v>8.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.3</v>
+      </c>
+      <c r="AF152">
+        <v>3.45</v>
+      </c>
+      <c r="AG152">
+        <v>1.85</v>
+      </c>
+      <c r="AH152">
+        <v>1.83</v>
+      </c>
+      <c r="AI152">
+        <v>1.73</v>
+      </c>
+      <c r="AJ152">
+        <v>2</v>
+      </c>
+      <c r="AK152">
+        <v>1.93</v>
+      </c>
+      <c r="AL152">
+        <v>1.25</v>
+      </c>
+      <c r="AM152">
+        <v>1.2</v>
+      </c>
+      <c r="AN152">
+        <v>0.5</v>
+      </c>
+      <c r="AO152">
+        <v>1.67</v>
+      </c>
+      <c r="AP152">
+        <v>0.43</v>
+      </c>
+      <c r="AQ152">
+        <v>1.86</v>
+      </c>
+      <c r="AR152">
+        <v>1.38</v>
+      </c>
+      <c r="AS152">
+        <v>1.29</v>
+      </c>
+      <c r="AT152">
+        <v>2.67</v>
+      </c>
+      <c r="AU152">
+        <v>6</v>
+      </c>
+      <c r="AV152">
+        <v>7</v>
+      </c>
+      <c r="AW152">
+        <v>4</v>
+      </c>
+      <c r="AX152">
+        <v>2</v>
+      </c>
+      <c r="AY152">
+        <v>17</v>
+      </c>
+      <c r="AZ152">
+        <v>10</v>
+      </c>
+      <c r="BA152">
+        <v>5</v>
+      </c>
+      <c r="BB152">
+        <v>3</v>
+      </c>
+      <c r="BC152">
+        <v>8</v>
+      </c>
+      <c r="BD152">
+        <v>2.65</v>
+      </c>
+      <c r="BE152">
+        <v>7.5</v>
+      </c>
+      <c r="BF152">
+        <v>1.69</v>
+      </c>
+      <c r="BG152">
+        <v>0</v>
+      </c>
+      <c r="BH152">
+        <v>0</v>
+      </c>
+      <c r="BI152">
+        <v>1.26</v>
+      </c>
+      <c r="BJ152">
+        <v>3.08</v>
+      </c>
+      <c r="BK152">
+        <v>1.49</v>
+      </c>
+      <c r="BL152">
+        <v>2.3</v>
+      </c>
+      <c r="BM152">
+        <v>1.95</v>
+      </c>
+      <c r="BN152">
+        <v>1.77</v>
+      </c>
+      <c r="BO152">
+        <v>2.33</v>
+      </c>
+      <c r="BP152">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7476705</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45591.35416666666</v>
+      </c>
+      <c r="F153">
+        <v>14</v>
+      </c>
+      <c r="G153" t="s">
+        <v>85</v>
+      </c>
+      <c r="H153" t="s">
+        <v>79</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>195</v>
+      </c>
+      <c r="P153" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q153">
+        <v>2.75</v>
+      </c>
+      <c r="R153">
+        <v>2.1</v>
+      </c>
+      <c r="S153">
+        <v>4</v>
+      </c>
+      <c r="T153">
+        <v>1.4</v>
+      </c>
+      <c r="U153">
+        <v>2.75</v>
+      </c>
+      <c r="V153">
+        <v>3</v>
+      </c>
+      <c r="W153">
+        <v>1.36</v>
+      </c>
+      <c r="X153">
+        <v>8</v>
+      </c>
+      <c r="Y153">
+        <v>1.08</v>
+      </c>
+      <c r="Z153">
+        <v>2.1</v>
+      </c>
+      <c r="AA153">
+        <v>3.4</v>
+      </c>
+      <c r="AB153">
+        <v>3.4</v>
+      </c>
+      <c r="AC153">
+        <v>1.05</v>
+      </c>
+      <c r="AD153">
+        <v>10</v>
+      </c>
+      <c r="AE153">
+        <v>1.33</v>
+      </c>
+      <c r="AF153">
+        <v>3.25</v>
+      </c>
+      <c r="AG153">
+        <v>1.93</v>
+      </c>
+      <c r="AH153">
+        <v>1.75</v>
+      </c>
+      <c r="AI153">
+        <v>1.8</v>
+      </c>
+      <c r="AJ153">
+        <v>1.91</v>
+      </c>
+      <c r="AK153">
+        <v>1.3</v>
+      </c>
+      <c r="AL153">
+        <v>1.25</v>
+      </c>
+      <c r="AM153">
+        <v>1.78</v>
+      </c>
+      <c r="AN153">
+        <v>1.33</v>
+      </c>
+      <c r="AO153">
+        <v>0.8</v>
+      </c>
+      <c r="AP153">
+        <v>1.14</v>
+      </c>
+      <c r="AQ153">
+        <v>1.17</v>
+      </c>
+      <c r="AR153">
+        <v>1.74</v>
+      </c>
+      <c r="AS153">
+        <v>1.08</v>
+      </c>
+      <c r="AT153">
+        <v>2.82</v>
+      </c>
+      <c r="AU153">
+        <v>4</v>
+      </c>
+      <c r="AV153">
+        <v>6</v>
+      </c>
+      <c r="AW153">
+        <v>4</v>
+      </c>
+      <c r="AX153">
+        <v>5</v>
+      </c>
+      <c r="AY153">
+        <v>13</v>
+      </c>
+      <c r="AZ153">
+        <v>13</v>
+      </c>
+      <c r="BA153">
+        <v>5</v>
+      </c>
+      <c r="BB153">
+        <v>3</v>
+      </c>
+      <c r="BC153">
+        <v>8</v>
+      </c>
+      <c r="BD153">
+        <v>1.59</v>
+      </c>
+      <c r="BE153">
+        <v>7.5</v>
+      </c>
+      <c r="BF153">
+        <v>2.92</v>
+      </c>
+      <c r="BG153">
+        <v>1.23</v>
+      </c>
+      <c r="BH153">
+        <v>3.7</v>
+      </c>
+      <c r="BI153">
+        <v>1.33</v>
+      </c>
+      <c r="BJ153">
+        <v>2.73</v>
+      </c>
+      <c r="BK153">
+        <v>1.7</v>
+      </c>
+      <c r="BL153">
+        <v>2.05</v>
+      </c>
+      <c r="BM153">
+        <v>2.08</v>
+      </c>
+      <c r="BN153">
+        <v>1.67</v>
+      </c>
+      <c r="BO153">
+        <v>2.66</v>
+      </c>
+      <c r="BP153">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7476701</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F154">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s">
+        <v>84</v>
+      </c>
+      <c r="H154" t="s">
+        <v>81</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154" t="s">
+        <v>101</v>
+      </c>
+      <c r="P154" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q154">
+        <v>3.6</v>
+      </c>
+      <c r="R154">
+        <v>2.3</v>
+      </c>
+      <c r="S154">
+        <v>2.63</v>
+      </c>
+      <c r="T154">
+        <v>1.3</v>
+      </c>
+      <c r="U154">
+        <v>3.4</v>
+      </c>
+      <c r="V154">
+        <v>2.5</v>
+      </c>
+      <c r="W154">
+        <v>1.5</v>
+      </c>
+      <c r="X154">
+        <v>6</v>
+      </c>
+      <c r="Y154">
+        <v>1.13</v>
+      </c>
+      <c r="Z154">
+        <v>3.2</v>
+      </c>
+      <c r="AA154">
+        <v>3.6</v>
+      </c>
+      <c r="AB154">
+        <v>2.1</v>
+      </c>
+      <c r="AC154">
+        <v>1.02</v>
+      </c>
+      <c r="AD154">
+        <v>15</v>
+      </c>
+      <c r="AE154">
+        <v>1.2</v>
+      </c>
+      <c r="AF154">
+        <v>4.5</v>
+      </c>
+      <c r="AG154">
+        <v>1.62</v>
+      </c>
+      <c r="AH154">
+        <v>2.15</v>
+      </c>
+      <c r="AI154">
+        <v>1.53</v>
+      </c>
+      <c r="AJ154">
+        <v>2.38</v>
+      </c>
+      <c r="AK154">
+        <v>1.75</v>
+      </c>
+      <c r="AL154">
+        <v>1.25</v>
+      </c>
+      <c r="AM154">
+        <v>1.35</v>
+      </c>
+      <c r="AN154">
+        <v>1.5</v>
+      </c>
+      <c r="AO154">
+        <v>1.67</v>
+      </c>
+      <c r="AP154">
+        <v>1.43</v>
+      </c>
+      <c r="AQ154">
+        <v>1.57</v>
+      </c>
+      <c r="AR154">
+        <v>1.36</v>
+      </c>
+      <c r="AS154">
+        <v>1.3</v>
+      </c>
+      <c r="AT154">
+        <v>2.66</v>
+      </c>
+      <c r="AU154">
+        <v>2</v>
+      </c>
+      <c r="AV154">
+        <v>6</v>
+      </c>
+      <c r="AW154">
+        <v>2</v>
+      </c>
+      <c r="AX154">
+        <v>5</v>
+      </c>
+      <c r="AY154">
+        <v>6</v>
+      </c>
+      <c r="AZ154">
+        <v>16</v>
+      </c>
+      <c r="BA154">
+        <v>3</v>
+      </c>
+      <c r="BB154">
+        <v>11</v>
+      </c>
+      <c r="BC154">
+        <v>14</v>
+      </c>
+      <c r="BD154">
+        <v>2.33</v>
+      </c>
+      <c r="BE154">
+        <v>7.5</v>
+      </c>
+      <c r="BF154">
+        <v>1.85</v>
+      </c>
+      <c r="BG154">
+        <v>1.15</v>
+      </c>
+      <c r="BH154">
+        <v>4.55</v>
+      </c>
+      <c r="BI154">
+        <v>1.33</v>
+      </c>
+      <c r="BJ154">
+        <v>2.73</v>
+      </c>
+      <c r="BK154">
+        <v>1.62</v>
+      </c>
+      <c r="BL154">
+        <v>2.06</v>
+      </c>
+      <c r="BM154">
+        <v>1.95</v>
+      </c>
+      <c r="BN154">
+        <v>1.77</v>
+      </c>
+      <c r="BO154">
+        <v>2.66</v>
+      </c>
+      <c r="BP154">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7476702</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F155">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
+        <v>92</v>
+      </c>
+      <c r="H155" t="s">
+        <v>74</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>196</v>
+      </c>
+      <c r="P155" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q155">
+        <v>3.2</v>
+      </c>
+      <c r="R155">
+        <v>2.1</v>
+      </c>
+      <c r="S155">
+        <v>3.4</v>
+      </c>
+      <c r="T155">
+        <v>1.4</v>
+      </c>
+      <c r="U155">
+        <v>2.75</v>
+      </c>
+      <c r="V155">
+        <v>3</v>
+      </c>
+      <c r="W155">
+        <v>1.36</v>
+      </c>
+      <c r="X155">
+        <v>8</v>
+      </c>
+      <c r="Y155">
+        <v>1.08</v>
+      </c>
+      <c r="Z155">
+        <v>2.5</v>
+      </c>
+      <c r="AA155">
+        <v>3.3</v>
+      </c>
+      <c r="AB155">
+        <v>2.7</v>
+      </c>
+      <c r="AC155">
+        <v>1.06</v>
+      </c>
+      <c r="AD155">
+        <v>8.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.33</v>
+      </c>
+      <c r="AF155">
+        <v>3.3</v>
+      </c>
+      <c r="AG155">
+        <v>1.93</v>
+      </c>
+      <c r="AH155">
+        <v>1.75</v>
+      </c>
+      <c r="AI155">
+        <v>1.73</v>
+      </c>
+      <c r="AJ155">
+        <v>2</v>
+      </c>
+      <c r="AK155">
+        <v>1.44</v>
+      </c>
+      <c r="AL155">
+        <v>1.25</v>
+      </c>
+      <c r="AM155">
+        <v>1.5</v>
+      </c>
+      <c r="AN155">
+        <v>2.33</v>
+      </c>
+      <c r="AO155">
+        <v>1.67</v>
+      </c>
+      <c r="AP155">
+        <v>2</v>
+      </c>
+      <c r="AQ155">
+        <v>1.86</v>
+      </c>
+      <c r="AR155">
+        <v>1.54</v>
+      </c>
+      <c r="AS155">
+        <v>1.47</v>
+      </c>
+      <c r="AT155">
+        <v>3.01</v>
+      </c>
+      <c r="AU155">
+        <v>5</v>
+      </c>
+      <c r="AV155">
+        <v>7</v>
+      </c>
+      <c r="AW155">
+        <v>4</v>
+      </c>
+      <c r="AX155">
+        <v>5</v>
+      </c>
+      <c r="AY155">
+        <v>16</v>
+      </c>
+      <c r="AZ155">
+        <v>21</v>
+      </c>
+      <c r="BA155">
+        <v>6</v>
+      </c>
+      <c r="BB155">
+        <v>13</v>
+      </c>
+      <c r="BC155">
+        <v>19</v>
+      </c>
+      <c r="BD155">
+        <v>1.82</v>
+      </c>
+      <c r="BE155">
+        <v>7</v>
+      </c>
+      <c r="BF155">
+        <v>2.43</v>
+      </c>
+      <c r="BG155">
+        <v>1.17</v>
+      </c>
+      <c r="BH155">
+        <v>4.3</v>
+      </c>
+      <c r="BI155">
+        <v>1.31</v>
+      </c>
+      <c r="BJ155">
+        <v>2.82</v>
+      </c>
+      <c r="BK155">
+        <v>1.57</v>
+      </c>
+      <c r="BL155">
+        <v>2.14</v>
+      </c>
+      <c r="BM155">
+        <v>1.95</v>
+      </c>
+      <c r="BN155">
+        <v>1.77</v>
+      </c>
+      <c r="BO155">
+        <v>2.52</v>
+      </c>
+      <c r="BP155">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7476703</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F156">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s">
+        <v>83</v>
+      </c>
+      <c r="H156" t="s">
+        <v>72</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>197</v>
+      </c>
+      <c r="P156" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q156">
+        <v>3.4</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>3.4</v>
+      </c>
+      <c r="T156">
+        <v>1.5</v>
+      </c>
+      <c r="U156">
+        <v>2.5</v>
+      </c>
+      <c r="V156">
+        <v>3.4</v>
+      </c>
+      <c r="W156">
+        <v>1.3</v>
+      </c>
+      <c r="X156">
+        <v>10</v>
+      </c>
+      <c r="Y156">
+        <v>1.06</v>
+      </c>
+      <c r="Z156">
+        <v>2.6</v>
+      </c>
+      <c r="AA156">
+        <v>3.25</v>
+      </c>
+      <c r="AB156">
+        <v>2.6</v>
+      </c>
+      <c r="AC156">
+        <v>1.07</v>
+      </c>
+      <c r="AD156">
+        <v>8.5</v>
+      </c>
+      <c r="AE156">
+        <v>1.44</v>
+      </c>
+      <c r="AF156">
+        <v>2.8</v>
+      </c>
+      <c r="AG156">
+        <v>2.15</v>
+      </c>
+      <c r="AH156">
+        <v>1.61</v>
+      </c>
+      <c r="AI156">
+        <v>1.91</v>
+      </c>
+      <c r="AJ156">
+        <v>1.8</v>
+      </c>
+      <c r="AK156">
+        <v>1.47</v>
+      </c>
+      <c r="AL156">
+        <v>1.28</v>
+      </c>
+      <c r="AM156">
+        <v>1.47</v>
+      </c>
+      <c r="AN156">
+        <v>0.83</v>
+      </c>
+      <c r="AO156">
+        <v>1</v>
+      </c>
+      <c r="AP156">
+        <v>0.86</v>
+      </c>
+      <c r="AQ156">
+        <v>1</v>
+      </c>
+      <c r="AR156">
+        <v>1.49</v>
+      </c>
+      <c r="AS156">
+        <v>1.06</v>
+      </c>
+      <c r="AT156">
+        <v>2.55</v>
+      </c>
+      <c r="AU156">
+        <v>5</v>
+      </c>
+      <c r="AV156">
+        <v>6</v>
+      </c>
+      <c r="AW156">
+        <v>2</v>
+      </c>
+      <c r="AX156">
+        <v>3</v>
+      </c>
+      <c r="AY156">
+        <v>9</v>
+      </c>
+      <c r="AZ156">
+        <v>13</v>
+      </c>
+      <c r="BA156">
+        <v>6</v>
+      </c>
+      <c r="BB156">
+        <v>4</v>
+      </c>
+      <c r="BC156">
+        <v>10</v>
+      </c>
+      <c r="BD156">
+        <v>1.91</v>
+      </c>
+      <c r="BE156">
+        <v>7</v>
+      </c>
+      <c r="BF156">
+        <v>2.2</v>
+      </c>
+      <c r="BG156">
+        <v>0</v>
+      </c>
+      <c r="BH156">
+        <v>0</v>
+      </c>
+      <c r="BI156">
+        <v>1.33</v>
+      </c>
+      <c r="BJ156">
+        <v>2.73</v>
+      </c>
+      <c r="BK156">
+        <v>1.77</v>
+      </c>
+      <c r="BL156">
+        <v>1.95</v>
+      </c>
+      <c r="BM156">
+        <v>2.06</v>
+      </c>
+      <c r="BN156">
+        <v>1.68</v>
+      </c>
+      <c r="BO156">
+        <v>2.62</v>
+      </c>
+      <c r="BP156">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7476704</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F157">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
+        <v>82</v>
+      </c>
+      <c r="H157" t="s">
+        <v>73</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>101</v>
+      </c>
+      <c r="P157" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q157">
+        <v>2.75</v>
+      </c>
+      <c r="R157">
+        <v>2.25</v>
+      </c>
+      <c r="S157">
+        <v>3.75</v>
+      </c>
+      <c r="T157">
+        <v>1.33</v>
+      </c>
+      <c r="U157">
+        <v>3.25</v>
+      </c>
+      <c r="V157">
+        <v>2.63</v>
+      </c>
+      <c r="W157">
+        <v>1.44</v>
+      </c>
+      <c r="X157">
+        <v>7</v>
+      </c>
+      <c r="Y157">
+        <v>1.1</v>
+      </c>
+      <c r="Z157">
+        <v>2.1</v>
+      </c>
+      <c r="AA157">
+        <v>3.4</v>
+      </c>
+      <c r="AB157">
+        <v>3.25</v>
+      </c>
+      <c r="AC157">
+        <v>1.04</v>
+      </c>
+      <c r="AD157">
+        <v>13</v>
+      </c>
+      <c r="AE157">
+        <v>1.22</v>
+      </c>
+      <c r="AF157">
+        <v>4</v>
+      </c>
+      <c r="AG157">
+        <v>1.72</v>
+      </c>
+      <c r="AH157">
+        <v>1.98</v>
+      </c>
+      <c r="AI157">
+        <v>1.62</v>
+      </c>
+      <c r="AJ157">
+        <v>2.2</v>
+      </c>
+      <c r="AK157">
+        <v>1.33</v>
+      </c>
+      <c r="AL157">
+        <v>1.25</v>
+      </c>
+      <c r="AM157">
+        <v>1.72</v>
+      </c>
+      <c r="AN157">
+        <v>0.67</v>
+      </c>
+      <c r="AO157">
+        <v>0.67</v>
+      </c>
+      <c r="AP157">
+        <v>0.57</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
+      <c r="AR157">
+        <v>1.63</v>
+      </c>
+      <c r="AS157">
+        <v>1.05</v>
+      </c>
+      <c r="AT157">
+        <v>2.68</v>
+      </c>
+      <c r="AU157">
+        <v>2</v>
+      </c>
+      <c r="AV157">
+        <v>5</v>
+      </c>
+      <c r="AW157">
+        <v>4</v>
+      </c>
+      <c r="AX157">
+        <v>9</v>
+      </c>
+      <c r="AY157">
+        <v>10</v>
+      </c>
+      <c r="AZ157">
+        <v>15</v>
+      </c>
+      <c r="BA157">
+        <v>5</v>
+      </c>
+      <c r="BB157">
+        <v>5</v>
+      </c>
+      <c r="BC157">
+        <v>10</v>
+      </c>
+      <c r="BD157">
+        <v>1.64</v>
+      </c>
+      <c r="BE157">
+        <v>7.5</v>
+      </c>
+      <c r="BF157">
+        <v>2.82</v>
+      </c>
+      <c r="BG157">
+        <v>1.21</v>
+      </c>
+      <c r="BH157">
+        <v>3.44</v>
+      </c>
+      <c r="BI157">
+        <v>1.42</v>
+      </c>
+      <c r="BJ157">
+        <v>2.49</v>
+      </c>
+      <c r="BK157">
+        <v>1.7</v>
+      </c>
+      <c r="BL157">
+        <v>2.05</v>
+      </c>
+      <c r="BM157">
+        <v>2.21</v>
+      </c>
+      <c r="BN157">
+        <v>1.53</v>
+      </c>
+      <c r="BO157">
+        <v>2.94</v>
+      </c>
+      <c r="BP157">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7476706</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F158">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s">
+        <v>86</v>
+      </c>
+      <c r="H158" t="s">
+        <v>80</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>3</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>198</v>
+      </c>
+      <c r="P158" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q158">
+        <v>3</v>
+      </c>
+      <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
+        <v>4</v>
+      </c>
+      <c r="T158">
+        <v>1.5</v>
+      </c>
+      <c r="U158">
+        <v>2.5</v>
+      </c>
+      <c r="V158">
+        <v>3.4</v>
+      </c>
+      <c r="W158">
+        <v>1.3</v>
+      </c>
+      <c r="X158">
+        <v>10</v>
+      </c>
+      <c r="Y158">
+        <v>1.06</v>
+      </c>
+      <c r="Z158">
+        <v>2.2</v>
+      </c>
+      <c r="AA158">
+        <v>3.25</v>
+      </c>
+      <c r="AB158">
+        <v>3.2</v>
+      </c>
+      <c r="AC158">
+        <v>1.07</v>
+      </c>
+      <c r="AD158">
+        <v>9.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.42</v>
+      </c>
+      <c r="AF158">
+        <v>2.85</v>
+      </c>
+      <c r="AG158">
+        <v>2.15</v>
+      </c>
+      <c r="AH158">
+        <v>1.61</v>
+      </c>
+      <c r="AI158">
+        <v>1.91</v>
+      </c>
+      <c r="AJ158">
+        <v>1.8</v>
+      </c>
+      <c r="AK158">
+        <v>1.35</v>
+      </c>
+      <c r="AL158">
+        <v>1.25</v>
+      </c>
+      <c r="AM158">
+        <v>1.68</v>
+      </c>
+      <c r="AN158">
+        <v>1.83</v>
+      </c>
+      <c r="AO158">
+        <v>1.33</v>
+      </c>
+      <c r="AP158">
+        <v>2</v>
+      </c>
+      <c r="AQ158">
+        <v>1.14</v>
+      </c>
+      <c r="AR158">
+        <v>1.15</v>
+      </c>
+      <c r="AS158">
+        <v>1.24</v>
+      </c>
+      <c r="AT158">
+        <v>2.39</v>
+      </c>
+      <c r="AU158">
+        <v>7</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
+        <v>4</v>
+      </c>
+      <c r="AX158">
+        <v>5</v>
+      </c>
+      <c r="AY158">
+        <v>14</v>
+      </c>
+      <c r="AZ158">
+        <v>13</v>
+      </c>
+      <c r="BA158">
+        <v>6</v>
+      </c>
+      <c r="BB158">
+        <v>3</v>
+      </c>
+      <c r="BC158">
+        <v>9</v>
+      </c>
+      <c r="BD158">
+        <v>1.69</v>
+      </c>
+      <c r="BE158">
+        <v>7.5</v>
+      </c>
+      <c r="BF158">
+        <v>2.55</v>
+      </c>
+      <c r="BG158">
+        <v>0</v>
+      </c>
+      <c r="BH158">
+        <v>0</v>
+      </c>
+      <c r="BI158">
+        <v>1.25</v>
+      </c>
+      <c r="BJ158">
+        <v>3.14</v>
+      </c>
+      <c r="BK158">
+        <v>1.48</v>
+      </c>
+      <c r="BL158">
+        <v>2.33</v>
+      </c>
+      <c r="BM158">
+        <v>1.95</v>
+      </c>
+      <c r="BN158">
+        <v>1.77</v>
+      </c>
+      <c r="BO158">
+        <v>2.3</v>
+      </c>
+      <c r="BP158">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7476707</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F159">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s">
+        <v>87</v>
+      </c>
+      <c r="H159" t="s">
+        <v>78</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>3</v>
+      </c>
+      <c r="N159">
+        <v>4</v>
+      </c>
+      <c r="O159" t="s">
+        <v>199</v>
+      </c>
+      <c r="P159" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q159">
+        <v>3.4</v>
+      </c>
+      <c r="R159">
+        <v>2.2</v>
+      </c>
+      <c r="S159">
+        <v>3</v>
+      </c>
+      <c r="T159">
+        <v>1.4</v>
+      </c>
+      <c r="U159">
+        <v>2.75</v>
+      </c>
+      <c r="V159">
+        <v>2.75</v>
+      </c>
+      <c r="W159">
+        <v>1.4</v>
+      </c>
+      <c r="X159">
+        <v>8</v>
+      </c>
+      <c r="Y159">
+        <v>1.08</v>
+      </c>
+      <c r="Z159">
+        <v>2.75</v>
+      </c>
+      <c r="AA159">
+        <v>3.5</v>
+      </c>
+      <c r="AB159">
+        <v>2.37</v>
+      </c>
+      <c r="AC159">
+        <v>1.04</v>
+      </c>
+      <c r="AD159">
+        <v>13</v>
+      </c>
+      <c r="AE159">
+        <v>1.3</v>
+      </c>
+      <c r="AF159">
+        <v>3.6</v>
+      </c>
+      <c r="AG159">
+        <v>1.85</v>
+      </c>
+      <c r="AH159">
+        <v>1.83</v>
+      </c>
+      <c r="AI159">
+        <v>1.73</v>
+      </c>
+      <c r="AJ159">
+        <v>2</v>
+      </c>
+      <c r="AK159">
+        <v>1.57</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.45</v>
+      </c>
+      <c r="AN159">
+        <v>1.5</v>
+      </c>
+      <c r="AO159">
+        <v>1.17</v>
+      </c>
+      <c r="AP159">
+        <v>1.29</v>
+      </c>
+      <c r="AQ159">
+        <v>1.43</v>
+      </c>
+      <c r="AR159">
+        <v>1.15</v>
+      </c>
+      <c r="AS159">
+        <v>1.52</v>
+      </c>
+      <c r="AT159">
+        <v>2.67</v>
+      </c>
+      <c r="AU159">
+        <v>6</v>
+      </c>
+      <c r="AV159">
+        <v>6</v>
+      </c>
+      <c r="AW159">
+        <v>7</v>
+      </c>
+      <c r="AX159">
+        <v>5</v>
+      </c>
+      <c r="AY159">
+        <v>16</v>
+      </c>
+      <c r="AZ159">
+        <v>13</v>
+      </c>
+      <c r="BA159">
+        <v>2</v>
+      </c>
+      <c r="BB159">
+        <v>1</v>
+      </c>
+      <c r="BC159">
+        <v>3</v>
+      </c>
+      <c r="BD159">
+        <v>2</v>
+      </c>
+      <c r="BE159">
+        <v>7</v>
+      </c>
+      <c r="BF159">
+        <v>2</v>
+      </c>
+      <c r="BG159">
+        <v>1.2</v>
+      </c>
+      <c r="BH159">
+        <v>3.52</v>
+      </c>
+      <c r="BI159">
+        <v>1.42</v>
+      </c>
+      <c r="BJ159">
+        <v>2.49</v>
+      </c>
+      <c r="BK159">
+        <v>1.8</v>
+      </c>
+      <c r="BL159">
+        <v>2</v>
+      </c>
+      <c r="BM159">
+        <v>2.21</v>
+      </c>
+      <c r="BN159">
+        <v>1.53</v>
+      </c>
+      <c r="BO159">
+        <v>2.92</v>
+      </c>
+      <c r="BP159">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7477097</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>93</v>
+      </c>
+      <c r="H160" t="s">
+        <v>77</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>200</v>
+      </c>
+      <c r="P160" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q160">
+        <v>2.2</v>
+      </c>
+      <c r="R160">
+        <v>2.3</v>
+      </c>
+      <c r="S160">
+        <v>5.5</v>
+      </c>
+      <c r="T160">
+        <v>1.36</v>
+      </c>
+      <c r="U160">
+        <v>3</v>
+      </c>
+      <c r="V160">
+        <v>2.75</v>
+      </c>
+      <c r="W160">
+        <v>1.4</v>
+      </c>
+      <c r="X160">
+        <v>7</v>
+      </c>
+      <c r="Y160">
+        <v>1.1</v>
+      </c>
+      <c r="Z160">
+        <v>1.58</v>
+      </c>
+      <c r="AA160">
+        <v>4</v>
+      </c>
+      <c r="AB160">
+        <v>5.25</v>
+      </c>
+      <c r="AC160">
+        <v>1.02</v>
+      </c>
+      <c r="AD160">
+        <v>15</v>
+      </c>
+      <c r="AE160">
+        <v>1.18</v>
+      </c>
+      <c r="AF160">
+        <v>4.75</v>
+      </c>
+      <c r="AG160">
+        <v>1.8</v>
+      </c>
+      <c r="AH160">
+        <v>1.88</v>
+      </c>
+      <c r="AI160">
+        <v>1.83</v>
+      </c>
+      <c r="AJ160">
+        <v>1.83</v>
+      </c>
+      <c r="AK160">
+        <v>1.12</v>
+      </c>
+      <c r="AL160">
+        <v>1.17</v>
+      </c>
+      <c r="AM160">
+        <v>2.55</v>
+      </c>
+      <c r="AN160">
+        <v>1.67</v>
+      </c>
+      <c r="AO160">
+        <v>1</v>
+      </c>
+      <c r="AP160">
+        <v>1.86</v>
+      </c>
+      <c r="AQ160">
+        <v>0.86</v>
+      </c>
+      <c r="AR160">
+        <v>1.61</v>
+      </c>
+      <c r="AS160">
+        <v>1.1</v>
+      </c>
+      <c r="AT160">
+        <v>2.71</v>
+      </c>
+      <c r="AU160">
+        <v>8</v>
+      </c>
+      <c r="AV160">
+        <v>3</v>
+      </c>
+      <c r="AW160">
+        <v>8</v>
+      </c>
+      <c r="AX160">
+        <v>2</v>
+      </c>
+      <c r="AY160">
+        <v>25</v>
+      </c>
+      <c r="AZ160">
+        <v>6</v>
+      </c>
+      <c r="BA160">
+        <v>5</v>
+      </c>
+      <c r="BB160">
+        <v>3</v>
+      </c>
+      <c r="BC160">
+        <v>8</v>
+      </c>
+      <c r="BD160">
+        <v>1.26</v>
+      </c>
+      <c r="BE160">
+        <v>9</v>
+      </c>
+      <c r="BF160">
+        <v>4.7</v>
+      </c>
+      <c r="BG160">
+        <v>1.15</v>
+      </c>
+      <c r="BH160">
+        <v>4.7</v>
+      </c>
+      <c r="BI160">
+        <v>1.25</v>
+      </c>
+      <c r="BJ160">
+        <v>3.14</v>
+      </c>
+      <c r="BK160">
+        <v>1.47</v>
+      </c>
+      <c r="BL160">
+        <v>2.35</v>
+      </c>
+      <c r="BM160">
+        <v>1.85</v>
+      </c>
+      <c r="BN160">
+        <v>1.95</v>
+      </c>
+      <c r="BO160">
+        <v>2.28</v>
+      </c>
+      <c r="BP160">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7476709</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F161">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>89</v>
+      </c>
+      <c r="H161" t="s">
+        <v>75</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161" t="s">
+        <v>101</v>
+      </c>
+      <c r="P161" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q161">
+        <v>3.5</v>
+      </c>
+      <c r="R161">
+        <v>2.25</v>
+      </c>
+      <c r="S161">
+        <v>2.88</v>
+      </c>
+      <c r="T161">
+        <v>1.33</v>
+      </c>
+      <c r="U161">
+        <v>3.25</v>
+      </c>
+      <c r="V161">
+        <v>2.63</v>
+      </c>
+      <c r="W161">
+        <v>1.44</v>
+      </c>
+      <c r="X161">
+        <v>7</v>
+      </c>
+      <c r="Y161">
+        <v>1.1</v>
+      </c>
+      <c r="Z161">
+        <v>3.1</v>
+      </c>
+      <c r="AA161">
+        <v>3.4</v>
+      </c>
+      <c r="AB161">
+        <v>2.15</v>
+      </c>
+      <c r="AC161">
+        <v>1.03</v>
+      </c>
+      <c r="AD161">
+        <v>15</v>
+      </c>
+      <c r="AE161">
+        <v>1.22</v>
+      </c>
+      <c r="AF161">
+        <v>4.2</v>
+      </c>
+      <c r="AG161">
+        <v>1.72</v>
+      </c>
+      <c r="AH161">
+        <v>1.98</v>
+      </c>
+      <c r="AI161">
+        <v>1.62</v>
+      </c>
+      <c r="AJ161">
+        <v>2.2</v>
+      </c>
+      <c r="AK161">
+        <v>1.83</v>
+      </c>
+      <c r="AL161">
+        <v>1.22</v>
+      </c>
+      <c r="AM161">
+        <v>1.3</v>
+      </c>
+      <c r="AN161">
+        <v>2</v>
+      </c>
+      <c r="AO161">
+        <v>1.67</v>
+      </c>
+      <c r="AP161">
+        <v>1.86</v>
+      </c>
+      <c r="AQ161">
+        <v>1.57</v>
+      </c>
+      <c r="AR161">
+        <v>1.14</v>
+      </c>
+      <c r="AS161">
+        <v>1.18</v>
+      </c>
+      <c r="AT161">
+        <v>2.32</v>
+      </c>
+      <c r="AU161">
+        <v>4</v>
+      </c>
+      <c r="AV161">
+        <v>4</v>
+      </c>
+      <c r="AW161">
+        <v>3</v>
+      </c>
+      <c r="AX161">
+        <v>8</v>
+      </c>
+      <c r="AY161">
+        <v>11</v>
+      </c>
+      <c r="AZ161">
+        <v>15</v>
+      </c>
+      <c r="BA161">
+        <v>6</v>
+      </c>
+      <c r="BB161">
+        <v>4</v>
+      </c>
+      <c r="BC161">
+        <v>10</v>
+      </c>
+      <c r="BD161">
+        <v>2.33</v>
+      </c>
+      <c r="BE161">
+        <v>7.5</v>
+      </c>
+      <c r="BF161">
+        <v>1.85</v>
+      </c>
+      <c r="BG161">
+        <v>1.23</v>
+      </c>
+      <c r="BH161">
+        <v>3.7</v>
+      </c>
+      <c r="BI161">
+        <v>1.33</v>
+      </c>
+      <c r="BJ161">
+        <v>2.73</v>
+      </c>
+      <c r="BK161">
+        <v>1.77</v>
+      </c>
+      <c r="BL161">
+        <v>1.95</v>
+      </c>
+      <c r="BM161">
+        <v>2</v>
+      </c>
+      <c r="BN161">
+        <v>1.8</v>
+      </c>
+      <c r="BO161">
+        <v>2.62</v>
+      </c>
+      <c r="BP161">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7476710</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>90</v>
+      </c>
+      <c r="H162" t="s">
+        <v>71</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>3</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>5</v>
+      </c>
+      <c r="O162" t="s">
+        <v>201</v>
+      </c>
+      <c r="P162" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q162">
+        <v>3</v>
+      </c>
+      <c r="R162">
+        <v>2.05</v>
+      </c>
+      <c r="S162">
+        <v>3.75</v>
+      </c>
+      <c r="T162">
+        <v>1.44</v>
+      </c>
+      <c r="U162">
+        <v>2.63</v>
+      </c>
+      <c r="V162">
+        <v>3.25</v>
+      </c>
+      <c r="W162">
+        <v>1.33</v>
+      </c>
+      <c r="X162">
+        <v>10</v>
+      </c>
+      <c r="Y162">
+        <v>1.06</v>
+      </c>
+      <c r="Z162">
+        <v>2.2</v>
+      </c>
+      <c r="AA162">
+        <v>3.4</v>
+      </c>
+      <c r="AB162">
+        <v>3.1</v>
+      </c>
+      <c r="AC162">
+        <v>1.07</v>
+      </c>
+      <c r="AD162">
+        <v>9</v>
+      </c>
+      <c r="AE162">
+        <v>1.4</v>
+      </c>
+      <c r="AF162">
+        <v>2.95</v>
+      </c>
+      <c r="AG162">
+        <v>2.05</v>
+      </c>
+      <c r="AH162">
+        <v>1.66</v>
+      </c>
+      <c r="AI162">
+        <v>1.83</v>
+      </c>
+      <c r="AJ162">
+        <v>1.83</v>
+      </c>
+      <c r="AK162">
+        <v>1.3</v>
+      </c>
+      <c r="AL162">
+        <v>1.25</v>
+      </c>
+      <c r="AM162">
+        <v>1.72</v>
+      </c>
+      <c r="AN162">
+        <v>1.83</v>
+      </c>
+      <c r="AO162">
+        <v>0.8</v>
+      </c>
+      <c r="AP162">
+        <v>2</v>
+      </c>
+      <c r="AQ162">
+        <v>0.67</v>
+      </c>
+      <c r="AR162">
+        <v>1.41</v>
+      </c>
+      <c r="AS162">
+        <v>1.08</v>
+      </c>
+      <c r="AT162">
+        <v>2.49</v>
+      </c>
+      <c r="AU162">
+        <v>5</v>
+      </c>
+      <c r="AV162">
+        <v>5</v>
+      </c>
+      <c r="AW162">
+        <v>4</v>
+      </c>
+      <c r="AX162">
+        <v>6</v>
+      </c>
+      <c r="AY162">
+        <v>11</v>
+      </c>
+      <c r="AZ162">
+        <v>14</v>
+      </c>
+      <c r="BA162">
+        <v>2</v>
+      </c>
+      <c r="BB162">
+        <v>6</v>
+      </c>
+      <c r="BC162">
+        <v>8</v>
+      </c>
+      <c r="BD162">
+        <v>1.64</v>
+      </c>
+      <c r="BE162">
+        <v>7</v>
+      </c>
+      <c r="BF162">
+        <v>2.8</v>
+      </c>
+      <c r="BG162">
+        <v>1.17</v>
+      </c>
+      <c r="BH162">
+        <v>3.82</v>
+      </c>
+      <c r="BI162">
+        <v>1.36</v>
+      </c>
+      <c r="BJ162">
+        <v>2.7</v>
+      </c>
+      <c r="BK162">
+        <v>1.7</v>
+      </c>
+      <c r="BL162">
+        <v>2.05</v>
+      </c>
+      <c r="BM162">
+        <v>2.07</v>
+      </c>
+      <c r="BN162">
+        <v>1.61</v>
+      </c>
+      <c r="BO162">
+        <v>2.69</v>
+      </c>
+      <c r="BP162">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7476711</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>91</v>
+      </c>
+      <c r="H163" t="s">
+        <v>76</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>202</v>
+      </c>
+      <c r="P163" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q163">
+        <v>3.1</v>
+      </c>
+      <c r="R163">
+        <v>2.05</v>
+      </c>
+      <c r="S163">
+        <v>3.6</v>
+      </c>
+      <c r="T163">
+        <v>1.44</v>
+      </c>
+      <c r="U163">
+        <v>2.63</v>
+      </c>
+      <c r="V163">
+        <v>3.25</v>
+      </c>
+      <c r="W163">
+        <v>1.33</v>
+      </c>
+      <c r="X163">
+        <v>10</v>
+      </c>
+      <c r="Y163">
+        <v>1.06</v>
+      </c>
+      <c r="Z163">
+        <v>2.37</v>
+      </c>
+      <c r="AA163">
+        <v>3.3</v>
+      </c>
+      <c r="AB163">
+        <v>2.8</v>
+      </c>
+      <c r="AC163">
+        <v>1.05</v>
+      </c>
+      <c r="AD163">
+        <v>10</v>
+      </c>
+      <c r="AE163">
+        <v>1.33</v>
+      </c>
+      <c r="AF163">
+        <v>3.25</v>
+      </c>
+      <c r="AG163">
+        <v>2.1</v>
+      </c>
+      <c r="AH163">
+        <v>1.65</v>
+      </c>
+      <c r="AI163">
+        <v>1.91</v>
+      </c>
+      <c r="AJ163">
+        <v>1.8</v>
+      </c>
+      <c r="AK163">
+        <v>1.36</v>
+      </c>
+      <c r="AL163">
+        <v>1.25</v>
+      </c>
+      <c r="AM163">
+        <v>1.68</v>
+      </c>
+      <c r="AN163">
+        <v>0.67</v>
+      </c>
+      <c r="AO163">
+        <v>1.17</v>
+      </c>
+      <c r="AP163">
+        <v>0.71</v>
+      </c>
+      <c r="AQ163">
+        <v>1.14</v>
+      </c>
+      <c r="AR163">
+        <v>1.33</v>
+      </c>
+      <c r="AS163">
+        <v>0.95</v>
+      </c>
+      <c r="AT163">
+        <v>2.28</v>
+      </c>
+      <c r="AU163">
+        <v>2</v>
+      </c>
+      <c r="AV163">
+        <v>4</v>
+      </c>
+      <c r="AW163">
+        <v>4</v>
+      </c>
+      <c r="AX163">
+        <v>6</v>
+      </c>
+      <c r="AY163">
+        <v>9</v>
+      </c>
+      <c r="AZ163">
+        <v>14</v>
+      </c>
+      <c r="BA163">
+        <v>3</v>
+      </c>
+      <c r="BB163">
+        <v>3</v>
+      </c>
+      <c r="BC163">
+        <v>6</v>
+      </c>
+      <c r="BD163">
+        <v>1.75</v>
+      </c>
+      <c r="BE163">
+        <v>7.5</v>
+      </c>
+      <c r="BF163">
+        <v>2.45</v>
+      </c>
+      <c r="BG163">
+        <v>0</v>
+      </c>
+      <c r="BH163">
+        <v>0</v>
+      </c>
+      <c r="BI163">
+        <v>1.31</v>
+      </c>
+      <c r="BJ163">
+        <v>2.82</v>
+      </c>
+      <c r="BK163">
+        <v>1.58</v>
+      </c>
+      <c r="BL163">
+        <v>2.12</v>
+      </c>
+      <c r="BM163">
+        <v>2</v>
+      </c>
+      <c r="BN163">
+        <v>1.72</v>
+      </c>
+      <c r="BO163">
+        <v>2.56</v>
+      </c>
+      <c r="BP163">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -32347,7 +32347,7 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45591.35416666666</v>
+        <v>45590.875</v>
       </c>
       <c r="F152">
         <v>14</v>
@@ -32553,7 +32553,7 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45591.35416666666</v>
+        <v>45590.875</v>
       </c>
       <c r="F153">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -32347,10 +32347,10 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45590.875</v>
+        <v>45591.35416666666</v>
       </c>
       <c r="F152">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G152" t="s">
         <v>88</v>
@@ -32553,10 +32553,10 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45590.875</v>
+        <v>45591.35416666666</v>
       </c>
       <c r="F153">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G153" t="s">
         <v>85</v>
@@ -33174,7 +33174,7 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F156">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
         <v>83</v>
@@ -33998,7 +33998,7 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G160" t="s">
         <v>93</v>
@@ -34410,7 +34410,7 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G162" t="s">
         <v>90</v>
@@ -34616,7 +34616,7 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G163" t="s">
         <v>91</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['33', '62']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -860,6 +863,9 @@
   </si>
   <si>
     <t>['61', '78']</t>
+  </si>
+  <si>
+    <t>['18', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1686,7 +1692,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -2098,7 +2104,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2304,7 +2310,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2588,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7">
         <v>1.71</v>
@@ -2716,7 +2722,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2922,7 +2928,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3128,7 +3134,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3334,7 +3340,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4364,7 +4370,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4776,7 +4782,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4982,7 +4988,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5188,7 +5194,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5806,7 +5812,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6093,7 +6099,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6218,7 +6224,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6424,7 +6430,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -7248,7 +7254,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7738,7 +7744,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ32">
         <v>1.14</v>
@@ -7866,7 +7872,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7947,7 +7953,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ33">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -8278,7 +8284,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8690,7 +8696,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8896,7 +8902,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9308,7 +9314,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9514,7 +9520,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9720,7 +9726,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9926,7 +9932,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10132,7 +10138,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10338,7 +10344,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10544,7 +10550,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10956,7 +10962,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11368,7 +11374,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11574,7 +11580,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11986,7 +11992,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -14046,7 +14052,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14252,7 +14258,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14664,7 +14670,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -15076,7 +15082,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15282,7 +15288,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15488,7 +15494,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15694,7 +15700,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15900,7 +15906,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16106,7 +16112,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16312,7 +16318,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16518,7 +16524,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16724,7 +16730,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -17136,7 +17142,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -18166,7 +18172,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18244,7 +18250,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ83">
         <v>0.57</v>
@@ -18453,7 +18459,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR84">
         <v>0.73</v>
@@ -18990,7 +18996,7 @@
         <v>122</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19196,7 +19202,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
@@ -19402,7 +19408,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19814,7 +19820,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -20020,7 +20026,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20226,7 +20232,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20638,7 +20644,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20844,7 +20850,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -21050,7 +21056,7 @@
         <v>163</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>2.75</v>
@@ -21337,7 +21343,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ98">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR98">
         <v>0.92</v>
@@ -21462,7 +21468,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21668,7 +21674,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -22080,7 +22086,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22286,7 +22292,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22492,7 +22498,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22904,7 +22910,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23188,7 +23194,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ107">
         <v>1.33</v>
@@ -24346,7 +24352,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24552,7 +24558,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24758,7 +24764,7 @@
         <v>174</v>
       </c>
       <c r="P115" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -25170,7 +25176,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25376,7 +25382,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25582,7 +25588,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25788,7 +25794,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -25994,7 +26000,7 @@
         <v>101</v>
       </c>
       <c r="P121" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q121">
         <v>2.75</v>
@@ -26406,7 +26412,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26612,7 +26618,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26818,7 +26824,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -27230,7 +27236,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27436,7 +27442,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27848,7 +27854,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q130">
         <v>2.63</v>
@@ -28054,7 +28060,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28260,7 +28266,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q132">
         <v>3.6</v>
@@ -28466,7 +28472,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28672,7 +28678,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28753,7 +28759,7 @@
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -29084,7 +29090,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29290,7 +29296,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29702,7 +29708,7 @@
         <v>147</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29908,7 +29914,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -30114,7 +30120,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q141">
         <v>3.1</v>
@@ -30526,7 +30532,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30732,7 +30738,7 @@
         <v>101</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -31016,7 +31022,7 @@
         <v>1.4</v>
       </c>
       <c r="AP145">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ145">
         <v>1.67</v>
@@ -31350,7 +31356,7 @@
         <v>101</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -32174,7 +32180,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q151">
         <v>2.4</v>
@@ -32380,7 +32386,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32586,7 +32592,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -32667,7 +32673,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ153">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR153">
         <v>1.74</v>
@@ -32998,7 +33004,7 @@
         <v>196</v>
       </c>
       <c r="P155" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33822,7 +33828,7 @@
         <v>199</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q159">
         <v>3.4</v>
@@ -34440,7 +34446,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -34803,6 +34809,212 @@
       </c>
       <c r="BP163">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7476595</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45594.69791666666</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>75</v>
+      </c>
+      <c r="H164" t="s">
+        <v>79</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164" t="s">
+        <v>203</v>
+      </c>
+      <c r="P164" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q164">
+        <v>2.4</v>
+      </c>
+      <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>4.33</v>
+      </c>
+      <c r="T164">
+        <v>1.42</v>
+      </c>
+      <c r="U164">
+        <v>2.65</v>
+      </c>
+      <c r="V164">
+        <v>3</v>
+      </c>
+      <c r="W164">
+        <v>1.33</v>
+      </c>
+      <c r="X164">
+        <v>8.5</v>
+      </c>
+      <c r="Y164">
+        <v>1.05</v>
+      </c>
+      <c r="Z164">
+        <v>2</v>
+      </c>
+      <c r="AA164">
+        <v>3.45</v>
+      </c>
+      <c r="AB164">
+        <v>3.4</v>
+      </c>
+      <c r="AC164">
+        <v>1.06</v>
+      </c>
+      <c r="AD164">
+        <v>8.5</v>
+      </c>
+      <c r="AE164">
+        <v>1.42</v>
+      </c>
+      <c r="AF164">
+        <v>2.85</v>
+      </c>
+      <c r="AG164">
+        <v>2.2</v>
+      </c>
+      <c r="AH164">
+        <v>1.61</v>
+      </c>
+      <c r="AI164">
+        <v>2.05</v>
+      </c>
+      <c r="AJ164">
+        <v>1.67</v>
+      </c>
+      <c r="AK164">
+        <v>1.22</v>
+      </c>
+      <c r="AL164">
+        <v>1.22</v>
+      </c>
+      <c r="AM164">
+        <v>1.91</v>
+      </c>
+      <c r="AN164">
+        <v>1.2</v>
+      </c>
+      <c r="AO164">
+        <v>1.17</v>
+      </c>
+      <c r="AP164">
+        <v>1.17</v>
+      </c>
+      <c r="AQ164">
+        <v>1.14</v>
+      </c>
+      <c r="AR164">
+        <v>1.63</v>
+      </c>
+      <c r="AS164">
+        <v>1.15</v>
+      </c>
+      <c r="AT164">
+        <v>2.78</v>
+      </c>
+      <c r="AU164">
+        <v>5</v>
+      </c>
+      <c r="AV164">
+        <v>4</v>
+      </c>
+      <c r="AW164">
+        <v>4</v>
+      </c>
+      <c r="AX164">
+        <v>3</v>
+      </c>
+      <c r="AY164">
+        <v>19</v>
+      </c>
+      <c r="AZ164">
+        <v>12</v>
+      </c>
+      <c r="BA164">
+        <v>2</v>
+      </c>
+      <c r="BB164">
+        <v>2</v>
+      </c>
+      <c r="BC164">
+        <v>4</v>
+      </c>
+      <c r="BD164">
+        <v>1.73</v>
+      </c>
+      <c r="BE164">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF164">
+        <v>2.48</v>
+      </c>
+      <c r="BG164">
+        <v>1.22</v>
+      </c>
+      <c r="BH164">
+        <v>3.8</v>
+      </c>
+      <c r="BI164">
+        <v>1.31</v>
+      </c>
+      <c r="BJ164">
+        <v>2.82</v>
+      </c>
+      <c r="BK164">
+        <v>1.66</v>
+      </c>
+      <c r="BL164">
+        <v>2.19</v>
+      </c>
+      <c r="BM164">
+        <v>2.05</v>
+      </c>
+      <c r="BN164">
+        <v>1.7</v>
+      </c>
+      <c r="BO164">
+        <v>2.54</v>
+      </c>
+      <c r="BP164">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -625,7 +625,7 @@
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['33', '62']</t>
+    <t>['33', '61']</t>
   </si>
   <si>
     <t>['1', '9']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -565,13 +565,13 @@
     <t>['75']</t>
   </si>
   <si>
-    <t>['87']</t>
+    <t>['26']</t>
   </si>
   <si>
     <t>['44']</t>
   </si>
   <si>
-    <t>['26']</t>
+    <t>['87']</t>
   </si>
   <si>
     <t>['67']</t>
@@ -586,10 +586,10 @@
     <t>['2', '49', '56']</t>
   </si>
   <si>
-    <t>['3', '69']</t>
+    <t>['1', '58']</t>
   </si>
   <si>
-    <t>['1', '58']</t>
+    <t>['3', '69']</t>
   </si>
   <si>
     <t>['52', '66', '70']</t>
@@ -604,25 +604,25 @@
     <t>['70']</t>
   </si>
   <si>
-    <t>['83']</t>
+    <t>['90+3']</t>
   </si>
   <si>
-    <t>['90+1']</t>
+    <t>['9', '11', '62']</t>
+  </si>
+  <si>
+    <t>['16']</t>
   </si>
   <si>
     <t>['39', '54', '84']</t>
   </si>
   <si>
-    <t>['16']</t>
+    <t>['83']</t>
   </si>
   <si>
     <t>['58']</t>
   </si>
   <si>
-    <t>['9', '11', '62']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
+    <t>['90+1']</t>
   </si>
   <si>
     <t>['33', '61']</t>
@@ -826,25 +826,25 @@
     <t>['58', '90+4']</t>
   </si>
   <si>
-    <t>['56', '69', '74', '90+1']</t>
+    <t>['12']</t>
   </si>
   <si>
     <t>['2', '22', '49']</t>
   </si>
   <si>
-    <t>['12']</t>
+    <t>['56', '69', '74', '90+1']</t>
+  </si>
+  <si>
+    <t>['5', '45+2']</t>
   </si>
   <si>
     <t>['75', '80']</t>
   </si>
   <si>
-    <t>['5', '45+2']</t>
+    <t>['59']</t>
   </si>
   <si>
     <t>['16', '33']</t>
-  </si>
-  <si>
-    <t>['59']</t>
   </si>
   <si>
     <t>['6']</t>
@@ -856,13 +856,13 @@
     <t>['61', '76']</t>
   </si>
   <si>
-    <t>['57', '66']</t>
+    <t>['61', '78']</t>
   </si>
   <si>
     <t>['49', '53', '90+5']</t>
   </si>
   <si>
-    <t>['61', '78']</t>
+    <t>['57', '66']</t>
   </si>
   <si>
     <t>['18', '90+8']</t>
@@ -12816,7 +12816,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>2.3</v>
@@ -23734,7 +23734,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -28224,7 +28224,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7476683</v>
+        <v>7476682</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28239,28 +28239,28 @@
         <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H132" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L132">
         <v>1</v>
       </c>
       <c r="M132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N132">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O132" t="s">
         <v>183</v>
@@ -28269,121 +28269,121 @@
         <v>270</v>
       </c>
       <c r="Q132">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="R132">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S132">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="T132">
+        <v>1.44</v>
+      </c>
+      <c r="U132">
+        <v>2.63</v>
+      </c>
+      <c r="V132">
+        <v>3.25</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
+        <v>9</v>
+      </c>
+      <c r="Y132">
+        <v>1.07</v>
+      </c>
+      <c r="Z132">
+        <v>2.25</v>
+      </c>
+      <c r="AA132">
+        <v>3.3</v>
+      </c>
+      <c r="AB132">
+        <v>3.1</v>
+      </c>
+      <c r="AC132">
+        <v>1.06</v>
+      </c>
+      <c r="AD132">
+        <v>10</v>
+      </c>
+      <c r="AE132">
         <v>1.36</v>
       </c>
-      <c r="U132">
-        <v>3</v>
-      </c>
-      <c r="V132">
-        <v>2.75</v>
-      </c>
-      <c r="W132">
-        <v>1.4</v>
-      </c>
-      <c r="X132">
-        <v>7</v>
-      </c>
-      <c r="Y132">
-        <v>1.1</v>
-      </c>
-      <c r="Z132">
-        <v>3.1</v>
-      </c>
-      <c r="AA132">
-        <v>3.6</v>
-      </c>
-      <c r="AB132">
-        <v>2.15</v>
-      </c>
-      <c r="AC132">
-        <v>1.04</v>
-      </c>
-      <c r="AD132">
-        <v>12</v>
-      </c>
-      <c r="AE132">
-        <v>1.28</v>
-      </c>
       <c r="AF132">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AG132">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AH132">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AI132">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AJ132">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AK132">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="AL132">
         <v>1.25</v>
       </c>
       <c r="AM132">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="AN132">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO132">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="AP132">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AQ132">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AR132">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AS132">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="AT132">
-        <v>2.48</v>
+        <v>2.21</v>
       </c>
       <c r="AU132">
+        <v>4</v>
+      </c>
+      <c r="AV132">
         <v>6</v>
       </c>
-      <c r="AV132">
-        <v>5</v>
-      </c>
       <c r="AW132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY132">
         <v>9</v>
       </c>
       <c r="AZ132">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA132">
+        <v>8</v>
+      </c>
+      <c r="BB132">
         <v>4</v>
       </c>
-      <c r="BB132">
-        <v>6</v>
-      </c>
       <c r="BC132">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD132">
         <v>0</v>
@@ -28407,7 +28407,7 @@
         <v>0</v>
       </c>
       <c r="BK132">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="BL132">
         <v>0</v>
@@ -28636,7 +28636,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7476682</v>
+        <v>7476683</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28651,28 +28651,28 @@
         <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H134" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L134">
         <v>1</v>
       </c>
       <c r="M134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O134" t="s">
         <v>185</v>
@@ -28681,121 +28681,121 @@
         <v>272</v>
       </c>
       <c r="Q134">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S134">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="T134">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U134">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V134">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W134">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X134">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y134">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z134">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="AA134">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AB134">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="AC134">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AD134">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE134">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AF134">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AG134">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AH134">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AI134">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AJ134">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AK134">
-        <v>1.36</v>
+        <v>1.72</v>
       </c>
       <c r="AL134">
         <v>1.25</v>
       </c>
       <c r="AM134">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="AN134">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO134">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AQ134">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AR134">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AS134">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="AT134">
-        <v>2.21</v>
+        <v>2.48</v>
       </c>
       <c r="AU134">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY134">
         <v>9</v>
       </c>
       <c r="AZ134">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA134">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB134">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC134">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD134">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="BK134">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="BL134">
         <v>0</v>
@@ -28842,7 +28842,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7476686</v>
+        <v>7476681</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28854,154 +28854,154 @@
         <v>45584.45833333334</v>
       </c>
       <c r="F135">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H135" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L135">
         <v>1</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O135" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>101</v>
+        <v>273</v>
       </c>
       <c r="Q135">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="R135">
         <v>2.2</v>
       </c>
       <c r="S135">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="T135">
+        <v>1.4</v>
+      </c>
+      <c r="U135">
+        <v>2.75</v>
+      </c>
+      <c r="V135">
+        <v>3</v>
+      </c>
+      <c r="W135">
         <v>1.36</v>
       </c>
-      <c r="U135">
-        <v>3</v>
-      </c>
-      <c r="V135">
-        <v>2.63</v>
-      </c>
-      <c r="W135">
-        <v>1.44</v>
-      </c>
       <c r="X135">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y135">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z135">
-        <v>2.37</v>
+        <v>1.91</v>
       </c>
       <c r="AA135">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AB135">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="AC135">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD135">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE135">
+        <v>1.33</v>
+      </c>
+      <c r="AF135">
+        <v>3.25</v>
+      </c>
+      <c r="AG135">
+        <v>1.95</v>
+      </c>
+      <c r="AH135">
+        <v>1.75</v>
+      </c>
+      <c r="AI135">
+        <v>1.83</v>
+      </c>
+      <c r="AJ135">
+        <v>1.83</v>
+      </c>
+      <c r="AK135">
         <v>1.22</v>
-      </c>
-      <c r="AF135">
-        <v>4.2</v>
-      </c>
-      <c r="AG135">
-        <v>1.7</v>
-      </c>
-      <c r="AH135">
-        <v>2</v>
-      </c>
-      <c r="AI135">
-        <v>1.62</v>
-      </c>
-      <c r="AJ135">
-        <v>2.2</v>
-      </c>
-      <c r="AK135">
-        <v>1.47</v>
       </c>
       <c r="AL135">
         <v>1.25</v>
       </c>
       <c r="AM135">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="AN135">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AO135">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AP135">
-        <v>1.86</v>
+        <v>1.14</v>
       </c>
       <c r="AQ135">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR135">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AS135">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AT135">
-        <v>2.59</v>
+        <v>2.84</v>
       </c>
       <c r="AU135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV135">
+        <v>5</v>
+      </c>
+      <c r="AW135">
         <v>9</v>
       </c>
-      <c r="AW135">
-        <v>6</v>
-      </c>
       <c r="AX135">
+        <v>2</v>
+      </c>
+      <c r="AY135">
+        <v>22</v>
+      </c>
+      <c r="AZ135">
         <v>7</v>
       </c>
-      <c r="AY135">
-        <v>13</v>
-      </c>
-      <c r="AZ135">
-        <v>17</v>
-      </c>
       <c r="BA135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC135">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BD135">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="BK135">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="BL135">
         <v>0</v>
@@ -29048,7 +29048,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7476680</v>
+        <v>7476686</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -29063,151 +29063,151 @@
         <v>12</v>
       </c>
       <c r="G136" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H136" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
       <c r="M136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O136" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>101</v>
       </c>
       <c r="Q136">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R136">
         <v>2.2</v>
       </c>
       <c r="S136">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="T136">
+        <v>1.36</v>
+      </c>
+      <c r="U136">
+        <v>3</v>
+      </c>
+      <c r="V136">
+        <v>2.63</v>
+      </c>
+      <c r="W136">
+        <v>1.44</v>
+      </c>
+      <c r="X136">
+        <v>7</v>
+      </c>
+      <c r="Y136">
+        <v>1.1</v>
+      </c>
+      <c r="Z136">
+        <v>2.37</v>
+      </c>
+      <c r="AA136">
+        <v>3.7</v>
+      </c>
+      <c r="AB136">
+        <v>2.7</v>
+      </c>
+      <c r="AC136">
+        <v>1.03</v>
+      </c>
+      <c r="AD136">
+        <v>13</v>
+      </c>
+      <c r="AE136">
+        <v>1.22</v>
+      </c>
+      <c r="AF136">
+        <v>4.2</v>
+      </c>
+      <c r="AG136">
+        <v>1.7</v>
+      </c>
+      <c r="AH136">
+        <v>2</v>
+      </c>
+      <c r="AI136">
+        <v>1.62</v>
+      </c>
+      <c r="AJ136">
+        <v>2.2</v>
+      </c>
+      <c r="AK136">
+        <v>1.47</v>
+      </c>
+      <c r="AL136">
+        <v>1.25</v>
+      </c>
+      <c r="AM136">
+        <v>1.55</v>
+      </c>
+      <c r="AN136">
         <v>1.4</v>
       </c>
-      <c r="U136">
-        <v>2.75</v>
-      </c>
-      <c r="V136">
-        <v>2.75</v>
-      </c>
-      <c r="W136">
-        <v>1.4</v>
-      </c>
-      <c r="X136">
-        <v>8</v>
-      </c>
-      <c r="Y136">
-        <v>1.08</v>
-      </c>
-      <c r="Z136">
-        <v>1.95</v>
-      </c>
-      <c r="AA136">
-        <v>3.5</v>
-      </c>
-      <c r="AB136">
-        <v>3.7</v>
-      </c>
-      <c r="AC136">
-        <v>1.04</v>
-      </c>
-      <c r="AD136">
-        <v>12</v>
-      </c>
-      <c r="AE136">
-        <v>1.3</v>
-      </c>
-      <c r="AF136">
-        <v>3.4</v>
-      </c>
-      <c r="AG136">
-        <v>1.91</v>
-      </c>
-      <c r="AH136">
-        <v>1.8</v>
-      </c>
-      <c r="AI136">
-        <v>1.8</v>
-      </c>
-      <c r="AJ136">
-        <v>1.91</v>
-      </c>
-      <c r="AK136">
-        <v>1.3</v>
-      </c>
-      <c r="AL136">
-        <v>1.22</v>
-      </c>
-      <c r="AM136">
-        <v>1.83</v>
-      </c>
-      <c r="AN136">
-        <v>0.6</v>
-      </c>
       <c r="AO136">
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>0.57</v>
+        <v>1.86</v>
       </c>
       <c r="AQ136">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AR136">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AS136">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AT136">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="AU136">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV136">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AW136">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX136">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY136">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AZ136">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BA136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB136">
         <v>1</v>
       </c>
       <c r="BC136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD136">
         <v>0</v>
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="BK136">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL136">
         <v>0</v>
@@ -29296,7 +29296,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29666,7 +29666,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7476681</v>
+        <v>7476680</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29678,40 +29678,40 @@
         <v>45584.45833333334</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H139" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L139">
         <v>1</v>
       </c>
       <c r="M139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O139" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="Q139">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R139">
         <v>2.2</v>
@@ -29726,10 +29726,10 @@
         <v>2.75</v>
       </c>
       <c r="V139">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W139">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X139">
         <v>8</v>
@@ -29738,73 +29738,73 @@
         <v>1.08</v>
       </c>
       <c r="Z139">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA139">
         <v>3.5</v>
       </c>
       <c r="AB139">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AC139">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD139">
+        <v>12</v>
+      </c>
+      <c r="AE139">
+        <v>1.3</v>
+      </c>
+      <c r="AF139">
+        <v>3.4</v>
+      </c>
+      <c r="AG139">
+        <v>1.91</v>
+      </c>
+      <c r="AH139">
+        <v>1.8</v>
+      </c>
+      <c r="AI139">
+        <v>1.8</v>
+      </c>
+      <c r="AJ139">
+        <v>1.91</v>
+      </c>
+      <c r="AK139">
+        <v>1.3</v>
+      </c>
+      <c r="AL139">
+        <v>1.22</v>
+      </c>
+      <c r="AM139">
+        <v>1.83</v>
+      </c>
+      <c r="AN139">
+        <v>0.6</v>
+      </c>
+      <c r="AO139">
+        <v>1</v>
+      </c>
+      <c r="AP139">
+        <v>0.57</v>
+      </c>
+      <c r="AQ139">
+        <v>0.86</v>
+      </c>
+      <c r="AR139">
+        <v>1.5</v>
+      </c>
+      <c r="AS139">
+        <v>1.18</v>
+      </c>
+      <c r="AT139">
+        <v>2.68</v>
+      </c>
+      <c r="AU139">
         <v>10</v>
       </c>
-      <c r="AE139">
-        <v>1.33</v>
-      </c>
-      <c r="AF139">
-        <v>3.25</v>
-      </c>
-      <c r="AG139">
-        <v>1.95</v>
-      </c>
-      <c r="AH139">
-        <v>1.75</v>
-      </c>
-      <c r="AI139">
-        <v>1.83</v>
-      </c>
-      <c r="AJ139">
-        <v>1.83</v>
-      </c>
-      <c r="AK139">
-        <v>1.22</v>
-      </c>
-      <c r="AL139">
-        <v>1.25</v>
-      </c>
-      <c r="AM139">
-        <v>1.9</v>
-      </c>
-      <c r="AN139">
-        <v>1.6</v>
-      </c>
-      <c r="AO139">
-        <v>0.2</v>
-      </c>
-      <c r="AP139">
-        <v>1.14</v>
-      </c>
-      <c r="AQ139">
-        <v>1</v>
-      </c>
-      <c r="AR139">
-        <v>1.78</v>
-      </c>
-      <c r="AS139">
-        <v>1.06</v>
-      </c>
-      <c r="AT139">
-        <v>2.84</v>
-      </c>
-      <c r="AU139">
-        <v>5</v>
-      </c>
       <c r="AV139">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW139">
         <v>9</v>
@@ -29813,19 +29813,19 @@
         <v>2</v>
       </c>
       <c r="AY139">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ139">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA139">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC139">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BD139">
         <v>0</v>
@@ -29849,7 +29849,7 @@
         <v>0</v>
       </c>
       <c r="BK139">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BL139">
         <v>0</v>
@@ -30078,7 +30078,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7476698</v>
+        <v>7476699</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30093,43 +30093,43 @@
         <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H141" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M141">
         <v>1</v>
       </c>
       <c r="N141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O141" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="Q141">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R141">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S141">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T141">
         <v>1.44</v>
@@ -30144,37 +30144,37 @@
         <v>1.33</v>
       </c>
       <c r="X141">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y141">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z141">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AA141">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AB141">
-        <v>2.74</v>
+        <v>3.63</v>
       </c>
       <c r="AC141">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD141">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE141">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF141">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AG141">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AH141">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AI141">
         <v>1.83</v>
@@ -30183,34 +30183,34 @@
         <v>1.83</v>
       </c>
       <c r="AK141">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AL141">
         <v>1.28</v>
       </c>
       <c r="AM141">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="AN141">
+        <v>1.2</v>
+      </c>
+      <c r="AO141">
         <v>1.5</v>
       </c>
-      <c r="AO141">
-        <v>1.17</v>
-      </c>
       <c r="AP141">
+        <v>1</v>
+      </c>
+      <c r="AQ141">
         <v>1.71</v>
       </c>
-      <c r="AQ141">
-        <v>1</v>
-      </c>
       <c r="AR141">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AS141">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AT141">
-        <v>2.51</v>
+        <v>2.31</v>
       </c>
       <c r="AU141">
         <v>5</v>
@@ -30219,64 +30219,64 @@
         <v>3</v>
       </c>
       <c r="AW141">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX141">
+        <v>7</v>
+      </c>
+      <c r="AY141">
+        <v>20</v>
+      </c>
+      <c r="AZ141">
+        <v>11</v>
+      </c>
+      <c r="BA141">
         <v>4</v>
       </c>
-      <c r="AY141">
-        <v>17</v>
-      </c>
-      <c r="AZ141">
-        <v>7</v>
-      </c>
-      <c r="BA141">
+      <c r="BB141">
+        <v>2</v>
+      </c>
+      <c r="BC141">
         <v>6</v>
       </c>
-      <c r="BB141">
-        <v>1</v>
-      </c>
-      <c r="BC141">
-        <v>7</v>
-      </c>
       <c r="BD141">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="BE141">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="BF141">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="BG141">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="BH141">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="BI141">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="BJ141">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BK141">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="BL141">
-        <v>2.15</v>
+        <v>2.48</v>
       </c>
       <c r="BM141">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="BN141">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="BO141">
-        <v>2.78</v>
+        <v>2.32</v>
       </c>
       <c r="BP141">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -30323,7 +30323,7 @@
         <v>3</v>
       </c>
       <c r="O142" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P142" t="s">
         <v>186</v>
@@ -30738,7 +30738,7 @@
         <v>101</v>
       </c>
       <c r="P144" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30944,7 +30944,7 @@
         <v>101</v>
       </c>
       <c r="P145" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q145">
         <v>2.6</v>
@@ -31314,7 +31314,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7476699</v>
+        <v>7476698</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31329,43 +31329,43 @@
         <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H147" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M147">
         <v>1</v>
       </c>
       <c r="N147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O147" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="Q147">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R147">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T147">
         <v>1.44</v>
@@ -31380,37 +31380,37 @@
         <v>1.33</v>
       </c>
       <c r="X147">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y147">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z147">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AA147">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AB147">
-        <v>3.63</v>
+        <v>2.74</v>
       </c>
       <c r="AC147">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD147">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE147">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF147">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AG147">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AH147">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AI147">
         <v>1.83</v>
@@ -31419,34 +31419,34 @@
         <v>1.83</v>
       </c>
       <c r="AK147">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AL147">
         <v>1.28</v>
       </c>
       <c r="AM147">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="AN147">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO147">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP147">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AQ147">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AR147">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AS147">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AT147">
-        <v>2.31</v>
+        <v>2.51</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -31455,64 +31455,64 @@
         <v>3</v>
       </c>
       <c r="AW147">
+        <v>3</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>17</v>
+      </c>
+      <c r="AZ147">
+        <v>7</v>
+      </c>
+      <c r="BA147">
         <v>6</v>
       </c>
-      <c r="AX147">
+      <c r="BB147">
+        <v>1</v>
+      </c>
+      <c r="BC147">
         <v>7</v>
       </c>
-      <c r="AY147">
-        <v>20</v>
-      </c>
-      <c r="AZ147">
-        <v>11</v>
-      </c>
-      <c r="BA147">
-        <v>4</v>
-      </c>
-      <c r="BB147">
-        <v>2</v>
-      </c>
-      <c r="BC147">
-        <v>6</v>
-      </c>
       <c r="BD147">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="BE147">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="BF147">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="BG147">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="BH147">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="BI147">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="BJ147">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BK147">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="BL147">
-        <v>2.48</v>
+        <v>2.15</v>
       </c>
       <c r="BM147">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="BN147">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="BO147">
-        <v>2.32</v>
+        <v>2.78</v>
       </c>
       <c r="BP147">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31768,7 +31768,7 @@
         <v>121</v>
       </c>
       <c r="P149" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32756,7 +32756,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7476701</v>
+        <v>7476711</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32771,190 +32771,190 @@
         <v>14</v>
       </c>
       <c r="G154" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H154" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O154" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="P154" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="Q154">
+        <v>3.1</v>
+      </c>
+      <c r="R154">
+        <v>2.05</v>
+      </c>
+      <c r="S154">
         <v>3.6</v>
       </c>
-      <c r="R154">
-        <v>2.3</v>
-      </c>
-      <c r="S154">
+      <c r="T154">
+        <v>1.44</v>
+      </c>
+      <c r="U154">
         <v>2.63</v>
       </c>
-      <c r="T154">
-        <v>1.3</v>
-      </c>
-      <c r="U154">
-        <v>3.4</v>
-      </c>
       <c r="V154">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="W154">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X154">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y154">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="Z154">
-        <v>3.2</v>
+        <v>2.37</v>
       </c>
       <c r="AA154">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AB154">
+        <v>2.8</v>
+      </c>
+      <c r="AC154">
+        <v>1.05</v>
+      </c>
+      <c r="AD154">
+        <v>10</v>
+      </c>
+      <c r="AE154">
+        <v>1.33</v>
+      </c>
+      <c r="AF154">
+        <v>3.25</v>
+      </c>
+      <c r="AG154">
         <v>2.1</v>
       </c>
-      <c r="AC154">
-        <v>1.02</v>
-      </c>
-      <c r="AD154">
-        <v>15</v>
-      </c>
-      <c r="AE154">
-        <v>1.2</v>
-      </c>
-      <c r="AF154">
-        <v>4.5</v>
-      </c>
-      <c r="AG154">
-        <v>1.62</v>
-      </c>
       <c r="AH154">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="AI154">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="AJ154">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="AK154">
-        <v>1.75</v>
+        <v>1.36</v>
       </c>
       <c r="AL154">
         <v>1.25</v>
       </c>
       <c r="AM154">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="AN154">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO154">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>1.43</v>
+        <v>0.71</v>
       </c>
       <c r="AQ154">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AR154">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AS154">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="AT154">
-        <v>2.66</v>
+        <v>2.28</v>
       </c>
       <c r="AU154">
         <v>2</v>
       </c>
       <c r="AV154">
+        <v>4</v>
+      </c>
+      <c r="AW154">
+        <v>4</v>
+      </c>
+      <c r="AX154">
         <v>6</v>
       </c>
-      <c r="AW154">
-        <v>2</v>
-      </c>
-      <c r="AX154">
-        <v>5</v>
-      </c>
       <c r="AY154">
+        <v>9</v>
+      </c>
+      <c r="AZ154">
+        <v>14</v>
+      </c>
+      <c r="BA154">
+        <v>3</v>
+      </c>
+      <c r="BB154">
+        <v>3</v>
+      </c>
+      <c r="BC154">
         <v>6</v>
       </c>
-      <c r="AZ154">
-        <v>16</v>
-      </c>
-      <c r="BA154">
-        <v>3</v>
-      </c>
-      <c r="BB154">
-        <v>11</v>
-      </c>
-      <c r="BC154">
-        <v>14</v>
-      </c>
       <c r="BD154">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="BE154">
         <v>7.5</v>
       </c>
       <c r="BF154">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="BG154">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BH154">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="BI154">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="BJ154">
-        <v>2.73</v>
+        <v>2.82</v>
       </c>
       <c r="BK154">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="BL154">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="BM154">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN154">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="BO154">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="BP154">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32962,7 +32962,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7476702</v>
+        <v>7476710</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32977,190 +32977,190 @@
         <v>14</v>
       </c>
       <c r="G155" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H155" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155">
         <v>0</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M155">
         <v>2</v>
       </c>
       <c r="N155">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O155" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P155" t="s">
         <v>280</v>
       </c>
       <c r="Q155">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R155">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S155">
+        <v>3.75</v>
+      </c>
+      <c r="T155">
+        <v>1.44</v>
+      </c>
+      <c r="U155">
+        <v>2.63</v>
+      </c>
+      <c r="V155">
+        <v>3.25</v>
+      </c>
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>10</v>
+      </c>
+      <c r="Y155">
+        <v>1.06</v>
+      </c>
+      <c r="Z155">
+        <v>2.2</v>
+      </c>
+      <c r="AA155">
         <v>3.4</v>
       </c>
-      <c r="T155">
+      <c r="AB155">
+        <v>3.1</v>
+      </c>
+      <c r="AC155">
+        <v>1.07</v>
+      </c>
+      <c r="AD155">
+        <v>9</v>
+      </c>
+      <c r="AE155">
         <v>1.4</v>
       </c>
-      <c r="U155">
-        <v>2.75</v>
-      </c>
-      <c r="V155">
-        <v>3</v>
-      </c>
-      <c r="W155">
-        <v>1.36</v>
-      </c>
-      <c r="X155">
-        <v>8</v>
-      </c>
-      <c r="Y155">
-        <v>1.08</v>
-      </c>
-      <c r="Z155">
-        <v>2.5</v>
-      </c>
-      <c r="AA155">
-        <v>3.3</v>
-      </c>
-      <c r="AB155">
-        <v>2.7</v>
-      </c>
-      <c r="AC155">
-        <v>1.06</v>
-      </c>
-      <c r="AD155">
-        <v>8.5</v>
-      </c>
-      <c r="AE155">
-        <v>1.33</v>
-      </c>
       <c r="AF155">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="AG155">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AH155">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="AI155">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AJ155">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AK155">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AL155">
         <v>1.25</v>
       </c>
       <c r="AM155">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="AN155">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO155">
-        <v>1.67</v>
+        <v>0.8</v>
       </c>
       <c r="AP155">
         <v>2</v>
       </c>
       <c r="AQ155">
-        <v>1.86</v>
+        <v>0.67</v>
       </c>
       <c r="AR155">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AS155">
-        <v>1.47</v>
+        <v>1.08</v>
       </c>
       <c r="AT155">
-        <v>3.01</v>
+        <v>2.49</v>
       </c>
       <c r="AU155">
         <v>5</v>
       </c>
       <c r="AV155">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW155">
         <v>4</v>
       </c>
       <c r="AX155">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY155">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ155">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BA155">
+        <v>2</v>
+      </c>
+      <c r="BB155">
         <v>6</v>
       </c>
-      <c r="BB155">
-        <v>13</v>
-      </c>
       <c r="BC155">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="BD155">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="BE155">
         <v>7</v>
       </c>
       <c r="BF155">
-        <v>2.43</v>
+        <v>2.8</v>
       </c>
       <c r="BG155">
         <v>1.17</v>
       </c>
       <c r="BH155">
-        <v>4.3</v>
+        <v>3.82</v>
       </c>
       <c r="BI155">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="BJ155">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="BK155">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="BL155">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="BM155">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="BN155">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="BO155">
-        <v>2.52</v>
+        <v>2.69</v>
       </c>
       <c r="BP155">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33168,7 +33168,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7476703</v>
+        <v>7476709</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33180,145 +33180,145 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G156" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H156" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O156" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="P156" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="Q156">
+        <v>3.5</v>
+      </c>
+      <c r="R156">
+        <v>2.25</v>
+      </c>
+      <c r="S156">
+        <v>2.88</v>
+      </c>
+      <c r="T156">
+        <v>1.33</v>
+      </c>
+      <c r="U156">
+        <v>3.25</v>
+      </c>
+      <c r="V156">
+        <v>2.63</v>
+      </c>
+      <c r="W156">
+        <v>1.44</v>
+      </c>
+      <c r="X156">
+        <v>7</v>
+      </c>
+      <c r="Y156">
+        <v>1.1</v>
+      </c>
+      <c r="Z156">
+        <v>3.1</v>
+      </c>
+      <c r="AA156">
         <v>3.4</v>
       </c>
-      <c r="R156">
-        <v>2</v>
-      </c>
-      <c r="S156">
-        <v>3.4</v>
-      </c>
-      <c r="T156">
-        <v>1.5</v>
-      </c>
-      <c r="U156">
-        <v>2.5</v>
-      </c>
-      <c r="V156">
-        <v>3.4</v>
-      </c>
-      <c r="W156">
+      <c r="AB156">
+        <v>2.15</v>
+      </c>
+      <c r="AC156">
+        <v>1.03</v>
+      </c>
+      <c r="AD156">
+        <v>15</v>
+      </c>
+      <c r="AE156">
+        <v>1.22</v>
+      </c>
+      <c r="AF156">
+        <v>4.2</v>
+      </c>
+      <c r="AG156">
+        <v>1.72</v>
+      </c>
+      <c r="AH156">
+        <v>1.98</v>
+      </c>
+      <c r="AI156">
+        <v>1.62</v>
+      </c>
+      <c r="AJ156">
+        <v>2.2</v>
+      </c>
+      <c r="AK156">
+        <v>1.83</v>
+      </c>
+      <c r="AL156">
+        <v>1.22</v>
+      </c>
+      <c r="AM156">
         <v>1.3</v>
       </c>
-      <c r="X156">
-        <v>10</v>
-      </c>
-      <c r="Y156">
-        <v>1.06</v>
-      </c>
-      <c r="Z156">
-        <v>2.6</v>
-      </c>
-      <c r="AA156">
-        <v>3.25</v>
-      </c>
-      <c r="AB156">
-        <v>2.6</v>
-      </c>
-      <c r="AC156">
-        <v>1.07</v>
-      </c>
-      <c r="AD156">
-        <v>8.5</v>
-      </c>
-      <c r="AE156">
-        <v>1.44</v>
-      </c>
-      <c r="AF156">
-        <v>2.8</v>
-      </c>
-      <c r="AG156">
-        <v>2.15</v>
-      </c>
-      <c r="AH156">
-        <v>1.61</v>
-      </c>
-      <c r="AI156">
-        <v>1.91</v>
-      </c>
-      <c r="AJ156">
-        <v>1.8</v>
-      </c>
-      <c r="AK156">
-        <v>1.47</v>
-      </c>
-      <c r="AL156">
-        <v>1.28</v>
-      </c>
-      <c r="AM156">
-        <v>1.47</v>
-      </c>
       <c r="AN156">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="AO156">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP156">
-        <v>0.86</v>
+        <v>1.86</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AR156">
-        <v>1.49</v>
+        <v>1.14</v>
       </c>
       <c r="AS156">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT156">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="AU156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV156">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX156">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY156">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ156">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA156">
         <v>6</v>
@@ -33330,19 +33330,19 @@
         <v>10</v>
       </c>
       <c r="BD156">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="BE156">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF156">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="BG156">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="BH156">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BI156">
         <v>1.33</v>
@@ -33357,10 +33357,10 @@
         <v>1.95</v>
       </c>
       <c r="BM156">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BN156">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="BO156">
         <v>2.62</v>
@@ -33374,7 +33374,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7476704</v>
+        <v>7476707</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33389,70 +33389,70 @@
         <v>14</v>
       </c>
       <c r="G157" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H157" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157">
         <v>1</v>
       </c>
       <c r="L157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O157" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="Q157">
+        <v>3.4</v>
+      </c>
+      <c r="R157">
+        <v>2.2</v>
+      </c>
+      <c r="S157">
+        <v>3</v>
+      </c>
+      <c r="T157">
+        <v>1.4</v>
+      </c>
+      <c r="U157">
         <v>2.75</v>
       </c>
-      <c r="R157">
-        <v>2.25</v>
-      </c>
-      <c r="S157">
-        <v>3.75</v>
-      </c>
-      <c r="T157">
-        <v>1.33</v>
-      </c>
-      <c r="U157">
-        <v>3.25</v>
-      </c>
       <c r="V157">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W157">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X157">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y157">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z157">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="AA157">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB157">
-        <v>3.25</v>
+        <v>2.37</v>
       </c>
       <c r="AC157">
         <v>1.04</v>
@@ -33461,94 +33461,94 @@
         <v>13</v>
       </c>
       <c r="AE157">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AF157">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AG157">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="AH157">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="AI157">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AJ157">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK157">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AL157">
         <v>1.25</v>
       </c>
       <c r="AM157">
-        <v>1.72</v>
+        <v>1.45</v>
       </c>
       <c r="AN157">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO157">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AP157">
-        <v>0.57</v>
+        <v>1.29</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AR157">
-        <v>1.63</v>
+        <v>1.15</v>
       </c>
       <c r="AS157">
-        <v>1.05</v>
+        <v>1.52</v>
       </c>
       <c r="AT157">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="AU157">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV157">
+        <v>6</v>
+      </c>
+      <c r="AW157">
+        <v>7</v>
+      </c>
+      <c r="AX157">
         <v>5</v>
       </c>
-      <c r="AW157">
-        <v>4</v>
-      </c>
-      <c r="AX157">
-        <v>9</v>
-      </c>
       <c r="AY157">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ157">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA157">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB157">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC157">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BD157">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="BE157">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BF157">
-        <v>2.82</v>
+        <v>2</v>
       </c>
       <c r="BG157">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BH157">
-        <v>3.44</v>
+        <v>3.52</v>
       </c>
       <c r="BI157">
         <v>1.42</v>
@@ -33557,10 +33557,10 @@
         <v>2.49</v>
       </c>
       <c r="BK157">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BL157">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BM157">
         <v>2.21</v>
@@ -33569,10 +33569,10 @@
         <v>1.53</v>
       </c>
       <c r="BO157">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="BP157">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -33619,7 +33619,7 @@
         <v>4</v>
       </c>
       <c r="O158" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P158" t="s">
         <v>118</v>
@@ -33786,7 +33786,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7476707</v>
+        <v>7476704</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33801,70 +33801,70 @@
         <v>14</v>
       </c>
       <c r="G159" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H159" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159">
         <v>1</v>
       </c>
       <c r="L159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O159" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="P159" t="s">
-        <v>281</v>
+        <v>163</v>
       </c>
       <c r="Q159">
+        <v>2.75</v>
+      </c>
+      <c r="R159">
+        <v>2.25</v>
+      </c>
+      <c r="S159">
+        <v>3.75</v>
+      </c>
+      <c r="T159">
+        <v>1.33</v>
+      </c>
+      <c r="U159">
+        <v>3.25</v>
+      </c>
+      <c r="V159">
+        <v>2.63</v>
+      </c>
+      <c r="W159">
+        <v>1.44</v>
+      </c>
+      <c r="X159">
+        <v>7</v>
+      </c>
+      <c r="Y159">
+        <v>1.1</v>
+      </c>
+      <c r="Z159">
+        <v>2.1</v>
+      </c>
+      <c r="AA159">
         <v>3.4</v>
       </c>
-      <c r="R159">
-        <v>2.2</v>
-      </c>
-      <c r="S159">
-        <v>3</v>
-      </c>
-      <c r="T159">
-        <v>1.4</v>
-      </c>
-      <c r="U159">
-        <v>2.75</v>
-      </c>
-      <c r="V159">
-        <v>2.75</v>
-      </c>
-      <c r="W159">
-        <v>1.4</v>
-      </c>
-      <c r="X159">
-        <v>8</v>
-      </c>
-      <c r="Y159">
-        <v>1.08</v>
-      </c>
-      <c r="Z159">
-        <v>2.75</v>
-      </c>
-      <c r="AA159">
-        <v>3.5</v>
-      </c>
       <c r="AB159">
-        <v>2.37</v>
+        <v>3.25</v>
       </c>
       <c r="AC159">
         <v>1.04</v>
@@ -33873,94 +33873,94 @@
         <v>13</v>
       </c>
       <c r="AE159">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AF159">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AG159">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="AH159">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AI159">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AJ159">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK159">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AL159">
         <v>1.25</v>
       </c>
       <c r="AM159">
-        <v>1.45</v>
+        <v>1.72</v>
       </c>
       <c r="AN159">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO159">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="AP159">
-        <v>1.29</v>
+        <v>0.57</v>
       </c>
       <c r="AQ159">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AR159">
-        <v>1.15</v>
+        <v>1.63</v>
       </c>
       <c r="AS159">
-        <v>1.52</v>
+        <v>1.05</v>
       </c>
       <c r="AT159">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AU159">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV159">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW159">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX159">
+        <v>9</v>
+      </c>
+      <c r="AY159">
+        <v>10</v>
+      </c>
+      <c r="AZ159">
+        <v>15</v>
+      </c>
+      <c r="BA159">
         <v>5</v>
       </c>
-      <c r="AY159">
-        <v>16</v>
-      </c>
-      <c r="AZ159">
-        <v>13</v>
-      </c>
-      <c r="BA159">
-        <v>2</v>
-      </c>
       <c r="BB159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC159">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BD159">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="BE159">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF159">
-        <v>2</v>
+        <v>2.82</v>
       </c>
       <c r="BG159">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BH159">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="BI159">
         <v>1.42</v>
@@ -33969,10 +33969,10 @@
         <v>2.49</v>
       </c>
       <c r="BK159">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BL159">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BM159">
         <v>2.21</v>
@@ -33981,10 +33981,10 @@
         <v>1.53</v>
       </c>
       <c r="BO159">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="BP159">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -33992,7 +33992,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7477097</v>
+        <v>7476702</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -34007,10 +34007,10 @@
         <v>14</v>
       </c>
       <c r="G160" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H160" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -34025,172 +34025,172 @@
         <v>1</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O160" t="s">
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="Q160">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="R160">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S160">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="T160">
+        <v>1.4</v>
+      </c>
+      <c r="U160">
+        <v>2.75</v>
+      </c>
+      <c r="V160">
+        <v>3</v>
+      </c>
+      <c r="W160">
         <v>1.36</v>
       </c>
-      <c r="U160">
-        <v>3</v>
-      </c>
-      <c r="V160">
-        <v>2.75</v>
-      </c>
-      <c r="W160">
-        <v>1.4</v>
-      </c>
       <c r="X160">
+        <v>8</v>
+      </c>
+      <c r="Y160">
+        <v>1.08</v>
+      </c>
+      <c r="Z160">
+        <v>2.5</v>
+      </c>
+      <c r="AA160">
+        <v>3.3</v>
+      </c>
+      <c r="AB160">
+        <v>2.7</v>
+      </c>
+      <c r="AC160">
+        <v>1.06</v>
+      </c>
+      <c r="AD160">
+        <v>8.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.33</v>
+      </c>
+      <c r="AF160">
+        <v>3.3</v>
+      </c>
+      <c r="AG160">
+        <v>1.93</v>
+      </c>
+      <c r="AH160">
+        <v>1.75</v>
+      </c>
+      <c r="AI160">
+        <v>1.73</v>
+      </c>
+      <c r="AJ160">
+        <v>2</v>
+      </c>
+      <c r="AK160">
+        <v>1.44</v>
+      </c>
+      <c r="AL160">
+        <v>1.25</v>
+      </c>
+      <c r="AM160">
+        <v>1.5</v>
+      </c>
+      <c r="AN160">
+        <v>2.33</v>
+      </c>
+      <c r="AO160">
+        <v>1.67</v>
+      </c>
+      <c r="AP160">
+        <v>2</v>
+      </c>
+      <c r="AQ160">
+        <v>1.86</v>
+      </c>
+      <c r="AR160">
+        <v>1.54</v>
+      </c>
+      <c r="AS160">
+        <v>1.47</v>
+      </c>
+      <c r="AT160">
+        <v>3.01</v>
+      </c>
+      <c r="AU160">
+        <v>5</v>
+      </c>
+      <c r="AV160">
         <v>7</v>
       </c>
-      <c r="Y160">
-        <v>1.1</v>
-      </c>
-      <c r="Z160">
-        <v>1.58</v>
-      </c>
-      <c r="AA160">
+      <c r="AW160">
         <v>4</v>
       </c>
-      <c r="AB160">
-        <v>5.25</v>
-      </c>
-      <c r="AC160">
-        <v>1.02</v>
-      </c>
-      <c r="AD160">
-        <v>15</v>
-      </c>
-      <c r="AE160">
-        <v>1.18</v>
-      </c>
-      <c r="AF160">
-        <v>4.75</v>
-      </c>
-      <c r="AG160">
-        <v>1.8</v>
-      </c>
-      <c r="AH160">
-        <v>1.88</v>
-      </c>
-      <c r="AI160">
-        <v>1.83</v>
-      </c>
-      <c r="AJ160">
-        <v>1.83</v>
-      </c>
-      <c r="AK160">
-        <v>1.12</v>
-      </c>
-      <c r="AL160">
+      <c r="AX160">
+        <v>5</v>
+      </c>
+      <c r="AY160">
+        <v>16</v>
+      </c>
+      <c r="AZ160">
+        <v>21</v>
+      </c>
+      <c r="BA160">
+        <v>6</v>
+      </c>
+      <c r="BB160">
+        <v>13</v>
+      </c>
+      <c r="BC160">
+        <v>19</v>
+      </c>
+      <c r="BD160">
+        <v>1.82</v>
+      </c>
+      <c r="BE160">
+        <v>7</v>
+      </c>
+      <c r="BF160">
+        <v>2.43</v>
+      </c>
+      <c r="BG160">
         <v>1.17</v>
       </c>
-      <c r="AM160">
-        <v>2.55</v>
-      </c>
-      <c r="AN160">
-        <v>1.67</v>
-      </c>
-      <c r="AO160">
-        <v>1</v>
-      </c>
-      <c r="AP160">
-        <v>1.86</v>
-      </c>
-      <c r="AQ160">
-        <v>0.86</v>
-      </c>
-      <c r="AR160">
-        <v>1.61</v>
-      </c>
-      <c r="AS160">
-        <v>1.1</v>
-      </c>
-      <c r="AT160">
-        <v>2.71</v>
-      </c>
-      <c r="AU160">
-        <v>8</v>
-      </c>
-      <c r="AV160">
-        <v>3</v>
-      </c>
-      <c r="AW160">
-        <v>8</v>
-      </c>
-      <c r="AX160">
-        <v>2</v>
-      </c>
-      <c r="AY160">
-        <v>25</v>
-      </c>
-      <c r="AZ160">
-        <v>6</v>
-      </c>
-      <c r="BA160">
-        <v>5</v>
-      </c>
-      <c r="BB160">
-        <v>3</v>
-      </c>
-      <c r="BC160">
-        <v>8</v>
-      </c>
-      <c r="BD160">
-        <v>1.26</v>
-      </c>
-      <c r="BE160">
-        <v>9</v>
-      </c>
-      <c r="BF160">
-        <v>4.7</v>
-      </c>
-      <c r="BG160">
-        <v>1.15</v>
-      </c>
       <c r="BH160">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="BI160">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="BJ160">
-        <v>3.14</v>
+        <v>2.82</v>
       </c>
       <c r="BK160">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="BL160">
-        <v>2.35</v>
+        <v>2.14</v>
       </c>
       <c r="BM160">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BN160">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="BO160">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="BP160">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -34198,7 +34198,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>7476709</v>
+        <v>7476701</v>
       </c>
       <c r="C161" t="s">
         <v>68</v>
@@ -34213,10 +34213,10 @@
         <v>14</v>
       </c>
       <c r="G161" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H161" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -34243,121 +34243,121 @@
         <v>101</v>
       </c>
       <c r="Q161">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R161">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S161">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="T161">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U161">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V161">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W161">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X161">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y161">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z161">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AA161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB161">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AC161">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD161">
         <v>15</v>
       </c>
       <c r="AE161">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF161">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AG161">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AH161">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="AI161">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AJ161">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AK161">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AL161">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM161">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AN161">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO161">
         <v>1.67</v>
       </c>
       <c r="AP161">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AQ161">
         <v>1.57</v>
       </c>
       <c r="AR161">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="AS161">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AT161">
-        <v>2.32</v>
+        <v>2.66</v>
       </c>
       <c r="AU161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV161">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX161">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY161">
+        <v>6</v>
+      </c>
+      <c r="AZ161">
+        <v>16</v>
+      </c>
+      <c r="BA161">
+        <v>3</v>
+      </c>
+      <c r="BB161">
         <v>11</v>
       </c>
-      <c r="AZ161">
-        <v>15</v>
-      </c>
-      <c r="BA161">
-        <v>6</v>
-      </c>
-      <c r="BB161">
-        <v>4</v>
-      </c>
       <c r="BC161">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD161">
         <v>2.33</v>
@@ -34369,10 +34369,10 @@
         <v>1.85</v>
       </c>
       <c r="BG161">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="BH161">
-        <v>3.7</v>
+        <v>4.55</v>
       </c>
       <c r="BI161">
         <v>1.33</v>
@@ -34381,22 +34381,22 @@
         <v>2.73</v>
       </c>
       <c r="BK161">
+        <v>1.62</v>
+      </c>
+      <c r="BL161">
+        <v>2.06</v>
+      </c>
+      <c r="BM161">
+        <v>1.95</v>
+      </c>
+      <c r="BN161">
         <v>1.77</v>
       </c>
-      <c r="BL161">
-        <v>1.95</v>
-      </c>
-      <c r="BM161">
-        <v>2</v>
-      </c>
-      <c r="BN161">
-        <v>1.8</v>
-      </c>
       <c r="BO161">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="BP161">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="162" spans="1:68">
@@ -34404,7 +34404,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7476710</v>
+        <v>7477097</v>
       </c>
       <c r="C162" t="s">
         <v>68</v>
@@ -34419,88 +34419,88 @@
         <v>14</v>
       </c>
       <c r="G162" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H162" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N162">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O162" t="s">
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>282</v>
+        <v>101</v>
       </c>
       <c r="Q162">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="R162">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S162">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="T162">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U162">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V162">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W162">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X162">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y162">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z162">
-        <v>2.2</v>
+        <v>1.58</v>
       </c>
       <c r="AA162">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AB162">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="AC162">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AD162">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE162">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AF162">
-        <v>2.95</v>
+        <v>4.75</v>
       </c>
       <c r="AG162">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AH162">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AI162">
         <v>1.83</v>
@@ -34509,100 +34509,100 @@
         <v>1.83</v>
       </c>
       <c r="AK162">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AL162">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AM162">
-        <v>1.72</v>
+        <v>2.55</v>
       </c>
       <c r="AN162">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AO162">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP162">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ162">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AR162">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="AS162">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AT162">
-        <v>2.49</v>
+        <v>2.71</v>
       </c>
       <c r="AU162">
+        <v>8</v>
+      </c>
+      <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
+        <v>8</v>
+      </c>
+      <c r="AX162">
+        <v>2</v>
+      </c>
+      <c r="AY162">
+        <v>25</v>
+      </c>
+      <c r="AZ162">
+        <v>6</v>
+      </c>
+      <c r="BA162">
         <v>5</v>
       </c>
-      <c r="AV162">
-        <v>5</v>
-      </c>
-      <c r="AW162">
-        <v>4</v>
-      </c>
-      <c r="AX162">
-        <v>6</v>
-      </c>
-      <c r="AY162">
-        <v>11</v>
-      </c>
-      <c r="AZ162">
-        <v>14</v>
-      </c>
-      <c r="BA162">
-        <v>2</v>
-      </c>
       <c r="BB162">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC162">
         <v>8</v>
       </c>
       <c r="BD162">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="BE162">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BF162">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="BG162">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="BH162">
-        <v>3.82</v>
+        <v>4.7</v>
       </c>
       <c r="BI162">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="BJ162">
-        <v>2.7</v>
+        <v>3.14</v>
       </c>
       <c r="BK162">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="BL162">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="BM162">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="BN162">
-        <v>1.61</v>
+        <v>1.95</v>
       </c>
       <c r="BO162">
-        <v>2.69</v>
+        <v>2.28</v>
       </c>
       <c r="BP162">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="163" spans="1:68">
@@ -34610,7 +34610,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>7476711</v>
+        <v>7476703</v>
       </c>
       <c r="C163" t="s">
         <v>68</v>
@@ -34622,13 +34622,13 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F163">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H163" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -34652,28 +34652,28 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="Q163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R163">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S163">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T163">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U163">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V163">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W163">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X163">
         <v>10</v>
@@ -34682,31 +34682,31 @@
         <v>1.06</v>
       </c>
       <c r="Z163">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="AA163">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AB163">
+        <v>2.6</v>
+      </c>
+      <c r="AC163">
+        <v>1.07</v>
+      </c>
+      <c r="AD163">
+        <v>8.5</v>
+      </c>
+      <c r="AE163">
+        <v>1.44</v>
+      </c>
+      <c r="AF163">
         <v>2.8</v>
       </c>
-      <c r="AC163">
-        <v>1.05</v>
-      </c>
-      <c r="AD163">
-        <v>10</v>
-      </c>
-      <c r="AE163">
-        <v>1.33</v>
-      </c>
-      <c r="AF163">
-        <v>3.25</v>
-      </c>
       <c r="AG163">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AH163">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AI163">
         <v>1.91</v>
@@ -34715,70 +34715,70 @@
         <v>1.8</v>
       </c>
       <c r="AK163">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AL163">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM163">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AN163">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AO163">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP163">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AQ163">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR163">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AS163">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="AT163">
-        <v>2.28</v>
+        <v>2.55</v>
       </c>
       <c r="AU163">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV163">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX163">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY163">
         <v>9</v>
       </c>
       <c r="AZ163">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA163">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC163">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD163">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="BE163">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BF163">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="BG163">
         <v>0</v>
@@ -34787,28 +34787,28 @@
         <v>0</v>
       </c>
       <c r="BI163">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="BJ163">
-        <v>2.82</v>
+        <v>2.73</v>
       </c>
       <c r="BK163">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="BL163">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="BM163">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="BN163">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="BO163">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="BP163">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="164" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="291">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,24 @@
     <t>['33', '61']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['41', '58']</t>
+  </si>
+  <si>
+    <t>['45+4', '57', '64']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['1', '9']</t>
   </si>
   <si>
@@ -673,9 +691,6 @@
     <t>['38']</t>
   </si>
   <si>
-    <t>['86']</t>
-  </si>
-  <si>
     <t>['68']</t>
   </si>
   <si>
@@ -689,9 +704,6 @@
   </si>
   <si>
     <t>['74']</t>
-  </si>
-  <si>
-    <t>['85']</t>
   </si>
   <si>
     <t>['6', '37']</t>
@@ -743,9 +755,6 @@
   </si>
   <si>
     <t>['74', '86']</t>
-  </si>
-  <si>
-    <t>['79']</t>
   </si>
   <si>
     <t>['89']</t>
@@ -866,6 +875,18 @@
   </si>
   <si>
     <t>['18', '90+8']</t>
+  </si>
+  <si>
+    <t>['37', '90+6']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['18', '65', '69']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1564,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1692,7 +1713,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1770,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1976,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2104,7 +2125,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q5">
         <v>2.4</v>
@@ -2182,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ5">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2310,7 +2331,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2388,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2594,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2722,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2800,10 +2821,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2928,7 +2949,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q9">
         <v>2.75</v>
@@ -3006,10 +3027,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
+        <v>1.13</v>
+      </c>
+      <c r="AQ9">
         <v>1.29</v>
-      </c>
-      <c r="AQ9">
-        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3134,7 +3155,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -3212,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3340,7 +3361,7 @@
         <v>101</v>
       </c>
       <c r="P11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3418,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3624,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ12">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3830,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ13">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4370,7 +4391,7 @@
         <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4782,7 +4803,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4988,7 +5009,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5194,7 +5215,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5812,7 +5833,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6224,7 +6245,7 @@
         <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6430,7 +6451,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6511,7 +6532,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ26">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR26">
         <v>1.83</v>
@@ -6714,7 +6735,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27">
         <v>1.57</v>
@@ -6923,7 +6944,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR28">
         <v>1.35</v>
@@ -7126,10 +7147,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
         <v>1.39</v>
@@ -7254,7 +7275,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7335,7 +7356,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7538,10 +7559,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -7744,7 +7765,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ32">
         <v>1.14</v>
@@ -7872,7 +7893,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>2.38</v>
@@ -7950,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ33">
         <v>1.14</v>
@@ -8156,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ34">
         <v>0.67</v>
@@ -8284,7 +8305,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8365,7 +8386,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8568,10 +8589,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ36">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.13</v>
@@ -8696,7 +8717,7 @@
         <v>101</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8902,7 +8923,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -9186,7 +9207,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ39">
         <v>1.86</v>
@@ -9314,7 +9335,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9395,7 +9416,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ40">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -9520,7 +9541,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9601,7 +9622,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9726,7 +9747,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -9804,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9932,7 +9953,7 @@
         <v>120</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10010,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10138,7 +10159,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10344,7 +10365,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10425,7 +10446,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR45">
         <v>1.02</v>
@@ -10550,7 +10571,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10631,7 +10652,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR46">
         <v>2.58</v>
@@ -10834,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ47">
         <v>1.57</v>
@@ -10962,7 +10983,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11043,7 +11064,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.43</v>
@@ -11246,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.43</v>
@@ -11374,7 +11395,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11455,7 +11476,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ50">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>0.78</v>
@@ -11580,7 +11601,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q51">
         <v>2.5</v>
@@ -11658,10 +11679,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR51">
         <v>1.28</v>
@@ -11864,7 +11885,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
         <v>0.86</v>
@@ -11992,7 +12013,7 @@
         <v>129</v>
       </c>
       <c r="P53" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q53">
         <v>2.2</v>
@@ -12070,10 +12091,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ53">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12279,7 +12300,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR54">
         <v>2.03</v>
@@ -12485,7 +12506,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>1</v>
@@ -12688,7 +12709,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56">
         <v>1.14</v>
@@ -12897,7 +12918,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR57">
         <v>1.74</v>
@@ -13100,7 +13121,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58">
         <v>1.57</v>
@@ -13309,7 +13330,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ59">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR59">
         <v>1.79</v>
@@ -13512,7 +13533,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60">
         <v>1.86</v>
@@ -13718,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ61">
         <v>1.43</v>
@@ -13927,7 +13948,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ62">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14052,7 +14073,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>2.5</v>
@@ -14130,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14258,7 +14279,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14336,10 +14357,10 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ64">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14670,7 +14691,7 @@
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -14751,7 +14772,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ66">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR66">
         <v>1.41</v>
@@ -14954,7 +14975,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ67">
         <v>1.14</v>
@@ -15082,7 +15103,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15163,7 +15184,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ68">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR68">
         <v>1.88</v>
@@ -15288,7 +15309,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15369,7 +15390,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ69">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR69">
         <v>1.03</v>
@@ -15494,7 +15515,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15700,7 +15721,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15906,7 +15927,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15987,7 +16008,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ72">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -16112,7 +16133,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -16190,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16318,7 +16339,7 @@
         <v>101</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16399,7 +16420,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ74">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR74">
         <v>1.69</v>
@@ -16524,7 +16545,7 @@
         <v>101</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16602,7 +16623,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
         <v>1.57</v>
@@ -16730,7 +16751,7 @@
         <v>101</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -17017,7 +17038,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR77">
         <v>1.15</v>
@@ -17142,7 +17163,7 @@
         <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17220,7 +17241,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
         <v>1.86</v>
@@ -17838,10 +17859,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ81">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR81">
         <v>1.2</v>
@@ -18172,7 +18193,7 @@
         <v>153</v>
       </c>
       <c r="P83" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q83">
         <v>2.2</v>
@@ -18250,10 +18271,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ83">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR83">
         <v>1.21</v>
@@ -18456,7 +18477,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ84">
         <v>1.14</v>
@@ -18662,10 +18683,10 @@
         <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ85">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR85">
         <v>1.6</v>
@@ -18868,10 +18889,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.1</v>
@@ -18996,7 +19017,7 @@
         <v>122</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>4.33</v>
@@ -19077,7 +19098,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ87">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR87">
         <v>1.28</v>
@@ -19202,7 +19223,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q88">
         <v>2.5</v>
@@ -19283,7 +19304,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19408,7 +19429,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>3.75</v>
@@ -19489,7 +19510,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ89">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR89">
         <v>0.82</v>
@@ -19820,7 +19841,7 @@
         <v>101</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>2.75</v>
@@ -19898,7 +19919,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ91">
         <v>1.86</v>
@@ -20026,7 +20047,7 @@
         <v>101</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -20104,7 +20125,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ92">
         <v>1.57</v>
@@ -20232,7 +20253,7 @@
         <v>159</v>
       </c>
       <c r="P93" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q93">
         <v>2.75</v>
@@ -20313,7 +20334,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ93">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR93">
         <v>1.37</v>
@@ -20516,7 +20537,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20644,7 +20665,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20725,7 +20746,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR95">
         <v>1.55</v>
@@ -20850,7 +20871,7 @@
         <v>162</v>
       </c>
       <c r="P96" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q96">
         <v>4.5</v>
@@ -20928,7 +20949,7 @@
         <v>0.25</v>
       </c>
       <c r="AP96">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ96">
         <v>1.43</v>
@@ -21056,7 +21077,7 @@
         <v>163</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>2.75</v>
@@ -21134,10 +21155,10 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR97">
         <v>1.07</v>
@@ -21468,7 +21489,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q99">
         <v>4.5</v>
@@ -21549,7 +21570,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ99">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.37</v>
@@ -21674,7 +21695,7 @@
         <v>166</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q100">
         <v>2.75</v>
@@ -21752,7 +21773,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ100">
         <v>1.57</v>
@@ -21958,10 +21979,10 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ101">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR101">
         <v>1.31</v>
@@ -22086,7 +22107,7 @@
         <v>167</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22164,10 +22185,10 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR102">
         <v>1.14</v>
@@ -22292,7 +22313,7 @@
         <v>101</v>
       </c>
       <c r="P103" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22373,7 +22394,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ103">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR103">
         <v>1.32</v>
@@ -22498,7 +22519,7 @@
         <v>168</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -22782,7 +22803,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22910,7 +22931,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q106">
         <v>3.6</v>
@@ -23194,10 +23215,10 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ107">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR107">
         <v>1.69</v>
@@ -23609,7 +23630,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ109">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR109">
         <v>1.69</v>
@@ -23812,7 +23833,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ110">
         <v>1.14</v>
@@ -24224,7 +24245,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>0.67</v>
@@ -24352,7 +24373,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>2.6</v>
@@ -24430,7 +24451,7 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ113">
         <v>1.57</v>
@@ -24558,7 +24579,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>2.4</v>
@@ -24636,7 +24657,7 @@
         <v>0.25</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -24764,7 +24785,7 @@
         <v>174</v>
       </c>
       <c r="P115" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24845,7 +24866,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ115">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25051,7 +25072,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ116">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR116">
         <v>1.85</v>
@@ -25176,7 +25197,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25257,7 +25278,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR117">
         <v>1.54</v>
@@ -25382,7 +25403,7 @@
         <v>176</v>
       </c>
       <c r="P118" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25460,10 +25481,10 @@
         <v>2.2</v>
       </c>
       <c r="AP118">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ118">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -25588,7 +25609,7 @@
         <v>101</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q119">
         <v>3.4</v>
@@ -25666,10 +25687,10 @@
         <v>0.8</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ119">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.15</v>
@@ -25794,7 +25815,7 @@
         <v>94</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -25872,10 +25893,10 @@
         <v>1.2</v>
       </c>
       <c r="AP120">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR120">
         <v>1.19</v>
@@ -26000,7 +26021,7 @@
         <v>101</v>
       </c>
       <c r="P121" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q121">
         <v>2.75</v>
@@ -26078,10 +26099,10 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ121">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR121">
         <v>1.34</v>
@@ -26284,10 +26305,10 @@
         <v>0.6</v>
       </c>
       <c r="AP122">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ122">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR122">
         <v>1.16</v>
@@ -26412,7 +26433,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -26490,10 +26511,10 @@
         <v>0</v>
       </c>
       <c r="AP123">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ123">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR123">
         <v>1.25</v>
@@ -26618,7 +26639,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26696,10 +26717,10 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ124">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR124">
         <v>1.08</v>
@@ -26824,7 +26845,7 @@
         <v>101</v>
       </c>
       <c r="P125" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>2.1</v>
@@ -26902,10 +26923,10 @@
         <v>0.2</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ125">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR125">
         <v>1.43</v>
@@ -27108,10 +27129,10 @@
         <v>0.8</v>
       </c>
       <c r="AP126">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ126">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR126">
         <v>1.5</v>
@@ -27236,7 +27257,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27314,10 +27335,10 @@
         <v>0.8</v>
       </c>
       <c r="AP127">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -27442,7 +27463,7 @@
         <v>101</v>
       </c>
       <c r="P128" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>4.75</v>
@@ -27854,7 +27875,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>2.63</v>
@@ -28060,7 +28081,7 @@
         <v>182</v>
       </c>
       <c r="P131" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q131">
         <v>3.5</v>
@@ -28266,7 +28287,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28472,7 +28493,7 @@
         <v>184</v>
       </c>
       <c r="P133" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28678,7 +28699,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28884,7 +28905,7 @@
         <v>147</v>
       </c>
       <c r="P135" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>2.6</v>
@@ -29296,7 +29317,7 @@
         <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29708,7 +29729,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q139">
         <v>2.5</v>
@@ -29914,7 +29935,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q140">
         <v>2.25</v>
@@ -29992,10 +30013,10 @@
         <v>0.67</v>
       </c>
       <c r="AP140">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ140">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR140">
         <v>1.55</v>
@@ -30120,7 +30141,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30198,10 +30219,10 @@
         <v>1.5</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ141">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR141">
         <v>1.19</v>
@@ -30404,10 +30425,10 @@
         <v>0.6</v>
       </c>
       <c r="AP142">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ142">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR142">
         <v>1.27</v>
@@ -30532,7 +30553,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q143">
         <v>4.33</v>
@@ -30610,10 +30631,10 @@
         <v>2.17</v>
       </c>
       <c r="AP143">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ143">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR143">
         <v>1.14</v>
@@ -30738,7 +30759,7 @@
         <v>101</v>
       </c>
       <c r="P144" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>2.25</v>
@@ -30816,10 +30837,10 @@
         <v>0.5</v>
       </c>
       <c r="AP144">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ144">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR144">
         <v>1.19</v>
@@ -31022,10 +31043,10 @@
         <v>1.4</v>
       </c>
       <c r="AP145">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ145">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR145">
         <v>1.61</v>
@@ -31228,10 +31249,10 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ146">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR146">
         <v>1.18</v>
@@ -31356,7 +31377,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31434,10 +31455,10 @@
         <v>1.17</v>
       </c>
       <c r="AP147">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR147">
         <v>1.41</v>
@@ -31640,10 +31661,10 @@
         <v>1.17</v>
       </c>
       <c r="AP148">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR148">
         <v>1.26</v>
@@ -31846,10 +31867,10 @@
         <v>2</v>
       </c>
       <c r="AP149">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ149">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR149">
         <v>1.45</v>
@@ -32052,10 +32073,10 @@
         <v>0.67</v>
       </c>
       <c r="AP150">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ150">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32180,7 +32201,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>2.4</v>
@@ -32258,10 +32279,10 @@
         <v>0.6</v>
       </c>
       <c r="AP151">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ151">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR151">
         <v>1.31</v>
@@ -32386,7 +32407,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q152">
         <v>4.5</v>
@@ -32592,7 +32613,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -33004,7 +33025,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33416,7 +33437,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q157">
         <v>3.4</v>
@@ -34034,7 +34055,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q160">
         <v>3.2</v>
@@ -34858,7 +34879,7 @@
         <v>203</v>
       </c>
       <c r="P164" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q164">
         <v>2.4</v>
@@ -34936,7 +34957,7 @@
         <v>1.17</v>
       </c>
       <c r="AP164">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ164">
         <v>1.14</v>
@@ -35015,6 +35036,2478 @@
       </c>
       <c r="BP164">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7476721</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45605.39583333334</v>
+      </c>
+      <c r="F165">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s">
+        <v>79</v>
+      </c>
+      <c r="H165" t="s">
+        <v>82</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>101</v>
+      </c>
+      <c r="P165" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q165">
+        <v>2.63</v>
+      </c>
+      <c r="R165">
+        <v>2.2</v>
+      </c>
+      <c r="S165">
+        <v>4</v>
+      </c>
+      <c r="T165">
+        <v>1.4</v>
+      </c>
+      <c r="U165">
+        <v>2.75</v>
+      </c>
+      <c r="V165">
+        <v>2.75</v>
+      </c>
+      <c r="W165">
+        <v>1.4</v>
+      </c>
+      <c r="X165">
+        <v>8</v>
+      </c>
+      <c r="Y165">
+        <v>1.08</v>
+      </c>
+      <c r="Z165">
+        <v>2</v>
+      </c>
+      <c r="AA165">
+        <v>3.5</v>
+      </c>
+      <c r="AB165">
+        <v>3.6</v>
+      </c>
+      <c r="AC165">
+        <v>1.04</v>
+      </c>
+      <c r="AD165">
+        <v>11</v>
+      </c>
+      <c r="AE165">
+        <v>1.3</v>
+      </c>
+      <c r="AF165">
+        <v>3.5</v>
+      </c>
+      <c r="AG165">
+        <v>1.87</v>
+      </c>
+      <c r="AH165">
+        <v>1.83</v>
+      </c>
+      <c r="AI165">
+        <v>1.73</v>
+      </c>
+      <c r="AJ165">
+        <v>2</v>
+      </c>
+      <c r="AK165">
+        <v>1.3</v>
+      </c>
+      <c r="AL165">
+        <v>1.25</v>
+      </c>
+      <c r="AM165">
+        <v>1.83</v>
+      </c>
+      <c r="AN165">
+        <v>1.71</v>
+      </c>
+      <c r="AO165">
+        <v>0.57</v>
+      </c>
+      <c r="AP165">
+        <v>1.5</v>
+      </c>
+      <c r="AQ165">
+        <v>0.88</v>
+      </c>
+      <c r="AR165">
+        <v>1.4</v>
+      </c>
+      <c r="AS165">
+        <v>1.06</v>
+      </c>
+      <c r="AT165">
+        <v>2.46</v>
+      </c>
+      <c r="AU165">
+        <v>4</v>
+      </c>
+      <c r="AV165">
+        <v>2</v>
+      </c>
+      <c r="AW165">
+        <v>5</v>
+      </c>
+      <c r="AX165">
+        <v>1</v>
+      </c>
+      <c r="AY165">
+        <v>16</v>
+      </c>
+      <c r="AZ165">
+        <v>5</v>
+      </c>
+      <c r="BA165">
+        <v>8</v>
+      </c>
+      <c r="BB165">
+        <v>4</v>
+      </c>
+      <c r="BC165">
+        <v>12</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>0</v>
+      </c>
+      <c r="BG165">
+        <v>0</v>
+      </c>
+      <c r="BH165">
+        <v>0</v>
+      </c>
+      <c r="BI165">
+        <v>0</v>
+      </c>
+      <c r="BJ165">
+        <v>0</v>
+      </c>
+      <c r="BK165">
+        <v>0</v>
+      </c>
+      <c r="BL165">
+        <v>0</v>
+      </c>
+      <c r="BM165">
+        <v>0</v>
+      </c>
+      <c r="BN165">
+        <v>0</v>
+      </c>
+      <c r="BO165">
+        <v>0</v>
+      </c>
+      <c r="BP165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7476719</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45605.39583333334</v>
+      </c>
+      <c r="F166">
+        <v>15</v>
+      </c>
+      <c r="G166" t="s">
+        <v>77</v>
+      </c>
+      <c r="H166" t="s">
+        <v>88</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>204</v>
+      </c>
+      <c r="P166" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q166">
+        <v>2.88</v>
+      </c>
+      <c r="R166">
+        <v>2.2</v>
+      </c>
+      <c r="S166">
+        <v>3.6</v>
+      </c>
+      <c r="T166">
+        <v>1.4</v>
+      </c>
+      <c r="U166">
+        <v>2.75</v>
+      </c>
+      <c r="V166">
+        <v>2.75</v>
+      </c>
+      <c r="W166">
+        <v>1.4</v>
+      </c>
+      <c r="X166">
+        <v>8</v>
+      </c>
+      <c r="Y166">
+        <v>1.08</v>
+      </c>
+      <c r="Z166">
+        <v>2.2</v>
+      </c>
+      <c r="AA166">
+        <v>3.4</v>
+      </c>
+      <c r="AB166">
+        <v>3.1</v>
+      </c>
+      <c r="AC166">
+        <v>1.05</v>
+      </c>
+      <c r="AD166">
+        <v>11</v>
+      </c>
+      <c r="AE166">
+        <v>1.3</v>
+      </c>
+      <c r="AF166">
+        <v>3.4</v>
+      </c>
+      <c r="AG166">
+        <v>1.88</v>
+      </c>
+      <c r="AH166">
+        <v>1.82</v>
+      </c>
+      <c r="AI166">
+        <v>1.73</v>
+      </c>
+      <c r="AJ166">
+        <v>2</v>
+      </c>
+      <c r="AK166">
+        <v>1.38</v>
+      </c>
+      <c r="AL166">
+        <v>1.25</v>
+      </c>
+      <c r="AM166">
+        <v>1.65</v>
+      </c>
+      <c r="AN166">
+        <v>1.29</v>
+      </c>
+      <c r="AO166">
+        <v>0.57</v>
+      </c>
+      <c r="AP166">
+        <v>1.13</v>
+      </c>
+      <c r="AQ166">
+        <v>0.88</v>
+      </c>
+      <c r="AR166">
+        <v>1.16</v>
+      </c>
+      <c r="AS166">
+        <v>0.84</v>
+      </c>
+      <c r="AT166">
+        <v>2</v>
+      </c>
+      <c r="AU166">
+        <v>7</v>
+      </c>
+      <c r="AV166">
+        <v>4</v>
+      </c>
+      <c r="AW166">
+        <v>9</v>
+      </c>
+      <c r="AX166">
+        <v>5</v>
+      </c>
+      <c r="AY166">
+        <v>22</v>
+      </c>
+      <c r="AZ166">
+        <v>14</v>
+      </c>
+      <c r="BA166">
+        <v>4</v>
+      </c>
+      <c r="BB166">
+        <v>4</v>
+      </c>
+      <c r="BC166">
+        <v>8</v>
+      </c>
+      <c r="BD166">
+        <v>1.69</v>
+      </c>
+      <c r="BE166">
+        <v>7.5</v>
+      </c>
+      <c r="BF166">
+        <v>2.65</v>
+      </c>
+      <c r="BG166">
+        <v>1.16</v>
+      </c>
+      <c r="BH166">
+        <v>4.5</v>
+      </c>
+      <c r="BI166">
+        <v>1.4</v>
+      </c>
+      <c r="BJ166">
+        <v>2.73</v>
+      </c>
+      <c r="BK166">
+        <v>1.67</v>
+      </c>
+      <c r="BL166">
+        <v>2.07</v>
+      </c>
+      <c r="BM166">
+        <v>2.08</v>
+      </c>
+      <c r="BN166">
+        <v>1.66</v>
+      </c>
+      <c r="BO166">
+        <v>2.7</v>
+      </c>
+      <c r="BP166">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7476723</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F167">
+        <v>15</v>
+      </c>
+      <c r="G167" t="s">
+        <v>81</v>
+      </c>
+      <c r="H167" t="s">
+        <v>86</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>205</v>
+      </c>
+      <c r="P167" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q167">
+        <v>2.3</v>
+      </c>
+      <c r="R167">
+        <v>2.2</v>
+      </c>
+      <c r="S167">
+        <v>5</v>
+      </c>
+      <c r="T167">
+        <v>1.4</v>
+      </c>
+      <c r="U167">
+        <v>2.75</v>
+      </c>
+      <c r="V167">
+        <v>2.75</v>
+      </c>
+      <c r="W167">
+        <v>1.4</v>
+      </c>
+      <c r="X167">
+        <v>8</v>
+      </c>
+      <c r="Y167">
+        <v>1.08</v>
+      </c>
+      <c r="Z167">
+        <v>1.67</v>
+      </c>
+      <c r="AA167">
+        <v>3.75</v>
+      </c>
+      <c r="AB167">
+        <v>5</v>
+      </c>
+      <c r="AC167">
+        <v>1.04</v>
+      </c>
+      <c r="AD167">
+        <v>12</v>
+      </c>
+      <c r="AE167">
+        <v>1.3</v>
+      </c>
+      <c r="AF167">
+        <v>3.5</v>
+      </c>
+      <c r="AG167">
+        <v>1.9</v>
+      </c>
+      <c r="AH167">
+        <v>1.8</v>
+      </c>
+      <c r="AI167">
+        <v>1.83</v>
+      </c>
+      <c r="AJ167">
+        <v>1.83</v>
+      </c>
+      <c r="AK167">
+        <v>1.18</v>
+      </c>
+      <c r="AL167">
+        <v>1.22</v>
+      </c>
+      <c r="AM167">
+        <v>2.15</v>
+      </c>
+      <c r="AN167">
+        <v>2.5</v>
+      </c>
+      <c r="AO167">
+        <v>1.67</v>
+      </c>
+      <c r="AP167">
+        <v>2.29</v>
+      </c>
+      <c r="AQ167">
+        <v>1.57</v>
+      </c>
+      <c r="AR167">
+        <v>1.52</v>
+      </c>
+      <c r="AS167">
+        <v>1</v>
+      </c>
+      <c r="AT167">
+        <v>2.52</v>
+      </c>
+      <c r="AU167">
+        <v>3</v>
+      </c>
+      <c r="AV167">
+        <v>2</v>
+      </c>
+      <c r="AW167">
+        <v>6</v>
+      </c>
+      <c r="AX167">
+        <v>2</v>
+      </c>
+      <c r="AY167">
+        <v>13</v>
+      </c>
+      <c r="AZ167">
+        <v>4</v>
+      </c>
+      <c r="BA167">
+        <v>6</v>
+      </c>
+      <c r="BB167">
+        <v>3</v>
+      </c>
+      <c r="BC167">
+        <v>9</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>0</v>
+      </c>
+      <c r="BG167">
+        <v>0</v>
+      </c>
+      <c r="BH167">
+        <v>0</v>
+      </c>
+      <c r="BI167">
+        <v>0</v>
+      </c>
+      <c r="BJ167">
+        <v>0</v>
+      </c>
+      <c r="BK167">
+        <v>0</v>
+      </c>
+      <c r="BL167">
+        <v>0</v>
+      </c>
+      <c r="BM167">
+        <v>0</v>
+      </c>
+      <c r="BN167">
+        <v>0</v>
+      </c>
+      <c r="BO167">
+        <v>0</v>
+      </c>
+      <c r="BP167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7476722</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>80</v>
+      </c>
+      <c r="H168" t="s">
+        <v>89</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>206</v>
+      </c>
+      <c r="P168" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q168">
+        <v>2.3</v>
+      </c>
+      <c r="R168">
+        <v>2.2</v>
+      </c>
+      <c r="S168">
+        <v>5</v>
+      </c>
+      <c r="T168">
+        <v>1.36</v>
+      </c>
+      <c r="U168">
+        <v>3</v>
+      </c>
+      <c r="V168">
+        <v>2.75</v>
+      </c>
+      <c r="W168">
+        <v>1.4</v>
+      </c>
+      <c r="X168">
+        <v>8</v>
+      </c>
+      <c r="Y168">
+        <v>1.08</v>
+      </c>
+      <c r="Z168">
+        <v>1.73</v>
+      </c>
+      <c r="AA168">
+        <v>3.75</v>
+      </c>
+      <c r="AB168">
+        <v>4.75</v>
+      </c>
+      <c r="AC168">
+        <v>1.04</v>
+      </c>
+      <c r="AD168">
+        <v>12</v>
+      </c>
+      <c r="AE168">
+        <v>1.28</v>
+      </c>
+      <c r="AF168">
+        <v>3.6</v>
+      </c>
+      <c r="AG168">
+        <v>1.85</v>
+      </c>
+      <c r="AH168">
+        <v>1.85</v>
+      </c>
+      <c r="AI168">
+        <v>1.8</v>
+      </c>
+      <c r="AJ168">
+        <v>1.91</v>
+      </c>
+      <c r="AK168">
+        <v>1.18</v>
+      </c>
+      <c r="AL168">
+        <v>1.22</v>
+      </c>
+      <c r="AM168">
+        <v>2.15</v>
+      </c>
+      <c r="AN168">
+        <v>1</v>
+      </c>
+      <c r="AO168">
+        <v>0.86</v>
+      </c>
+      <c r="AP168">
+        <v>1.29</v>
+      </c>
+      <c r="AQ168">
+        <v>0.75</v>
+      </c>
+      <c r="AR168">
+        <v>1.25</v>
+      </c>
+      <c r="AS168">
+        <v>0.8</v>
+      </c>
+      <c r="AT168">
+        <v>2.05</v>
+      </c>
+      <c r="AU168">
+        <v>7</v>
+      </c>
+      <c r="AV168">
+        <v>3</v>
+      </c>
+      <c r="AW168">
+        <v>5</v>
+      </c>
+      <c r="AX168">
+        <v>4</v>
+      </c>
+      <c r="AY168">
+        <v>17</v>
+      </c>
+      <c r="AZ168">
+        <v>11</v>
+      </c>
+      <c r="BA168">
+        <v>7</v>
+      </c>
+      <c r="BB168">
+        <v>2</v>
+      </c>
+      <c r="BC168">
+        <v>9</v>
+      </c>
+      <c r="BD168">
+        <v>0</v>
+      </c>
+      <c r="BE168">
+        <v>0</v>
+      </c>
+      <c r="BF168">
+        <v>0</v>
+      </c>
+      <c r="BG168">
+        <v>0</v>
+      </c>
+      <c r="BH168">
+        <v>0</v>
+      </c>
+      <c r="BI168">
+        <v>0</v>
+      </c>
+      <c r="BJ168">
+        <v>0</v>
+      </c>
+      <c r="BK168">
+        <v>0</v>
+      </c>
+      <c r="BL168">
+        <v>0</v>
+      </c>
+      <c r="BM168">
+        <v>1.98</v>
+      </c>
+      <c r="BN168">
+        <v>1.82</v>
+      </c>
+      <c r="BO168">
+        <v>0</v>
+      </c>
+      <c r="BP168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7476720</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" t="s">
+        <v>78</v>
+      </c>
+      <c r="H169" t="s">
+        <v>91</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169" t="s">
+        <v>207</v>
+      </c>
+      <c r="P169" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q169">
+        <v>2.5</v>
+      </c>
+      <c r="R169">
+        <v>2.2</v>
+      </c>
+      <c r="S169">
+        <v>4.33</v>
+      </c>
+      <c r="T169">
+        <v>1.36</v>
+      </c>
+      <c r="U169">
+        <v>3</v>
+      </c>
+      <c r="V169">
+        <v>2.75</v>
+      </c>
+      <c r="W169">
+        <v>1.4</v>
+      </c>
+      <c r="X169">
+        <v>7</v>
+      </c>
+      <c r="Y169">
+        <v>1.1</v>
+      </c>
+      <c r="Z169">
+        <v>1.91</v>
+      </c>
+      <c r="AA169">
+        <v>3.5</v>
+      </c>
+      <c r="AB169">
+        <v>3.9</v>
+      </c>
+      <c r="AC169">
+        <v>1.04</v>
+      </c>
+      <c r="AD169">
+        <v>12</v>
+      </c>
+      <c r="AE169">
+        <v>1.3</v>
+      </c>
+      <c r="AF169">
+        <v>3.5</v>
+      </c>
+      <c r="AG169">
+        <v>1.82</v>
+      </c>
+      <c r="AH169">
+        <v>1.88</v>
+      </c>
+      <c r="AI169">
+        <v>1.73</v>
+      </c>
+      <c r="AJ169">
+        <v>2</v>
+      </c>
+      <c r="AK169">
+        <v>1.28</v>
+      </c>
+      <c r="AL169">
+        <v>1.25</v>
+      </c>
+      <c r="AM169">
+        <v>1.87</v>
+      </c>
+      <c r="AN169">
+        <v>1.57</v>
+      </c>
+      <c r="AO169">
+        <v>1</v>
+      </c>
+      <c r="AP169">
+        <v>1.75</v>
+      </c>
+      <c r="AQ169">
+        <v>0.88</v>
+      </c>
+      <c r="AR169">
+        <v>1.18</v>
+      </c>
+      <c r="AS169">
+        <v>1.06</v>
+      </c>
+      <c r="AT169">
+        <v>2.24</v>
+      </c>
+      <c r="AU169">
+        <v>12</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>4</v>
+      </c>
+      <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>20</v>
+      </c>
+      <c r="AZ169">
+        <v>12</v>
+      </c>
+      <c r="BA169">
+        <v>7</v>
+      </c>
+      <c r="BB169">
+        <v>5</v>
+      </c>
+      <c r="BC169">
+        <v>12</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>0</v>
+      </c>
+      <c r="BG169">
+        <v>0</v>
+      </c>
+      <c r="BH169">
+        <v>0</v>
+      </c>
+      <c r="BI169">
+        <v>0</v>
+      </c>
+      <c r="BJ169">
+        <v>0</v>
+      </c>
+      <c r="BK169">
+        <v>1.88</v>
+      </c>
+      <c r="BL169">
+        <v>1.92</v>
+      </c>
+      <c r="BM169">
+        <v>0</v>
+      </c>
+      <c r="BN169">
+        <v>0</v>
+      </c>
+      <c r="BO169">
+        <v>0</v>
+      </c>
+      <c r="BP169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7476717</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F170">
+        <v>15</v>
+      </c>
+      <c r="G170" t="s">
+        <v>75</v>
+      </c>
+      <c r="H170" t="s">
+        <v>92</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>118</v>
+      </c>
+      <c r="P170" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q170">
+        <v>3</v>
+      </c>
+      <c r="R170">
+        <v>2.2</v>
+      </c>
+      <c r="S170">
+        <v>3.4</v>
+      </c>
+      <c r="T170">
+        <v>1.36</v>
+      </c>
+      <c r="U170">
+        <v>3</v>
+      </c>
+      <c r="V170">
+        <v>2.75</v>
+      </c>
+      <c r="W170">
+        <v>1.4</v>
+      </c>
+      <c r="X170">
+        <v>7</v>
+      </c>
+      <c r="Y170">
+        <v>1.1</v>
+      </c>
+      <c r="Z170">
+        <v>2.4</v>
+      </c>
+      <c r="AA170">
+        <v>3.3</v>
+      </c>
+      <c r="AB170">
+        <v>2.8</v>
+      </c>
+      <c r="AC170">
+        <v>1.04</v>
+      </c>
+      <c r="AD170">
+        <v>13</v>
+      </c>
+      <c r="AE170">
+        <v>1.25</v>
+      </c>
+      <c r="AF170">
+        <v>3.75</v>
+      </c>
+      <c r="AG170">
+        <v>1.75</v>
+      </c>
+      <c r="AH170">
+        <v>1.96</v>
+      </c>
+      <c r="AI170">
+        <v>1.67</v>
+      </c>
+      <c r="AJ170">
+        <v>2.1</v>
+      </c>
+      <c r="AK170">
+        <v>1.44</v>
+      </c>
+      <c r="AL170">
+        <v>1.25</v>
+      </c>
+      <c r="AM170">
+        <v>1.57</v>
+      </c>
+      <c r="AN170">
+        <v>1.17</v>
+      </c>
+      <c r="AO170">
+        <v>1.14</v>
+      </c>
+      <c r="AP170">
+        <v>1.43</v>
+      </c>
+      <c r="AQ170">
+        <v>1</v>
+      </c>
+      <c r="AR170">
+        <v>1.56</v>
+      </c>
+      <c r="AS170">
+        <v>1.24</v>
+      </c>
+      <c r="AT170">
+        <v>2.8</v>
+      </c>
+      <c r="AU170">
+        <v>2</v>
+      </c>
+      <c r="AV170">
+        <v>5</v>
+      </c>
+      <c r="AW170">
+        <v>4</v>
+      </c>
+      <c r="AX170">
+        <v>10</v>
+      </c>
+      <c r="AY170">
+        <v>8</v>
+      </c>
+      <c r="AZ170">
+        <v>18</v>
+      </c>
+      <c r="BA170">
+        <v>6</v>
+      </c>
+      <c r="BB170">
+        <v>11</v>
+      </c>
+      <c r="BC170">
+        <v>17</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>0</v>
+      </c>
+      <c r="BG170">
+        <v>0</v>
+      </c>
+      <c r="BH170">
+        <v>0</v>
+      </c>
+      <c r="BI170">
+        <v>0</v>
+      </c>
+      <c r="BJ170">
+        <v>0</v>
+      </c>
+      <c r="BK170">
+        <v>0</v>
+      </c>
+      <c r="BL170">
+        <v>0</v>
+      </c>
+      <c r="BM170">
+        <v>0</v>
+      </c>
+      <c r="BN170">
+        <v>0</v>
+      </c>
+      <c r="BO170">
+        <v>0</v>
+      </c>
+      <c r="BP170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7476718</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F171">
+        <v>15</v>
+      </c>
+      <c r="G171" t="s">
+        <v>76</v>
+      </c>
+      <c r="H171" t="s">
+        <v>90</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
+        <v>208</v>
+      </c>
+      <c r="P171" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q171">
+        <v>3.75</v>
+      </c>
+      <c r="R171">
+        <v>2.05</v>
+      </c>
+      <c r="S171">
+        <v>3.1</v>
+      </c>
+      <c r="T171">
+        <v>1.5</v>
+      </c>
+      <c r="U171">
+        <v>2.5</v>
+      </c>
+      <c r="V171">
+        <v>3.4</v>
+      </c>
+      <c r="W171">
+        <v>1.3</v>
+      </c>
+      <c r="X171">
+        <v>10</v>
+      </c>
+      <c r="Y171">
+        <v>1.06</v>
+      </c>
+      <c r="Z171">
+        <v>2.88</v>
+      </c>
+      <c r="AA171">
+        <v>3.3</v>
+      </c>
+      <c r="AB171">
+        <v>2.38</v>
+      </c>
+      <c r="AC171">
+        <v>1.07</v>
+      </c>
+      <c r="AD171">
+        <v>9</v>
+      </c>
+      <c r="AE171">
+        <v>1.4</v>
+      </c>
+      <c r="AF171">
+        <v>2.9</v>
+      </c>
+      <c r="AG171">
+        <v>2.12</v>
+      </c>
+      <c r="AH171">
+        <v>1.64</v>
+      </c>
+      <c r="AI171">
+        <v>1.91</v>
+      </c>
+      <c r="AJ171">
+        <v>1.8</v>
+      </c>
+      <c r="AK171">
+        <v>1.57</v>
+      </c>
+      <c r="AL171">
+        <v>1.28</v>
+      </c>
+      <c r="AM171">
+        <v>1.38</v>
+      </c>
+      <c r="AN171">
+        <v>1.71</v>
+      </c>
+      <c r="AO171">
+        <v>2.29</v>
+      </c>
+      <c r="AP171">
+        <v>1.88</v>
+      </c>
+      <c r="AQ171">
+        <v>2</v>
+      </c>
+      <c r="AR171">
+        <v>1.33</v>
+      </c>
+      <c r="AS171">
+        <v>1.38</v>
+      </c>
+      <c r="AT171">
+        <v>2.71</v>
+      </c>
+      <c r="AU171">
+        <v>2</v>
+      </c>
+      <c r="AV171">
+        <v>0</v>
+      </c>
+      <c r="AW171">
+        <v>2</v>
+      </c>
+      <c r="AX171">
+        <v>3</v>
+      </c>
+      <c r="AY171">
+        <v>5</v>
+      </c>
+      <c r="AZ171">
+        <v>6</v>
+      </c>
+      <c r="BA171">
+        <v>3</v>
+      </c>
+      <c r="BB171">
+        <v>1</v>
+      </c>
+      <c r="BC171">
+        <v>4</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>0</v>
+      </c>
+      <c r="BG171">
+        <v>0</v>
+      </c>
+      <c r="BH171">
+        <v>0</v>
+      </c>
+      <c r="BI171">
+        <v>0</v>
+      </c>
+      <c r="BJ171">
+        <v>0</v>
+      </c>
+      <c r="BK171">
+        <v>0</v>
+      </c>
+      <c r="BL171">
+        <v>0</v>
+      </c>
+      <c r="BM171">
+        <v>0</v>
+      </c>
+      <c r="BN171">
+        <v>0</v>
+      </c>
+      <c r="BO171">
+        <v>0</v>
+      </c>
+      <c r="BP171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7476715</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>70</v>
+      </c>
+      <c r="H172" t="s">
+        <v>84</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>3</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>101</v>
+      </c>
+      <c r="P172" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q172">
+        <v>2.1</v>
+      </c>
+      <c r="R172">
+        <v>2.4</v>
+      </c>
+      <c r="S172">
+        <v>5.5</v>
+      </c>
+      <c r="T172">
+        <v>1.3</v>
+      </c>
+      <c r="U172">
+        <v>3.4</v>
+      </c>
+      <c r="V172">
+        <v>2.5</v>
+      </c>
+      <c r="W172">
+        <v>1.5</v>
+      </c>
+      <c r="X172">
+        <v>6</v>
+      </c>
+      <c r="Y172">
+        <v>1.13</v>
+      </c>
+      <c r="Z172">
+        <v>1.5</v>
+      </c>
+      <c r="AA172">
+        <v>4.2</v>
+      </c>
+      <c r="AB172">
+        <v>5.5</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>15</v>
+      </c>
+      <c r="AE172">
+        <v>1.2</v>
+      </c>
+      <c r="AF172">
+        <v>4.5</v>
+      </c>
+      <c r="AG172">
+        <v>1.65</v>
+      </c>
+      <c r="AH172">
+        <v>2.11</v>
+      </c>
+      <c r="AI172">
+        <v>1.73</v>
+      </c>
+      <c r="AJ172">
+        <v>2</v>
+      </c>
+      <c r="AK172">
+        <v>1.12</v>
+      </c>
+      <c r="AL172">
+        <v>1.17</v>
+      </c>
+      <c r="AM172">
+        <v>2.5</v>
+      </c>
+      <c r="AN172">
+        <v>1.29</v>
+      </c>
+      <c r="AO172">
+        <v>0.5</v>
+      </c>
+      <c r="AP172">
+        <v>1.13</v>
+      </c>
+      <c r="AQ172">
+        <v>0.86</v>
+      </c>
+      <c r="AR172">
+        <v>1.48</v>
+      </c>
+      <c r="AS172">
+        <v>1.34</v>
+      </c>
+      <c r="AT172">
+        <v>2.82</v>
+      </c>
+      <c r="AU172">
+        <v>5</v>
+      </c>
+      <c r="AV172">
+        <v>6</v>
+      </c>
+      <c r="AW172">
+        <v>5</v>
+      </c>
+      <c r="AX172">
+        <v>2</v>
+      </c>
+      <c r="AY172">
+        <v>14</v>
+      </c>
+      <c r="AZ172">
+        <v>9</v>
+      </c>
+      <c r="BA172">
+        <v>7</v>
+      </c>
+      <c r="BB172">
+        <v>1</v>
+      </c>
+      <c r="BC172">
+        <v>8</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>0</v>
+      </c>
+      <c r="BG172">
+        <v>0</v>
+      </c>
+      <c r="BH172">
+        <v>0</v>
+      </c>
+      <c r="BI172">
+        <v>0</v>
+      </c>
+      <c r="BJ172">
+        <v>0</v>
+      </c>
+      <c r="BK172">
+        <v>1.88</v>
+      </c>
+      <c r="BL172">
+        <v>1.92</v>
+      </c>
+      <c r="BM172">
+        <v>0</v>
+      </c>
+      <c r="BN172">
+        <v>0</v>
+      </c>
+      <c r="BO172">
+        <v>0</v>
+      </c>
+      <c r="BP172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7476714</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F173">
+        <v>15</v>
+      </c>
+      <c r="G173" t="s">
+        <v>73</v>
+      </c>
+      <c r="H173" t="s">
+        <v>83</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>148</v>
+      </c>
+      <c r="P173" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q173">
+        <v>3.2</v>
+      </c>
+      <c r="R173">
+        <v>2.1</v>
+      </c>
+      <c r="S173">
+        <v>3.25</v>
+      </c>
+      <c r="T173">
+        <v>1.4</v>
+      </c>
+      <c r="U173">
+        <v>2.75</v>
+      </c>
+      <c r="V173">
+        <v>2.75</v>
+      </c>
+      <c r="W173">
+        <v>1.4</v>
+      </c>
+      <c r="X173">
+        <v>8</v>
+      </c>
+      <c r="Y173">
+        <v>1.08</v>
+      </c>
+      <c r="Z173">
+        <v>2.6</v>
+      </c>
+      <c r="AA173">
+        <v>3.3</v>
+      </c>
+      <c r="AB173">
+        <v>2.63</v>
+      </c>
+      <c r="AC173">
+        <v>1.05</v>
+      </c>
+      <c r="AD173">
+        <v>10</v>
+      </c>
+      <c r="AE173">
+        <v>1.33</v>
+      </c>
+      <c r="AF173">
+        <v>3.3</v>
+      </c>
+      <c r="AG173">
+        <v>1.9</v>
+      </c>
+      <c r="AH173">
+        <v>1.8</v>
+      </c>
+      <c r="AI173">
+        <v>1.73</v>
+      </c>
+      <c r="AJ173">
+        <v>2</v>
+      </c>
+      <c r="AK173">
+        <v>1.47</v>
+      </c>
+      <c r="AL173">
+        <v>1.28</v>
+      </c>
+      <c r="AM173">
+        <v>1.5</v>
+      </c>
+      <c r="AN173">
+        <v>1.43</v>
+      </c>
+      <c r="AO173">
+        <v>1.33</v>
+      </c>
+      <c r="AP173">
+        <v>1.38</v>
+      </c>
+      <c r="AQ173">
+        <v>1.29</v>
+      </c>
+      <c r="AR173">
+        <v>1.27</v>
+      </c>
+      <c r="AS173">
+        <v>1.3</v>
+      </c>
+      <c r="AT173">
+        <v>2.57</v>
+      </c>
+      <c r="AU173">
+        <v>6</v>
+      </c>
+      <c r="AV173">
+        <v>6</v>
+      </c>
+      <c r="AW173">
+        <v>6</v>
+      </c>
+      <c r="AX173">
+        <v>5</v>
+      </c>
+      <c r="AY173">
+        <v>16</v>
+      </c>
+      <c r="AZ173">
+        <v>13</v>
+      </c>
+      <c r="BA173">
+        <v>3</v>
+      </c>
+      <c r="BB173">
+        <v>2</v>
+      </c>
+      <c r="BC173">
+        <v>5</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>0</v>
+      </c>
+      <c r="BG173">
+        <v>0</v>
+      </c>
+      <c r="BH173">
+        <v>0</v>
+      </c>
+      <c r="BI173">
+        <v>0</v>
+      </c>
+      <c r="BJ173">
+        <v>0</v>
+      </c>
+      <c r="BK173">
+        <v>0</v>
+      </c>
+      <c r="BL173">
+        <v>0</v>
+      </c>
+      <c r="BM173">
+        <v>0</v>
+      </c>
+      <c r="BN173">
+        <v>0</v>
+      </c>
+      <c r="BO173">
+        <v>0</v>
+      </c>
+      <c r="BP173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7476713</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F174">
+        <v>15</v>
+      </c>
+      <c r="G174" t="s">
+        <v>72</v>
+      </c>
+      <c r="H174" t="s">
+        <v>85</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>209</v>
+      </c>
+      <c r="P174" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q174">
+        <v>2.75</v>
+      </c>
+      <c r="R174">
+        <v>2.05</v>
+      </c>
+      <c r="S174">
+        <v>4.33</v>
+      </c>
+      <c r="T174">
+        <v>1.44</v>
+      </c>
+      <c r="U174">
+        <v>2.63</v>
+      </c>
+      <c r="V174">
+        <v>3.4</v>
+      </c>
+      <c r="W174">
+        <v>1.3</v>
+      </c>
+      <c r="X174">
+        <v>10</v>
+      </c>
+      <c r="Y174">
+        <v>1.06</v>
+      </c>
+      <c r="Z174">
+        <v>2.1</v>
+      </c>
+      <c r="AA174">
+        <v>3.3</v>
+      </c>
+      <c r="AB174">
+        <v>3.6</v>
+      </c>
+      <c r="AC174">
+        <v>1.08</v>
+      </c>
+      <c r="AD174">
+        <v>8.5</v>
+      </c>
+      <c r="AE174">
+        <v>1.4</v>
+      </c>
+      <c r="AF174">
+        <v>2.95</v>
+      </c>
+      <c r="AG174">
+        <v>2.09</v>
+      </c>
+      <c r="AH174">
+        <v>1.66</v>
+      </c>
+      <c r="AI174">
+        <v>2</v>
+      </c>
+      <c r="AJ174">
+        <v>1.73</v>
+      </c>
+      <c r="AK174">
+        <v>1.28</v>
+      </c>
+      <c r="AL174">
+        <v>1.28</v>
+      </c>
+      <c r="AM174">
+        <v>1.75</v>
+      </c>
+      <c r="AN174">
+        <v>2</v>
+      </c>
+      <c r="AO174">
+        <v>0.67</v>
+      </c>
+      <c r="AP174">
+        <v>1.88</v>
+      </c>
+      <c r="AQ174">
+        <v>0.71</v>
+      </c>
+      <c r="AR174">
+        <v>1.45</v>
+      </c>
+      <c r="AS174">
+        <v>1.13</v>
+      </c>
+      <c r="AT174">
+        <v>2.58</v>
+      </c>
+      <c r="AU174">
+        <v>3</v>
+      </c>
+      <c r="AV174">
+        <v>4</v>
+      </c>
+      <c r="AW174">
+        <v>4</v>
+      </c>
+      <c r="AX174">
+        <v>0</v>
+      </c>
+      <c r="AY174">
+        <v>11</v>
+      </c>
+      <c r="AZ174">
+        <v>5</v>
+      </c>
+      <c r="BA174">
+        <v>5</v>
+      </c>
+      <c r="BB174">
+        <v>3</v>
+      </c>
+      <c r="BC174">
+        <v>8</v>
+      </c>
+      <c r="BD174">
+        <v>1.59</v>
+      </c>
+      <c r="BE174">
+        <v>7.5</v>
+      </c>
+      <c r="BF174">
+        <v>2.92</v>
+      </c>
+      <c r="BG174">
+        <v>0</v>
+      </c>
+      <c r="BH174">
+        <v>0</v>
+      </c>
+      <c r="BI174">
+        <v>0</v>
+      </c>
+      <c r="BJ174">
+        <v>0</v>
+      </c>
+      <c r="BK174">
+        <v>1.82</v>
+      </c>
+      <c r="BL174">
+        <v>1.98</v>
+      </c>
+      <c r="BM174">
+        <v>0</v>
+      </c>
+      <c r="BN174">
+        <v>0</v>
+      </c>
+      <c r="BO174">
+        <v>0</v>
+      </c>
+      <c r="BP174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7476712</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F175">
+        <v>15</v>
+      </c>
+      <c r="G175" t="s">
+        <v>71</v>
+      </c>
+      <c r="H175" t="s">
+        <v>87</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>101</v>
+      </c>
+      <c r="P175" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q175">
+        <v>2.25</v>
+      </c>
+      <c r="R175">
+        <v>2.25</v>
+      </c>
+      <c r="S175">
+        <v>5.5</v>
+      </c>
+      <c r="T175">
+        <v>1.36</v>
+      </c>
+      <c r="U175">
+        <v>3</v>
+      </c>
+      <c r="V175">
+        <v>2.75</v>
+      </c>
+      <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>8</v>
+      </c>
+      <c r="Y175">
+        <v>1.08</v>
+      </c>
+      <c r="Z175">
+        <v>1.62</v>
+      </c>
+      <c r="AA175">
+        <v>3.9</v>
+      </c>
+      <c r="AB175">
+        <v>5</v>
+      </c>
+      <c r="AC175">
+        <v>1.04</v>
+      </c>
+      <c r="AD175">
+        <v>12</v>
+      </c>
+      <c r="AE175">
+        <v>1.28</v>
+      </c>
+      <c r="AF175">
+        <v>3.6</v>
+      </c>
+      <c r="AG175">
+        <v>1.85</v>
+      </c>
+      <c r="AH175">
+        <v>1.85</v>
+      </c>
+      <c r="AI175">
+        <v>1.83</v>
+      </c>
+      <c r="AJ175">
+        <v>1.83</v>
+      </c>
+      <c r="AK175">
+        <v>1.16</v>
+      </c>
+      <c r="AL175">
+        <v>1.2</v>
+      </c>
+      <c r="AM175">
+        <v>2.3</v>
+      </c>
+      <c r="AN175">
+        <v>3</v>
+      </c>
+      <c r="AO175">
+        <v>1.71</v>
+      </c>
+      <c r="AP175">
+        <v>2.5</v>
+      </c>
+      <c r="AQ175">
+        <v>1.88</v>
+      </c>
+      <c r="AR175">
+        <v>1.56</v>
+      </c>
+      <c r="AS175">
+        <v>1.1</v>
+      </c>
+      <c r="AT175">
+        <v>2.66</v>
+      </c>
+      <c r="AU175">
+        <v>6</v>
+      </c>
+      <c r="AV175">
+        <v>4</v>
+      </c>
+      <c r="AW175">
+        <v>9</v>
+      </c>
+      <c r="AX175">
+        <v>4</v>
+      </c>
+      <c r="AY175">
+        <v>18</v>
+      </c>
+      <c r="AZ175">
+        <v>9</v>
+      </c>
+      <c r="BA175">
+        <v>6</v>
+      </c>
+      <c r="BB175">
+        <v>1</v>
+      </c>
+      <c r="BC175">
+        <v>7</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>0</v>
+      </c>
+      <c r="BG175">
+        <v>0</v>
+      </c>
+      <c r="BH175">
+        <v>0</v>
+      </c>
+      <c r="BI175">
+        <v>0</v>
+      </c>
+      <c r="BJ175">
+        <v>0</v>
+      </c>
+      <c r="BK175">
+        <v>0</v>
+      </c>
+      <c r="BL175">
+        <v>0</v>
+      </c>
+      <c r="BM175">
+        <v>0</v>
+      </c>
+      <c r="BN175">
+        <v>0</v>
+      </c>
+      <c r="BO175">
+        <v>0</v>
+      </c>
+      <c r="BP175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7476716</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>74</v>
+      </c>
+      <c r="H176" t="s">
+        <v>93</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>162</v>
+      </c>
+      <c r="P176" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q176">
+        <v>2.38</v>
+      </c>
+      <c r="R176">
+        <v>2.38</v>
+      </c>
+      <c r="S176">
+        <v>4.33</v>
+      </c>
+      <c r="T176">
+        <v>1.3</v>
+      </c>
+      <c r="U176">
+        <v>3.4</v>
+      </c>
+      <c r="V176">
+        <v>2.5</v>
+      </c>
+      <c r="W176">
+        <v>1.5</v>
+      </c>
+      <c r="X176">
+        <v>6</v>
+      </c>
+      <c r="Y176">
+        <v>1.13</v>
+      </c>
+      <c r="Z176">
+        <v>1.87</v>
+      </c>
+      <c r="AA176">
+        <v>3.6</v>
+      </c>
+      <c r="AB176">
+        <v>3.9</v>
+      </c>
+      <c r="AC176">
+        <v>1.02</v>
+      </c>
+      <c r="AD176">
+        <v>15</v>
+      </c>
+      <c r="AE176">
+        <v>1.2</v>
+      </c>
+      <c r="AF176">
+        <v>4.5</v>
+      </c>
+      <c r="AG176">
+        <v>1.62</v>
+      </c>
+      <c r="AH176">
+        <v>2.16</v>
+      </c>
+      <c r="AI176">
+        <v>1.57</v>
+      </c>
+      <c r="AJ176">
+        <v>2.25</v>
+      </c>
+      <c r="AK176">
+        <v>1.25</v>
+      </c>
+      <c r="AL176">
+        <v>1.22</v>
+      </c>
+      <c r="AM176">
+        <v>1.95</v>
+      </c>
+      <c r="AN176">
+        <v>1.86</v>
+      </c>
+      <c r="AO176">
+        <v>1.86</v>
+      </c>
+      <c r="AP176">
+        <v>1.75</v>
+      </c>
+      <c r="AQ176">
+        <v>1.75</v>
+      </c>
+      <c r="AR176">
+        <v>1.32</v>
+      </c>
+      <c r="AS176">
+        <v>1.23</v>
+      </c>
+      <c r="AT176">
+        <v>2.55</v>
+      </c>
+      <c r="AU176">
+        <v>7</v>
+      </c>
+      <c r="AV176">
+        <v>5</v>
+      </c>
+      <c r="AW176">
+        <v>7</v>
+      </c>
+      <c r="AX176">
+        <v>1</v>
+      </c>
+      <c r="AY176">
+        <v>20</v>
+      </c>
+      <c r="AZ176">
+        <v>10</v>
+      </c>
+      <c r="BA176">
+        <v>9</v>
+      </c>
+      <c r="BB176">
+        <v>3</v>
+      </c>
+      <c r="BC176">
+        <v>12</v>
+      </c>
+      <c r="BD176">
+        <v>0</v>
+      </c>
+      <c r="BE176">
+        <v>0</v>
+      </c>
+      <c r="BF176">
+        <v>0</v>
+      </c>
+      <c r="BG176">
+        <v>0</v>
+      </c>
+      <c r="BH176">
+        <v>0</v>
+      </c>
+      <c r="BI176">
+        <v>0</v>
+      </c>
+      <c r="BJ176">
+        <v>0</v>
+      </c>
+      <c r="BK176">
+        <v>0</v>
+      </c>
+      <c r="BL176">
+        <v>0</v>
+      </c>
+      <c r="BM176">
+        <v>0</v>
+      </c>
+      <c r="BN176">
+        <v>0</v>
+      </c>
+      <c r="BO176">
+        <v>0</v>
+      </c>
+      <c r="BP176">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20242025.xlsx
@@ -35673,7 +35673,7 @@
         <v>45605.5</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G168" t="s">
         <v>80</v>
@@ -35879,7 +35879,7 @@
         <v>45605.5</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G169" t="s">
         <v>78</v>
@@ -37321,7 +37321,7 @@
         <v>45605.5</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G176" t="s">
         <v>74</v>
